--- a/ocr_output/基金策略.xlsx
+++ b/ocr_output/基金策略.xlsx
@@ -1,15 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:dbsheet="http://web.wps.cn/et/2021/dbsheet">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView windowWidth="22500" windowHeight="14820"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -44,192 +57,6 @@
   </si>
   <si>
     <t>2025-11-18_民生证券_基金分析报告：核心资产基金池：超额稳中有升</t>
-  </si>
-  <si>
-    <t>2025-11-18_民生证券_基金分析报告：深度价值基金池：保持绝对收益</t>
-  </si>
-  <si>
-    <t>2025-11-18_民生证券_成长价值基金池202511：高年度胜率</t>
-  </si>
-  <si>
-    <t>2025-11-20_东莞证券_公募基金2026上半年投资策略：（可公开）以盈利为帆，配置下一轮阿尔法</t>
-  </si>
-  <si>
-    <t>2025-11-20_华龙证券_ETF配置策略跟踪报告：市场风格再平衡，均衡配置为主</t>
-  </si>
-  <si>
-    <t>2025-11-24_金融街证券_行业轮动ETF策略周报</t>
-  </si>
-  <si>
-    <t>2025-11-25_国金证券_公募指增及量化基金经理精选系列十：自适应与解释性共进，算法博弈复杂市场</t>
-  </si>
-  <si>
-    <t>2025-11-26_上海证券_基金市场周报：银行板块表现较优，主动投资债券基金平均收益相对领先</t>
-  </si>
-  <si>
-    <t>2025-11-26_大同证券_“千问”开启公测，将如何改变AI应用生态格局？</t>
-  </si>
-  <si>
-    <t>2025-12-01_国泰海通_国泰海通证券12月基金投资策略：A_股出现阶段性回调，相对偏向成长配置风格</t>
-  </si>
-  <si>
-    <t>2025-12-01_金融街证券_行业轮动ETF策略周报</t>
-  </si>
-  <si>
-    <t>2025-12-02_上海证券_ETF组合策略月度跟踪报告（2025年11月）</t>
-  </si>
-  <si>
-    <t>2025-12-03_渤海证券_公募基金2026年年度投资策略：风险偏好持续上升，成长风格占据市场主导</t>
-  </si>
-  <si>
-    <t>2025-12-03_金融街证券_ETF科普系列：ETF托管结算业务概览，券结与降费重塑机构生态</t>
-  </si>
-  <si>
-    <t>2025-12-09_东莞证券_ETF基金周报：中证A500类ETF基金获资金青睐</t>
-  </si>
-  <si>
-    <t>2025-12-11_华宝证券_基金配置策略报告：静待春季行情，延续均衡配置</t>
-  </si>
-  <si>
-    <t>2025-12-12_财信证券_基金市场2026年年度策略报告：守静笃，再平衡</t>
-  </si>
-  <si>
-    <t>2025-12-15_华宝证券_ETF策略指数跟踪周报</t>
-  </si>
-  <si>
-    <t>2025-12-16_东莞证券_ETF基金周报：资金布局红利类策略趋势明显</t>
-  </si>
-  <si>
-    <t>2025-12-16_国金证券_跟踪资金流系列专题（四）：基于_ETF_持有人结构资金流因子的行业轮动策略</t>
-  </si>
-  <si>
-    <t>2025-12-16_财信证券_基金周报：中债利率下行，本周新基金发行速度整体放缓</t>
-  </si>
-  <si>
-    <t>2025-12-17_华龙证券_TS策略每日信号跟踪</t>
-  </si>
-  <si>
-    <t>2025-12-18_财信证券_年内新成立ETF-FOF产品规模已超28亿</t>
-  </si>
-  <si>
-    <t>2025-12-21_金融街证券_北交所专题报告（三）：两年定开主题基金开放窗口已至，或迎来配置机遇</t>
-  </si>
-  <si>
-    <t>2025-12-22_华龙证券_股票型ETF每日交易数据跟踪</t>
-  </si>
-  <si>
-    <t>2025-12-22_国泰海通_投资者微观行为洞察手册・12_月第_3_期：ETF_大幅流入，外资持续流入_A_股</t>
-  </si>
-  <si>
-    <t>2025-12-22_渤海证券_公募基金周报：中证A500ETF流入规模超300亿元，中证东盟数字经济主题指数发布</t>
-  </si>
-  <si>
-    <t>2025-12-22_金融街证券_行业轮动ETF策略周报(20251215-20251219)</t>
-  </si>
-  <si>
-    <t>2025-12-22_麦高证券_ETF周报（20251215-20251219）</t>
-  </si>
-  <si>
-    <t>2025-12-23_华龙证券_股票型ETF每日交易数据跟踪</t>
-  </si>
-  <si>
-    <t>2025-12-25_华龙证券_TS策略每日信号跟踪</t>
-  </si>
-  <si>
-    <t>2025-12-25_华龙证券_股票型ETF每日交易数据跟踪</t>
-  </si>
-  <si>
-    <t>2025-12-28_银河证券_公募基金市场观察系列：被动投资升温，聚焦多元化ETF配置与指数增强基金</t>
-  </si>
-  <si>
-    <t>2025-12-29_上海证券_REITs市场跟踪双周报：两只REITs扩募完成，二级市场表现分化</t>
-  </si>
-  <si>
-    <t>2025-12-29_华龙证券_TS策略每日信号跟踪</t>
-  </si>
-  <si>
-    <t>2025-12-30_华龙证券_公募基金2026年配置策略报告：类债防守+科技进攻+风险对冲</t>
-  </si>
-  <si>
-    <t>2025-12-31_华龙证券_TS策略每日信号跟踪</t>
-  </si>
-  <si>
-    <t>2025-12-31_华龙证券_股票型ETF基金2025年业绩分析报告：资产配置更趋“哑铃化”与“理性化”</t>
-  </si>
-  <si>
-    <t>2025-12-31_华龙证券_股票型ETF每日交易数据跟踪</t>
-  </si>
-  <si>
-    <t>2025-12-31_渤海证券_基金专题报告：强化学习在大类资产配置中的应用初探</t>
-  </si>
-  <si>
-    <t>2025-12-31_西南证券_国泰量化策略收益A：打造“宏观研判+多策略”主动量化框架</t>
-  </si>
-  <si>
-    <t>2025-12-31_银河证券_银河金工公募基金市场观察系列研究：主动权益基金发展现状与配置策略</t>
-  </si>
-  <si>
-    <t>2026-01-05_国泰海通_国泰海通证券1月基金投资策略：跨年行情下A股上涨，相对偏向成长配置风格</t>
-  </si>
-  <si>
-    <t>2026-01-05_大同证券_CES2026即将开幕，如何抓住上车机会？</t>
-  </si>
-  <si>
-    <t>2026-01-09_上海证券_2026年度全球资产配置和国内基金投资策略：重塑预期，回归价值</t>
-  </si>
-  <si>
-    <t>2026-01-09_上海证券_ETF组合策略月度跟踪报告（2025年12月）</t>
-  </si>
-  <si>
-    <t>2026-01-09_大同证券_安信基金陈鹏：专注于成长投资的十七年老将</t>
-  </si>
-  <si>
-    <t>2026-01-14_利得基金_1月ETF轮动策略月报</t>
-  </si>
-  <si>
-    <t>2026-01-14_华宝证券_基金配置策略报告（2026年1月期）：权益市场多点开花，建议关注景气主线</t>
-  </si>
-  <si>
-    <t>2026-01-19_金融街证券_行业轮动ETF策略周报</t>
-  </si>
-  <si>
-    <t>2026-01-22_国信证券_公募基金2025年四季报点评：减科技消费，加周期制造</t>
-  </si>
-  <si>
-    <t>2026-01-22_国金证券_2026年度公募主动权益基金投资策略及基金经理精选：莫道桑榆晚，为霞尚满天</t>
-  </si>
-  <si>
-    <t>2026-01-23_华创证券_25Q4基金季报点评：加周期金融地产，减消费TMT</t>
-  </si>
-  <si>
-    <t>2026-01-23_国盛证券_2025Q4基金仓位解析：四季度基金调仓五大看点</t>
-  </si>
-  <si>
-    <t>2026-01-23_银河证券_公募基金2025年四季度持仓有哪些看点？</t>
-  </si>
-  <si>
-    <t>2026-01-24_国泰海通_2025Q4基金持仓分析：Q4基金动向：增配AI基建与价值股</t>
-  </si>
-  <si>
-    <t>2026-01-25_东吴证券_策略周评_20260124：基金四季报，透露了哪些重要线索？</t>
-  </si>
-  <si>
-    <t>2026-01-25_中泰证券_宽基ETF资金大幅流出：规模，节奏与影响</t>
-  </si>
-  <si>
-    <t>2026-01-26_华泰证券_2025年四季度基金持仓分析：负债端压力缓解</t>
-  </si>
-  <si>
-    <t>2026-01-26_大同证券_基金研究周报：酒泉市商业航天产业发展规划出炉，可关注哪些机会？</t>
-  </si>
-  <si>
-    <t>2026-01-27_东方财富证券_25Q4基金持仓及文本透视：布局顺周期，基金经理如何展望2026？</t>
-  </si>
-  <si>
-    <t>2026-01-27_华鑫证券_2026年量化和基金研究年度策略：公募新规下的ETF组合投资元年</t>
-  </si>
-  <si>
-    <t>2026-01-30_华创证券_25Q4基金季报专题研究：四类基金画像：加仓、减仓、调仓、极致风格</t>
   </si>
   <si>
     <t>基金分析报告
@@ -586,6 +413,24 @@
 深圳：深圳市福田区中心四路 1 号嘉里建设广场 1 座 10 层 01 室； 518048</t>
   </si>
   <si>
+    <t>2026-02-03 00:06:29</t>
+  </si>
+  <si>
+    <t>```json
+{
+"category": "A_基金相关",
+"score": 8,
+"reason": "构建核心资产基金池，从赛道龙头、资源禀赋等四维度定义核心资产，筛选低Beta高现金流基金，提供10只精选基金标的及详细画像分析，具备可复用的基金评价框架。"
+}
+```</t>
+  </si>
+  <si>
+    <t>2026-02-03 07:35:25</t>
+  </si>
+  <si>
+    <t>2025-11-18_民生证券_基金分析报告：深度价值基金池：保持绝对收益</t>
+  </si>
+  <si>
     <t># 深度价值基金池 202511：保持绝对收益
 2025 年 11 月 18 日
 ➢ 深度价值属于格雷厄姆“捡烟蒂”式投资方式。按内在价值定义的不确定性程度和估算难度，价值投资理念可大致分为：深度价值、成长价值、景气价值。深度价值的投资理念源自于格雷厄姆，在 1929-1933 年美国经济大萧条期间，许多股票价格远远低于其清算价值，投资此类股票即便是立刻清算也可获得不错的收益。
@@ -930,6 +775,21 @@
 上海：上海市虹口区杨树浦路 188 号星立方大厦 7 层； 200082
 北京：北京市东城区建国门内大街 28 号民生金融中心 A 座18 层； 100005
 深圳：深圳市福田区中心四路 1 号嘉里建设广场 1 座 10 层 01 室； 518048</t>
+  </si>
+  <si>
+    <t>```json
+{
+"category": "A_基金相关",
+"score": 8,
+"reason": "基于BP因子和盈利预期构建深度价值基金筛选框架，提供具体基金名单及详细画像分析，对FOF配置具有直接参考价值。"
+}
+```</t>
+  </si>
+  <si>
+    <t>2026-02-03 07:35:30</t>
+  </si>
+  <si>
+    <t>2025-11-18_民生证券_成长价值基金池202511：高年度胜率</t>
   </si>
   <si>
     <t># 成长价值基金池 202511：高年度胜率
@@ -1291,6 +1151,21 @@
 深圳：深圳市福田区中心四路 1 号嘉里建设广场 1 座 10 层 01 室； 518048</t>
   </si>
   <si>
+    <t>```json
+{
+"category": "A_基金相关",
+"score": 8,
+"reason": "基于PB-ROE因子筛选成长价值型基金，构建高年度胜率基金池，提供10只精选基金及详细画像分析，具备明确配置价值与复用框架。"
+}
+```</t>
+  </si>
+  <si>
+    <t>2026-02-03 07:35:26</t>
+  </si>
+  <si>
+    <t>2025-11-20_东莞证券_公募基金2026上半年投资策略：（可公开）以盈利为帆，配置下一轮阿尔法</t>
+  </si>
+  <si>
     <t># （可公开）以盈利为帆，配置下一轮阿尔法
 公募基金2026上半年投资策略
 2025 年 11 月 20 日
@@ -1514,6 +1389,21 @@
 网址：www.dgzq.com.cn</t>
   </si>
   <si>
+    <t>```json
+{
+"category": "A_基金相关",
+"score": 7,
+"reason": "基于盈利拐点与出海战略，推荐具备选股能力的主动权益基金及有色、锂电、创新药等行业ETF配置，判断大盘成长风格占优。"
+}
+```</t>
+  </si>
+  <si>
+    <t>2026-02-03 07:35:23</t>
+  </si>
+  <si>
+    <t>2025-11-20_华龙证券_ETF配置策略跟踪报告：市场风格再平衡，均衡配置为主</t>
+  </si>
+  <si>
     <t>公募基金
 报告日期：2025 年 11 月 19 日
 # 市场风格再平衡，均衡配置为主
@@ -1682,6 +1572,21 @@
 邮编：518046</t>
   </si>
   <si>
+    <t>```json
+{
+"category": "B_ETF策略",
+"score": 8,
+"reason": "提供哑铃型ETF配置策略及具体产品池，基于政策与风格研判给出均衡配置建议"
+}
+```</t>
+  </si>
+  <si>
+    <t>2026-02-03 07:35:20</t>
+  </si>
+  <si>
+    <t>2025-11-24_金融街证券_行业轮动ETF策略周报</t>
+  </si>
+  <si>
     <t>证券研究报告·策略周报
 2025年11月24日
 证券分析师：张一
@@ -1722,6 +1627,21 @@
 本公司及作者在自身所知情范围内，与本报告中所评价或推荐的证券不存在法律法规要求披露或采取限制、静默措施的利益冲突。
 本报告版权仅为本公司所有，未经书面许可，任何机构和个人不得以任何形式将研报内容和相关信息对外公布、转发、转载、传播、复制、编辑、修改、引用等。如有上述违法行为，本公司保留追究相关法律责任的权利。
 市场有风险，投资需谨慎。投资者不应将本报告作为作出投资决策的唯一参考因素，亦不应认为本报告可以取代自己的判断。在决定投资前，如有需要，投资者务必向专业人士咨询并谨慎决策。</t>
+  </si>
+  <si>
+    <t>```json
+{
+"category": "G_定期报告",
+"score": 6,
+"reason": "基于行业轮动模型的ETF组合周度跟踪，提供调仓清单与择时信号，属常规策略维护"
+}
+```</t>
+  </si>
+  <si>
+    <t>2026-02-03 07:36:00</t>
+  </si>
+  <si>
+    <t>2025-11-25_国金证券_公募指增及量化基金经理精选系列十：自适应与解释性共进，算法博弈复杂市场</t>
   </si>
   <si>
     <t># 公募指增及量化基金经理精选
@@ -1984,6 +1904,21 @@
 风险模型和组合优化：在采用 Barra 体系的基础上，进行了自研与定制化改造。在传统风险因子的基础上，引入了更具市场针对性的风格因子以及关键的板块因子；进行了更贴合国内投资逻辑的行业分类；运用大语言模型通过解析上市公司公告、研报、新闻等文本信息，构建更加精细化的股票相似度矩阵，实现对因“隐性关联”导致的协同风险的管理。从运行结果来看，天弘中证 500 指数增强任职以来报告期平均行业偏离度和成分股偏离度均不超过 0.7%，很好地</t>
   </si>
   <si>
+    <t>```json
+{
+"category": "A_基金相关",
+"score": 8,
+"reason": "深度剖析五位公募量化基金经理的AI与多因子投资框架、风控特征及业绩归因，为FOF选基提供可复用的分析维度和配置参考。"
+}
+```</t>
+  </si>
+  <si>
+    <t>2026-02-03 07:35:24</t>
+  </si>
+  <si>
+    <t>2025-11-26_上海证券_基金市场周报：银行板块表现较优，主动投资债券基金平均收益相对领先</t>
+  </si>
+  <si>
     <t>报告日期：2025年11月24日
 本期（2025.11.17-2025.11.21）上证指数下跌 $3 . 9 0 \%$ ，深证成指下跌 5.13%。申万一级行业均下跌，其中银行和传媒行业表现相对较好。海外权益市场重要指数跌多涨少，国际黄金价格下跌。本期各类型基金均下跌。主动投资股票基金较上期下跌 $5 , 2 5 \%$ ，主动投资混合基金下跌$4 . 3 7 \%$ ，主动投资债券基金下跌 $0 . 1 3 \%$ ；QDII 基金下跌 $2 . 5 4 \%$ 。
 图 1、基金指数近一年收益率走势  
@@ -2057,6 +1992,16 @@
 # 风险提示
 本报告中的信息均来源于已公开的资料与第三方数据，我公司对这些信息的准确性及完整性不作任何保证，也不保证本公司作出的任何建议不会发生任何变更。报告中对样本数据的抽样方法和结论，本公司保有最终解释权。本报告中的信息仅供参考，不构成任何投资建议和承诺。我公司不对任何人因使用本报告中的任何内容所引致的损失负责。我公司及其关联机构可能会持有报告中提到的公司所发行的证券并进行交易，还可能为这些公司提供或争取提供投资银行或财务顾问服务。业绩表现数据仅代表过去的表现，不保证未来结果。评价结果并不是对未来表现的预测，也不应视作投资基金的建议。
 本报告版权归上海证券有限责任公司所有。未获得上海证券有限责任公司事先书面授权，任何人不得对本报告进行任何形式的发布、复制。如遵循原文本意地引用、刊发，需注明出处为“上海证券基金评价研究中心”。</t>
+  </si>
+  <si>
+    <t>{
+"category": "G_定期报告",
+"score": 3,
+"reason": "基金周报，仅罗列本周市场及各类基金业绩数据，无投资方法、策略框架或明确投资建议，属常规数据跟踪。"
+}</t>
+  </si>
+  <si>
+    <t>2025-11-26_大同证券_“千问”开启公测，将如何改变AI应用生态格局？</t>
   </si>
   <si>
     <t># “千问”开启公测，将如何改变 AI 应用生态格局？
@@ -2163,6 +2108,21 @@
 本报告版权为大同证券有限责任公司所有，未经书面许可，任何机构和个人不得以任何形式翻版、复制和发布。如引用需注明出处为大同证券研究部，且不得对本报告进行有悖原意的引用、删节和修改。
 # 分析师承诺：
 本人、本人配偶及本人的利害关系人与报告内容所涉标的公司不涉及利益冲突。</t>
+  </si>
+  <si>
+    <t>```json
+{
+"category": "A_基金相关",
+"score": 6,
+"reason": "基金配置周报，基于AI/固态电池等热点事件推荐主题基金，提出杠铃策略配置思路，但主要为短期事件驱动，缺乏深度量化分析框架"
+}
+```</t>
+  </si>
+  <si>
+    <t>2026-02-03 07:35:34</t>
+  </si>
+  <si>
+    <t>2025-12-01_国泰海通_国泰海通证券12月基金投资策略：A_股出现阶段性回调，相对偏向成长配置风格</t>
   </si>
   <si>
     <t># 国泰海通证券 12 月基金投资策略
@@ -2376,6 +2336,21 @@
 （021）38676666</t>
   </si>
   <si>
+    <t>```json
+{
+"category": "A_基金相关",
+"score": 8,
+"reason": "月度基金策略报告，提供具体基金推荐名单、大类资产配置方案及基于净值回归的仓位测算模型，兼具可执行性与方法参考价值"
+}
+```</t>
+  </si>
+  <si>
+    <t>2026-02-03 07:35:33</t>
+  </si>
+  <si>
+    <t>2025-12-01_金融街证券_行业轮动ETF策略周报</t>
+  </si>
+  <si>
     <t>证券研究报告·策略周报
 2025年12月1日
 证券分析师：张一
@@ -2414,6 +2389,19 @@
 本报告所载的资料、意见及推测仅反映本公司于发布本报告当日的判断，本报告所指的证券或投资标的价格、价值及投资收入可升可跌，过往表现不应作为日后的表现依据；在不同时期，本公司可以发出其他与本报告所载信息不一致及有不同结论的报告；本报告所反映研究人员的不同观点、见解及分析方法，并不代表本公司或其他附属机构的立场；本公司不保证本报告所含信息保持在最新状态。同时，本公司对本报告所含信息可在不发出通知的情形下做出修改，投资者应当自行关注相应的更新或修改。
 本公司及作者在自身所知情范围内，与本报告中所评价或推荐的证券不存在法律法规要求披露或采取限制、静默措施的利益冲突。本报告版权仅为本公司所有，未经书面许可，任何机构和个人不得以任何形式将研报内容和相关信息对外公布、转发、转载、传播、复制、编辑、修改、引用等。如有上述违法行为，本公司保留追究相关法律责任的权利。
 市场有风险，投资需谨慎。投资者不应将本报告作为作出投资决策的唯一参考因素，亦不应认为本报告可以取代自己的判断。在决定投资前，如有需要，投资者务必向专业人士咨询并谨慎决策。</t>
+  </si>
+  <si>
+    <t>{
+"category": "B_ETF策略",
+"score": 8,
+"reason": "基于行业轮动的ETF组合策略，提供具体调仓标的与择时信号，附带样本外业绩追踪，具备可执行性。"
+}</t>
+  </si>
+  <si>
+    <t>2026-02-03 07:35:36</t>
+  </si>
+  <si>
+    <t>2025-12-02_上海证券_ETF组合策略月度跟踪报告（2025年11月）</t>
   </si>
   <si>
     <t>![](images/d0032cd1f69f75431ed9191e4a535e7d0d81f48995dd438c58aac67cc725665e.jpg)
@@ -2572,6 +2560,19 @@
 # 风险提示
 本报告中的信息均来源于已公开的资料与第三方数据，我公司对这些信息的准确性及完整性不作任何保证，也不保证本公司作出的任何建议不会发生任何变更。报告中对样本数据的抽样方法和结论，本公司保有最终解释权。本报告中的信息仅供参考，不构成任何投资建议和承诺。我公司不对任何人因使用本报告中的任何内容所引致的损失负责。我公司及其关联机构可能会持有报告中提到的公司所发行的证券并进行交易，还可能为这些公司提供或争取提供投资银行或财务顾问服务。业绩表现数据仅代表过去的表现，不保证未来结果。评价结果并不是对未来表现的预测，也不应视作投资基金的建议。
 本报告版权归上海证券有限责任公司所有。未获得上海证券有限责任公司事先书面授权，任何人不得对本报告进行任何形式的发布、复制。如遵循原文本意地引用、刊发，需注明出处为“上海证券基金评价研究中心”。</t>
+  </si>
+  <si>
+    <t>{
+"category": "G_定期报告",
+"score": 7,
+"reason": "系统跟踪7类ETF配置策略月度表现，涵盖风格轮动、风险平价、资产轮动等框架，提供可复现的组合管理方法与风险指标，适合作为ETF配置工具参考。"
+}</t>
+  </si>
+  <si>
+    <t>2026-02-03 07:35:43</t>
+  </si>
+  <si>
+    <t>2025-12-03_渤海证券_公募基金2026年年度投资策略：风险偏好持续上升，成长风格占据市场主导</t>
   </si>
   <si>
     <t># 风险偏好持续上升，成长风格占据市场主导
@@ -2793,6 +2794,21 @@
 &lt;table&gt;&lt;tr&gt;&lt;td&gt;证券代码&lt;/td&gt;&lt;td&gt;证券名称&lt;/td&gt;&lt;td&gt;基金规模(亿元)&lt;/td&gt;&lt;td&gt;基金经理(现任)&lt;/td&gt;&lt;td&gt;收益率(%)&lt;/td&gt;&lt;td&gt;最大回撤(%)&lt;/td&gt;&lt;td&gt;Calmar 比率&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;007406.OF&lt;/td&gt;&lt;td&gt;银河睿鑫债券&lt;/td&gt;&lt;td&gt;0.01&lt;/td&gt;&lt;td&gt;刘铭&lt;/td&gt;&lt;td&gt;4.64&lt;/td&gt;&lt;td&gt;1.15&lt;/td&gt;&lt;td&gt;4.46&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;004102.OF&lt;/td&gt;&lt;td&gt;中信保诚稳悦债券A&lt;/td&gt;&lt;td&gt;0.59&lt;/td&gt;&lt;td&gt;吴秋君&lt;/td&gt;&lt;td&gt;4.06&lt;/td&gt;&lt;td&gt;1.66&lt;/td&gt;&lt;td&gt;2.71&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;004400.OF&lt;/td&gt;&lt;td&gt;金信民兴债券A&lt;/td&gt;&lt;td&gt;15.17&lt;/td&gt;&lt;td&gt;杨杰,刘雨卉&lt;/td&gt;&lt;td&gt;3.51&lt;/td&gt;&lt;td&gt;0.66&lt;/td&gt;&lt;td&gt;5.89&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;008549.OF&lt;/td&gt;&lt;td&gt;汇安中债-广西信用债A&lt;/td&gt;&lt;td&gt;1.25&lt;/td&gt;&lt;td&gt;吴乐玉&lt;/td&gt;&lt;td&gt;3.33&lt;/td&gt;&lt;td&gt;0.65&lt;/td&gt;&lt;td&gt;5.63&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;012352.OF&lt;/td&gt;&lt;td&gt;英大通惠多利债券A&lt;/td&gt;&lt;td&gt;9.59&lt;/td&gt;&lt;td&gt;韩坪&lt;/td&gt;&lt;td&gt;3.24&lt;/td&gt;&lt;td&gt;0.70&lt;/td&gt;&lt;td&gt;5.09&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;005369.OF&lt;/td&gt;&lt;td&gt;富国臻利纯债定期开放债券型发起式&lt;/td&gt;&lt;td&gt;47.36&lt;/td&gt;&lt;td&gt;武磊&lt;/td&gt;&lt;td&gt;3.13&lt;/td&gt;&lt;td&gt;1.02&lt;/td&gt;&lt;td&gt;3.38&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;007520.OF&lt;/td&gt;&lt;td&gt;富安达富利纯债债券A&lt;/td&gt;&lt;td&gt;11.68&lt;/td&gt;&lt;td&gt;康佳燕,夏彤&lt;/td&gt;&lt;td&gt;3.13&lt;/td&gt;&lt;td&gt;0.30&lt;/td&gt;&lt;td&gt;11.32&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;021429.OF&lt;/td&gt;&lt;td&gt;中泰安弘债券A&lt;/td&gt;&lt;td&gt;1.49&lt;/td&gt;&lt;td&gt;蔡凤仪,程冰&lt;/td&gt;&lt;td&gt;3.08&lt;/td&gt;&lt;td&gt;1.17&lt;/td&gt;&lt;td&gt;2.90&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;006980.OF&lt;/td&gt;&lt;td&gt;国寿安保泰恒纯债债券&lt;/td&gt;&lt;td&gt;5.59&lt;/td&gt;&lt;td&gt;陶尹斌&lt;/td&gt;&lt;td&gt;3.05&lt;/td&gt;&lt;td&gt;0.64&lt;/td&gt;&lt;td&gt;5.28&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;004246.OF&lt;/td&gt;&lt;td&gt;德邦锐乾债券A&lt;/td&gt;&lt;td&gt;8.46&lt;/td&gt;&lt;td&gt;邹舟,张铮烁,张旭&lt;/td&gt;&lt;td&gt;2.93&lt;/td&gt;&lt;td&gt;0.38&lt;/td&gt;&lt;td&gt;8.46&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;003733.OF&lt;/td&gt;&lt;td&gt;金鹰添裕纯债债券A&lt;/td&gt;&lt;td&gt;8.61&lt;/td&gt;&lt;td&gt;邹卫&lt;/td&gt;&lt;td&gt;2.81&lt;/td&gt;&lt;td&gt;1.33&lt;/td&gt;&lt;td&gt;2.34&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;016210.OF&lt;/td&gt;&lt;td&gt;摩根瑞享纯债债券A&lt;/td&gt;&lt;td&gt;2.53&lt;/td&gt;&lt;td&gt;田原&lt;/td&gt;&lt;td&gt;2.76&lt;/td&gt;&lt;td&gt;0.33&lt;/td&gt;&lt;td&gt;9.36&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;004897.OF&lt;/td&gt;&lt;td&gt;长安泓源纯债债券A&lt;/td&gt;&lt;td&gt;9.58&lt;/td&gt;&lt;td&gt;孟楠&lt;/td&gt;&lt;td&gt;2.74&lt;/td&gt;&lt;td&gt;0.46&lt;/td&gt;&lt;td&gt;6.53&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;002970.OF&lt;/td&gt;&lt;td&gt;博时裕昂纯债债券A&lt;/td&gt;&lt;td&gt;0.26&lt;/td&gt;&lt;td&gt;李俏&lt;/td&gt;&lt;td&gt;2.73&lt;/td&gt;&lt;td&gt;0.34&lt;/td&gt;&lt;td&gt;8.97&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;017214.OF&lt;/td&gt;&lt;td&gt;兴华安聚纯债A&lt;/td&gt;&lt;td&gt;2.13&lt;/td&gt;&lt;td&gt;吕智卓&lt;/td&gt;&lt;td&gt;2.68&lt;/td&gt;&lt;td&gt;1.45&lt;/td&gt;&lt;td&gt;2.03&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;003162.OF&lt;/td&gt;&lt;td&gt;博时富宁纯债债券A&lt;/td&gt;&lt;td&gt;0.33&lt;/td&gt;&lt;td&gt;李秋实&lt;/td&gt;&lt;td&gt;2.65&lt;/td&gt;&lt;td&gt;0.34&lt;/td&gt;&lt;td&gt;8.56&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;006071.OF&lt;/td&gt;&lt;td&gt;银河睿嘉债券A&lt;/td&gt;&lt;td&gt;0.15&lt;/td&gt;&lt;td&gt;蒋磊&lt;/td&gt;&lt;td&gt;2.62&lt;/td&gt;&lt;td&gt;0.31&lt;/td&gt;&lt;td&gt;9.34&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;006826.OF&lt;/td&gt;&lt;td&gt;华宝宝裕债券A&lt;/td&gt;&lt;td&gt;4.15&lt;/td&gt;&lt;td&gt;王慧&lt;/td&gt;&lt;td&gt;2.58&lt;/td&gt;&lt;td&gt;0.58&lt;/td&gt;&lt;td&gt;4.89&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;006184.OF&lt;/td&gt;&lt;td&gt;格林泓鑫纯债A&lt;/td&gt;&lt;td&gt;3.02&lt;/td&gt;&lt;td&gt;尹子昕&lt;/td&gt;&lt;td&gt;2.56&lt;/td&gt;&lt;td&gt;1.58&lt;/td&gt;&lt;td&gt;1.79&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;003039.OF&lt;/td&gt;&lt;t</t>
   </si>
   <si>
+    <t>```json
+{
+"category": "A_基金相关",
+"score": 7,
+"reason": "公募基金2026年度策略，基于资金流向与业绩统计，给出权益/固收/商品基金配置建议，含具体基金推荐与风险展望"
+}
+```</t>
+  </si>
+  <si>
+    <t>2026-02-03 07:35:32</t>
+  </si>
+  <si>
+    <t>2025-12-03_金融街证券_ETF科普系列：ETF托管结算业务概览，券结与降费重塑机构生态</t>
+  </si>
+  <si>
     <t>证券研究报告/策略研究
 2025 年 12 月 02 日
 # ETF托管结算业务概览，券结与降费重塑机构生态
@@ -3012,6 +3028,21 @@
 市场有风险，投资需谨慎。投资者不应将本报告作为作出投资决策的唯一参考因素，亦不应认为本报告可以取代自己的判断。在决定投资前，如有需要，投资者务必向专业人士咨询并谨慎决策。</t>
   </si>
   <si>
+    <t>```json
+{
+"category": "F_专题与系列研究报告",
+"score": 6,
+"reason": "ETF托管结算行业生态分析，梳理券结模式崛起、费率下行趋势及券商份额提升现象，属于ETF科普系列专题"
+}
+```</t>
+  </si>
+  <si>
+    <t>2026-02-03 07:35:41</t>
+  </si>
+  <si>
+    <t>2025-12-09_东莞证券_ETF基金周报：中证A500类ETF基金获资金青睐</t>
+  </si>
+  <si>
     <t># ETF 基金周报（20251201-20251205）：
 中证A500 类ETF 基金获资金青睐
 2025 年 12 月 9 日
@@ -3104,6 +3135,16 @@
 邮政编码：523000
 电话：（0769）22115843
 网址：www.dgzq.com.cn</t>
+  </si>
+  <si>
+    <t>{
+"category": "G_定期报告",
+"score": 5,
+"reason": "ETF周报，跟踪周度资金流向与指数表现，以数据罗列为主，缺乏可复用的投资框架与深度策略建议，适合快速浏览了解市场动态。"
+}</t>
+  </si>
+  <si>
+    <t>2025-12-11_华宝证券_基金配置策略报告：静待春季行情，延续均衡配置</t>
   </si>
   <si>
     <t>2025年12月10日
@@ -3255,6 +3296,18 @@
 ★ 本报告对基金产品的研究分析不应被视为对所述基金产品的评价结果，本报告对所述基金产品的客观数据展示不应被视为对其排名打分的依据。任何个人或机构不得将我方基金产品研究成果作为基金产品评价结果予以公开宣传或不当引用。
 # 适当性申明
 根据证券投资者适当性管理有关法规，该研究报告仅适合专业机构投资者及与我司签订咨询服务协议的普通投资者，若您为非专业投资者及未与我司签订咨询服务协议的投资者，请勿阅读、转载本报告。</t>
+  </si>
+  <si>
+    <t>```json
+{
+"category": "A_基金相关",
+"score": 8,
+"reason": "构建主动权益与固收类基金优选指数，提供具体基金标的名单及均衡配置策略，具备直接参考价值。"
+}
+```</t>
+  </si>
+  <si>
+    <t>2025-12-12_财信证券_基金市场2026年年度策略报告：守静笃，再平衡</t>
   </si>
   <si>
     <t># 基金深度报告（R3）
@@ -3577,6 +3630,16 @@
 基于过去的研究实践基础，基金组合实现较好的风险调整后收益可能是我们希望持续、长期达到的目标。结合公募市场变化等因素，我们对目前模拟的基金组合从风险收益的差异化、品种的流动性和可及性等多方面进行了梳理，并拟对来</t>
   </si>
   <si>
+    <t>{
+"category": "A_基金相关",
+"score": 7,
+"reason": "年度基金策略报告，详述基金组合构建方法论与历史业绩，提供2026年具体基金配置方案及品种名单，含风险调整后收益分析，适合FOF及基金投资者参考。"
+}</t>
+  </si>
+  <si>
+    <t>2025-12-15_华宝证券_ETF策略指数跟踪周报</t>
+  </si>
+  <si>
     <t>2025 年 12 月 15 日
 证券研究报告 | 公募基金周报
 # ETF 策略指数跟踪周报
@@ -3730,6 +3793,21 @@
 $\star$ 根据证券投资者适当性管理有关法规，该研究报告仅适合专业机构投资者及与我司签订咨询服务协议的普通投资者，若您为非专业投资者及未与我司签订咨询服务协议的投资者，请勿阅读、转载本报告。</t>
   </si>
   <si>
+    <t>```json
+{
+"category": "G_定期报告",
+"score": 7,
+"reason": "周报跟踪6种ETF策略指数（大小盘轮动、SmartBeta、行业轮动、久期管理等）的周度绩效与持仓，基于机器学习与多因子模型构建，展示量化方法在ETF配置中的具体应用。"
+}
+```</t>
+  </si>
+  <si>
+    <t>2026-02-03 07:35:58</t>
+  </si>
+  <si>
+    <t>2025-12-16_东莞证券_ETF基金周报：资金布局红利类策略趋势明显</t>
+  </si>
+  <si>
     <t># ETF 基金周报（20251208-20251212）：
 资金布局红利类策略趋势明显
 2025 年 12 月 16 日
@@ -3827,6 +3905,18 @@
 邮政编码：523000
 电话：（0769）22115843
 网址：www.dgzq.com.cn</t>
+  </si>
+  <si>
+    <t>```json
+{
+"category": "G_定期报告",
+"score": 6,
+"reason": "周度ETF市场数据跟踪，分析资金向红利策略及科创债流动趋势，属定期行情监测"
+}
+```</t>
+  </si>
+  <si>
+    <t>2025-12-16_国金证券_跟踪资金流系列专题（四）：基于_ETF_持有人结构资金流因子的行业轮动策略</t>
   </si>
   <si>
     <t># 跟踪资金流系列专题（四）
@@ -4165,6 +4255,19 @@
 &lt;table&gt;&lt;tr&gt;&lt;td&gt;日期&lt;/td&gt;&lt;td&gt;年化收益 率&lt;/td&gt;&lt;td&gt;夏普率&lt;/td&gt;&lt;td&gt;Calmar 比 率&lt;/td&gt;&lt;td&gt;最大回撤&lt;/td&gt;&lt;td&gt;年化超额 收益率&lt;/td&gt;&lt;td&gt;超额夏普 率&lt;/td&gt;&lt;td&gt;超额最大 回撤&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;all&lt;/td&gt;&lt;td&gt;10%&lt;/td&gt;&lt;td&gt;0.54&lt;/td&gt;&lt;td&gt;0.38&lt;/td&gt;&lt;td&gt;26%&lt;/td&gt;&lt;td&gt;8%&lt;/td&gt;&lt;td&gt;0.97&lt;/td&gt;&lt;td&gt;9%&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;2020&lt;/td&gt;&lt;td&gt;28%&lt;/td&gt;&lt;td&gt;1.08&lt;/td&gt;&lt;td&gt;2.13&lt;/td&gt;&lt;td&gt;13%&lt;/td&gt;&lt;td&gt;4%&lt;/td&gt;&lt;td&gt;0.62&lt;/td&gt;&lt;td&gt;4%&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;2021&lt;/td</t>
   </si>
   <si>
+    <t>{
+"category": "F_专题与系列研究报告",
+"score": 8,
+"reason": "系列专题第四篇，创新拆解ETF持有人结构构建行业轮动因子，重点挖掘保险资金的'聪明钱'效应，提供可复用的量化框架与回测验证。"
+}</t>
+  </si>
+  <si>
+    <t>2026-02-03 07:35:31</t>
+  </si>
+  <si>
+    <t>2025-12-16_财信证券_基金周报：中债利率下行，本周新基金发行速度整体放缓</t>
+  </si>
+  <si>
     <t># 基金周度报告（R3）
 # 基金市场
 # 中债利率下行
@@ -4236,6 +4339,18 @@
 邮编：410005
 电话：0731-84403360
 传真：0731-84403438</t>
+  </si>
+  <si>
+    <t>```json
+{
+"category": "G_定期报告",
+"score": 6,
+"reason": "周报形式，罗列市场行情、ETF资金流向及本周新发基金明细，缺乏深度分析与可复用框架。"
+}
+```</t>
+  </si>
+  <si>
+    <t>2025-12-17_华龙证券_TS策略每日信号跟踪</t>
   </si>
   <si>
     <t># TS策略每日信号跟踪
@@ -4315,6 +4430,21 @@
 深圳
 地址：深圳市福田区民田路178号华融大厦辅楼2层
 邮编：518046</t>
+  </si>
+  <si>
+    <t>```json
+{
+"category": "G_定期报告",
+"score": 6,
+"reason": "自适应双模态ETF策略日频跟踪，提供具体持仓与T+1交易指令，适合策略跟随者参考，但属例行数据更新，方法论创新有限"
+}
+```</t>
+  </si>
+  <si>
+    <t>2026-02-03 07:35:57</t>
+  </si>
+  <si>
+    <t>2025-12-18_财信证券_年内新成立ETF-FOF产品规模已超28亿</t>
   </si>
   <si>
     <t># 基金点评报告（R3）
@@ -4405,6 +4535,21 @@
 邮编：410005
 电话：0731-84403360
 传真：0731-84403438</t>
+  </si>
+  <si>
+    <t>```json
+{
+"category": "A_基金相关",
+"score": 7,
+"reason": "分析ETF-FOF新产品业绩基准设计，关注多资产策略指数化趋势，对FOF配置有参考价值"
+}
+```</t>
+  </si>
+  <si>
+    <t>2026-02-03 07:35:42</t>
+  </si>
+  <si>
+    <t>2025-12-21_金融街证券_北交所专题报告（三）：两年定开主题基金开放窗口已至，或迎来配置机遇</t>
   </si>
   <si>
     <t>证券研究报告/策略研究
@@ -4602,6 +4747,21 @@
 金融街证券股份有限公司具有证券投资咨询资格，本公司不会因接收人收到本报告而视其为客户。本报告的信息均来源于公开资料，本公司对这些信息的准确性和完整性不作任何保证，也不保证所包含信息和建议不发生任何变更。本公司已力求报告内容的客观、公正，但文中的观点、结论和建议仅供参考，不包含作者对证券价格涨跌或市场走势的确定性判断。报告中的信息或意见并不构成所述证券的买卖出价或征价，投资者据此做出的任何投资决策与本公司和作者无关。本报告所载的资料、意见及推测仅反映本公司于发布本报告当日的判断，本报告所指的证券或投资标的的价格、价值及投资收入可升可跌，过往表现不应作为日后的表现依据；在不同时期，本公司可以发出其他与本报告所载信息不一致及有不同结论的报告；本报告所反映研究人员的不同观点、见解及分析方法，并不代表本公司或</t>
   </si>
   <si>
+    <t>```json
+{
+"category": "A_基金相关",
+"score": 7,
+"reason": "北交所两年定开基金深度分析，对比两轮开放期业绩、持仓及申赎行为，评估配置价值。"
+}
+```</t>
+  </si>
+  <si>
+    <t>2026-02-03 07:35:40</t>
+  </si>
+  <si>
+    <t>2025-12-22_华龙证券_股票型ETF每日交易数据跟踪</t>
+  </si>
+  <si>
     <t># 股票型ETF每日交易数据跟踪
 - -20251219
 华龙证券研究所 公募基金
@@ -4671,6 +4831,21 @@
 # 深圳
 地址：深圳市福田区民田路178号华融大厦辅楼2层
 邮编：518046</t>
+  </si>
+  <si>
+    <t>```json
+{
+"category": "G_定期报告",
+"score": 5,
+"reason": "每日ETF行情、资金流向及两融数据跟踪，纯数据罗列，无策略框架或深度分析，短期参考价值有限"
+}
+```</t>
+  </si>
+  <si>
+    <t>2026-02-03 07:35:35</t>
+  </si>
+  <si>
+    <t>2025-12-22_国泰海通_投资者微观行为洞察手册・12_月第_3_期：ETF_大幅流入，外资持续流入_A_股</t>
   </si>
   <si>
     <t># ETF 大幅流入，外资持续流入 A 股
@@ -4839,6 +5014,16 @@
 数据来源：Wind，国泰海通证券研究
 表14：股票 ETF 周度资金净流入跟踪：本期 A500ETF、创业板 ETF 等净流入居前  
 &lt;table&gt;&lt;tr&gt;&lt;td&gt;排序&lt;/td&gt;&lt;td&gt;25/12/19&lt;/td&gt;&lt;td&gt;25/12/12&lt;/td&gt;&lt;td&gt;25/12/05&lt;/td&gt;&lt;td&gt;25/11/28&lt;/td&gt;&lt;td&gt;25/11/21&lt;/td&gt;&lt;td&gt;25/11/14&lt;/td&gt;&lt;td&gt;25/11/07&lt;/td&gt;&lt;td&gt;25/10/31&lt;/td&gt;&lt;td&gt;25/10/24&lt;/td&gt;&lt;td&gt;25/10/17&lt;/td&gt;&lt;td&gt;25/10/10&lt;/td&gt;&lt;td&gt;25/09/30&lt;/td&gt;&lt;td&gt;25/09/26&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td colspan="14"&gt;最新一期流入(或流出最少)前十股票ETF(亿元)&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;1&lt;/td&gt;&lt;td&gt;100.9&lt;/td&gt;&lt;td&gt;40.4&lt;/td&gt;&lt;td&gt;22.1&lt;/td&gt;&lt;td&gt;23.4&lt;/td&gt;&lt;td&gt;58.1&lt;/td&gt;&lt;td&gt;25.1&lt;/td&gt;&lt;td&gt;29.4&lt;/td&gt;&lt;td&gt;59.3&lt;/td&gt;&lt;td&gt;9.9&lt;/td&gt;&lt;td&gt;52.9&lt;/td&gt;&lt;td&gt;31.3&lt;/td&gt;&lt;td&gt;53.2&lt;/td&gt;&lt;td&gt;28.7&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;2&lt;/td&gt;&lt;td&gt;86.7&lt;/td&gt;&lt;td&gt;37.7&lt;/td&gt;&lt;td&gt;17.1&lt;/td&gt;&lt;td&gt;6.8&lt;/td&gt;&lt;td&gt;47.3&lt;/td&gt;&lt;td&gt;20.4&lt;/td&gt;&lt;td&gt;14.9&lt;/td&gt;&lt;td&gt;30.0&lt;/td&gt;&lt;td&gt;8.6&lt;/td&gt;&lt;td&gt;32.4&lt;/td&gt;&lt;td&gt;28.6&lt;/td&gt;&lt;td&gt;40.4&lt;/td&gt;&lt;td&gt;25.4&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;3&lt;/td&gt;&lt;td&gt;42.7&lt;/td&gt;&lt;td&gt;20.6&lt;/td&gt;&lt;td&gt;13.0&lt;/td&gt;&lt;td&gt;6.3&lt;/td&gt;&lt;td&gt;45.1&lt;/td&gt;&lt;td&gt;13.9&lt;/td&gt;&lt;td&gt;10.8&lt;/td&gt;&lt;td&gt;24.8&lt;/td&gt;&lt;td&gt;7.6&lt;/td&gt;&lt;td&gt;27.9&lt;/td&gt;&lt;td&gt;27.6&lt;/td&gt;&lt;td&gt;26.5&lt;/td&gt;&lt;td&gt;24.5&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;4&lt;/td&gt;&lt;td&gt;31.6&lt;/td&gt;&lt;td&gt;9.8&lt;/td&gt;&lt;td&gt;12.4&lt;/td&gt;&lt;td&gt;6.2&lt;/td&gt;&lt;td&gt;35.4&lt;/td&gt;&lt;td&gt;10.7&lt;/td&gt;&lt;td&gt;9.2&lt;/td&gt;&lt;td&gt;24.4&lt;/td&gt;&lt;td&gt;7.1&lt;/td&gt;&lt;td&gt;27.8&lt;/td&gt;&lt;td&gt;23.8&lt;/td&gt;&lt;td&gt;23.3&lt;/td&gt;&lt;td&gt;20.9&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;5&lt;/td&gt;&lt;td&gt;30.8&lt;/td&gt;&lt;td&gt;8.6&lt;/td&gt;&lt;td&gt;11.5&lt;/td&gt;&lt;td&gt;5.2&lt;/td&gt;&lt;td&gt;27.2&lt;/td&gt;&lt;td&gt;10.1&lt;/td&gt;&lt;td&gt;8.5&lt;/td&gt;&lt;td&gt;22.7&lt;/td&gt;&lt;td&gt;7.0&lt;/td&gt;&lt;td&gt;17.9&lt;/td&gt;&lt;td&gt;21.7&lt;/td&gt;&lt;td&gt;11.7&lt;/td&gt;&lt;td&gt;19.4&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;6&lt;/td&gt;&lt;td&gt;26.9&lt;/td&gt;&lt;td&gt;8.3&lt;/td&gt;&lt;td&gt;10.3&lt;/td&gt;&lt;td&gt;5.0&lt;/td&gt;&lt;td&gt;24.3&lt;/td&gt;&lt;td&gt;8.2&lt;/td&gt;&lt;td&gt;8.3&lt;/td&gt;&lt;td&gt;19.2&lt;/td&gt;&lt;td&gt;6.0&lt;/td&gt;&lt;td&gt;16.5&lt;/td&gt;&lt;td&gt;21.0&lt;/td&gt;&lt;td&gt;11.4&lt;/td&gt;&lt;td&gt;14.8&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;7&lt;/td&gt;&lt;td&gt;26.3&lt;/td&gt;&lt;td&gt;8.2&lt;/td&gt;&lt;td&gt;8.9&lt;/td&gt;&lt;td&gt;4.5&lt;/td&gt;&lt;td&gt;19.2&lt;/td&gt;&lt;td&gt;8.2&lt;/td&gt;&lt;td&gt;8.3&lt;/td&gt;&lt;td&gt;17.3&lt;/td&gt;&lt;td&gt;5.9&lt;/td&gt;&lt;td&gt;14.9&lt;/td&gt;&lt;td&gt;18.2&lt;/td&gt;&lt;td&gt;11.1&lt;/td&gt;&lt;td&gt;14.7&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;8&lt;/td&gt;&lt;td&gt;17.8&lt;/td&gt;&lt;td&gt;7.7&lt;/td&gt;&lt;td&gt;8.9&lt;/td&gt;&lt;td&gt;4.1&lt;/td&gt;&lt;td&gt;14.0&lt;/td&gt;&lt;td&gt;6.5&lt;/td&gt;&lt;td&gt;7.7&lt;/td&gt;&lt;td&gt;17.2&lt;/td&gt;&lt;td&gt;4.9&lt;/td&gt;&lt;td&gt;14.2&lt;/td&gt;&lt;td&gt;16.6&lt;/td&gt;&lt;td&gt;9.9&lt;/td&gt;&lt;td&gt;14.4&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;9&lt;/td&gt;&lt;td&gt;13.9&lt;/td&gt;&lt;td&gt;7.7&lt;/td&gt;&lt;td&gt;7.6&lt;/td&gt;&lt;td&gt;3.6&lt;/td&gt;&lt;td&gt;13.5&lt;/td&gt;&lt;td&gt;6.4&lt;/td&gt;&lt;td&gt;7.6&lt;/td&gt;&lt;td&gt;16.9&lt;/td&gt;&lt;td&gt;3.8&lt;/td&gt;&lt;td&gt;14.1&lt;/td&gt;&lt;td&gt;11.8&lt;/td&gt;&lt;td&gt;9.3&lt;/td&gt;&lt;td&gt;13.2&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;10&lt;/td&gt;&lt;td&gt;12.0&lt;/td&gt;&lt;td&gt;6.9&lt;/td&gt;&lt;td&gt;6.5&lt;/td&gt;&lt;td&gt;3.5&lt;/td&gt;&lt;td&gt;10.6&lt;/td&gt;&lt;td&gt;6.0&lt;/td&gt;&lt;td&gt;7.3&lt;/td&gt;&lt;td&gt;10.7&lt;/td&gt;&lt;td&gt;3.7&lt;/td&gt;&lt;td&gt;12.1&lt;/td&gt;&lt;td&gt;11.3&lt;/td&gt;&lt;td&gt;7.2&lt;/td&gt;&lt;td&gt;11.7&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;1&lt;/td&gt;&lt;td&gt;中证A500ETF 南方&lt;/td&gt;&lt;td&gt;中证A500ETF 基金&lt;/td&gt;&lt;td&gt;中证A500ETF 基金&lt;/td&gt;&lt;td&gt;上证50ETF&lt;/td&gt;&lt;td&gt;中证500ETF&lt;/td&gt;&lt;td&gt;科创50ETF&lt;/td&gt;&lt;td&gt;证券ETF&lt;/td&gt;&lt;td&gt;沪深300ETF&lt;/td&gt;&lt;td&gt;券商ETF&lt;/td&gt;&lt;td&gt;银行ETF&lt;/td&gt;&lt;td&gt;科创芯片ETF&lt;/td&gt;&lt;td&gt;人工智能ETF&lt;/td&gt;&lt;td&gt;中证A500ETF 富国&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;2&lt;/td&gt;&lt;td&gt;中证A500ETF 基金&lt;/td&gt;&lt;td&gt;中证A500ETF 南方&lt;/td&gt;&lt;td&gt;NA500ETF 基金&lt;/td&gt;&lt;td&gt;NA500ETF 基 金&lt;/td&gt;&lt;td&gt;</t>
+  </si>
+  <si>
+    <t>{
+"category": "G_定期报告",
+"score": 6,
+"reason": "周度资金流向跟踪报告，涵盖ETF、外资、融资、公募等多维度资金数据，适合监控短期资金面变化，但缺乏策略构建与中长期决策框架。"
+}</t>
+  </si>
+  <si>
+    <t>2025-12-22_渤海证券_公募基金周报：中证A500ETF流入规模超300亿元，中证东盟数字经济主题指数发布</t>
   </si>
   <si>
     <t># 中证 A500ETF 流入规模超 300 亿元，中证东盟数字经济主题指数发布
@@ -5043,6 +5228,21 @@
 渤海证券股份有限公司网址： www.ewww.com.cn</t>
   </si>
   <si>
+    <t>```json
+{
+"category": "G_定期报告",
+"score": 4,
+"reason": "公募基金周报，以ETF流向、基金收益排名、新发基金等数据跟踪为主，缺乏深度研究框架与可执行投资建议，主要供快速浏览获取基础市场信息。"
+}
+```</t>
+  </si>
+  <si>
+    <t>2026-02-03 07:35:53</t>
+  </si>
+  <si>
+    <t>2025-12-22_金融街证券_行业轮动ETF策略周报(20251215-20251219)</t>
+  </si>
+  <si>
     <t># 证券研究报告·策略周报
 2025年12月22日
 证券分析师：张一
@@ -5083,6 +5283,21 @@
 本公司及作者在自身所知情范围内，与本报告中所评价或推荐的证券不存在法律法规要求披露或采取限制、静默措施的利益冲突。
 本报告版权仅为本公司所有，未经书面许可，任何机构和个人不得以任何形式将研报内容和相关信息对外公布、转发、转载、传播、复制、编辑、修改、引用等。如有上述违法行为，本公司保留追究相关法律责任的权利。
 市场有风险，投资需谨慎。投资者不应将本报告作为作出投资决策的唯一参考因素，亦不应认为本报告可以取代自己的判断。在决定投资前，如有需要，投资者务必向专业人士咨询并谨慎决策。</t>
+  </si>
+  <si>
+    <t>```json
+{
+"category": "B_ETF策略",
+"score": 6,
+"reason": "行业轮动ETF策略的周度跟踪，提供具体调仓标的、持仓业绩及量价择时信号，具备执行参考价值但属常规运作更新"
+}
+```</t>
+  </si>
+  <si>
+    <t>2026-02-03 07:36:14</t>
+  </si>
+  <si>
+    <t>2025-12-22_麦高证券_ETF周报（20251215-20251219）</t>
   </si>
   <si>
     <t># ETF 周报（20251215-20251219）
@@ -5252,6 +5467,18 @@
 &lt;table&gt;&lt;tr&gt;&lt;td&gt;姓名&lt;/td&gt;&lt;td&gt;职务&lt;/td&gt;&lt;td&gt;手机&lt;/td&gt;&lt;td&gt;邮箱&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;张旭&lt;/td&gt;&lt;td&gt;机构销售&lt;/td&gt;&lt;td&gt;18195120376&lt;/td&gt;&lt;td&gt;zhangxu01@mgzq.com&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;王佳瑜&lt;/td&gt;&lt;td&gt;机构销售&lt;/td&gt;&lt;td&gt;15393708503&lt;/td&gt;&lt;td&gt;wangjiayu@mgzq.com&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;刘沁然&lt;/td&gt;&lt;td&gt;机构销售&lt;/td&gt;&lt;td&gt;15190951726&lt;/td&gt;&lt;td&gt;liuqinran@mgzq.com&lt;/td&gt;&lt;/tr&gt;&lt;/table&gt;</t>
   </si>
   <si>
+    <t>```json
+{
+"category": "G_定期报告",
+"score": 5,
+"reason": "ETF市场周报，罗列资金流向、成交额等统计数据，缺乏投资策略或深度分析框架，仅适合作为基础数据跟踪参考。"
+}
+```</t>
+  </si>
+  <si>
+    <t>2025-12-23_华龙证券_股票型ETF每日交易数据跟踪</t>
+  </si>
+  <si>
     <t># 股票型ETF每日交易数据跟踪
 - -20251223
 华龙证券研究所 公募基金
@@ -5322,6 +5549,18 @@
 # 深圳
 地址：深圳市福田区民田路178号华融大厦辅楼2层
 邮编：518046</t>
+  </si>
+  <si>
+    <t>```json
+{
+"category": "G_定期报告",
+"score": 2,
+"reason": "每日ETF行情与资金流数据跟踪，无策略构建或深度分析，属常规数据播报"
+}
+```</t>
+  </si>
+  <si>
+    <t>2025-12-25_华龙证券_TS策略每日信号跟踪</t>
   </si>
   <si>
     <t># TS策略每日信号跟踪
@@ -5406,6 +5645,21 @@
 邮编：518046</t>
   </si>
   <si>
+    <t>```json
+{
+"category": "G_定期报告",
+"score": 6,
+"reason": "TS策略日频跟踪，提供ETF调仓信号与净值监控，适合策略使用者跟投，但属日常数据更新，方法论价值有限"
+}
+```</t>
+  </si>
+  <si>
+    <t>2026-02-03 07:36:13</t>
+  </si>
+  <si>
+    <t>2025-12-25_华龙证券_股票型ETF每日交易数据跟踪</t>
+  </si>
+  <si>
     <t># 股票型ETF每日交易数据跟踪
 - -20251224
 华龙证券研究所 公募基金
@@ -5475,6 +5729,19 @@
 # 深圳
 地址：深圳市福田区民田路178号华融大厦辅楼2层
 邮编：518046</t>
+  </si>
+  <si>
+    <t>{
+"category": "G_定期报告",
+"score": 2,
+"reason": "每日ETF行情与资金流向数据跟踪，无投资策略或深度分析，属于例行数据播报"
+}</t>
+  </si>
+  <si>
+    <t>2026-02-03 07:35:45</t>
+  </si>
+  <si>
+    <t>2025-12-28_银河证券_公募基金市场观察系列：被动投资升温，聚焦多元化ETF配置与指数增强基金</t>
   </si>
   <si>
     <t># 被动投资升温，聚焦多元化 ETF 配置与指数增强基金
@@ -5740,6 +6007,16 @@
 褚颖 盫盬盫-盳盫直盭盲盲盰盰chuying_yj@chinastock.com.cn</t>
   </si>
   <si>
+    <t>{
+"category": "F_专题与系列研究报告",
+"score": 7,
+"reason": "系列专题研究被动基金市场格局与资金流向，剖析策略ETF蓝海机遇，对比中美Smart Beta发展差异，提出指数增强与投顾协同创新路径"
+}</t>
+  </si>
+  <si>
+    <t>2025-12-29_上海证券_REITs市场跟踪双周报：两只REITs扩募完成，二级市场表现分化</t>
+  </si>
+  <si>
     <t>报告日期：2025年12月29日
 上海证券基金评价研究中心
 分析师：孙桂平
@@ -5915,6 +6192,18 @@
 本报告版权归上海证券有限责任公司所有。未获得上海证券有限责任公司事先书面授权，任何人不得对本报告进行任何形式的发布、复制。如遵循原文本意地引用、刊发，需注明出处为“上海证券基金评价研究中心”。</t>
   </si>
   <si>
+    <t>```json
+{
+"category": "G_定期报告",
+"score": 6,
+"reason": "REITs市场定期跟踪，涵盖发行、交易、分红及估值数据，适合市场监控但缺乏深度策略与可复现方法"
+}
+```</t>
+  </si>
+  <si>
+    <t>2025-12-29_华龙证券_TS策略每日信号跟踪</t>
+  </si>
+  <si>
     <t># TS策略每日信号跟踪
 - -20251229
 华龙证券研究所 公募基金
@@ -5994,6 +6283,21 @@
 深圳
 地址：深圳市福田区民田路178号华融大厦辅楼2层
 邮编：518046</t>
+  </si>
+  <si>
+    <t>```json
+{
+"category": "G_定期报告",
+"score": 6,
+"reason": "ETF自适应双模态策略的日频信号跟踪，提供具体买卖指令与持仓，适合短期交易参考但方法创新性有限。"
+}
+```</t>
+  </si>
+  <si>
+    <t>2026-02-03 07:35:51</t>
+  </si>
+  <si>
+    <t>2025-12-30_华龙证券_公募基金2026年配置策略报告：类债防守+科技进攻+风险对冲</t>
   </si>
   <si>
     <t># 类债防守+科技进攻+风险对冲
@@ -6409,6 +6713,19 @@
 邮编：518046</t>
   </si>
   <si>
+    <t>{
+"category": "A_基金相关",
+"score": 8,
+"reason": "构建三层动态资产配置框架（压舱石+增长引擎+对冲卫星），基于PMI/社融/波动率信号设计情景化调仓规则，并提供具体公募基金产品落地建议与筛选标准"
+}</t>
+  </si>
+  <si>
+    <t>2026-02-03 07:35:54</t>
+  </si>
+  <si>
+    <t>2025-12-31_华龙证券_TS策略每日信号跟踪</t>
+  </si>
+  <si>
     <t># TS策略每日信号跟踪
 - -20251230
 华龙证券研究所 公募基金
@@ -6489,6 +6806,21 @@
 深圳
 地址：深圳市福田区民田路178号华融大厦辅楼2层
 邮编：518046</t>
+  </si>
+  <si>
+    <t>```json
+{
+"category": "G_定期报告",
+"score": 6,
+"reason": "基于自适应双模态TS策略的ETF日频跟踪，提供模态判定、持仓明细及T+1交易指令，属策略执行层面的定期更新"
+}
+```</t>
+  </si>
+  <si>
+    <t>2026-02-03 07:36:19</t>
+  </si>
+  <si>
+    <t>2025-12-31_华龙证券_股票型ETF基金2025年业绩分析报告：资产配置更趋“哑铃化”与“理性化”</t>
   </si>
   <si>
     <t># 资产配置更趋“哑铃化”与“理性化”
@@ -6635,6 +6967,21 @@
 邮编：518046</t>
   </si>
   <si>
+    <t>```json
+{
+"category": "A_基金相关",
+"score": 6,
+"reason": "股票型ETF年度业绩回顾，总结哑铃化配置特征（宽基+成长+红利），数据详实但偏重历史复盘与现象描述，策略前瞻性有限"
+}
+```</t>
+  </si>
+  <si>
+    <t>2026-02-03 07:35:59</t>
+  </si>
+  <si>
+    <t>2025-12-31_华龙证券_股票型ETF每日交易数据跟踪</t>
+  </si>
+  <si>
     <t># 股票型ETF每日交易数据跟踪
 - -20251231
 华龙证券研究所 公募基金
@@ -6705,6 +7052,21 @@
 # 深圳
 地址：深圳市福田区民田路178号华融大厦辅楼2层
 邮编：518046</t>
+  </si>
+  <si>
+    <t>```json
+{
+"category": "G_定期报告",
+"score": 5,
+"reason": "每日ETF行情、资金流向及融资数据跟踪，纯数据展示，缺乏策略构建与深度分析，仅适合短期交易参考"
+}
+```</t>
+  </si>
+  <si>
+    <t>2026-02-03 07:35:52</t>
+  </si>
+  <si>
+    <t>2025-12-31_渤海证券_基金专题报告：强化学习在大类资产配置中的应用初探</t>
   </si>
   <si>
     <t># 强化学习在大类资产配置中的应用初探
@@ -7023,6 +7385,21 @@
 渤海证券股份有限公司网址： www.bhzq.com</t>
   </si>
   <si>
+    <t>```json
+{
+"category": "D_资产配置与组合管理",
+"score": 8,
+"reason": "将强化学习(PPO/SAC)引入大类资产配置，构建动态决策框架，对比风险平价/预算等传统方法，样本外实证显示更优风险收益比，具备方法创新性和中长期配置参考价值。"
+}
+```</t>
+  </si>
+  <si>
+    <t>2026-02-03 07:35:55</t>
+  </si>
+  <si>
+    <t>2025-12-31_西南证券_国泰量化策略收益A：打造“宏观研判+多策略”主动量化框架</t>
+  </si>
+  <si>
     <t># 国泰量化策略收益 A：打造“宏观研判+多策略”主动量化框架
 # 摘要
 #  基金经理简介
@@ -7306,6 +7683,16 @@
 邮编：400025
 西南证券机构销售团队  
 &lt;table&gt;&lt;tr&gt;&lt;td&gt;区域&lt;/td&gt;&lt;td&gt;姓名&lt;/td&gt;&lt;td&gt;职务&lt;/td&gt;&lt;td&gt;座机&lt;/td&gt;&lt;td&gt;手机&lt;/td&gt;&lt;td&gt;邮箱&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td rowspan="11"&gt;上海&lt;/td&gt;&lt;td&gt;蒋诗烽&lt;/td&gt;&lt;td&gt;院长助理、研究销售部经理、上海销售主管&lt;/td&gt;&lt;td&gt;021-68415309&lt;/td&gt;&lt;td&gt;18621310081&lt;/td&gt;&lt;td&gt;jsf@swsc.com.cn&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;崔露文&lt;/td&gt;&lt;td&gt;销售岗&lt;/td&gt;&lt;td&gt;15642960315&lt;/td&gt;&lt;td&gt;15642960315&lt;/td&gt;&lt;td&gt;clw@swsc.com.cn&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;李煜&lt;/td&gt;&lt;td&gt;销售岗&lt;/td&gt;&lt;td&gt;18801732511&lt;/td&gt;&lt;td&gt;18801732511&lt;/td&gt;&lt;td&gt;yfliyu@swsc.com.cn&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;汪艺&lt;/td&gt;&lt;td&gt;销售岗&lt;/td&gt;&lt;td&gt;13127920536&lt;/td&gt;&lt;td&gt;13127920536&lt;/td&gt;&lt;td&gt;wyyf@swsc.com.cn&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;戴剑箫&lt;/td&gt;&lt;td&gt;销售岗&lt;/td&gt;&lt;td&gt;13524484975&lt;/td&gt;&lt;td&gt;13524484975&lt;/td&gt;&lt;td&gt;daijx@swsc.com.cn&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;李嘉隆&lt;/td&gt;&lt;td&gt;销售岗&lt;/td&gt;&lt;td&gt;15800507223&lt;/td&gt;&lt;td&gt;15800507223&lt;/td&gt;&lt;td&gt;ljlong@swsc.com.cn&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;欧若诗&lt;/td&gt;&lt;td&gt;销售岗&lt;/td&gt;&lt;td&gt;18223769969&lt;/td&gt;&lt;td&gt;18223769969&lt;/td&gt;&lt;td&gt;ors@swsc.com.cn&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;蒋宇洁&lt;/td&gt;&lt;td&gt;销售岗&lt;/td&gt;&lt;td&gt;15905851569&lt;/td&gt;&lt;td&gt;15905851569&lt;/td&gt;&lt;td&gt;jyj@swsc.com.c&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;贾文婷&lt;/td&gt;&lt;td&gt;销售岗&lt;/td&gt;&lt;td&gt;13621609568&lt;/td&gt;&lt;td&gt;13621609568&lt;/td&gt;&lt;td&gt;jiawent@swsc.com.cn&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;张嘉诚&lt;/td&gt;&lt;td&gt;销售岗&lt;/td&gt;&lt;td&gt;18656199319&lt;/td&gt;&lt;td&gt;18656199319&lt;/td&gt;&lt;td&gt;zhangjc@swsc.com.cn&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;毛玮琳&lt;/td&gt;&lt;td&gt;销售岗&lt;/td&gt;&lt;td&gt;18721786793&lt;/td&gt;&lt;td&gt;18721786793&lt;/td&gt;&lt;td&gt;mwl@swsc.com.cn&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td rowspan="6"&gt;北京&lt;/td&gt;&lt;td&gt;李杨&lt;/td&gt;&lt;td&gt;北京销售主管&lt;/td&gt;&lt;td&gt;18601139362&lt;/td&gt;&lt;td&gt;18601139362&lt;/td&gt;&lt;td&gt;yfly@swsc.com.cn&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;张岚&lt;/td&gt;&lt;td&gt;销售岗&lt;/td&gt;&lt;td&gt;18601241803&lt;/td&gt;&lt;td&gt;18601241803&lt;/td&gt;&lt;td&gt;zhanglan@swsc.com.cn&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;姚航&lt;/td&gt;&lt;td&gt;销售岗&lt;/td&gt;&lt;td&gt;15652026677&lt;/td&gt;&lt;td&gt;15652026677&lt;/td&gt;&lt;td&gt;yhang@swsc.com.cn&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;杨薇&lt;/td&gt;&lt;td&gt;销售岗&lt;/td&gt;&lt;td&gt;15652285702&lt;/td&gt;&lt;td&gt;15652285702&lt;/td&gt;&lt;td&gt;yangwei@swsc.com.cn&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;王宇飞&lt;/td&gt;&lt;td&gt;销售岗&lt;/td&gt;&lt;td&gt;18500981866&lt;/td&gt;&lt;td&gt;18500981866&lt;/td&gt;&lt;td&gt;wangyuf@swsc.com&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;王一菲&lt;/td&gt;&lt;td&gt;销售岗&lt;/td&gt;&lt;td&gt;18040060359&lt;/td&gt;&lt;td&gt;18040060359&lt;/td&gt;&lt;td&gt;wyf@swsc.com.cn&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td rowspan="2"&gt;&lt;/td&gt;&lt;td&gt;张鑫&lt;/td&gt;&lt;td&gt;销售岗&lt;/td&gt;&lt;td&gt;15981953220&lt;/td&gt;&lt;td&gt;15981953220&lt;/td&gt;&lt;td&gt;zhxin@swsc.com.cn&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;马冰竹&lt;/td&gt;&lt;td&gt;销售岗&lt;/td&gt;&lt;td&gt;13126590325&lt;/td&gt;&lt;td&gt;13126590325&lt;/td&gt;&lt;td&gt;mbz@swsc.com.cn&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td rowspan="4"&gt;广深&lt;/td&gt;&lt;td&gt;龚之涵&lt;/td&gt;&lt;td&gt;销售岗&lt;/td&gt;&lt;td&gt;15808001926&lt;/td&gt;&lt;td&gt;15808001926&lt;/td&gt;&lt;td&gt;gongzh@swsc.com.cn&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;唐茜露&lt;/td&gt;&lt;td&gt;销售岗&lt;/td&gt;&lt;td&gt;18680348593&lt;/td&gt;&lt;td&gt;18680348593&lt;/td&gt;&lt;td&gt;txl@swsc.com.cn&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;文柳茜&lt;/td&gt;&lt;td&gt;销售岗&lt;/td&gt;&lt;td&gt;13750028702&lt;/td&gt;&lt;td&gt;13750028702&lt;/td&gt;&lt;td&gt;wlq@swsc.com.cn&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;林哲睿&lt;/td&gt;&lt;td&gt;销售岗&lt;/td&gt;&lt;td&gt;15602268757&lt;/td&gt;&lt;td&gt;15602268757&lt;/td&gt;&lt;td&gt;lzr@swsc.com.cn&lt;/td&gt;&lt;/tr&gt;&lt;/table&gt;</t>
+  </si>
+  <si>
+    <t>{
+"category": "A_基金相关",
+"score": 8,
+"reason": "主动量化基金深度分析，构建'宏观研判+多策略'双轮驱动框架，Brinson归因显示超额收益主要源于个股精选，策略动态配置体系具备参考价值"
+}</t>
+  </si>
+  <si>
+    <t>2025-12-31_银河证券_银河金工公募基金市场观察系列研究：主动权益基金发展现状与配置策略</t>
   </si>
   <si>
     <t># 主动权益基金发展现状与配置策略
@@ -7642,6 +8029,19 @@
 &lt;table&gt;&lt;tr&gt;&lt;td&gt;中国银河证券股份有限公司 研究院&lt;/td&gt;&lt;td&gt;机构请致电:&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td rowspan="2"&gt;深圳市福田区金田路3088号中洲大厦20层&lt;/td&gt;&lt;td rowspan="2"&gt;深广地区:&lt;/td&gt;&lt;td&gt;苏一耘&lt;/td&gt;&lt;td&gt;0755-83479312&lt;/td&gt;&lt;td&gt;suyiyun_yj@chinastock.com.cn&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;程曦&lt;/td&gt;&lt;td&gt;0755-83471683&lt;/td&gt;&lt;td&gt;chengxi_yj@chinastock.com.cn&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td rowspan="2"&gt;上海浦东新区富城路99号震旦大厦31层&lt;/td&gt;&lt;td rowspan="2"&gt;上海地区</t>
   </si>
   <si>
+    <t>{
+"category": "F_专题与系列研究报告",
+"score": 8,
+"reason": "构建8维度基金定量指标体系，基于RankIC测试筛选有效因子，构建量化FOF策略实现年化超额10%，提供可复用的基金筛选框架"
+}</t>
+  </si>
+  <si>
+    <t>2026-02-03 07:36:08</t>
+  </si>
+  <si>
+    <t>2026-01-05_国泰海通_国泰海通证券1月基金投资策略：跨年行情下A股上涨，相对偏向成长配置风格</t>
+  </si>
+  <si>
     <t># 国泰海通证券1月基金投资策略
 ■ 跨年行情下A股上涨，相对偏向成长配置风格
 # 本报告导读：
@@ -7853,6 +8253,18 @@
 （021）38676666</t>
   </si>
   <si>
+    <t>```json
+{
+"category": "A_基金相关",
+"score": 7,
+"reason": "月度基金配置策略，提供分风格基金推荐名单及积极/稳健/保守三类风险偏好组合构建方案，附基金仓位测算模型，具备直接决策参考价值。"
+}
+```</t>
+  </si>
+  <si>
+    <t>2026-01-05_大同证券_CES2026即将开幕，如何抓住上车机会？</t>
+  </si>
+  <si>
     <t># CES 2026 即将开幕，如何抓住上车机会？
 # 【20251229-20260104】
 市场回顾：上周权益市场主要指数多数收跌，北证 50 跌幅最大，下跌 $1 , 5 5 \%$ ；申万一级行业跌多涨少，多数行业指数未能跑赢万得全A指数；债券市场长短端利率均有所上行，其中十年期国债上行0.97BP至 $1 . 8 4 7 \%$ ，各类期限利差均有所下行,长短端信用利差走势不一；基金市场中偏股基金指数和二级债基指数均周度收跌，中长期纯债基金指数周度收跌，而短期纯债基金指数周度收涨。
@@ -7960,6 +8372,21 @@
 本报告版权为大同证券有限责任公司所有，未经书面许可，任何机构和个人不得以任何形式翻版、复制和发布。如引用需注明出处为大同证券研究部，且不得对本报告进行有悖原意的引用、删节和修改。
 # 分析师承诺：
 本人、本人配偶及本人的利害关系人与报告内容所涉标的公司不涉及利益冲突。</t>
+  </si>
+  <si>
+    <t>```json
+{
+"category": "A_基金相关",
+"score": 7,
+"reason": "基于CES2026等事件驱动的基金配置策略，提供具体基金推荐及杠铃策略配置思路，具备短期操作参考价值。"
+}
+```</t>
+  </si>
+  <si>
+    <t>2026-02-03 07:36:11</t>
+  </si>
+  <si>
+    <t>2026-01-09_上海证券_2026年度全球资产配置和国内基金投资策略：重塑预期，回归价值</t>
   </si>
   <si>
     <t># 主要观点：
@@ -8378,6 +8805,19 @@
 本报告版权归上海证券有限责任公司所有。未获得上海证券有限责任公司事先书面授权，任何人不得对本报告进行任何形式的发布、复制。如遵循原文本意地引用、刊发，需注明出处为“上海证券基金评价研究中心”。</t>
   </si>
   <si>
+    <t>{
+"category": "D_资产配置与组合管理",
+"score": 8,
+"reason": "2026年大类资产配置年度展望，提出哑铃策略及股债商轮动配置建议，涵盖QDII、权益与固收基金具体投资方案"
+}</t>
+  </si>
+  <si>
+    <t>2026-02-03 07:36:05</t>
+  </si>
+  <si>
+    <t>2026-01-09_上海证券_ETF组合策略月度跟踪报告（2025年12月）</t>
+  </si>
+  <si>
     <t>报告日期：2026年01月08日
 分析师：孙桂平
 执业证书编号：S0870519040001
@@ -8531,6 +8971,21 @@
 本报告版权归上海证券有限责任公司所有。未获得上海证券有限责任公司事先书面授权，任何人不得对本报告进行任何形式的发布、复制。如遵循原文本意地引用、刊发，需注明出处为“上海证券基金评价研究中心”。</t>
   </si>
   <si>
+    <t>```json
+{
+"category": "B_ETF策略",
+"score": 7,
+"reason": "系统跟踪7类ETF策略表现，涵盖风格轮动、二八轮动、风险平价、估值因子等量化配置方法，提供策略逻辑、业绩基准及风险指标对比，具备一定复现参考价值。"
+}
+```</t>
+  </si>
+  <si>
+    <t>2026-02-03 07:36:21</t>
+  </si>
+  <si>
+    <t>2026-01-09_大同证券_安信基金陈鹏：专注于成长投资的十七年老将</t>
+  </si>
+  <si>
     <t># 专注于成长投资的十七年老将
 # 安信基金陈鹏
 ◼ 基金经理陈鹏：是安信基金从外部引入的基金经理，有23年证券从业经验，17 年公募基金管理经验，在管 3 只产品均为主动权益基金；投资策略方面：先自上而下选景气行业、结合价值判断进行分散配置，再自下而上找优势公司、右侧布局，投资逻辑比较清晰。
@@ -8644,6 +9099,19 @@
 本人、本人配偶及本人的利害关系人与报告内容所涉标的公司不涉及利益冲突。</t>
   </si>
   <si>
+    <t>{
+"category": "A_基金相关",
+"score": 7,
+"reason": "深度解析基金经理陈鹏投资框架、业绩归因及风格特征，数据详实，对了解该基金经理及成长投资策略有参考价值。"
+}</t>
+  </si>
+  <si>
+    <t>2026-02-03 07:36:03</t>
+  </si>
+  <si>
+    <t>2026-01-14_利得基金_1月ETF轮动策略月报</t>
+  </si>
+  <si>
     <t>![](images/b0552f67d60da3401467c9d8e9e6bb6e69508cc2331299ae52a5551fddb8d1eb.jpg)  
 国防军工、有色金属、通信、机械设备和石油石化表现靠前
 ![](images/70cb1a9544e659821b9127e3cb99e979490f61a5244e2afb2fba61bb665f2b14.jpg)  
@@ -8749,6 +9217,18 @@
 ![](images/66297fbd6c4ab2a381988bb14782a0282d3d918cfb98309da8cbd78abc8672f6.jpg)  
 资料来源：Wind，利得基金，数据区间2022年1月1日-2025年12月31日
 从ETF组合回测结果来看，2022年至今累计收益率为 $21.5</t>
+  </si>
+  <si>
+    <t>```json
+{
+"category": "B_ETF策略",
+"score": 8,
+"reason": "构建多维度ETF行业轮动模型，结合定量打分与定性分析，提供1月具体行业推荐及ETF标的，具备可复用框架与明确配置价值。"
+}
+```</t>
+  </si>
+  <si>
+    <t>2026-01-14_华宝证券_基金配置策略报告（2026年1月期）：权益市场多点开花，建议关注景气主线</t>
   </si>
   <si>
     <t>2026年01月14日
@@ -8901,6 +9381,21 @@
 根据证券投资者适当性管理有关法规，该研究报告仅适合专业机构投资者及与我司签订咨询服务协议的普通投资者，若您为非专业投资者及未与我司签订咨询服务协议的投资者，请勿阅读、转载本报告。</t>
   </si>
   <si>
+    <t>```json
+{
+"category": "A_基金相关",
+"score": 8,
+"reason": "构建主动权益与固收类基金优选指数，提供具体基金标的及配置策略，具备实操参考价值。"
+}
+```</t>
+  </si>
+  <si>
+    <t>2026-02-03 07:36:09</t>
+  </si>
+  <si>
+    <t>2026-01-19_金融街证券_行业轮动ETF策略周报</t>
+  </si>
+  <si>
     <t># 证券研究报告·策略周报
 2026年1月19日
 证券分析师：张一
@@ -8941,6 +9436,21 @@
 本公司及作者在自身所知情范围内，与本报告中所评价或推荐的证券不存在法律法规要求披露或采取限制、静默措施的利益冲突。
 本报告版权仅为本公司所有，未经书面许可，任何机构和个人不得以任何形式将研报内容和相关信息对外公布、转发、转载、传播、复制、编辑、修改、引用等。如有上述违法行为，本公司保留追究相关方法律责任的权利。
 市场有风险，投资需谨慎。投资者不应将本报告作为作出投资决策的唯一参考因素，亦不应认为本报告可以取代自己的判断。在决定投资前，如有需要，投资者务必向专业人士咨询并谨慎决策。</t>
+  </si>
+  <si>
+    <t>```json
+{
+"category": "G_定期报告",
+"score": 7,
+"reason": "行业轮动ETF策略周报，给出具体调仓建议（调入国防、证券保险ETF等）及量价择时信号，样本外超额收益16.19%。"
+}
+```</t>
+  </si>
+  <si>
+    <t>2026-02-03 07:36:28</t>
+  </si>
+  <si>
+    <t>2026-01-22_国信证券_公募基金2025年四季报点评：减科技消费，加周期制造</t>
   </si>
   <si>
     <t># 减科技消费，加周期制造
@@ -9113,6 +9623,18 @@
 邮编：100032</t>
   </si>
   <si>
+    <t>```json
+{
+"category": "A_基金相关",
+"score": 8,
+"reason": "基于公募基金四季报的持仓数据分析，揭示机构减配科技消费、增配周期制造的风格转向，为个人投资者提供机构资金动向参考。"
+}
+```</t>
+  </si>
+  <si>
+    <t>2026-01-22_国金证券_2026年度公募主动权益基金投资策略及基金经理精选：莫道桑榆晚，为霞尚满天</t>
+  </si>
+  <si>
     <t># 莫道桑榆晚，为霞尚满天。
 # 2026年度公募主动权益基金投资策略及基金经理精选
 分析师：王子薇 执业编号：S1130524010001
@@ -9194,6 +9716,21 @@
 ■根据最近6期（或基金经理任职以来）的全部持股明细，将科技行业平均占比不低于 $60\%$ 的主动权益基金划分为科技行业主题基金池，剔除定开/持有期以及规模不足1亿元的产品，按照业绩打分进行排序。泛科技行业主题基金可重点关注国泰海通创新成长（陈思靖）、景顺长城品质长青（农冰立）、东吴嘉禾优势（刘元海）、诺安稳健回报（邓心怡）、财通资管数字经济（包敦文）等。
 图表：泛科技行业基金业绩和风格指标  
 &lt;table&gt;&lt;tr&gt;&lt;td rowspan="2"&gt;证券代码&lt;/td&gt;&lt;td rowspan="2"&gt;证券简称&lt;/td&gt;&lt;td rowspan="2"&gt;基金成立日&lt;/td&gt;&lt;td rowspan="2"&gt;基金经理&lt;/td&gt;&lt;td rowspan="2"&gt;任职日期&lt;/td&gt;&lt;td rowspan="2"&gt;基金规模:亿元&lt;/td&gt;&lt;td rowspan="2"&gt;业绩打分&lt;/td&gt;&lt;td rowspan="2"&gt;2024年回报%&lt;/td&gt;&lt;td rowspan="2"&gt;2025年回报%&lt;/td&gt;&lt;td rowspan="2"&gt;上涨区间胜率&lt;/td&gt;&lt;td rowspan="2"&gt;下跌区间胜率&lt;/td&gt;&lt;td colspan="4"&gt;近2年平均&lt;/td&gt;&lt;td colspan="3"&gt;2025年中报&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;重仓股超额%&lt;/td&gt;&lt;td&gt;重仓股胜率%&lt;/td&gt;&lt;td&gt;重仓股集中度%&lt;/td&gt;&lt;td&gt;换手率&lt;/td&gt;&lt;td&gt;大-中-小盘股占比%&lt;/td&gt;&lt;td&gt;港股占比%&lt;/td&gt;&lt;td&gt;前三大行业及占比%&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;018993.OF&lt;/td&gt;&lt;td&gt;中欧数字经济A&lt;/td&gt;&lt;td&gt;2023-09-12&lt;/td&gt;&lt;td&gt;冯炉丹&lt;/td&gt;&lt;td&gt;2023-09-12&lt;/td&gt;&lt;td&gt;130.21&lt;/td&gt;&lt;td&gt;9.25&lt;/td&gt;&lt;td&gt;29.40&lt;/td&gt;&lt;td&gt;143.07&lt;/td&gt;&lt;td&gt;40%&lt;/td&gt;&lt;td&gt;100%&lt;/td&gt;&lt;td&gt;13.24&lt;/td&gt;&lt;td&gt;73.75&lt;/td&gt;&lt;td&gt;65.02&lt;/td&gt;&lt;td&gt;4.14&lt;/td&gt;&lt;td&gt;50-28-22&lt;/td&gt;&lt;td&gt;30.11&lt;/td&gt;&lt;td&gt;通信35;电子30;计算机13&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;001170.OF&lt;/td&gt;&lt;td&gt;宏利复兴伟业A&lt;/td&gt;&lt;td&gt;2015-04-21&lt;/td&gt;&lt;td&gt;孙硕&lt;/td&gt;&lt;td&gt;2022-11-22&lt;/td&gt;&lt;td&gt;14.22&lt;/td&gt;&lt;td&gt;8.65&lt;/td&gt;&lt;td&gt;33.30&lt;/td&gt;&lt;td&gt;102.06&lt;/td&gt;&lt;td&gt;83%&lt;/td&gt;&lt;td&gt;20%&lt;/td&gt;&lt;td&gt;11.22&lt;/td&gt;&lt;td&gt;68.75&lt;/td&gt;&lt;td&gt;61.01&lt;/td&gt;&lt;td&gt;4.65&lt;/td&gt;&lt;td&gt;18-23-59&lt;/td&gt;&lt;td&gt;0.00&lt;/td&gt;&lt;td&gt;电子26;通信23;计算机14&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;022364.OF&lt;/td&gt;&lt;td&gt;永赢科技智选A&lt;/td&gt;&lt;td&gt;2024-10-30&lt;/td&gt;&lt;td&gt;任桀&lt;/td&gt;&lt;td&gt;2024-10-30&lt;/td&gt;&lt;td&gt;115.21&lt;/td&gt;&lt;td&gt;8.64&lt;/td&gt;&lt;td&gt;-&lt;/td&gt;&lt;td&gt;233.29&lt;/td&gt;&lt;td&gt;100%&lt;/td&gt;&lt;td&gt;50%&lt;/td&gt;&lt;td&gt;16.78&lt;/td&gt;&lt;td&gt;62.50&lt;/td&gt;&lt;td&gt;80.86&lt;/td&gt;&lt;td&gt;5.35&lt;/td&gt;&lt;td&gt;46-15-38&lt;/td&gt;&lt;td&gt;0.00&lt;/td&gt;&lt;td&gt;通信54;电子40;汽车5&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;018122.OF&lt;/td&gt;&lt;td&gt;永赢数字经济智选A&lt;/td&gt;&lt;td&gt;2023-04-10&lt;/td&gt;&lt;td&gt;王文龙&lt;/td&gt;&lt;td&gt;2023-04-10&lt;/td&gt;&lt;td&gt;40.10&lt;/td&gt;&lt;td&gt;8.60&lt;/td&gt;&lt;td&gt;26.07&lt;/td&gt;&lt;td&gt;86.09&lt;/td&gt;&lt;td&gt;100%&lt;/td&gt;&lt;td&gt;60%&lt;/td&gt;&lt;td&gt;7.00&lt;/td&gt;&lt;td&gt;66.25&lt;/td&gt;&lt;td&gt;68.89&lt;/td&gt;&lt;td&gt;12.02&lt;/td&gt;&lt;td&gt;16-3-81&lt;/td&gt;&lt;td&gt;4.20&lt;/td&gt;&lt;td&gt;电子20;通信20;电力设备18&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;018325.OF&lt;/td&gt;&lt;td&gt;国泰海通创新成长A&lt;/td&gt;&lt;td&gt;2023-05-16&lt;/td&gt;&lt;td&gt;陈思靖&lt;/td&gt;&lt;td&gt;2024-09-25&lt;/td&gt;&lt;td&gt;8.05&lt;/td&gt;&lt;td&gt;8.57&lt;/td&gt;&lt;td&gt;-&lt;/td&gt;&lt;td&gt;88.41&lt;/td&gt;&lt;td&gt;50%&lt;/td&gt;&lt;td&gt;100%&lt;/td&gt;&lt;td&gt;7.27&lt;/td&gt;&lt;td&gt;62.00&lt;/td&gt;&lt;td&gt;54.60&lt;/td&gt;&lt;td&gt;6.35&lt;/td&gt;&lt;td&gt;23-30-46&lt;/td&gt;&lt;td&gt;0.00&lt;/td&gt;&lt;td&gt;电子84;通信15;基础化工1&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;006502.OF&lt;/td&gt;&lt;td&gt;财通集成电路产业A&lt;/td&gt;&lt;td&gt;2018-11-29&lt;/td&gt;&lt;td&gt;金梓才&lt;/td&gt;&lt;td&gt;2018-11-29&lt;/td&gt;&lt;td&gt;8.70&lt;/td&gt;&lt;td&gt;8.55&lt;/td&gt;&lt;td&gt;32.38&lt;/td&gt;&lt;td&gt;101.46&lt;/td&gt;&lt;td&gt;60%&lt;/td&gt;&lt;td&gt;22%&lt;/td&gt;&lt;td&gt;12.59&lt;/td&gt;&lt;td&gt;65.00&lt;/td&gt;&lt;td&gt;82.46&lt;/td&gt;&lt;td&gt;3.46&lt;/td&gt;&lt;td&gt;28-33-39&lt;/td&gt;&lt;td&gt;0.00&lt;/td&gt;&lt;td&gt;通信63;电子24;建筑装饰5&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;017102.OF&lt;/td&gt;&lt;td&gt;大摩数字经济A&lt;/td&gt;&lt;td&gt;2023-03-02&lt;/td&gt;&lt;td&gt;雷志勇&lt;/td&gt;&lt;td&gt;2023-03-02&lt;/td&gt;&lt;td&gt;57.82&lt;/td&gt;&lt;td&gt;8.50&lt;/td&gt;&lt;td&gt;69.23&lt;/td&gt;&lt;td&gt;85.95&lt;/td&gt;&lt;td&gt;60%&lt;/td&gt;&lt;td&gt;40%&lt;/td&gt;&lt;td&gt;8.31&lt;/td&gt;&lt;td&gt;72.50&lt;/td&gt;&lt;td&gt;62.27&lt;/td&gt;&lt;td&gt;4.23&lt;/td&gt;&lt;td&gt;39-21-40&lt;/td&gt;&lt;td&gt;0.00&lt;/td&gt;&lt;td&gt;电子58;通信14;电力设备11&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;000411.OF&lt;/td&gt;&lt;td&gt;景顺长城优质成长A&lt;/td&gt;&lt;td&gt;2014-01-02&lt;/td&gt;&lt;td&gt;张仲维&lt;/td&gt;&lt;td&gt;2023-11-07&lt;/td&gt;&lt;td&gt;9.97&lt;/td&gt;&lt;td&gt;8.50&lt;/td&gt;&lt;td&gt;32.15&lt;/td&gt;&lt;td&gt;91.53&lt;/td&gt;&lt;td&gt;60%&lt;/td&gt;&lt;td&gt;50%&lt;/td&gt;&lt;td&gt;8.37&lt;/td&gt;&lt;td&gt;61.25&lt;/td&gt;&lt;td&gt;65.66&lt;/td&gt;&lt;td&gt;5.61&lt;/td&gt;&lt;td&gt;41-17-42&lt;/td&gt;&lt;td&gt;0.00&lt;/td&gt;&lt;td&gt;电子41;通信24;汽车13&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;001075.OF&lt;/td&gt;&lt;td&gt;宝盈转型动力A&lt;/td&gt;&lt;td&gt;2015-04-29&lt;/td&gt;&lt;td&gt;容志能&lt;/td&gt;&lt;td&gt;2023-03-17&lt;/td&gt;&lt;td&gt;14.95&lt;/td&gt;&lt;td&gt;8.45&lt;/td&gt;&lt;td&gt;20.34&lt;/td&gt;&lt;td&gt;124.00&lt;/td&gt;&lt;td&gt;60%&lt;/td&gt;&lt;td&gt;60%&lt;/td&gt;&lt;td&gt;10.71&lt;/td&gt;&lt;td&gt;63.75&lt;/td&gt;&lt;td&gt;68.06&lt;/td&gt;&lt;td&gt;4.07&lt;/td&gt;&lt;td&gt;38-24-38&lt;/td&gt;&lt;td&gt;0.00&lt;/td&gt;&lt;td&gt;通信35;电子34;汽车11&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;010391.OF&lt;/td&gt;&lt;td&gt;易方达战略新兴产业A&lt;/td&gt;&lt;td&gt;2021-01-13&lt;/td&gt;&lt;td&gt;欧阳良琦&lt;/td&gt;&lt;td&gt;2023-05-06&lt;/td&gt;&lt;td&gt;55.42&lt;/td&gt;&lt;td&gt;8.35&lt;/td&gt;&lt;td&gt;18.86&lt;/td&gt;&lt;td&gt;107.60&lt;/td&gt;&lt;td&gt;60%&lt;/td&gt;&lt;td&gt;80%&lt;/td&gt;&lt;td&gt;6.60&lt;/td&gt;&lt;td&gt;58.75&lt;/td&gt;&lt;td&gt;56.19&lt;/td&gt;&lt;td&gt;3.58&lt;/td&gt;&lt;td&gt;52-20-27&lt;/td&gt;&lt;td&gt;19.88&lt;/td&gt;&lt;td&gt;电子58;通信18;传媒9&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;008988.OF&lt;/td&gt;&lt;td&gt;大成科技创新A&lt;/td&gt;&lt;td&gt;2020-04-29&lt;/td&gt;&lt;td&gt;郭玮羚&lt;/td&gt;&lt;td&gt;2021-01-26&lt;/td&gt;&lt;td&gt;12.10&lt;/td&gt;&lt;td&gt;8.35&lt;/td&gt;&lt;td&gt;17.13&lt;/td&gt;&lt;td&gt;123.83&lt;/td&gt;&lt;td&gt;40%&lt;/td&gt;&lt;td&gt;63%&lt;/td&gt;&lt;td&gt;12.10&lt;/td&gt;&lt;td&gt;71.25&lt;/td&gt;&lt;td&gt;72.64&lt;/td&gt;&lt;td&gt;7.94&lt;/td&gt;&lt;td&gt;70-21-9&lt;/td&gt;&lt;td&gt;42.08&lt;/td&gt;&lt;td&gt;电子35;通信30;医药生物11&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;010350.OF&lt;/td&gt;&lt;td&gt;景顺长城品质长青A&lt;/td&gt;&lt;td&gt;2021-02-09&lt;/td&gt;&lt;td&gt;农冰立&lt;/td&gt;&lt;td&gt;2023-07-06&lt;/td&gt;&lt;td&gt;142.47&lt;/td&gt;&lt;td&gt;8.30&lt;/td&gt;&lt;td&gt;41.62&lt;/td&gt;&lt;td&gt;63.29&lt;/td&gt;&lt;td&gt;40%&lt;/td&gt;&lt;td&gt;75%&lt;/td&gt;&lt;td&gt;8.44&lt;/td&gt;&lt;td&gt;65.34&lt;/td&gt;&lt;td&gt;70.73&lt;/td&gt;&lt;td&gt;2.40&lt;/td&gt;&lt;td&gt;65-13-22&lt;/td&gt;&lt;td&gt;42.87&lt;/td&gt;&lt;td&gt;电子39;通信21;轻工制造12&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;018956.OF&lt;/td&gt;&lt;td&gt;中航机遇领航A&lt;/td&gt;&lt;td&gt;2023-08-10&lt;/td&gt;&lt;td&gt;韩浩&lt;/td&gt;&lt;td&gt;2023-08-10&lt;/td&gt;&lt;td&gt;132.31&lt;/td&gt;&lt;td&gt;8.25&lt;/td&gt;&lt;td&gt;43.68&lt;/td&gt;&lt;td&gt;168.92&lt;/td&gt;&lt;td&gt;60%&lt;/td&gt;&lt;td&gt;25%&lt;/td&gt;&lt;td&gt;12.94&lt;/td&gt;&lt;td&gt;57.50&lt;/td&gt;&lt;td&gt;85.10&lt;/td&gt;&lt;td&gt;5.00&lt;/td&gt;&lt;td&gt;37-13-50&lt;/td&gt;&lt;td&gt;0.00&lt;/td&gt;&lt;td&gt;通信64;电子26;机械设备11&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;013721.OF&lt;/td&gt;&lt;td&gt;信澳景气优选A&lt;/td&gt;&lt;td&gt;2021-12-21&lt;/td&gt;&lt;td&gt;吴清宇&lt;/td&gt;&lt;td&gt;2021-12-21&lt;/td&gt;&lt;td&gt;5.92&lt;/td&gt;&lt;td&gt;8.10&lt;/td&gt;&lt;td&gt;24.33&lt;/td&gt;&lt;td&gt;95.81&lt;/td&gt;&lt;td&gt;63%&lt;/td&gt;&lt;td&gt;50%&lt;/td&gt;&lt;td&gt;12.21&lt;/td&gt;&lt;td&gt;55.00&lt;/td&gt;&lt;td&gt;87.84&lt;/td&gt;&lt;td&gt;9.80&lt;/td&gt;&lt;td&gt;25-21-55&lt;/td&gt;&lt;td&gt;11.88&lt;/td&gt;&lt;td&gt;通信48;电子34;汽车12&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;519196.OF&lt;/td&gt;&lt;td&gt;万家新兴蓝筹A&lt;/td&gt;&lt;td&gt;2016-01-26&lt;/td&gt;&lt;td&gt;莫海波&lt;/td&gt;&lt;td&gt;2016-01-26&lt;/td&gt;&lt;td&gt;35.52&lt;/td&gt;&lt;td&gt;8.05&lt;/td&gt;&lt;td&gt;33.46&lt;/td&gt;&lt;td&gt;67.31&lt;/td&gt;&lt;td&gt;40%&lt;/td&gt;&lt;td&gt;89%&lt;/td&gt;&lt;td&gt;6.03&lt;/td&gt;&lt;td&gt;56.25&lt;/td&gt;&lt;td&gt;78.56&lt;/td&gt;&lt;td&gt;1.20&lt;/td&gt;&lt;td&gt;61-21-18&lt;/td&gt;&lt;td&gt;0.00&lt;/td&gt;&lt;td&gt;电子36;通信30;计算机12&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;006887.OF&lt;/td&gt;&lt;td&gt;诺德新生活A&lt;/td&gt;&lt;td&gt;2019-03-28&lt;/td&gt;&lt;td&gt;周建胜&lt;/td&gt;&lt;td&gt;2022-07-14&lt;/td&gt;&lt;td&gt;19.32&lt;/td&gt;&lt;td&gt;8.05&lt;/td&gt;&lt;td&gt;27.42&lt;/td&gt;&lt;td&gt;113.55&lt;/td&gt;&lt;td&gt;57%&lt;/td&gt;&lt;td&gt;17%&lt;/td&gt;&lt;td&gt;15.94&lt;/td&gt;&lt;td&gt;73.75&lt;/td&gt;&lt;td&gt;64.26&lt;/td&gt;&lt;td&gt;12.10&lt;/td&gt;&lt;td&gt;37-18-45&lt;/td&gt;&lt;td&gt;0.00&lt;/td&gt;&lt;td&gt;通信63;电子36;国防军工1&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;001513.OF&lt;/td&gt;&lt;td&gt;易方达信息产业A&lt;/td&gt;&lt;td&gt;2016-09-27&lt;/td&gt;&lt;td&gt;郑希&lt;/td&gt;&lt;td&gt;2016-09-27&lt;/td&gt;&lt;td&gt;72.91&lt;/td&gt;&lt;td&gt;8.00&lt;/td&gt;&lt;td&gt;24.91&lt;/td&gt;&lt;td&gt;108.05&lt;/td&gt;&lt;td&gt;40%&lt;/td&gt;&lt;td&gt;44%&lt;/td&gt;&lt;td&gt;7.69&lt;/td&gt;&lt;td&gt;73.75&lt;/td&gt;&lt;td&gt;44.48&lt;/td&gt;&lt;td&gt;6.74&lt;/td&gt;&lt;td&gt;47-16-36&lt;/td&gt;&lt;td&gt;0.00&lt;/td&gt;&lt;td&gt;电子46;通信28;传媒7&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;001412.OF&lt;/td&gt;&lt;td&gt;德邦鑫星价值A&lt;/td&gt;&lt;td&gt;2015-06-19&lt;/td&gt;&lt;td&gt;雷涛,陆阳&lt;/td&gt;&lt;td&gt;2024-01-30&lt;/td&gt;&lt;td&gt;89.85&lt;/td&gt;&lt;td&gt;8.00&lt;/td&gt;&lt;td&gt;-&lt;/td&gt;&lt;td&gt;128.90&lt;/td&gt;&lt;td&gt;60%&lt;/td&gt;&lt;td&gt;33%&lt;/td&gt;&lt;td&gt;13.99&lt;/td&gt;&lt;td&gt;64.29&lt;/td&gt;&lt;td&gt;66.18&lt;/td&gt;&lt;td&gt;13.51&lt;/td&gt;&lt;td&gt;24-14-62&lt;/td&gt;&lt;td&gt;0.00&lt;/td&gt;&lt;td&gt;电子44;通信33;机械设备13&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;580001.OF&lt;/td&gt;&lt;td&gt;东吴嘉禾优势A&lt;/td&gt;&lt;td&gt;2005-02-01&lt;/td&gt;&lt;td&gt;刘元海&lt;/td&gt;&lt;td&gt;2023-08-15&lt;/td&gt;&lt;td&gt;19.94&lt;/td&gt;&lt;td&gt;7.95&lt;/td&gt;&lt;td&gt;36.27&lt;/td&gt;&lt;td&gt;87.23&lt;/td&gt;&lt;td&gt;60%&lt;/td&gt;&lt;td&gt;25%&lt;/td&gt;&lt;td&gt;8.17&lt;/td&gt;&lt;td&gt;58.75&lt;/td&gt;&lt;td&gt;83.08&lt;/td&gt;&lt;td&gt;2.81&lt;/td&gt;&lt;td&gt;62-15-23&lt;/td&gt;&lt;td&gt;0.00&lt;/td&gt;&lt;td&gt;电子53;通信23;汽车13&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;000714.OF&lt;/td&gt;&lt;td&gt;诺安稳健回报A&lt;/td&gt;&lt;td&gt;2014-09-15&lt;/td&gt;&lt;td&gt;邓心怡&lt;/td&gt;&lt;td&gt;2023-06-03&lt;/td&gt;&lt;td&gt;14.42&lt;/td&gt;&lt;td&gt;7.95&lt;/td&gt;&lt;td&gt;24.25&lt;/td&gt;&lt;td&gt;79.50&lt;/td&gt;&lt;td&gt;100%&lt;/td&gt;&lt;td&gt;40%&lt;/td&gt;&lt;td&gt;7.71&lt;/td&gt;&lt;td&gt;67.50&lt;/td&gt;&lt;td&gt;65.58&lt;/td&gt;&lt;td&gt;16.09&lt;/td&gt;&lt;td&gt;12-15-73&lt;/td&gt;&lt;td&gt;0.00&lt;/td&gt;&lt;td&gt;电子40;计算机19;传媒16&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;001194.OF&lt;/td&gt;&lt;td&gt;景顺长城稳健回报A&lt;/td&gt;&lt;td&gt;2015-04-10&lt;/td&gt;&lt;td&gt;江山&lt;/td&gt;&lt;td&gt;2024-08-13&lt;/td&gt;&lt;td&gt;60.61&lt;/td&gt;&lt;td&gt;7.86&lt;/td&gt;&lt;td&gt;-&lt;/td&gt;&lt;td&gt;131.91&lt;/td&gt;&lt;td&gt;33%&lt;/td&gt;&lt;td&gt;50%&lt;/td&gt;&lt;td&gt;13.71&lt;/td&gt;&lt;td&gt;76.00&lt;/td&gt;&lt;td&gt;61.65&lt;/td&gt;&lt;td&gt;7.08&lt;/td&gt;&lt;td&gt;36-15-49&lt;/td&gt;&lt;td&gt;0.00&lt;/td&gt;&lt;td&gt;电子33;通信32;医药生物13&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;007355.OF&lt;/td&gt;&lt;td&gt;汇添富科技创新A&lt;/td&gt;&lt;td&gt;2019-05-06&lt;/td&gt;&lt;td&gt;马翔&lt;/td&gt;&lt;td&gt;2019-05-06&lt;/td&gt;&lt;td&gt;99.11&lt;/td&gt;&lt;td</t>
+  </si>
+  <si>
+    <t>```json
+{
+"category": "A_基金相关",
+"score": 8,
+"reason": "年度主动权益基金策略，提供景气成长/困境反转/GARP等配置框架及具体基金经理推荐，含详细筛选指标与业绩数据。"
+}
+```</t>
+  </si>
+  <si>
+    <t>2026-02-03 07:36:04</t>
+  </si>
+  <si>
+    <t>2026-01-23_华创证券_25Q4基金季报点评：加周期金融地产，减消费TMT</t>
   </si>
   <si>
     <t># 【策略快评】
@@ -9352,6 +9889,18 @@
 &lt;table&gt;&lt;tr&gt;&lt;td&gt;北京总部&lt;/td&gt;&lt;td&gt;广深分部&lt;/td&gt;&lt;td&gt;上海分部&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;地址：北京市西城区锦什坊街26号恒奥中心C座3A&lt;/td&gt;&lt;td&gt;地址：深圳市福田区香梅路1061号中投国际商务中心A座19楼&lt;/td&gt;&lt;td&gt;地址：上海市浦东新区花园石桥路33号花旗大厦12层&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;邮编：100033&lt;/td&gt;&lt;td&gt;邮编：518034&lt;/td&gt;&lt;td&gt;邮编：200120&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;传真：010-66500801&lt;/td&gt;&lt;td&gt;传真：0755-82027731&lt;/td&gt;&lt;td&gt;传真：021-20572500&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;会议室：010-66500900&lt;/td&gt;&lt;td&gt;会议室：0755-82828562&lt;/td&gt;&lt;td&gt;会议室：021-20572522&lt;/td&gt;&lt;/tr&gt;&lt;/table&gt;</t>
   </si>
   <si>
+    <t>```json
+{
+"category": "A_基金相关",
+"score": 6,
+"reason": "基金季报持仓分析，统计主动权益基金四季度行业配置变化及重仓股变动，揭示机构资金流向"
+}
+```</t>
+  </si>
+  <si>
+    <t>2026-01-23_国盛证券_2025Q4基金仓位解析：四季度基金调仓五大看点</t>
+  </si>
+  <si>
     <t># 投资策略
 # 四季度基金调仓五大看点——2025Q4 基金仓位解析
 # 1、总体配置：规模回落，仓位调降
@@ -9499,6 +10048,21 @@
 地址：深圳市福田区福华三路 100 号鼎和大厦 24楼
 邮编：518033
 邮箱：gsresearch@gszq.com</t>
+  </si>
+  <si>
+    <t>```json
+{
+"category": "A_基金相关",
+"score": 7,
+"reason": "系统解析2025Q4主动偏股基金调仓特征，揭示加仓AI算力/有色、减持医药电子的机构动向，提供市场结构观察视角。"
+}
+```</t>
+  </si>
+  <si>
+    <t>2026-02-03 07:36:25</t>
+  </si>
+  <si>
+    <t>2026-01-23_银河证券_公募基金2025年四季度持仓有哪些看点？</t>
   </si>
   <si>
     <t># 公募基金2025年四季度持仓有哪些看点？
@@ -9709,6 +10273,21 @@
 公司网址：www.chinastock.com.cn</t>
   </si>
   <si>
+    <t>```json
+{
+"category": "A_基金相关",
+"score": 6,
+"reason": "公募基金季度持仓盘点，详列板块/行业/个股调仓数据与集中度变化，属机构动向跟踪，缺乏可复现策略框架，适合作为配置参考但前瞻性有限。"
+}
+```</t>
+  </si>
+  <si>
+    <t>2026-02-03 07:36:16</t>
+  </si>
+  <si>
+    <t>2026-01-24_国泰海通_2025Q4基金持仓分析：Q4基金动向：增配AI基建与价值股</t>
+  </si>
+  <si>
     <t># Q4 基金动向：增配 AI 基建与价值股
  2025Q4 基金持仓分析
 # 本报告导读：
@@ -9834,6 +10413,21 @@
 &lt;table&gt;&lt;tr&gt;&lt;td&gt;板块&lt;/td&gt;&lt;td&gt;行业&lt;/td&gt;&lt;td&gt;近9期配置曲线&lt;/td&gt;&lt;td&gt;最新实配环比&lt;/td&gt;&lt;td&gt;23Q4&lt;/td&gt;&lt;td&gt;24Q1&lt;/td&gt;&lt;td&gt;24Q2&lt;/td&gt;&lt;td&gt;24Q3&lt;/td&gt;&lt;td&gt;24Q4&lt;/td&gt;&lt;td&gt;25Q1&lt;/td&gt;&lt;td&gt;25Q2&lt;/td&gt;&lt;td&gt;25Q3&lt;/td&gt;&lt;td&gt;25Q4&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td rowspan="2"&gt;上游材料&lt;/td&gt;&lt;td&gt;煤炭&lt;/td&gt;&lt;td&gt;0.14%&lt;/td&gt;&lt;td&gt;2.4%&lt;/td&gt;&lt;td&gt;2.3%&lt;/td&gt;&lt;td&gt;1.2%&lt;/td&gt;&lt;td&gt;1.0%&lt;/td&gt;&lt;td&gt;0.7%&lt;/td&gt;&lt;td&gt;0.3%&lt;/td&gt;&lt;td&gt;0.3%&lt;/td&gt;&lt;td&gt;0.3%&lt;/td&gt;&lt;td&gt;0.5%&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;有色金属&lt;/td&gt;&lt;td&gt;2.02%&lt;/td&gt;&lt;td&gt;2.6%&lt;/td&gt;&lt;td&gt;4.9%&lt;/td&gt;&lt;td&gt;4.7%&lt;/td&gt;&lt;td&gt;4.0%&lt;/td&gt;&lt;td&gt;2.3%&lt;/td&gt;&lt;td&gt;3.1%&lt;/td&gt;&lt;td&gt;2.9%&lt;/td&gt;&lt;td&gt;4.5%&lt;/td&gt;&lt;td&gt;6.6%&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td rowspan="5"&gt;中游周期&lt;/td&gt;&lt;td&gt;钢铁&lt;/td&gt;&lt;td&gt;0.01%&lt;/td&gt;&lt;td&gt;0.0%&lt;/td&gt;&lt;td&gt;0.0%&lt;/td&gt;&lt;td&gt;0.0%&lt;/td&gt;&lt;td&gt;0.0%&lt;/td&gt;&lt;td&gt;0.0%&lt;/td&gt;&lt;td&gt;0.0%&lt;/td&gt;&lt;td&gt;0.0%&lt;/td&gt;&lt;td&gt;0.0%&lt;/td&gt;&lt;td&gt;0.0%&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;基础化工&lt;/td&gt;&lt;td&gt;0.00%&lt;/td&gt;&lt;td&gt;0.0%&lt;/td&gt;&lt;td&gt;0.0%&lt;/td&gt;&lt;td&gt;0.3%&lt;/td&gt;&lt;td&gt;0.3%&lt;/td&gt;&lt;td&gt;0.5%&lt;/td&gt;&lt;td&gt;0.3%&lt;/td&gt;&lt;td&gt;0.4%&lt;/td&gt;&lt;td&gt;0.2%&lt;/td&gt;&lt;td&gt;0.2%&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;建筑材料&lt;/td&gt;&lt;td&gt;0.13%&lt;/td&gt;&lt;td&gt;0.0%&lt;/td&gt;&lt;td&gt;0.0%&lt;/td&gt;&lt;td&gt;0.0%&lt;/td&gt;&lt;td&gt;0.1%&lt;/td&gt;&lt;td&gt;0.1%&lt;/td&gt;&lt;td&gt;0.1%&lt;/td&gt;&lt;td&gt;0.0%&lt;/td&gt;&lt;td&gt;0.2%&lt;/td&gt;&lt;td&gt;0.3%&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;建筑装饰&lt;/td&gt;&lt;td&gt;0.06%&lt;/td&gt;&lt;td&gt;0.5%&lt;/td&gt;&lt;td&gt;0.6%&lt;/td&gt;&lt;td&gt;0.7%&lt;/td&gt;&lt;td&gt;0.6%&lt;/td&gt;&lt;td&gt;0.8%&lt;/td&gt;&lt;td&gt;0.4%&lt;/td&gt;&lt;td&gt;0.5%&lt;/td&gt;&lt;td&gt;0.3%&lt;/td&gt;&lt;td&gt;0.4%&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;石油石化&lt;/td&gt;&lt;td&gt;1.43%&lt;/td&gt;&lt;td&gt;9.2%&lt;/td&gt;&lt;td&gt;13.0%&lt;/td&gt;&lt;td&gt;12.7%&lt;/td&gt;&lt;td&gt;6.3%&lt;/td&gt;&lt;td&gt;5.9%&lt;/td&gt;&lt;td&gt;3.3%&lt;/td&gt;&lt;td&gt;2.8%&lt;/td&gt;&lt;td&gt;2.1%&lt;/td&gt;&lt;td&gt;3.6%&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td rowspan="4"&gt;TMT&lt;/td&gt;&lt;td&gt;传媒&lt;/td&gt;&lt;td&gt;1.28%&lt;/td&gt;&lt;td&gt;22.1%&lt;/td&gt;&lt;td&gt;20.9%&lt;/td&gt;&lt;td&gt;22.8%&lt;/td&gt;&lt;td&gt;23.3%&lt;/td&gt;&lt;td&gt;20.8%&lt;/td&gt;&lt;td&gt;23.4%&lt;/td&gt;&lt;td&gt;20.6%&lt;/td&gt;&lt;td&gt;20.0%&lt;/td&gt;&lt;td&gt;21.3%&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;电子&lt;/td&gt;&lt;td&gt;-4.34%&lt;/td&gt;&lt;td&gt;2.4%&lt;/td&gt;&lt;td&gt;1.5%&lt;/td&gt;&lt;td&gt;2.5%&lt;/td&gt;&lt;td&gt;2.8%&lt;/td&gt;&lt;td&gt;10.6%&lt;/td&gt;&lt;td&gt;14.8%&lt;/td&gt;&lt;td&gt;14.4%&lt;/td&gt;&lt;td&gt;14.2%&lt;/td&gt;&lt;td&gt;9.8%&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;计算机&lt;/td&gt;&lt;td&gt;-0.01%&lt;/td&gt;&lt;td&gt;3.5%&lt;/td&gt;&lt;td&gt;2.5%&lt;/td&gt;&lt;td&gt;1.5%&lt;/td&gt;&lt;td&gt;1.5%&lt;/td&gt;&lt;td&gt;1.9%&lt;/td&gt;&lt;td&gt;2.0%&lt;/td&gt;&lt;td&gt;2.1%&lt;/td&gt;&lt;td&gt;0.8%&lt;/td&gt;&lt;td&gt;0.8%&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;通信&lt;/td&gt;&lt;td&gt;-0.03%&lt;/td&gt;&lt;td&gt;7.1%&lt;/td&gt;&lt;td&gt;7.3%&lt;/td&gt;&lt;td&gt;8.5%&lt;/td&gt;&lt;td&gt;6.8%&lt;/td&gt;&lt;td&gt;6.8%&lt;/td&gt;&lt;td&gt;5.6%&lt;/td&gt;&lt;td&gt;5.2%&lt;/td&gt;&lt;td&gt;3.1%&lt;/td&gt;&lt;td&gt;3.0%&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td rowspan="3"&gt;中游制造&lt;/td&gt;&lt;td&gt;电力设备&lt;/td&gt;&lt;td&gt;0.04%&lt;/td&gt;&lt;td&gt;0.5%&lt;/td&gt;&lt;td&gt;0.9%&lt;/td&gt;&lt;td&gt;0.3%&lt;/td&gt;&lt;td&gt;0.4%&lt;/td&gt;&lt;td&gt;1.2%&lt;/td&gt;&lt;td&gt;0.4%&lt;/td&gt;&lt;td&gt;0.5%&lt;/td&gt;&lt;td&gt;0.9%&lt;/td&gt;&lt;td&gt;1.0%&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;国防军工&lt;/td&gt;&lt;td&gt;-0.01%&lt;/td&gt;&lt;td&gt;0.1%&lt;/td&gt;&lt;td&gt;0.1%&lt;/td&gt;&lt;td&gt;0.1%&lt;/td&gt;&lt;td&gt;0.0%&lt;/td&gt;&lt;td&gt;0.1%&lt;/td&gt;&lt;td&gt;0.0%&lt;/td&gt;&lt;td&gt;0.0%&lt;/td&gt;&lt;td&gt;0.0%&lt;/td&gt;&lt;td&gt;0.0%&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;机械设备&lt;/td&gt;&lt;td&gt;0.08%&lt;/td&gt;&lt;td&gt;0.4%&lt;/td&gt;&lt;td&gt;0.4%&lt;/td&gt;&lt;td&gt;0.4%&lt;/td&gt;&lt;td&gt;0.3%&lt;/td&gt;&lt;td&gt;0.3%&lt;/td&gt;&lt;td&gt;0.2%&lt;/td&gt;&lt;td&gt;0.3%&lt;/td&gt;&lt;td&gt;0.2%&lt;/td&gt;&lt;td&gt;0.3%&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td rowspan="5"&gt;可选消费&lt;/td&gt;&lt;td&gt;家用电器&lt;/td&gt;&lt;td&gt;-0.01%&lt;/td&gt;&lt;td&gt;0.6%&lt;/td&gt;&lt;td&gt;0.9%&lt;/td&gt;&lt;td&gt;0.9%&lt;/td&gt;&lt;td&gt;0.9%&lt;/td&gt;&lt;td&gt;0.9%&lt;/td&gt;&lt;td&gt;0.6%&lt;/td&gt;&lt;td&gt;0.9%&lt;/td&gt;&lt;td&gt;0.4%&lt;/td&gt;&lt;td&gt;0.4%&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;美容护理&lt;/td&gt;&lt;td&gt;-0.35%&lt;/td&gt;&lt;td&gt;0.0%&lt;/td&gt;&lt;td&gt;0.2%&lt;/td&gt;&lt;td&gt;1.1%&lt;/td&gt;&lt;td&gt;1.0%&lt;/td&gt;&lt;td&gt;0.9%&lt;/td&gt;&lt;td&gt;0.9%&lt;/td&gt;&lt;td&gt;0.7%&lt;/td&gt;&lt;td&gt;0.4%&lt;/td&gt;&lt;td&gt;0.1%&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;汽车&lt;/td&gt;&lt;td&gt;-0.44%&lt;/td&gt;&lt;td&gt;6.6%&lt;/td&gt;&lt;td&gt;5.0%&lt;/td&gt;&lt;td&gt;3.8%&lt;/td&gt;&lt;td&gt;5.0%&lt;/td&gt;&lt;td&gt;7.2%&lt;/td&gt;&lt;td&gt;7.4%&lt;/td&gt;&lt;td&gt;5.3%&lt;/td&gt;&lt;td&gt;4.3%&lt;/td&gt;&lt;td&gt;3.9%&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;轻工制造&lt;/td&gt;&lt;td&gt;-0.75%&lt;/td&gt;&lt;td&gt;0.5%&lt;/td&gt;&lt;td&gt;0.9%&lt;/td&gt;&lt;td&gt;2.2%&lt;/td&gt;&lt;td&gt;1.1%&lt;/td&gt;&lt;td&gt;2.0%&lt;/td&gt;&lt;td&gt;2.8%&lt;/td&gt;&lt;td&gt;4.8%&lt;/td&gt;&lt;td&gt;2.8%&lt;/td&gt;&lt;td&gt;2.1%&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;社会服务&lt;/td&gt;&lt;td&gt;0.89%&lt;/td&gt;&lt;td&gt;5.1%&lt;/td&gt;&lt;td&gt;7.5%&lt;/td&gt;&lt;td&gt;7.8%&lt;/td&gt;&lt;td&gt;10.9%&lt;/td&gt;&lt;td&gt;8.5%&lt;/td&gt;&lt;td&gt;4.5%&lt;/td&gt;&lt;td&gt;3.9%&lt;/td&gt;&lt;td&gt;1.6%&lt;/td&gt;&lt;td&gt;2.5%&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td rowspan="5"&gt;必选消费&lt;/td&gt;&lt;td&gt;纺织服饰&lt;/td&gt;&lt;td&gt;0.07%&lt;/td&gt;&lt;td&gt;2.7%&lt;/td&gt;&lt;td&gt;2.2%&lt;/td&gt;&lt;td&gt;1.5%&lt;/td&gt;&lt;td&gt;1.2%&lt;/td&gt;&lt;td&gt;1.3%&lt;/td&gt;&lt;td&gt;0.6%&lt;/td&gt;&lt;td&gt;0.7%&lt;/td&gt;&lt;td&gt;0.5%&lt;/td&gt;&lt;td&gt;0.6%&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;农林牧渔&lt;/td&gt;&lt;td&gt;0.00%&lt;/td&gt;&lt;td&gt;0.0%&lt;/td&gt;&lt;td&gt;0.0%&lt;/td&gt;&lt;td&gt;0.0%&lt;/td&gt;&lt;td&gt;0.0%&lt;/td&gt;&lt;td&gt;0.0%&lt;/td&gt;&lt;td&gt;0.0%&lt;/td&gt;&lt;td&gt;0.0%&lt;/td&gt;&lt;td&gt;0.0%&lt;/td&gt;&lt;td&gt;0.0%&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;商贸零售&lt;/td&gt;&lt;td&gt;-2.52%&lt;/td&gt;&lt;td&gt;0.2%&lt;/td&gt;&lt;td&gt;0.2%&lt;/td&gt;&lt;td&gt;0.3%&lt;/td&gt;&lt;td&gt;6.2%&lt;/td&gt;&lt;td&gt;5.2%&lt;/td&gt;&lt;td&gt;11.0%&lt;/td&gt;&lt;td&gt;6.6%&lt;/td&gt;&lt;td&gt;13.1%&lt;/td&gt;&lt;td&gt;10.6%&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;食品饮料&lt;/td&gt;&lt;td&gt;0.65%&lt;/td&gt;&lt;td&gt;3.6%&lt;/td&gt;&lt;td&gt;3.5%&lt;/td&gt;&lt;td&gt;2.1%&lt;/td&gt;&lt;td&gt;2.3%&lt;/td&gt;&lt;td&gt;2.1%&lt;/td&gt;&lt;td&gt;1.3%&lt;/td&gt;&lt;td&gt;1.2%&lt;/td&gt;&lt;td&gt;1.0%&lt;/td&gt;&lt;td&gt;1.7%&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;医药生物&lt;/td&gt;&lt;td&gt;-2.38%&lt;/td&gt;&lt;td&gt;12.3%&lt;/td&gt;&lt;td&gt;8.5%&lt;/td&gt;&lt;td&gt;6.8%&lt;/td&gt;&lt;td&gt;7.8%&lt;/td&gt;&lt;td&gt;6.1%&lt;/td&gt;&lt;td&gt;7.5%&lt;/td&gt;&lt;td&gt;14.0%&lt;/td&gt;&lt;td&gt;17.2%&lt;/td&gt;&lt;td&gt;14.8%&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td rowspan="4"&gt;交运公用&lt;/td&gt;&lt;td&gt;公用事业&lt;/td&gt;&lt;td&gt;0.07%&lt;/td&gt;&lt;td&gt;5.7%&lt;/td&gt;&lt;td&gt;6.2%&lt;/td&gt;&lt;td&gt;6.4%&lt;/td&gt;&lt;td&gt;4.5%&lt;/td&gt;&lt;td&gt;2.9%&lt;/td&gt;&lt;td&gt;1.4%&lt;/td&gt;&lt;td&gt;1.4%&lt;/td&gt;&lt;td&gt;0.9%&lt;/td&gt;&lt;td&gt;1.0%&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;环保&lt;/td&gt;&lt;td&gt;-0.06%&lt;/td&gt;&lt;td&gt;0.0%&lt;/td&gt;&lt;td&gt;0.1%&lt;/td&gt;&lt;td&gt;0.3%&lt;/td&gt;&lt;td&gt;0.4%&lt;/td&gt;&lt;td&gt;0.5%&lt;/td&gt;&lt;td&gt;0.2%&lt;/td&gt;&lt;td&gt;0.2%&lt;/td&gt;&lt;td&gt;0.2%&lt;/td&gt;&lt;td&gt;0.1%&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;交通运输&lt;/td&gt;&lt;td&gt;1.26%&lt;/td&gt;&lt;td&gt;2.7%&lt;/td&gt;&lt;td&gt;3.1%&lt;/td&gt;&lt;td&gt;2.9%&lt;/td&gt;&lt;td&gt;2.9%&lt;/td&gt;&lt;td&gt;2.5%&lt;/td&gt;&lt;td&gt;1.5%&lt;/td&gt;&lt;td&gt;1.6%&lt;/td&gt;&lt;td&gt;1.8%&lt;/td&gt;&lt;td&gt;3.1%&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;综合&lt;/td&gt;&lt;td&gt;-0.15%&lt;/td&gt;&lt;td&gt;0.2%&lt;/td&gt;&lt;td&gt;0.2%&lt;/td&gt;&lt;td&gt;0.1%&lt;/td&gt;&lt;td&gt;0.1%&lt;/td&gt;&lt;td&gt;0.1%&lt;/td&gt;&lt;td&gt;0.1%&lt;/td&gt;&lt;td&gt;0.3%&lt;/td&gt;&lt;td&gt;0.2%&lt;/td&gt;&lt;td&gt;0.0%&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td rowspan="3"&gt;大金融&lt;/td&gt;&lt;td&gt;房地产&lt;/td&gt;&lt;td&gt;0.95%&lt;/td&gt;&lt;td&gt;3.4%&lt;/td&gt;&lt;td&gt;2.5%&lt;/td&gt;&lt;td&gt;2.5%&lt;/td&gt;&lt;td&gt;3.2%&lt;/td&gt;&lt;td&gt;2.4%&lt;/td&gt;&lt;td&gt;2.1%&lt;/td&gt;&lt;td&gt;1.9%&lt;/td&gt;&lt;td&gt;2.6%&lt;/td&gt;&lt;td&gt;3.5%&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td</t>
   </si>
   <si>
+    <t>```json
+{
+  "category": "A_基金相关",
+  "score": 7,
+  "reason": "Q4主动基金持仓全景分析，揭示机构增配周期/金融/AI硬件、减配港股与医药电子的方向，对理解主力资金动向有参考价值但缺乏可复现模型。"
+}
+```</t>
+  </si>
+  <si>
+    <t>2026-02-03 07:36:15</t>
+  </si>
+  <si>
+    <t>2026-01-25_东吴证券_策略周评_20260124：基金四季报，透露了哪些重要线索？</t>
+  </si>
+  <si>
     <t># 策略周评 20260124
 # 基金四季报，透露了哪些重要线索？
 截至1月22日，公募基金四季报已披露完毕，基于此，我们挖掘背后资金逻辑，提炼出四条核心线索，为后续大势研判与板块配置提供指引。
@@ -9939,6 +10533,21 @@
 邮政编码：215021
 传真：（0512）62938527
 公司网址： http://www.dwzq.com.cn</t>
+  </si>
+  <si>
+    <t>```json
+{
+"category": "A_基金相关",
+"score": 8,
+"reason": "基于基金四季报深度挖掘资金逻辑，提出居民赎回压力缓解、存款搬家方向及TMT/资源品配置线索，具备 actionable insights。"
+}
+```</t>
+  </si>
+  <si>
+    <t>2026-02-03 07:36:26</t>
+  </si>
+  <si>
+    <t>2026-01-25_中泰证券_宽基ETF资金大幅流出：规模，节奏与影响</t>
   </si>
   <si>
     <t># 证券研究报告/策略专题报告
@@ -10109,6 +10718,21 @@
 中泰证券股份有限公司
 事先未经本公司书面授权
 行任何形式的翻版、发布、复制、转载、刊登、篡改，且不得对本报告进行有悖原意的删节或修改。</t>
+  </si>
+  <si>
+    <t>```json
+{
+"category": "E_市场结构与择时",
+"score": 8,
+"reason": "测算汇金系ETF减持规模与节奏，分析资金流出对市场风格（大盘受压、小盘避险）及个股的冲击，建议减仓拥挤主题、关注电力设备与机器人。"
+}
+```</t>
+  </si>
+  <si>
+    <t>2026-02-03 07:36:22</t>
+  </si>
+  <si>
+    <t>2026-01-26_华泰证券_2025年四季度基金持仓分析：负债端压力缓解</t>
   </si>
   <si>
     <t># 负债端压力缓解—2025年四季度基金持仓分析
@@ -10423,6 +11047,21 @@
 ![](images/aa0c0b</t>
   </si>
   <si>
+    <t>```json
+{
+"category": "A_基金相关",
+"score": 8,
+"reason": "基于基金季报数据，构建配置系数分位数框架分析筹码拥挤度，识别低位顺周期及科技资产，并跟踪负债端赎回压力变化。"
+}
+```</t>
+  </si>
+  <si>
+    <t>2026-02-03 07:36:20</t>
+  </si>
+  <si>
+    <t>2026-01-26_大同证券_基金研究周报：酒泉市商业航天产业发展规划出炉，可关注哪些机会？</t>
+  </si>
+  <si>
     <t># 酒泉市商业航天产业发展规划出炉，可关注哪些机会？
 # 【20260119-20260125】
 市场回顾：上周权益市场主要指数涨跌不一，万得微盘股指数涨幅最大，上涨 $5 , 2 5 \%$ ；申万一级行业涨多跌少，多数行业指数跑赢万得全A指数；债券市场长短端利率走势不一，其中十年期国债下行 1.26BP 至 $1 . 8 3 0 \%$ ，10Y-1Y 期限利差小幅下行,长短端信用利差走势不一；基金市场中偏股基金指数和二级债基指数均周度收涨，中长期纯债基金指数和短期纯债基金指数均周度收涨。
@@ -10532,6 +11171,19 @@
 本报告版权为大同证券有限责任公司所有，未经书面许可，任何机构和个人不得以任何形式翻版、复制和发布。如引用需注明出处为大同证券研究部，且不得对本报告进行有悖原意的引用、删节和修改。
 # 分析师承诺：
 本人、本人配偶及本人的利害关系人与报告内容所涉标的公司不涉及利益冲突。</t>
+  </si>
+  <si>
+    <t>{
+"category": "G_定期报告",
+"score": 6,
+"reason": "基金配置周报，回顾上周市场行情并基于事件驱动与杠铃策略推荐具体基金产品，以短期配置指引为主，研究深度一般，适合跟踪市场动态。"
+}</t>
+  </si>
+  <si>
+    <t>2026-02-03 07:36:27</t>
+  </si>
+  <si>
+    <t>2026-01-27_东方财富证券_25Q4基金持仓及文本透视：布局顺周期，基金经理如何展望2026？</t>
   </si>
   <si>
     <t># 布局顺周期，基金经理如何展望2026？25Q4 基金持仓及文本透视
@@ -10746,6 +11398,18 @@
 在任何情况下，本报告的内容不构成对任何人的投资建议，也没有考虑到个别客户特殊的投资目标、财务状况或需求。客户需充分考虑自身特定状况，不应单纯依靠本报告所载的内容而取代个人的独立判断。本公司不对任何人因使用本报告所载任何内容所引致的任何损失负任何责任，投资者需自行承担风险。
 在法律允许的情况下，本公司或其关联机构可能会持有报告中提到的公司所发行的证券头寸并进行交易，也可能为这些公司提供或争取提供投资银行、财务顾问等服务。客户应充分考虑可能存在的利益冲突，勿将本报告作为投资决策的唯一参考依据。
 本报告版权均归本公司所有，未经本公司事先书面授权，任何机构或个人不得以任何形式复制、发布、传播本报告的全部或部分内容。经授权刊载、转发本报告或者摘要的，应当注明本报告发布人和发布日期，并提示使用本报告的风险。未经授权或未按要求刊载、转发本报告的，应当承担相应的法律责任。本公司将保留向其追究法律责任的权利。</t>
+  </si>
+  <si>
+    <t>```json
+{
+"category": "A_基金相关",
+"score": 7,
+"reason": "基于25Q4基金季报，运用AI文本挖掘分析基金经理持仓变化与2026年展望，揭示顺周期布局共识，兼具数据实证与观点前瞻。"
+}
+```</t>
+  </si>
+  <si>
+    <t>2026-01-27_华鑫证券_2026年量化和基金研究年度策略：公募新规下的ETF组合投资元年</t>
   </si>
   <si>
     <t># 公募新规下的 ETF 组合投资元年
@@ -11023,6 +11687,21 @@
 手率&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;聚合因子&lt;/td&gt;&lt;td&gt;0.1147&lt;/td&gt;&lt;td&gt;0.5060&lt;/td&gt;&lt;td&gt;0.0493&lt;/td&gt;&lt;td&gt;14.4202&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;小单净流入5日移动加和&lt;/td&gt;&lt;td&gt;0.0171&lt;/td&gt;&lt;td&gt;0.0584&lt;/td&gt;&lt;td&gt;0.0057&lt;/td&gt;&lt;td&gt;17.4454&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;小单净流入10日移动加和&lt;/td&gt;&lt;td&gt;0.0042&lt;/td&gt;&lt;td&gt;-0.1168&lt;/td&gt;&lt;td&gt;-0.0115&lt;/td&gt;&lt;td&gt;9.9832&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;小单净流入20日移动加和&lt;/td&gt;&lt;td&gt;-0.0069&lt;/td&gt;&lt;td&gt;-0.3426&lt;/td&gt;&lt;td&gt;-0.0330&lt;/td&gt;&lt;td&gt;5.6471&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;小单净流入5日移动加和/成交额5日移动加和&lt;/td&gt;&lt;td&gt;0.0320&lt;/td&gt;&lt;td&gt;0.2663&lt;/td&gt;&lt;td&gt;0.0258&lt;/td&gt;&lt;td&gt;19.2605&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;小单净流入10日移动加和/成交额10日移动加和&lt;/td&gt;&lt;td&gt;0.0642&lt;/td&gt;&lt;td&gt;0.0725&lt;/td&gt;&lt;td&gt;0.0072&lt;/td&gt;&lt;td&gt;12.2017&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;小单净流入20日移动加和/成交额20日移动加和&lt;/td&gt;&lt;td&gt;-0.0348&lt;/td&gt;&lt;td&gt;-0.2921&lt;/td&gt;&lt;td&gt;-0.0287&lt;/td&gt;&lt;td&gt;6.8571&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;小单净流入5日移动加和/流通市值5日移动加和&lt;/td&gt;&lt;td&gt;0.0000&lt;/td&gt;&lt;td&gt;-0.1188&lt;/td&gt;&lt;td&gt;-0.0115&lt;/td&gt;&lt;td&gt;18.0504&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;小单净流入10日移动加和/流通市值10日移动加和&lt;/td&gt;&lt;td&gt;0.0305&lt;/td&gt;&lt;td&gt;-0.0589&lt;/td&gt;&lt;td&gt;-0.0058&lt;/td&gt;&lt;td&gt;11.3950&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;小单净流入20日移动加和/流通市值20日移动加和&lt;/td&gt;&lt;td&gt;-0.0326&lt;/td&gt;&lt;td&gt;-0.2619&lt;/td&gt;&lt;td&gt;-0.0264&lt;/td&gt;&lt;td&gt;6.9580&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;机构单净流入5日移动加和&lt;/td&gt;&lt;td&gt;0.0826&lt;/td&gt;&lt;td&gt;0.0722&lt;/td&gt;&lt;td&gt;0.0072&lt;/td&gt;&lt;td&gt;20.6723&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;机构单净流入10日移动加和&lt;/td&gt;&lt;td&gt;0.0658&lt;/td&gt;&lt;td&gt;-0.2253&lt;/td&gt;&lt;td&gt;-0.0215&lt;/td&gt;&lt;td&gt;13.5126&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;机构单净流入20日移动加和&lt;/td&gt;&lt;td&gt;0.0711&lt;/td&gt;&lt;td&gt;-0.1178&lt;/td&gt;&lt;td&gt;-0.0115&lt;/td&gt;&lt;td&gt;9.4790&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;机构单净流入5日移动加和/成交额5日移动加和&lt;/td&gt;&lt;td&gt;0.0767&lt;/td&gt;&lt;td&gt;0.2019&lt;/td&gt;&lt;td&gt;0.0201&lt;/td&gt;&lt;td&gt;18.4538&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;机构单净流入10日移动加和/成交额10日移动加和&lt;/td&gt;&lt;td&gt;0.0459&lt;/td&gt;&lt;td&gt;-0.1042&lt;/td&gt;&lt;td&gt;-0.0100&lt;/td&gt;&lt;td&gt;11.1933&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;机构单净流入20日移动加和/成交额20日移动加和&lt;/td&gt;&lt;td&gt;0.0280&lt;/td&gt;&lt;td&gt;-0.3036&lt;/td&gt;&lt;td&gt;-0.0301&lt;/td&gt;&lt;td&gt;7.1597&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;机构单净流入5日移动加和/流通市值5日移动加和&lt;/td&gt;&lt;td&gt;0.1016&lt;/td&gt;&lt;td&gt;0.3111&lt;/td&gt;&lt;td&gt;0.0317&lt;/td&gt;&lt;td&gt;17.5462&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;机构单净流入10日移动加和/流通市值10日移动加和&lt;/td&gt;&lt;td&gt;0.0713&lt;/td&gt;&lt;td&gt;0.2576&lt;/td&gt;&lt;td&gt;0.0246&lt;/td&gt;&lt;td&gt;10.0840&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;机构单净流入20日移动加和/流通市值20日移动加和&lt;/td&gt;&lt;td&gt;0.0349&lt;/td&gt;&lt;td&gt;-0.0741&lt;/td&gt;&lt;td&gt;-0.0073&lt;/td&gt;&lt;td&gt;5.6471&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;超大单净流入5日移动加和&lt;/td&gt;&lt;td&gt;-0.0046&lt;/td&gt;&lt;td&gt;-0.0719&lt;/td&gt;&lt;td&gt;-0.0072&lt;/td&gt;&lt;td&gt;20.2689&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;超大单净流入10日移动加和&lt;/td&gt;&lt;td&gt;0.0748&lt;/td&gt;&lt;td&gt;0.2002&lt;/td&gt;&lt;td&gt;0.0201&lt;/td&gt;&lt;td&gt;12.7059&lt;/td&gt;&lt;/tr&gt;&lt;</t>
   </si>
   <si>
+    <t>```json
+{
+"category": "B_ETF策略",
+"score": 8,
+"reason": "系统构建ETF组合投资框架，涵盖多资产配置、风险平价、行业轮动及指数增强策略，提供可复现的量化模型与历史回测，适配公募新规下的Beta投资需求。"
+}
+```</t>
+  </si>
+  <si>
+    <t>2026-02-03 07:36:23</t>
+  </si>
+  <si>
+    <t>2026-01-30_华创证券_25Q4基金季报专题研究：四类基金画像：加仓、减仓、调仓、极致风格</t>
+  </si>
+  <si>
     <t># 【策略专题】
 # 四类基金画像：加仓、减仓、调仓、极致风格——25Q4 基金季报专题研究
 # ❖ 公募整体持仓变化：增配有色、通信，减配电子、医药
@@ -11234,537 +11913,6 @@
 &lt;table&gt;&lt;tr&gt;&lt;td colspan="4"&gt;25Q3前30重仓股&lt;/td&gt;&lt;td colspan="7"&gt;25Q4前30重仓股&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;股票代码&lt;/td&gt;&lt;td&gt;股票简称&lt;/td&gt;&lt;td&gt;所属行业&lt;/td&gt;&lt;td&gt;持股市值(亿元)&lt;/td&gt;&lt;td&gt;股票代码&lt;/td&gt;&lt;td&gt;股票简称&lt;/td&gt;&lt;td&gt;所属行业&lt;/td&gt;&lt;td&gt;持股市值(亿元)&lt;/td&gt;&lt;td colspan="2"&gt;25Q4净增持(亿元)&lt;/td&gt;&lt;td&gt;是否为基金整体前30重仓股&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;300750.SZ&lt;/td&gt;&lt;td&gt;宁德时代&lt;/td&gt;&lt;td&gt;电力设备&lt;/td&gt;&lt;td&gt;14.1&lt;/td&gt;&lt;td&gt;601899.SH&lt;/td&gt;&lt;td&gt;紫金矿业&lt;/td&gt;&lt;td&gt;有色金属&lt;/td&gt;&lt;td&gt;18.0&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;td&gt;3.6&lt;/td&gt;&lt;td&gt;是&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;300502.SZ&lt;/td&gt;&lt;td&gt;新易盛&lt;/td&gt;&lt;td&gt;通信&lt;/td&gt;&lt;td&gt;12.1&lt;/td&gt;&lt;td&gt;300308.SZ&lt;/td&gt;&lt;td&gt;中际旭创&lt;/td&gt;&lt;td&gt;通信&lt;/td&gt;&lt;td&gt;13.8&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;td&gt;-0.9&lt;/td&gt;&lt;td&gt;是&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;601899.SH&lt;/td&gt;&lt;td&gt;紫金矿业&lt;/td&gt;&lt;td&gt;有色金属&lt;/td&gt;&lt;td&gt;12.0&lt;/td&gt;&lt;td&gt;300502.SZ&lt;/td&gt;&lt;td&gt;新易盛&lt;/td&gt;&lt;td&gt;通信&lt;/td&gt;&lt;td&gt;13.1&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;td&gt;-1.1&lt;/td&gt;&lt;td&gt;是&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;300308.SZ&lt;/td&gt;&lt;td&gt;中际旭创&lt;/td&gt;&lt;td&gt;通信&lt;/td&gt;&lt;td&gt;9.8&lt;/td&gt;&lt;td&gt;001309.SZ&lt;/td&gt;&lt;td&gt;德明利&lt;/td&gt;&lt;td&gt;电子&lt;/td&gt;&lt;td&gt;10.7&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;td&gt;8.2&lt;/td&gt;&lt;td&gt;否&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;9988.HK&lt;/td&gt;&lt;td&gt;阿里巴巴-W&lt;/td&gt;&lt;td&gt;商贸零售&lt;/td&gt;&lt;td&gt;8.5&lt;/td&gt;&lt;td&gt;601318.SH&lt;/td&gt;&lt;td&gt;中国平安&lt;/td&gt;&lt;td&gt;非银金融&lt;/td&gt;&lt;td&gt;10.2&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;td&gt;5.3&lt;/td&gt;&lt;td&gt;是&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;002475.SZ&lt;/td&gt;&lt;td&gt;立讯精密&lt;/td&gt;&lt;td&gt;电子&lt;/td&gt;&lt;td&gt;7.8&lt;/td&gt;&lt;td&gt;688525.SH&lt;/td&gt;&lt;td&gt;佰维存储&lt;/td&gt;&lt;td&gt;电子&lt;/td&gt;&lt;td&gt;10.1&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;td&gt;9.8&lt;/td&gt;&lt;td&gt;否&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;688256.SH&lt;/td&gt;&lt;td&gt;寒武纪-U&lt;/td&gt;&lt;td&gt;电子&lt;/td&gt;&lt;td&gt;7.7&lt;/td&gt;&lt;td&gt;300475.SZ&lt;/td&gt;&lt;td&gt;香农芯创&lt;/td&gt;&lt;td&gt;电子&lt;/td&gt;&lt;td&gt;9.8&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;td&gt;8.8&lt;/td&gt;&lt;td&gt;否&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;601138.SH&lt;/td&gt;&lt;td&gt;工业富联&lt;/td&gt;&lt;td&gt;电子&lt;/td&gt;&lt;td&gt;7.7&lt;/td&gt;&lt;td&gt;301308.SZ&lt;/td&gt;&lt;td&gt;江波龙&lt;/td&gt;&lt;td&gt;电子&lt;/td&gt;&lt;td&gt;9.1&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;td&gt;7.8&lt;/td&gt;&lt;td&gt;否&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;0700.HK&lt;/td&gt;&lt;td&gt;腾讯控股&lt;/td&gt;&lt;td&gt;传媒&lt;/td&gt;&lt;td&gt;7.4&lt;/td&gt;&lt;td&gt;300750.SZ&lt;/td&gt;&lt;td&gt;宁德时代&lt;/td&gt;&lt;td&gt;电力设备&lt;/td&gt;&lt;td&gt;8.1&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;td&gt;-5.0&lt;/td&gt;&lt;td&gt;是&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;002371.SZ&lt;/td&gt;&lt;td&gt;北方华创&lt;/td&gt;&lt;td&gt;电子&lt;/td&gt;&lt;td&gt;6.4&lt;/td&gt;&lt;td&gt;603986.SH&lt;/td&gt;&lt;td&gt;兆易创新&lt;/td&gt;&lt;td&gt;电子&lt;/td&gt;&lt;td&gt;7.7&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;td&gt;6.0&lt;/td&gt;&lt;td&gt;是&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;600809.SH&lt;/td&gt;&lt;td&gt;山西汾酒&lt;/td&gt;&lt;td&gt;食品饮料&lt;/td&gt;&lt;td&gt;6.2&lt;/td&gt;&lt;td&gt;688627.SH&lt;/td&gt;&lt;td&gt;精智达&lt;/td&gt;&lt;td&gt;机械设备&lt;/td&gt;&lt;td&gt;7.0&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;td&gt;6.2&lt;/td&gt;&lt;td&gt;否&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;000568.SZ&lt;/td&gt;&lt;td&gt;泸州老窖&lt;/td&gt;&lt;td&gt;食品饮料&lt;/td&gt;&lt;td&gt;5.7&lt;/td&gt;&lt;td&gt;0700.HK&lt;/td&gt;&lt;td&gt;腾讯控股&lt;/td&gt;&lt;td&gt;传媒&lt;/td&gt;&lt;td&gt;6.9&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;td&gt;0.4&lt;/td&gt;&lt;td&gt;是&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;1801.HK&lt;/td&gt;&lt;td&gt;信达生物&lt;/td&gt;&lt;td&gt;医药生物&lt;/td&gt;&lt;td&gt;5.4&lt;/td&gt;&lt;td&gt;300223.SZ&lt;/td&gt;&lt;td&gt;北京君正&lt;/td&gt;&lt;td&gt;电子&lt;/td&gt;&lt;td&gt;6.8&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;td&gt;6.0&lt;/td&gt;&lt;td&gt;否&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;9636.HK&lt;/td&gt;&lt;td&gt;九方智投控股&lt;/td&gt;&lt;td&gt;非银金融&lt;/td&gt;&lt;td&gt;4.9&lt;/td&gt;&lt;td&gt;9988.HK&lt;/td&gt;&lt;td&gt;阿里巴巴-W&lt;/td&gt;&lt;td&gt;商贸零售&lt;/td&gt;&lt;td&gt;5.8&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;td&gt;-1.2&lt;/td&gt;&lt;td&gt;是&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;600519.SH&lt;/td&gt;&lt;td&gt;贵州茅台&lt;/td&gt;&lt;td&gt;食品饮料&lt;/td&gt;&lt;td&gt;4.8&lt;/td&gt;&lt;td&gt;002028.SZ&lt;/td&gt;&lt;td&gt;思源电气&lt;/td&gt;&lt;td&gt;电力设备&lt;/td&gt;&lt;td&gt;5.8&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;td&gt;4.7&lt;/td&gt;&lt;td&gt;否&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;002558.SZ&lt;/td&gt;&lt;td&gt;巨人网络&lt;/td&gt;&lt;td&gt;传媒&lt;/td&gt;&lt;td&gt;4.1&lt;/td&gt;&lt;td&gt;688256.SH&lt;/td&gt;&lt;td&gt;寒武纪-U&lt;/td&gt;&lt;td&gt;电子&lt;/td&gt;&lt;td&gt;5.7&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;td&gt;-2.0&lt;/td&gt;&lt;td&gt;是&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;002241.SZ&lt;/td&gt;&lt;td&gt;歌尔股份&lt;/td&gt;&lt;td&gt;电子&lt;/td&gt;&lt;td&gt;4.1&lt;/td&gt;&lt;td&gt;688233.SH&lt;/td&gt;&lt;td&gt;神工股份&lt;/td&gt;&lt;td&gt;电子&lt;/td&gt;&lt;td&gt;5.6&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;td&gt;5.0&lt;/td&gt;&lt;td&gt;否&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;688347.SH&lt;/td&gt;&lt;td&gt;华虹公司&lt;/td&gt;&lt;td&gt;电子&lt;/td&gt;&lt;td&gt;4.0&lt;/td&gt;&lt;td&gt;000807.SZ&lt;/td&gt;&lt;td&gt;云铝股份&lt;/td&gt;&lt;td&gt;有色金属&lt;/td&gt;&lt;td&gt;5.5&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;td&gt;4.1&lt;/td&gt;&lt;td&gt;否&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;0981.HK&lt;/td&gt;&lt;td&gt;中芯国际&lt;/td&gt;&lt;td&gt;电子&lt;/td&gt;&lt;td&gt;3.8&lt;/td&gt;&lt;td&gt;688228.SH&lt;/td&gt;&lt;td&gt;开普云&lt;/td&gt;&lt;td&gt;计算机&lt;/td&gt;&lt;td&gt;5.4&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;td&gt;4.9&lt;/td&gt;&lt;td&gt;否&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;600418.SH&lt;/td&gt;&lt;td&gt;江淮汽车&lt;/td&gt;&lt;td&gt;汽车&lt;/td&gt;&lt;td&gt;3.8&lt;/td&gt;&lt;td&gt;002371.SZ&lt;/td&gt;&lt;td&gt;北方华创&lt;/td&gt;&lt;td&gt;电子&lt;/td&gt;&lt;td&gt;5.2&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;td&gt;-1.2&lt;/td&gt;&lt;td&gt;是&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;000776.SZ&lt;/td&gt;&lt;td&gt;广发证券&lt;/td&gt;&lt;td&gt;非银金融&lt;/td&gt;&lt;td&gt;3.8&lt;/td&gt;&lt;td&gt;601601.SH&lt;/td&gt;&lt;td&gt;中国太保&lt;/td&gt;&lt;td&gt;非银金融&lt;/td&gt;&lt;td&gt;5.2&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;td&gt;1.9&lt;/td&gt;&lt;td&gt;否&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;603119.SH&lt;/td&gt;&lt;td&gt;浙江荣泰&lt;/td&gt;&lt;td&gt;汽车&lt;/td&gt;&lt;td&gt;3.8&lt;/td&gt;&lt;td&gt;600519.SH&lt;/td&gt;&lt;td&gt;贵州茅台&lt;/td&gt;&lt;td&gt;食品饮料&lt;/td&gt;&lt;td&gt;5.0&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;td&gt;0.4&lt;/td&gt;&lt;td&gt;是&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;603179.SH&lt;/td&gt;&lt;td&gt;新泉股份&lt;/td&gt;&lt;td&gt;汽车&lt;/td&gt;&lt;td&gt;3.7&lt;/td&gt;&lt;td&gt;688008.SH&lt;/td&gt;&lt;td&gt;澜起科技&lt;/td&gt;&lt;td&gt;电子&lt;/td&gt;&lt;td&gt;4.5&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;td&gt;4.7&lt;/td&gt;&lt;td&gt;否&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;1810.HK&lt;/td&gt;&lt;td&gt;小米集团-W&lt;/td&gt;&lt;td&gt;电子&lt;/td&gt;&lt;td&gt;3.6&lt;/td&gt;&lt;td&gt;600030.SH&lt;/td&gt;&lt;td&gt;中信证券&lt;/td&gt;&lt;td&gt;非银金融&lt;/td&gt;&lt;td&gt;4.5&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;td&gt;4.5&lt;/td&gt;&lt;td&gt;否&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;601398.SH&lt;/td&gt;&lt;td&gt;工商银行&lt;/td&gt;&lt;td&gt;</t>
   </si>
   <si>
-    <t>2026-02-03 00:06:29</t>
-  </si>
-  <si>
-    <t>```json
-{
-"category": "A_基金相关",
-"score": 8,
-"reason": "构建核心资产基金池，从赛道龙头、资源禀赋等四维度定义核心资产，筛选低Beta高现金流基金，提供10只精选基金标的及详细画像分析，具备可复用的基金评价框架。"
-}
-```</t>
-  </si>
-  <si>
-    <t>```json
-{
-"category": "A_基金相关",
-"score": 8,
-"reason": "基于BP因子和盈利预期构建深度价值基金筛选框架，提供具体基金名单及详细画像分析，对FOF配置具有直接参考价值。"
-}
-```</t>
-  </si>
-  <si>
-    <t>```json
-{
-"category": "A_基金相关",
-"score": 8,
-"reason": "基于PB-ROE因子筛选成长价值型基金，构建高年度胜率基金池，提供10只精选基金及详细画像分析，具备明确配置价值与复用框架。"
-}
-```</t>
-  </si>
-  <si>
-    <t>```json
-{
-"category": "A_基金相关",
-"score": 7,
-"reason": "基于盈利拐点与出海战略，推荐具备选股能力的主动权益基金及有色、锂电、创新药等行业ETF配置，判断大盘成长风格占优。"
-}
-```</t>
-  </si>
-  <si>
-    <t>```json
-{
-"category": "B_ETF策略",
-"score": 8,
-"reason": "提供哑铃型ETF配置策略及具体产品池，基于政策与风格研判给出均衡配置建议"
-}
-```</t>
-  </si>
-  <si>
-    <t>```json
-{
-"category": "G_定期报告",
-"score": 6,
-"reason": "基于行业轮动模型的ETF组合周度跟踪，提供调仓清单与择时信号，属常规策略维护"
-}
-```</t>
-  </si>
-  <si>
-    <t>```json
-{
-"category": "A_基金相关",
-"score": 8,
-"reason": "深度剖析五位公募量化基金经理的AI与多因子投资框架、风控特征及业绩归因，为FOF选基提供可复用的分析维度和配置参考。"
-}
-```</t>
-  </si>
-  <si>
-    <t>{
-"category": "G_定期报告",
-"score": 3,
-"reason": "基金周报，仅罗列本周市场及各类基金业绩数据，无投资方法、策略框架或明确投资建议，属常规数据跟踪。"
-}</t>
-  </si>
-  <si>
-    <t>```json
-{
-"category": "A_基金相关",
-"score": 6,
-"reason": "基金配置周报，基于AI/固态电池等热点事件推荐主题基金，提出杠铃策略配置思路，但主要为短期事件驱动，缺乏深度量化分析框架"
-}
-```</t>
-  </si>
-  <si>
-    <t>```json
-{
-"category": "A_基金相关",
-"score": 8,
-"reason": "月度基金策略报告，提供具体基金推荐名单、大类资产配置方案及基于净值回归的仓位测算模型，兼具可执行性与方法参考价值"
-}
-```</t>
-  </si>
-  <si>
-    <t>{
-"category": "B_ETF策略",
-"score": 8,
-"reason": "基于行业轮动的ETF组合策略，提供具体调仓标的与择时信号，附带样本外业绩追踪，具备可执行性。"
-}</t>
-  </si>
-  <si>
-    <t>{
-"category": "G_定期报告",
-"score": 7,
-"reason": "系统跟踪7类ETF配置策略月度表现，涵盖风格轮动、风险平价、资产轮动等框架，提供可复现的组合管理方法与风险指标，适合作为ETF配置工具参考。"
-}</t>
-  </si>
-  <si>
-    <t>```json
-{
-"category": "A_基金相关",
-"score": 7,
-"reason": "公募基金2026年度策略，基于资金流向与业绩统计，给出权益/固收/商品基金配置建议，含具体基金推荐与风险展望"
-}
-```</t>
-  </si>
-  <si>
-    <t>```json
-{
-"category": "F_专题与系列研究报告",
-"score": 6,
-"reason": "ETF托管结算行业生态分析，梳理券结模式崛起、费率下行趋势及券商份额提升现象，属于ETF科普系列专题"
-}
-```</t>
-  </si>
-  <si>
-    <t>{
-"category": "G_定期报告",
-"score": 5,
-"reason": "ETF周报，跟踪周度资金流向与指数表现，以数据罗列为主，缺乏可复用的投资框架与深度策略建议，适合快速浏览了解市场动态。"
-}</t>
-  </si>
-  <si>
-    <t>```json
-{
-"category": "A_基金相关",
-"score": 8,
-"reason": "构建主动权益与固收类基金优选指数，提供具体基金标的名单及均衡配置策略，具备直接参考价值。"
-}
-```</t>
-  </si>
-  <si>
-    <t>{
-"category": "A_基金相关",
-"score": 7,
-"reason": "年度基金策略报告，详述基金组合构建方法论与历史业绩，提供2026年具体基金配置方案及品种名单，含风险调整后收益分析，适合FOF及基金投资者参考。"
-}</t>
-  </si>
-  <si>
-    <t>```json
-{
-"category": "G_定期报告",
-"score": 7,
-"reason": "周报跟踪6种ETF策略指数（大小盘轮动、SmartBeta、行业轮动、久期管理等）的周度绩效与持仓，基于机器学习与多因子模型构建，展示量化方法在ETF配置中的具体应用。"
-}
-```</t>
-  </si>
-  <si>
-    <t>```json
-{
-"category": "G_定期报告",
-"score": 6,
-"reason": "周度ETF市场数据跟踪，分析资金向红利策略及科创债流动趋势，属定期行情监测"
-}
-```</t>
-  </si>
-  <si>
-    <t>{
-"category": "F_专题与系列研究报告",
-"score": 8,
-"reason": "系列专题第四篇，创新拆解ETF持有人结构构建行业轮动因子，重点挖掘保险资金的'聪明钱'效应，提供可复用的量化框架与回测验证。"
-}</t>
-  </si>
-  <si>
-    <t>```json
-{
-"category": "G_定期报告",
-"score": 6,
-"reason": "周报形式，罗列市场行情、ETF资金流向及本周新发基金明细，缺乏深度分析与可复用框架。"
-}
-```</t>
-  </si>
-  <si>
-    <t>```json
-{
-"category": "G_定期报告",
-"score": 6,
-"reason": "自适应双模态ETF策略日频跟踪，提供具体持仓与T+1交易指令，适合策略跟随者参考，但属例行数据更新，方法论创新有限"
-}
-```</t>
-  </si>
-  <si>
-    <t>```json
-{
-"category": "A_基金相关",
-"score": 7,
-"reason": "分析ETF-FOF新产品业绩基准设计，关注多资产策略指数化趋势，对FOF配置有参考价值"
-}
-```</t>
-  </si>
-  <si>
-    <t>```json
-{
-"category": "A_基金相关",
-"score": 7,
-"reason": "北交所两年定开基金深度分析，对比两轮开放期业绩、持仓及申赎行为，评估配置价值。"
-}
-```</t>
-  </si>
-  <si>
-    <t>```json
-{
-"category": "G_定期报告",
-"score": 5,
-"reason": "每日ETF行情、资金流向及两融数据跟踪，纯数据罗列，无策略框架或深度分析，短期参考价值有限"
-}
-```</t>
-  </si>
-  <si>
-    <t>{
-"category": "G_定期报告",
-"score": 6,
-"reason": "周度资金流向跟踪报告，涵盖ETF、外资、融资、公募等多维度资金数据，适合监控短期资金面变化，但缺乏策略构建与中长期决策框架。"
-}</t>
-  </si>
-  <si>
-    <t>```json
-{
-"category": "G_定期报告",
-"score": 4,
-"reason": "公募基金周报，以ETF流向、基金收益排名、新发基金等数据跟踪为主，缺乏深度研究框架与可执行投资建议，主要供快速浏览获取基础市场信息。"
-}
-```</t>
-  </si>
-  <si>
-    <t>```json
-{
-"category": "B_ETF策略",
-"score": 6,
-"reason": "行业轮动ETF策略的周度跟踪，提供具体调仓标的、持仓业绩及量价择时信号，具备执行参考价值但属常规运作更新"
-}
-```</t>
-  </si>
-  <si>
-    <t>```json
-{
-"category": "G_定期报告",
-"score": 5,
-"reason": "ETF市场周报，罗列资金流向、成交额等统计数据，缺乏投资策略或深度分析框架，仅适合作为基础数据跟踪参考。"
-}
-```</t>
-  </si>
-  <si>
-    <t>```json
-{
-"category": "G_定期报告",
-"score": 2,
-"reason": "每日ETF行情与资金流数据跟踪，无策略构建或深度分析，属常规数据播报"
-}
-```</t>
-  </si>
-  <si>
-    <t>```json
-{
-"category": "G_定期报告",
-"score": 6,
-"reason": "TS策略日频跟踪，提供ETF调仓信号与净值监控，适合策略使用者跟投，但属日常数据更新，方法论价值有限"
-}
-```</t>
-  </si>
-  <si>
-    <t>{
-"category": "G_定期报告",
-"score": 2,
-"reason": "每日ETF行情与资金流向数据跟踪，无投资策略或深度分析，属于例行数据播报"
-}</t>
-  </si>
-  <si>
-    <t>{
-"category": "F_专题与系列研究报告",
-"score": 7,
-"reason": "系列专题研究被动基金市场格局与资金流向，剖析策略ETF蓝海机遇，对比中美Smart Beta发展差异，提出指数增强与投顾协同创新路径"
-}</t>
-  </si>
-  <si>
-    <t>```json
-{
-"category": "G_定期报告",
-"score": 6,
-"reason": "REITs市场定期跟踪，涵盖发行、交易、分红及估值数据，适合市场监控但缺乏深度策略与可复现方法"
-}
-```</t>
-  </si>
-  <si>
-    <t>```json
-{
-"category": "G_定期报告",
-"score": 6,
-"reason": "ETF自适应双模态策略的日频信号跟踪，提供具体买卖指令与持仓，适合短期交易参考但方法创新性有限。"
-}
-```</t>
-  </si>
-  <si>
-    <t>{
-"category": "A_基金相关",
-"score": 8,
-"reason": "构建三层动态资产配置框架（压舱石+增长引擎+对冲卫星），基于PMI/社融/波动率信号设计情景化调仓规则，并提供具体公募基金产品落地建议与筛选标准"
-}</t>
-  </si>
-  <si>
-    <t>```json
-{
-"category": "G_定期报告",
-"score": 6,
-"reason": "基于自适应双模态TS策略的ETF日频跟踪，提供模态判定、持仓明细及T+1交易指令，属策略执行层面的定期更新"
-}
-```</t>
-  </si>
-  <si>
-    <t>```json
-{
-"category": "A_基金相关",
-"score": 6,
-"reason": "股票型ETF年度业绩回顾，总结哑铃化配置特征（宽基+成长+红利），数据详实但偏重历史复盘与现象描述，策略前瞻性有限"
-}
-```</t>
-  </si>
-  <si>
-    <t>```json
-{
-"category": "G_定期报告",
-"score": 5,
-"reason": "每日ETF行情、资金流向及融资数据跟踪，纯数据展示，缺乏策略构建与深度分析，仅适合短期交易参考"
-}
-```</t>
-  </si>
-  <si>
-    <t>```json
-{
-"category": "D_资产配置与组合管理",
-"score": 8,
-"reason": "将强化学习(PPO/SAC)引入大类资产配置，构建动态决策框架，对比风险平价/预算等传统方法，样本外实证显示更优风险收益比，具备方法创新性和中长期配置参考价值。"
-}
-```</t>
-  </si>
-  <si>
-    <t>{
-"category": "A_基金相关",
-"score": 8,
-"reason": "主动量化基金深度分析，构建'宏观研判+多策略'双轮驱动框架，Brinson归因显示超额收益主要源于个股精选，策略动态配置体系具备参考价值"
-}</t>
-  </si>
-  <si>
-    <t>{
-"category": "F_专题与系列研究报告",
-"score": 8,
-"reason": "构建8维度基金定量指标体系，基于RankIC测试筛选有效因子，构建量化FOF策略实现年化超额10%，提供可复用的基金筛选框架"
-}</t>
-  </si>
-  <si>
-    <t>```json
-{
-"category": "A_基金相关",
-"score": 7,
-"reason": "月度基金配置策略，提供分风格基金推荐名单及积极/稳健/保守三类风险偏好组合构建方案，附基金仓位测算模型，具备直接决策参考价值。"
-}
-```</t>
-  </si>
-  <si>
-    <t>```json
-{
-"category": "A_基金相关",
-"score": 7,
-"reason": "基于CES2026等事件驱动的基金配置策略，提供具体基金推荐及杠铃策略配置思路，具备短期操作参考价值。"
-}
-```</t>
-  </si>
-  <si>
-    <t>{
-"category": "D_资产配置与组合管理",
-"score": 8,
-"reason": "2026年大类资产配置年度展望，提出哑铃策略及股债商轮动配置建议，涵盖QDII、权益与固收基金具体投资方案"
-}</t>
-  </si>
-  <si>
-    <t>```json
-{
-"category": "B_ETF策略",
-"score": 7,
-"reason": "系统跟踪7类ETF策略表现，涵盖风格轮动、二八轮动、风险平价、估值因子等量化配置方法，提供策略逻辑、业绩基准及风险指标对比，具备一定复现参考价值。"
-}
-```</t>
-  </si>
-  <si>
-    <t>{
-"category": "A_基金相关",
-"score": 7,
-"reason": "深度解析基金经理陈鹏投资框架、业绩归因及风格特征，数据详实，对了解该基金经理及成长投资策略有参考价值。"
-}</t>
-  </si>
-  <si>
-    <t>```json
-{
-"category": "B_ETF策略",
-"score": 8,
-"reason": "构建多维度ETF行业轮动模型，结合定量打分与定性分析，提供1月具体行业推荐及ETF标的，具备可复用框架与明确配置价值。"
-}
-```</t>
-  </si>
-  <si>
-    <t>```json
-{
-"category": "A_基金相关",
-"score": 8,
-"reason": "构建主动权益与固收类基金优选指数，提供具体基金标的及配置策略，具备实操参考价值。"
-}
-```</t>
-  </si>
-  <si>
-    <t>```json
-{
-"category": "G_定期报告",
-"score": 7,
-"reason": "行业轮动ETF策略周报，给出具体调仓建议（调入国防、证券保险ETF等）及量价择时信号，样本外超额收益16.19%。"
-}
-```</t>
-  </si>
-  <si>
-    <t>```json
-{
-"category": "A_基金相关",
-"score": 8,
-"reason": "基于公募基金四季报的持仓数据分析，揭示机构减配科技消费、增配周期制造的风格转向，为个人投资者提供机构资金动向参考。"
-}
-```</t>
-  </si>
-  <si>
-    <t>```json
-{
-"category": "A_基金相关",
-"score": 8,
-"reason": "年度主动权益基金策略，提供景气成长/困境反转/GARP等配置框架及具体基金经理推荐，含详细筛选指标与业绩数据。"
-}
-```</t>
-  </si>
-  <si>
-    <t>```json
-{
-"category": "A_基金相关",
-"score": 6,
-"reason": "基金季报持仓分析，统计主动权益基金四季度行业配置变化及重仓股变动，揭示机构资金流向"
-}
-```</t>
-  </si>
-  <si>
-    <t>```json
-{
-"category": "A_基金相关",
-"score": 7,
-"reason": "系统解析2025Q4主动偏股基金调仓特征，揭示加仓AI算力/有色、减持医药电子的机构动向，提供市场结构观察视角。"
-}
-```</t>
-  </si>
-  <si>
-    <t>```json
-{
-"category": "A_基金相关",
-"score": 6,
-"reason": "公募基金季度持仓盘点，详列板块/行业/个股调仓数据与集中度变化，属机构动向跟踪，缺乏可复现策略框架，适合作为配置参考但前瞻性有限。"
-}
-```</t>
-  </si>
-  <si>
-    <t>```json
-{
-  "category": "A_基金相关",
-  "score": 7,
-  "reason": "Q4主动基金持仓全景分析，揭示机构增配周期/金融/AI硬件、减配港股与医药电子的方向，对理解主力资金动向有参考价值但缺乏可复现模型。"
-}
-```</t>
-  </si>
-  <si>
-    <t>```json
-{
-"category": "A_基金相关",
-"score": 8,
-"reason": "基于基金四季报深度挖掘资金逻辑，提出居民赎回压力缓解、存款搬家方向及TMT/资源品配置线索，具备 actionable insights。"
-}
-```</t>
-  </si>
-  <si>
-    <t>```json
-{
-"category": "E_市场结构与择时",
-"score": 8,
-"reason": "测算汇金系ETF减持规模与节奏，分析资金流出对市场风格（大盘受压、小盘避险）及个股的冲击，建议减仓拥挤主题、关注电力设备与机器人。"
-}
-```</t>
-  </si>
-  <si>
-    <t>```json
-{
-"category": "A_基金相关",
-"score": 8,
-"reason": "基于基金季报数据，构建配置系数分位数框架分析筹码拥挤度，识别低位顺周期及科技资产，并跟踪负债端赎回压力变化。"
-}
-```</t>
-  </si>
-  <si>
-    <t>{
-"category": "G_定期报告",
-"score": 6,
-"reason": "基金配置周报，回顾上周市场行情并基于事件驱动与杠铃策略推荐具体基金产品，以短期配置指引为主，研究深度一般，适合跟踪市场动态。"
-}</t>
-  </si>
-  <si>
-    <t>```json
-{
-"category": "A_基金相关",
-"score": 7,
-"reason": "基于25Q4基金季报，运用AI文本挖掘分析基金经理持仓变化与2026年展望，揭示顺周期布局共识，兼具数据实证与观点前瞻。"
-}
-```</t>
-  </si>
-  <si>
-    <t>```json
-{
-"category": "B_ETF策略",
-"score": 8,
-"reason": "系统构建ETF组合投资框架，涵盖多资产配置、风险平价、行业轮动及指数增强策略，提供可复现的量化模型与历史回测，适配公募新规下的Beta投资需求。"
-}
-```</t>
-  </si>
-  <si>
     <t>{
 "category": "A_基金相关",
 "score": 8,
@@ -11772,174 +11920,383 @@
 }</t>
   </si>
   <si>
-    <t>2026-02-03 07:35:25</t>
-  </si>
-  <si>
-    <t>2026-02-03 07:35:30</t>
-  </si>
-  <si>
-    <t>2026-02-03 07:35:26</t>
-  </si>
-  <si>
-    <t>2026-02-03 07:35:23</t>
-  </si>
-  <si>
-    <t>2026-02-03 07:35:20</t>
-  </si>
-  <si>
-    <t>2026-02-03 07:36:00</t>
-  </si>
-  <si>
-    <t>2026-02-03 07:35:24</t>
-  </si>
-  <si>
-    <t>2026-02-03 07:35:34</t>
-  </si>
-  <si>
-    <t>2026-02-03 07:35:33</t>
-  </si>
-  <si>
-    <t>2026-02-03 07:35:36</t>
-  </si>
-  <si>
-    <t>2026-02-03 07:35:43</t>
-  </si>
-  <si>
-    <t>2026-02-03 07:35:32</t>
-  </si>
-  <si>
-    <t>2026-02-03 07:35:41</t>
-  </si>
-  <si>
-    <t>2026-02-03 07:35:58</t>
-  </si>
-  <si>
-    <t>2026-02-03 07:35:31</t>
-  </si>
-  <si>
-    <t>2026-02-03 07:35:57</t>
-  </si>
-  <si>
-    <t>2026-02-03 07:35:42</t>
-  </si>
-  <si>
-    <t>2026-02-03 07:35:40</t>
-  </si>
-  <si>
-    <t>2026-02-03 07:35:35</t>
-  </si>
-  <si>
-    <t>2026-02-03 07:35:53</t>
-  </si>
-  <si>
-    <t>2026-02-03 07:36:14</t>
-  </si>
-  <si>
-    <t>2026-02-03 07:36:13</t>
-  </si>
-  <si>
-    <t>2026-02-03 07:35:45</t>
-  </si>
-  <si>
-    <t>2026-02-03 07:35:51</t>
-  </si>
-  <si>
-    <t>2026-02-03 07:35:54</t>
-  </si>
-  <si>
-    <t>2026-02-03 07:36:19</t>
-  </si>
-  <si>
-    <t>2026-02-03 07:35:59</t>
-  </si>
-  <si>
-    <t>2026-02-03 07:35:52</t>
-  </si>
-  <si>
-    <t>2026-02-03 07:35:55</t>
-  </si>
-  <si>
-    <t>2026-02-03 07:36:08</t>
-  </si>
-  <si>
-    <t>2026-02-03 07:36:11</t>
-  </si>
-  <si>
-    <t>2026-02-03 07:36:05</t>
-  </si>
-  <si>
-    <t>2026-02-03 07:36:21</t>
-  </si>
-  <si>
-    <t>2026-02-03 07:36:03</t>
-  </si>
-  <si>
-    <t>2026-02-03 07:36:09</t>
-  </si>
-  <si>
-    <t>2026-02-03 07:36:28</t>
-  </si>
-  <si>
-    <t>2026-02-03 07:36:04</t>
-  </si>
-  <si>
-    <t>2026-02-03 07:36:25</t>
-  </si>
-  <si>
-    <t>2026-02-03 07:36:16</t>
-  </si>
-  <si>
-    <t>2026-02-03 07:36:15</t>
-  </si>
-  <si>
-    <t>2026-02-03 07:36:26</t>
-  </si>
-  <si>
-    <t>2026-02-03 07:36:22</t>
-  </si>
-  <si>
-    <t>2026-02-03 07:36:20</t>
-  </si>
-  <si>
-    <t>2026-02-03 07:36:27</t>
-  </si>
-  <si>
-    <t>2026-02-03 07:36:23</t>
-  </si>
-  <si>
     <t>2026-02-03 07:36:18</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="5">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
+  </numFmts>
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -11962,21 +12319,316 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  <cellStyles count="49">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -12259,19 +12911,24 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I64"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:L64"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N5" sqref="N5"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
+  <cols>
+    <col min="12" max="12" width="14.6153846153846"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -12299,8 +12956,9 @@
       <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="L1" s="2"/>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:12">
       <c r="B2" t="s">
         <v>9</v>
       </c>
@@ -12311,1439 +12969,1439 @@
         <v>23905</v>
       </c>
       <c r="F2" t="s">
-        <v>72</v>
+        <v>10</v>
       </c>
       <c r="G2" t="s">
-        <v>135</v>
+        <v>11</v>
       </c>
       <c r="H2" t="s">
-        <v>136</v>
+        <v>12</v>
       </c>
       <c r="I2" t="s">
-        <v>199</v>
+        <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:12">
       <c r="B3" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C3" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E3">
         <v>24647</v>
       </c>
       <c r="F3" t="s">
-        <v>73</v>
+        <v>15</v>
       </c>
       <c r="G3" t="s">
-        <v>135</v>
+        <v>11</v>
       </c>
       <c r="H3" t="s">
-        <v>137</v>
+        <v>16</v>
       </c>
       <c r="I3" t="s">
-        <v>200</v>
+        <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:12">
       <c r="B4" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="C4" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="E4">
         <v>25292</v>
       </c>
       <c r="F4" t="s">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="G4" t="s">
-        <v>135</v>
+        <v>11</v>
       </c>
       <c r="H4" t="s">
-        <v>138</v>
+        <v>20</v>
       </c>
       <c r="I4" t="s">
-        <v>201</v>
+        <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:12">
       <c r="B5" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="C5" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="E5">
         <v>16250</v>
       </c>
       <c r="F5" t="s">
-        <v>75</v>
+        <v>23</v>
       </c>
       <c r="G5" t="s">
-        <v>135</v>
+        <v>11</v>
       </c>
       <c r="H5" t="s">
-        <v>139</v>
+        <v>24</v>
       </c>
       <c r="I5" t="s">
-        <v>202</v>
+        <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:12">
       <c r="B6" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="C6" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="E6">
         <v>9665</v>
       </c>
       <c r="F6" t="s">
-        <v>76</v>
+        <v>27</v>
       </c>
       <c r="G6" t="s">
-        <v>135</v>
+        <v>11</v>
       </c>
       <c r="H6" t="s">
-        <v>140</v>
+        <v>28</v>
       </c>
       <c r="I6" t="s">
-        <v>203</v>
+        <v>29</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:12">
       <c r="B7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="C7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="E7">
         <v>4260</v>
       </c>
       <c r="F7" t="s">
-        <v>77</v>
+        <v>31</v>
       </c>
       <c r="G7" t="s">
-        <v>135</v>
+        <v>11</v>
       </c>
       <c r="H7" t="s">
-        <v>141</v>
+        <v>32</v>
       </c>
       <c r="I7" t="s">
-        <v>204</v>
+        <v>33</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:12">
       <c r="B8" t="s">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="C8" t="s">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="E8">
         <v>37628</v>
       </c>
       <c r="F8" t="s">
-        <v>78</v>
+        <v>35</v>
       </c>
       <c r="G8" t="s">
-        <v>135</v>
+        <v>11</v>
       </c>
       <c r="H8" t="s">
-        <v>142</v>
+        <v>36</v>
       </c>
       <c r="I8" t="s">
-        <v>205</v>
+        <v>37</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:12">
       <c r="B9" t="s">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="C9" t="s">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="E9">
         <v>12404</v>
       </c>
       <c r="F9" t="s">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="G9" t="s">
-        <v>135</v>
+        <v>11</v>
       </c>
       <c r="H9" t="s">
-        <v>143</v>
+        <v>40</v>
       </c>
       <c r="I9" t="s">
-        <v>203</v>
+        <v>29</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:12">
       <c r="B10" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="C10" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="E10">
         <v>11531</v>
       </c>
       <c r="F10" t="s">
-        <v>80</v>
+        <v>42</v>
       </c>
       <c r="G10" t="s">
-        <v>135</v>
+        <v>11</v>
       </c>
       <c r="H10" t="s">
-        <v>144</v>
+        <v>43</v>
       </c>
       <c r="I10" t="s">
-        <v>206</v>
+        <v>44</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:12">
       <c r="B11" t="s">
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="C11" t="s">
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="E11">
         <v>21162</v>
       </c>
       <c r="F11" t="s">
-        <v>81</v>
+        <v>46</v>
       </c>
       <c r="G11" t="s">
-        <v>135</v>
+        <v>11</v>
       </c>
       <c r="H11" t="s">
-        <v>145</v>
+        <v>47</v>
       </c>
       <c r="I11" t="s">
-        <v>207</v>
+        <v>48</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:12">
       <c r="B12" t="s">
-        <v>19</v>
+        <v>49</v>
       </c>
       <c r="C12" t="s">
-        <v>19</v>
+        <v>49</v>
       </c>
       <c r="E12">
         <v>4172</v>
       </c>
       <c r="F12" t="s">
-        <v>82</v>
+        <v>50</v>
       </c>
       <c r="G12" t="s">
-        <v>135</v>
+        <v>11</v>
       </c>
       <c r="H12" t="s">
-        <v>146</v>
+        <v>51</v>
       </c>
       <c r="I12" t="s">
-        <v>208</v>
+        <v>52</v>
       </c>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:12">
       <c r="B13" t="s">
-        <v>20</v>
+        <v>53</v>
       </c>
       <c r="C13" t="s">
-        <v>20</v>
+        <v>53</v>
       </c>
       <c r="E13">
         <v>22539</v>
       </c>
       <c r="F13" t="s">
-        <v>83</v>
+        <v>54</v>
       </c>
       <c r="G13" t="s">
-        <v>135</v>
+        <v>11</v>
       </c>
       <c r="H13" t="s">
-        <v>147</v>
+        <v>55</v>
       </c>
       <c r="I13" t="s">
-        <v>209</v>
+        <v>56</v>
       </c>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:12">
       <c r="B14" t="s">
-        <v>21</v>
+        <v>57</v>
       </c>
       <c r="C14" t="s">
-        <v>21</v>
+        <v>57</v>
       </c>
       <c r="E14">
         <v>62767</v>
       </c>
       <c r="F14" t="s">
-        <v>84</v>
+        <v>58</v>
       </c>
       <c r="G14" t="s">
-        <v>135</v>
+        <v>11</v>
       </c>
       <c r="H14" t="s">
-        <v>148</v>
+        <v>59</v>
       </c>
       <c r="I14" t="s">
-        <v>210</v>
+        <v>60</v>
       </c>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:12">
       <c r="B15" t="s">
-        <v>22</v>
+        <v>61</v>
       </c>
       <c r="C15" t="s">
-        <v>22</v>
+        <v>61</v>
       </c>
       <c r="E15">
         <v>22850</v>
       </c>
       <c r="F15" t="s">
-        <v>85</v>
+        <v>62</v>
       </c>
       <c r="G15" t="s">
-        <v>135</v>
+        <v>11</v>
       </c>
       <c r="H15" t="s">
-        <v>149</v>
+        <v>63</v>
       </c>
       <c r="I15" t="s">
-        <v>211</v>
+        <v>64</v>
       </c>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:12">
       <c r="B16" t="s">
-        <v>23</v>
+        <v>65</v>
       </c>
       <c r="C16" t="s">
-        <v>23</v>
+        <v>65</v>
       </c>
       <c r="E16">
         <v>10973</v>
       </c>
       <c r="F16" t="s">
-        <v>86</v>
+        <v>66</v>
       </c>
       <c r="G16" t="s">
-        <v>135</v>
+        <v>11</v>
       </c>
       <c r="H16" t="s">
-        <v>150</v>
+        <v>67</v>
       </c>
       <c r="I16" t="s">
-        <v>199</v>
+        <v>13</v>
       </c>
     </row>
     <row r="17" spans="2:9">
       <c r="B17" t="s">
-        <v>24</v>
+        <v>68</v>
       </c>
       <c r="C17" t="s">
-        <v>24</v>
+        <v>68</v>
       </c>
       <c r="E17">
         <v>16107</v>
       </c>
       <c r="F17" t="s">
-        <v>87</v>
+        <v>69</v>
       </c>
       <c r="G17" t="s">
-        <v>135</v>
+        <v>11</v>
       </c>
       <c r="H17" t="s">
-        <v>151</v>
+        <v>70</v>
       </c>
       <c r="I17" t="s">
-        <v>199</v>
+        <v>13</v>
       </c>
     </row>
     <row r="18" spans="2:9">
       <c r="B18" t="s">
-        <v>25</v>
+        <v>71</v>
       </c>
       <c r="C18" t="s">
-        <v>25</v>
+        <v>71</v>
       </c>
       <c r="E18">
         <v>46003</v>
       </c>
       <c r="F18" t="s">
-        <v>88</v>
+        <v>72</v>
       </c>
       <c r="G18" t="s">
-        <v>135</v>
+        <v>11</v>
       </c>
       <c r="H18" t="s">
-        <v>152</v>
+        <v>73</v>
       </c>
       <c r="I18" t="s">
-        <v>202</v>
+        <v>25</v>
       </c>
     </row>
     <row r="19" spans="2:9">
       <c r="B19" t="s">
-        <v>26</v>
+        <v>74</v>
       </c>
       <c r="C19" t="s">
-        <v>26</v>
+        <v>74</v>
       </c>
       <c r="E19">
         <v>12608</v>
       </c>
       <c r="F19" t="s">
-        <v>89</v>
+        <v>75</v>
       </c>
       <c r="G19" t="s">
-        <v>135</v>
+        <v>11</v>
       </c>
       <c r="H19" t="s">
-        <v>153</v>
+        <v>76</v>
       </c>
       <c r="I19" t="s">
-        <v>212</v>
+        <v>77</v>
       </c>
     </row>
     <row r="20" spans="2:9">
       <c r="B20" t="s">
-        <v>27</v>
+        <v>78</v>
       </c>
       <c r="C20" t="s">
-        <v>27</v>
+        <v>78</v>
       </c>
       <c r="E20">
         <v>10916</v>
       </c>
       <c r="F20" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="G20" t="s">
-        <v>135</v>
+        <v>11</v>
       </c>
       <c r="H20" t="s">
-        <v>154</v>
+        <v>80</v>
       </c>
       <c r="I20" t="s">
-        <v>201</v>
+        <v>21</v>
       </c>
     </row>
     <row r="21" spans="2:9">
       <c r="B21" t="s">
-        <v>28</v>
+        <v>81</v>
       </c>
       <c r="C21" t="s">
-        <v>28</v>
+        <v>81</v>
       </c>
       <c r="E21">
         <v>35942</v>
       </c>
       <c r="F21" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="G21" t="s">
-        <v>135</v>
+        <v>11</v>
       </c>
       <c r="H21" t="s">
-        <v>155</v>
+        <v>83</v>
       </c>
       <c r="I21" t="s">
-        <v>213</v>
+        <v>84</v>
       </c>
     </row>
     <row r="22" spans="2:9">
       <c r="B22" t="s">
-        <v>29</v>
+        <v>85</v>
       </c>
       <c r="C22" t="s">
-        <v>29</v>
+        <v>85</v>
       </c>
       <c r="E22">
         <v>8511</v>
       </c>
       <c r="F22" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="G22" t="s">
-        <v>135</v>
+        <v>11</v>
       </c>
       <c r="H22" t="s">
-        <v>156</v>
+        <v>87</v>
       </c>
       <c r="I22" t="s">
-        <v>213</v>
+        <v>84</v>
       </c>
     </row>
     <row r="23" spans="2:9">
       <c r="B23" t="s">
-        <v>30</v>
+        <v>88</v>
       </c>
       <c r="C23" t="s">
-        <v>30</v>
+        <v>88</v>
       </c>
       <c r="E23">
         <v>5255</v>
       </c>
       <c r="F23" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="G23" t="s">
-        <v>135</v>
+        <v>11</v>
       </c>
       <c r="H23" t="s">
-        <v>157</v>
+        <v>90</v>
       </c>
       <c r="I23" t="s">
-        <v>214</v>
+        <v>91</v>
       </c>
     </row>
     <row r="24" spans="2:9">
       <c r="B24" t="s">
-        <v>31</v>
+        <v>92</v>
       </c>
       <c r="C24" t="s">
-        <v>31</v>
+        <v>92</v>
       </c>
       <c r="E24">
         <v>10511</v>
       </c>
       <c r="F24" t="s">
+        <v>93</v>
+      </c>
+      <c r="G24" t="s">
+        <v>11</v>
+      </c>
+      <c r="H24" t="s">
         <v>94</v>
       </c>
-      <c r="G24" t="s">
-        <v>135</v>
-      </c>
-      <c r="H24" t="s">
-        <v>158</v>
-      </c>
       <c r="I24" t="s">
-        <v>215</v>
+        <v>95</v>
       </c>
     </row>
     <row r="25" spans="2:9">
       <c r="B25" t="s">
-        <v>32</v>
+        <v>96</v>
       </c>
       <c r="C25" t="s">
-        <v>32</v>
+        <v>96</v>
       </c>
       <c r="E25">
         <v>33090</v>
       </c>
       <c r="F25" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="G25" t="s">
-        <v>135</v>
+        <v>11</v>
       </c>
       <c r="H25" t="s">
-        <v>159</v>
+        <v>98</v>
       </c>
       <c r="I25" t="s">
-        <v>216</v>
+        <v>99</v>
       </c>
     </row>
     <row r="26" spans="2:9">
       <c r="B26" t="s">
-        <v>33</v>
+        <v>100</v>
       </c>
       <c r="C26" t="s">
-        <v>33</v>
+        <v>100</v>
       </c>
       <c r="E26">
         <v>6101</v>
       </c>
       <c r="F26" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="G26" t="s">
-        <v>135</v>
+        <v>11</v>
       </c>
       <c r="H26" t="s">
-        <v>160</v>
+        <v>102</v>
       </c>
       <c r="I26" t="s">
-        <v>217</v>
+        <v>103</v>
       </c>
     </row>
     <row r="27" spans="2:9">
       <c r="B27" t="s">
-        <v>34</v>
+        <v>104</v>
       </c>
       <c r="C27" t="s">
-        <v>34</v>
+        <v>104</v>
       </c>
       <c r="E27">
         <v>112699</v>
       </c>
       <c r="F27" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="G27" t="s">
-        <v>135</v>
+        <v>11</v>
       </c>
       <c r="H27" t="s">
-        <v>161</v>
+        <v>106</v>
       </c>
       <c r="I27" t="s">
-        <v>209</v>
+        <v>56</v>
       </c>
     </row>
     <row r="28" spans="2:9">
       <c r="B28" t="s">
-        <v>35</v>
+        <v>107</v>
       </c>
       <c r="C28" t="s">
-        <v>35</v>
+        <v>107</v>
       </c>
       <c r="E28">
         <v>24158</v>
       </c>
       <c r="F28" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="G28" t="s">
-        <v>135</v>
+        <v>11</v>
       </c>
       <c r="H28" t="s">
-        <v>162</v>
+        <v>109</v>
       </c>
       <c r="I28" t="s">
-        <v>218</v>
+        <v>110</v>
       </c>
     </row>
     <row r="29" spans="2:9">
       <c r="B29" t="s">
-        <v>36</v>
+        <v>111</v>
       </c>
       <c r="C29" t="s">
-        <v>36</v>
+        <v>111</v>
       </c>
       <c r="E29">
         <v>4228</v>
       </c>
       <c r="F29" t="s">
-        <v>99</v>
+        <v>112</v>
       </c>
       <c r="G29" t="s">
-        <v>135</v>
+        <v>11</v>
       </c>
       <c r="H29" t="s">
-        <v>163</v>
+        <v>113</v>
       </c>
       <c r="I29" t="s">
-        <v>219</v>
+        <v>114</v>
       </c>
     </row>
     <row r="30" spans="2:9">
       <c r="B30" t="s">
-        <v>37</v>
+        <v>115</v>
       </c>
       <c r="C30" t="s">
-        <v>37</v>
+        <v>115</v>
       </c>
       <c r="E30">
         <v>27826</v>
       </c>
       <c r="F30" t="s">
-        <v>100</v>
+        <v>116</v>
       </c>
       <c r="G30" t="s">
-        <v>135</v>
+        <v>11</v>
       </c>
       <c r="H30" t="s">
-        <v>164</v>
+        <v>117</v>
       </c>
       <c r="I30" t="s">
-        <v>208</v>
+        <v>52</v>
       </c>
     </row>
     <row r="31" spans="2:9">
       <c r="B31" t="s">
-        <v>38</v>
+        <v>118</v>
       </c>
       <c r="C31" t="s">
-        <v>38</v>
+        <v>118</v>
       </c>
       <c r="E31">
         <v>6123</v>
       </c>
       <c r="F31" t="s">
-        <v>101</v>
+        <v>119</v>
       </c>
       <c r="G31" t="s">
-        <v>135</v>
+        <v>11</v>
       </c>
       <c r="H31" t="s">
-        <v>165</v>
+        <v>120</v>
       </c>
       <c r="I31" t="s">
-        <v>216</v>
+        <v>99</v>
       </c>
     </row>
     <row r="32" spans="2:9">
       <c r="B32" t="s">
-        <v>39</v>
+        <v>121</v>
       </c>
       <c r="C32" t="s">
-        <v>39</v>
+        <v>121</v>
       </c>
       <c r="E32">
         <v>5355</v>
       </c>
       <c r="F32" t="s">
-        <v>102</v>
+        <v>122</v>
       </c>
       <c r="G32" t="s">
-        <v>135</v>
+        <v>11</v>
       </c>
       <c r="H32" t="s">
-        <v>166</v>
+        <v>123</v>
       </c>
       <c r="I32" t="s">
-        <v>220</v>
+        <v>124</v>
       </c>
     </row>
     <row r="33" spans="2:9">
       <c r="B33" t="s">
-        <v>40</v>
+        <v>125</v>
       </c>
       <c r="C33" t="s">
-        <v>40</v>
+        <v>125</v>
       </c>
       <c r="E33">
         <v>6128</v>
       </c>
       <c r="F33" t="s">
-        <v>103</v>
+        <v>126</v>
       </c>
       <c r="G33" t="s">
-        <v>135</v>
+        <v>11</v>
       </c>
       <c r="H33" t="s">
-        <v>167</v>
+        <v>127</v>
       </c>
       <c r="I33" t="s">
-        <v>221</v>
+        <v>128</v>
       </c>
     </row>
     <row r="34" spans="2:9">
       <c r="B34" t="s">
-        <v>41</v>
+        <v>129</v>
       </c>
       <c r="C34" t="s">
-        <v>41</v>
+        <v>129</v>
       </c>
       <c r="E34">
         <v>24769</v>
       </c>
       <c r="F34" t="s">
-        <v>104</v>
+        <v>130</v>
       </c>
       <c r="G34" t="s">
-        <v>135</v>
+        <v>11</v>
       </c>
       <c r="H34" t="s">
-        <v>168</v>
+        <v>131</v>
       </c>
       <c r="I34" t="s">
-        <v>218</v>
+        <v>110</v>
       </c>
     </row>
     <row r="35" spans="2:9">
       <c r="B35" t="s">
-        <v>42</v>
+        <v>132</v>
       </c>
       <c r="C35" t="s">
-        <v>42</v>
+        <v>132</v>
       </c>
       <c r="E35">
         <v>30273</v>
       </c>
       <c r="F35" t="s">
-        <v>105</v>
+        <v>133</v>
       </c>
       <c r="G35" t="s">
-        <v>135</v>
+        <v>11</v>
       </c>
       <c r="H35" t="s">
-        <v>169</v>
+        <v>134</v>
       </c>
       <c r="I35" t="s">
-        <v>214</v>
+        <v>91</v>
       </c>
     </row>
     <row r="36" spans="2:9">
       <c r="B36" t="s">
-        <v>43</v>
+        <v>135</v>
       </c>
       <c r="C36" t="s">
-        <v>43</v>
+        <v>135</v>
       </c>
       <c r="E36">
         <v>6972</v>
       </c>
       <c r="F36" t="s">
-        <v>106</v>
+        <v>136</v>
       </c>
       <c r="G36" t="s">
-        <v>135</v>
+        <v>11</v>
       </c>
       <c r="H36" t="s">
-        <v>170</v>
+        <v>137</v>
       </c>
       <c r="I36" t="s">
-        <v>222</v>
+        <v>138</v>
       </c>
     </row>
     <row r="37" spans="2:9">
       <c r="B37" t="s">
-        <v>44</v>
+        <v>139</v>
       </c>
       <c r="C37" t="s">
-        <v>44</v>
+        <v>139</v>
       </c>
       <c r="E37">
         <v>26762</v>
       </c>
       <c r="F37" t="s">
-        <v>107</v>
+        <v>140</v>
       </c>
       <c r="G37" t="s">
-        <v>135</v>
+        <v>11</v>
       </c>
       <c r="H37" t="s">
-        <v>171</v>
+        <v>141</v>
       </c>
       <c r="I37" t="s">
-        <v>223</v>
+        <v>142</v>
       </c>
     </row>
     <row r="38" spans="2:9">
       <c r="B38" t="s">
-        <v>45</v>
+        <v>143</v>
       </c>
       <c r="C38" t="s">
-        <v>45</v>
+        <v>143</v>
       </c>
       <c r="E38">
         <v>6986</v>
       </c>
       <c r="F38" t="s">
-        <v>108</v>
+        <v>144</v>
       </c>
       <c r="G38" t="s">
-        <v>135</v>
+        <v>11</v>
       </c>
       <c r="H38" t="s">
-        <v>172</v>
+        <v>145</v>
       </c>
       <c r="I38" t="s">
-        <v>224</v>
+        <v>146</v>
       </c>
     </row>
     <row r="39" spans="2:9">
       <c r="B39" t="s">
-        <v>46</v>
+        <v>147</v>
       </c>
       <c r="C39" t="s">
-        <v>46</v>
+        <v>147</v>
       </c>
       <c r="E39">
         <v>9091</v>
       </c>
       <c r="F39" t="s">
-        <v>109</v>
+        <v>148</v>
       </c>
       <c r="G39" t="s">
-        <v>135</v>
+        <v>11</v>
       </c>
       <c r="H39" t="s">
-        <v>173</v>
+        <v>149</v>
       </c>
       <c r="I39" t="s">
-        <v>225</v>
+        <v>150</v>
       </c>
     </row>
     <row r="40" spans="2:9">
       <c r="B40" t="s">
-        <v>47</v>
+        <v>151</v>
       </c>
       <c r="C40" t="s">
-        <v>47</v>
+        <v>151</v>
       </c>
       <c r="E40">
         <v>6120</v>
       </c>
       <c r="F40" t="s">
-        <v>110</v>
+        <v>152</v>
       </c>
       <c r="G40" t="s">
-        <v>135</v>
+        <v>11</v>
       </c>
       <c r="H40" t="s">
-        <v>174</v>
+        <v>153</v>
       </c>
       <c r="I40" t="s">
-        <v>226</v>
+        <v>154</v>
       </c>
     </row>
     <row r="41" spans="2:9">
       <c r="B41" t="s">
-        <v>48</v>
+        <v>155</v>
       </c>
       <c r="C41" t="s">
-        <v>48</v>
+        <v>155</v>
       </c>
       <c r="E41">
         <v>19977</v>
       </c>
       <c r="F41" t="s">
-        <v>111</v>
+        <v>156</v>
       </c>
       <c r="G41" t="s">
-        <v>135</v>
+        <v>11</v>
       </c>
       <c r="H41" t="s">
-        <v>175</v>
+        <v>157</v>
       </c>
       <c r="I41" t="s">
-        <v>227</v>
+        <v>158</v>
       </c>
     </row>
     <row r="42" spans="2:9">
       <c r="B42" t="s">
-        <v>49</v>
+        <v>159</v>
       </c>
       <c r="C42" t="s">
-        <v>49</v>
+        <v>159</v>
       </c>
       <c r="E42">
         <v>22690</v>
       </c>
       <c r="F42" t="s">
-        <v>112</v>
+        <v>160</v>
       </c>
       <c r="G42" t="s">
-        <v>135</v>
+        <v>11</v>
       </c>
       <c r="H42" t="s">
-        <v>176</v>
+        <v>161</v>
       </c>
       <c r="I42" t="s">
-        <v>204</v>
+        <v>33</v>
       </c>
     </row>
     <row r="43" spans="2:9">
       <c r="B43" t="s">
-        <v>50</v>
+        <v>162</v>
       </c>
       <c r="C43" t="s">
-        <v>50</v>
+        <v>162</v>
       </c>
       <c r="E43">
         <v>33187</v>
       </c>
       <c r="F43" t="s">
-        <v>113</v>
+        <v>163</v>
       </c>
       <c r="G43" t="s">
-        <v>135</v>
+        <v>11</v>
       </c>
       <c r="H43" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
       <c r="I43" t="s">
-        <v>228</v>
+        <v>165</v>
       </c>
     </row>
     <row r="44" spans="2:9">
       <c r="B44" t="s">
-        <v>51</v>
+        <v>166</v>
       </c>
       <c r="C44" t="s">
-        <v>51</v>
+        <v>166</v>
       </c>
       <c r="E44">
         <v>20204</v>
       </c>
       <c r="F44" t="s">
-        <v>114</v>
+        <v>167</v>
       </c>
       <c r="G44" t="s">
-        <v>135</v>
+        <v>11</v>
       </c>
       <c r="H44" t="s">
-        <v>178</v>
+        <v>168</v>
       </c>
       <c r="I44" t="s">
-        <v>218</v>
+        <v>110</v>
       </c>
     </row>
     <row r="45" spans="2:9">
       <c r="B45" t="s">
-        <v>52</v>
+        <v>169</v>
       </c>
       <c r="C45" t="s">
-        <v>52</v>
+        <v>169</v>
       </c>
       <c r="E45">
         <v>13243</v>
       </c>
       <c r="F45" t="s">
-        <v>115</v>
+        <v>170</v>
       </c>
       <c r="G45" t="s">
-        <v>135</v>
+        <v>11</v>
       </c>
       <c r="H45" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="I45" t="s">
-        <v>229</v>
+        <v>172</v>
       </c>
     </row>
     <row r="46" spans="2:9">
       <c r="B46" t="s">
-        <v>53</v>
+        <v>173</v>
       </c>
       <c r="C46" t="s">
-        <v>53</v>
+        <v>173</v>
       </c>
       <c r="E46">
         <v>25392</v>
       </c>
       <c r="F46" t="s">
-        <v>116</v>
+        <v>174</v>
       </c>
       <c r="G46" t="s">
-        <v>135</v>
+        <v>11</v>
       </c>
       <c r="H46" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="I46" t="s">
-        <v>230</v>
+        <v>176</v>
       </c>
     </row>
     <row r="47" spans="2:9">
       <c r="B47" t="s">
-        <v>54</v>
+        <v>177</v>
       </c>
       <c r="C47" t="s">
-        <v>54</v>
+        <v>177</v>
       </c>
       <c r="E47">
         <v>22238</v>
       </c>
       <c r="F47" t="s">
-        <v>117</v>
+        <v>178</v>
       </c>
       <c r="G47" t="s">
-        <v>135</v>
+        <v>11</v>
       </c>
       <c r="H47" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="I47" t="s">
-        <v>231</v>
+        <v>180</v>
       </c>
     </row>
     <row r="48" spans="2:9">
       <c r="B48" t="s">
-        <v>55</v>
+        <v>181</v>
       </c>
       <c r="C48" t="s">
-        <v>55</v>
+        <v>181</v>
       </c>
       <c r="E48">
         <v>18580</v>
       </c>
       <c r="F48" t="s">
-        <v>118</v>
+        <v>182</v>
       </c>
       <c r="G48" t="s">
-        <v>135</v>
+        <v>11</v>
       </c>
       <c r="H48" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="I48" t="s">
-        <v>232</v>
+        <v>184</v>
       </c>
     </row>
     <row r="49" spans="2:9">
       <c r="B49" t="s">
-        <v>56</v>
+        <v>185</v>
       </c>
       <c r="C49" t="s">
-        <v>56</v>
+        <v>185</v>
       </c>
       <c r="E49">
         <v>36304</v>
       </c>
       <c r="F49" t="s">
-        <v>119</v>
+        <v>186</v>
       </c>
       <c r="G49" t="s">
-        <v>135</v>
+        <v>11</v>
       </c>
       <c r="H49" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="I49" t="s">
-        <v>219</v>
+        <v>114</v>
       </c>
     </row>
     <row r="50" spans="2:9">
       <c r="B50" t="s">
-        <v>57</v>
+        <v>188</v>
       </c>
       <c r="C50" t="s">
-        <v>57</v>
+        <v>188</v>
       </c>
       <c r="E50">
         <v>16765</v>
       </c>
       <c r="F50" t="s">
-        <v>120</v>
+        <v>189</v>
       </c>
       <c r="G50" t="s">
-        <v>135</v>
+        <v>11</v>
       </c>
       <c r="H50" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="I50" t="s">
-        <v>233</v>
+        <v>191</v>
       </c>
     </row>
     <row r="51" spans="2:9">
       <c r="B51" t="s">
-        <v>58</v>
+        <v>192</v>
       </c>
       <c r="C51" t="s">
-        <v>58</v>
+        <v>192</v>
       </c>
       <c r="E51">
         <v>4240</v>
       </c>
       <c r="F51" t="s">
-        <v>121</v>
+        <v>193</v>
       </c>
       <c r="G51" t="s">
-        <v>135</v>
+        <v>11</v>
       </c>
       <c r="H51" t="s">
-        <v>185</v>
+        <v>194</v>
       </c>
       <c r="I51" t="s">
-        <v>234</v>
+        <v>195</v>
       </c>
     </row>
     <row r="52" spans="2:9">
       <c r="B52" t="s">
-        <v>59</v>
+        <v>196</v>
       </c>
       <c r="C52" t="s">
-        <v>59</v>
+        <v>196</v>
       </c>
       <c r="E52">
         <v>26664</v>
       </c>
       <c r="F52" t="s">
-        <v>122</v>
+        <v>197</v>
       </c>
       <c r="G52" t="s">
-        <v>135</v>
+        <v>11</v>
       </c>
       <c r="H52" t="s">
-        <v>186</v>
+        <v>198</v>
       </c>
       <c r="I52" t="s">
-        <v>229</v>
+        <v>172</v>
       </c>
     </row>
     <row r="53" spans="2:9">
       <c r="B53" t="s">
-        <v>60</v>
+        <v>199</v>
       </c>
       <c r="C53" t="s">
-        <v>60</v>
+        <v>199</v>
       </c>
       <c r="E53">
         <v>103108</v>
       </c>
       <c r="F53" t="s">
-        <v>123</v>
+        <v>200</v>
       </c>
       <c r="G53" t="s">
-        <v>135</v>
+        <v>11</v>
       </c>
       <c r="H53" t="s">
-        <v>187</v>
+        <v>201</v>
       </c>
       <c r="I53" t="s">
-        <v>235</v>
+        <v>202</v>
       </c>
     </row>
     <row r="54" spans="2:9">
       <c r="B54" t="s">
-        <v>61</v>
+        <v>203</v>
       </c>
       <c r="C54" t="s">
-        <v>61</v>
+        <v>203</v>
       </c>
       <c r="E54">
         <v>19891</v>
       </c>
       <c r="F54" t="s">
-        <v>124</v>
+        <v>204</v>
       </c>
       <c r="G54" t="s">
-        <v>135</v>
+        <v>11</v>
       </c>
       <c r="H54" t="s">
-        <v>188</v>
+        <v>205</v>
       </c>
       <c r="I54" t="s">
-        <v>235</v>
+        <v>202</v>
       </c>
     </row>
     <row r="55" spans="2:9">
       <c r="B55" t="s">
-        <v>62</v>
+        <v>206</v>
       </c>
       <c r="C55" t="s">
-        <v>62</v>
+        <v>206</v>
       </c>
       <c r="E55">
         <v>19380</v>
       </c>
       <c r="F55" t="s">
-        <v>125</v>
+        <v>207</v>
       </c>
       <c r="G55" t="s">
-        <v>135</v>
+        <v>11</v>
       </c>
       <c r="H55" t="s">
-        <v>189</v>
+        <v>208</v>
       </c>
       <c r="I55" t="s">
-        <v>236</v>
+        <v>209</v>
       </c>
     </row>
     <row r="56" spans="2:9">
       <c r="B56" t="s">
-        <v>63</v>
+        <v>210</v>
       </c>
       <c r="C56" t="s">
-        <v>63</v>
+        <v>210</v>
       </c>
       <c r="E56">
         <v>19311</v>
       </c>
       <c r="F56" t="s">
-        <v>126</v>
+        <v>211</v>
       </c>
       <c r="G56" t="s">
-        <v>135</v>
+        <v>11</v>
       </c>
       <c r="H56" t="s">
-        <v>190</v>
+        <v>212</v>
       </c>
       <c r="I56" t="s">
-        <v>237</v>
+        <v>213</v>
       </c>
     </row>
     <row r="57" spans="2:9">
       <c r="B57" t="s">
-        <v>64</v>
+        <v>214</v>
       </c>
       <c r="C57" t="s">
-        <v>64</v>
+        <v>214</v>
       </c>
       <c r="E57">
         <v>36832</v>
       </c>
       <c r="F57" t="s">
-        <v>127</v>
+        <v>215</v>
       </c>
       <c r="G57" t="s">
-        <v>135</v>
+        <v>11</v>
       </c>
       <c r="H57" t="s">
-        <v>191</v>
+        <v>216</v>
       </c>
       <c r="I57" t="s">
-        <v>238</v>
+        <v>217</v>
       </c>
     </row>
     <row r="58" spans="2:9">
       <c r="B58" t="s">
-        <v>65</v>
+        <v>218</v>
       </c>
       <c r="C58" t="s">
-        <v>65</v>
+        <v>218</v>
       </c>
       <c r="E58">
         <v>8667</v>
       </c>
       <c r="F58" t="s">
-        <v>128</v>
+        <v>219</v>
       </c>
       <c r="G58" t="s">
-        <v>135</v>
+        <v>11</v>
       </c>
       <c r="H58" t="s">
-        <v>192</v>
+        <v>220</v>
       </c>
       <c r="I58" t="s">
-        <v>239</v>
+        <v>221</v>
       </c>
     </row>
     <row r="59" spans="2:9">
       <c r="B59" t="s">
-        <v>66</v>
+        <v>222</v>
       </c>
       <c r="C59" t="s">
-        <v>66</v>
+        <v>222</v>
       </c>
       <c r="E59">
         <v>32362</v>
       </c>
       <c r="F59" t="s">
-        <v>129</v>
+        <v>223</v>
       </c>
       <c r="G59" t="s">
-        <v>135</v>
+        <v>11</v>
       </c>
       <c r="H59" t="s">
-        <v>193</v>
+        <v>224</v>
       </c>
       <c r="I59" t="s">
-        <v>240</v>
+        <v>225</v>
       </c>
     </row>
     <row r="60" spans="2:9">
       <c r="B60" t="s">
-        <v>67</v>
+        <v>226</v>
       </c>
       <c r="C60" t="s">
-        <v>67</v>
+        <v>226</v>
       </c>
       <c r="E60">
         <v>70953</v>
       </c>
       <c r="F60" t="s">
-        <v>130</v>
+        <v>227</v>
       </c>
       <c r="G60" t="s">
-        <v>135</v>
+        <v>11</v>
       </c>
       <c r="H60" t="s">
-        <v>194</v>
+        <v>228</v>
       </c>
       <c r="I60" t="s">
-        <v>241</v>
+        <v>229</v>
       </c>
     </row>
     <row r="61" spans="2:9">
       <c r="B61" t="s">
-        <v>68</v>
+        <v>230</v>
       </c>
       <c r="C61" t="s">
-        <v>68</v>
+        <v>230</v>
       </c>
       <c r="E61">
         <v>13129</v>
       </c>
       <c r="F61" t="s">
-        <v>131</v>
+        <v>231</v>
       </c>
       <c r="G61" t="s">
-        <v>135</v>
+        <v>11</v>
       </c>
       <c r="H61" t="s">
-        <v>195</v>
+        <v>232</v>
       </c>
       <c r="I61" t="s">
-        <v>242</v>
+        <v>233</v>
       </c>
     </row>
     <row r="62" spans="2:9">
       <c r="B62" t="s">
-        <v>69</v>
+        <v>234</v>
       </c>
       <c r="C62" t="s">
-        <v>69</v>
+        <v>234</v>
       </c>
       <c r="E62">
         <v>23039</v>
       </c>
       <c r="F62" t="s">
-        <v>132</v>
+        <v>235</v>
       </c>
       <c r="G62" t="s">
-        <v>135</v>
+        <v>11</v>
       </c>
       <c r="H62" t="s">
-        <v>196</v>
+        <v>236</v>
       </c>
       <c r="I62" t="s">
-        <v>231</v>
+        <v>180</v>
       </c>
     </row>
     <row r="63" spans="2:9">
       <c r="B63" t="s">
-        <v>70</v>
+        <v>237</v>
       </c>
       <c r="C63" t="s">
-        <v>70</v>
+        <v>237</v>
       </c>
       <c r="E63">
         <v>40247</v>
       </c>
       <c r="F63" t="s">
-        <v>133</v>
+        <v>238</v>
       </c>
       <c r="G63" t="s">
-        <v>135</v>
+        <v>11</v>
       </c>
       <c r="H63" t="s">
-        <v>197</v>
+        <v>239</v>
       </c>
       <c r="I63" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
     </row>
     <row r="64" spans="2:9">
       <c r="B64" t="s">
-        <v>71</v>
+        <v>241</v>
       </c>
       <c r="C64" t="s">
-        <v>71</v>
+        <v>241</v>
       </c>
       <c r="E64">
         <v>76404</v>
       </c>
       <c r="F64" t="s">
-        <v>134</v>
+        <v>242</v>
       </c>
       <c r="G64" t="s">
-        <v>135</v>
+        <v>11</v>
       </c>
       <c r="H64" t="s">
-        <v>198</v>
+        <v>243</v>
       </c>
       <c r="I64" t="s">
         <v>244</v>
@@ -13751,5 +14409,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/ocr_output/基金策略.xlsx
+++ b/ocr_output/基金策略.xlsx
@@ -1,33 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:dbsheet="http://web.wps.cn/et/2021/dbsheet">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView windowWidth="22500" windowHeight="14820"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="全部数据" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="387" uniqueCount="245">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="407" uniqueCount="256">
   <si>
     <t>附件子目录</t>
   </si>
@@ -56,7 +43,860 @@
     <t>Kimi_分析时间</t>
   </si>
   <si>
+    <t>2026-02-02_东方财富证券_ETF周报2026年1月第3期：宽基流出边际趋缓，个人投资者积极</t>
+  </si>
+  <si>
+    <t>2026-02-02_财信证券_基金周报（20260202-20260206）：上周黄金价格波动较大、沪深300类品种资金净流出额超2400亿</t>
+  </si>
+  <si>
+    <t>2026-02-03_东莞证券_ETF基金周报（20260126-20260130）：黄金股票主题ETF基金涨幅居前但需防范风险</t>
+  </si>
+  <si>
+    <t>2026-02-03_国泰海通_国泰海通证券_2_月基金投资策略：A股延续上涨行情，相对偏向成长配置风格</t>
+  </si>
+  <si>
+    <t>2026-02-05_东吴证券_2025公募基金洞察系列：主动权益篇：坚守与破局</t>
+  </si>
+  <si>
     <t>2025-11-18_民生证券_基金分析报告：核心资产基金池：超额稳中有升</t>
+  </si>
+  <si>
+    <t>2025-11-18_民生证券_基金分析报告：深度价值基金池：保持绝对收益</t>
+  </si>
+  <si>
+    <t>2025-11-18_民生证券_成长价值基金池202511：高年度胜率</t>
+  </si>
+  <si>
+    <t>2025-11-20_东莞证券_公募基金2026上半年投资策略：（可公开）以盈利为帆，配置下一轮阿尔法</t>
+  </si>
+  <si>
+    <t>2025-11-20_华龙证券_ETF配置策略跟踪报告：市场风格再平衡，均衡配置为主</t>
+  </si>
+  <si>
+    <t>2025-11-24_金融街证券_行业轮动ETF策略周报</t>
+  </si>
+  <si>
+    <t>2025-11-25_国金证券_公募指增及量化基金经理精选系列十：自适应与解释性共进，算法博弈复杂市场</t>
+  </si>
+  <si>
+    <t>2025-11-26_上海证券_基金市场周报：银行板块表现较优，主动投资债券基金平均收益相对领先</t>
+  </si>
+  <si>
+    <t>2025-11-26_大同证券_“千问”开启公测，将如何改变AI应用生态格局？</t>
+  </si>
+  <si>
+    <t>2025-12-01_国泰海通_国泰海通证券12月基金投资策略：A_股出现阶段性回调，相对偏向成长配置风格</t>
+  </si>
+  <si>
+    <t>2025-12-01_金融街证券_行业轮动ETF策略周报</t>
+  </si>
+  <si>
+    <t>2025-12-02_上海证券_ETF组合策略月度跟踪报告（2025年11月）</t>
+  </si>
+  <si>
+    <t>2025-12-03_渤海证券_公募基金2026年年度投资策略：风险偏好持续上升，成长风格占据市场主导</t>
+  </si>
+  <si>
+    <t>2025-12-03_金融街证券_ETF科普系列：ETF托管结算业务概览，券结与降费重塑机构生态</t>
+  </si>
+  <si>
+    <t>2025-12-09_东莞证券_ETF基金周报：中证A500类ETF基金获资金青睐</t>
+  </si>
+  <si>
+    <t>2025-12-11_华宝证券_基金配置策略报告：静待春季行情，延续均衡配置</t>
+  </si>
+  <si>
+    <t>2025-12-12_财信证券_基金市场2026年年度策略报告：守静笃，再平衡</t>
+  </si>
+  <si>
+    <t>2025-12-15_华宝证券_ETF策略指数跟踪周报</t>
+  </si>
+  <si>
+    <t>2025-12-16_东莞证券_ETF基金周报：资金布局红利类策略趋势明显</t>
+  </si>
+  <si>
+    <t>2025-12-16_国金证券_跟踪资金流系列专题（四）：基于_ETF_持有人结构资金流因子的行业轮动策略</t>
+  </si>
+  <si>
+    <t>2025-12-16_财信证券_基金周报：中债利率下行，本周新基金发行速度整体放缓</t>
+  </si>
+  <si>
+    <t>2025-12-17_华龙证券_TS策略每日信号跟踪</t>
+  </si>
+  <si>
+    <t>2025-12-18_财信证券_年内新成立ETF-FOF产品规模已超28亿</t>
+  </si>
+  <si>
+    <t>2025-12-21_金融街证券_北交所专题报告（三）：两年定开主题基金开放窗口已至，或迎来配置机遇</t>
+  </si>
+  <si>
+    <t>2025-12-22_华龙证券_股票型ETF每日交易数据跟踪</t>
+  </si>
+  <si>
+    <t>2025-12-22_国泰海通_投资者微观行为洞察手册・12_月第_3_期：ETF_大幅流入，外资持续流入_A_股</t>
+  </si>
+  <si>
+    <t>2025-12-22_渤海证券_公募基金周报：中证A500ETF流入规模超300亿元，中证东盟数字经济主题指数发布</t>
+  </si>
+  <si>
+    <t>2025-12-22_金融街证券_行业轮动ETF策略周报(20251215-20251219)</t>
+  </si>
+  <si>
+    <t>2025-12-22_麦高证券_ETF周报（20251215-20251219）</t>
+  </si>
+  <si>
+    <t>2025-12-23_华龙证券_股票型ETF每日交易数据跟踪</t>
+  </si>
+  <si>
+    <t>2025-12-25_华龙证券_TS策略每日信号跟踪</t>
+  </si>
+  <si>
+    <t>2025-12-25_华龙证券_股票型ETF每日交易数据跟踪</t>
+  </si>
+  <si>
+    <t>2025-12-28_银河证券_公募基金市场观察系列：被动投资升温，聚焦多元化ETF配置与指数增强基金</t>
+  </si>
+  <si>
+    <t>2025-12-29_上海证券_REITs市场跟踪双周报：两只REITs扩募完成，二级市场表现分化</t>
+  </si>
+  <si>
+    <t>2025-12-29_华龙证券_TS策略每日信号跟踪</t>
+  </si>
+  <si>
+    <t>2025-12-30_华龙证券_公募基金2026年配置策略报告：类债防守+科技进攻+风险对冲</t>
+  </si>
+  <si>
+    <t>2025-12-31_华龙证券_TS策略每日信号跟踪</t>
+  </si>
+  <si>
+    <t>2025-12-31_华龙证券_股票型ETF基金2025年业绩分析报告：资产配置更趋“哑铃化”与“理性化”</t>
+  </si>
+  <si>
+    <t>2025-12-31_华龙证券_股票型ETF每日交易数据跟踪</t>
+  </si>
+  <si>
+    <t>2025-12-31_渤海证券_基金专题报告：强化学习在大类资产配置中的应用初探</t>
+  </si>
+  <si>
+    <t>2025-12-31_西南证券_国泰量化策略收益A：打造“宏观研判+多策略”主动量化框架</t>
+  </si>
+  <si>
+    <t>2025-12-31_银河证券_银河金工公募基金市场观察系列研究：主动权益基金发展现状与配置策略</t>
+  </si>
+  <si>
+    <t>2026-01-05_国泰海通_国泰海通证券1月基金投资策略：跨年行情下A股上涨，相对偏向成长配置风格</t>
+  </si>
+  <si>
+    <t>2026-01-05_大同证券_CES2026即将开幕，如何抓住上车机会？</t>
+  </si>
+  <si>
+    <t>2026-01-09_上海证券_2026年度全球资产配置和国内基金投资策略：重塑预期，回归价值</t>
+  </si>
+  <si>
+    <t>2026-01-09_上海证券_ETF组合策略月度跟踪报告（2025年12月）</t>
+  </si>
+  <si>
+    <t>2026-01-09_大同证券_安信基金陈鹏：专注于成长投资的十七年老将</t>
+  </si>
+  <si>
+    <t>2026-01-14_利得基金_1月ETF轮动策略月报</t>
+  </si>
+  <si>
+    <t>2026-01-14_华宝证券_基金配置策略报告（2026年1月期）：权益市场多点开花，建议关注景气主线</t>
+  </si>
+  <si>
+    <t>2026-01-19_金融街证券_行业轮动ETF策略周报</t>
+  </si>
+  <si>
+    <t>2026-01-22_国信证券_公募基金2025年四季报点评：减科技消费，加周期制造</t>
+  </si>
+  <si>
+    <t>2026-01-22_国金证券_2026年度公募主动权益基金投资策略及基金经理精选：莫道桑榆晚，为霞尚满天</t>
+  </si>
+  <si>
+    <t>2026-01-23_华创证券_25Q4基金季报点评：加周期金融地产，减消费TMT</t>
+  </si>
+  <si>
+    <t>2026-01-23_国盛证券_2025Q4基金仓位解析：四季度基金调仓五大看点</t>
+  </si>
+  <si>
+    <t>2026-01-23_银河证券_公募基金2025年四季度持仓有哪些看点？</t>
+  </si>
+  <si>
+    <t>2026-01-24_国泰海通_2025Q4基金持仓分析：Q4基金动向：增配AI基建与价值股</t>
+  </si>
+  <si>
+    <t>2026-01-25_东吴证券_策略周评_20260124：基金四季报，透露了哪些重要线索？</t>
+  </si>
+  <si>
+    <t>2026-01-25_中泰证券_宽基ETF资金大幅流出：规模，节奏与影响</t>
+  </si>
+  <si>
+    <t>2026-01-26_华泰证券_2025年四季度基金持仓分析：负债端压力缓解</t>
+  </si>
+  <si>
+    <t>2026-01-26_大同证券_基金研究周报：酒泉市商业航天产业发展规划出炉，可关注哪些机会？</t>
+  </si>
+  <si>
+    <t>2026-01-27_东方财富证券_25Q4基金持仓及文本透视：布局顺周期，基金经理如何展望2026？</t>
+  </si>
+  <si>
+    <t>2026-01-27_华鑫证券_2026年量化和基金研究年度策略：公募新规下的ETF组合投资元年</t>
+  </si>
+  <si>
+    <t>2026-01-30_华创证券_25Q4基金季报专题研究：四类基金画像：加仓、减仓、调仓、极致风格</t>
+  </si>
+  <si>
+    <t># 宽基流出边际趋缓，个人投资者积极ETF 周报 2026 年 1 月第 3 期
+2026 年 02 月 02 日
+# 【策略观点】
+#  整体 ETF资金流情况一览
+【股票 ETF（不含跨境）】2026 年 1 月 26 日至 30 日，全市场股票ETF（不含跨境）净流出3149.3亿，具体来看，当周净流出规模前高后低，29、30日市场走弱，净流出规模明显收窄。
+【A股行业+主题ETF】单周净流入 717.5亿，较前一期增加 128.8亿元，个人投资者或认为市场趋势上涨后的回调往往是配置机会。
+【港股类 ETF】单周净流入近百亿，延续流入趋势。跨境行业+主题ETF 单周净流入 11.6 亿元，较前一周减少 63.5 亿元。
+#  宽基/风格/行业/细分ETF资金流透视
+【宽基】整体净流出达3883.3 亿，其中挂钩沪深300指数的宽基 ETF单周净流出达2443.8 亿。但1月30日宽基流出明显放缓，或意味着随市场下行压力加大（波动率上升），国家队卖出动作减弱。
+$\spadesuit$ 【Smartbeta和大类行业】现金流方向流入明显，红利近一周呈现流出趋势，科技、周期仍是热度最高方向。
+【细分行业】有色、半导体、化工、黄金股流入均具备较强持续性，石油石化净流入大幅提高，但近期板块行情波动加大，价的方向较量的方向可能更为重要。
+【跨境代表指数和大类行业】新兴市场、港股恒生科技，以及大类行业中的科技和金融地产大类 ETF流入相对靠前。
+# $\spadesuit$ 代表性ETF资金流一览
+【股票 ETF 代表产品】净流入规模靠前的 5 只 ETF 分别为华夏中证细分有色金属产业主题 ETF（64.6 亿）、南方中证申万有色金属 ETF（56.3亿）、鹏华中证细分化工产业ETF（40.1亿）、华夏中证沪深港黄金产业股票ETF（38.2亿）、富国中证细分化工产业主题 ETF（27.8亿），净流出规模靠前的为易方达沪深 300ETF（-747.3 亿）、华泰柏瑞沪深 300ETF（-742.0 亿）、华夏沪深 300ETF（-547.1 亿）、华夏上证 50ETF（417.3 亿）、嘉实沪深 300ETF（-406.3 亿）。
+【跨境 ETF 代表产品】净流入规模靠前的 5 只 ETF 分别为广发中证港股通非银ETF、天弘恒生科技 ETF、南方基金南方东英富时亚太低碳精选ETF（QDII）、广发中证香港创新药（QDII-ETF）、易方达中证港股通消费主题ETF。
+# 【风险提示】
+$\spadesuit$ 数据测算存在误差、ETF分类存在误差、数据披露存在时滞
+挖掘价值投资成长
+# 东方财富证券研究所
+证券分析师：陈果
+证书编号：S1160525040001
+证券分析师：胡远东
+证书编号：S1160525070003
+# 相关研究
+《春季行情未完，结构如何变化？》
+2026.02.01
+《宽基ETF再流出近4000亿——ETF周报 2026 年 1 月第 2 期》
+2026.01.27
+《产业主题与涨价链共舞下的春季行情》
+2026.01.25
+《宽基ETF净流出超2000亿——ETF周报 2026 年 1 月第 1 期》
+2026.01.19
+《情绪指数高位回落与春季行情两段论》
+2026.01.18
+# 正文目录
+1. 整体ETF资金流情况一览 3   
+2. 宽基/风格/行业/细分ETF 资金流透视. 5   
+3. 代表性 ETF 资金流一览..  
+4. 风险提示.. . 10
+# 图表目录
+图表 1： 股票ETF流入流出与东方财富全A 指数表现情况... 2  
+图表 2： 货币型ETF 周度净流入... 2  
+图表 3： A股行业+主题ETF 周度净流入.. 3  
+图表 4： 港股类ETF 流入流出与恒指表现. 4  
+图表 5： 跨境行业+主题ETF 净流入... 4  
+图表 6： 主要宽基ETF资金流情况. 5  
+图表 7： A 股 Smartbeta 和大类行业 ETF 资金流情况（亿元） ................ . 5  
+图表 8： A 股净申购靠前的主题或行业细分 ETF（0119-0123） ................. 6  
+图表 9： A 股净申购最前或最后的主题或行业 ETF（0126-0130） ............. 6  
+图表 10： 跨境代表指数和大类行业ETF资金流情况（亿元）................ 6  
+图表 11： A 股代表指数和细分 ETF资金流情况（亿元） 8  
+图表 12： 跨境代表指数和细分 ETF资金流情况（亿元） 9  
+图表 13： 商品及债券型ETF 资金流情况（亿元） 9
+# 1.整体 ETF 资金流情况一览
+2026年1 月26 日至30日，全市场股票ETF（不含跨境）净流出3149.3亿，较前一周变化为+173.77 亿，但净流出规模仍保持高位。具体来看，当周净流出规模前高后低，29、30日市场走弱，净流出规模明显收窄。
+图表 1：股票ETF流入流出与东方财富全 A指数表现情况  
+![](images/69571a5aef29fb752c483a13dd082006dca1b0568c9ec1a48a27501ae6bbfb63.jpg)  
+资料来源：Choice基金数据浏览器，Choice历史行情，东方财富证券研究所
+1 月26 日至30 日，A 股行业+主题ETF 单周净流入 717.5亿，较前一期增加 128.8亿元，个人投资者入市意愿较强，或体现出个人投资者认为市场趋势上涨后的回调往往是配置机会。
+图表 2：货币型ETF周度净流入  
+![](images/a1490f5721b750778037fc5d0bb6836cd5f55f15ea6066759a539644b4535be8.jpg)  
+资料来源：Choice基金数据浏览器，东方财富证券研究所
+图表 3：A股行业+主题 ETF周度净流入  
+![](images/89d9098eccd1aa994fc80850dfcbea517cf35f656a1e55061b908e048cf44e77.jpg)  
+资料来源：Choice基金数据浏览器，东方财富证券研究所
+港股类ETF单周净流入近百亿，延续流入趋势。跨境行业+主题ETF 单周净流入 11.6 亿元，较前一周减少 63.5亿元。
+图表 4：港股类ETF流入流出与恒指表现  
+![](images/cb8bc3409b568a9c6fa6fa47792d4d2c81a88d3c7099139218b786a711d9152d.jpg)  
+资料来源：Choice基金数据浏览器，Choice历史行情，东方财富证券研究所，注：港股类 ETF判断标准为成分股内含港股
+图表 5：跨境行业+主题 ETF净流入  
+![](images/02e8b60c1a8970313ee59560ef90c8ef5afcf3ea95e4d8e9e1e0ae26944a09e2.jpg)  
+资料来源：Choice基金数据浏览器，东方财富证券研究所
+# 2.宽基/风格/行业/细分 ETF资金流透视
+宽基方面，宽基ETF 整体净流出达 3883.3 亿，其中挂钩沪深 300指数的宽基 ETF 单周净流出达 2443.8 亿，中证 1000、上证 50、中证 500，以及创业板、科创板内宽基ETF均有不同程度流出，但1月30日宽基流出明显放缓，或意味着随市场下行压力加大（波动率上升），国家队卖出动作减弱。
+图表 6：主要宽基ETF资金流情况  
+&lt;table&gt;&lt;tr&gt;&lt;td&gt;净流入规模 (亿元)&lt;/td&gt;&lt;td&gt;股票ETF (不含跨境)&lt;/td&gt;&lt;td&gt;宽基ETF&lt;/td&gt;&lt;td&gt;跨境ETF&lt;/td&gt;&lt;td&gt;上证50&lt;/td&gt;&lt;td&gt;沪深300&lt;/td&gt;&lt;td&gt;中证A500&lt;/td&gt;&lt;td&gt;中证500&lt;/td&gt;&lt;td&gt;中证1000&lt;/td&gt;&lt;td&gt;中证2000&lt;/td&gt;&lt;td&gt;国证2000&lt;/td&gt;&lt;td&gt;中证2000&amp;amp; 国证2000&lt;/td&gt;&lt;td&gt;创业板 内宽基&lt;/td&gt;&lt;td&gt;科创创 业50&lt;/td&gt;&lt;td&gt;科创50&lt;/td&gt;&lt;td&gt;科创综 指&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;2026/1/22&lt;/td&gt;&lt;td&gt;-640.55&lt;/td&gt;&lt;td&gt;-769.53&lt;/td&gt;&lt;td&gt;7.44&lt;/td&gt;&lt;td&gt;-52.08&lt;/td&gt;&lt;td&gt;-469.10&lt;/td&gt;&lt;td&gt;-29.87&lt;/td&gt;&lt;td&gt;-1.61&lt;/td&gt;&lt;td&gt;-165.28&lt;/td&gt;&lt;td&gt;1.79&lt;/td&gt;&lt;td&gt;-0.66&lt;/td&gt;&lt;td&gt;1.12&lt;/td&gt;&lt;td&gt;-35.09&lt;/td&gt;&lt;td&gt;-2.76&lt;/td&gt;&lt;td&gt;-9.16&lt;/td&gt;&lt;td&gt;0.19&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;2026/1/23&lt;/td&gt;&lt;td&gt;-707.67&lt;/td&gt;&lt;td&gt;-870.71&lt;/td&gt;&lt;td&gt;-3.27&lt;/td&gt;&lt;td&gt;-70.68&lt;/td&gt;&lt;td&gt;-701.43&lt;/td&gt;&lt;td&gt;-10.23&lt;/td&gt;&lt;td&gt;26.33&lt;/td&gt;&lt;td&gt;-135.45&lt;/td&gt;&lt;td&gt;6.33&lt;/td&gt;&lt;td&gt;0.06&lt;/td&gt;&lt;td&gt;6.39&lt;/td&gt;&lt;td&gt;1.52&lt;/td&gt;&lt;td&gt;1.03&lt;/td&gt;&lt;td&gt;6.11&lt;/td&gt;&lt;td&gt;0.28&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;2026/1/26&lt;/td&gt;&lt;td&gt;-1033.81&lt;/td&gt;&lt;td&gt;-1157.28&lt;/td&gt;&lt;td&gt;0.29&lt;/td&gt;&lt;td&gt;-126.26&lt;/td&gt;&lt;td&gt;-695.72&lt;/td&gt;&lt;td&gt;-7.15&lt;/td&gt;&lt;td&gt;-101.68&lt;/td&gt;&lt;td&gt;-207.87&lt;/td&gt;&lt;td&gt;-0.78&lt;/td&gt;&lt;td&gt;-0.06&lt;/td&gt;&lt;td&gt;-0.83&lt;/td&gt;&lt;td&gt;-24.62&lt;/td&gt;&lt;td&gt;-0.36&lt;/td&gt;&lt;td&gt;-4.71&lt;/td&gt;&lt;td&gt;0.18&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;2026/1/27&lt;/td&gt;&lt;td&gt;-474.90&lt;/td&gt;&lt;td&gt;-569.99&lt;/td&gt;&lt;td&gt;1.27&lt;/td&gt;&lt;td&gt;-55.13&lt;/td&gt;&lt;td&gt;-385.46&lt;/td&gt;&lt;td&gt;-13.87&lt;/td&gt;&lt;td&gt;-7.84&lt;/td&gt;&lt;td&gt;-62.07&lt;/td&gt;&lt;td&gt;-1.36&lt;/td&gt;&lt;td&gt;-0.07&lt;/td&gt;&lt;td&gt;-1.43&lt;/td&gt;&lt;td&gt;-22.64&lt;/td&gt;&lt;td&gt;-1.44&lt;/td&gt;&lt;td&gt;-12.01&lt;/td&gt;&lt;td&gt;-0.03&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;2026/1/28&lt;/td&gt;&lt;td&gt;-1302.39&lt;/td&gt;&lt;td&gt;-1471.85&lt;/td&gt;&lt;td&gt;-9.68&lt;/td&gt;&lt;td&gt;-155.50&lt;/td&gt;&lt;td&gt;-975.30&lt;/td&gt;&lt;td&gt;-8.61&lt;/td&gt;&lt;td&gt;-143.38&lt;/td&gt;&lt;td&gt;-155.05&lt;/td&gt;&lt;td&gt;0.01&lt;/td&gt;&lt;td&gt;-0.09&lt;/td&gt;&lt;td&gt;-0.09&lt;/td&gt;&lt;td&gt;-28.76&lt;/td&gt;&lt;td&gt;2.49&lt;/td&gt;&lt;td&gt;-3.89&lt;/td&gt;&lt;td&gt;-0.02&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;2026/1/29&lt;/td&gt;&lt;td&gt;-306.31&lt;/td&gt;&lt;td&gt;-520.19&lt;/td&gt;&lt;td&gt;7.67&lt;/td&gt;&lt;td&gt;-73.40&lt;/td&gt;&lt;td&gt;-314.74&lt;/td&gt;&lt;td&gt;-16.63&lt;/td&gt;&lt;td&gt;-65.45&lt;/td&gt;&lt;td&gt;-31.11&lt;/td&gt;&lt;td&gt;-1.64&lt;/td&gt;&lt;td&gt;0.18&lt;/td&gt;&lt;td&gt;-1.46&lt;/td&gt;&lt;td&gt;-32.91&lt;/td&gt;&lt;td&gt;-1.37&lt;/td&gt;&lt;td&gt;17.94&lt;/td&gt;&lt;td&gt;0.63&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;2026/1/30&lt;/td&gt;&lt;td&gt;-31.85&lt;/td&gt;&lt;td&gt;-164.03&lt;/td&gt;&lt;td&gt;15.80&lt;/td&gt;&lt;td&gt;-11.73&lt;/td&gt;&lt;td&gt;-72.62&lt;/td&gt;&lt;td&gt;5.81&lt;/td&gt;&lt;td&gt;-67.89&lt;/td&gt;&lt;td&gt;4.35&lt;/td&gt;&lt;td&gt;1.12&lt;/td&gt;&lt;td&gt;0.00&lt;/td&gt;&lt;td&gt;1.12&lt;/td&gt;&lt;td&gt;-22.32&lt;/td&gt;&lt;td&gt;1.97&lt;/td&gt;&lt;td&gt;-5.60&lt;/td&gt;&lt;td&gt;0.41&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;过去5日&lt;/td&gt;&lt;td&gt;-3149.26&lt;/td&gt;&lt;td&gt;-3883.34&lt;/td&gt;&lt;td&gt;15.35&lt;/td&gt;&lt;td&gt;-422.01&lt;/td&gt;&lt;td&gt;-2443.84&lt;/td&gt;&lt;td&gt;-40.46&lt;/td&gt;&lt;td&gt;-386.25&lt;/td&gt;&lt;td&gt;-451.74&lt;/td&gt;&lt;td&gt;-2.65&lt;/td&gt;&lt;td&gt;-0.04&lt;/td&gt;&lt;td&gt;-2.68&lt;/td&gt;&lt;td&gt;-131.25&lt;/td&gt;&lt;td&gt;1.30&lt;/td&gt;&lt;td&gt;-8.27&lt;/td&gt;&lt;td&gt;1.17&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;过去10日&lt;/td&gt;&lt;td&gt;-6472.29&lt;/td&gt;&lt;td&gt;-7845.19&lt;/td&gt;&lt;td&gt;83.40&lt;/td&gt;&lt;td&gt;-783.50&lt;/td&gt;&lt;td&gt;-4824.52&lt;/td&gt;&lt;td&gt;-141.27&lt;/td&gt;&lt;td&gt;-470.64&lt;/td&gt;&lt;td&gt;-1236.88&lt;/td&gt;&lt;td&gt;8.10&lt;/td&gt;&lt;td&gt;-0.24&lt;/td&gt;&lt;td&gt;7.86&lt;/td&gt;&lt;td&gt;-237.60&lt;/td&gt;&lt;td&gt;-10.90&lt;/td&gt;&lt;td&gt;-155.18&lt;/td&gt;&lt;td&gt;1.56&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;过去20日&lt;/td&gt;&lt;td&gt;-7860.46&lt;/td&gt;&lt;td&gt;-10094.71&lt;/td&gt;&lt;td&gt;324.45&lt;/td&gt;&lt;td&gt;-983.78&lt;/td&gt;&lt;td&gt;-5824.64&lt;/td&gt;&lt;td&gt;-371.98&lt;/td&gt;&lt;td&gt;-584.50&lt;/td&gt;&lt;td&gt;-1302.96&lt;/td&gt;&lt;td&gt;16.26&lt;/td&gt;&lt;td&gt;0.60&lt;/td&gt;&lt;td&gt;16.86&lt;/td&gt;&lt;td&gt;-539.75&lt;/td&gt;&lt;td&gt;-17.53&lt;/td&gt;&lt;td&gt;-456.72&lt;/td&gt;&lt;td&gt;-8.04&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;过去60日&lt;/td&gt;&lt;td&gt;-6899.86&lt;/td&gt;&lt;td&gt;-9086.56&lt;/td&gt;&lt;td&gt;1115.99&lt;/td&gt;&lt;td&gt;-1012.83&lt;/td&gt;&lt;td&gt;-5932.51&lt;/td&gt;&lt;td&gt;572.94&lt;/td&gt;&lt;td&gt;-486.36&lt;/td&gt;&lt;td&gt;-1216.65&lt;/td&gt;&lt;td&gt;14.74&lt;/td&gt;&lt;td&gt;-1.95&lt;/td&gt;&lt;td&gt;12.79&lt;/td&gt;&lt;td&gt;-583.81&lt;/td&gt;&lt;td&gt;-30.79&lt;/td&gt;&lt;td&gt;-385.40&lt;/td&gt;&lt;td&gt;-11.08&lt;/td&gt;&lt;/tr&gt;&lt;/table&gt;
+资料来源：Choice基金数据浏览器，东方财富证券研究所
+Smartbeta 和大类行业方面，现金流方向流入明显，红利近一周呈流出趋势，科技、周期仍是热度最高方向。
+图表 7：A 股 Smartbeta 和大类行业 ETF 资金流情况（亿元）  
+&lt;table&gt;&lt;tr&gt;&lt;td&gt;Smartbeta&lt;/td&gt;&lt;td&gt;基金规模&lt;/td&gt;&lt;td&gt;资金流入1日&lt;/td&gt;&lt;td&gt;资金流入5日&lt;/td&gt;&lt;td&gt;资金流入10日&lt;/td&gt;&lt;td&gt;资金流入20日&lt;/td&gt;&lt;td&gt;资金流入60日&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;现金流&lt;/td&gt;&lt;td&gt;343.0&lt;/td&gt;&lt;td&gt;13.68&lt;/td&gt;&lt;td&gt;27.87&lt;/td&gt;&lt;td&gt;49.47&lt;/td&gt;&lt;td&gt;51.83&lt;/td&gt;&lt;td&gt;113.35&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;成长&lt;/td&gt;&lt;td&gt;72.6&lt;/td&gt;&lt;td&gt;-0.83&lt;/td&gt;&lt;td&gt;-1.56&lt;/td&gt;&lt;td&gt;-1.11&lt;/td&gt;&lt;td&gt;2.02&lt;/td&gt;&lt;td&gt;-3.92&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;红利&lt;/td&gt;&lt;td&gt;1276.8&lt;/td&gt;&lt;td&gt;1.60&lt;/td&gt;&lt;td&gt;-10.44&lt;/td&gt;&lt;td&gt;17.24&lt;/td&gt;&lt;td&gt;19.35&lt;/td&gt;&lt;td&gt;194.68&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;价值&lt;/td&gt;&lt;td&gt;56.6&lt;/td&gt;&lt;td&gt;0.27&lt;/td&gt;&lt;td&gt;1.75&lt;/td&gt;&lt;td&gt;2.82&lt;/td&gt;&lt;td&gt;3.26&lt;/td&gt;&lt;td&gt;6.68&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;质量&lt;/td&gt;&lt;td&gt;26.8&lt;/td&gt;&lt;td&gt;-0.10&lt;/td&gt;&lt;td&gt;-0.47&lt;/td&gt;&lt;td&gt;-0.11&lt;/td&gt;&lt;td&gt;4.95&lt;/td&gt;&lt;td&gt;4.77&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;市值&lt;/td&gt;&lt;td&gt;11.3&lt;/td&gt;&lt;td&gt;-0.16&lt;/td&gt;&lt;td&gt;-0.36&lt;/td&gt;&lt;td&gt;-0.27&lt;/td&gt;&lt;td&gt;-0.69&lt;/td&gt;&lt;td&gt;-1.28&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;低波&lt;/td&gt;&lt;td&gt;2.7&lt;/td&gt;&lt;td&gt;0.00&lt;/td&gt;&lt;td&gt;0.00&lt;/td&gt;&lt;td&gt;-0.05&lt;/td&gt;&lt;td&gt;-0.02&lt;/td&gt;&lt;td&gt;0.02&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;策略&lt;/td&gt;&lt;td&gt;2.8&lt;/td&gt;&lt;td&gt;0.00&lt;/td&gt;&lt;td&gt;-0.02&lt;/td&gt;&lt;td&gt;-0.14&lt;/td&gt;&lt;td&gt;-0.21&lt;/td&gt;&lt;td&gt;-0.36&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;A股大类行业&lt;/td&gt;&lt;td&gt;基金规模&lt;/td&gt;&lt;td&gt;资金流入1日&lt;/td&gt;&lt;td&gt;资金流入5日&lt;/td&gt;&lt;td&gt;资金流入10日&lt;/td&gt;&lt;td&gt;资金流入20日&lt;/td&gt;&lt;td&gt;资金流入60日&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;科技&lt;/td&gt;&lt;td&gt;3169.0&lt;/td&gt;&lt;td&gt;26.35&lt;/td&gt;&lt;td&gt;134.53&lt;/td&gt;&lt;td&gt;297.87&lt;/td&gt;&lt;td&gt;563.85&lt;/td&gt;&lt;td&gt;428.95&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;周期&lt;/td&gt;&lt;td&gt;2757.4&lt;/td&gt;&lt;td&gt;59.40&lt;/td&gt;&lt;td&gt;443.05&lt;/td&gt;&lt;td&gt;753.58&lt;/td&gt;&lt;td&gt;1157.20&lt;/td&gt;&lt;td&gt;1170.24&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;制造&lt;/td&gt;&lt;td&gt;1434.7&lt;/td&gt;&lt;td&gt;10.78&lt;/td&gt;&lt;td&gt;60.05&lt;/td&gt;&lt;td&gt;60.34&lt;/td&gt;&lt;td&gt;189.30&lt;/td&gt;&lt;td&gt;74.17&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;医药&lt;/td&gt;&lt;td&gt;1146.4&lt;/td&gt;&lt;td&gt;1.97&lt;/td&gt;&lt;td&gt;23.48&lt;/td&gt;&lt;td&gt;34.64&lt;/td&gt;&lt;td&gt;23.41&lt;/td&gt;&lt;td&gt;39.18&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;消费&lt;/td&gt;&lt;td&gt;872.2&lt;/td&gt;&lt;td&gt;1.86&lt;/td&gt;&lt;td&gt;12.69&lt;/td&gt;&lt;td&gt;33.48&lt;/td&gt;&lt;td&gt;49.29&lt;/td&gt;&lt;td&gt;53.22&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;金融地产&lt;/td&gt;&lt;td&gt;1985.1&lt;/td&gt;&lt;td&gt;14.22&lt;/td&gt;&lt;td&gt;20.62&lt;/td&gt;&lt;td&gt;40.40&lt;/td&gt;&lt;td&gt;65.36&lt;/td&gt;&lt;td&gt;-56.63&lt;/td&gt;&lt;/tr&gt;&lt;/table&gt;
+资料来源：Choice基金数据浏览器，东方财富证券研究所
+细分方向来看，1月26日-30 日有色、半导体、化工、黄金股流入均具备较强持续性，石油石化净流入大幅提高，但近期板块行情波动加大，价的方向较量的方向可能更为重要。
+图表 8：A 股净申购靠前的主题或行业细分 ETF（0119-0123）  
+![](images/c80da4e1c62bf4e36a5ae36f39750fefaa52555e928085136cd682154b9ea524.jpg)  
+资料来源：Choice基金数据浏览器，东方财富证券研究所，注：按 1月26日-30日净申购规模排序，取靠前的
+图表 9：A股净申购最前或最后的主题或行业 ETF（0126-0130）  
+![](images/5e123c6853ace9ca52c6a45c3aff5c23b91efffc38515e0f5012580588c1f5e8.jpg)  
+资料来源：Choice基金数据浏览器，东方财富证券研究所
+跨境代表指数和大类行业方面，新兴市场、港股恒生科技，以及大类行业中的科技和金融地产大类ETF 流入相对靠前，纳斯达克 100、标普 500、日经225等美日发达市场ETF获小幅稳定流入。
+图表 10：跨境代表指数和大类行业 ETF 资金流情况（亿元）  
+&lt;table&gt;&lt;tr&gt;&lt;td&gt;境外市场&lt;/td&gt;&lt;td&gt;境外代表指数&lt;/td&gt;&lt;td&gt;基金规模&lt;/td&gt;&lt;td&gt;资金流入1日&lt;/td&gt;&lt;td&gt;资金流入5日&lt;/td&gt;&lt;td&gt;资金流入10日&lt;/td&gt;&lt;td&gt;资金流入20日&lt;/td&gt;&lt;td&gt;资金流入60日&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td rowspan="3"&gt;港股&lt;/td&gt;&lt;td&gt;恒生指数&lt;/td&gt;&lt;td&gt;83.4&lt;/td&gt;&lt;td&gt;-0.09&lt;/td&gt;&lt;td&gt;0.67&lt;/td&gt;&lt;td&gt;-0.31&lt;/td&gt;&lt;td&gt;-2.85&lt;/td&gt;&lt;td&gt;-0.92&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;恒生科技&lt;/td&gt;&lt;td&gt;1832.6&lt;/td&gt;&lt;td&gt;0.40&lt;/td&gt;&lt;td&gt;-0.43&lt;/td&gt;&lt;td&gt;20.50&lt;/td&gt;&lt;td&gt;87.23&lt;/td&gt;&lt;td&gt;302.63&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;港股通50(HKD)&lt;/td&gt;&lt;td&gt;33.6&lt;/td&gt;&lt;td&gt;0.15&lt;/td&gt;&lt;td&gt;0.24&lt;/td&gt;&lt;td&gt;-0.46&lt;/td&gt;&lt;td&gt;0.79&lt;/td&gt;&lt;td&gt;-0.80&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td rowspan="2"&gt;日股&lt;/td&gt;&lt;td&gt;日经225&lt;/td&gt;&lt;td&gt;67.6&lt;/td&gt;&lt;td&gt;0.04&lt;/td&gt;&lt;td&gt;0.21&lt;/td&gt;&lt;td&gt;0.39&lt;/td&gt;&lt;td&gt;0.64&lt;/td&gt;&lt;td&gt;2.61&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;东证&lt;/td&gt;&lt;td&gt;16.8&lt;/td&gt;&lt;td&gt;0.01&lt;/td&gt;&lt;td&gt;-0.03&lt;/td&gt;&lt;td&gt;0.04&lt;/td&gt;&lt;td&gt;-0.16&lt;/td&gt;&lt;td&gt;1.85&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td rowspan="2"&gt;欧股&lt;/td&gt;&lt;td&gt;法国CAC40&lt;/td&gt;&lt;td&gt;10.5&lt;/td&gt;&lt;td&gt;0.01&lt;/td&gt;&lt;td&gt;0.04&lt;/td&gt;&lt;td&gt;0.09&lt;/td&gt;&lt;td&gt;0.18&lt;/td&gt;&lt;td&gt;0.52&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;德国DAX&lt;/td&gt;&lt;td&gt;38.7&lt;/td&gt;&lt;td&gt;0.02&lt;/td&gt;&lt;td&gt;0.12&lt;/td&gt;&lt;td&gt;0.23&lt;/td&gt;&lt;td&gt;0.45&lt;/td&gt;&lt;td&gt;1.27&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td rowspan="4"&gt;美股&lt;/td&gt;&lt;td&gt;MSCI美国50&lt;/td&gt;&lt;td&gt;25.0&lt;/td&gt;&lt;td&gt;0.02&lt;/td&gt;&lt;td&gt;0.08&lt;/td&gt;&lt;td&gt;0.15&lt;/td&gt;&lt;td&gt;0.32&lt;/td&gt;&lt;td&gt;1.60&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;标普500&lt;/td&gt;&lt;td&gt;317.0&lt;/td&gt;&lt;td&gt;0.05&lt;/td&gt;&lt;td&gt;0.27&lt;/td&gt;&lt;td&gt;0.49&lt;/td&gt;&lt;td&gt;1.03&lt;/td&gt;&lt;td&gt;5.71&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;纳斯达克100&lt;/td&gt;&lt;td&gt;1113.1&lt;/td&gt;&lt;td&gt;0.05&lt;/td&gt;&lt;td&gt;0.40&lt;/td&gt;&lt;td&gt;1.10&lt;/td&gt;&lt;td&gt;4.13&lt;/td&gt;&lt;td&gt;26.68&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;道琼斯工业&lt;/td&gt;&lt;td&gt;24.8&lt;/td&gt;&lt;td&gt;0.01&lt;/td&gt;&lt;td&gt;0.66&lt;/td&gt;&lt;td&gt;0.71&lt;/td&gt;&lt;td&gt;0.95&lt;/td&gt;&lt;td&gt;5.77&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td rowspan="2"&gt;新兴市场&lt;/td&gt;&lt;td&gt;巴西伊博维斯帕&lt;/td&gt;&lt;td&gt;8.0&lt;/td&gt;&lt;td&gt;0.16&lt;/td&gt;&lt;td&gt;0.48&lt;/td&gt;&lt;td&gt;-0.86&lt;/td&gt;&lt;td&gt;-3.16&lt;/td&gt;&lt;td&gt;4.33&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;新交所新兴亚洲精选50&lt;/td&gt;&lt;td&gt;2.9&lt;/td&gt;&lt;td&gt;0.20&lt;/td&gt;&lt;td&gt;0.15&lt;/td&gt;&lt;td&gt;0.10&lt;/td&gt;&lt;td&gt;-0.96&lt;/td&gt;&lt;td&gt;-1.04&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td colspan="2"&gt;境外大类行业&lt;/td&gt;&lt;td&gt;基金规模&lt;/td&gt;&lt;td&gt;资金流入1日&lt;/td&gt;&lt;td&gt;资金流入5日&lt;/td&gt;&lt;td&gt;资金流入10日&lt;/td&gt;&lt;td&gt;资金流入20日&lt;/td&gt;&lt;td&gt;资金流入60日&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;/td&gt;&lt;td&gt;科技&lt;/td&gt;&lt;td&gt;3477.6&lt;/td&gt;&lt;td&gt;3.71&lt;/td&gt;&lt;td&gt;12.28&lt;/td&gt;&lt;td&gt;55.91&lt;/td&gt;&lt;td&gt;195.82&lt;/td&gt;&lt;td&gt;495.46&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;/td&gt;&lt;td&gt;周期&lt;/td&gt;&lt;td&gt;20.3&lt;/td&gt;&lt;td&gt;0.10&lt;/td&gt;&lt;td&gt;0.14&lt;/td&gt;&lt;td&gt;0.18&lt;/td&gt;&lt;td&gt;0.27&lt;/td&gt;&lt;td&gt;0.28&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;/td&gt;&lt;td&gt;制造&lt;/td&gt;&lt;td&gt;14.3&lt;/td&gt;&lt;td&gt;0.05&lt;/td&gt;&lt;td&gt;-0.58&lt;/td&gt;&lt;td&gt;-0.93&lt;/td&gt;&lt;td&gt;-1.50&lt;/td&gt;&lt;td&gt;-1.56&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;/td&gt;&lt;td&gt;医药&lt;/td&gt;&lt;td&gt;1101.7&lt;/td&gt;&lt;td&gt;1.65&lt;/td&gt;&lt;td&gt;1.97&lt;/td&gt;&lt;td&gt;15.01&lt;/td&gt;&lt;td&gt;35.84&lt;/td&gt;&lt;td&gt;98.92&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;/td&gt;&lt;td&gt;消费&lt;/td&gt;&lt;td&gt;108.3&lt;/td&gt;&lt;td&gt;0.65&lt;/td&gt;&lt;td&gt;2.54&lt;/td&gt;&lt;td&gt;4.39&lt;/td&gt;&lt;td&gt;5.12&lt;/td&gt;&lt;td&gt;9.65&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;/td&gt;&lt;td&gt;金融地产&lt;/td&gt;&lt;td&gt;474.2&lt;/td&gt;&lt;td&gt;4.92&lt;/td&gt;&lt;td&gt;17.42&lt;/td&gt;&lt;td&gt;32.75&lt;/td&gt;&lt;td&gt;94.54&lt;/td&gt;&lt;td&gt;128.26&lt;/td&gt;&lt;/tr&gt;&lt;/table&gt;
+资料来源：Choice基金数据浏览器，东方财富证券研究所
+# 3.代表性 ETF资金流一览
+股票型 ETF：1 月 26 日至 30 日净流入规模靠前的 5 只 ETF 分别为华夏中证细分有色金属产业主题 ETF（64.6亿）、南方中证申万有色金属 ETF（56.3亿）、鹏华中证细分化工产业 ETF（40.1 亿）、华夏中证沪深港黄金产业股票ETF（38.2 亿）、富国中证细分化工产业主题ETF（27.8 亿），净流出规模靠前的为易方达沪深 300ETF（-747.3 亿）、华泰柏瑞沪深 300ETF（-742.0 亿）、华夏沪深 300ETF（-547.1 亿）、华夏上证 50ETF（417.3 亿）、嘉实沪深 300ETF（-406.3 亿）。
+跨境 ETF：1 月 26 日至 30 日净流入规模靠前的 5 只 ETF 分别为广发中证港股通非银ETF、天弘恒生科技ETF、南方基金南方东英富时亚太低碳精选ETF（QDII）、广发中证香港创新药（QDII-ETF）、易方达中证港股通消费主题ETF。
+商品 ETF：1 月 26 日至 30 日净流入规模靠前的 3 只 ETF 分别为华安黄金易ETF、国泰黄金ETF、易方达黄金ETF。
+图表 11：A 股代表指数和细分 ETF 资金流情况（亿元）  
+&lt;table&gt;&lt;tr&gt;&lt;td rowspan="2"&gt;类型&lt;/td&gt;&lt;td rowspan="2"&gt;大类&lt;/td&gt;&lt;td rowspan="2"&gt;小类&lt;/td&gt;&lt;td rowspan="2"&gt;追踪指数&lt;/td&gt;&lt;td rowspan="2"&gt;最新规模(亿元)&lt;/td&gt;&lt;td colspan="3"&gt;代表基金(规模单位为亿元)&lt;/td&gt;&lt;td colspan="5"&gt;资金净流入金额(亿元)&lt;/td&gt;&lt;td colspan="2"&gt;涨跌幅&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;基金代码&lt;/td&gt;&lt;td&gt;基金简称&lt;/td&gt;&lt;td&gt;规模&lt;/td&gt;&lt;td&gt;近1日&lt;/td&gt;&lt;td&gt;近5日&lt;/td&gt;&lt;td&gt;近10日&lt;/td&gt;&lt;td&gt;近20日&lt;/td&gt;&lt;td&gt;近60日&lt;/td&gt;&lt;td&gt;近5日&lt;/td&gt;&lt;td&gt;近1月&lt;/td&gt;&lt;td&gt;近3月&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td rowspan="17"&gt;股票型&lt;/td&gt;&lt;td rowspan="17"&gt;宽基&lt;/td&gt;&lt;td&gt;超大盘&lt;/td&gt;&lt;td&gt;上证50&lt;/td&gt;&lt;td&gt;881.2&lt;/td&gt;&lt;td&gt;510050.0F&lt;/td&gt;&lt;td&gt;华夏上证50ETF&lt;/td&gt;&lt;td&gt;803.5&lt;/td&gt;&lt;td&gt;-11.7&lt;/td&gt;&lt;td&gt;-417.3&lt;/td&gt;&lt;td&gt;-783.0&lt;/td&gt;&lt;td&gt;-979.4&lt;/td&gt;&lt;td&gt;-1,013.2&lt;/td&gt;&lt;td&gt;1.1%&lt;/td&gt;&lt;td&gt;1.3%&lt;/td&gt;&lt;td&gt;2.2%&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td rowspan="5"&gt;大盘&lt;/td&gt;&lt;td&gt;沪深300&lt;/td&gt;&lt;td&gt;6,104.5&lt;/td&gt;&lt;td&gt;510300.0F&lt;/td&gt;&lt;td&gt;华泰柏瑞沪深300ETF&lt;/td&gt;&lt;td&gt;2,295.2&lt;/td&gt;&lt;td&gt;-26.9&lt;/td&gt;&lt;td&gt;-742.0&lt;/td&gt;&lt;td&gt;-1,480.4&lt;/td&gt;&lt;td&gt;-1,908.4&lt;/td&gt;&lt;td&gt;-1,944.6&lt;/td&gt;&lt;td&gt;0.1%&lt;/td&gt;&lt;td&gt;1.7%&lt;/td&gt;&lt;td&gt;1.8%&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;沪深300&lt;/td&gt;&lt;td&gt;6,104.5&lt;/td&gt;&lt;td&gt;510310.0F&lt;/td&gt;&lt;td&gt;易方达沪深300ETF&lt;/td&gt;&lt;td&gt;1,480.5&lt;/td&gt;&lt;td&gt;-23.9&lt;/td&gt;&lt;td&gt;-747.3&lt;/td&gt;&lt;td&gt;-1,366.1&lt;/td&gt;&lt;td&gt;-1,526.6&lt;/td&gt;&lt;td&gt;-1,564.6&lt;/td&gt;&lt;td&gt;0.1%&lt;/td&gt;&lt;td&gt;1.8%&lt;/td&gt;&lt;td&gt;1.8%&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td rowspan="2"&gt;中证A500&lt;/td&gt;&lt;td rowspan="2"&gt;2,772.5&lt;/td&gt;&lt;td&gt;563360.0F&lt;/td&gt;&lt;td&gt;华泰柏瑞中证A500ETF&lt;/td&gt;&lt;td&gt;475.2&lt;/td&gt;&lt;td&gt;14.2&lt;/td&gt;&lt;td&gt;11.2&lt;/td&gt;&lt;td&gt;-9.6&lt;/td&gt;&lt;td&gt;-41.6&lt;/td&gt;&lt;td&gt;180.5&lt;/td&gt;&lt;td&gt;-0.8%&lt;/td&gt;&lt;td&gt;4.5%&lt;/td&gt;&lt;td&gt;5.8%&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;159352.0F&lt;/td&gt;&lt;td&gt;南方中证A500ETF&lt;/td&gt;&lt;td&gt;440.1&lt;/td&gt;&lt;td&gt;0.5&lt;/td&gt;&lt;td&gt;-1.9&lt;/td&gt;&lt;td&gt;-10.5&lt;/td&gt;&lt;td&gt;-61.5&lt;/td&gt;&lt;td&gt;196.7&lt;/td&gt;&lt;td&gt;-0.6%&lt;/td&gt;&lt;td&gt;4.5%&lt;/td&gt;&lt;td&gt;5.8%&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;上证180&lt;/td&gt;&lt;td&gt;245.8&lt;/td&gt;&lt;td&gt;510180.0F&lt;/td&gt;&lt;td&gt;华安上证180ETF&lt;/td&gt;&lt;td&gt;233.9&lt;/td&gt;&lt;td&gt;0.4&lt;/td&gt;&lt;td&gt;0.5&lt;/td&gt;&lt;td&gt;-0.3&lt;/td&gt;&lt;td&gt;-3.9&lt;/td&gt;&lt;td&gt;-3.8&lt;/td&gt;&lt;td&gt;-0.1%&lt;/td&gt;&lt;td&gt;3.2%&lt;/td&gt;&lt;td&gt;2.4%&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td rowspan="2"&gt;中盘&lt;/td&gt;&lt;td&gt;中证800&lt;/td&gt;&lt;td&gt;63.8&lt;/td&gt;&lt;td&gt;515800.0F&lt;/td&gt;&lt;td&gt;添富中证800ETF&lt;/td&gt;&lt;td&gt;57.1&lt;/td&gt;&lt;td&gt;0.2&lt;/td&gt;&lt;td&gt;1.8&lt;/td&gt;&lt;td&gt;1.6&lt;/td&gt;&lt;td&gt;1.0&lt;/td&gt;&lt;td&gt;2.2&lt;/td&gt;&lt;td&gt;-0.2%&lt;/td&gt;&lt;td&gt;4.5%&lt;/td&gt;&lt;td&gt;5.1%&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;中证500&lt;/td&gt;&lt;td&gt;1,575.6&lt;/td&gt;&lt;td&gt;510500.0F&lt;/td&gt;&lt;td&gt;南方中证500ETF&lt;/td&gt;&lt;td&gt;1,065.4&lt;/td&gt;&lt;td&gt;-63.2&lt;/td&gt;&lt;td&gt;-321.4&lt;/td&gt;&lt;td&gt;-425.8&lt;/td&gt;&lt;td&gt;-547.8&lt;/td&gt;&lt;td&gt;-480.0&lt;/td&gt;&lt;td&gt;-2.5%&lt;/td&gt;&lt;td&gt;12.2%&lt;/td&gt;&lt;td&gt;14.5%&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td rowspan="2"&gt;小盘&lt;/td&gt;&lt;td rowspan="2"&gt;中证1000&lt;/td&gt;&lt;td rowspan="2"&gt;659.0&lt;/td&gt;&lt;td&gt;512100.0F&lt;/td&gt;&lt;td&gt;南方中证1000ETF&lt;/td&gt;&lt;td&gt;354.1&lt;/td&gt;&lt;td&gt;2.0&lt;/td&gt;&lt;td&gt;-175.6&lt;/td&gt;&lt;td&gt;-485.6&lt;/td&gt;&lt;td&gt;-496.6&lt;/td&gt;&lt;td&gt;-469.7&lt;/td&gt;&lt;td&gt;-2.4%&lt;/td&gt;&lt;td&gt;8.7%&lt;/td&gt;&lt;td&gt;10.2%&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;159845.0F&lt;/td&gt;&lt;td&gt;华夏中证1000ETF&lt;/td&gt;&lt;td&gt;164.4&lt;/td&gt;&lt;td&gt;0.7&lt;/td&gt;&lt;td&gt;-132.5&lt;/td&gt;&lt;td&gt;-336.2&lt;/td&gt;&lt;td&gt;-380.2&lt;/td&gt;&lt;td&gt;-334.5&lt;/td&gt;&lt;td&gt;-2.6%&lt;/td&gt;&lt;td&gt;8.7%&lt;/td&gt;&lt;td&gt;10.1%&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td rowspan="2"&gt;小微盘&lt;/td&gt;&lt;td&gt;中证2000&lt;/td&gt;&lt;td&gt;67.6&lt;/td&gt;&lt;td&gt;563300.0F&lt;/td&gt;&lt;td&gt;华泰柏瑞中证2000ETF&lt;/td&gt;&lt;td&gt;41.3&lt;/td&gt;&lt;td&gt;0.9&lt;/td&gt;&lt;td&gt;-2.8&lt;/td&gt;&lt;td&gt;5.0&lt;/td&gt;&lt;td&gt;11.8&lt;/td&gt;&lt;td&gt;10.0&lt;/td&gt;&lt;td&gt;-2.3%&lt;/td&gt;&lt;td&gt;9.5%&lt;/td&gt;&lt;td&gt;13.5%&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;国证2000&lt;/td&gt;&lt;td&gt;11.2&lt;/td&gt;&lt;td&gt;159628.0F&lt;/td&gt;&lt;td&gt;万家国证2000ETF&lt;/td&gt;&lt;td&gt;8.1&lt;/td&gt;&lt;td&gt;0.0&lt;/td&gt;&lt;td&gt;-0.3&lt;/td&gt;&lt;td&gt;-0.5&lt;/td&gt;&lt;td&gt;0.2&lt;/td&gt;&lt;td&gt;-2.2&lt;/td&gt;&lt;td&gt;-2.2%&lt;/td&gt;&lt;td&gt;9.6%&lt;/td&gt;&lt;td&gt;13.1%&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td rowspan="2"&gt;创业板&lt;/td&gt;&lt;td&gt;创业板指&lt;/td&gt;&lt;td&gt;964.9&lt;/td&gt;&lt;td&gt;159915.0F&lt;/td&gt;&lt;td&gt;易方达创业板ETF&lt;/td&gt;&lt;td&gt;630.8&lt;/td&gt;&lt;td&gt;-16.5&lt;/td&gt;&lt;td&gt;-94.7&lt;/td&gt;&lt;td&gt;-181.2&lt;/td&gt;&lt;td&gt;-418.1&lt;/td&gt;&lt;td&gt;-457.8&lt;/td&gt;&lt;td&gt;-0.1%&lt;/td&gt;&lt;td&gt;4.6%&lt;/td&gt;&lt;td&gt;5.3%&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;创业板50&lt;/td&gt;&lt;td&gt;331.1&lt;/td&gt;&lt;td&gt;159949.0F&lt;/td&gt;&lt;td&gt;华安创业板50ETF&lt;/td&gt;&lt;td&gt;238.4&lt;/td&gt;&lt;td&gt;-3.4&lt;/td&gt;&lt;td&gt;-12.3&lt;/td&gt;&lt;td&gt;-30.5&lt;/td&gt;&lt;td&gt;-78.3&lt;/td&gt;&lt;td&gt;-41.7&lt;/td&gt;&lt;td&gt;1.0%&lt;/td&gt;&lt;td&gt;3.6%&lt;/td&gt;&lt;td&gt;4.3%&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td rowspan="3"&gt;科创板&lt;/td&gt;&lt;td rowspan="2"&gt;科创50&lt;/td&gt;&lt;td rowspan="2"&gt;1,537.1&lt;/td&gt;&lt;td&gt;588000.0F&lt;/td&gt;&lt;td&gt;华夏上证科创板50成份ETF&lt;/td&gt;&lt;td&gt;800.8&lt;/td&gt;&lt;td&gt;-4.9&lt;/td&gt;&lt;td&gt;-9.3&lt;/td&gt;&lt;td&gt;-43.5&lt;/td&gt;&lt;td&gt;-52.7&lt;/td&gt;&lt;td&gt;-2.6&lt;/td&gt;&lt;td&gt;-2.8%&lt;/td&gt;&lt;td&gt;12.3%&lt;/td&gt;&lt;td&gt;6.9%&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;588080.0F&lt;/td&gt;&lt;td&gt;易方达上证科创板50ETF&lt;/td&gt;&lt;td&gt;443.5&lt;/td&gt;&lt;td&gt;-1.1&lt;/td&gt;&lt;td&gt;3.4&lt;/td&gt;&lt;td&gt;-86.0&lt;/td&gt;&lt;td&gt;-346.6&lt;/td&gt;&lt;td&gt;-335.2&lt;/td&gt;&lt;td&gt;-2.8%&lt;/td&gt;&lt;td&gt;12.3%&lt;/td&gt;&lt;td&gt;6.9%&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;科创综指&lt;/td&gt;&lt;td&gt;79.7&lt;/td&gt;&lt;td&gt;589800.0F&lt;/td&gt;&lt;td&gt;易方达上证科创板综合ETF&lt;/td&gt;&lt;td&gt;17.8&lt;/td&gt;&lt;td&gt;0.1&lt;/td&gt;&lt;td&gt;0.3&lt;/td&gt;&lt;td&gt;0.5&lt;/td&gt;&lt;td&gt;-0.1&lt;/td&gt;&lt;td&gt;-0.7&lt;/td&gt;&lt;td&gt;-3.9%&lt;/td&gt;&lt;td&gt;11.9%&lt;/td&gt;&lt;td&gt;11.6%&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td rowspan="6"&gt;股票型&lt;/td&gt;&lt;td rowspan="6"&gt;martbet&lt;/td&gt;&lt;td rowspan="2"&gt;红利&lt;/td&gt;&lt;td&gt;红利低波&lt;/td&gt;&lt;td&gt;371.0&lt;/td&gt;&lt;td&gt;512890.0F&lt;/td&gt;&lt;td&gt;华泰柏瑞中证红利低波ETF&lt;/td&gt;&lt;td&gt;289.7&lt;/td&gt;&lt;td&gt;2.8&lt;/td&gt;&lt;td&gt;6.8&lt;/td&gt;&lt;td&gt;20.2&lt;/td&gt;&lt;td&gt;23.8&lt;/td&gt;&lt;td&gt;42.6&lt;/td&gt;&lt;td&gt;1.6%&lt;/td&gt;&lt;td&gt;-0.7%&lt;/td&gt;&lt;td&gt;-1.8%&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;中证红利&lt;/td&gt;&lt;td&gt;206.8&lt;/td&gt;&lt;td&gt;515180.0F&lt;/td&gt;&lt;td&gt;易方达中证红利ETF&lt;/td&gt;&lt;td&gt;108.4&lt;/td&gt;&lt;td&gt;0.0&lt;/td&gt;&lt;td&gt;-4.8&lt;/td&gt;&lt;td&gt;-5.6&lt;/td&gt;&lt;td&gt;-13.8&lt;/td&gt;&lt;td&gt;-2.2&lt;/td&gt;&lt;td&gt;1.6%&lt;/td&gt;&lt;td&gt;3.7%&lt;/td&gt;&lt;td&gt;1.7%&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;价值&lt;/td&gt;&lt;td&gt;国信价值&lt;/td&gt;&lt;td&gt;25.9&lt;/td&gt;&lt;td&gt;512040.0F&lt;/td&gt;&lt;td&gt;富国中证价值ETF&lt;/td&gt;&lt;td&gt;25.9&lt;/td&gt;&lt;td&gt;0.0&lt;/td&gt;&lt;td&gt;1.0&lt;/td&gt;&lt;td&gt;1.6&lt;/td&gt;&lt;td&gt;2.2&lt;/td&gt;&lt;td&gt;3.0&lt;/td&gt;&lt;td&gt;1.5%&lt;/td&gt;&lt;td&gt;8.4%&lt;/td&gt;&lt;td&gt;10.2%&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td rowspan="2"&gt;现金流&lt;/td&gt;&lt;td&gt;自由现金流&lt;/td&gt;&lt;td&gt;155.9&lt;/td&gt;&lt;td&gt;159201.0F&lt;/td&gt;&lt;td&gt;华夏国证自由现金流ETF&lt;/td&gt;&lt;td&gt;124.1&lt;/td&gt;&lt;td&gt;3.0&lt;/td&gt;&lt;td&gt;8.6&lt;/td&gt;&lt;td&gt;21.3&lt;/td&gt;&lt;td&gt;29.3&lt;/td&gt;&lt;td&gt;58.2&lt;/td&gt;&lt;td&gt;1.5%&lt;/td&gt;&lt;td&gt;9.3%&lt;/td&gt;&lt;td&gt;13.1%&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;中证现金流&lt;/td&gt;&lt;td&gt;99.3&lt;/td&gt;&lt;td&gt;159235.0F&lt;/td&gt;&lt;td&gt;大成中证全指自由现金流ETF&lt;/td&gt;&lt;td&gt;27.7&lt;/td&gt;&lt;td&gt;0.5&lt;/td&gt;&lt;td&gt;2.1&lt;/td&gt;&lt;td&gt;3.5&lt;/td&gt;&lt;td&gt;4.3&lt;/td&gt;&lt;td&gt;11.0&lt;/td&gt;&lt;td&gt;1.8%&lt;/td&gt;&lt;td&gt;8.1%&lt;/td&gt;&lt;td&gt;12.5%&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;成长&lt;/td&gt;&lt;td&gt;创成长&lt;/td&gt;&lt;td&gt;29.0&lt;/td&gt;&lt;td&gt;159967.0F&lt;/td&gt;&lt;td&gt;华夏创成长ETF&lt;/td&gt;&lt;td&gt;29.0&lt;/td&gt;&lt;td&gt;-0.9&lt;/td&gt;&lt;td&gt;-1.7&lt;/td&gt;&lt;td&gt;-2.4&lt;/td&gt;&lt;td&gt;-2.3&lt;/td&gt;&lt;td&gt;-5.1&lt;/td&gt;&lt;td&gt;2.0%&lt;/td&gt;&lt;td&gt;0.7%&lt;/td&gt;&lt;td&gt;6.8%&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td rowspan="36"&gt;股票型&lt;/td&gt;&lt;td rowspan="36"&gt;犬类行业&lt;/td&gt;&lt;td rowspan="6"&gt;科技&lt;/td&gt;&lt;td&gt;半导体材料设备&lt;/td&gt;&lt;td&gt;338.9&lt;/td&gt;&lt;td&gt;159516.0F&lt;/td&gt;&lt;td&gt;国泰中证半导体材料设备主题ETF&lt;/td&gt;&lt;td&gt;1.8&lt;/td&gt;&lt;td&gt;-0.3&lt;/td&gt;&lt;td&gt;21.7&lt;/td&gt;&lt;td&gt;45.8&lt;/td&gt;&lt;td&gt;101.4&lt;/td&gt;&lt;td&gt;114.7&lt;/td&gt;&lt;td&gt;-5.2%&lt;/td&gt;&lt;td&gt;19.5%&lt;/td&gt;&lt;td&gt;26.6%&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;科创芯片&lt;/td&gt;&lt;td&gt;685.6&lt;/td&gt;&lt;td&gt;588200.0F&lt;/td&gt;&lt;td&gt;嘉实上证科创板芯片ETF&lt;/td&gt;&lt;td&gt;2.8&lt;/td&gt;&lt;td&gt;-2.4&lt;/td&gt;&lt;td&gt;15.9&lt;/td&gt;&lt;td&gt;41.4&lt;/td&gt;&lt;td&gt;39.1&lt;/td&gt;&lt;td&gt;29.2&lt;/td&gt;&lt;td&gt;-0.7%&lt;/td&gt;&lt;td&gt;18.1%&lt;/td&gt;&lt;td&gt;16.5%&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;科创芯片&lt;/td&gt;&lt;td&gt;685.6&lt;/td&gt;&lt;td&gt;589130.0F&lt;/td&gt;&lt;td&gt;易方达上证科创板芯片ETF&lt;/td&gt;&lt;td&gt;1.1&lt;/td&gt;&lt;td&gt;1.6&lt;/td&gt;&lt;td&gt;13.6&lt;/td&gt;&lt;td&gt;18.1&lt;/td&gt;&lt;td&gt;23.3&lt;/td&gt;&lt;td&gt;23.3&lt;/td&gt;&lt;td&gt;-0.7%&lt;/td&gt;&lt;td&gt;9.3%&lt;/td&gt;&lt;td&gt;0.0%&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;5G通信&lt;/td&gt;&lt;td&gt;111.3&lt;/td&gt;&lt;td&gt;159994.0F&lt;/td&gt;&lt;td&gt;银华中证5G通信主题ETF&lt;/td&gt;&lt;td&gt;2.0&lt;/td&gt;&lt;td&gt;-0.9&lt;/td&gt;&lt;td&gt;-3.2&lt;/td&gt;&lt;td&gt;-5.2&lt;/td&gt;&lt;td&gt;-2.1&lt;/td&gt;&lt;td&gt;6.7&lt;/td&gt;&lt;td&gt;1.4%&lt;/td&gt;&lt;td&gt;4.9%&lt;/td&gt;&lt;td&gt;13.2%&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;通信设备主题&lt;/td&gt;&lt;td&gt;14.0&lt;/td&gt;&lt;td&gt;159583.0F&lt;/td&gt;&lt;td&gt;富国中证通信设备主题ETF&lt;/td&gt;&lt;td&gt;1.4&lt;/td&gt;&lt;td&gt;-0.6&lt;/td&gt;&lt;td&gt;-1.9&lt;/td&gt;&lt;td&gt;-1.1&lt;/td&gt;&lt;td&gt;0.5&lt;/td&gt;&lt;td&gt;0.6&lt;/td&gt;&lt;td&gt;1.3%&lt;/td&gt;&lt;td&gt;5.7%&lt;/td&gt;&lt;td&gt;28.5%&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;消费电子&lt;/td&gt;&lt;td&gt;51.7&lt;/td&gt;&lt;td&gt;159732.0F&lt;/td&gt;&lt;td&gt;华夏国证消费电子主题ETF&lt;/td&gt;&lt;td&gt;1.2&lt;/td&gt;&lt;td&gt;-0.5&lt;/td&gt;&lt;td&gt;-1.5&lt;/td&gt;&lt;td&gt;-4.3&lt;/td&gt;&lt;td&gt;-4.4&lt;/td&gt;&lt;td&gt;-6.5&lt;/td&gt;&lt;td&gt;-3.6%&lt;/td&gt;&lt;td&gt;5.4%&lt;/td&gt;&lt;td&gt;3.3%&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td rowspan="30"&gt;周期&lt;/td&gt;&lt;td&gt;细分有色&lt;/td&gt;&lt;td&gt;306.6&lt;/td&gt;&lt;td&gt;516650.0F&lt;/td&gt;&lt;td&gt;华夏中证细分有色金属产业主题ETF&lt;/td&gt;&lt;td&gt;2.3&lt;/td&gt;&lt;td&gt;11.3&lt;/td&gt;&lt;td&gt;64.6&lt;/td&gt;&lt;td&gt;86.3&lt;/td&gt;&lt;td&gt;148.4&lt;/td&gt;&lt;td&gt;192.0&lt;/td&gt;&lt;td&gt;3.6%&lt;/td&gt;&lt;td&gt;22.6%&lt;/td&gt;&lt;td&gt;35.2%&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;有色金属&lt;/td&gt;&lt;td&gt;448.1&lt;/td&gt;&lt;td&gt;512400.0F&lt;/td&gt;&lt;td&gt;南方中证申万有色金属ETF&lt;/td&gt;&lt;td&gt;2.4&lt;/td&gt;&lt;td&gt;10.1&lt;/td&gt;&lt;td&gt;56.3&lt;/td&gt;&lt;td&gt;81.7&lt;/td&gt;&lt;td&gt;182.6&lt;/td&gt;&lt;td&gt;198.6&lt;/td&gt;&lt;td&gt;3.8%&lt;/td&gt;&lt;td&gt;23.2%&lt;/td&gt;&lt;td&gt;36.2%&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;细分化工&lt;/td&gt;&lt;td&gt;539.0&lt;/td&gt;&lt;td&gt;159870.0F&lt;/td&gt;&lt;td&gt;鹏华中证细分化工产业ETF&lt;/td&gt;&lt;td&gt;0.9&lt;/td&gt;&lt;td&gt;-1.4&lt;/td&gt;&lt;td&gt;40.1&lt;/td&gt;&lt;td&gt;97.1&lt;/td&gt;&lt;td&gt;142.8&lt;/td&gt;&lt;td&gt;120.5&lt;/td&gt;&lt;td&gt;-1.0%&lt;/td&gt;&lt;td&gt;11.3%&lt;/td&gt;&lt;td&gt;26.0%&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;工业有色&lt;/td&gt;&lt;td&gt;166.4&lt;/td&gt;&lt;td&gt;159162.SZ&lt;/td&gt;&lt;td&gt;工业有色ETF鹏华&lt;/td&gt;&lt;td&gt;1.0&lt;/td&gt;&lt;td&gt;-0.3&lt;/td&gt;&lt;td&gt;-2.3&lt;/td&gt;&lt;td&gt;-2.3&lt;/td&gt;&lt;td&gt;-2.3&lt;/td&gt;&lt;td&gt;-2.3&lt;/td&gt;&lt;td&gt;1.5%&lt;/td&gt;&lt;td&gt;0.0%&lt;/td&gt;&lt;td&gt;0.0%&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;电力电网&lt;/td&gt;&lt;td&gt;55.1&lt;/td&gt;&lt;td&gt;159611.0F&lt;/td&gt;&lt;td&gt;广发中证全指电力公用事业ETF&lt;/td&gt;&lt;td&gt;1.0&lt;/td&gt;&lt;td&gt;-0.1&lt;/td&gt;&lt;td&gt;-1.0&lt;/td&gt;&lt;td&gt;2.4&lt;/td&gt;&lt;td&gt;3.4&lt;/td&gt;&lt;td&gt;-2.2&lt;/td&gt;&lt;td&gt;-1.9%&lt;/td&gt;&lt;td&gt;2.8%&lt;/td&gt;&lt;td&gt;-3.3%&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;电力指数&lt;/td&gt;&lt;td&gt;21.8&lt;/td&gt;&lt;td&gt;159158.SZ&lt;/td&gt;&lt;td&gt;电力ETF景顺&lt;/td&gt;&lt;td&gt;1.0&lt;/td&gt;&lt;td&gt;-0.1&lt;/td&gt;&lt;td&gt;-0.5&lt;/td&gt;&lt;td&gt;-0.5&lt;/td&gt;&lt;td&gt;-0.5&lt;/td&gt;&lt;td&gt;-0.5&lt;/td&gt;&lt;td&gt;-1.9%&lt;/td&gt;&lt;td&gt;0.0%&lt;/td&gt;&lt;td&gt;0.0%&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;中证农业&lt;/td&gt;&lt;td&gt;34.5&lt;/td&gt;&lt;td&gt;159825.0F&lt;/td&gt;&lt;td&gt;富国中证农业主题ETF&lt;/td&gt;&lt;td&gt;0.9&lt;/td&gt;&lt;td&gt;1.4&lt;/td&gt;&lt;td&gt;3.2&lt;/td&gt;&lt;td&gt;3.2&lt;/td&gt;&lt;td&gt;1.9&lt;/td&gt;&lt;td&gt;-2.5&lt;/td&gt;&lt;td&gt;1.2%&lt;/td&gt;&lt;td&gt;3.6%&lt;/td&gt;&lt;td&gt;6.4%&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;国证粮食&lt;/td&gt;&lt;td&gt;5.8&lt;/td&gt;&lt;td&gt;159698.0F&lt;/td&gt;&lt;td&gt;鹏华国证粮食产业ETF&lt;/td&gt;&lt;td&gt;1.2&lt;/td&gt;&lt;td&gt;1.3&lt;/td&gt;&lt;td&gt;3.1&lt;/td&gt;&lt;td&gt;3.1&lt;/td&gt;&lt;td&gt;3.2&lt;/td&gt;&lt;td&gt;2.6&lt;/td&gt;&lt;td&gt;5.7%&lt;/td&gt;&lt;td&gt;11.6%&lt;/td&gt;&lt;td&gt;17.8%&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;中证旅游&lt;/td&gt;&lt;td&gt;85.1&lt;/td&gt;&lt;td&gt;159766.0F&lt;/td&gt;&lt;td&gt;富国中证旅游主题ETF&lt;/td&gt;&lt;td&gt;0.8&lt;/td&gt;&lt;td&gt;0.7&lt;/td&gt;&lt;td&gt;3.1&lt;/td&gt;&lt;td&gt;17.5&lt;/td&gt;&lt;td&gt;22.8&lt;/td&gt;&lt;td&gt;40.1&lt;/td&gt;&lt;td&gt;-2.8%&lt;/td&gt;&lt;td&gt;-1.4%&lt;/td&gt;&lt;td&gt;8.3%&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;800消费&lt;/td&gt;&lt;td&gt;242.9&lt;/td&gt;&lt;td&gt;159928.0F&lt;/td&gt;&lt;td&gt;汇添富中证消费主题消费ETF&lt;/td&gt;&lt;td&gt;0.8&lt;/td&gt;&lt;td&gt;-1.9&lt;/td&gt;&lt;td&gt;-3.0&lt;/td&gt;&lt;td&gt;-3.0&lt;/td&gt;&lt;td&gt;23.3&lt;/td&gt;&lt;td&gt;30.8&lt;/td&gt;&lt;td&gt;0.8%&lt;/td&gt;&lt;td&gt;-1.8%&lt;/td&gt;&lt;td&gt;-6.3%&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;细分食品&lt;/td&gt;&lt;td&gt;75.1&lt;/td&gt;&lt;td&gt;515170.0F&lt;/td&gt;&lt;td&gt;华夏中证细分食品饮料产业主题ETF&lt;/td&gt;&lt;td&gt;0.5&lt;/td&gt;&lt;td&gt;0.0&lt;/td&gt;&lt;td&gt;-0.9&lt;/td&gt;&lt;td&gt;0.5&lt;/td&gt;&lt;td&gt;0.2&lt;/td&gt;&lt;td&gt;-2.0&lt;/td&gt;&lt;td&gt;0.9%&lt;/td&gt;&lt;td&gt;-0.8%&lt;/td&gt;&lt;td&gt;-5.6%&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;家用电器&lt;/td&gt;&lt;td&gt;21.0&lt;/td&gt;&lt;td&gt;159996.0F&lt;/td&gt;&lt;td&gt;国泰中证全指家用电器ETF&lt;/td&gt;&lt;td&gt;1.6&lt;/td&gt;&lt;td&gt;0.0&lt;/td&gt;&lt;td&gt;-0.8&lt;/td&gt;&lt;td&gt;0.0&lt;/td&gt;&lt;td&gt;-0.8&lt;/td&gt;&lt;td&gt;-1.7&lt;/td&gt;&lt;td&gt;-3.7%&lt;/td&gt;&lt;td&gt;0.9%&lt;/td&gt;&lt;td&gt;2.8%&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;制造&lt;/td&gt;&lt;td&gt;173.2&lt;/td&gt;&lt;td&gt;159206.0F&lt;/td&gt;&lt;td&gt;永赢国证商用卫星ETF&lt;/td&gt;&lt;td&gt;1.9&lt;/td&gt;&lt;td&gt;8.4&lt;/td&gt;&lt;td&gt;27.7&lt;/td&gt;&lt;td&gt;10.8&lt;/td&gt;&lt;td&gt;104.7&lt;/td&gt;&lt;td&gt;144.3&lt;/td&gt;&lt;td&gt;-11.0%&lt;/td&gt;&lt;td&gt;12.8%&lt;/td&gt;&lt;td&gt;60.2%&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;卫星产业&lt;/td&gt;&lt;td&gt;129.2&lt;/td&gt;&lt;td&gt;563230.0F&lt;/td&gt;&lt;td&gt;富国中证卫星产业ETF&lt;/td&gt;&lt;td&gt;1.6&lt;/td&gt;&lt;td&gt;1.6&lt;/td&gt;&lt;td&gt;8.4&lt;/td&gt;&lt;td&gt;9.3&lt;/td&gt;&lt;td&gt;39.0&lt;/td&gt;&lt;td&gt;42.8&lt;/td&gt;&lt;td&gt;-11.1%&lt;/td&gt;&lt;td&gt;12.8%&lt;/td&gt;&lt;td&gt;60.3%&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;卫星产业&lt;/td&gt;&lt;td&gt;129.2&lt;/td&gt;&lt;td&gt;159218.0F&lt;/td&gt;&lt;td&gt;招商中证卫星产业ETF&lt;/td&gt;&lt;td&gt;2.0&lt;/td&gt;&lt;td&gt;-0.3&lt;/td&gt;&lt;td&gt;5.1&lt;/td&gt;&lt;td&gt;5.6&lt;/td&gt;&lt;td&gt;25.1&lt;/td&gt;&lt;td&gt;30.2&lt;/td&gt;&lt;td&gt;-11.1%&lt;/td&gt;&lt;td&gt;12.7%&lt;/td&gt;&lt;td&gt;60.3%&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;新能源电池&lt;/td&gt;&lt;td&gt;158.1&lt;/td&gt;&lt;td&gt;159755.0F&lt;/td&gt;&lt;td&gt;广发国证新能源汽车电池ETF&lt;/td&gt;&lt;td&gt;1.1&lt;/td&gt;&lt;td&gt;-2.3&lt;/td&gt;&lt;td&gt;-4.9&lt;/td&gt;&lt;td&gt;-4.0&lt;/td&gt;&lt;td&gt;-7.1&lt;/td&gt;&lt;td&gt;-25.7&lt;/td&gt;&lt;td&gt;-5.8%&lt;/td&gt;&lt;td&gt;-1.1%&lt;/td&gt;&lt;td&gt;-4.5%&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;光伏产业&lt;/td&gt;&lt;td&gt;195.1&lt;/td&gt;&lt;td&gt;515790.0F&lt;/td&gt;&lt;td&gt;华泰柏瑞中证光伏产业ETF&lt;/td&gt;&lt;td&gt;1.1&lt;/td&gt;&lt;td&gt;0.1&lt;/td&gt;&lt;td&gt;-4.7&lt;/td&gt;&lt;td&gt;-1.3&lt;/td&gt;&lt;td&gt;-18.3&lt;/td&gt;&lt;td&gt;-41.4&lt;/td&gt;&lt;td&gt;-5.3%&lt;/td&gt;&lt;td&gt;11.1%&lt;/td&gt;&lt;td&gt;7.5%&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;中证新能&lt;/td&gt;&lt;td&gt;99.6&lt;/td&gt;&lt;td&gt;516160.0F&lt;/td&gt;&lt;td&gt;南方中证新能源ETF&lt;/td&gt;&lt;td&gt;3.0&lt;/td&gt;&lt;td&gt;-0.3&lt;/td&gt;&lt;td&gt;-2.9&lt;/td&gt;&lt;td&gt;-5.2&lt;/td&gt;&lt;td&gt;-3.9&lt;/td&gt;&lt;td&gt;4.5&lt;/td&gt;&lt;td&gt;-6.0%&lt;/td&gt;&lt;td&gt;4.0%&lt;/td&gt;&lt;td&gt;1.5%&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;中证医疗&lt;/td&gt;&lt;td&gt;323.7&lt;/td&gt;&lt;td&gt;159217.0F&lt;/td&gt;&lt;td&gt;华宝中证医疗ETF&lt;/td&gt;&lt;td&gt;0.4&lt;/td&gt;&lt;td&gt;4.7&lt;/td&gt;&lt;td&gt;14.9&lt;/td&gt;&lt;td&gt;23.0&lt;/td&gt;&lt;td&gt;6.9&lt;/td&gt;&lt;td&gt;22.2&lt;/td&gt;&lt;td&gt;-3.9%&lt;/td&gt;&lt;td&gt;4.8%&lt;/td&gt;&lt;td&gt;-4.0%&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;300医药&lt;/td&gt;&lt;td&gt;179.7&lt;/td&gt;&lt;td&gt;512010.0F&lt;/td&gt;&lt;td&gt;易方达沪深300医药ETF&lt;/td&gt;&lt;td&gt;0.4&lt;/td&gt;&lt;td&gt;0.3&lt;/td&gt;&lt;td&gt;10.1&lt;/td&gt;&lt;td&gt;18.6&lt;/td&gt;&lt;td&gt;9.5&lt;/td&gt;&lt;td&gt;18.2&lt;/td&gt;&lt;td&gt;-2.1%&lt;/td&gt;&lt;td&gt;0.1%&lt;/td&gt;&lt;td&gt;-8.3%&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;CS创新药&lt;/td&gt;&lt;td&gt;266.4&lt;/td&gt;&lt;td&gt;159992.0F&lt;/td&gt;&lt;td&gt;银华中证创新药产业ETF&lt;/td&gt;&lt;td&gt;0.8&lt;/td&gt;&lt;td&gt;2.1&lt;/td&gt;&lt;td&gt;8.8&lt;/td&gt;&lt;td&gt;16.2&lt;/td&gt;&lt;td&gt;30.6&lt;/td&gt;&lt;td&gt;33.3&lt;/td&gt;&lt;td&gt;-2.9%&lt;/td&gt;&lt;td&gt;-5.9%&lt;/td&gt;&lt;td&gt;-9.1%&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;医疗器械&lt;/td&gt;&lt;td&gt;81.7&lt;/td&gt;&lt;td&gt;159898.0F&lt;/td&gt;&lt;td&gt;招商中证全指医疗器械ETF&lt;/td&gt;&lt;td&gt;0.6&lt;/td&gt;&lt;td&gt;-0.1&lt;/td&gt;&lt;td&gt;-0.2&lt;/td&gt;&lt;td&gt;-0.7&lt;/td&gt;&lt;td&gt;3.6&lt;/td&gt;&lt;td&gt;3.7&lt;/td&gt;&lt;td&gt;-3.9%&lt;/td&gt;&lt;td&gt;4.8%&lt;/td&gt;&lt;td&gt;-2.9%&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;创医药&lt;/td&gt;&lt;td&gt;0.9&lt;/td&gt;&lt;td&gt;159377.0F&lt;/td&gt;&lt;td&gt;国泰创业板医药卫生ETF&lt;/td&gt;&lt;td&gt;1.2&lt;/td&gt;&lt;td&gt;-0.1&lt;/td&gt;&lt;td&gt;0.0&lt;/td&gt;&lt;td&gt;-0.1&lt;/td&gt;&lt;td&gt;0.1&lt;/td&gt;&lt;td&gt;0.1&lt;/td&gt;&lt;td&gt;-3.4%&lt;/td&gt;&lt;td&gt;3.7%&lt;/td&gt;&lt;td&gt;-6.5%&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;医疗器械&lt;/td&gt;&lt;td&gt;81.7&lt;/td&gt;&lt;td&gt;159797.0F&lt;/td&gt;&lt;td&gt;汇添富中证全指医疗器械ETF&lt;/td&gt;&lt;td&gt;0.8&lt;/td&gt;&lt;td&gt;0.0&lt;/td&gt;&lt;td&gt;0.0&lt;/td&gt;&lt;td&gt;0.1&lt;/td&gt;&lt;td&gt;0.0&lt;/td&gt;&lt;td&gt;0.6&lt;/td&gt;&lt;td&gt;-3.9%&lt;/td&gt;&lt;td&gt;4.8%&lt;/td&gt;&lt;td&gt;-3.3%&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;房地产&lt;/td&gt;&lt;td&gt;72.8&lt;/td&gt;&lt;td&gt;512200.0F&lt;/td&gt;&lt;td&gt;南方中证房地产ETF&lt;/td&gt;&lt;td&gt;1.5&lt;/td&gt;&lt;td&gt;2.4&lt;/td&gt;&lt;td&gt;11.2&lt;/td&gt;&lt;td&gt;19.4&lt;/td&gt;&lt;td&gt;18.7&lt;/td&gt;&lt;td&gt;5.3&lt;/td&gt;&lt;td&gt;-2.5%&lt;/td&gt;&lt;td&gt;3.5%&lt;/td&gt;&lt;td&gt;-3.4%&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;中证银行&lt;/td&gt;&lt;td&gt;228.7&lt;/td&gt;&lt;td&gt;512800.0F&lt;/td&gt;&lt;td&gt;华宝中证全指银行ETF&lt;/td&gt;&lt;td&gt;0.8&lt;/td&gt;&lt;td&gt;3.1&lt;/td&gt;&lt;td&gt;7.3&lt;/td&gt;&lt;td&gt;10.9&lt;/td&gt;&lt;td&gt;1.2&lt;/td&gt;&lt;td&gt;-71.9&lt;/td&gt;&lt;td&gt;0.8%&lt;/td&gt;&lt;td&gt;-6.2%&lt;/td&gt;&lt;td&gt;-4.7%&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;300非银&lt;/td&gt;&lt;td&gt;202.5&lt;/td&gt;&lt;td&gt;512070.0F&lt;/td&gt;&lt;td&gt;易方达沪深300非银ETF&lt;/td&gt;&lt;td&gt;0.9&lt;/td&gt;&lt;td&gt;0.0&lt;/td&gt;&lt;td&gt;1.6&lt;/td&gt;&lt;td&gt;0.1&lt;/td&gt;&lt;td&gt;30.0&lt;/td&gt;&lt;td&gt;45.0&lt;/td&gt;&lt;td&gt;1.8%&lt;/td&gt;&lt;td&gt;-1.1%&lt;/td&gt;&lt;td&gt;3.1%&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;证券公司&lt;/td&gt;&lt;td&gt;1,337.2&lt;/td&gt;&lt;td&gt;512880.0F&lt;/td&gt;&lt;td&gt;国泰中证全指证券公司ETF&lt;/td&gt;&lt;td&gt;1.2&lt;/td&gt;&lt;td&gt;4.9&lt;/td&gt;&lt;td&gt;-3.7&lt;/td&gt;&lt;td&gt;-10.5&lt;/td&gt;&lt;td&gt;-2.6&lt;/td&gt;&lt;td&gt;-56.2&lt;/td&gt;&lt;td&gt;-0.7%&lt;/td&gt;&lt;td&gt;-1.7%&lt;/td&gt;&lt;td&gt;-4.8%&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;证券公司&lt;/td&gt;&lt;td&gt;1,337.2&lt;/td&gt;&lt;td&gt;560090.0F&lt;/td&gt;&lt;td&gt;汇添富中证全指证券公司ETF&lt;/td&gt;&lt;td&gt;1.3&lt;/td&gt;&lt;td&gt;-0.2&lt;/td&gt;&lt;td&gt;-0.9&lt;/td&gt;&lt;td&gt;-0.1&lt;/td&gt;&lt;td&gt;1.5&lt;/td&gt;&lt;td&gt;-0.4&lt;/td&gt;&lt;td&gt;-0.7%&lt;/td&gt;&lt;td&gt;-1.6%&lt;/td&gt;&lt;td&gt;-4.8%&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;中证银行&lt;/td&gt;&lt;td&gt;228.7&lt;/td&gt;&lt;td&gt;512820.0F&lt;/td&gt;&lt;td&gt;汇添富中证银行ETF&lt;/td&gt;&lt;td&gt;1.4&lt;/td&gt;&lt;td&gt;0.0&lt;/td&gt;&lt;td&gt;-0.3&lt;/td&gt;&lt;td&gt;0.3&lt;/td&gt;&lt;td&gt;0.8&lt;/td&gt;&lt;td&gt;-1.6&lt;/td&gt;&lt;td&gt;0.8%&lt;/td&gt;&lt;td&gt;-6.2%&lt;/td&gt;&lt;td&gt;-4.8%&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td colspan="16"&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td colspan="16"&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td colspan="16"&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td colspan="16"&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td colspan="16"&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td colspan="16"&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td colspan="7"&gt;&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td colspan="7"&gt;&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td colspan="7"&gt;&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td colspan="7"&gt;&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td colspan="7"&gt;&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td colspan="7"&gt;&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td colspan="16"&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td colspan="16"&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td colspan="16"&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td colspan="16"&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td colspan="16"&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td colspan="7"&gt;&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;/tr&gt;&lt;/table&gt;
+资料来源：Choice基金数据浏览器，东方财富证券研究所，注：大类行业ETF筛选逻辑为该行业内近 5日资金净流入靠前（白色底纹）和靠后（灰色底纹）的 ETF，其余为最新规模靠前的 ETF
+图表 12：跨境代表指数和细分 ETF 资金流情况（亿元）  
+&lt;table&gt;&lt;tr&gt;&lt;td rowspan="2"&gt;类型&lt;/td&gt;&lt;td rowspan="2"&gt;大类&lt;/td&gt;&lt;td rowspan="2"&gt;小类&lt;/td&gt;&lt;td rowspan="2"&gt;追踪指数&lt;/td&gt;&lt;td rowspan="2"&gt;最新规模(亿元)&lt;/td&gt;&lt;td colspan="3"&gt;代表基金（规模单位为亿元）&lt;/td&gt;&lt;td colspan="5"&gt;资金净流入金额（亿元）&lt;/td&gt;&lt;td colspan="2"&gt;涨跌幅&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;基金代码&lt;/td&gt;&lt;td&gt;基金简称&lt;/td&gt;&lt;td&gt;规模&lt;/td&gt;&lt;td&gt;近1日&lt;/td&gt;&lt;td&gt;近5日&lt;/td&gt;&lt;td&gt;近10日&lt;/td&gt;&lt;td&gt;近20日&lt;/td&gt;&lt;td&gt;近60日&lt;/td&gt;&lt;td&gt;近5日&lt;/td&gt;&lt;td&gt;近1月&lt;/td&gt;&lt;td&gt;近3月&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td rowspan="34"&gt;跨境型&lt;/td&gt;&lt;td rowspan="13"&gt;宽基&lt;/td&gt;&lt;td rowspan="4"&gt;港股&lt;/td&gt;&lt;td&gt;港股通50港元&lt;/td&gt;&lt;td&gt;33.6&lt;/td&gt;&lt;td&gt;513550.0F&lt;/td&gt;&lt;td&gt;华泰柏瑞中证港股通50ETF&lt;/td&gt;&lt;td&gt;30.6&lt;/td&gt;&lt;td&gt;0.2&lt;/td&gt;&lt;td&gt;0.4&lt;/td&gt;&lt;td&gt;0.3&lt;/td&gt;&lt;td&gt;2.3&lt;/td&gt;&lt;td&gt;0.7&lt;/td&gt;&lt;td&gt;2.3%&lt;/td&gt;&lt;td&gt;5.4%&lt;/td&gt;&lt;td&gt;4.2%&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;恒生指数&lt;/td&gt;&lt;td&gt;211.1&lt;/td&gt;&lt;td&gt;159920.0F&lt;/td&gt;&lt;td&gt;华夏恒生ETF(QDII)&lt;/td&gt;&lt;td&gt;134.9&lt;/td&gt;&lt;td&gt;0.0&lt;/td&gt;&lt;td&gt;-4.4&lt;/td&gt;&lt;td&gt;-7.2&lt;/td&gt;&lt;td&gt;-10.4&lt;/td&gt;&lt;td&gt;-20.0&lt;/td&gt;&lt;td&gt;1.9%&lt;/td&gt;&lt;td&gt;5.6%&lt;/td&gt;&lt;td&gt;3.7%&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;恒生科技指数&lt;/td&gt;&lt;td&gt;1,976.1&lt;/td&gt;&lt;td&gt;513180.0F&lt;/td&gt;&lt;td&gt;华夏恒生科技ETF(QDII)&lt;/td&gt;&lt;td&gt;525.5&lt;/td&gt;&lt;td&gt;0.0&lt;/td&gt;&lt;td&gt;0.2&lt;/td&gt;&lt;td&gt;7.0&lt;/td&gt;&lt;td&gt;24.0&lt;/td&gt;&lt;td&gt;82.2&lt;/td&gt;&lt;td&gt;-3.8%&lt;/td&gt;&lt;td&gt;2.5%&lt;/td&gt;&lt;td&gt;-5.3%&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;恒生科技指数&lt;/td&gt;&lt;td&gt;1,976.1&lt;/td&gt;&lt;td&gt;513130.0F&lt;/td&gt;&lt;td&gt;华泰柏瑞南方东英恒生科技(QDII)-ETF&lt;/td&gt;&lt;td&gt;466.3&lt;/td&gt;&lt;td&gt;0.0&lt;/td&gt;&lt;td&gt;-1.9&lt;/td&gt;&lt;td&gt;3.8&lt;/td&gt;&lt;td&gt;29.8&lt;/td&gt;&lt;td&gt;58.3&lt;/td&gt;&lt;td&gt;-3.6%&lt;/td&gt;&lt;td&gt;2.7%&lt;/td&gt;&lt;td&gt;-5.6%&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td rowspan="3"&gt;美股&lt;/td&gt;&lt;td&gt;MSCI USA 50 Index&lt;/td&gt;&lt;td&gt;25.0&lt;/td&gt;&lt;td&gt;513850.0F&lt;/td&gt;&lt;td&gt;易方达MSCI美国50ETF(QDII)&lt;/td&gt;&lt;td&gt;17.8&lt;/td&gt;&lt;td&gt;0.0&lt;/td&gt;&lt;td&gt;0.1&lt;/td&gt;&lt;td&gt;0.1&lt;/td&gt;&lt;td&gt;0.3&lt;/td&gt;&lt;td&gt;1.5&lt;/td&gt;&lt;td&gt;0.6%&lt;/td&gt;&lt;td&gt;-0.3%&lt;/td&gt;&lt;td&gt;-1.8%&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;道琼斯工业平均&lt;/td&gt;&lt;td&gt;24.8&lt;/td&gt;&lt;td&gt;513400.0F&lt;/td&gt;&lt;td&gt;鹏华道琼斯工业平均ETF(QDII)&lt;/td&gt;&lt;td&gt;24.8&lt;/td&gt;&lt;td&gt;0.0&lt;/td&gt;&lt;td&gt;0.7&lt;/td&gt;&lt;td&gt;0.7&lt;/td&gt;&lt;td&gt;1.0&lt;/td&gt;&lt;td&gt;5.8&lt;/td&gt;&lt;td&gt;-0.3%&lt;/td&gt;&lt;td&gt;1.3%&lt;/td&gt;&lt;td&gt;1.7%&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;纳斯达克100&lt;/td&gt;&lt;td&gt;1,113.1&lt;/td&gt;&lt;td&gt;159941.0F&lt;/td&gt;&lt;td&gt;广发纳指100ETF&lt;/td&gt;&lt;td&gt;303.1&lt;/td&gt;&lt;td&gt;0.0&lt;/td&gt;&lt;td&gt;0.1&lt;/td&gt;&lt;td&gt;0.2&lt;/td&gt;&lt;td&gt;0.3&lt;/td&gt;&lt;td&gt;2.3&lt;/td&gt;&lt;td&gt;0.9%&lt;/td&gt;&lt;td&gt;1.7%&lt;/td&gt;&lt;td&gt;-1.5%&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td rowspan="2"&gt;欧美&lt;/td&gt;&lt;td&gt;德国DAX&lt;/td&gt;&lt;td&gt;38.7&lt;/td&gt;&lt;td&gt;515956.1F&lt;/td&gt;&lt;td&gt;嘉实德国DAXETF(QDII)&lt;/td&gt;&lt;td&gt;20.7&lt;/td&gt;&lt;td&gt;0.0&lt;/td&gt;&lt;td&gt;0.1&lt;/td&gt;&lt;td&gt;0.1&lt;/td&gt;&lt;td&gt;0.3&lt;/td&gt;&lt;td&gt;0.8&lt;/td&gt;&lt;td&gt;-0.7%&lt;/td&gt;&lt;td&gt;0.4%&lt;/td&gt;&lt;td&gt;2.8%&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;法国CAC40&lt;/td&gt;&lt;td&gt;10.5&lt;/td&gt;&lt;td&gt;513080.0F&lt;/td&gt;&lt;td&gt;华安法国CAC40ETF(QDII)&lt;/td&gt;&lt;td&gt;10.5&lt;/td&gt;&lt;td&gt;0.0&lt;/td&gt;&lt;td&gt;0.0&lt;/td&gt;&lt;td&gt;0.1&lt;/td&gt;&lt;td&gt;0.2&lt;/td&gt;&lt;td&gt;0.5&lt;/td&gt;&lt;td&gt;0.8%&lt;/td&gt;&lt;td&gt;0.1%&lt;/td&gt;&lt;td&gt;0.8%&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td rowspan="2"&gt;亚太&lt;/td&gt;&lt;td&gt;日经225&lt;/td&gt;&lt;td&gt;67.6&lt;/td&gt;&lt;td&gt;513520.0F&lt;/td&gt;&lt;td&gt;华夏野村日经225ETF(QDII)&lt;/td&gt;&lt;td&gt;18.9&lt;/td&gt;&lt;td&gt;0.0&lt;/td&gt;&lt;td&gt;0.0&lt;/td&gt;&lt;td&gt;0.1&lt;/td&gt;&lt;td&gt;0.2&lt;/td&gt;&lt;td&gt;0.5&lt;/td&gt;&lt;td&gt;1.8%&lt;/td&gt;&lt;td&gt;7.1%&lt;/td&gt;&lt;td&gt;-0.5%&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;东证指数&lt;/td&gt;&lt;td&gt;16.8&lt;/td&gt;&lt;td&gt;513800.0F&lt;/td&gt;&lt;td&gt;南方顶峰TOP1X(ETF-QDII)&lt;/td&gt;&lt;td&gt;16.8&lt;/td&gt;&lt;td&gt;0.0&lt;/td&gt;&lt;td&gt;0.0&lt;/td&gt;&lt;td&gt;0.0&lt;/td&gt;&lt;td&gt;-0.2&lt;/td&gt;&lt;td&gt;1.9&lt;/td&gt;&lt;td&gt;1.7%&lt;/td&gt;&lt;td&gt;6.2%&lt;/td&gt;&lt;td&gt;5.5%&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td rowspan="2"&gt;新兴市场&lt;/td&gt;&lt;td&gt;巴西BOVESPA&lt;/td&gt;&lt;td&gt;8.0&lt;/td&gt;&lt;td&gt;520870.0F&lt;/td&gt;&lt;td&gt;易方达伊塔乌巴西IBOVESPAETQ(DI)&lt;/td&gt;&lt;td&gt;4.3&lt;/td&gt;&lt;td&gt;0.1&lt;/td&gt;&lt;td&gt;0.4&lt;/td&gt;&lt;td&gt;-0.3&lt;/td&gt;&lt;td&gt;-1.0&lt;/td&gt;&lt;td&gt;4.1&lt;/td&gt;&lt;td&gt;-3.2%&lt;/td&gt;&lt;td&gt;18.2%&lt;/td&gt;&lt;td&gt;0.0%&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;富时阿拉伯&lt;/td&gt;&lt;td&gt;28.5&lt;/td&gt;&lt;td&gt;159329.0F&lt;/td&gt;&lt;td&gt;南方基金南方东英沙特阿拉伯ETF(QDII)&lt;/td&gt;&lt;td&gt;14.6&lt;/td&gt;&lt;td&gt;0.0&lt;/td&gt;&lt;td&gt;0.0&lt;/td&gt;&lt;td&gt;0.1&lt;/td&gt;&lt;td&gt;0.2&lt;/td&gt;&lt;td&gt;1.5&lt;/td&gt;&lt;td&gt;2.4%&lt;/td&gt;&lt;td&gt;8.7%&lt;/td&gt;&lt;td&gt;-3.2%&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td rowspan="18"&gt;大类行业&lt;/td&gt;&lt;td rowspan="4"&gt;科技&lt;/td&gt;&lt;td&gt;恒生科技指数&lt;/td&gt;&lt;td&gt;1,976.1&lt;/td&gt;&lt;td&gt;520920.0F&lt;/td&gt;&lt;td&gt;天弘恒生科技ETF&lt;/td&gt;&lt;td&gt;0.9&lt;/td&gt;&lt;td&gt;1.8&lt;/td&gt;&lt;td&gt;8.9&lt;/td&gt;&lt;td&gt;17.8&lt;/td&gt;&lt;td&gt;35.7&lt;/td&gt;&lt;td&gt;99.3&lt;/td&gt;&lt;td&gt;-3.8%&lt;/td&gt;&lt;td&gt;2.4%&lt;/td&gt;&lt;td&gt;-5.5%&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;恒生港股通科技主题指数&lt;/td&gt;&lt;td&gt;121.2&lt;/td&gt;&lt;td&gt;159262.0F&lt;/td&gt;&lt;td&gt;广发恒生港股通科技主题ETF&lt;/td&gt;&lt;td&gt;1.1&lt;/td&gt;&lt;td&gt;0.8&lt;/td&gt;&lt;td&gt;2.8&lt;/td&gt;&lt;td&gt;4.0&lt;/td&gt;&lt;td&gt;9.2&lt;/td&gt;&lt;td&gt;50.4&lt;/td&gt;&lt;td&gt;-1.2%&lt;/td&gt;&lt;td&gt;5.2%&lt;/td&gt;&lt;td&gt;-4.9%&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;港股通科技&lt;/td&gt;&lt;td&gt;796.1&lt;/td&gt;&lt;td&gt;513980.0F&lt;/td&gt;&lt;td&gt;景顺长城中证港股通科技ETF&lt;/td&gt;&lt;td&gt;0.7&lt;/td&gt;&lt;td&gt;-0.4&lt;/td&gt;&lt;td&gt;-3.7&lt;/td&gt;&lt;td&gt;-1.7&lt;/td&gt;&lt;td&gt;6.1&lt;/td&gt;&lt;td&gt;18.1&lt;/td&gt;&lt;td&gt;-2.1%&lt;/td&gt;&lt;td&gt;3.2%&lt;/td&gt;&lt;td&gt;-7.2%&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;恒生港股通科技主题指数&lt;/td&gt;&lt;td&gt;121.2&lt;/td&gt;&lt;td&gt;520840.0F&lt;/td&gt;&lt;td&gt;华安恒生港股通科技主题ETF&lt;/td&gt;&lt;td&gt;1.0&lt;/td&gt;&lt;td&gt;0.0&lt;/td&gt;&lt;td&gt;-1.5&lt;/td&gt;&lt;td&gt;-1.6&lt;/td&gt;&lt;td&gt;-1.2&lt;/td&gt;&lt;td&gt;0.4&lt;/td&gt;&lt;td&gt;-1.1%&lt;/td&gt;&lt;td&gt;5.2%&lt;/td&gt;&lt;td&gt;-4.9%&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td rowspan="4"&gt;消费&lt;/td&gt;&lt;td&gt;港股通消费港元&lt;/td&gt;&lt;td&gt;26.4&lt;/td&gt;&lt;td&gt;513070.0F&lt;/td&gt;&lt;td&gt;易方达中证港股通消费主题ETF&lt;/td&gt;&lt;td&gt;1.4&lt;/td&gt;&lt;td&gt;0.4&lt;/td&gt;&lt;td&gt;2.9&lt;/td&gt;&lt;td&gt;3.0&lt;/td&gt;&lt;td&gt;3.0&lt;/td&gt;&lt;td&gt;4.0&lt;/td&gt;&lt;td&gt;-0.3%&lt;/td&gt;&lt;td&gt;4.5%&lt;/td&gt;&lt;td&gt;-1.5%&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;港股通消费&lt;/td&gt;&lt;td&gt;17.7&lt;/td&gt;&lt;td&gt;159268.0F&lt;/td&gt;&lt;td&gt;汇添富国证港股通消费主题ETF&lt;/td&gt;&lt;td&gt;1.0&lt;/td&gt;&lt;td&gt;0.2&lt;/td&gt;&lt;td&gt;0.2&lt;/td&gt;&lt;td&gt;0.2&lt;/td&gt;&lt;td&gt;-0.3&lt;/td&gt;&lt;td&gt;-0.2&lt;/td&gt;&lt;td&gt;-0.5%&lt;/td&gt;&lt;td&gt;4.2%&lt;/td&gt;&lt;td&gt;0.7%&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;港股通消费&lt;/td&gt;&lt;td&gt;17.7&lt;/td&gt;&lt;td&gt;159285.0F&lt;/td&gt;&lt;td&gt;华安国证港股通消费主题ETF&lt;/td&gt;&lt;td&gt;1.0&lt;/td&gt;&lt;td&gt;0.0&lt;/td&gt;&lt;td&gt;-0.2&lt;/td&gt;&lt;td&gt;-0.4&lt;/td&gt;&lt;td&gt;-0.6&lt;/td&gt;&lt;td&gt;-1.3&lt;/td&gt;&lt;td&gt;-0.6%&lt;/td&gt;&lt;td&gt;4.1%&lt;/td&gt;&lt;td&gt;0.6%&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;港股通消费港元&lt;/td&gt;&lt;td&gt;26.4&lt;/td&gt;&lt;td&gt;513590.0F&lt;/td&gt;&lt;td&gt;鹏华中证港股通消费主题ETF&lt;/td&gt;&lt;td&gt;0.9&lt;/td&gt;&lt;td&gt;0.0&lt;/td&gt;&lt;td&gt;-0.1&lt;/td&gt;&lt;td&gt;-0.3&lt;/td&gt;&lt;td&gt;-0.4&lt;/td&gt;&lt;td&gt;-0.7&lt;/td&gt;&lt;td&gt;-0.3%&lt;/td&gt;&lt;td&gt;4.3%&lt;/td&gt;&lt;td&gt;-2.1%&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td rowspan="2"&gt;制造&lt;/td&gt;&lt;td&gt;恒生港股通汽车主题指数&lt;/td&gt;&lt;td&gt;2.4&lt;/td&gt;&lt;td&gt;159239.0F&lt;/td&gt;&lt;td&gt;富国恒生港股通汽车主题ETF&lt;/td&gt;&lt;td&gt;1.0&lt;/td&gt;&lt;td&gt;0.0&lt;/td&gt;&lt;td&gt;0.0&lt;/td&gt;&lt;td&gt;0.0&lt;/td&gt;&lt;td&gt;0.0&lt;/td&gt;&lt;td&gt;-0.3&lt;/td&gt;&lt;td&gt;-3.7%&lt;/td&gt;&lt;td&gt;-2.7%&lt;/td&gt;&lt;td&gt;-10.6%&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;港股通汽车&lt;/td&gt;&lt;td&gt;9.3&lt;/td&gt;&lt;td&gt;520600.0F&lt;/td&gt;&lt;td&gt;广发中证港股通汽车ETF&lt;/td&gt;&lt;td&gt;1.2&lt;/td&gt;&lt;td&gt;0.0&lt;/td&gt;&lt;td&gt;-0.2&lt;/td&gt;&lt;td&gt;-0.3&lt;/td&gt;&lt;td&gt;-0.2&lt;/td&gt;&lt;td&gt;-0.2&lt;/td&gt;&lt;td&gt;-3.5%&lt;/td&gt;&lt;td&gt;-1.2%&lt;/td&gt;&lt;td&gt;-6.6%&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td rowspan="4"&gt;医药&lt;/td&gt;&lt;td&gt;港股创新药港币&lt;/td&gt;&lt;td&gt;250.6&lt;/td&gt;&lt;td&gt;513120.0F&lt;/td&gt;&lt;td&gt;广发中证香港创新药(QDII-ETF)&lt;/td&gt;&lt;td&gt;1.3&lt;/td&gt;&lt;td&gt;1.0&lt;/td&gt;&lt;td&gt;3.0&lt;/td&gt;&lt;td&gt;4.4&lt;/td&gt;&lt;td&gt;1.4&lt;/td&gt;&lt;td&gt;18.9&lt;/td&gt;&lt;td&gt;-3.7%&lt;/td&gt;&lt;td&gt;6.5%&lt;/td&gt;&lt;td&gt;-5.6%&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;恒生港股通创新药精选指数&lt;/td&gt;&lt;td&gt;29.4&lt;/td&gt;&lt;td&gt;520880.0F&lt;/td&gt;&lt;td&gt;华宝恒生港股通创新药精选ETF&lt;/td&gt;&lt;td&gt;0.5&lt;/td&gt;&lt;td&gt;0.6&lt;/td&gt;&lt;td&gt;1.0&lt;/td&gt;&lt;td&gt;3.4&lt;/td&gt;&lt;td&gt;2.8&lt;/td&gt;&lt;td&gt;5.2&lt;/td&gt;&lt;td&gt;-3.0%&lt;/td&gt;&lt;td&gt;3.9%&lt;/td&gt;&lt;td&gt;-6.7%&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;港股通医药C港元&lt;/td&gt;&lt;td&gt;29.6&lt;/td&gt;&lt;td&gt;513200.0F&lt;/td&gt;&lt;td&gt;易方达中证港股通医药卫生综合ETF&lt;/td&gt;&lt;td&gt;1.1&lt;/td&gt;&lt;td&gt;0.0&lt;/td&gt;&lt;td&gt;-0.7&lt;/td&gt;&lt;td&gt;-1.0&lt;/td&gt;&lt;td&gt;-1.7&lt;/td&gt;&lt;td&gt;-2.6&lt;/td&gt;&lt;td&gt;-3.4%&lt;/td&gt;&lt;td&gt;7.5%&lt;/td&gt;&lt;td&gt;-4.0%&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;乐普生物科技精选行业指数&lt;/td&gt;&lt;td&gt;22.4&lt;/td&gt;&lt;td&gt;159502.0F&lt;/td&gt;&lt;td&gt;嘉实标普生物科技精选行业ETF(QDII)&lt;/td&gt;&lt;td&gt;1.3&lt;/td&gt;&lt;td&gt;-0.2&lt;/td&gt;&lt;td&gt;-0.6&lt;/td&gt;&lt;td&gt;-0.6&lt;/td&gt;&lt;td&gt;-0.4&lt;/td&gt;&lt;td&gt;0.1&lt;/td&gt;&lt;td&gt;-1.2%&lt;/td&gt;&lt;td&gt;3.1%&lt;/td&gt;&lt;td&gt;10.7%&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td rowspan="4"&gt;金融地产&lt;/td&gt;&lt;td&gt;港股通非银人民币&lt;/td&gt;&lt;td&gt;391.4&lt;/td&gt;&lt;td&gt;513750.0F&lt;/td&gt;&lt;td&gt;广发中证港股通非银ETF&lt;/td&gt;&lt;td&gt;1.9&lt;/td&gt;&lt;td&gt;4.9&lt;/td&gt;&lt;td&gt;18.0&lt;/td&gt;&lt;td&gt;31.7&lt;/td&gt;&lt;td&gt;95.0&lt;/td&gt;&lt;td&gt;130.8&lt;/td&gt;&lt;td&gt;5.4%&lt;/td&gt;&lt;td&gt;9.4%&lt;/td&gt;&lt;td&gt;12.3%&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;H300金融服务港币&lt;/td&gt;&lt;td&gt;1.7&lt;/td&gt;&lt;td&gt;513140.0F&lt;/td&gt;&lt;td&gt;华泰柏瑞中证港股通金融服务ETF(QDII)&lt;/td&gt;&lt;td&gt;1.7&lt;/td&gt;&lt;td&gt;0.0&lt;/td&gt;&lt;td&gt;0.0&lt;/td&gt;&lt;td&gt;0.0&lt;/td&gt;&lt;td&gt;0.0&lt;/td&gt;&lt;td&gt;0.1&lt;/td&gt;&lt;td&gt;4.8%&lt;/td&gt;&lt;td&gt;5.8%&lt;/td&gt;&lt;td&gt;10.0%&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;港股通内地金融港元&lt;/td&gt;&lt;td&gt;25.0&lt;/td&gt;&lt;td&gt;513190.0F&lt;/td&gt;&lt;td&gt;华夏中证港股通内地金融ETF&lt;/td&gt;&lt;td&gt;1.8&lt;/td&gt;&lt;td&gt;0.0&lt;/td&gt;&lt;td&gt;-0.4&lt;/td&gt;&lt;td&gt;-0.5&lt;/td&gt;&lt;td&gt;-1.3&lt;/td&gt;&lt;td&gt;-2.5&lt;/td&gt;&lt;td&gt;4.5%&lt;/td&gt;&lt;td&gt;3.7%&lt;/td&gt;&lt;td&gt;6.7%&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;中国互联网30A人民币&lt;/td&gt;&lt;td&gt;57.1&lt;/td&gt;&lt;td&gt;159605.0F&lt;/td&gt;&lt;td&gt;广发中证海外中国互联30(QDII)-ETF&lt;/td&gt;&lt;td&gt;1.1&lt;/td&gt;&lt;td&gt;0.0&lt;/td&gt;&lt;td&gt;-0.2&lt;/td&gt;&lt;td&gt;1.5&lt;/td&gt;&lt;td&gt;1.1&lt;/td&gt;&lt;td&gt;0.5&lt;/td&gt;&lt;td&gt;0.9%&lt;/td&gt;&lt;td&gt;2.8%&lt;/td&gt;&lt;td&gt;-5.8%&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td rowspan="3"&gt;红利等&lt;/td&gt;&lt;td rowspan="2"&gt;红利&lt;/td&gt;&lt;td&gt;标普港股通低波红利指数&lt;/td&gt;&lt;td&gt;724.8&lt;/td&gt;&lt;td&gt;513630.0F&lt;/td&gt;&lt;td&gt;摩根标普港股通低波红利ETF&lt;/td&gt;&lt;td&gt;163.7&lt;/td&gt;&lt;td&gt;-0.1&lt;/td&gt;&lt;td&gt;-0.4&lt;/td&gt;&lt;td&gt;-6.0&lt;/td&gt;&lt;td&gt;-11.6&lt;/td&gt;&lt;td&gt;2.9&lt;/td&gt;&lt;td&gt;3.0%&lt;/td&gt;&lt;td&gt;5.7%&lt;/td&gt;&lt;td&gt;7.0%&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;生港股通高股息低波动指&lt;/td&gt;&lt;td&gt;724.8&lt;/td&gt;&lt;td&gt;159545.0F&lt;/td&gt;&lt;td&gt;易方达恒生港股通高股息低波动ETF&lt;/td&gt;&lt;td&gt;77.9&lt;/td&gt;&lt;td&gt;0.0&lt;/td&gt;&lt;td&gt;0.0&lt;/td&gt;&lt;td&gt;-0.3&lt;/td&gt;&lt;td&gt;-1.6&lt;/td&gt;&lt;td&gt;34.1&lt;/td&gt;&lt;td&gt;2.3%&lt;/td&gt;&lt;td&gt;5.1%&lt;/td&gt;&lt;td&gt;4.7%&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;央/国企&lt;/td&gt;&lt;td&gt;恒生国企指数&lt;/td&gt;&lt;td&gt;99.5&lt;/td&gt;&lt;td&gt;510900.0F&lt;/td&gt;&lt;td&gt;易方达恒生国企(QDII-ETF)&lt;/td&gt;&lt;td&gt;76.8&lt;/td&gt;&lt;td&gt;-0.5&lt;/td&gt;&lt;td&gt;-3.1&lt;/td&gt;&lt;td&gt;-4.4&lt;/td&gt;&lt;td&gt;-4.4&lt;/td&gt;&lt;td&gt;-3.4&lt;/td&gt;&lt;td&gt;1.2%&lt;/td&gt;&lt;td&gt;3.3%&lt;/td&gt;&lt;td&gt;-0.3%&lt;/td&gt;&lt;/tr&gt;&lt;/table&gt;
+资料来源：Choice基金数据浏览器，东方财富证券研究所，注：大类行业ETF筛选逻辑为该行业内近 5日资金净流入靠前（白色底纹）和靠后（灰色底纹）的 ETF，其余为最新规模靠前的 ETF
+图表 13：商品及债券型 ETF 资金流情况（亿元）  
+&lt;table&gt;&lt;tr&gt;&lt;td rowspan="2"&gt;类型&lt;/td&gt;&lt;td rowspan="</t>
+  </si>
+  <si>
+    <t># 基金周度报告（R3）
+# 基金市场
+2026 年 02 月 02 日
+![](images/09d4dbe9296437f83b592a6fce83b6565c330261ac8c07db378c9608a919a626.jpg)  
+上证指数-上证基金指数走势图
+主要指数表现（涨跌幅%）  
+&lt;table&gt;&lt;tr&gt;&lt;td&gt;指数名称&lt;/td&gt;&lt;td&gt;60日&lt;/td&gt;&lt;td&gt;年初至今&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;上证指数&lt;/td&gt;&lt;td&gt;6.19&lt;/td&gt;&lt;td&gt;3.76&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;中证基金&lt;/td&gt;&lt;td&gt;4.59&lt;/td&gt;&lt;td&gt;2.95&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;股票基金&lt;/td&gt;&lt;td&gt;8.28&lt;/td&gt;&lt;td&gt;5.42&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;混合基金&lt;/td&gt;&lt;td&gt;10.23&lt;/td&gt;&lt;td&gt;6.47&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;债券基金&lt;/td&gt;&lt;td&gt;0.76&lt;/td&gt;&lt;td&gt;0.53&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;货币基金&lt;/td&gt;&lt;td&gt;0.19&lt;/td&gt;&lt;td&gt;0.10&lt;/td&gt;&lt;/tr&gt;&lt;/table&gt;
+燕轶纯
+分析师
+执业证书编号:S0530521030001
+yanyichun@hnchasing.com
+# 相关报告
+1 海外基金专题系列报告一：美国 ETF 投资生态全景（二）：非股票型 ETF 产品体系梳理 2026-01-22  
+2 海外基金专题系列报告一：美国 ETF 投资生态全景（一）：市场发展趋势与产品体系梳理 2026-01-12  
+3 基金周报（20251229-20251231）：A500 类品种上周资金净流入额近 500 亿 2026-1-1
+# 上周黄金价格波动较大、沪深 300 类品种资金净
+# 流出额超 2400 亿
+基金周报（20260202-20260206）
+# 投资要点
+#  上周行情、数据跟踪
+1）上周市场冲高回落。A股方面，上证指数、深证成指周内分别下跌 $0 . 4 4 \%$ 、 $1 . 6 2 \%$ 。上证 50 指数反弹，周内上涨 $1 . 1 3 \%$ 。H股方面，恒生指数周内上涨 $2 . 3 8 \%$ 、恒生科技指数周内下跌 $1 . 3 8 \%$ 。海外权益市场方面，标普 500 指数周内分别上涨 $0 . 3 4 \%$ 、纳斯达克100 指数周内下跌 $0 . 2 1 \%$ ，韩国综合指数、英国富时 100 指数周内分别上涨 $4 . 7 0 \%$ 、 $0 . 7 9 \%$ ，日经 225、法国 CAC40、越南 VN30 指数周内分别下跌 $0 . 9 7 \%$ 、 $0 . 2 0 \%$ 、 $2 . 3 1 \%$ 。2）中债长、短端利率周内均上行，中端利率周内均下行。中债 30 年期、10 年期、1 年期国债到期收益率（0130）分别报收 $2 . 2 8 9 0 \%$ 、 $1 . 8 1 1 2 \%$ 、 $1 . 2 9 9 9 \%$ ，较前一周末（0123）分别上行 0.19BP、下行 1.86BP、上行 1.80BP。美债 30 年期、10 年期、1 年期国债到期收益率最新（0130）分别报收 4.87%、4.26%、 $3 . 4 8 \%$ ，较前一周末（0123）分别上行 5BP、上行 2BP、下行 5BP。3）上周（0126-0130）黄金市场价格波动较大。受中东与俄乌地缘冲突升级、美联储降息预期升温等多重利好支撑，黄金价格持续走高，伦敦金现于 1 月 29 日触及 5598.75 美元/盎司的历史新高。1 月 30 日，特朗普提名沃什出任美联储主席引发货币政策预期转向，同时叠加美国非农就业数据超预期以及前期获利盘集中兑现的影响，伦敦金现当日超跌逾 $9 \%$ ，创下 1973年 9 月以来最大单日跌幅，国内上海金等相关品种亦同步跟随大幅震荡回落。COMEX 黄金期货收盘价最新（0130）报收 4879.6 美元/盎司，价格周内下跌 $1 . 1 4 \%$ ；上海金交所黄金现货收盘价最新（0130）报收 1163.99 元/克，价格周内上涨 $4 . 8 3 \%$ 。4）上周市场交易活跃度高，宽基指数资金净流出较为显著。周内两市 ETF 日均成交额约 6354.07 亿元；宽基指数品种中，沪深 300、上证 50、中证 500、中证 1000 指数品种有大额资金净流出，银行、科创综指指数品种有资金净流入。
+#  本周新发基金明细
+截至目前（0130），全市场共有公募基金 13722 只，合计资产净值约 37.22 万亿。根据 wind 公布的基金发行明细，根据 wind 公布的基金发行明细，本周（0202-0206）有 32 只新基金发行。分类型看，有 2 只普通股票型基金、7 只偏股混合型基金、1 只混合债券型一级基金、5 只混合债券型二级基金、6 只混合型 FOF 基金、1 只增强指数型基金、10 只被动指数型基金基金。
+ 风险提示：新基金的选择，建议综合考虑建仓期、费率、基金经理长期业绩及回撤控制、相关行业主题的行情阶段等因素；历史数据不代表未来业绩；跟踪品种为非保本型产品，在极端情况下，可能存在无法完全回收本金的情形；经济、政策等诸多内外因素可能会造成基金的市场风险，影响基金收益水平等。
+# 1 上周行情、数据回顾
+# 1）上周市场持续上涨
+上周市场冲高回落。A 股方面，上证指数、深证成指周内分别下跌 $0 . 4 4 \%$ 、 $1 . 6 2 \%$ 。上证 50 指数反弹，周内上涨 $1 . 1 3 \%$ 。H股方面，恒生指数周内上涨 $2 . 3 8 \%$ 、恒生科技指数周内下跌 $1 . 3 8 \%$ 。海外权益市场方面，标普 500 指数周内分别上涨 $0 . 3 4 \%$ 、纳斯达克100指数周内下跌 $0 . 2 1 \%$ ，韩国综合指数、英国富时100指数周内分别上涨 $4 . 7 0 \% . 0 . 7 9 \%$ ，日经 225、法国 CAC40、越南 VN30 指数周内分别下跌 $0 . 9 7 \%$ 、 $0 . 2 0 \%$ 、 $2 . 3 1 \%$ 。
+上周（0126-0130）申万 31 个一级行业涨少跌多、行情分化。石油石化（ $( + 9 . 5 8 \%$ ）、通信（ $. + 6 . 2 0 \%$ ）、有色金属（ $. + 4 . 8 8 \%$ ）等行业周内涨幅居前，汽车（ $( - 5 . 1 7 \%$ ）、国防军工$( - 7 . 2 6 \%$ ）等行业周内下跌。年初以来，SW 有色金属行业涨幅居首（ $+ 2 9 . 3 0 \%$ ）。
+（口径：区间涨跌幅-流通市值加权平均）
+图 1：申万 31个一级行业区间（0126-0130）涨跌幅-流通市值加权平均（%）  
+![](images/8ce0031fac38e4d17b2d0cbbb7639ac4aeb91cf385a9d333bebe951737bb7402.jpg)  
+资料来源：wind、财信证券（数据区间：20260126-20260130)
+# 2）中债长、短端利率周内均上行，中端利率周内均下行
+中债 30 年期、10 年期、1 年期国债到期收益率（0130）分别报收 $2 . 2 8 9 0 \%$ 、 $1 . 8 1 1 2 \%$ 、$1 . 2 9 9 9 \%$ ，较前一周末（0123）分别上行 0.19BP、下行 1.86BP、上行 1.80BP。
+美债 30 年期、10 年期、1 年期国债到期收益率最新（0130）分别报收 $4 . 8 7 \%$ 、4.26%、$3 . 4 8 \%$ ，较前一周末（0123）分别上行 5BP、上行 2BP、下行 5BP。
+# 3）黄金、原油、铜价跟踪
+COMEX 黄金期货收盘价最新（0130）报收 4879.6 美元/盎司，价格周内下跌 $1 . 1 4 \%$ ；上海金交所黄金现货收盘价最新（0130）报收 1163.99 元/克，价格周内上涨 $4 . 8 3 \%$ 。
+上周（0126-0130）黄金市场价格波动较大。受中东与俄乌地缘冲突升级、美联储降息预期升温等多重利好支撑，黄金价格持续走高，伦敦金现于 1 月 29 日触及 5598.75 美元/盎司的历史新高。1月30日，特朗普提名沃什出任美联储主席引发货币政策预期转向，同时叠加美国非农就业数据超预期以及前期获利盘集中兑现的影响，伦敦金现当日超跌逾 $9 \%$ ，创下 1973 年 9 月以来最大单日跌幅，国内上海金等相关品种亦同步跟随大幅震荡回落。
+LME铜现货结算价最新（0130）报收 13370 美元/吨、价格周内上涨 $3 . 4 8 \%$ ；LME3个月铜期货官方价最新（0130）报收 13445 美元/吨、价格周内上涨 $3 . 5 7 \%$ 。
+美国西德克萨斯中级轻质原油（WTI）期货价最新（0130）报收 65.21 美元/桶、价格周内上涨 $6 . 7 8 \%$ ；1 月以来，美国西德克萨斯中级轻质原油（WTI）期货价累计涨幅约为$1 3 . 9 7 \%$ 。布伦特原油期货结算价最新（0130）报收 70.69 美元/桶、价格周内上涨 $7 . 3 0 \%$ ；1 月以来，布伦特原油期货结算价累计涨幅约为 $1 6 . 1 7 \%$ 。
+# 4）周内两市 ETF日均成交额约 6354.07亿元，年内南向资金净流入额约 689.71亿港元
+上周市场交易活跃度高，周内两市 ETF 日均成交额约 6354.07 亿元；宽基指数品种中沪深 300、上证 50、中证 500、中证 1000 指数品种有大额资金净流出，银行、科创综指指数品种有资金净流入。
+上周（0126-0130）南向资金成交净买入额约 32.22 亿港元，年初以来（0105-0130）南向资金成交净买入额约 689.71 亿港元。
+# 2 本周新发基金情况
+截至目前（0130），全市场共有公募基金 13722 只，合计资产净值约 37.22 万亿。
+根据 wind 公布的基金发行明细，本周（0202-0206）有 32 只新基金发行。分类型看，有 2 只普通股票型基金、7 只偏股混合型基金、1 只混合债券型一级基金、5 只混合债券型二级基金、6 只混合型 FOF 基金、1 只增强指数型基金、10 只被动指数型基金基金。
+表 1：本周（0202-0206）新发基金概况  
+&lt;table&gt;&lt;tr&gt;&lt;td&gt;代码&lt;/td&gt;&lt;td&gt;名称&lt;/td&gt;&lt;td&gt;认购起始日期&lt;/td&gt;&lt;td&gt;认购天数&lt;/td&gt;&lt;td&gt;投资类型(二级分类)&lt;/td&gt;&lt;td&gt;基金经理&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;026423.OF&lt;/td&gt;&lt;td&gt;汇百川稳航增强A&lt;/td&gt;&lt;td&gt;2026-02-05&lt;/td&gt;&lt;td&gt;89&lt;/td&gt;&lt;td&gt;混合债券型二级基金&lt;/td&gt;&lt;td&gt;倪伟,刘歆钰&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;026619.OF&lt;/td&gt;&lt;td&gt;安信消费睿选A&lt;/td&gt;&lt;td&gt;2026-02-05&lt;/td&gt;&lt;td&gt;2&lt;/td&gt;&lt;td&gt;普通股票型基金&lt;/td&gt;&lt;td&gt;陈嵩昆&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;026787.OF&lt;/td&gt;&lt;td&gt;鹏华上证科创板人工智能ETF联接A&lt;/td&gt;&lt;td&gt;2026-02-05&lt;/td&gt;&lt;td&gt;28&lt;/td&gt;&lt;td&gt;被动指数型基金&lt;/td&gt;&lt;td&gt;罗英宇&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;026791.OF&lt;/td&gt;&lt;td&gt;博道星航&lt;/td&gt;&lt;td&gt;2026-02-03&lt;/td&gt;&lt;td&gt;7&lt;/td&gt;&lt;td&gt;偏股混合型基金&lt;/td&gt;&lt;td&gt;杨梦&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;026797.OF&lt;/td&gt;&lt;td&gt;诺安智盈优选三个月持有A&lt;/td&gt;&lt;td&gt;2026-02-03&lt;/td&gt;&lt;td&gt;1&lt;/td&gt;&lt;td&gt;混合型FOF基金&lt;/td&gt;&lt;td&gt;杨帆&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;159175.OF&lt;/td&gt;&lt;td&gt;易方达中证电池主题 ETF&lt;/td&gt;&lt;td&gt;2026-02-04&lt;/td&gt;&lt;td&gt;9&lt;/td&gt;&lt;td&gt;被动指数型基金&lt;/td&gt;&lt;td&gt;李栩&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;026524.OF&lt;/td&gt;&lt;td&gt;泰信消费精选A&lt;/td&gt;&lt;td&gt;2026-02-02&lt;/td&gt;&lt;td&gt;2&lt;/td&gt;&lt;td&gt;偏股混合型基金&lt;/td&gt;&lt;td&gt;徐慕浩&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;026554.OF&lt;/td&gt;&lt;td&gt;南方中证港股通互联网 ETF联接A&lt;/td&gt;&lt;td&gt;2026-02-02&lt;/td&gt;&lt;td&gt;2&lt;/td&gt;&lt;td&gt;被动指数型基金&lt;/td&gt;&lt;td&gt;王鑫&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;026715.OF&lt;/td&gt;&lt;td&gt;大成国证石油天然气指数型A&lt;/td&gt;&lt;td&gt;2026-02-02&lt;/td&gt;&lt;td&gt;9&lt;/td&gt;&lt;td&gt;被动指数型基金&lt;/td&gt;&lt;td&gt;刘淼&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;026718.OF&lt;/td&gt;&lt;td&gt;银华中证科创创业50ETF联接A&lt;/td&gt;&lt;td&gt;2026-02-02&lt;/td&gt;&lt;td&gt;5&lt;/td&gt;&lt;td&gt;被动指数型基金&lt;/td&gt;&lt;td&gt;谭普景&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;026189.OF&lt;/td&gt;&lt;td&gt;路博迈添航A&lt;/td&gt;&lt;td&gt;2026-02-02&lt;/td&gt;&lt;td&gt;26&lt;/td&gt;&lt;td&gt;混合债券型二级基金&lt;/td&gt;&lt;td&gt;王栋,韩羽辰&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;026411.OF&lt;/td&gt;&lt;td&gt;广发添益120天滚动持有A&lt;/td&gt;&lt;td&gt;2026-02-02&lt;/td&gt;&lt;td&gt;5&lt;/td&gt;&lt;td&gt;混合债券型一级基金&lt;/td&gt;&lt;td&gt;方抗&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;159169.OF&lt;/td&gt;&lt;td&gt;广发恒生生物科技 ETF&lt;/td&gt;&lt;td&gt;2026-02-02&lt;/td&gt;&lt;td&gt;5&lt;/td&gt;&lt;td&gt;被动指数型基金&lt;/td&gt;&lt;td&gt;夏浩洋&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;025900.OF&lt;/td&gt;&lt;td&gt;景顺长城盈景保守配置三个月持有A&lt;/td&gt;&lt;td&gt;2026-02-04&lt;/td&gt;&lt;td&gt;7&lt;/td&gt;&lt;td&gt;混合型FOF基金&lt;/td&gt;&lt;td&gt;江虹&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;026475.OF&lt;/td&gt;&lt;td&gt;西部利得创新驱动鑫选A&lt;/td&gt;&lt;td&gt;2026-02-02&lt;/td&gt;&lt;td&gt;5&lt;/td&gt;&lt;td&gt;偏股混合型基金&lt;/td&gt;&lt;td&gt;吴海健&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;026578.OF&lt;/td&gt;&lt;td&gt;广发悦丰多元稳健三个月持有A&lt;/td&gt;&lt;td&gt;2026-02-05&lt;/td&gt;&lt;td&gt;9&lt;/td&gt;&lt;td&gt;混合型FOF基金&lt;/td&gt;&lt;td&gt;杨喆&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;026588.OF&lt;/td&gt;&lt;td&gt;国投瑞银聚福稳健3个月持有A&lt;/td&gt;&lt;td&gt;2026-02-02&lt;/td&gt;&lt;td&gt;26&lt;/td&gt;&lt;td&gt;混合型FOF基金&lt;/td&gt;&lt;td&gt;周璐晏&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;026671.OF&lt;/td&gt;&lt;td&gt;招商中证全指红利质量 ETF联接A&lt;/td&gt;&lt;td&gt;2026-02-02&lt;/td&gt;&lt;td&gt;5&lt;/td&gt;&lt;td&gt;被动指数型基金&lt;/td&gt;&lt;td&gt;刘重杰&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;026709.OF&lt;/td&gt;&lt;td&gt;景顺长城智享&lt;/td&gt;&lt;td&gt;2026-02-02&lt;/td&gt;&lt;td&gt;26&lt;/td&gt;&lt;td&gt;偏股混合型基金&lt;/td&gt;&lt;td&gt;郭琳&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;026481.OF&lt;/td&gt;&lt;td&gt;农银瑞恒A&lt;/td&gt;&lt;td&gt;2026-02-02&lt;/td&gt;&lt;td&gt;26&lt;/td&gt;&lt;td&gt;混合债券型二级基金&lt;/td&gt;&lt;td&gt;刘莎莎,王皓非&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;026596.OF&lt;/td&gt;&lt;td&gt;南方稳嘉多元配置3个月持有A&lt;/td&gt;&lt;td&gt;2026-02-02&lt;/td&gt;&lt;td&gt;12&lt;/td&gt;&lt;td&gt;混合型FOF基金&lt;/td&gt;&lt;td&gt;戴明洋,李文良&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;026730.OF&lt;/td&gt;&lt;td&gt;富国价值回报A&lt;/td&gt;&lt;td&gt;2026-02-04&lt;/td&gt;&lt;td&gt;28&lt;/td&gt;&lt;td&gt;偏股混合型基金&lt;/td&gt;&lt;td&gt;毛一凡&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;026746.OF&lt;/td&gt;&lt;td&gt;上银医药精选A&lt;/td&gt;&lt;td&gt;2026-02-02&lt;/td&gt;&lt;td&gt;29&lt;/td&gt;&lt;td&gt;普通股票型基金&lt;/td&gt;&lt;td&gt;杨建楠&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;026762.OF&lt;/td&gt;&lt;td&gt;广发医疗创新精选A&lt;/td&gt;&lt;td&gt;2026-02-02&lt;/td&gt;&lt;td&gt;3&lt;/td&gt;&lt;td&gt;偏股混合型基金&lt;/td&gt;&lt;td&gt;程文文&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;560373.OF&lt;/td&gt;&lt;td&gt;易方达中证全指红利质量 ETF&lt;/td&gt;&lt;td&gt;2026-02-02&lt;/td&gt;&lt;td&gt;5&lt;/td&gt;&lt;td&gt;被动指数型基金&lt;/td&gt;&lt;td&gt;宋钊贤&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;025711.OF&lt;/td&gt;&lt;td&gt;汇添富中证A500指数量化增强A&lt;/td&gt;&lt;td&gt;2026-02-02&lt;/td&gt;&lt;td&gt;26&lt;/td&gt;&lt;td&gt;增强指数型基金&lt;/td&gt;&lt;td&gt;许一尊&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;026760.OF&lt;/td&gt;&lt;td&gt;财信均衡致远A&lt;/td&gt;&lt;td&gt;2026-02-02&lt;/td&gt;&lt;td&gt;5&lt;/td&gt;&lt;td&gt;偏股混合型基金&lt;/td&gt;&lt;td&gt;罗黎军&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;026755.OF&lt;/td&gt;&lt;td&gt;华宝中证港股通信息技术 ETF联接&lt;/td&gt;&lt;td&gt;2026-02-02&lt;/td&gt;&lt;td&gt;26&lt;/td&gt;&lt;td&gt;被动指数型基金&lt;/td&gt;&lt;td&gt;张放,曹旭辰&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;159171.OF&lt;/td&gt;&lt;td&gt;博时中证工业有色金属主题 ETF&lt;/td&gt;&lt;td&gt;2026-02-02&lt;/td&gt;&lt;td&gt;5&lt;/td&gt;&lt;td&gt;被动指数型基金&lt;/td&gt;&lt;td&gt;王祥&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;025529.OF&lt;/td&gt;&lt;td&gt;天弘盈享多元领航3个月持有A&lt;/td&gt;&lt;td&gt;2026-02-02&lt;/td&gt;&lt;td&gt;9&lt;/td&gt;&lt;td&gt;混合型FOF基金&lt;/td&gt;&lt;td&gt;余浩&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;026405.OF&lt;/td&gt;&lt;td&gt;永赢丰享90天持有A&lt;/td&gt;&lt;td&gt;2026-02-02&lt;/td&gt;&lt;td&gt;26&lt;/td&gt;&lt;td&gt;混合债券型二级基金&lt;/td&gt;&lt;td&gt;陶毅&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;026057.OF&lt;/td&gt;&lt;td&gt;兴全嘉益A&lt;/td&gt;&lt;td&gt;2026-02-02&lt;/td&gt;&lt;td&gt;9&lt;/td&gt;&lt;td&gt;混合债券型二级基金&lt;/td&gt;&lt;td&gt;刘琦&lt;/td&gt;&lt;/tr&gt;&lt;/table&gt;
+资料来源：财信证券wind、财信证券（数据提取日：20260202）
+# 3 风险提示
+新基金的选择，建议综合考虑建仓期、费率、基金经理长期业绩及回撤控制、相关行业主题的行情阶段等因素；
+历史数据不代表未来业绩；
+跟踪品种为非保本型产品，在极端情况下，可能存在无法完全回收本金的情形；经济、政策等诸多内外因素可能会造成基金的市场风险，影响基金收益水平等。
+# 投资评级系统说明
+以报告发布日后的 6－12 个月内，所评股票/行业涨跌幅相对于同期市场指数的涨跌幅度为基准。
+&lt;table&gt;&lt;tr&gt;&lt;td&gt;类别&lt;/td&gt;&lt;td&gt;投资评级&lt;/td&gt;&lt;td&gt;评级说明&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td rowspan="4"&gt;股票投资评级&lt;/td&gt;&lt;td&gt;买入&lt;/td&gt;&lt;td&gt;投资收益率超越沪深300指数15%以上&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;增持&lt;/td&gt;&lt;td&gt;投资收益率相对沪深300指数变动幅度为5%一15%&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;持有&lt;/td&gt;&lt;td&gt;投资收益率相对沪深300指数变动幅度为-10%一5%&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;卖出&lt;/td&gt;&lt;td&gt;投资收益率落后沪深300指数10%以上&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td rowspan="3"&gt;行业投资评级&lt;/td&gt;&lt;td&gt;领先大市&lt;/td&gt;&lt;td&gt;行业指数涨跌幅超越沪深300指数5%以上&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;同步大市&lt;/td&gt;&lt;td&gt;行业指数涨跌幅相对沪深300指数变动幅度为-5%一5%&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;落后大市&lt;/td&gt;&lt;td&gt;行业指数涨跌幅落后沪深300指数5%以上&lt;/td&gt;&lt;/tr&gt;&lt;/table&gt;
+# 免责声明
+本报告风险等级定为 R3，由财信证券股份有限公司（以下简称“本公司”）制作，本公司具有中国证监会核准的证券投资咨询业务资格。
+根据《证券期货投资者适当性管理办法》，本报告仅供本公司客户中风险评级高于 R3 级（含 R3 级）的投资者使用。本报告对于接收报告的客户而言属于高度机密，只有符合条件的客户才能使用。本公司不会因接收人收到本报告而视其为本公司当然客户。本报告仅在相关法律法规许可的情况下发放，并仅为提供信息而发送，概不构成任何广告。
+本报告所引用信息来源于公开资料，本公司对该信息的准确性、完整性或可靠性不作任何保证。本报告所载的信息、资料、建议及预测仅反映本公司于本报告公开发布当日的判断，且预测方法及结果存在一定程度局限性。在不同时期，本公司可能撰写并发布与本报告所载资料、建议及预测不一致的报告。本公司对已发报告无更新义务，若报告中所含信息发生变化，本公司可在不发出通知的情形下做出修改，投资者应当自行关注相应的更新或修改。
+本报告仅供参考之用，不构成出售或购买证券或其他投资标的要约或邀请。任何情况下，本报告中的信息或所表述的意见均不构成对任何人的投资建议。在任何情况下，本公司及本公司员工或者关联机构不承诺投资者一定获利，不对任何人因使用本报告中的任何内容所引致的任何损失负任何责任。投资者务必注意，其据此作出的任何投资决策与本公司及本公司员工或者关联机构无关，投资者自主作出投资决策并自行承担投资风险。
+市场有风险，投资需谨慎。投资者不应将本报告作为投资决策的唯一参考因素，亦不应认为本报告可以取代自己的判断。在决定投资前，如有需要，投资者务必向专业人士咨询并谨慎决策。本公司或关联机构可能会持有本报告中所提到的公司所发行的证券并进行交易，也可能涉及为该等公司提供或争取提供投资银行、财务顾问、咨询服务、金融产品等相关服务，投资者应充分考虑可能存在的利益冲突。本公司的资产管理部门、自营业务部门及其他投资业务部门可能独立作出与本报告中意见或建议不一致的投资决策。
+本报告版权仅为本公司所有，未经事先书面授权，任何机构和个人（包括本公司客户及员工）均不得以任何形式、任何目的对本报告进行翻版、刊发、转载、复制、发表、篡改、引用或传播，或以任何侵犯本公司版权的其他方式使用，请投资者谨慎使用未经授权刊载、转发或传播的本公司研究报告。经过书面授权的引用、刊载、转发，需注明出处为“财信证券股份有限公司”及发布日期等法律法规规定的相关内容，且不得对本报告进行任何有悖原意的删节和修改。
+本报告由财信证券研究发展中心对许可范围内人员统一发送，任何人不得在公众媒体或其它渠道对外公开发布。任何机构和个人（包括本公司内部客户及员工）对外散发本报告的，则该机构和个人独自为此发送行为负责，本公司不因此承担任何责任并保留对该机构和个人追究相应法律责任的权利。
+# 财信证券研究发展中心
+网址：stock.hnchasing.com
+地址：湖南省长沙市芙蓉中路二段 80 号顺天国际财富中心 28 层
+邮编：410005
+电话：0731-84403360
+传真：0731-84403438</t>
+  </si>
+  <si>
+    <t># ETF 基金周报（20260126-20260130）：
+# 黄金股票主题ETF 基金涨幅居前 但需防范风险
+2026 年 2 月 2 日
+# 投资要点
+分析师：李荣
+SAC 执业证书编号：
+S0340521010001
+基金从业资格证书编号：
+F4520000001431
+电话：0769-26628039
+邮箱：lirong@dgzq.com.cn
+![](images/6d98ee8266f01c6ac1db57d0e259ec0f4f4b0c5e6619d0b65864cdb28d31bcdd.jpg)  
+资料来源：东莞证券研究所，Wind 资讯
+各类ETF基金周度平均收益及资金流动概览：本周全球市场震荡分化，美股市场震荡偏弱，港股市场相对较强，贵金属COMEX黄金和COMEX白银近期快速上涨形成高杠杆和仓位拥挤格局，在特朗普提名沃什为新任美联储主席的事件催化下周五出现大幅调整。国内市场方面，权益市场维持“理性降温”的态势，风格转换明显。映射到ETF基金市场，商品型ETF和跨境ETF基金录得周度平均正收益，股票型ETF和债券型ETF基金录得周度平均负收益。本周宽基ETF基金继续面临大额的资金净流出压力，但周五已出现明显减弱的迹象，但临近传统春节假期，市场可能趋于谨慎，短期内继续维持震荡调整走势。
+股票ETF基金挂钩的指数收益及资金流动情况：本周黄金股票、能源、人工智能、粮食等主题基金表现靠前。在黄金股票方面，在海外黄金资产急速上涨的情绪带动下，国内黄金股票受到资金追捧，同时上市公司业绩预告2025年归母净利润大增也提振投资者信心，短期内跳空上涨，但随着海外市场贵金属板块巨震，国内黄金股票同样巨震，但支撑黄金价格的因素依旧坚挺，在短期震荡后具体年内仍然会重新进入上升浪。本周资金流动趋势延续，资金继续从沪深300指数等权重指数大幅流出，而行业主题ETF基金持续“吸金”，主要集中在细分化工、有色、芯片及卫星等主题基金，重点关注卫星通讯主题指数的投资机会。
+债券ETF基金挂钩的指数整体情况：根据债券ETF基金挂钩指数不同进行分类，转债类ETF基金周度平均下跌 $2 . 2 1 \%$ 。在纯债ETF基金方面，本周债市情绪继续回暖，利率债基金表现弱于信用债基金。从资金流动上来看，信用债ETF基金仍然大幅净流出，本周净流出继续超百亿，可能与年底科创债ETF基金冲规模后资金回流有关。本周债券ETF基金净流出74.24亿元，资金净流入的债券型ETF基金挂钩指数前三分别是中证转债及可交换债、中证短融和沪城投债。
+ETF基金融资融券分析：融资净买入额居前的指数主要集中在黄金、黄金股票、细分化工和创新药等行业主题指数，挂钩沪深300指数ETF基金在大幅降杠杆。本轮黄金上涨主要投机资金驱动，海外如此，国内亦如此。不论是黄金ETF还是黄金股票ETF基金融资净买入额均居前，由此形成的泡沫极易形成反噬，投资者一定要注意防范风险。
+风险提示：（1）报告数据均来自历史公开数据整理分析，研究人员不对数据的准确性和完整性做任何保证，文中提及的基金不构成对产品的推介，仅用于举例。（2）宏观经济环境变化、政策调整等系统性因素可能导致整个市场的大幅波动的风险。（3）基金的过往业绩及基金经理管理其他产品的历史业绩不代表未来。（4）跨境型ETF等基金可能出现短期较高溢价率风险。（5）对文中基金特征的描述并不构成买卖建议。市场有风险，投资需谨慎。
+# 目录
+1.各类 ETF基金平均收益及资金流动概览.  
+2.股票 ETF基金挂钩的指数收益及资金流动情况.  
+3.债券 ETF基金挂钩的指数收益及资金流动情况.   
+4.ETF 基金融资融券分析. .6  
+5.风险提示 ...
+# 图表目录
+图表 1 ：各类型 ETF 基金周度平均涨跌幅%、最高涨跌幅%及最低涨跌幅%..  
+图表 2 ：各类 ETF 基金资金流动（亿元）  
+图表 3 ：股票型 ETF 基金挂钩的指数收益前十.  
+图表 4 ：股票型 ETF 基金挂钩的指数资金净流入前十.  
+图表 5 ：各类型债券 ETF 基金挂钩的指数情况.  
+图表 6 ：债券 ETF 基金挂钩的指数周度净流入前五. 6  
+图表 7 ：本周融资净买入额前十的 ETF 基金挂钩的指数. 6
+# 1.各类ETF 基金平均收益及资金流动概览
+各类 ETF基金平均收益情况：本周全球市场震荡分化，美股市场震荡偏弱，港股市场相对较强，贵金属COMEX黄金和COMEX白银近期快速上涨形成高杠杆和仓位拥挤格局，在特朗普提名沃什为新任美联储主席的事件催化下周五出现大幅调整。国内市场方面，权益市场维持“理性降温”的态势，风格转换明显，前期强势的成长板块回调，高股息低估值的价值板块相对较强，从宽基指数来看红利策略指数表现较好。申万一级行业中涨少跌多，石油石化、通信和煤炭涨幅靠前。
+映射到 ETF基金市场，商品型 ETF和跨境 ETF基金录得周度平均正收益，分别上涨$3 . 2 \%$ 和 $0 . 2 5 \%$ ，股票型 ETF 和债券型 ETF 基金录得周度平均负收益，分别下跌 1.41%和$0 , 0 3 \%$ 。
+图表 1：各类型 ETF 基金周度平均涨跌幅%、最高涨跌幅%及最低涨跌幅%  
+![](images/80e2c0e62f314fd03168a6d4b5e77422d3a8f074cbccddda11f9e4a337fb1c0e.jpg)  
+资料来源：东莞证券研究所，wind 数据 截至 2026 年 1 月 30 日
+各类 ETF基金资金流动情况：本周宽基 ETF 基金继续面临大额的资金净流出压力，但周五已出现明显减弱的迹象，根据 2024 年 2 月基金份额初步估算本次减持可能已经接近尾声。结合 1 月 30 日证监会主席吴清主持召开的资本市场“十五五”规划上市公司座谈会上，强调全力巩固资本市场稳中向好势头的表态，我们对今年市场行情仍然非常有信心，关注点仍然在由 AI 引领的科技浪潮、具有国家战略意义的航天军工等。但临近传统春节假期，市场可能趋于谨慎，短期内继续维持震荡调整走势。具体来看，本周股票型 ETF 基金净流出 3169.67 亿元，其中宽基 ETF 基金净流出 3889.8 亿元，今年累计净流出已超万亿，挂钩沪深300指数的ETF基金净流出2446.02亿元，挂钩中证1000指数的 ETF基金净流出 451.74 亿元。
+值得关注的是，不论是股票型 ETF 基金还是跨境型 ETF基金行业主题基金仍然持续“吸金”，虽然量不大，但趋势延续，说明市场资金仍然非常看好赛道的投资机会。
+图表 2：各类 ETF 基金资金流动（亿元）  
+![](images/886cb1190aca3d7b2e8ef79b701a9084127797bbaaf76351cc9cf796f23452ab.jpg)  
+资料来源：东莞证券研究所，wind 数据 截至 2026 年 1 月 30 日
+# 2.股票ETF基金挂钩的指数收益及资金流动情况
+股票 ETF基金挂钩的指数收益前十：本周黄金股票、能源、人工智能、粮食等主题基金表现靠前。在黄金股票方面，在海外黄金资产急速上涨的情绪带动下，国内黄金股票受到资金追捧，同时上市公司业绩预告 2025 年归母净利润大增也提振投资者信心，短期内跳空上涨，但随着海外市场贵金属板块巨震，国内黄金股票同样巨震，但支撑黄金价格的因素依旧坚挺，在短期震荡后具体年内仍然会重新进入上升浪。
+图表 3：股票型 ETF基金挂钩的指数收益前十  
+&lt;table&gt;&lt;tr&gt;&lt;td&gt;指数代码&lt;/td&gt;&lt;td&gt;指数简称&lt;/td&gt;&lt;td&gt;周度涨跌幅%&lt;/td&gt;&lt;td&gt;周度净流入额（亿元）&lt;/td&gt;&lt;td&gt;近12个月股息率%&lt;/td&gt;&lt;td&gt;近3年市盈率分位数%&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;931238.CSI&lt;/td&gt;&lt;td&gt;SSH黄金股票&lt;/td&gt;&lt;td&gt;10.03&lt;/td&gt;&lt;td&gt;75.25&lt;/td&gt;&lt;td&gt;1.10&lt;/td&gt;&lt;td&gt;84.77&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;931248.CSI&lt;/td&gt;&lt;td&gt;油气资源&lt;/td&gt;&lt;td&gt;7.79&lt;/td&gt;&lt;td&gt;5.74&lt;/td&gt;&lt;td&gt;3.47&lt;/td&gt;&lt;td&gt;98.95&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;000986.SH&lt;/td&gt;&lt;td&gt;全指能源&lt;/td&gt;&lt;td&gt;7.20&lt;/td&gt;&lt;td&gt;0.24&lt;/td&gt;&lt;td&gt;4.39&lt;/td&gt;&lt;td&gt;99.65&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;000928.SH&lt;/td&gt;&lt;td&gt;800能源&lt;/td&gt;&lt;td&gt;6.93&lt;/td&gt;&lt;td&gt;3.23&lt;/td&gt;&lt;td&gt;4.53&lt;/td&gt;&lt;td&gt;99.79&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;h30198.CSI&lt;/td&gt;&lt;td&gt;油气产业&lt;/td&gt;&lt;td&gt;6.69&lt;/td&gt;&lt;td&gt;18.15&lt;/td&gt;&lt;td&gt;3.11&lt;/td&gt;&lt;td&gt;99.30&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;970070.CNI&lt;/td&gt;&lt;td&gt;创业板人工智能&lt;/td&gt;&lt;td&gt;6.67&lt;/td&gt;&lt;td&gt;-5.63&lt;/td&gt;&lt;td&gt;0.32&lt;/td&gt;&lt;td&gt;75.15&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;399439.SZ&lt;/td&gt;&lt;td&gt;国证油气&lt;/td&gt;&lt;td&gt;6.33&lt;/td&gt;&lt;td&gt;14.31&lt;/td&gt;&lt;td&gt;3.54&lt;/td&gt;&lt;td&gt;98.86&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;399365.SZ&lt;/td&gt;&lt;td&gt;国证粮食&lt;/td&gt;&lt;td&gt;5.88&lt;/td&gt;&lt;td&gt;4.04&lt;/td&gt;&lt;td&gt;1.40&lt;/td&gt;&lt;td&gt;97.32&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;000068.SH&lt;/td&gt;&lt;td&gt;上证资源&lt;/td&gt;&lt;td&gt;5.41&lt;/td&gt;&lt;td&gt;2.10&lt;/td&gt;&lt;td&gt;3.13&lt;/td&gt;&lt;td&gt;93.82&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;000936.CSI&lt;/td&gt;&lt;td&gt;800通信&lt;/td&gt;&lt;td&gt;4.94&lt;/td&gt;&lt;td&gt;0.06&lt;/td&gt;&lt;td&gt;1.36&lt;/td&gt;&lt;td&gt;94.86&lt;/td&gt;&lt;/tr&gt;&lt;/table&gt;
+资料来源：东莞证券研究所，wind 数据 截至 2026 年 1 月 30 日
+股票 ETF基金资金流动情况：本周资金流动趋势延续，资金继续从沪深 300 指数等权重指数大幅流出，而行业主题 ETF基金持续“吸金”，主要集中在细分化工、有色、芯片及卫星等主题基金，其中挂钩细分化工指数的 ETF基金持续居所有主题指数净流入之首。
+值得一提的是，卫星通讯主题指数虽然近期大幅调整，但是资金越跌越买。在消息层面，1月 30日，SpaceX 向美国联邦通信委员会（FCC）提交申请，计划发射超 100 万颗卫星，构建全球首个“轨道数据中心系统”，标志着商业航天未来重点将转移至太空算力领域，利好太空光伏、激光通信等，同时也将引燃新一轮火箭发射潮。航天卫星领域已上升到国家战略高度，近期调整将提供较好的布局机会。
+图表 4：股票型 ETF 基金挂钩的指数资金净流入前十  
+&lt;table&gt;&lt;tr&gt;&lt;td&gt;指数代码&lt;/td&gt;&lt;td&gt;指数简称&lt;/td&gt;&lt;td&gt;周度涨跌幅%&lt;/td&gt;&lt;td&gt;周度净流入额（亿元）&lt;/td&gt;&lt;td&gt;近12个月股息率%&lt;/td&gt;&lt;td&gt;近3年市盈率分位数%&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;000813.CSI&lt;/td&gt;&lt;td&gt;细分化工&lt;/td&gt;&lt;td&gt;-1.06&lt;/td&gt;&lt;td&gt;99.08&lt;/td&gt;&lt;td&gt;1.24&lt;/td&gt;&lt;td&gt;97.81&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;931238.CSI&lt;/td&gt;&lt;td&gt;SSH黄金股票&lt;/td&gt;&lt;td&gt;10.03&lt;/td&gt;&lt;td&gt;75.25&lt;/td&gt;&lt;td&gt;1.10&lt;/td&gt;&lt;td&gt;84.77&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;000811.CSI&lt;/td&gt;&lt;td&gt;细分有色&lt;/td&gt;&lt;td&gt;3.79&lt;/td&gt;&lt;td&gt;70.49&lt;/td&gt;&lt;td&gt;1.07&lt;/td&gt;&lt;td&gt;86.20&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;000819.SH&lt;/td&gt;&lt;td&gt;有色金属&lt;/td&gt;&lt;td&gt;3.76&lt;/td&gt;&lt;td&gt;56.34&lt;/td&gt;&lt;td&gt;1.06&lt;/td&gt;&lt;td&gt;87.12&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;000685.SH&lt;/td&gt;&lt;td&gt;科创芯片&lt;/td&gt;&lt;td&gt;-0.65&lt;/td&gt;&lt;td&gt;33.46&lt;/td&gt;&lt;td&gt;0.10&lt;/td&gt;&lt;td&gt;83.71&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;931743.CSI&lt;/td&gt;&lt;td&gt;半导体材料设备&lt;/td&gt;&lt;td&gt;-5.17&lt;/td&gt;&lt;td&gt;29.05&lt;/td&gt;&lt;td&gt;0.17&lt;/td&gt;&lt;td&gt;90.95&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;980018.CNI&lt;/td&gt;&lt;td&gt;卫星通信&lt;/td&gt;&lt;td&gt;-11.06&lt;/td&gt;&lt;td&gt;27.72&lt;/td&gt;&lt;td&gt;0.25&lt;/td&gt;&lt;td&gt;84.51&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;980017.CNI&lt;/td&gt;&lt;td&gt;国证芯片（CNI）&lt;/td&gt;&lt;td&gt;-1.68&lt;/td&gt;&lt;td&gt;20.34&lt;/td&gt;&lt;td&gt;0.14&lt;/td&gt;&lt;td&gt;92.07&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;931594.CSI&lt;/td&gt;&lt;td&gt;卫星产业&lt;/td&gt;&lt;td&gt;-11.15&lt;/td&gt;&lt;td&gt;19.35&lt;/td&gt;&lt;td&gt;0.28&lt;/td&gt;&lt;td&gt;85.00&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;930632.CSI&lt;/td&gt;&lt;td&gt;CS稀金属&lt;/td&gt;&lt;td&gt;-3.52&lt;/td&gt;&lt;td&gt;19.07&lt;/td&gt;&lt;td&gt;0.63&lt;/td&gt;&lt;td&gt;89.97&lt;/td&gt;&lt;/tr&gt;&lt;/table&gt;
+资料来源：东莞证券研究所，wind 数据 截至 2026 年 1 月 30 日
+# 3.债券ETF 基金挂钩的指数收益及资金流动情况
+债券 ETF基金挂钩的指数整体情况：根据债券 ETF基金挂钩指数不同进行分类，转债类 ETF基金周度平均下跌 $2 . 2 1 \%$ 。在纯债 ETF基金方面，本周债市情绪继续回暖，利率债基金表现弱于信用债基金。从资金流动上来看，信用债 ETF基金仍然大幅净流出，本周净流出继续超百亿，可能与年底科创债 ETF基金冲规模后资金回流有关。
+图表 ：各类型债券 基金挂钩的指数情况  
+&lt;table&gt;&lt;tr&gt;&lt;td&gt;类型&lt;/td&gt;&lt;td&gt;当周涨跌幅%&lt;/td&gt;&lt;td&gt;今年以来涨跌幅%&lt;/td&gt;&lt;td&gt;本周净流入(亿元)&lt;/td&gt;&lt;td&gt;本年净流入(亿元)&lt;/td&gt;&lt;td&gt;基金规模（亿元）&lt;/td&gt;&lt;td&gt;基金规模占比%&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;转债类ETF 基金指数&lt;/td&gt;&lt;td&gt;-2.21&lt;/td&gt;&lt;td&gt;5.17&lt;/td&gt;&lt;td&gt;43.95&lt;/td&gt;&lt;td&gt;116.02&lt;/td&gt;&lt;td&gt;609.90&lt;/td&gt;&lt;td&gt;7.36%&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;信用债、公司债、城投债及科创债挂钩指数&lt;/td&gt;&lt;td&gt;0.07&lt;/td&gt;&lt;td&gt;0.33&lt;/td&gt;&lt;td&gt;-114.86&lt;/td&gt;&lt;td&gt;-895.84&lt;/td&gt;&lt;td&gt;5449.72&lt;/td&gt;&lt;td&gt;65.72%&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;国债、政金债挂钩指数&lt;/td&gt;&lt;td&gt;0.00&lt;/td&gt;&lt;td&gt;0.34&lt;/td&gt;&lt;td&gt;-22.37&lt;/td&gt;&lt;td&gt;-220.95&lt;/td&gt;&lt;td&gt;1321.11&lt;/td&gt;&lt;td&gt;15.93%&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;地方政府债挂钩指数&lt;/td&gt;&lt;td&gt;0.05&lt;/td&gt;&lt;td&gt;0.38&lt;/td&gt;&lt;td&gt;-5.20&lt;/td&gt;&lt;td&gt;-28.47&lt;/td&gt;&lt;td&gt;209.24&lt;/td&gt;&lt;td&gt;2.52%&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;短期融资债挂钩指数&lt;/td&gt;&lt;td&gt;0.03&lt;/td&gt;&lt;td&gt;0.14&lt;/td&gt;&lt;td&gt;24.24&lt;/td&gt;&lt;td&gt;-54.23&lt;/td&gt;&lt;td&gt;702.23&lt;/td&gt;&lt;td&gt;8.47%&lt;/td&gt;&lt;/tr&gt;&lt;/table&gt;
+债券 ETF基金挂钩的指数资金流动情况：本周债券 ETF基金净流出 74.24 亿元，资金净流入的债券型 ETF基金挂钩指数前三分别是中证转债及可交换债、中证短融和沪城投债，资金净流出的债券型 ETF基金挂钩指数前三分别是沪 AAA科创债、沪做市公司和AAA科创债。
+图表 6：债券 ETF 基金挂钩的指数周度净流入前五  
+&lt;table&gt;&lt;tr&gt;&lt;td&gt;指数名称&lt;/td&gt;&lt;td&gt;当周涨跌幅%&lt;/td&gt;&lt;td&gt;今年以来 涨跌幅%&lt;/td&gt;&lt;td&gt;本周净流入(亿元)&lt;/td&gt;&lt;td&gt;本年净流入(亿元)&lt;/td&gt;&lt;td&gt;基金规模 (亿元)&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;中证转债及可交换债&lt;/td&gt;&lt;td&gt;-2.56&lt;/td&gt;&lt;td&gt;5.73&lt;/td&gt;&lt;td&gt;50.28&lt;/td&gt;&lt;td&gt;95.38&lt;/td&gt;&lt;td&gt;518.82&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;中证短融&lt;/td&gt;&lt;td&gt;0.03&lt;/td&gt;&lt;td&gt;0.14&lt;/td&gt;&lt;td&gt;24.24&lt;/td&gt;&lt;td&gt;-54.23&lt;/td&gt;&lt;td&gt;702.23&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;沪城投债&lt;/td&gt;&lt;td&gt;0.08&lt;/td&gt;&lt;td&gt;0.33&lt;/td&gt;&lt;td&gt;0.34&lt;/td&gt;&lt;td&gt;0.40&lt;/td&gt;&lt;td&gt;285.10&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;中债-中高等级公司债利差因子净价（总值）指数&lt;/td&gt;&lt;td&gt;0.06&lt;/td&gt;&lt;td&gt;0.29&lt;/td&gt;&lt;td&gt;0.25&lt;/td&gt;&lt;td&gt;4.09&lt;/td&gt;&lt;td&gt;337.20&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;沪做市国债&lt;/td&gt;&lt;td&gt;-0.05&lt;/td&gt;&lt;td&gt;0.31&lt;/td&gt;&lt;td&gt;0.19&lt;/td&gt;&lt;td&gt;-3.94&lt;/td&gt;&lt;td&gt;114.50&lt;/td&gt;&lt;/tr&gt;&lt;/table&gt;
+资料来源：东莞证券研究所，wind 数据 截至 2026 年 1 月 30 日
+# 4.ETF基金融资融券分析
+从本周杠杆资金净融资买入额来看，ETF 基金整体在降杠杆。融资净买入额居前的指数主要集中在黄金、黄金股票、细分化工和创新药等行业主题指数，挂钩沪深 300 指数 ETF基金在大幅降杠杆。
+本轮黄金上涨主要投机资金驱动，海外如此，国内亦如此。不论是黄金 ETF 还是黄金股票 ETF基金融资净买入额均居前，由此形成的泡沫极易形成反噬，投资者一定要注意防范风险。
+图表 ：本周融资净买入额前十的 基金挂钩的指数  
+&lt;table&gt;&lt;tr&gt;&lt;td&gt;代码&lt;/td&gt;&lt;td&gt;跟踪指数&lt;/td&gt;&lt;td&gt;融资净买入额（万元）&lt;/td&gt;&lt;td&gt;周涨跌幅%&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Au9999.SGE&lt;/td&gt;&lt;td&gt;SGE黄金9999&lt;/td&gt;&lt;td&gt;56924.96&lt;/td&gt;&lt;td&gt;4.83&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;931238.CSI&lt;/td&gt;&lt;td&gt;SSH黄金股票&lt;/td&gt;&lt;td&gt;26650.71&lt;/td&gt;&lt;td&gt;10.03&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;000813.CSI&lt;/td&gt;&lt;td&gt;细分化工&lt;/td&gt;&lt;td&gt;20615.21&lt;/td&gt;&lt;td&gt;-1.06&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;h11014.CSI&lt;/td&gt;&lt;td&gt;中证短融&lt;/td&gt;&lt;td&gt;18138.08&lt;/td&gt;&lt;td&gt;0.03&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;000819.SH&lt;/td&gt;&lt;td&gt;有色金属&lt;/td&gt;&lt;td&gt;18083.83&lt;/td&gt;&lt;td&gt;3.76&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;399989.SZ&lt;/td&gt;&lt;td&gt;中证医疗&lt;/td&gt;&lt;td&gt;13835.41&lt;/td&gt;&lt;td&gt;-3.98&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;HSSCI.TI.HI&lt;/td&gt;&lt;td&gt;恒生港股通科技主题&lt;/td&gt;&lt;td&gt;11189.04&lt;/td&gt;&lt;td&gt;-0.69&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;931790.CSI&lt;/td&gt;&lt;td&gt;中韩半导体&lt;/td&gt;&lt;td&gt;9992.81&lt;/td&gt;&lt;td&gt;10.77&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;931152.CSI&lt;/td&gt;&lt;td&gt;CS创新药&lt;/td&gt;&lt;td&gt;8913.50&lt;/td&gt;&lt;td&gt;-2.97&lt;/td&gt;&lt;/tr&gt;&lt;/table&gt;
+# 5.风险提示
+（1）报告数据均来自历史公开数据整理分析，研究人员不对数据的准确性和完整性做任何保证，文中提及的基金不构成对产品的推介，仅用于举例。  
+（2）宏观经济环境变化、政策调整等系统性因素可能导致整个市场的大幅波动的风险。  
+（3）基金的过往业绩及基金经理管理其他产品的历史业绩不代表未来。  
+（4）跨境型 ETF 等基金可能出现短期较高溢价率风险。  
+（5）对文中基金特征的描述并不构成买卖建议。市场有风险，投资需谨慎。
+东莞证券研究报告评级体系：  
+公司投资评级  
+&lt;table&gt;&lt;tr&gt;&lt;td&gt;买入&lt;/td&gt;&lt;td&gt;预计未来6个月内，股价表现强于市场指数15%以上&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;增持&lt;/td&gt;&lt;td&gt;预计未来6个月内，股价表现强于市场指数5%-15%之间&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;持有&lt;/td&gt;&lt;td&gt;预计未来6个月内，股价表现介于市场指数±5%之间&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;减持&lt;/td&gt;&lt;td&gt;预计未来6个月内，股价表现弱于市场指数5%以上&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;无评级&lt;/td&gt;&lt;td&gt;因无法获取必要的资料，或者公司面临无法预见结果的重大不确定性事件，或者其他原因，导致无法给出明确的投资评级；股票不在常规研究覆盖范围之内&lt;/td&gt;&lt;/tr&gt;&lt;/table&gt;
+行业投资评级  
+&lt;table&gt;&lt;tr&gt;&lt;td&gt;超配&lt;/td&gt;&lt;td&gt;预计未来 6 个月内,行业指数表现强于市场指数 10%以上&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;标配&lt;/td&gt;&lt;td&gt;预计未来 6 个月内,行业指数表现介于市场指数±10%之间&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;低配&lt;/td&gt;&lt;td&gt;预计未来 6 个月内,行业指数表现弱于市场指数 10%以上&lt;/td&gt;&lt;/tr&gt;&lt;/table&gt;
+说明：本评级体系的“市场指数”，A 股参照标的为沪深300 指数；新三板参照标的为三板成指。
+证券研究报告风险等级及适当性匹配关系  
+&lt;table&gt;&lt;tr&gt;&lt;td&gt;低风险&lt;/td&gt;&lt;td&gt;宏观经济及政策、财经资讯、国债等方面的研究报告&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;中低风险&lt;/td&gt;&lt;td&gt;债券、货币市场基金、债券基金等方面的研究报告&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;中风险&lt;/td&gt;&lt;td&gt;主板股票及基金、可转债等方面的研究报告，市场策略研究报告&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;中高风险&lt;/td&gt;&lt;td&gt;创业板、科创板、北京证券交易所、新三板（含退市整理期）等板块的股票、基金、可转债等
+方面的研究报告，港股股票、基金研究报告以及非上市公司的研究报告&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;高风险&lt;/td&gt;&lt;td&gt;期货、期权等衍生品方面的研究报告&lt;/td&gt;&lt;/tr&gt;&lt;/table&gt;
+投资者与证券研究报告的适当性匹配关系：“保守型”投资者仅适合使用“低风险”级别的研报，“谨慎型”投资者仅适合使用风险级别不高于“中低风险”的研报，“稳健型”投资者仅适合使用风险级别不高于“中风险”的研报，“积极型”投资者仅适合使用风险级别不高于“中高风险”的研报，“激进型”投资者适合使用我司各类风险级别的研报。
+# 证券分析师承诺：
+本人具有中国证券业协会授予的证券投资咨询执业资格或相当的专业胜任能力，以勤勉的职业态度，独立、客观地在所知情的范围内出具本报告。本报告清晰准确地反映了本人的研究观点，不受本公司相关业务部门、证券发行人、上市公司、基金管理公司、资产管理公司等利益相关者的干涉和影响。本人保证与本报告所指的证券或投资标的无任何利害关系，没有利用发布本报告为自身及其利益相关者谋取不当利益，或者在发布证券研究报告前泄露证券研究报告的内容和观点。
+# 声明：
+东莞证券股份有限公司为全国性综合类证券公司，具备证券投资咨询业务资格。
+）的客户使用。本公司不会因接收人收到本报告而视其为客户。本
+报告所载资料及观点均为合规合法来源且被本公司认为可靠，但本公司对这些信息的准确性及完整性不作任何保证。本报告所载的资料、意见及推测仅反映本公司于发布本报告当日的判断，可随时更改。本报告所指的证券或投资标的的价格、价值及投资收入可跌可升。本公司可发出其它与本报告所载资料不一致及有不同结论的报告，亦可因使用不同假设和标准、采用不同观点和分析方法而与本公司其他业务部门或单位所给出的意见不同或者相反。在任何情况下，本报告所载的资料、工具、意见及推测只提供给客户作参考之用，并不构成对任何人的投资建议。投资者需自主作出投资决策并自行承担投资风险，据此报告做出的任何投资决策与本公司和作者无关。在任何情况下，本公司不对任何人因使用本报告中的任何内容所引致的任何损失负任何责任，任何形式的分享证券投资收益或者分担证券投资损失的书面或口头承诺均为无效。本公司及其所属关联机构在法律许可的情况下可能会持有本报告中提及公司所发行的证券头寸并进行交易，还可能为这些公司提供或争取提供投资银行、经纪、资产管理等服务。本报告版权归东莞证券
+形式翻版、复制、刊登。如引用、刊发，需注明本报告的机构来源、作者和发布日期，并提示使用本报告的风险，不得对本报告进行有悖原意的引用、删节和修改。未经授权刊载或者转发本证券研究报告的，应当承担相应的法律责任。
+东莞证券股份有限公司研究所
+广东省东莞市可园南路1 号金源中心24楼
+邮政编码：523000
+电话：（0769）22115843
+网址：www.dgzq.com.cn</t>
+  </si>
+  <si>
+    <t># 国泰海通证券 2 月基金投资策略
+ A股延续上涨行情，相对偏向成长配置风格
+# 本报告导读：
+2026 年开年以来，A股市场热点赛道相继发酵，1月全月依然延续了慢牛上涨行情。我们建议后续基金配置在整体维持均衡风格的前提下，适度偏向成长，从大类资产配置角度来看可以对黄金和美股相关 ETF 进行一定配置。
+# 投资要点：
+# le_Summary] 基金投资策略
+股混基金：从基金投资的角度来看，在成长主线下，价值和成长风格中均具备结构性投资机会的市场格局或将延续，因此我们建议后续基金配置在整体维持均衡风格的前提下，适度偏向成长，并且关注基金经理的选股和风控能力，重视主投科技领域基金，兼顾周期、金融等资产。在基金品种的选择上，价值风格关注南方品质优选；成长风格关注易方达环保主题、宏利睿智稳健；均衡灵活品种关注博道惠泰优选、广发多因子；主题型基金关注国泰消费优选、华泰保兴成长优选、景顺长城品质长青、宝盈转型动力；港股基金可以关注富国港股通策略精选。
+指数主题基金：我们从基本面景气度、超预期水平、量价水平和资金流强度四个维度出发，构建行业轮动模型，2 月最新高景气度行业分别为基础化工、建筑材料、环保、石油石化、通信和钢铁，结合 ETF 产品的流动性和相关性，我们构建的 ETF 行业轮动投资组合为鹏华中证细分化工主题 ETF、国泰中证全指建筑材料 ETF、广发中证环保产业 ETF、国泰中证油气产业 ETF、华夏中证 5G 通信主题ETF和国泰中证钢铁ETF。
+债券基金：从基金投资角度来看，建议关注久期灵活的利率债和重配高流动性信用债的产品。此外，随着权益市场回暖，我们认为固收 $^ +$ 基金同样具备一定配置价值，建议持续关注。品种选择上，关注博时富腾纯债、富国天利增长债券、景顺长城景颐尊利。
+QDII 和商品型基金：全球地缘政治局势的不确定性上升以及各国央行持续购金有利于支撑长期金价中枢，从长期投资和避险投资的角度来看，我们认为可适当配置黄金ETF，但趋势配置者短期需要谨慎。美国经济韧性较强，内生性通胀粘性逐渐减弱，投资者仍重视 AI 产业趋势的发展，市场风险偏好温和上行，从大类资产配置的角度来看，我们认为美股阶段性具备较高的风险回报比与战术性配置价值。品种选择上，可以关注易方达黄金ETF、华安易富黄金ETF、广发纳斯达克 100ETF。
+# 关注基金
+股票混合型基金：南方品质优选、易方达环保主题、博道惠泰优选、广发多因子、国泰消费优选、华泰保兴成长优选、宏利睿智稳健、景顺长城品质长青、宝盈转型动力、富国港股通策略精选。
+指数主题基金：鹏华中证细分化工主题ETF、国泰中证全指建筑材料ETF、广发中证环保产业 ETF、国泰中证油气产业 ETF、华夏中证5G 通信主题ETF和国泰中证钢铁 ETF。
+开放式债券型基金：博时富腾纯债、富国天利增长债券、景顺长城景颐尊利。
+QDII和商品型基金：易方达黄金 ETF、华安易富黄金 ETF、广发纳斯达克 100ETF。
+# 风险提示
+基本面变化、货币政策和证券市场相关政策的不确定性、资金面大幅波动、国内改革推进力度、全球地缘政治的不确定性。
+&lt;table&gt;&lt;tr&gt;&lt;td colspan="2"&gt;江涛(分析师)&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td colspan="2"&gt;021-23185672&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td colspan="2"&gt;jiangtao4@gtht.com&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td colspan="2"&gt;S0880525040067&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td colspan="2"&gt;倪韵婷(分析师)&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td colspan="2"&gt;021-23185605&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td colspan="2"&gt;niyunting@gtht.com&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td colspan="2"&gt;S0880525040097&lt;/td&gt;&lt;/tr&gt;&lt;/table&gt;
+# [Table_Rep相关报告
+国泰海通证券-基金业绩排行榜（2026-02-01） 2026.02.01
+国泰海通证券 1月基金投资策略 2026.01.05
+国泰海通证券 12月基金表现回顾 2026.01.05
+国泰海通证券-基金超额收益排行榜（20260103）
+2026.01.03
+国泰海通证券-基金业绩排行榜（2026-01-01）
+2026.01.01
+# 目录
+# 1. 资本市场分析与展望.
+1.1. 投资环境分析.. 2  
+1.2. 股票市场展望 4   
+1.3. 债券市场展望.
+# 2. 基金月度动态 . .6
+2.1. 基金测算仓位变化. .6  
+2.2. 风格基金业绩. 8   
+2.3. 新发基金概况. 9
+# 3. 基金投资策略 11
+4. 本期组合大类资产配置 .12  
+5. 附录 . 13  
+6. 风险提示. .14
+# 1. 资本市场分析与展望
+# 1.1. 投资环境分析
+2026年 1月，A股延续上涨行情。2026年开年以来，A股市场热点赛道相继发酵，在去年中国经济完成全年目标的背景下，A 股市场景气度保持向上，1月全月依然延续了慢牛上涨行情。从结构性机会来看，首先，全球地缘政治局势的不确定性上升以及各国央行持续购金的背景下，国际金价持续大幅上涨，贵金属延续强势，带动国内有色金属板块全月涨幅明显领先其他行业；其次，2026 年 1月，智谱AI与 Minimax 陆续登陆港交所，AI投资叙事开始向下游传导，催化AI应用等传媒板块上涨；再者，国际能源署21 日发布最新月度报告，预计 2026 年全球石油需求将日均增长 93 万桶，叠加海外地缘政治因素，石油石化板块同样走强。从行业指数方面来看，1月份 31 个申万一级行业中共有 26 个行业上涨，表现靠前的 5 个行业分别为有色金属、传媒、石油石化、建筑材料和基础化工行业，表现靠后的5个行业则分别为银行、家用电器、非银金融、交通运输和农林牧渔行业。
+根据国泰海通宏观在2026年 2 月1 日发布的《“沃什时刻”是导火索，而非根本原因——海外经济政策跟踪》和 2026 年 1 月 31 日发布的《PMI 淡季回落，价格回升——2026 年 1 月 PMI 数据点评》，以及国泰海通债券研究团队在2026年2月1日发布的《跨春节展望：供需主逻辑，何时避“长”锋》等报告中的观点，资金利率分化。过去一周（2026 年 1 月 26 日-2026 年 1月30日）央行开展公开市场逆回购17615亿元，到期 11810亿元，净投放3805 亿元。DR001 利率下行 7.06bp 至 $1 . 3 3 \%$ ，DR007 利率上行 9.91bp 至$1 . 5 9 \%$ ，1 年期 AAA 存单利率保持 $1 . 6 0 \%$ 不变。参考中债估值，过去一周，2 年、5 年、10 年期国债收益率分别下行 1.94bp、2.04bp、1.86bp，30 年期国债收益率上行0.19bp。2年期国开收益率下行0.79bp，5 年、10年期、30年期国开收益率分别上行0.15bp、1.30bp、0.20bp。T、TF主力合约收盘价分别上涨 $0 . 1 1 \%$ 、 $0 . 0 1 \%$ ，TS、TL主力合约收盘价分别下跌 $0 . 0 2 \%$ 、 $0 . 3 4 \%$ 。
+2026年 1月份，制造业 PMI为 $4 9 . 3 \%$ ，比上月下降 0.8个百分点。建筑业商务活动指数为 $4 8 . 8 \%$ ，比上月下降4.0个百分点；服务业商务活动指数为$4 9 . 5 \%$ ，比上月下降0.2 个百分点。制造业 PMI：淡季回落。为了缓解春节假期因素的扰动，我们把本月 PMI 与近年春节前一个月对比。结果发现，本月 PMI 不及近年同期平均水平，降幅强于季节性。一方面，企业规模分化加剧，大型企业PMI仍位于扩张区间，中、小型企业PMI在收缩区间低位运行。另一方面，经济结构转型加快。高技术制造业 PMI 连续两个月位于较高水平，装备制造业保持在扩张区间。相比之下，消费品行业和高耗能行业处于收缩区间，景气水平有所回落。需求有待提振，扩产较为谨慎。2026年 1月份，生产指数为 $5 0 . 6 \%$ ，虽然高于临界点，但是比上月下降1.1个百分点，除了淡季因素的影响，还与需求的回落有关。同期，新订单、新出口订单指数分别为 $4 9 . 2 \% . 4 7 . 8 \%$ ，分别比上月下降 1.6个、1.2个百分点。受近期大宗商品涨价影响，主要原材料购进价格指数和出厂价格指数分别升至 $5 6 . 1 \%$ 和 $5 0 . 6 \%$ ，后者近 20 个月来首次升至临界点以上，或有助于改善企业营收预期和盈利空间。此外，主要原材料采购回落、库存量继续减少，预示有效需求有待扩大。非制造业景气度：服务平稳，建筑回落。在服务业，商务活动指数连续三个月稳定在 $4 9 . 5 \%$ 左右，行业分化较为明显。其中，金融行业景气度较高，房地产业商务活动指数降至低位。在建筑业，景气指数淡季回落，不及近年同期水平。究其原因，一是，或与近期低温天气有关。二是，春节假日临近，受务工人员返乡、项目停工等季节性因素的影响。展望 2026年，宏观政策更加积极有为，托底总需求。财政部表态，确保总体支出力度“只增不减”、重点领域保障“只强不弱”。大力压减低效无效支出，把更多的财政资金用在提振消费、“投资于人”、民生保障等方面。2026 年首场国务院常务会议中，财政金融促内需一揽子政策推出，旨在扩大内需。
+需要提醒的是，政策调整注重长周期和战略考量，既保证一定政策力度，又预留足够政策空间。
+从海外经济政策来看，美国经济数据整体偏强，欧元区持续复苏。上周（2026.1.26-2026.2.1）所公布的美国数据整体偏强，2026 年 1 月 24 日当周初领失业金人数 20.9 万，保持在相对低位；2025 年 12 月美国 PPI 环比$0 . 5 0 \%$ ，核心 PPI 环比 $0 . 7 0 \%$ ，均较前值 $0 . 2 0 \%$ 和 $0 . 0 0 \%$ 有所上升；2026 年1 月 24 日 WEI（周度经济指数）为 $2 . 4 9 \%$ ，相较于前值 $2 . 1 6 \%$ 有所上升。欧洲经济仍处温和复苏通道，2025 年四季度欧元区 GDP 环比 $0 . 3 \%$ ，与三季度持平，高于市场预期 $0 . 2 \%$ ，实现连续9个季度扩张；四季度欧元区GDP同比 $1 . 3 \%$ ，较三季度 $1 . 4 \%$ 小幅回落，符合预期，为 2025 年全年最低单季同比增速，整体来看，欧洲增长韧性超预期，经济持续处于温和复苏通道。
+# 1.2. 股票市场展望
+国泰海通策略团队在 2026 年 1 月 18 日发布的《转型牛：更高、更稳、更长》中表示：“点刹”不是“熄火”，监管治理水平上升，市场发展更长远。无风险收益下沉、资本市场改革与中国经济转型，“转型牛”还有很大空间，看好细分龙头。
+大势研判：中国“转型牛”，更高、更稳、更长。2026 年开年以来，上证指数连续站上 4000 点与 4100 点，走势强劲。国泰海通策略在 2025 年 12 月28日发布了重要报告《跨越，远望又新峰》，系统性的回顾和讨论了自 2025年以来我们对于中国市场的思考。2024 年 924 解决“内忧”、2025 年中美交锋解决“外患”，社会各界内心当中的担忧得以放下，这是中国股市得以重估的重要前提。相比2019-2024，自 2025年以来的中国社会对外更自信、对内更稳定、资产负债表逐步企稳，因此资本市场具备了过去所没有的凝聚社会共识和社会资本的能力，资本市场也是连接社会资本与经济生产力提高，以及促进居民参与中国实体转型发展的关键纽带，站在了大发展周期，也形成了“转型牛”根基。而我们时常讨论的中国社会刚兑的打破，无风险收益的下降、资本市场改革、经济结构转型，构成了“转型牛”的三大关键动力，由此国泰海通对于中国市场的看法是乐观的、坚定的，2026 年“转型牛”的空间还很大。
+“点刹”不是“熄火”，治理越审慎，中国市场能够走的更长远。1 月15日，证监会召开 2026 年系统工作会议，继 2025 年再次指出“巩固稳中向好势头”，表明资本市场向好发展基调不变；也要“坚决防止市场大起大落”。1月18日，央广网发布评论文章“坚持稳字当头，A股要的不是‘疯牛’而是‘长牛’”，文章指出，“监管降温的本质不是‘熄火’，更不是打压市场，而是挤泡沫、去炒作，让资金真正流向优质标的”。证监会指出“积极引导长期投资、理性投资、价值投资，全力营造‘长钱长投’的市场生态”，这背后表明中国资本市场监管与治理水平在明显提升。在过去长时间资本市场发展过程中，股市急涨急跌。而急涨急跌的后果，不仅造成中国市场牛短熊长，居民也无法通过资本市场分享实体经济发展和资本市场改革红利，可投资性下降。因此，资本市场监管越严格、审慎，反而有助于提高中国市场的可投资性，也更有助于中国资本市场走的更长远，更多投资人分享转型发展与改革红利。
+行业比较：跨年行情不会止步于此，看好科技细分龙头和 A500指数。随着中国经济的逐步企稳，社会资产管理需求的出现，科技与非科技都有机会，细分龙头与权重股价将出现改观。看好：1）科技成长。台积电Capex 超预期增长，侧面印证了全球AI算力需求仍处于上升期，推动半导体设备需求快速增长。全球芯片技术突破与存储涨价趋势延续，国内算力基础设施短缺且国产化有望加快，头部厂商 tokens消耗非线性增长。推荐：港股互联网/电子半导体/通信/军工，及具备全球竞争优势的制造业出海：电力设备/机械
+设备/汽车及零部件。2）非银金融：受益居民存款搬家与财富管理需求增长，资本市场改革提振风偏，推荐保险/券商。3）顺周期。估值与持仓处于低位，景气底部边际改善，受益扩内需政策部署，推荐：食品/零售/旅游服务/酒店。周期看好供需偏紧的涨价品种：有色/化工。
+主题推荐：1.国产算力:国内大模型产品加速迭代拉动资本开支，看好国产芯片/AIDC/电力设备。2.新型电网:国家电网十五五规划投资超预期，看好特高压/新型储能/智能电网。3.机器人:中国机器人密集亮相 CES2026，多领域应用场景落地，看好本体厂商与灵巧手/丝杠等关键部件。4.内需消费:国常会提出加快培育服务消费，看好旅游/酒店/航空等。
+# 1.3. 债券市场展望
+根据国泰海通债券研究团队在 2026年2月1日发布的《跨春节展望：供需主逻辑，何时避“长”锋》中的观点，“非典型”的超长供需紧平衡下，关注 2月超长地方债发行放量。
+30-10Y利差走阔的根源在于超长债供需“紧平衡”始终没有得到根本性的缓解。从 2026 年初银行配债的行为来看，二级市场大型银行（国有大行+股份行）持续买入长债，配置力量明显强于市场预期以及季节性，但超长债买入不稳定，或也揭示了超长债供需“非典型”错位的一些特征：现阶段银行体系（尤其大行）或“不缺钱”，但大概率依然“缺久期指标”，与 2025年一季度央行缩减投放、银行间资金大幅收紧的情况有明显不同。在政府债供给逐年加量，特别是超长期限地方债大幅提升的背景下，缺“利率风险指标”或者“久期指标”已经成为超长债定价在中长期的核心矛盾，且这种矛盾“精准”扰动超长端，对长端及更短的期限影响较小。
+我们认为在上半年，这种由于利率风险指标不足导致的供需错位是债市波动的主逻辑，那么判断何时政府债超长债发行超预期放量 $^ +$ 债市配置需求缩减就十分重要。在 2 月，关于政府债供需的交易对债市可能会由支撑转向扰动。一是发行期限缩短被证伪，年初市场一度对地方债发行期限缩短有较强期待：但从少部分披露发行期限的区域（如浙江、广西、北京等）的发行计划看，超长期限并未缺席，对地方债发行期限缩短的交易已经被阶段性证伪。二是计划发行量大幅提升，在 1月中旬统计的一季度发行计划中，1月和3月的地方债发行规模都在 8,000亿以上，2月不到 4,500亿，明显偏低。但从最近更新的地方债计划来看，2 月发行规模翻倍至近 9,900 亿（DM口径），反而要高于1月和3月。
+具体到春节前后比较看，春节假期前超长债的压力还较为可控，持券过节的配置需求会有一定支撑，但假期后 2 月末至 3 月初地方债供给对债市的扰动或会加剧。从近期地方债一级实际发行的特征来看，10 年以上地方债定价中市场化的特征更加明显，过去一周内30年地方债一级发行利率在国债上的加点幅度已经相较月中有小幅提升。后续要警惕超长地方债一级“发飞”对超长国债的压制，另外，一级接地方债+二级空 30 年国债可能会带来额外的扰动力量。
+故在“缺久期指标”这一中长期核心矛盾未得到解决之前，30 年国债对一级扰动的防御力偏弱，择时角度看，在供需紧平衡的状态中，一级供给越集中，超长债定价越承压。春节假期前超长债的压力还较为可控，因为持券过节的配置需求会有一定支撑，但春节后 2 月末至 3 月初地方债供给对债市的扰动或会加剧。我们建议投资者年前保持稳健积极的思路，适度规避超长期限品种，将重心放在中短端，高票息、低弹性、低流动性的品种都可考虑适度参与，年后 2 月最后一周则建议多持一份谨慎。与其在波动加剧的节点“逆流而上”，不如暂避“长”锋，静待供需矛盾充分释放后的更优配置时点。
+# 2. 基金月度动态
+# 2.1. 基金测算仓位变化
+我们采用最优化的方式，将不同市场指数作为回归变量，分别对市场上全部成立一年以上的主动股混基金和偏债基金进行了仓位测算（测算模型见附录），并按照最新报告期的基金规模进行仓位的加权合并。
+主动股混基金和偏债基金权益仓位继续上升。根据基金仓位测算结果，从权益和固收资产占比来看，主动股混基金方面，2025 年下半年以来权益仓位保持稳定的小幅上涨态势，目前权益仓位的变化趋势仍然保持向上。偏债基金方面，权益仓位近 3个月以来持续提升，目前权益仓位已回升至近 1年的相对高位水平。整体来看，我们认为当前公募权益基金基本保持稳健的权益仓位配置模式，未来随着 A 股市场持续修复，公募权益类基金权益仓位仍有上升空间，下降空间则较为有限。
+图1：主动股混基金近 1 年月度权益测算仓位变化情况  
+![](images/e3a477e2b0912d54148418e7b899f19fd13ca20ee0bf119fd9685b1614f115d9.jpg)  
+数据来源：Wind，国泰海通证券研究  
+注 1：数据时间为 2025/1/27-2026/1/30；  
+注 2：主动股混基金中剔除历史持仓中单期港股个数大于过五只的基金，偏债基金为国泰海通 3级分类中的偏债混合型和偏债债券型基金，下同；  
+注 3：仓位测算结果只是模拟结果，并非市场真实情况，配置比例变动同样与权益资产涨跌有关，不作为投资意见。
+图3：主动股混基金 2023 年以来权益固收测算仓位变化情况  
+![](images/e05b22530e77d7bea5727ee14755143a95899f8263daa1f39ef277ab501d453f.jpg)  
+数据来源：Wind，国泰海通证券研究  
+注：数据时间为 2023/1/3-2026/1/30。
+图2：偏债基金近 1 年月度权益固收测算仓位变化情况  
+![](images/4182f9f040ced6887ca77c8a4f5bba9148b37f5363d43537e51fed24d6ef5e34.jpg)  
+数据来源：Wind，国泰海通证券研究  
+注：数据时间为 2025/1/27-2026/1/30。
+图4：偏债基金 2023 年以来权益固收测算仓位变化情况  
+![](images/81ab1c2c13e78c10cebe6b0ec48bb3453a53205899b947a4d41adb3fa279451b.jpg)  
+数据来源：Wind，国泰海通证券研究  
+注：数据时间为 2023/1/3-2026/1/30。
+主动股混基金大盘成长风格资产占比高点回落，小盘成长风格资产占比回升，偏债基金中盘成长风格资产占比继续提升。根据基金仓位测算结果，主动股混基金方面，大盘成长和小盘成长风格资产仍然为主动股混基金的主要配置方向，但近 1 个月以来大盘成长风格资产占比在高位快速回落，小盘成长风格资产占比则相应回升，目前两类资产占比回归高位均衡状态，此
+外其他各风格资产占比则保持在低位稳定水平，整体来看，目前成长风格资产依然是主动股混基金最为主要的配置方向。偏债基金方面，近 1 个月以来大盘成长风格资产占比同样出现快速回落，中盘成长风格资产占比则相应提升，目前此类基金对于风格资产的偏好主要以小盘成长风格资产为主，其他风格资产的占比则处于相对均衡布局的状态。
+图5：主动股混基金近 1 年月度风格资产测算仓位变化情况  
+![](images/a3a65c24abc913b9557b07dcba37c5c44e021e8b92d3920469adafd0f4df264e.jpg)  
+数据来源：Wind，国泰海通证券研究注：数据时间为 2025/1/27-2026/1/30。
+图6：偏债基金近 1 年月度风格资产测算仓位变化情况  
+![](images/32ed95d95fe312f5d199e9cd7ca04fdf963c092dde4d85f1bbc93c902b978403.jpg)  
+数据来源：Wind，国泰海通证券研究注：数据时间为 2025/1/27-2026/1/30。
+图7：主动股混基金 2023 年以来风格资产测算仓位变化情况  
+![](images/6e64e44a2926b7f3cb61936a0a55e2db92f1fc8ab2013fd330475d4709aa0d63.jpg)  
+数据来源：Wind，国泰海通证券研究注：数据时间为 2023/1/3-2026/1/30。
+图8：偏债基金 2023 年以来风格资产测算仓位变化情况  
+![](images/fb757feb323431ce2baf3a253001d23af7c6459fb8ddf3461f68ef6e63482c8f.jpg)  
+数据来源：Wind，国泰海通证券研究注：数据时间为 2023/1/3-2026/1/30。
+主动股混基金和偏债基金上游周期板块占比快速提升，大消费和中游制造板块占比相应回落。根据基金仓位测算结果，从板块配置情况来看，主动股混基金方面，目前在TMT板块上的配置占比依然相对更高，特别是在 2025年以来科技行业景气度急速上行的状态下，主动股混基金在TMT 板块上呈现出极致抱团状态，此外近 1 个月以来在贵金属价格大幅上涨的带动下，上游周期板块占比有明显提升，而中游制造和大消费板块占比则相应出现回落，医药和大金融板块则继续保持在相对低位的稳定水平。偏债基金方面，近 1 个月以来上游周期板块仓位同样快速提升，各板块的配置占比开始出现分化，但相对而言此类基金仍然保持对上游周期、中游制造、TMT 和大消费板块的整体配置偏好，对医药和大金融板块的配置占比则仍然维持在历史低位水平。
+图9：主动股混基金近 1 年月度板块测算仓位变化情况  
+![](images/025e8fab54877ed04c6228041c7bd3bcd0b90b5a49cf986f0428992bc1ec65df.jpg)  
+数据来源：Wind，国泰海通证券研究  
+注：数据时间为 2025/1/27-2026/1/30。
+图11：主动股混基金 2023 年以来板块测算仓位变化情况  
+![](images/5d30c2b459f449641988fb4503998d65b6c099f0f63af1cb138f7629558a4dba.jpg)  
+数据来源：Wind，国泰海通证券研究  
+注：数据时间为 2023/1/3-2026/1/30。
+图10：偏债基金近 1 年月度板块测算仓位变化情况  
+![](images/e3c682bfa5cce1a1ebe6cfcd8a0a94f12177236e7a07258e6b178cb3efd3c0a7.jpg)  
+数据来源：Wind，国泰海通证券研究  
+注：数据时间为 2025/1/27-2026/1/30。
+图12：偏债基金 2023 年以来板块测算仓位变化情况  
+![](images/4a03cc956d7d8d72ccb9b8415de6d19c264835e9c4aed3cbfa188d2e77ccb0ef.jpg)  
+数据来源：Wind，国泰海通证券研究  
+注：数据时间为 2023/1/3-2026/1/30。
+# 2.2. 风格基金业绩
+2026年 1月份，从风格基金的业绩表现来看，各风格基金均获得了正向的平均收益表现。单风格基金中，成长风格基金的业绩表现依然领先于均衡和价值风格基金，相应地偏向成长风格的 TMT 和中游制造板块风格基金业绩表现在市场保持慢牛的背景下上涨幅度会更大，而金融地产和大消费板块风格基金的上涨幅度则相对较小，此外 1 月份港股市场开始反弹，全月港股基金的业绩表现强于价值和均衡风格基金。复合风格基金方面，1月份中游制造复合风格基金的涨幅排名靠前，大消费复合风格基金业绩在 1月份的业绩表现则排名靠后。
+单风格基金方面，A 股市场 1 月继续保持上涨态势，成长风格资产业绩表现领先，成长风格基金的平均收益分别为 $9 . 0 7 \%$ ，显著好于价值和均衡风格基金 $6 . 0 8 \%$ 和 $5 . 6 0 \%$ 的平均收益表现。板块风格基金方面，1月份在科技成长主线上不同市场热点相继发酵的带动下，TMT 和中游制造板块基金的业绩表现相对靠前，平均收益分别为 $9 . 1 6 \%$ 和 $8 . 2 9 \%$ ，上游周期板块基金表现同样出色，平均收益为 $7 . 6 7 \%$ ，而金融地产和大消费板块基金的业绩表现则相对靠后，平均收益分别仅为 $5 . 3 5 \%$ 和 $5 . 1 2 \%$ 。此外，1月份港股市场整体走出反弹行情，全月港股基金获得了 $7 . 1 9 \%$ 的平均收益，表现强于价值和均衡风格基金。
+复合风格基金方面，1 月份中游制造复合风格基金的涨幅排名靠前，各类中游制造复合风格基金的平均收益均在 $9 \%$ 左右，而大消费复合风格基金的业绩则同样相对较弱。
+图13：单风格基金2026年 1月平均收益  
+![](images/1da8018d53d35a334eaa946fea7377a61fc57fd42a0b0f46592898f2cc935f99.jpg)  
+数据来源：Wind，国泰海通证券研究  
+注 1：各风格基金为过去一年在各风格市场收益前 $30 \%$ 的基金；港股基金为国泰海通评级中的港股基金，下同；  
+注 2：数据时间为 2026/1/1-2026/1/30。
+图14：复合风格基金 2026年 1月平均收益  
+![](images/c6da01e096525622dcb7b8e244b95f46837b36ff28584fc9d329f14795c04db1.jpg)  
+数据来源：Wind，国泰海通证券研究  
+注：各复合风格基金为过去一年在两个风格市场收益均在前 $30 \%$ 的基金，下同；  
+注 2：数据时间为 2026/1/1-2026/1/30。
+# 2.3. 新发基金概况
+2026 年 1 月共有 123 只新基金成立，从数量上来看，1 月新发基金数量多于 2019 年以来的同期平均水平，从规模上来看，1 月新发基金总募集规模为1202.11亿元，为近4 年以来的同期最高水平，而平均募集规模则为 9.77亿元，高于近 1 年以来的平均水平。整体来看，在 A 股市场业绩回升的大背景下，目前新发基金的市场认购热度仍然处于近年来的相对高位水平，从历史同期来看新发产品数量仅不及 2022年的同期水平，平均认购规模出现显著提升。2025 年以来公募主动权益基金的整体业绩水平已明显回暖，我们认为在 A 股市场有望迎来持续修复的背景下，公募基金新发市场仍有回暖空间。
+图15：2025年 2月至2026年 1月公募基金月度发行规模  
+![](images/c569a91ef847727de3b100b5b3665ea81d0b7ed5fb7acd009d0a0d432561e522.jpg)  
+数据来源：Wind，国泰海通证券研究
+从基金类型来看，2026 年1月权益型基金的发行规模为 812.43亿元，发行规模占比为 $6 7 . 6 \%$ ，仍然是新发基金市场的主要对象，相比其他基金类型，投资者对于此类基金的认购热情在 A 股赚钱效应提升的带动下继续保持。1月新发债券型基金发行规模则为 152.64亿元，发行规模占比为 $1 2 . 7 \%$ ，此类基金的市场认购规模占比达到了 2022年2月以来的最低水平。而在国内其他类型基金方面，1月共有 12只 FOF产品发行，且发行规模较大，受此带动 1月FOF产品的发行规模占比达到 $1 6 . 5 9 \%$ 。此外，1月还有3只QDII股混型基金发行。
+图16：各类型新发基金规模占比（2024 年 2 月-2026 年 1 月）  
+![](images/688401071ec8b0abafeaa075583b3602fe014151f557d95bb300fd9d11958bb3.jpg)  
+数据来源：Wind，国泰海通证券研究
+2026年 1月发行规模排名靠前的 10只主动管理型基金中，共有 7只强股混合型基金，其中广发研究智选和华宝优势产业的发行规模分别为 72.21亿元和 57.77 亿元，是 1 月发行规模最大的主动管理型基金。除股混型基金外，发行规模排名靠前的 10 只主动管理型基金中，还有 3 只 FOF 产品，2025年以来，公募FOF产品布局速度有明显提升，1月份新发 FOF产品数量达到12只，目前公募FOF更为吸引风险偏好较低的投资者，新发产品中规模较大的FOF同样以普通 FOF低仓位产品为主，其中工银盈泰稳健6个月持有的发行规模达到 45.81 亿元，是 1 月新发规模最大的 FOF 产品，富国智汇稳健3个月持有的发行规模同样超过了40亿元。
+表1：2026 年 1 月发行规模前 10 的主动管理基金  
+&lt;table&gt;&lt;tr&gt;&lt;td&gt;基金代码&lt;/td&gt;&lt;td&gt;基金名称&lt;/td&gt;&lt;td&gt;发行规模(亿元)&lt;/td&gt;&lt;td&gt;基金成立日&lt;/td&gt;&lt;td&gt;基金类型&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;026072.OF&lt;/td&gt;&lt;td&gt;广发研究智选A&lt;/td&gt;&lt;td&gt;72.21&lt;/td&gt;&lt;td&gt;2026/1/20&lt;/td&gt;&lt;td&gt;强股混合型&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;026286.OF&lt;/td&gt;&lt;td&gt;华宝优势产业A&lt;/td&gt;&lt;td&gt;57.77&lt;/td&gt;&lt;td&gt;2026/1/27&lt;/td&gt;&lt;td&gt;强股混合型&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;026104.OF&lt;/td&gt;&lt;td&gt;工银盈泰稳健6个月持有&lt;/td&gt;&lt;td&gt;45.81&lt;/td&gt;&lt;td&gt;2026/1/30&lt;/td&gt;&lt;td&gt;普通FOF低仓位&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;026448.OF&lt;/td&gt;&lt;td&gt;大摩沪港深科技A&lt;/td&gt;&lt;td&gt;44.24&lt;/td&gt;&lt;td&gt;2026/1/27&lt;/td&gt;&lt;td&gt;强股混合型&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;026564.OF&lt;/td&gt;&lt;td&gt;富国智汇稳健3个月持有A&lt;/td&gt;&lt;td&gt;41.90&lt;/td&gt;&lt;td&gt;2026/1/23&lt;/td&gt;&lt;td&gt;普通FOF低仓位&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;026378.OF&lt;/td&gt;&lt;td&gt;广发成长回报A&lt;/td&gt;&lt;td&gt;36.31&lt;/td&gt;&lt;td&gt;2026/1/27&lt;/td&gt;&lt;td&gt;强股混合型&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;025920.OF&lt;/td&gt;&lt;td&gt;易方达平衡精选&lt;/td&gt;&lt;td&gt;34.08&lt;/td&gt;&lt;td&gt;2026/1/16&lt;/td&gt;&lt;td&gt;强股混合型&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;026115.OF&lt;/td&gt;&lt;td&gt;广发悦盈稳健三个月持有A&lt;/td&gt;&lt;td&gt;32.88&lt;/td&gt;&lt;td&gt;2026/1/8&lt;/td&gt;&lt;td&gt;普通FOF低仓位&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;025874.OF&lt;/td&gt;&lt;td&gt;博道盛享品质成长&lt;/td&gt;&lt;td&gt;27.73&lt;/td&gt;&lt;td&gt;2026/1/22&lt;/td&gt;&lt;td&gt;强股混合型&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;025880.OF&lt;/td&gt;&lt;td&gt;汇添富科技领先A&lt;/td&gt;&lt;td&gt;27.04&lt;/td&gt;&lt;td&gt;2026/1/20&lt;/td&gt;&lt;td&gt;强股混合型&lt;/td&gt;&lt;/tr&gt;&lt;/table&gt;
+数据来源：Wind，国泰海通证券研究
+2026年 1月发行规模排名靠前的 10只被动管理型基金中，仅有排名第1的富达中债高等级科创及绿债为债券指数型产品，该产品跟踪指数的成分券为科技创新主题债券和绿色债券这两类市场关注度较高的债券品种的组合，因此发售后受到投资者的较高关注，发行规模达到40 亿元。其余 9只发行规模排名靠前的被动产品则均为股票指数型产品，主要以增强股票指数型产品以及各类赛道主题型产品为主，其中易方达中证 800 增强和融通上证科创板综合指数增强这两只增强股票指数型产品的发型规模相对较大，分别为 21.50 亿元和 19.88 亿元。
+表2：2026 年 1 月发行规模前 10 的被动管理基金  
+&lt;table&gt;&lt;tr&gt;&lt;td&gt;基金代码&lt;/td&gt;&lt;td&gt;基金名称&lt;/td&gt;&lt;td&gt;发行规模(亿元)&lt;/td&gt;&lt;td&gt;基金成立日&lt;/td&gt;&lt;td&gt;基金类型&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;025707.OF&lt;/td&gt;&lt;td&gt;富达中债高等级科创及绿债A&lt;/td&gt;&lt;td&gt;40.00&lt;/td&gt;&lt;td&gt;2026/1/15&lt;/td&gt;&lt;td&gt;复制债券指数型&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;026359.OF&lt;/td&gt;&lt;td&gt;易方达中证800增强A&lt;/td&gt;&lt;td&gt;21.50&lt;/td&gt;&lt;td&gt;2026/1/15&lt;/td&gt;&lt;td&gt;增强股票指数型&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;026001.OF&lt;/td&gt;&lt;td&gt;融通上证科创板综合指数增强A&lt;/td&gt;&lt;td&gt;19.88&lt;/td&gt;&lt;td&gt;2026/1/19&lt;/td&gt;&lt;td&gt;增强股票指数型&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;159158.SZ&lt;/td&gt;&lt;td&gt;景顺长城中证全指电力公用事业ETF&lt;/td&gt;&lt;td&gt;16.67&lt;/td&gt;&lt;td&gt;2026/1/16&lt;/td&gt;&lt;td&gt;股票ETF&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;560710.OF&lt;/td&gt;&lt;td&gt;富国中证智选船舶产业ETF&lt;/td&gt;&lt;td&gt;14.88&lt;/td&gt;&lt;td&gt;2026/1/28&lt;/td&gt;&lt;td&gt;股票ETF&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;025315.OF&lt;/td&gt;&lt;td&gt;摩根上证科创板新一代信息技术ETF联接A&lt;/td&gt;&lt;td&gt;14.68&lt;/td&gt;&lt;td&gt;2026/1/27&lt;/td&gt;&lt;td&gt;股票ETF联接&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;026175.OF&lt;/td&gt;&lt;td&gt;路博迈中证A股指数增强A&lt;/td&gt;&lt;td&gt;12.62&lt;/td&gt;&lt;td&gt;2026/1/13&lt;/td&gt;&lt;td&gt;增强股票指数型&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;159157.OF&lt;/td&gt;&lt;td&gt;天弘中证工业有色金属主题ETF&lt;/td&gt;&lt;td&gt;10.74&lt;/td&gt;&lt;td&gt;2026/1/28&lt;/td&gt;&lt;td&gt;股票ETF&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;159152.SZ&lt;/td&gt;&lt;td&gt;平安恒生港股通科技主题ETF&lt;/td&gt;&lt;td&gt;9.26&lt;/td&gt;&lt;td&gt;2026/1/21&lt;/td&gt;&lt;td&gt;港股ETF&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;026206.OF&lt;/td&gt;&lt;td&gt;宝盈恒生科技指数A&lt;/td&gt;&lt;td&gt;8.70&lt;/td&gt;&lt;td&gt;2026/1/16&lt;/td&gt;&lt;td&gt;QDII复制股票指数型&lt;/td&gt;&lt;/tr&gt;&lt;/table&gt;
+数据来源：Wind，国泰海通证券研究
+# 3. 基金投资策略
+股混基金：1月份，制造业PMI为 $4 9 . 3 \%$ ，比上月下降 0.8个百分点，不及近年同期平均水平，降幅强于季节性。2026 年开年以来，上证指数连续站上4000点与 4100点，走势强劲。自2025年以来中国社会对外更自信、对内更稳定、资产负债表逐步企稳，因此资本市场具备了过去所没有的凝聚社会共识和社会资本的能力，往后看，随着中国经济的逐步企稳，社会资产管理需求的出现，科技与非科技都有机会，细分龙头与权重股价将出现改观。从基金投资的角度来看，在成长主线下，价值和成长风格中均具备结构性投资机会的市场格局或将延续，因此我们建议后续基金配置在整体维持均衡风格的前提下，适度偏向成长，并且关注基金经理的选股和风控能力，重视主投科技和周期领域基金，兼顾金融等资产。在基金品种的选择上，价值风格关注南方品质优选；成长风格关注易方达环保主题、宏利睿智稳健；均衡灵活品种关注博道惠泰优选、广发多因子；主题型基金关注国泰消费优选、华泰保兴成长优选、景顺长城品质长青、宝盈转型动力；港股基金可以关注富国港股通策略精选。
+指数主题基金：我们从基本面景气度、超预期水平、量价水平和资金流强度四个维度出发，构建行业轮动模型，旨在于每个月末，以较高胜率筛选出未来具备超额收益潜力的行业，构建高景气度行业组合，进而实现相对中证800 指数的超额收益。行业轮动模型 2 月最新高景气度行业分别为基础化工、建筑材料、环保、石油石化、通信和钢铁，结合 ETF 产品的流动性和相关性，我们构建的 ETF行业轮动投资组合为鹏华中证细分化工主题ETF、国泰中证全指建筑材料 ETF、广发中证环保产业 ETF、国泰中证油气产业ETF、华夏中证5G通信主题 ETF和国泰中证钢铁 ETF。
+债券基金：国泰海通固收团队认为，建议投资者年前保持稳健积极的思路，适度规避超长期限品种，将重心放在中短端，高票息、低弹性、低流动性的品种都可考虑适度参与，年后 2 月最后一周则建议多持一份谨慎，与其在波动加剧的节点“逆流而上”，不如暂避“长”锋，静待供需矛盾充分释放后的更优配置时点。从基金投资角度来看，建议关注久期灵活的利率债和重配高流动性信用债的产品。此外，随着权益市场回暖，我们认为固收 $^ +$ 基金同样具备一定配置价值，建议持续关注。品种选择上，关注博时富腾纯债、富国天利增长债券、景顺长城景颐尊利。
+QDII和商品型基金：首先，全球地缘政治局势的不确定性上升以及各国央行持续购金有利于支撑长期金价中枢，虽然投机性交易资金的流入阶段性抬升了黄金波动中枢，在特朗普政府施行霸权主义，并进一步削弱美国国际信誉的背景下，黄金价格仍然具有较强的韧性，因此，从长期投资和避险投
+资的角度来看，我们认为可适当配置黄金 ETF，但趋势配置者短期需要谨慎。其次，美国经济韧性较强，内生性通胀粘性逐渐减弱，投资者仍重视 AI产业趋势的发展，市场风险偏好温和上行，“金发姑娘”背景渐显，企业盈利预期或仍支撑美股中枢上行，因此，从大类资产配置的角度来看，我们认为美股阶段性具备较高的风险回报比与战术性配置价值。品种选择上，可以关注易方达黄金ETF、华安易富黄金ETF、广发纳斯达克 100ETF。
+# 4. 本期组合大类资产配置
+我们对积极型、稳健型以及保守型三类不同风险承受能力的投资者给予资产配置比例的建议。我们给予这三类投资者在权益类基金（包含股票、混合型基金以及交易型基金）一个配置比例区间，分别为积极型配置区间 60-$100 \%$ ；稳健性 $30 \%$ ，保守型 $10 \%$ ，权益类资产均衡配置比例分别是$80 \%$ 、 $5 5 \%$ 和 $2 5 \%$ 。当我们判断市场上涨概率较大时，我们会在权益类基金上配置较高的比例，反之则降低比例。
+目前来看，当前 A 股估值、情绪等指标依然处于历史低位。当前国内经济基本面已在修复趋势中，后续重要会议政策落地有望缓解市场担忧，资产配置比例可以逐渐向积极型的权益类基金比例方面过渡。
+积极型投资者：配置 $70 \%$ 的权益类基金、 $20 \%$ 的债券基金和 $10 \%$ 的货币市场基金。其中权益类基金是国内主动型股票混合型基金（ $5 5 \%$ ）、QDII 基金（ $10 \%$ ）以及商品型基金（ $5 \%$ ）。
+稳健型投资者：配置 $45 \%$ 的权益类基金、 $2 5 \%$ 的债券基金和 $30 \%$ 的货币市场基金。其中权益类基金是国内主动型股票混合型基金（ $30 \%$ ）、QDII 基金（ $10 \%$ ）和商品型基金（ $5 \%$ ）。
+保守型投资者：配置 $20 \%$ 的权益类基金、 $40 \%$ 的债券基金、 $40 \%$ 货币市场基金。其中权益类基金包括 $10 \%$ 的主动型股票混合型基金、 $5 \%$ 的 QDII 基金和 $5 \%$ 的商品型基金。
+图17：积极型投资者配置组合  
+![](images/b758c82882958cc9663959dc8abb93057c43dbbd4bf6787092c28f4f18372851.jpg)  
+数据来源：国泰海通证券研究
+图18：稳健型投资者配置组合  
+![](images/adbce97b9be1cd4da785b86d59464e89fc5d7a994395833ac6bbfe223146ca98.jpg)  
+数据来源：国泰海通证券研究
+图19：保守型投资者配置组合  
+![](images/5c8ef16b223901a56cb9062da433b48834803dd26bbf59f1dd1e8958acbde76e.jpg)  
+数据来源：国泰海通证券研究
+# 5. 附录
+#  各类基金的权益资产上下限
+主动股混基金：
+主动股票开放型： $0 . 8 { \sim } 1$ ；强股混合型、科创强股混合型：0.6~0.95；灵活混合型、偏股混合型、灵活策略混合型、平衡混合型：0~0.95；
+偏债基金：
+偏债混合型：0~0.65；偏债债券型：0~0.2。
+主动固收基金：
+纯债债券封闭型：0~0.2；纯债债券型：0~0.2；可转债债券型：0~0.2；准债债券封闭型：0~0.2；准债债券型：0~0.2。
+#  权益资产仓位测算模型
+在每个交易日，用基金过去60个交易日复权单位净值计算得到的日收益率，同中债国债总财富、沪深 300、中证 500 和中证 1000 指数的日收益率，用如下模型进行最优化求解：
+$$
+\begin{array}{l} \min \frac {1}{2} W ^ {T} X ^ {T} X W - W ^ {T} X ^ {T} Y \\ s. t. \left\{ \begin{array}{c} w _ {1}, w _ {2}, w _ {3}, w _ {4} \geq 0 \\ w _ {1}, w _ {2}, w _ {3}, w _ {4} \leq 1 \\ w _ {2} + w _ {3} + w _ {4} \leq u p \_ w e i g h t \\ w _ {2} + w _ {3} + w _ {4} \geq d o w n \_ w e i g h t \\ w _ {1} + w _ {2} + w _ {3} + w _ {4} = 1 \end{array} \right. \\ \end{array}
+$$
+其中， $W = ( w _ { 1 } , w _ { 2 } , w _ { 3 } , w _ { 4 } ) ^ { T }$ ， $w _ { 1 }$ 为中债国债总财富指数的权重， $w _ { 2 }$ 为沪深300 指数的权重， $w _ { 3 }$ 为中证 500 指数的权重， $w _ { 4 }$ 为中证 1000 指数的权重，$X = ( x _ { 1 } , x _ { 2 } , x _ { 3 } , x _ { 4 } ) ^ { T } , x _ { 1 } , x _ { 2 } , x _ { 3 } , x _ { 4 }$ $x _ { 1 } , x _ { 2 } , x _ { 3 } , x _ { 4 }$ 分别为经过半衰期处理的中债国债总财富、沪深 300、中证500和中证 1000指数的日收益率，??为经过半衰期处理的基金日收益率，????_????????ℎ??为基金权益资产上限，????????_????????ℎ??为基金权益资产下限。
+#  风格资产仓位测算模型
+在每个交易日，用基金过去60个交易日复权单位净值计算得到的日收益率，
+同中债国债总财富、大盘成长、大盘价值、中盘成长、中盘价值、小盘成长和小盘价值指数的日收益率，用前文模型进行最优化求解。
+其中，??中的元素分别为中债国债总财富、大盘成长、大盘价值、中盘成长、中盘价值、小盘成长和小盘价值指数的权重，??中的元素分别为经过半衰期处理的中债国债总财富、大盘成长、大盘价值、中盘成长、中盘价值、小盘成长和小盘价值指数的日收益率，??为经过半衰期处理的基金日收益率，????_????????ℎ??为基金权益资产上限，????????_????????ℎ??为基金权益资产下限。
+#  板块资产仓位测算模型
+在每个交易日，用基金过去60个交易日复权单位净值计算得到的日收益率，同中债国债总财富、31 个申万行业一级指数的日收益率，用前文模型进行最优化求解。
+其中，??中的元素分别为中债国债总财富指数和31个申万行业一级指数的权重，??中的元素分别为经过半衰期处理的中债国债总财富指数和 31 个申万行业一级指数的日收益率，??为经过半衰期处理的基金日收益率，????_????????ℎ??为基金权益资产上限，????????_????????ℎ??为基金权益资产下限。
+# 6. 风险提示
+基本面变化、货币政策和证券市场相关政策的不确定性、资金面大幅波动、国内改革推进力度、全球地缘政治的不确定性。
+# 本公司具有中国证监会核准的证券投资咨询业务资格
+# 分析师声明
+作者具有中国证券业协会授予的证券投资咨询执业资格或相当的专业胜任能力，保证报告所采用的数据均来自合规渠道，分析逻辑基于作者的职业理解，本报告清晰准确地反映了作者的研究观点，力求独立、客观和公正，结论不受任何第三方的授意或影响，特此声明。
+# 免责声明
+本报告仅供国泰海通证券股份有限公司（以下简称“本公司”）的客户使用。本公司不会因接收人收到本报告而视其为本公司的当然客户。本报告仅在相关法律许可的情况下发放，并仅为提供信息而发放，概不构成任何广告。
+本报告的信息来源于已公开的资料，本公司对该等信息的准确性、完整性或可靠性不作任何保证。本报告所载的资料、意见及推测仅反映本公司于发布本报告当日的判断，本报告所指的证券或投资标的的价格、价值及投资收入可升可跌。过往表现不应作为日后的表现依据。在不同时期，本公司可发出与本报告所载资料、意见及推测不一致的报告。本公司不保证本报告所含信息保持在最新状态。同时，本公司对本报告所含信息可在不发出通知的情形下做出修改，投资者应当自行关注相应的更新或修改。
+本报告中所指的投资及服务可能不适合个别客户，不构成客户私人咨询建议。在任何情况下，本报告中的信息或所表述的意见均不构成对任何人的投资建议。在任何情况下，本公司、本公司员工或者关联机构不承诺投资者一定获利，不与投资者分享投资收益，也不对任何人因使用本报告中的任何内容所引致的任何损失负任何责任。投资者务必注意，其据此做出的任何投资决策与本公司、本公司员工或者关联机构无关。
+本公司利用信息隔离墙控制内部一个或多个领域、部门或关联机构之间的信息流动。因此，投资者应注意，在法律许可的情况下，本公司及其所属关联机构可能会持有报告中提到的公司所发行的证券或期权并进行证券或期权交易，也可能为这些公司提供或者争取提供投资银行、财务顾问或者金融产品等相关服务。在法律许可的情况下，本公司的员工可能担任本报告所提到的公司的董事。
+市场有风险，投资需谨慎。投资者不应将本报告作为作出投资决策的唯一参考因素，亦不应认为本报告可以取代自己的判断。在决定投资前，如有需要，投资者务必向专业人士咨询并谨慎决策。
+本报告版权仅为本公司所有，未经书面许可，任何机构和个人不得以任何形式翻版、复制、发表或引用。如征得本公司同意进行引用、刊发的，需在允许的范围内使用，并注明出处为“国泰海通证券研究”，且不得对本报告进行任何有悖原意的引用、删节和修改。
+若本公司以外的其他机构（以下简称“该机构”）发送本报告，则由该机构独自为此发送行为负责。通过此途径获得本报告的投资者应自行联系该机构以要求获悉更详细信息或进而交易本报告中提及的证券。本报告不构成本公司向该机构之客户提供的投资建议，本公司、本公司员工或者关联机构亦不为该机构之客户因使用本报告或报告所载内容引起的任何损失承担任何责任。
+# 评级说明
+# 投资建议的比较标准
+投资评级分为股票评级和行业评级。
+以报告发布后的 12个月内的市场表现为比较标准，报告发布日后的 12个月内的公司股价（或行业指数）的涨跌幅相对同期的沪深 300指数涨跌幅为基准。
+&lt;table&gt;&lt;tr&gt;&lt;td&gt;&lt;/td&gt;&lt;td&gt;评级&lt;/td&gt;&lt;td&gt;说明&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td rowspan="4"&gt;股票投资评级&lt;/td&gt;&lt;td&gt;增持&lt;/td&gt;&lt;td&gt;相对沪深300指数涨幅15%以上&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;谨慎增持&lt;/td&gt;&lt;td&gt;相对沪深300指数涨幅介于5%~15%之间&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;中性&lt;/td&gt;&lt;td&gt;相对沪深300指数涨幅介于-5%~5%&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;减持&lt;/td&gt;&lt;td&gt;相对沪深300指数下跌5%以上&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td rowspan="3"&gt;行业投资评级&lt;/td&gt;&lt;td&gt;增持&lt;/td&gt;&lt;td&gt;明显强于沪深300指数&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;中性&lt;/td&gt;&lt;td&gt;基本与沪深300指数持平&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;减持&lt;/td&gt;&lt;td&gt;明显弱于沪深300指数&lt;/td&gt;&lt;/tr&gt;&lt;/table&gt;
+# 国泰海通证券研究所
+地址
+上海市黄浦区中山南路 888 号
+邮编
+200011
+电话
+（021）38676666</t>
+  </si>
+  <si>
+    <t># 策略深度报告 20260204
+# 主动权益篇：坚守与破局—— 2025 公募基金洞察系列
+# 市场概览与展望：2026 年规模份额双增可期
+2025年，主动权益基金呈现规模增长、份额下降的格局。份额缩水，核心源于负债端赎回压力的高企。规模增长，主要依托两大支撑：一是底层权益资产普涨；二是主动管理创造可观超额收益，Wind 偏股混合型基金指数全年涨幅达 33.2%，相较上证指数、沪深 300等指数具备明显超额。
+2026 年发行回暖、赎回放缓将共同推动主动权益基金份额增长：1）新发层面，当前市场已突破上一轮基金密集发行的成本区间；2）存量产品端，基民赎回力度最大的阶段已过去，2026年主动权益被动减持压力将显著减轻；3）此外，居民资产搬家是不可忽视的趋势力量。
+2026年主动权益有望实现份额与净值的双向共振，推动管理规模增长。就市场β而言，A股具备向好基础，我们预计全年将呈现“前高后稳、结构主导”的走势。同时，机构在权益投资领域积累的专业投研优势，有望在结构性行情中持续转化为超额α，为基金净值与规模扩张提供有力支撑。
+# 管理人维度：压力之下，谁在逆势上行？
+为深入分析行业竞争格局，我们根据基金管理人的管理规模，将其划分为两大核心群体——泛头部领跑机构、腰部中坚力量。
+规模分析：在存量规模庞大、更易受赎回压力影响的背景下，泛头部领跑机构实现规模与份额同步增长的难度大幅提升。2025 年实现“双增” 的仅3 家，分别为永赢基金、平安基金、华泰柏瑞基金。其他泛头部机构虽未实现“双增”，但亦在某一维度展现出不同的经营韧性，如中欧基金、鹏华基金等。腰部中坚力量在2025年实现 “双增”的机构比例更高，共 10家，其中中航、德邦、华富、国金基金的规模与份额均实现了至少翻倍的增长。
+业绩分析：从各管理人旗下主动权益基金 2025 年算术平均回报来看，两大梯队管理人整体业绩水平相近。泛头部领跑机构产品收益中位数为33.3%，永赢基金、易方达基金、平安基金业绩领先；腰部中坚力量为33.4%，中航基金、财通基金、华商基金表现突出。
+# 案例聚焦：
+1）永赢基金——智选破局，科技制胜。永赢基金凭借对科技成长主线的极致聚焦与平台化的产品供给能力，实现了规模与排名的跃升，确立了在科技投资领域的品牌标杆，为策略与产品的多元化延伸积累了强大势能。  
+2）平安基金——体系为基，团队作战。平安基金逆势实现主动权益规模翻倍、且规模份额双增长，同时全市场选股基金、主题策略多赛道业绩“全线发力”，折射出公司体系化、平台化的投研实力与均衡全面成长的发展模式。公司多风格并行的布局模式，所具备的稳健复利特征，在波动加剧的结构性行情中拥有更强的发展韧性。  
+3）中航基金——单品引爆，赛道聚焦。中航基金作为一家于 2016年成立的中小机构，2025年通过 “爆款单品” 精准捕捉核心赛道 α收益，实现跨越式增长，核心竞争力初步显现，但往后看，在当前复杂市场环境下，其后续发展仍面临赛道依赖风险、平台化转型、合规等多重挑战。  
+风险提示：经济增长、政策推进不及预期；地缘政治风险；海外政策不确定性；策略集中与风格切换风险；人才依赖与流动性风险。
+2026 年 02 月 04 日
+证券分析师 陈刚
+执业证书：S0600523040001
+cheng@dwzq.com.cn
+证券分析师 蒋珺逸
+执业证书：S0600525040004
+jiangjy@dwzq.com.cn
+# 相关研究
+《2 月度金股：蓄势再出发》
+2026-02-02
+《腾讯上线“元宝派”，探索社交型智能体》
+2026-02-01
+# 内容目录
+# 1. 市场概览与展望：2026 年规模份额双增可期.
+1.1. 2025年复盘：主动权益份额延续收缩，规模迎来反转.  
+1.2. 2026年展望：份额规模有望双增.
+# 2. 管理人维度：压力之下，谁在逆势上行？
+2.1. 规模分析.. 8  
+2.2. 业绩分析... .10
+2.3. 案例聚焦.
+2.3.1. 永赢基金——智选破局，科技制胜. 11  
+2.3.2. 平安基金——体系为基，团队作战.. 12  
+2.3.3. 中航基金——单品引爆，赛道聚焦. 13
+# 3. 风险提示 ... 14
+# 图表目录
+图 1： 近年来，混合型基金份额持续收缩（单位：亿份）. 4  
+图 2： 2025下半年基金新发回升至 2022年以来高位水平（单位：亿元） 4  
+图 3： 当前市场已突破上一轮基金密集发行的成本区间.  
+图 4： 基金回本前后，净值与单季度申赎份额变化..  
+图 5： 基金回本前后，单季度净值变化.  
+图 6： 今年居民存款将迎来到期高峰（单位：亿元）  
+图 7： 各期限理财产品发行规模（单位：亿元）  
+图 8： 泛头部领跑机构2025 年主动权益基金业绩概览（单位： $\%$ ） .10  
+图 9： 腰部中坚力量 2025 年主动权益基金业绩概览（单位： $\%$ ） 11
+表 1： 泛头部领跑机构2025 年规模与份额变化.. 8  
+表 2： 腰部中坚力量 2025 年规模与份额变化. 9
+# 1. 市场概览与展望：2026 年规模份额双增可期
+# 1.1. 2025 年复盘：主动权益份额延续收缩，规模迎来反转
+2025年全年，主动权益基金呈现规模增长、份额下降的格局。近年来，权益基金份额持续收缩，以混合型基金为例，其份额自2022年初4.2万亿份的高点回落，最新截至2025 年 10 月已降至 2.9 万亿份。2025 年这一收缩节奏并未改变，从基金季报口径看，2025 年末主动偏股基金份额为 2.65 万亿份，较 2024 年末减少 3605 亿份。规模端则迎来反转，主动偏股基金规模结束了 2022 年以来的下行态势，2025 年末达 3.9 万亿元，较 2024 年末增长 5157 亿元。
+主动偏股基金份额缩水，核心源于负债端赎回压力的高企。2025年主动偏股基金份额整体减少 3605亿份，拆分结构来看，新发基金份额为 1500余亿份，全年负债端净赎回 5181 亿份。伴随市场行情回暖，2025 下半年基金新发回升至 2022 年以来高位水平，普通股票型与偏股混合型基金月均新发共计约 200 亿元，大幅高于 2022 年以来 123 亿元的历史均值。但行情走强的同时，也催生了基民的集中赎回：三季度前后市场走强带动大量基金集中回本，对应基民“落袋为安”的赎回行为也在下半年集中释放，H2主动权益净赎回带动的权益资金净流出达 3889 亿元，创下 2016 年以来半年度级别历史新高。
+而规模得以增长，主要依托两大支撑：一是底层权益资产普涨，2025年沪指创出十年新高并顺利突破 4000点整数关口；二是主动管理创造可观超额收益，Wind 偏股混合型基金指数全年涨幅达 $3 3 . 2 \%$ ，相较上证指数（ $1 8 . 4 \%$ ）、沪深 300（ $1 7 . 7 \%$ ）等指数具备明显超额。其中，三季度主动管理优势展现得尤为充分，产品大举加仓TMT，凭借对科技行情的精准把握，Wind偏股混合指数单季大涨 $2 5 . 5 \%$ ，斩获亮眼超额。
+图1：近年来，混合型基金份额持续收缩（单位：亿份）  
+![](images/65ffb8c31198c52667603afdd9f960d62a5307c126a9fa17551d29c4c15e43d1.jpg)  
+数据来源：Wind，东吴证券研究所；最新截至 25/10
+图2：2025 下半年基金新发回升至 2022 年以来高位水平（单位：亿元）  
+![](images/078d3dc0678799e706cd44726c9ab714aed6723094e0f728adabe73f1b919d85.jpg)  
+数据来源：Wind，东吴证券研究所
+# 1.2. 2026 年展望：份额规模有望双增
+# 2026 年发行回暖、赎回放缓将共同推动主动权益基金份额增长：
+新发层面，当前市场已突破上一轮基金密集发行的成本区间。2019-2021 年发行潮对应的Wind偏股混合指数加权成本线约为10900点，截至1月末指数已升至12825点，随着市场进一步上行脱离阻力位，将吸引更多增量资金通过权益基金入市。
+图3：当前市场已突破上一轮基金密集发行的成本区间  
+![](images/72db44683ab4cc2d17e4e3e53d2c40cbdda600c3d4ba2b00408f31c9e6d893a6.jpg)  
+数据来源：Wind，东吴证券研究所；最新数据截至 2026 年 1 月
+存量产品端，基民赎回力度最大的阶段已过去，2026 年主动权益被动减持压力将显著减轻。从投资行为规律看，基民赎回多集中在基金回本当季及次季，且多数倾向于回本后收益未达 $1 0 \% - 1 5 \%$ 时止盈，回报突破 $1 5 \%$ 后赎回压力明显弱化。截至2025年末，仍未回本（即净值 $^ { &lt; 1 }$ ）的主动权益基金规模约为 5000 亿元，其中半数产品距离回本仍有 $20 \%$ 以上空间，我们预计今年难以再现 2025 年下半年的集中赎回潮，资产端投资操作将更具主动性。
+图4：基金回本前后，净值与单季度申赎份额变化  
+![](images/c00cf88be2054ef9c6820a40a31dfdfe385b5c10c6f7a7f9007d5611398e06a4.jpg)  
+数据来源：Wind，东吴证券研究所  
+注：T 为某只基金前期连续 4 个季度末单位净值小于 1，且首次在该季度末单位净值回升至 1 以上的对应季度，即“回本”季度；统计范围包括 2024 年前成立的主动权益基金，统计区间为 2015-2024 年，后同
+图5：基金回本前后，单季度净值变化  
+![](images/6d32e57e86e53fd1786c339f07494e30e1d0d39aa2d7523321f3b675bb3ad83f.jpg)  
+数据来源：Wind，东吴证券研究所
+此外，居民资产搬家是不可忽视的趋势力量。2026年居民定期存款、1-3 年期理财产品将陆续进入到期高峰。十年期国债利率维持低位运行，存款收益率同步走低，在市场“慢牛”行情构筑的平稳入场窗口下，主动权益基金有望成为居民资金入市的核心载
+体之一。
+图6：今年居民存款将迎来到期高峰（单位：亿元）  
+![](images/864d02e9d8c51100c1d8624270f31f1381240f4f84409fcb06433ffedbb57cc5.jpg)  
+数据来源：Wind，东吴证券研究所
+图7：各期限理财产品发行规模（单位：亿元）  
+![](images/a0230594049c78c046290f8047be1b8a88851ed680191fc50d3ade84fff26eb6.jpg)  
+数据来源：Wind，东吴证券研究所
+# 2026 年主动权益基金有望实现份额与净值的双向共振，推动管理规模增长。
+就市场β而言，A 股具备向好基础，我们预计全年将呈现 “前高后稳、结构主导”的走势，核心驱动力来自全球流动性与国内产业趋势的共振。尤其上半年在弱美元格局延续、“十五五” 开局政策聚焦科技创新的背景下，市场风险偏好有望维持高位，市场上行叠加主动权益所擅长的成长风格占优，将同步助力基金净值抬升。
+同时，机构在权益投资领域积累的专业投研优势，有望在结构性行情中持续转化为超额 $\mathfrak { a }$ ，为基金净值与规模扩张提供有力支撑。
+# 2. 管理人维度：压力之下，谁在逆势上行？
+为深入分析行业竞争格局，我们根据基金管理人的管理规模与市场地位，将其划分为两大核心群体。两类机构因资源禀赋、市场地位和发展阶段不同，战略重心、面临的挑战与机遇也存在差异：
+泛头部领跑机构（2025 年非货规模位列 Top30，主动权益规模 ${ \mathrm { &gt; } } 1 0 0$ 亿的管理人）：已建立一定规模与品牌优势，在稳固基本盘的基础上，进一步谋求优势扩容与能力进化，截至2025年末共计28 家。
+腰部中坚力量（Top30 以外，主动权益规模 ${ \mathrm { 5 1 0 0 } }$ 亿的管理人）：核心战略聚焦于突破现有资源与能力瓶颈，力争在核心赛道构筑突出竞争优势，以此实现行业格局的突围，截至2025年末共计41 家。
+注：主动权益基金统计范围为普通股票型、偏股混合型基金，及 2025 年末股票仓位&gt; $30 \%$ 的灵活配置型基金。
+# 2.1. 规模分析
+在存量规模庞大、更易受赎回压力影响的背景下，泛头部领跑机构实现规模与份额同步增长的难度大幅提升。28 家泛头部领跑机构中，2025年实现规模增长的机构达 25家，但能达到规模、份额 “双增” 的仅 3家，分别为永赢基金、平安基金、华泰柏瑞基金。其中，永赢基金与平安基金持营能力突出，均实现存量产品净申购，在行业整体面临赎回压力的环境下尤为难得，两家机构 2025年份额分别同比增加 494亿份、79亿份。华泰柏瑞基金存量产品仅小幅净赎回 14.3亿份，通过新发份额（14.9亿份）实现份额净增，属于以新发带动增长的类型。
+表1：泛头部领跑机构 2025 年规模与份额变化  
+&lt;table&gt;&lt;tr&gt;&lt;td&gt;序号&lt;/td&gt;&lt;td&gt;管理公司&lt;/td&gt;&lt;td colspan="2"&gt;2025年规模 (亿元)&lt;/td&gt;&lt;td&gt;规模同比变动 (亿元)&lt;/td&gt;&lt;td&gt;规模同比增速 (%)&lt;/td&gt;&lt;td colspan="2"&gt;2025年份额 (亿份)&lt;/td&gt;&lt;td&gt;份额同比变动 (亿份)&lt;/td&gt;&lt;td&gt;份额同比增速 (%)&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;1&lt;/td&gt;&lt;td&gt;永赢基金&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;td&gt;1142.9&lt;/td&gt;&lt;td&gt;974.7&lt;/td&gt;&lt;td&gt;580%&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;td&gt;680.4&lt;/td&gt;&lt;td&gt;493.8&lt;/td&gt;&lt;td&gt;265%&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;2&lt;/td&gt;&lt;td&gt;平安基金&lt;/td&gt;&lt;td colspan="2"&gt;359.4&lt;/td&gt;&lt;td&gt;188.3&lt;/td&gt;&lt;td&gt;110%&lt;/td&gt;&lt;td colspan="2"&gt;260.2&lt;/td&gt;&lt;td&gt;79.3&lt;/td&gt;&lt;td&gt;44%&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;3&lt;/td&gt;&lt;td&gt;中欧基金&lt;/td&gt;&lt;td colspan="2"&gt;2250.1&lt;/td&gt;&lt;td&gt;581.7&lt;/td&gt;&lt;td&gt;35%&lt;/td&gt;&lt;td colspan="2"&gt;1407.9&lt;/td&gt;&lt;td&gt;-53.6&lt;/td&gt;&lt;td&gt;-4%&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;4&lt;/td&gt;&lt;td&gt;鹏华基金&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;td&gt;850.3&lt;/td&gt;&lt;td&gt;211.5&lt;/td&gt;&lt;td&gt;33%&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;td&gt;704.7&lt;/td&gt;&lt;td&gt;-33.2&lt;/td&gt;&lt;td&gt;-4%&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;5&lt;/td&gt;&lt;td&gt;中银基金&lt;/td&gt;&lt;td colspan="2"&gt;228.0&lt;/td&gt;&lt;td&gt;53.8&lt;/td&gt;&lt;td&gt;31%&lt;/td&gt;&lt;td colspan="2"&gt;174.8&lt;/td&gt;&lt;td&gt;-15.1&lt;/td&gt;&lt;td&gt;-8%&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;6&lt;/td&gt;&lt;td&gt;华泰柏瑞基金&lt;/td&gt;&lt;td colspan="2"&gt;346.7&lt;/td&gt;&lt;td&gt;75.6&lt;/td&gt;&lt;td&gt;28%&lt;/td&gt;&lt;td colspan="2"&gt;282.2&lt;/td&gt;&lt;td&gt;0.7&lt;/td&gt;&lt;td&gt;0%&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;7&lt;/td&gt;&lt;td&gt;海富通基金&lt;/td&gt;&lt;td colspan="2"&gt;207.4&lt;/td&gt;&lt;td&gt;37.8&lt;/td&gt;&lt;td&gt;22%&lt;/td&gt;&lt;td colspan="2"&gt;141.2&lt;/td&gt;&lt;td&gt;-22.5&lt;/td&gt;&lt;td&gt;-14%&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;8&lt;/td&gt;&lt;td&gt;兴业基金&lt;/td&gt;&lt;td colspan="2"&gt;110.8&lt;/td&gt;&lt;td&gt;18.9&lt;/td&gt;&lt;td&gt;21%&lt;/td&gt;&lt;td colspan="2"&gt;86.2&lt;/td&gt;&lt;td&gt;-23.7&lt;/td&gt;&lt;td&gt;-22%&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;9&lt;/td&gt;&lt;td&gt;华宝基金&lt;/td&gt;&lt;td colspan="2"&gt;180.7&lt;/td&gt;&lt;td&gt;30.4&lt;/td&gt;&lt;td&gt;20%&lt;/td&gt;&lt;td colspan="2"&gt;89.0&lt;/td&gt;&lt;td&gt;-19.5&lt;/td&gt;&lt;td&gt;-18%&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;10&lt;/td&gt;&lt;td&gt;大成基金&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;td&gt;908.6&lt;/td&gt;&lt;td&gt;150.3&lt;/td&gt;&lt;td&gt;20%&lt;/td&gt;&lt;td colspan="2"&gt;487.8&lt;/td&gt;&lt;td&gt;-3.7&lt;/td&gt;&lt;td&gt;-1%&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;11&lt;/td&gt;&lt;td&gt;广发基金&lt;/td&gt;&lt;td colspan="2"&gt;1831.2&lt;/td&gt;&lt;td&gt;299.0&lt;/td&gt;&lt;td&gt;20%&lt;/td&gt;&lt;td colspan="2"&gt;1378.3&lt;/td&gt;&lt;td&gt;-125.2&lt;/td&gt;&lt;td&gt;-8%&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;12&lt;/td&gt;&lt;td&gt;汇添富基金&lt;/td&gt;&lt;td colspan="2"&gt;1678.6&lt;/td&gt;&lt;td&gt;263.1&lt;/td&gt;&lt;td&gt;19%&lt;/td&gt;&lt;td colspan="2"&gt;1253.6&lt;/td&gt;&lt;td&gt;-190.8&lt;/td&gt;&lt;td&gt;-13%&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;13&lt;/td&gt;&lt;td&gt;富国基金&lt;/td&gt;&lt;td colspan="2"&gt;1894.3&lt;/td&gt;&lt;td&gt;282.5&lt;/td&gt;&lt;td&gt;18%&lt;/td&gt;&lt;td colspan="2"&gt;1191.7&lt;/td&gt;&lt;td&gt;-120.8&lt;/td&gt;&lt;td&gt;-9%&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;14&lt;/td&gt;&lt;td&gt;国泰基金&lt;/td&gt;&lt;td colspan="2"&gt;375.8&lt;/td&gt;&lt;td&gt;53.4&lt;/td&gt;&lt;td&gt;17%&lt;/td&gt;&lt;td colspan="2"&gt;252.9&lt;/td&gt;&lt;td&gt;-35.1&lt;/td&gt;&lt;td&gt;-12%&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;15&lt;/td&gt;&lt;td&gt;易方达基金&lt;/td&gt;&lt;td colspan="2"&gt;2608.0&lt;/td&gt;&lt;td&gt;314.2&lt;/td&gt;&lt;td&gt;14%&lt;/td&gt;&lt;td colspan="2"&gt;1582.6&lt;/td&gt;&lt;td&gt;-316.2&lt;/td&gt;&lt;td&gt;-17%&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;16&lt;/td&gt;&lt;td&gt;工银瑞信基金&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;td&gt;1023.4&lt;/td&gt;&lt;td&gt;91.5&lt;/td&gt;&lt;td&gt;10%&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;td&gt;823.9&lt;/td&gt;&lt;td&gt;-76.4&lt;/td&gt;&lt;td&gt;-8%&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;17&lt;/td&gt;&lt;td&gt;华夏基金&lt;/td&gt;&lt;td colspan="2"&gt;1545.9&lt;/td&gt;&lt;td&gt;136.1&lt;/td&gt;&lt;td&gt;10%&lt;/td&gt;&lt;td colspan="2"&gt;1052.7&lt;/td&gt;&lt;td&gt;-165.1&lt;/td&gt;&lt;td&gt;-14%&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;18&lt;/td&gt;&lt;td&gt;嘉实基金&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;td&gt;1297.8&lt;/td&gt;&lt;td&gt;47.4&lt;/td&gt;&lt;td&gt;4%&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;td&gt;963.6&lt;/td&gt;&lt;td&gt;-253.9&lt;/td&gt;&lt;td&gt;-21%&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;19&lt;/td&gt;&lt;td&gt;博时基金&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;td&gt;654.0&lt;/td&gt;&lt;td&gt;20.6&lt;/td&gt;&lt;td&gt;3%&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;td&gt;571.5&lt;/td&gt;&lt;td&gt;-184.8&lt;/td&gt;&lt;td&gt;-24%&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;20&lt;/td&gt;&lt;td&gt;建信基金&lt;/td&gt;&lt;td colspan="2"&gt;269.9&lt;/td&gt;&lt;td&gt;7.3&lt;/td&gt;&lt;td&gt;3%&lt;/td&gt;&lt;td colspan="2"&gt;198.3&lt;/td&gt;&lt;td&gt;-38.2&lt;/td&gt;&lt;td&gt;-16%&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;21&lt;/td&gt;&lt;td&gt;上海东方证券资产&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;td&gt;731.8&lt;/td&gt;&lt;td&gt;19.7&lt;/td&gt;&lt;td&gt;3%&lt;/td&gt;&lt;td colspan="2"&gt;407.0&lt;/td&gt;&lt;td&gt;-130.1&lt;/td&gt;&lt;td&gt;-24%&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;22&lt;/td&gt;&lt;td&gt;兴证全球基金&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;td&gt;1195.4&lt;/td&gt;&lt;td&gt;21.3&lt;/td&gt;&lt;td&gt;2%&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;td&gt;759.0&lt;/td&gt;&lt;td&gt;-241.3&lt;/td&gt;&lt;td&gt;-24%&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;23&lt;/td&gt;&lt;td&gt;景顺长城基金&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;td&gt;1411.4&lt;/td&gt;&lt;td&gt;20.9&lt;/td&gt;&lt;td&gt;2%&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;td&gt;911.2&lt;/td&gt;&lt;td&gt;-194.4&lt;/td&gt;&lt;td&gt;-18%&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;24&lt;/td&gt;&lt;td&gt;华安基金&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;td&gt;822.7&lt;/td&gt;&lt;td&gt;7.8&lt;/td&gt;&lt;td&gt;1%&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;td&gt;518.2&lt;/td&gt;&lt;td&gt;-140.5&lt;/td&gt;&lt;td&gt;-21%&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;25&lt;/td&gt;&lt;td&gt;招商基金&lt;/td&gt;&lt;td colspan="2"&gt;602.7&lt;/td&gt;&lt;td&gt;3.7&lt;/td&gt;&lt;td&gt;1%&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;td&gt;472.3&lt;/td&gt;&lt;td&gt;-44.2&lt;/td&gt;&lt;td&gt;-9%&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;26&lt;/td&gt;&lt;td&gt;南方基金&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;td&gt;1027.1&lt;/td&gt;&lt;td&gt;-12.5&lt;/td&gt;&lt;td&gt;-1%&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;td&gt;882.1&lt;/td&gt;&lt;td&gt;-244.6&lt;/td&gt;&lt;td&gt;-22%&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;27&lt;/td&gt;&lt;td&gt;银华基金&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;td&gt;691.8&lt;/td&gt;&lt;td&gt;-17.4&lt;/td&gt;&lt;td&gt;-2%&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;td&gt;500.3&lt;/td&gt;&lt;td&gt;-134.0&lt;/td&gt;&lt;td&gt;-21%&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;28&lt;/td&gt;&lt;td&gt;交银施罗德基金&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;td&gt;789.1&lt;/td&gt;&lt;td&gt;-93.3&lt;/td&gt;&lt;td&gt;-11%&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;td&gt;526.7&lt;/td&gt;&lt;td&gt;-160.0&lt;/td&gt;&lt;td&gt;-23%&lt;/td&gt;&lt;/tr&gt;&lt;/table&gt;
+数据来源：Wind，东吴证券研究所
+此外，其他泛头部机构虽未实现“双增”，但亦在规模或份额维度展现出出众的经营韧性。中欧基金与鹏华基金在份额小幅下降（降幅 $&lt; 5 \%$ ）的情况下，规模增速仍超过$30 \%$ ，综合业绩表现尤为亮眼。此外，从份额变动来看，大成基金份额降幅同样控制在5%以内，体现出较强的客户黏性与渠道稳定性；中银、广发、工银瑞信、招商、富国的份额收缩幅度均控制在 $1 0 \% r \lambda$ 内。规模增长层面，除中欧、鹏华基金外，中银基金规模增速亦超 $30 \%$ ，海富通、兴业、华宝基金三家机构规模增速均超过 $20 \%$ 。
+表2：腰部中坚力量 2025 年规模与份额变化  
+&lt;table&gt;&lt;tr&gt;&lt;td&gt;序号&lt;/td&gt;&lt;td&gt;管理公司&lt;/td&gt;&lt;td&gt;2025年规模 (亿元)&lt;/td&gt;&lt;td&gt;规模同比变动 (亿元)&lt;/td&gt;&lt;td&gt;规模同比增速 (%)&lt;/td&gt;&lt;td colspan="2"&gt;2025年份额 (亿份)&lt;/td&gt;&lt;td&gt;份额同比变动 (亿份)&lt;/td&gt;&lt;td&gt;份额同比增速 (%)&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;1&lt;/td&gt;&lt;td&gt;中航基金&lt;/td&gt;&lt;td&gt;200.8&lt;/td&gt;&lt;td&gt;186.6&lt;/td&gt;&lt;td&gt;1321%&lt;/td&gt;&lt;td colspan="2"&gt;75.8&lt;/td&gt;&lt;td&gt;62.0&lt;/td&gt;&lt;td&gt;449%&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;2&lt;/td&gt;&lt;td&gt;德邦基金&lt;/td&gt;&lt;td&gt;189.8&lt;/td&gt;&lt;td&gt;151.4&lt;/td&gt;&lt;td&gt;394%&lt;/td&gt;&lt;td colspan="2"&gt;86.7&lt;/td&gt;&lt;td&gt;50.7&lt;/td&gt;&lt;td&gt;141%&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;3&lt;/td&gt;&lt;td&gt;华富基金&lt;/td&gt;&lt;td&gt;121.2&lt;/td&gt;&lt;td&gt;81.2&lt;/td&gt;&lt;td&gt;203%&lt;/td&gt;&lt;td colspan="2"&gt;83.6&lt;/td&gt;&lt;td&gt;42.1&lt;/td&gt;&lt;td&gt;102%&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;4&lt;/td&gt;&lt;td&gt;国金基金&lt;/td&gt;&lt;td&gt;249.8&lt;/td&gt;&lt;td&gt;163.2&lt;/td&gt;&lt;td&gt;188%&lt;/td&gt;&lt;td colspan="2"&gt;157.5&lt;/td&gt;&lt;td&gt;88.4&lt;/td&gt;&lt;td&gt;128%&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;5&lt;/td&gt;&lt;td&gt;西部利得基金&lt;/td&gt;&lt;td&gt;135.5&lt;/td&gt;&lt;td&gt;83.5&lt;/td&gt;&lt;td&gt;161%&lt;/td&gt;&lt;td colspan="2"&gt;93.3&lt;/td&gt;&lt;td&gt;45.4&lt;/td&gt;&lt;td&gt;95%&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;6&lt;/td&gt;&lt;td&gt;博道基金&lt;/td&gt;&lt;td&gt;259.2&lt;/td&gt;&lt;td&gt;125.5&lt;/td&gt;&lt;td&gt;94%&lt;/td&gt;&lt;td colspan="2"&gt;180.5&lt;/td&gt;&lt;td&gt;56.2&lt;/td&gt;&lt;td&gt;45%&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;7&lt;/td&gt;&lt;td&gt;财通证券资产&lt;/td&gt;&lt;td&gt;162.9&lt;/td&gt;&lt;td&gt;74.4&lt;/td&gt;&lt;td&gt;84%&lt;/td&gt;&lt;td colspan="2"&gt;109.1&lt;/td&gt;&lt;td&gt;15.6&lt;/td&gt;&lt;td&gt;17%&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;8&lt;/td&gt;&lt;td&gt;东吴基金&lt;/td&gt;&lt;td&gt;151.5&lt;/td&gt;&lt;td&gt;64.0&lt;/td&gt;&lt;td&gt;73%&lt;/td&gt;&lt;td colspan="2"&gt;59.9&lt;/td&gt;&lt;td&gt;3.7&lt;/td&gt;&lt;td&gt;7%&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;9&lt;/td&gt;&lt;td&gt;安信基金&lt;/td&gt;&lt;td&gt;235.6&lt;/td&gt;&lt;td&gt;86.5&lt;/td&gt;&lt;td&gt;58%&lt;/td&gt;&lt;td colspan="2"&gt;154.6&lt;/td&gt;&lt;td&gt;31.4&lt;/td&gt;&lt;td&gt;25%&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;10&lt;/td&gt;&lt;td&gt;泰康基金&lt;/td&gt;&lt;td&gt;178.6&lt;/td&gt;&lt;td&gt;55.3&lt;/td&gt;&lt;td&gt;45%&lt;/td&gt;&lt;td colspan="2"&gt;132.9&lt;/td&gt;&lt;td&gt;11.4&lt;/td&gt;&lt;td&gt;9%&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;11&lt;/td&gt;&lt;td&gt;申万菱信基金&lt;/td&gt;&lt;td&gt;124.0&lt;/td&gt;&lt;td&gt;37.2&lt;/td&gt;&lt;td&gt;43%&lt;/td&gt;&lt;td colspan="2"&gt;97.7&lt;/td&gt;&lt;td&gt;-2.1&lt;/td&gt;&lt;td&gt;-2%&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;12&lt;/td&gt;&lt;td&gt;摩根基金&lt;/td&gt;&lt;td&gt;441.0&lt;/td&gt;&lt;td&gt;130.7&lt;/td&gt;&lt;td&gt;42%&lt;/td&gt;&lt;td colspan="2"&gt;228.1&lt;/td&gt;&lt;td&gt;-39.5&lt;/td&gt;&lt;td&gt;-15%&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;13&lt;/td&gt;&lt;td&gt;财通基金&lt;/td&gt;&lt;td&gt;134.0&lt;/td&gt;&lt;td&gt;38.7&lt;/td&gt;&lt;td&gt;41%&lt;/td&gt;&lt;td colspan="2"&gt;60.4&lt;/td&gt;&lt;td&gt;-6.9&lt;/td&gt;&lt;td&gt;-10%&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;14&lt;/td&gt;&lt;td&gt;华商基金&lt;/td&gt;&lt;td&gt;641.6&lt;/td&gt;&lt;td&gt;174.1&lt;/td&gt;&lt;td&gt;37%&lt;/td&gt;&lt;td colspan="2"&gt;294.1&lt;/td&gt;&lt;td&gt;-15.6&lt;/td&gt;&lt;td&gt;-5%&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;15&lt;/td&gt;&lt;td&gt;摩根士丹利基金&lt;/td&gt;&lt;td&gt;119.6&lt;/td&gt;&lt;td&gt;28.0&lt;/td&gt;&lt;td&gt;31%&lt;/td&gt;&lt;td colspan="2"&gt;66.5&lt;/td&gt;&lt;td&gt;-8.6&lt;/td&gt;&lt;td&gt;-11%&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;16&lt;/td&gt;&lt;td&gt;睿远基金&lt;/td&gt;&lt;td&gt;412.7&lt;/td&gt;&lt;td&gt;93.6&lt;/td&gt;&lt;td&gt;29%&lt;/td&gt;&lt;td colspan="2"&gt;235.9&lt;/td&gt;&lt;td&gt;-23.8&lt;/td&gt;&lt;td&gt;-9%&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;17&lt;/td&gt;&lt;td&gt;长城基金&lt;/td&gt;&lt;td&gt;249.9&lt;/td&gt;&lt;td&gt;53.2&lt;/td&gt;&lt;td&gt;27%&lt;/td&gt;&lt;td colspan="2"&gt;184.9&lt;/td&gt;&lt;td&gt;-22.3&lt;/td&gt;&lt;td&gt;-11%&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;18&lt;/td&gt;&lt;td&gt;汇丰晋信基金&lt;/td&gt;&lt;td&gt;272.7&lt;/td&gt;&lt;td&gt;57.8&lt;/td&gt;&lt;td&gt;27%&lt;/td&gt;&lt;td colspan="2"&gt;144.0&lt;/td&gt;&lt;td&gt;-9.1&lt;/td&gt;&lt;td&gt;-6%&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;19&lt;/td&gt;&lt;td&gt;创金合信基金&lt;/td&gt;&lt;td&gt;142.8&lt;/td&gt;&lt;td&gt;28.0&lt;/td&gt;&lt;td&gt;24%&lt;/td&gt;&lt;td colspan="2"&gt;112.1&lt;/td&gt;&lt;td&gt;-16.3&lt;/td&gt;&lt;td&gt;-13%&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;20&lt;/td&gt;&lt;td&gt;金鹰基金&lt;/td&gt;&lt;td&gt;146.5&lt;/td&gt;&lt;td&gt;18.3&lt;/td&gt;&lt;td&gt;14%&lt;/td&gt;&lt;td colspan="2"&gt;94.5&lt;/td&gt;&lt;td&gt;-12.4&lt;/td&gt;&lt;td&gt;-12%&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;21&lt;/td&gt;&lt;td&gt;融通基金&lt;/td&gt;&lt;td&gt;191.3&lt;/td&gt;&lt;td&gt;23.7&lt;/td&gt;&lt;td&gt;14%&lt;/td&gt;&lt;td colspan="2"&gt;108.7&lt;/td&gt;&lt;td&gt;-17.5&lt;/td&gt;&lt;td&gt;-14%&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;22&lt;/td&gt;&lt;td&gt;长信基金&lt;/td&gt;&lt;td&gt;176.9&lt;/td&gt;&lt;td&gt;20.3&lt;/td&gt;&lt;td&gt;13%&lt;/td&gt;&lt;td colspan="2"&gt;191.0&lt;/td&gt;&lt;td&gt;-49.0&lt;/td&gt;&lt;td&gt;-20%&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;23&lt;/td&gt;&lt;td&gt;泉果基金&lt;/td&gt;&lt;td&gt;173.9&lt;/td&gt;&lt;td&gt;17.9&lt;/td&gt;&lt;td&gt;11%&lt;/td&gt;&lt;td colspan="2"&gt;154.2&lt;/td&gt;&lt;td&gt;-45.3&lt;/td&gt;&lt;td&gt;-23%&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;24&lt;/td&gt;&lt;td&gt;诺安基金&lt;/td&gt;&lt;td&gt;462.0&lt;/td&gt;&lt;td&gt;42.8&lt;/td&gt;&lt;td&gt;10%&lt;/td&gt;&lt;td colspan="2"&gt;213.6&lt;/td&gt;&lt;td&gt;-54.6&lt;/td&gt;&lt;td&gt;-20%&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;25&lt;/td&gt;&lt;td&gt;长盛基金&lt;/td&gt;&lt;td&gt;105.7&lt;/td&gt;&lt;td&gt;5.0&lt;/td&gt;&lt;td&gt;5%&lt;/td&gt;&lt;td colspan="2"&gt;67.7&lt;/td&gt;&lt;td&gt;-17.6&lt;/td&gt;&lt;td&gt;-21%&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;26&lt;/td&gt;&lt;td&gt;宏利基金&lt;/td&gt;&lt;td&gt;164.5&lt;/td&gt;&lt;td&gt;7.0&lt;/td&gt;&lt;td&gt;4%&lt;/td&gt;&lt;td colspan="2"&gt;85.8&lt;/td&gt;&lt;td&gt;-33.1&lt;/td&gt;&lt;td&gt;-28%&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;27&lt;/td&gt;&lt;td&gt;信达澳亚基金&lt;/td&gt;&lt;td&gt;366.1&lt;/td&gt;&lt;td&gt;15.0&lt;/td&gt;&lt;td&gt;4%&lt;/td&gt;&lt;td colspan="2"&gt;249.0&lt;/td&gt;&lt;td&gt;-80.0&lt;/td&gt;&lt;td&gt;-24%&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;28&lt;/td&gt;&lt;td&gt;东方基金&lt;/td&gt;&lt;td&gt;188.3&lt;/td&gt;&lt;td&gt;4.0&lt;/td&gt;&lt;td&gt;2%&lt;/td&gt;&lt;td colspan="2"&gt;93.6&lt;/td&gt;&lt;td&gt;-41.2&lt;/td&gt;&lt;td&gt;-31%&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;29&lt;/td&gt;&lt;td&gt;前海开源基金&lt;/td&gt;&lt;td&gt;481.4&lt;/td&gt;&lt;td&gt;9.8&lt;/td&gt;&lt;td&gt;2%&lt;/td&gt;&lt;td colspan="2"&gt;290.9&lt;/td&gt;&lt;td&gt;-64.9&lt;/td&gt;&lt;td&gt;-18%&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;30&lt;/td&gt;&lt;td&gt;国投瑞银基金&lt;/td&gt;&lt;td&gt;288.1&lt;/td&gt;&lt;td&gt;2.1&lt;/td&gt;&lt;td&gt;1%&lt;/td&gt;&lt;td colspan="2"&gt;204.0&lt;/td&gt;&lt;td&gt;-69.8&lt;/td&gt;&lt;td&gt;-25%&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;31&lt;/td&gt;&lt;td&gt;中信保诚基金&lt;/td&gt;&lt;td&gt;162.4&lt;/td&gt;&lt;td&gt;0.3&lt;/td&gt;&lt;td&gt;0%&lt;/td&gt;&lt;td colspan="2"&gt;98.1&lt;/td&gt;&lt;td&gt;-30.8&lt;/td&gt;&lt;td&gt;-24%&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;32&lt;/td&gt;&lt;td&gt;中邮创业基金&lt;/td&gt;&lt;td&gt;131.3&lt;/td&gt;&lt;td&gt;-2.6&lt;/td&gt;&lt;td&gt;-2%&lt;/td&gt;&lt;td colspan="2"&gt;108.2&lt;/td&gt;&lt;td&gt;-21.8&lt;/td&gt;&lt;td&gt;-17%&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;33&lt;/td&gt;&lt;td&gt;万家基金&lt;/td&gt;&lt;td&gt;486.0&lt;/td&gt;&lt;td&gt;-14.4&lt;/td&gt;&lt;td&gt;-3%&lt;/td&gt;&lt;td colspan="2"&gt;267.1&lt;/td&gt;&lt;td&gt;-92.0&lt;/td&gt;&lt;td&gt;-26%&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;34&lt;/td&gt;&lt;td&gt;农银汇理基金&lt;/td&gt;&lt;td&gt;293.0&lt;/td&gt;&lt;td&gt;-24.3&lt;/td&gt;&lt;td&gt;-8%&lt;/td&gt;&lt;td colspan="2"&gt;174.9&lt;/td&gt;&lt;td&gt;-49.7&lt;/td&gt;&lt;td&gt;-22%&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;35&lt;/td&gt;&lt;td&gt;民生加银基金&lt;/td&gt;&lt;td&gt;123.5&lt;/td&gt;&lt;td&gt;-13.9&lt;/td&gt;&lt;td&gt;-10%&lt;/td&gt;&lt;td colspan="2"&gt;116.8&lt;/td&gt;&lt;td&gt;-34.9&lt;/td&gt;&lt;td&gt;-23%&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;36&lt;/td&gt;&lt;td&gt;银河基金&lt;/td&gt;&lt;td&gt;220.7&lt;/td&gt;&lt;td&gt;-25.2&lt;/td&gt;&lt;td&gt;-10%&lt;/td&gt;&lt;td colspan="2"&gt;80.7&lt;/td&gt;&lt;td&gt;-22.9&lt;/td&gt;&lt;td&gt;-22%&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;37&lt;/td&gt;&lt;td&gt;宝盈基金&lt;/td&gt;&lt;td&gt;190.8&lt;/td&gt;&lt;td&gt;-22.5&lt;/td&gt;&lt;td&gt;-11%&lt;/td&gt;&lt;td colspan="2"&gt;108.0&lt;/td&gt;&lt;td&gt;-64.1&lt;/td&gt;&lt;td&gt;-37%&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;38&lt;/td&gt;&lt;td&gt;中泰证券资产&lt;/td&gt;&lt;td&gt;153.5&lt;/td&gt;&lt;td&gt;-19.1&lt;/td&gt;&lt;td&gt;-11%&lt;/td&gt;&lt;td colspan="2"&gt;93.0&lt;/td&gt;&lt;td&gt;-19.9&lt;/td&gt;&lt;td&gt;-18%&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;39&lt;/td&gt;&lt;td&gt;泓德基金&lt;/td&gt;&lt;td&gt;267.7&lt;/td&gt;&lt;td&gt;-45.6&lt;/td&gt;&lt;td&gt;-15%&lt;/td&gt;&lt;td colspan="2"&gt;248.7&lt;/td&gt;&lt;td&gt;-92.9&lt;/td&gt;&lt;td&gt;-27%&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;40&lt;/td&gt;&lt;td&gt;国海富兰克林基金&lt;/td&gt;&lt;td&gt;168.6&lt;/td&gt;&lt;td&gt;-29.5&lt;/td&gt;&lt;td&gt;-15%&lt;/td&gt;&lt;td colspan="2"&gt;123.0&lt;/td&gt;&lt;td&gt;-34.5&lt;/td&gt;&lt;td&gt;-22%&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;41&lt;/td&gt;&lt;td&gt;中庚基金&lt;/td&gt;&lt;td&gt;105.7&lt;/td&gt;&lt;td&gt;-30.7&lt;/td&gt;&lt;td&gt;-23%&lt;/td&gt;&lt;td colspan="2"&gt;58.3&lt;/td&gt;&lt;td&gt;-43.0&lt;/td&gt;&lt;td&gt;-42%&lt;/td&gt;&lt;/tr&gt;&lt;/table&gt;
+数据来源：Wind，东吴证券研究所
+对于腰部中坚力量机构而言，其本身存量规模相对有限，面临的赎回压力通常较泛头部机构更小，因此在 2025年实现规模与份额“双增”的机构比例也更高。在全部41家腰部机构中，有 31家实现了规模扩张，显示出整体增长势头；其中，有 10家同时实现规模与份额的“双增”，占比接近总数的四分之一，这一比例远高于泛头部机构。上述10家 “双增” 机构中，中航、德邦、华富、国金基金的规模与份额均实现了至少翻倍的增长，其中中航基金最为突出，管理规模从 2024 年末的14亿元大幅攀升至2025年末的 201 亿元，通过“爆款单品”实现了跨越式增长。从增长驱动结构来看，这 10 家机构可分为三类：中航基金、德邦基金、华富基金、博道基金、财通资管、泰康基金、东吴基金以存量产品大幅净申购为核心支撑，全年新发份额偏少；安信基金主要依靠新发基金实现增长；国金基金、西部利得基金则是新发与存量持营“齐头并进”。
+# 2.2. 业绩分析
+从各管理人旗下主动权益基金 2025 年算术平均回报来看，两大梯队管理人整体业绩水平相近，泛头部领跑机构产品收益中位数为 $3 3 . 3 \%$ ，腰部中坚力量为 $3 3 . 4 \%$ 。泛头部领跑机构中，永赢基金、易方达基金、平安基金业绩领先，2025年主动权益基金平均回报分别为 $5 6 . 8 \%$ 、 $5 0 . 0 \%$ 、 $4 5 . 3 \%$ 。腰部中坚力量中，中航基金、财通基金、华商基金表现突出。整体而言，两类机构业绩中枢相近，业绩优势向规模增长的传导并非绝对普适，但部分领先机构确实成功将业绩转化为份额与规模增长，其优质投研能力成为支撑机构扩张的核心。
+图8：泛头部领跑机构 2025 年主动权益基金业绩概览（单位：%）  
+![](images/17bb7254c4f9d5c4e05f3313ec493877d608ed07ce19c4a28cdff78ec065a478.jpg)  
+数据来源：Wind，东吴证券研究所
+图9：腰部中坚力量 2025年主动权益基金业绩概览（单位：%）  
+![](images/36960c04627f96061d10eb6dfbf09ae9412b933b547ed2d16cc9420681b69704.jpg)  
+数据来源：Wind，东吴证券研究所
+# 2.3. 案例聚焦
+综合规模扩张与业绩表现两大维度，泛头部领跑机构中，永赢、平安基金的发展模式具有代表性；腰部中坚力量中，中航基金的跨越式崛起尤为突出。
+# 2.3.1. 永赢基金——智选破局，科技制胜
+在 2025年A股结构性行情中，永赢基金凭借对科技成长主线的极致聚焦与平台化的产品供给能力，实现了规模与排名的跃升。公司以清晰的产品线为矛，以前沿的数字化投研体系为盾，走出了一条以“主题化、工具化”产品承接市场趋势、以平台机制保障策略执行的特色发展路径。
+从规模维度看，永赢基金是 2025年全行业最具爆发力的机构。截至 2025年末，公司主动权益基金管理规模较上年末激增 975亿元，为同期全市场增量之首，排名从年初的第 43 位飙升至第 10 位。增长的核心引擎是旗下定位鲜明的“智选系列”，该系列产品在全年规模增长达 742亿元。其中，永赢科技智选作为旗舰产品，2025全年规模增长154 亿元，并最终以 $2 3 3 . 3 \%$ 的年度回报率夺得 2025 年全市场基金业绩冠军，标志着永赢基金不仅实现了规模的巨量扩张，更在业绩巅峰上树立标杆。
+这种爆发式增长的动力，源于公司“前瞻研究驱动产品布局”的投研一体化和高度数字化的平台支撑。永赢基金构建了独特的“ $1 + \mathrm { { N } } ^ { \prime \prime }$ ”投研体系，即一套不断迭代的核心投资方法论，延伸出覆盖不同产业方向的产品矩阵。其关键运作机制在于，将深入的前瞻性产业研究，直接外化为清晰的主题产品，例如精准布局 AI 算力、半导体、先进制
+造等方向的“智选系列”。为实现这一过程的高效与精准，公司大力投入数字化建设，自主研发了“天玑”权益投研系统等五大平台，通过科技赋能实现研究、投资与决策的一体化，为“工具化”产品策略提供了坚实的技术底座。
+在业绩表现上，永赢基金呈现出“冠军引领，系列跟进”的突出特征。除了创纪录的永赢科技智选，永赢先进制造智选、永赢高端装备智选等同类产品也同步实现规模与业绩的大幅增长。公司其余系列及均衡价值型产品同步表现亮眼，共有4只主动权益基金在 2025 年实现了净值翻倍，主动权益产品平均收益率显著跑赢行业中枢，位列泛头部领跑机构第一，成长风格进攻性与价值风格稳定性兼备，构建起多点支撑的业绩矩阵。
+展望未来，永赢基金已凭借“冠军”业绩牢固确立了在科技投资领域的品牌标杆，为策略与产品的多元化延伸积累了强大势能。其深厚的数字化投研平台构成了区别于中小机构的核心护城河，而如何从“爆款单品”和“赛道集中”的成功，向更广阔的市场投资能力拓展，是其平台化能力面临的下一场考验。
+# 2.3.2. 平安基金——体系为基，团队作战
+在行业普遍面临份额流失、存量赎回压力的背景下，平安基金逆势实现主动权益规模翻倍、且规模份额双增长，同时全市场选股基金、主题策略多赛道业绩“全线发力”，折射出公司体系化、平台化的投研实力与均衡全面成长的发展模式。
+从规模维度看，平安基金在 2025 年展现了极强的负债端韧性与产品号召力。2025年全年，平安的主动权益基金规模从年初的 171亿元大幅跃升至年底的 359亿元，行业排名稳步提升至第 29位；全年份额增长高达 79 亿份，位居全行业第 3名。在泛头部领跑机构中，平安基金是极少数能扣除新发基金贡献后，依然靠存量老产品实现净申购的机构，高增长的背后，是存量产品凭借扎实的业绩表现，在波动的市场中赢得了持有人的二次认可。
+这种逆势上行的核心动能，源于平安基金近年来持续投入投研核心能力建设，以及深耕锻造的“平台化”投研体系。公司搭建出的多策略、多风格的投研团队，使个体可发挥自身投资研究能力优势，同时还能借助团队整体实力进行增强赋能，使得 2025 年公司主动权益基金业绩全面领先，而非单产品、单明星基金经理业绩突出。平安基金旗下$50 \%$ 的主动权益产品业绩位于同类排名前 $50 \%$ ，这种集体业绩优秀进一步映证了平台化投研体系建设的成果。
+在业绩拼图上，平安基金在 2025年呈现出“百花齐放”的局面。无论资深老将、中生代干将还是新生小将，从成长、均衡风格到价值风格基金经理，管理产品的业绩表现都颇为亮眼。如神爱前代表产品平安策略先锋近7年累计收益率 $+ 4 6 2 \%$ ，年化回报$+ 2 7 . 9 7 \%$ ，同类排名第17/2423，其他如黄维任职 9年期间 8次年度跑赢偏股基金指数，张晓泉连续 7 年跑赢偏股混合基金指数。公司价值风格基金经理在 25年逆风期环
+境下，业绩表现很是突出，价值风格基金经理张荫先25年未参与创新药、机器人、AI、有色等赛道投资，凭借独立选股创造绝对收益，平安研究智选基金 2025年收益率$+ 4 0 . 8 \%$ ，最大回撤 $1 3 . 7 \%$ ，年内创新高次数 57 天。
+平安基金在行业主题赛道上的布局也可圈可点，如创新药、机器人、人工智能和红利主题等产品25年取得不俗的业绩，规模也明显增长，25年公司新增有色资源、卫星、新能源等主题基金，抓住了市场风口。
+综上，平安基金是行业里难得的全市场选股基金、行业主题基金均业绩表现优秀，且凭借权益投研能力获得市场认可，实现规模、份额双增长的基金管理人。
+展望 2026 年，从平安基金的战略布局来看，其坚守 “体系为基、团队作战” 的发展定力，依托平台化投研机制，已精准契合行业从依赖个人能力转向依托组织能力的发展趋势。相较于依靠单一明星产品或渠道驱动的机构，公司多风格并行的布局模式，所具备的稳健复利特征，在波动加剧的结构性行情中拥有更强的发展韧性。与此同时，公司既拥有承接机构资金配置的体系化优势，也可通过持续稳健的业绩表现，夯实零售端资金信心，为后续持续发展筑牢双重支撑。
+# 2.3.3. 中航基金——单品引爆，赛道聚焦
+中航基金作为一家于 2016年成立的中小机构，2025借助旗舰产品的业绩爆发以及AI 算力等科技板块的行情红利，成功实现了规模与市场份额的双重增长。从发展历程来看，中航基金在成立初期以固收类产品为核心业务，用机构定制化固收产品奠定了规模基础。自 2023年末起，公司主动权益基金数量进入持续上升阶段，至2025年下半年，主动权益基金规模实现大幅提升。
+在策略层面，中航基金的主动权益投资采取了极致聚焦的赛道选择策略，集中资源布局 AI 算力、低空经济、固态电池等前沿科技领域。这一策略的成功实施与副总经理韩浩密切相关，其投资组合风格鲜明，行业集中度较高，通过精准押注高景气赛道，在2025 年的市场环境中创造了显著的超额收益。中航基金通过集中资源在核心赛道打造差异化优势，实现规模的快速扩张和市场地位的提升，走“小而美、小而专”的发展路径。
+业绩表现上，2025 年中航基金在腰部机构中领跑，通过 “爆款单品” 精准捕捉核心赛道 $\mathbf { a }$ 收益。韩浩管理的旗舰产品中航机遇领航，2025 年回报达 $1 6 8 . 9 \%$ ，位列全市场第二；产品规模实现爆发式增长，从2024年末的6.8亿元大幅攀升至 2025年末的151亿元，占公司主动权益总规模的 $7 5 \%$ 。此外，基金经理王森管理的中航趋势领航表现亦较为亮眼，2025年回报 $9 7 . 5 \%$ ，全市场排名第 81位。
+依托核心赛道精准布局与明星基金经理的突出贡献，中航基金 2025 年实现跨越式增长，核心竞争力初步显现，但往后看，在当前复杂市场环境下，其后续发展仍面临多
+重挑战。一是赛道依赖风险，公司业绩与管理规模目前高度依赖科技成长风格的市场表现，市场风格转变或核心赛道调整将对基金业绩产生显著影响。二是平台化转型挑战，当前行业头部机构普遍推进 “去明星化” 与平台化转型，核心是搭建体系化投研平台以实现长期稳健发展，而中航基金当前的增长与成功，核心驱动力仍依赖明星基金经理的个人专业能力，体系化支撑能力有待进一步夯实。三是合规问题，随着监管层针对主题基金持仓集中度、风格漂移的监管要求持续强化，中航基金需在巩固核心赛道布局优势的同时，严格契合合规监管标准，面临“赛道深耕”与“合规适配”的平衡压力。
+# 3. 风险提示
+1）经济增长、政策推进不及预期：政策落实、经济复苏不及预期可能会影响企业盈利修复、加大资金外流压力，加剧市场不确定性，影响股市表现。  
+2）地缘政治风险：极端地缘事件的发生会压制整体市场风险偏好，加大股市波动性。  
+3）海外政策不确定性：海外降息节奏及特朗普政府关税政策不确定性风险。  
+4）策略集中与风格切换风险：若市场风格切换或重仓赛道景气度下行，可能导致基金业绩显著波动，并引发赎回压力。  
+5）人才依赖与流动性风险：过度依赖明星基金经理或产品集中度过高，在人员变动或市场调整时，可能影响规模稳定与流动性管理。
+# 免责声明
+东吴证券股份有限公司经中国证券监督管理委员会批准，已具备证券投资咨询业务资格。
+会因接收人收到本报告而视其为客户。在任何情况下，本报告中的信息或所表述的意见并不构成对任何人的投资建议，本公司及作者不对任何人因使用本报告中的内容所导致的任何后果负任何责任。任何形式的分享证券投资收益或者分担证券投资损失的书面或口头承诺均为无效。
+在法律许可的情况下，东吴证券及其所属关联机构可能会持有报告中提到的公司所发行的证券并进行交易，还可能为这些公司提供投资银行服务或其他服务。
+市场有风险，投资需谨慎。本报告是基于本公司分析师认为可靠且已公开的信息，本公司力求但不保证这些信息的准确性和完整性，也不保证文中观点或陈述不会发生任何变更，在不同时期，本公司可发出与本报告所载资料、意见及推测不一致的报告。
+本报告的版权归本公司所有，未经书面许可，任何机构和个人不得以任何形式翻版、复制和发布。经授权刊载、转发本报告或者摘要的，应当注明出处为东吴证券研究所，并注明本报告发布人和发布日期，提示使用本报告的风险，且不得对本报告进行有悖原意的引用、删节和修改。未经授权或未按要求刊载、转发本报告的，应当承担相应的法律责任。本公司将保留向其追究法律责任的权利。
+# 东吴证券投资评级标准
+投资评级基于分析师对报告发布日后 6 至 12 个月内行业或公司回报潜力相对基准表现的预期（A 股市场基准为沪深 300 指数，香港市场基准为恒生指数，美国市场基准为标普500 指数，新三板基准指数为三板成指（针对协议转让标的）或三板做市指数（针对做市转让标的），北交所基准指数为北证 50指数），具体如下：
+公司投资评级：
+买入：预期未来 6 个月个股涨跌幅相对基准在 $1 5 \%$ 以上；
+增持：预期未来 6个月个股涨跌幅相对基准介于 $5 \%$ 与 $1 5 \%$ 之间；
+中性：预期未来 6 个月个股涨跌幅相对基准介于 $- 5 \%$ 与 $5 \%$ 之间；
+减持：预期未来 6 个月个股涨跌幅相对基准介于- $1 5 \%$ 与 $- 5 \%$ 之间；
+卖出：预期未来 6个月个股涨跌幅相对基准在- $. 1 5 \%$ 以下。
+行业投资评级：
+增持： 预期未来 6个月内，行业指数相对强于基准 $5 \%$ 以上；
+中性： 预期未来 6 个月内，行业指数相对基准 $- 5 \%$ 与 $5 \%$ ；
+减持： 预期未来 6 个月内，行业指数相对弱于基准 $5 \%$ 以上。
+我们在此提醒您，不同证券研究机构采用不同的评级术语及评级标准。我们采用的是相对评级体系，表示投资的相对比重建议。投资者买入或者卖出证券的决定应当充分考虑自身特定状况，如具体投资目的、财务状况以及特定需求等，并完整理解和使用本报告内容，不应视本报告为做出投资决策的唯一因素。
+东吴证券研究所
+苏州工业园区星阳街 5 号
+邮政编码：215021
+传真：（0512）62938527
+公司网址： http://www.dwzq.com.cn</t>
   </si>
   <si>
     <t>基金分析报告
@@ -413,24 +1253,6 @@
 深圳：深圳市福田区中心四路 1 号嘉里建设广场 1 座 10 层 01 室； 518048</t>
   </si>
   <si>
-    <t>2026-02-03 00:06:29</t>
-  </si>
-  <si>
-    <t>```json
-{
-"category": "A_基金相关",
-"score": 8,
-"reason": "构建核心资产基金池，从赛道龙头、资源禀赋等四维度定义核心资产，筛选低Beta高现金流基金，提供10只精选基金标的及详细画像分析，具备可复用的基金评价框架。"
-}
-```</t>
-  </si>
-  <si>
-    <t>2026-02-03 07:35:25</t>
-  </si>
-  <si>
-    <t>2025-11-18_民生证券_基金分析报告：深度价值基金池：保持绝对收益</t>
-  </si>
-  <si>
     <t># 深度价值基金池 202511：保持绝对收益
 2025 年 11 月 18 日
 ➢ 深度价值属于格雷厄姆“捡烟蒂”式投资方式。按内在价值定义的不确定性程度和估算难度，价值投资理念可大致分为：深度价值、成长价值、景气价值。深度价值的投资理念源自于格雷厄姆，在 1929-1933 年美国经济大萧条期间，许多股票价格远远低于其清算价值，投资此类股票即便是立刻清算也可获得不错的收益。
@@ -775,21 +1597,6 @@
 上海：上海市虹口区杨树浦路 188 号星立方大厦 7 层； 200082
 北京：北京市东城区建国门内大街 28 号民生金融中心 A 座18 层； 100005
 深圳：深圳市福田区中心四路 1 号嘉里建设广场 1 座 10 层 01 室； 518048</t>
-  </si>
-  <si>
-    <t>```json
-{
-"category": "A_基金相关",
-"score": 8,
-"reason": "基于BP因子和盈利预期构建深度价值基金筛选框架，提供具体基金名单及详细画像分析，对FOF配置具有直接参考价值。"
-}
-```</t>
-  </si>
-  <si>
-    <t>2026-02-03 07:35:30</t>
-  </si>
-  <si>
-    <t>2025-11-18_民生证券_成长价值基金池202511：高年度胜率</t>
   </si>
   <si>
     <t># 成长价值基金池 202511：高年度胜率
@@ -1151,21 +1958,6 @@
 深圳：深圳市福田区中心四路 1 号嘉里建设广场 1 座 10 层 01 室； 518048</t>
   </si>
   <si>
-    <t>```json
-{
-"category": "A_基金相关",
-"score": 8,
-"reason": "基于PB-ROE因子筛选成长价值型基金，构建高年度胜率基金池，提供10只精选基金及详细画像分析，具备明确配置价值与复用框架。"
-}
-```</t>
-  </si>
-  <si>
-    <t>2026-02-03 07:35:26</t>
-  </si>
-  <si>
-    <t>2025-11-20_东莞证券_公募基金2026上半年投资策略：（可公开）以盈利为帆，配置下一轮阿尔法</t>
-  </si>
-  <si>
     <t># （可公开）以盈利为帆，配置下一轮阿尔法
 公募基金2026上半年投资策略
 2025 年 11 月 20 日
@@ -1389,21 +2181,6 @@
 网址：www.dgzq.com.cn</t>
   </si>
   <si>
-    <t>```json
-{
-"category": "A_基金相关",
-"score": 7,
-"reason": "基于盈利拐点与出海战略，推荐具备选股能力的主动权益基金及有色、锂电、创新药等行业ETF配置，判断大盘成长风格占优。"
-}
-```</t>
-  </si>
-  <si>
-    <t>2026-02-03 07:35:23</t>
-  </si>
-  <si>
-    <t>2025-11-20_华龙证券_ETF配置策略跟踪报告：市场风格再平衡，均衡配置为主</t>
-  </si>
-  <si>
     <t>公募基金
 报告日期：2025 年 11 月 19 日
 # 市场风格再平衡，均衡配置为主
@@ -1572,21 +2349,6 @@
 邮编：518046</t>
   </si>
   <si>
-    <t>```json
-{
-"category": "B_ETF策略",
-"score": 8,
-"reason": "提供哑铃型ETF配置策略及具体产品池，基于政策与风格研判给出均衡配置建议"
-}
-```</t>
-  </si>
-  <si>
-    <t>2026-02-03 07:35:20</t>
-  </si>
-  <si>
-    <t>2025-11-24_金融街证券_行业轮动ETF策略周报</t>
-  </si>
-  <si>
     <t>证券研究报告·策略周报
 2025年11月24日
 证券分析师：张一
@@ -1627,21 +2389,6 @@
 本公司及作者在自身所知情范围内，与本报告中所评价或推荐的证券不存在法律法规要求披露或采取限制、静默措施的利益冲突。
 本报告版权仅为本公司所有，未经书面许可，任何机构和个人不得以任何形式将研报内容和相关信息对外公布、转发、转载、传播、复制、编辑、修改、引用等。如有上述违法行为，本公司保留追究相关法律责任的权利。
 市场有风险，投资需谨慎。投资者不应将本报告作为作出投资决策的唯一参考因素，亦不应认为本报告可以取代自己的判断。在决定投资前，如有需要，投资者务必向专业人士咨询并谨慎决策。</t>
-  </si>
-  <si>
-    <t>```json
-{
-"category": "G_定期报告",
-"score": 6,
-"reason": "基于行业轮动模型的ETF组合周度跟踪，提供调仓清单与择时信号，属常规策略维护"
-}
-```</t>
-  </si>
-  <si>
-    <t>2026-02-03 07:36:00</t>
-  </si>
-  <si>
-    <t>2025-11-25_国金证券_公募指增及量化基金经理精选系列十：自适应与解释性共进，算法博弈复杂市场</t>
   </si>
   <si>
     <t># 公募指增及量化基金经理精选
@@ -1904,21 +2651,6 @@
 风险模型和组合优化：在采用 Barra 体系的基础上，进行了自研与定制化改造。在传统风险因子的基础上，引入了更具市场针对性的风格因子以及关键的板块因子；进行了更贴合国内投资逻辑的行业分类；运用大语言模型通过解析上市公司公告、研报、新闻等文本信息，构建更加精细化的股票相似度矩阵，实现对因“隐性关联”导致的协同风险的管理。从运行结果来看，天弘中证 500 指数增强任职以来报告期平均行业偏离度和成分股偏离度均不超过 0.7%，很好地</t>
   </si>
   <si>
-    <t>```json
-{
-"category": "A_基金相关",
-"score": 8,
-"reason": "深度剖析五位公募量化基金经理的AI与多因子投资框架、风控特征及业绩归因，为FOF选基提供可复用的分析维度和配置参考。"
-}
-```</t>
-  </si>
-  <si>
-    <t>2026-02-03 07:35:24</t>
-  </si>
-  <si>
-    <t>2025-11-26_上海证券_基金市场周报：银行板块表现较优，主动投资债券基金平均收益相对领先</t>
-  </si>
-  <si>
     <t>报告日期：2025年11月24日
 本期（2025.11.17-2025.11.21）上证指数下跌 $3 . 9 0 \%$ ，深证成指下跌 5.13%。申万一级行业均下跌，其中银行和传媒行业表现相对较好。海外权益市场重要指数跌多涨少，国际黄金价格下跌。本期各类型基金均下跌。主动投资股票基金较上期下跌 $5 , 2 5 \%$ ，主动投资混合基金下跌$4 . 3 7 \%$ ，主动投资债券基金下跌 $0 . 1 3 \%$ ；QDII 基金下跌 $2 . 5 4 \%$ 。
 图 1、基金指数近一年收益率走势  
@@ -1992,16 +2724,6 @@
 # 风险提示
 本报告中的信息均来源于已公开的资料与第三方数据，我公司对这些信息的准确性及完整性不作任何保证，也不保证本公司作出的任何建议不会发生任何变更。报告中对样本数据的抽样方法和结论，本公司保有最终解释权。本报告中的信息仅供参考，不构成任何投资建议和承诺。我公司不对任何人因使用本报告中的任何内容所引致的损失负责。我公司及其关联机构可能会持有报告中提到的公司所发行的证券并进行交易，还可能为这些公司提供或争取提供投资银行或财务顾问服务。业绩表现数据仅代表过去的表现，不保证未来结果。评价结果并不是对未来表现的预测，也不应视作投资基金的建议。
 本报告版权归上海证券有限责任公司所有。未获得上海证券有限责任公司事先书面授权，任何人不得对本报告进行任何形式的发布、复制。如遵循原文本意地引用、刊发，需注明出处为“上海证券基金评价研究中心”。</t>
-  </si>
-  <si>
-    <t>{
-"category": "G_定期报告",
-"score": 3,
-"reason": "基金周报，仅罗列本周市场及各类基金业绩数据，无投资方法、策略框架或明确投资建议，属常规数据跟踪。"
-}</t>
-  </si>
-  <si>
-    <t>2025-11-26_大同证券_“千问”开启公测，将如何改变AI应用生态格局？</t>
   </si>
   <si>
     <t># “千问”开启公测，将如何改变 AI 应用生态格局？
@@ -2108,21 +2830,6 @@
 本报告版权为大同证券有限责任公司所有，未经书面许可，任何机构和个人不得以任何形式翻版、复制和发布。如引用需注明出处为大同证券研究部，且不得对本报告进行有悖原意的引用、删节和修改。
 # 分析师承诺：
 本人、本人配偶及本人的利害关系人与报告内容所涉标的公司不涉及利益冲突。</t>
-  </si>
-  <si>
-    <t>```json
-{
-"category": "A_基金相关",
-"score": 6,
-"reason": "基金配置周报，基于AI/固态电池等热点事件推荐主题基金，提出杠铃策略配置思路，但主要为短期事件驱动，缺乏深度量化分析框架"
-}
-```</t>
-  </si>
-  <si>
-    <t>2026-02-03 07:35:34</t>
-  </si>
-  <si>
-    <t>2025-12-01_国泰海通_国泰海通证券12月基金投资策略：A_股出现阶段性回调，相对偏向成长配置风格</t>
   </si>
   <si>
     <t># 国泰海通证券 12 月基金投资策略
@@ -2336,21 +3043,6 @@
 （021）38676666</t>
   </si>
   <si>
-    <t>```json
-{
-"category": "A_基金相关",
-"score": 8,
-"reason": "月度基金策略报告，提供具体基金推荐名单、大类资产配置方案及基于净值回归的仓位测算模型，兼具可执行性与方法参考价值"
-}
-```</t>
-  </si>
-  <si>
-    <t>2026-02-03 07:35:33</t>
-  </si>
-  <si>
-    <t>2025-12-01_金融街证券_行业轮动ETF策略周报</t>
-  </si>
-  <si>
     <t>证券研究报告·策略周报
 2025年12月1日
 证券分析师：张一
@@ -2389,19 +3081,6 @@
 本报告所载的资料、意见及推测仅反映本公司于发布本报告当日的判断，本报告所指的证券或投资标的价格、价值及投资收入可升可跌，过往表现不应作为日后的表现依据；在不同时期，本公司可以发出其他与本报告所载信息不一致及有不同结论的报告；本报告所反映研究人员的不同观点、见解及分析方法，并不代表本公司或其他附属机构的立场；本公司不保证本报告所含信息保持在最新状态。同时，本公司对本报告所含信息可在不发出通知的情形下做出修改，投资者应当自行关注相应的更新或修改。
 本公司及作者在自身所知情范围内，与本报告中所评价或推荐的证券不存在法律法规要求披露或采取限制、静默措施的利益冲突。本报告版权仅为本公司所有，未经书面许可，任何机构和个人不得以任何形式将研报内容和相关信息对外公布、转发、转载、传播、复制、编辑、修改、引用等。如有上述违法行为，本公司保留追究相关法律责任的权利。
 市场有风险，投资需谨慎。投资者不应将本报告作为作出投资决策的唯一参考因素，亦不应认为本报告可以取代自己的判断。在决定投资前，如有需要，投资者务必向专业人士咨询并谨慎决策。</t>
-  </si>
-  <si>
-    <t>{
-"category": "B_ETF策略",
-"score": 8,
-"reason": "基于行业轮动的ETF组合策略，提供具体调仓标的与择时信号，附带样本外业绩追踪，具备可执行性。"
-}</t>
-  </si>
-  <si>
-    <t>2026-02-03 07:35:36</t>
-  </si>
-  <si>
-    <t>2025-12-02_上海证券_ETF组合策略月度跟踪报告（2025年11月）</t>
   </si>
   <si>
     <t>![](images/d0032cd1f69f75431ed9191e4a535e7d0d81f48995dd438c58aac67cc725665e.jpg)
@@ -2560,19 +3239,6 @@
 # 风险提示
 本报告中的信息均来源于已公开的资料与第三方数据，我公司对这些信息的准确性及完整性不作任何保证，也不保证本公司作出的任何建议不会发生任何变更。报告中对样本数据的抽样方法和结论，本公司保有最终解释权。本报告中的信息仅供参考，不构成任何投资建议和承诺。我公司不对任何人因使用本报告中的任何内容所引致的损失负责。我公司及其关联机构可能会持有报告中提到的公司所发行的证券并进行交易，还可能为这些公司提供或争取提供投资银行或财务顾问服务。业绩表现数据仅代表过去的表现，不保证未来结果。评价结果并不是对未来表现的预测，也不应视作投资基金的建议。
 本报告版权归上海证券有限责任公司所有。未获得上海证券有限责任公司事先书面授权，任何人不得对本报告进行任何形式的发布、复制。如遵循原文本意地引用、刊发，需注明出处为“上海证券基金评价研究中心”。</t>
-  </si>
-  <si>
-    <t>{
-"category": "G_定期报告",
-"score": 7,
-"reason": "系统跟踪7类ETF配置策略月度表现，涵盖风格轮动、风险平价、资产轮动等框架，提供可复现的组合管理方法与风险指标，适合作为ETF配置工具参考。"
-}</t>
-  </si>
-  <si>
-    <t>2026-02-03 07:35:43</t>
-  </si>
-  <si>
-    <t>2025-12-03_渤海证券_公募基金2026年年度投资策略：风险偏好持续上升，成长风格占据市场主导</t>
   </si>
   <si>
     <t># 风险偏好持续上升，成长风格占据市场主导
@@ -2794,21 +3460,6 @@
 &lt;table&gt;&lt;tr&gt;&lt;td&gt;证券代码&lt;/td&gt;&lt;td&gt;证券名称&lt;/td&gt;&lt;td&gt;基金规模(亿元)&lt;/td&gt;&lt;td&gt;基金经理(现任)&lt;/td&gt;&lt;td&gt;收益率(%)&lt;/td&gt;&lt;td&gt;最大回撤(%)&lt;/td&gt;&lt;td&gt;Calmar 比率&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;007406.OF&lt;/td&gt;&lt;td&gt;银河睿鑫债券&lt;/td&gt;&lt;td&gt;0.01&lt;/td&gt;&lt;td&gt;刘铭&lt;/td&gt;&lt;td&gt;4.64&lt;/td&gt;&lt;td&gt;1.15&lt;/td&gt;&lt;td&gt;4.46&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;004102.OF&lt;/td&gt;&lt;td&gt;中信保诚稳悦债券A&lt;/td&gt;&lt;td&gt;0.59&lt;/td&gt;&lt;td&gt;吴秋君&lt;/td&gt;&lt;td&gt;4.06&lt;/td&gt;&lt;td&gt;1.66&lt;/td&gt;&lt;td&gt;2.71&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;004400.OF&lt;/td&gt;&lt;td&gt;金信民兴债券A&lt;/td&gt;&lt;td&gt;15.17&lt;/td&gt;&lt;td&gt;杨杰,刘雨卉&lt;/td&gt;&lt;td&gt;3.51&lt;/td&gt;&lt;td&gt;0.66&lt;/td&gt;&lt;td&gt;5.89&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;008549.OF&lt;/td&gt;&lt;td&gt;汇安中债-广西信用债A&lt;/td&gt;&lt;td&gt;1.25&lt;/td&gt;&lt;td&gt;吴乐玉&lt;/td&gt;&lt;td&gt;3.33&lt;/td&gt;&lt;td&gt;0.65&lt;/td&gt;&lt;td&gt;5.63&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;012352.OF&lt;/td&gt;&lt;td&gt;英大通惠多利债券A&lt;/td&gt;&lt;td&gt;9.59&lt;/td&gt;&lt;td&gt;韩坪&lt;/td&gt;&lt;td&gt;3.24&lt;/td&gt;&lt;td&gt;0.70&lt;/td&gt;&lt;td&gt;5.09&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;005369.OF&lt;/td&gt;&lt;td&gt;富国臻利纯债定期开放债券型发起式&lt;/td&gt;&lt;td&gt;47.36&lt;/td&gt;&lt;td&gt;武磊&lt;/td&gt;&lt;td&gt;3.13&lt;/td&gt;&lt;td&gt;1.02&lt;/td&gt;&lt;td&gt;3.38&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;007520.OF&lt;/td&gt;&lt;td&gt;富安达富利纯债债券A&lt;/td&gt;&lt;td&gt;11.68&lt;/td&gt;&lt;td&gt;康佳燕,夏彤&lt;/td&gt;&lt;td&gt;3.13&lt;/td&gt;&lt;td&gt;0.30&lt;/td&gt;&lt;td&gt;11.32&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;021429.OF&lt;/td&gt;&lt;td&gt;中泰安弘债券A&lt;/td&gt;&lt;td&gt;1.49&lt;/td&gt;&lt;td&gt;蔡凤仪,程冰&lt;/td&gt;&lt;td&gt;3.08&lt;/td&gt;&lt;td&gt;1.17&lt;/td&gt;&lt;td&gt;2.90&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;006980.OF&lt;/td&gt;&lt;td&gt;国寿安保泰恒纯债债券&lt;/td&gt;&lt;td&gt;5.59&lt;/td&gt;&lt;td&gt;陶尹斌&lt;/td&gt;&lt;td&gt;3.05&lt;/td&gt;&lt;td&gt;0.64&lt;/td&gt;&lt;td&gt;5.28&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;004246.OF&lt;/td&gt;&lt;td&gt;德邦锐乾债券A&lt;/td&gt;&lt;td&gt;8.46&lt;/td&gt;&lt;td&gt;邹舟,张铮烁,张旭&lt;/td&gt;&lt;td&gt;2.93&lt;/td&gt;&lt;td&gt;0.38&lt;/td&gt;&lt;td&gt;8.46&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;003733.OF&lt;/td&gt;&lt;td&gt;金鹰添裕纯债债券A&lt;/td&gt;&lt;td&gt;8.61&lt;/td&gt;&lt;td&gt;邹卫&lt;/td&gt;&lt;td&gt;2.81&lt;/td&gt;&lt;td&gt;1.33&lt;/td&gt;&lt;td&gt;2.34&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;016210.OF&lt;/td&gt;&lt;td&gt;摩根瑞享纯债债券A&lt;/td&gt;&lt;td&gt;2.53&lt;/td&gt;&lt;td&gt;田原&lt;/td&gt;&lt;td&gt;2.76&lt;/td&gt;&lt;td&gt;0.33&lt;/td&gt;&lt;td&gt;9.36&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;004897.OF&lt;/td&gt;&lt;td&gt;长安泓源纯债债券A&lt;/td&gt;&lt;td&gt;9.58&lt;/td&gt;&lt;td&gt;孟楠&lt;/td&gt;&lt;td&gt;2.74&lt;/td&gt;&lt;td&gt;0.46&lt;/td&gt;&lt;td&gt;6.53&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;002970.OF&lt;/td&gt;&lt;td&gt;博时裕昂纯债债券A&lt;/td&gt;&lt;td&gt;0.26&lt;/td&gt;&lt;td&gt;李俏&lt;/td&gt;&lt;td&gt;2.73&lt;/td&gt;&lt;td&gt;0.34&lt;/td&gt;&lt;td&gt;8.97&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;017214.OF&lt;/td&gt;&lt;td&gt;兴华安聚纯债A&lt;/td&gt;&lt;td&gt;2.13&lt;/td&gt;&lt;td&gt;吕智卓&lt;/td&gt;&lt;td&gt;2.68&lt;/td&gt;&lt;td&gt;1.45&lt;/td&gt;&lt;td&gt;2.03&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;003162.OF&lt;/td&gt;&lt;td&gt;博时富宁纯债债券A&lt;/td&gt;&lt;td&gt;0.33&lt;/td&gt;&lt;td&gt;李秋实&lt;/td&gt;&lt;td&gt;2.65&lt;/td&gt;&lt;td&gt;0.34&lt;/td&gt;&lt;td&gt;8.56&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;006071.OF&lt;/td&gt;&lt;td&gt;银河睿嘉债券A&lt;/td&gt;&lt;td&gt;0.15&lt;/td&gt;&lt;td&gt;蒋磊&lt;/td&gt;&lt;td&gt;2.62&lt;/td&gt;&lt;td&gt;0.31&lt;/td&gt;&lt;td&gt;9.34&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;006826.OF&lt;/td&gt;&lt;td&gt;华宝宝裕债券A&lt;/td&gt;&lt;td&gt;4.15&lt;/td&gt;&lt;td&gt;王慧&lt;/td&gt;&lt;td&gt;2.58&lt;/td&gt;&lt;td&gt;0.58&lt;/td&gt;&lt;td&gt;4.89&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;006184.OF&lt;/td&gt;&lt;td&gt;格林泓鑫纯债A&lt;/td&gt;&lt;td&gt;3.02&lt;/td&gt;&lt;td&gt;尹子昕&lt;/td&gt;&lt;td&gt;2.56&lt;/td&gt;&lt;td&gt;1.58&lt;/td&gt;&lt;td&gt;1.79&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;003039.OF&lt;/td&gt;&lt;t</t>
   </si>
   <si>
-    <t>```json
-{
-"category": "A_基金相关",
-"score": 7,
-"reason": "公募基金2026年度策略，基于资金流向与业绩统计，给出权益/固收/商品基金配置建议，含具体基金推荐与风险展望"
-}
-```</t>
-  </si>
-  <si>
-    <t>2026-02-03 07:35:32</t>
-  </si>
-  <si>
-    <t>2025-12-03_金融街证券_ETF科普系列：ETF托管结算业务概览，券结与降费重塑机构生态</t>
-  </si>
-  <si>
     <t>证券研究报告/策略研究
 2025 年 12 月 02 日
 # ETF托管结算业务概览，券结与降费重塑机构生态
@@ -3028,21 +3679,6 @@
 市场有风险，投资需谨慎。投资者不应将本报告作为作出投资决策的唯一参考因素，亦不应认为本报告可以取代自己的判断。在决定投资前，如有需要，投资者务必向专业人士咨询并谨慎决策。</t>
   </si>
   <si>
-    <t>```json
-{
-"category": "F_专题与系列研究报告",
-"score": 6,
-"reason": "ETF托管结算行业生态分析，梳理券结模式崛起、费率下行趋势及券商份额提升现象，属于ETF科普系列专题"
-}
-```</t>
-  </si>
-  <si>
-    <t>2026-02-03 07:35:41</t>
-  </si>
-  <si>
-    <t>2025-12-09_东莞证券_ETF基金周报：中证A500类ETF基金获资金青睐</t>
-  </si>
-  <si>
     <t># ETF 基金周报（20251201-20251205）：
 中证A500 类ETF 基金获资金青睐
 2025 年 12 月 9 日
@@ -3135,16 +3771,6 @@
 邮政编码：523000
 电话：（0769）22115843
 网址：www.dgzq.com.cn</t>
-  </si>
-  <si>
-    <t>{
-"category": "G_定期报告",
-"score": 5,
-"reason": "ETF周报，跟踪周度资金流向与指数表现，以数据罗列为主，缺乏可复用的投资框架与深度策略建议，适合快速浏览了解市场动态。"
-}</t>
-  </si>
-  <si>
-    <t>2025-12-11_华宝证券_基金配置策略报告：静待春季行情，延续均衡配置</t>
   </si>
   <si>
     <t>2025年12月10日
@@ -3296,18 +3922,6 @@
 ★ 本报告对基金产品的研究分析不应被视为对所述基金产品的评价结果，本报告对所述基金产品的客观数据展示不应被视为对其排名打分的依据。任何个人或机构不得将我方基金产品研究成果作为基金产品评价结果予以公开宣传或不当引用。
 # 适当性申明
 根据证券投资者适当性管理有关法规，该研究报告仅适合专业机构投资者及与我司签订咨询服务协议的普通投资者，若您为非专业投资者及未与我司签订咨询服务协议的投资者，请勿阅读、转载本报告。</t>
-  </si>
-  <si>
-    <t>```json
-{
-"category": "A_基金相关",
-"score": 8,
-"reason": "构建主动权益与固收类基金优选指数，提供具体基金标的名单及均衡配置策略，具备直接参考价值。"
-}
-```</t>
-  </si>
-  <si>
-    <t>2025-12-12_财信证券_基金市场2026年年度策略报告：守静笃，再平衡</t>
   </si>
   <si>
     <t># 基金深度报告（R3）
@@ -3630,16 +4244,6 @@
 基于过去的研究实践基础，基金组合实现较好的风险调整后收益可能是我们希望持续、长期达到的目标。结合公募市场变化等因素，我们对目前模拟的基金组合从风险收益的差异化、品种的流动性和可及性等多方面进行了梳理，并拟对来</t>
   </si>
   <si>
-    <t>{
-"category": "A_基金相关",
-"score": 7,
-"reason": "年度基金策略报告，详述基金组合构建方法论与历史业绩，提供2026年具体基金配置方案及品种名单，含风险调整后收益分析，适合FOF及基金投资者参考。"
-}</t>
-  </si>
-  <si>
-    <t>2025-12-15_华宝证券_ETF策略指数跟踪周报</t>
-  </si>
-  <si>
     <t>2025 年 12 月 15 日
 证券研究报告 | 公募基金周报
 # ETF 策略指数跟踪周报
@@ -3793,21 +4397,6 @@
 $\star$ 根据证券投资者适当性管理有关法规，该研究报告仅适合专业机构投资者及与我司签订咨询服务协议的普通投资者，若您为非专业投资者及未与我司签订咨询服务协议的投资者，请勿阅读、转载本报告。</t>
   </si>
   <si>
-    <t>```json
-{
-"category": "G_定期报告",
-"score": 7,
-"reason": "周报跟踪6种ETF策略指数（大小盘轮动、SmartBeta、行业轮动、久期管理等）的周度绩效与持仓，基于机器学习与多因子模型构建，展示量化方法在ETF配置中的具体应用。"
-}
-```</t>
-  </si>
-  <si>
-    <t>2026-02-03 07:35:58</t>
-  </si>
-  <si>
-    <t>2025-12-16_东莞证券_ETF基金周报：资金布局红利类策略趋势明显</t>
-  </si>
-  <si>
     <t># ETF 基金周报（20251208-20251212）：
 资金布局红利类策略趋势明显
 2025 年 12 月 16 日
@@ -3905,18 +4494,6 @@
 邮政编码：523000
 电话：（0769）22115843
 网址：www.dgzq.com.cn</t>
-  </si>
-  <si>
-    <t>```json
-{
-"category": "G_定期报告",
-"score": 6,
-"reason": "周度ETF市场数据跟踪，分析资金向红利策略及科创债流动趋势，属定期行情监测"
-}
-```</t>
-  </si>
-  <si>
-    <t>2025-12-16_国金证券_跟踪资金流系列专题（四）：基于_ETF_持有人结构资金流因子的行业轮动策略</t>
   </si>
   <si>
     <t># 跟踪资金流系列专题（四）
@@ -4255,19 +4832,6 @@
 &lt;table&gt;&lt;tr&gt;&lt;td&gt;日期&lt;/td&gt;&lt;td&gt;年化收益 率&lt;/td&gt;&lt;td&gt;夏普率&lt;/td&gt;&lt;td&gt;Calmar 比 率&lt;/td&gt;&lt;td&gt;最大回撤&lt;/td&gt;&lt;td&gt;年化超额 收益率&lt;/td&gt;&lt;td&gt;超额夏普 率&lt;/td&gt;&lt;td&gt;超额最大 回撤&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;all&lt;/td&gt;&lt;td&gt;10%&lt;/td&gt;&lt;td&gt;0.54&lt;/td&gt;&lt;td&gt;0.38&lt;/td&gt;&lt;td&gt;26%&lt;/td&gt;&lt;td&gt;8%&lt;/td&gt;&lt;td&gt;0.97&lt;/td&gt;&lt;td&gt;9%&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;2020&lt;/td&gt;&lt;td&gt;28%&lt;/td&gt;&lt;td&gt;1.08&lt;/td&gt;&lt;td&gt;2.13&lt;/td&gt;&lt;td&gt;13%&lt;/td&gt;&lt;td&gt;4%&lt;/td&gt;&lt;td&gt;0.62&lt;/td&gt;&lt;td&gt;4%&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;2021&lt;/td</t>
   </si>
   <si>
-    <t>{
-"category": "F_专题与系列研究报告",
-"score": 8,
-"reason": "系列专题第四篇，创新拆解ETF持有人结构构建行业轮动因子，重点挖掘保险资金的'聪明钱'效应，提供可复用的量化框架与回测验证。"
-}</t>
-  </si>
-  <si>
-    <t>2026-02-03 07:35:31</t>
-  </si>
-  <si>
-    <t>2025-12-16_财信证券_基金周报：中债利率下行，本周新基金发行速度整体放缓</t>
-  </si>
-  <si>
     <t># 基金周度报告（R3）
 # 基金市场
 # 中债利率下行
@@ -4339,18 +4903,6 @@
 邮编：410005
 电话：0731-84403360
 传真：0731-84403438</t>
-  </si>
-  <si>
-    <t>```json
-{
-"category": "G_定期报告",
-"score": 6,
-"reason": "周报形式，罗列市场行情、ETF资金流向及本周新发基金明细，缺乏深度分析与可复用框架。"
-}
-```</t>
-  </si>
-  <si>
-    <t>2025-12-17_华龙证券_TS策略每日信号跟踪</t>
   </si>
   <si>
     <t># TS策略每日信号跟踪
@@ -4430,21 +4982,6 @@
 深圳
 地址：深圳市福田区民田路178号华融大厦辅楼2层
 邮编：518046</t>
-  </si>
-  <si>
-    <t>```json
-{
-"category": "G_定期报告",
-"score": 6,
-"reason": "自适应双模态ETF策略日频跟踪，提供具体持仓与T+1交易指令，适合策略跟随者参考，但属例行数据更新，方法论创新有限"
-}
-```</t>
-  </si>
-  <si>
-    <t>2026-02-03 07:35:57</t>
-  </si>
-  <si>
-    <t>2025-12-18_财信证券_年内新成立ETF-FOF产品规模已超28亿</t>
   </si>
   <si>
     <t># 基金点评报告（R3）
@@ -4535,21 +5072,6 @@
 邮编：410005
 电话：0731-84403360
 传真：0731-84403438</t>
-  </si>
-  <si>
-    <t>```json
-{
-"category": "A_基金相关",
-"score": 7,
-"reason": "分析ETF-FOF新产品业绩基准设计，关注多资产策略指数化趋势，对FOF配置有参考价值"
-}
-```</t>
-  </si>
-  <si>
-    <t>2026-02-03 07:35:42</t>
-  </si>
-  <si>
-    <t>2025-12-21_金融街证券_北交所专题报告（三）：两年定开主题基金开放窗口已至，或迎来配置机遇</t>
   </si>
   <si>
     <t>证券研究报告/策略研究
@@ -4747,21 +5269,6 @@
 金融街证券股份有限公司具有证券投资咨询资格，本公司不会因接收人收到本报告而视其为客户。本报告的信息均来源于公开资料，本公司对这些信息的准确性和完整性不作任何保证，也不保证所包含信息和建议不发生任何变更。本公司已力求报告内容的客观、公正，但文中的观点、结论和建议仅供参考，不包含作者对证券价格涨跌或市场走势的确定性判断。报告中的信息或意见并不构成所述证券的买卖出价或征价，投资者据此做出的任何投资决策与本公司和作者无关。本报告所载的资料、意见及推测仅反映本公司于发布本报告当日的判断，本报告所指的证券或投资标的的价格、价值及投资收入可升可跌，过往表现不应作为日后的表现依据；在不同时期，本公司可以发出其他与本报告所载信息不一致及有不同结论的报告；本报告所反映研究人员的不同观点、见解及分析方法，并不代表本公司或</t>
   </si>
   <si>
-    <t>```json
-{
-"category": "A_基金相关",
-"score": 7,
-"reason": "北交所两年定开基金深度分析，对比两轮开放期业绩、持仓及申赎行为，评估配置价值。"
-}
-```</t>
-  </si>
-  <si>
-    <t>2026-02-03 07:35:40</t>
-  </si>
-  <si>
-    <t>2025-12-22_华龙证券_股票型ETF每日交易数据跟踪</t>
-  </si>
-  <si>
     <t># 股票型ETF每日交易数据跟踪
 - -20251219
 华龙证券研究所 公募基金
@@ -4831,21 +5338,6 @@
 # 深圳
 地址：深圳市福田区民田路178号华融大厦辅楼2层
 邮编：518046</t>
-  </si>
-  <si>
-    <t>```json
-{
-"category": "G_定期报告",
-"score": 5,
-"reason": "每日ETF行情、资金流向及两融数据跟踪，纯数据罗列，无策略框架或深度分析，短期参考价值有限"
-}
-```</t>
-  </si>
-  <si>
-    <t>2026-02-03 07:35:35</t>
-  </si>
-  <si>
-    <t>2025-12-22_国泰海通_投资者微观行为洞察手册・12_月第_3_期：ETF_大幅流入，外资持续流入_A_股</t>
   </si>
   <si>
     <t># ETF 大幅流入，外资持续流入 A 股
@@ -5014,16 +5506,6 @@
 数据来源：Wind，国泰海通证券研究
 表14：股票 ETF 周度资金净流入跟踪：本期 A500ETF、创业板 ETF 等净流入居前  
 &lt;table&gt;&lt;tr&gt;&lt;td&gt;排序&lt;/td&gt;&lt;td&gt;25/12/19&lt;/td&gt;&lt;td&gt;25/12/12&lt;/td&gt;&lt;td&gt;25/12/05&lt;/td&gt;&lt;td&gt;25/11/28&lt;/td&gt;&lt;td&gt;25/11/21&lt;/td&gt;&lt;td&gt;25/11/14&lt;/td&gt;&lt;td&gt;25/11/07&lt;/td&gt;&lt;td&gt;25/10/31&lt;/td&gt;&lt;td&gt;25/10/24&lt;/td&gt;&lt;td&gt;25/10/17&lt;/td&gt;&lt;td&gt;25/10/10&lt;/td&gt;&lt;td&gt;25/09/30&lt;/td&gt;&lt;td&gt;25/09/26&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td colspan="14"&gt;最新一期流入(或流出最少)前十股票ETF(亿元)&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;1&lt;/td&gt;&lt;td&gt;100.9&lt;/td&gt;&lt;td&gt;40.4&lt;/td&gt;&lt;td&gt;22.1&lt;/td&gt;&lt;td&gt;23.4&lt;/td&gt;&lt;td&gt;58.1&lt;/td&gt;&lt;td&gt;25.1&lt;/td&gt;&lt;td&gt;29.4&lt;/td&gt;&lt;td&gt;59.3&lt;/td&gt;&lt;td&gt;9.9&lt;/td&gt;&lt;td&gt;52.9&lt;/td&gt;&lt;td&gt;31.3&lt;/td&gt;&lt;td&gt;53.2&lt;/td&gt;&lt;td&gt;28.7&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;2&lt;/td&gt;&lt;td&gt;86.7&lt;/td&gt;&lt;td&gt;37.7&lt;/td&gt;&lt;td&gt;17.1&lt;/td&gt;&lt;td&gt;6.8&lt;/td&gt;&lt;td&gt;47.3&lt;/td&gt;&lt;td&gt;20.4&lt;/td&gt;&lt;td&gt;14.9&lt;/td&gt;&lt;td&gt;30.0&lt;/td&gt;&lt;td&gt;8.6&lt;/td&gt;&lt;td&gt;32.4&lt;/td&gt;&lt;td&gt;28.6&lt;/td&gt;&lt;td&gt;40.4&lt;/td&gt;&lt;td&gt;25.4&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;3&lt;/td&gt;&lt;td&gt;42.7&lt;/td&gt;&lt;td&gt;20.6&lt;/td&gt;&lt;td&gt;13.0&lt;/td&gt;&lt;td&gt;6.3&lt;/td&gt;&lt;td&gt;45.1&lt;/td&gt;&lt;td&gt;13.9&lt;/td&gt;&lt;td&gt;10.8&lt;/td&gt;&lt;td&gt;24.8&lt;/td&gt;&lt;td&gt;7.6&lt;/td&gt;&lt;td&gt;27.9&lt;/td&gt;&lt;td&gt;27.6&lt;/td&gt;&lt;td&gt;26.5&lt;/td&gt;&lt;td&gt;24.5&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;4&lt;/td&gt;&lt;td&gt;31.6&lt;/td&gt;&lt;td&gt;9.8&lt;/td&gt;&lt;td&gt;12.4&lt;/td&gt;&lt;td&gt;6.2&lt;/td&gt;&lt;td&gt;35.4&lt;/td&gt;&lt;td&gt;10.7&lt;/td&gt;&lt;td&gt;9.2&lt;/td&gt;&lt;td&gt;24.4&lt;/td&gt;&lt;td&gt;7.1&lt;/td&gt;&lt;td&gt;27.8&lt;/td&gt;&lt;td&gt;23.8&lt;/td&gt;&lt;td&gt;23.3&lt;/td&gt;&lt;td&gt;20.9&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;5&lt;/td&gt;&lt;td&gt;30.8&lt;/td&gt;&lt;td&gt;8.6&lt;/td&gt;&lt;td&gt;11.5&lt;/td&gt;&lt;td&gt;5.2&lt;/td&gt;&lt;td&gt;27.2&lt;/td&gt;&lt;td&gt;10.1&lt;/td&gt;&lt;td&gt;8.5&lt;/td&gt;&lt;td&gt;22.7&lt;/td&gt;&lt;td&gt;7.0&lt;/td&gt;&lt;td&gt;17.9&lt;/td&gt;&lt;td&gt;21.7&lt;/td&gt;&lt;td&gt;11.7&lt;/td&gt;&lt;td&gt;19.4&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;6&lt;/td&gt;&lt;td&gt;26.9&lt;/td&gt;&lt;td&gt;8.3&lt;/td&gt;&lt;td&gt;10.3&lt;/td&gt;&lt;td&gt;5.0&lt;/td&gt;&lt;td&gt;24.3&lt;/td&gt;&lt;td&gt;8.2&lt;/td&gt;&lt;td&gt;8.3&lt;/td&gt;&lt;td&gt;19.2&lt;/td&gt;&lt;td&gt;6.0&lt;/td&gt;&lt;td&gt;16.5&lt;/td&gt;&lt;td&gt;21.0&lt;/td&gt;&lt;td&gt;11.4&lt;/td&gt;&lt;td&gt;14.8&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;7&lt;/td&gt;&lt;td&gt;26.3&lt;/td&gt;&lt;td&gt;8.2&lt;/td&gt;&lt;td&gt;8.9&lt;/td&gt;&lt;td&gt;4.5&lt;/td&gt;&lt;td&gt;19.2&lt;/td&gt;&lt;td&gt;8.2&lt;/td&gt;&lt;td&gt;8.3&lt;/td&gt;&lt;td&gt;17.3&lt;/td&gt;&lt;td&gt;5.9&lt;/td&gt;&lt;td&gt;14.9&lt;/td&gt;&lt;td&gt;18.2&lt;/td&gt;&lt;td&gt;11.1&lt;/td&gt;&lt;td&gt;14.7&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;8&lt;/td&gt;&lt;td&gt;17.8&lt;/td&gt;&lt;td&gt;7.7&lt;/td&gt;&lt;td&gt;8.9&lt;/td&gt;&lt;td&gt;4.1&lt;/td&gt;&lt;td&gt;14.0&lt;/td&gt;&lt;td&gt;6.5&lt;/td&gt;&lt;td&gt;7.7&lt;/td&gt;&lt;td&gt;17.2&lt;/td&gt;&lt;td&gt;4.9&lt;/td&gt;&lt;td&gt;14.2&lt;/td&gt;&lt;td&gt;16.6&lt;/td&gt;&lt;td&gt;9.9&lt;/td&gt;&lt;td&gt;14.4&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;9&lt;/td&gt;&lt;td&gt;13.9&lt;/td&gt;&lt;td&gt;7.7&lt;/td&gt;&lt;td&gt;7.6&lt;/td&gt;&lt;td&gt;3.6&lt;/td&gt;&lt;td&gt;13.5&lt;/td&gt;&lt;td&gt;6.4&lt;/td&gt;&lt;td&gt;7.6&lt;/td&gt;&lt;td&gt;16.9&lt;/td&gt;&lt;td&gt;3.8&lt;/td&gt;&lt;td&gt;14.1&lt;/td&gt;&lt;td&gt;11.8&lt;/td&gt;&lt;td&gt;9.3&lt;/td&gt;&lt;td&gt;13.2&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;10&lt;/td&gt;&lt;td&gt;12.0&lt;/td&gt;&lt;td&gt;6.9&lt;/td&gt;&lt;td&gt;6.5&lt;/td&gt;&lt;td&gt;3.5&lt;/td&gt;&lt;td&gt;10.6&lt;/td&gt;&lt;td&gt;6.0&lt;/td&gt;&lt;td&gt;7.3&lt;/td&gt;&lt;td&gt;10.7&lt;/td&gt;&lt;td&gt;3.7&lt;/td&gt;&lt;td&gt;12.1&lt;/td&gt;&lt;td&gt;11.3&lt;/td&gt;&lt;td&gt;7.2&lt;/td&gt;&lt;td&gt;11.7&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;1&lt;/td&gt;&lt;td&gt;中证A500ETF 南方&lt;/td&gt;&lt;td&gt;中证A500ETF 基金&lt;/td&gt;&lt;td&gt;中证A500ETF 基金&lt;/td&gt;&lt;td&gt;上证50ETF&lt;/td&gt;&lt;td&gt;中证500ETF&lt;/td&gt;&lt;td&gt;科创50ETF&lt;/td&gt;&lt;td&gt;证券ETF&lt;/td&gt;&lt;td&gt;沪深300ETF&lt;/td&gt;&lt;td&gt;券商ETF&lt;/td&gt;&lt;td&gt;银行ETF&lt;/td&gt;&lt;td&gt;科创芯片ETF&lt;/td&gt;&lt;td&gt;人工智能ETF&lt;/td&gt;&lt;td&gt;中证A500ETF 富国&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;2&lt;/td&gt;&lt;td&gt;中证A500ETF 基金&lt;/td&gt;&lt;td&gt;中证A500ETF 南方&lt;/td&gt;&lt;td&gt;NA500ETF 基金&lt;/td&gt;&lt;td&gt;NA500ETF 基 金&lt;/td&gt;&lt;td&gt;</t>
-  </si>
-  <si>
-    <t>{
-"category": "G_定期报告",
-"score": 6,
-"reason": "周度资金流向跟踪报告，涵盖ETF、外资、融资、公募等多维度资金数据，适合监控短期资金面变化，但缺乏策略构建与中长期决策框架。"
-}</t>
-  </si>
-  <si>
-    <t>2025-12-22_渤海证券_公募基金周报：中证A500ETF流入规模超300亿元，中证东盟数字经济主题指数发布</t>
   </si>
   <si>
     <t># 中证 A500ETF 流入规模超 300 亿元，中证东盟数字经济主题指数发布
@@ -5228,21 +5710,6 @@
 渤海证券股份有限公司网址： www.ewww.com.cn</t>
   </si>
   <si>
-    <t>```json
-{
-"category": "G_定期报告",
-"score": 4,
-"reason": "公募基金周报，以ETF流向、基金收益排名、新发基金等数据跟踪为主，缺乏深度研究框架与可执行投资建议，主要供快速浏览获取基础市场信息。"
-}
-```</t>
-  </si>
-  <si>
-    <t>2026-02-03 07:35:53</t>
-  </si>
-  <si>
-    <t>2025-12-22_金融街证券_行业轮动ETF策略周报(20251215-20251219)</t>
-  </si>
-  <si>
     <t># 证券研究报告·策略周报
 2025年12月22日
 证券分析师：张一
@@ -5283,21 +5750,6 @@
 本公司及作者在自身所知情范围内，与本报告中所评价或推荐的证券不存在法律法规要求披露或采取限制、静默措施的利益冲突。
 本报告版权仅为本公司所有，未经书面许可，任何机构和个人不得以任何形式将研报内容和相关信息对外公布、转发、转载、传播、复制、编辑、修改、引用等。如有上述违法行为，本公司保留追究相关法律责任的权利。
 市场有风险，投资需谨慎。投资者不应将本报告作为作出投资决策的唯一参考因素，亦不应认为本报告可以取代自己的判断。在决定投资前，如有需要，投资者务必向专业人士咨询并谨慎决策。</t>
-  </si>
-  <si>
-    <t>```json
-{
-"category": "B_ETF策略",
-"score": 6,
-"reason": "行业轮动ETF策略的周度跟踪，提供具体调仓标的、持仓业绩及量价择时信号，具备执行参考价值但属常规运作更新"
-}
-```</t>
-  </si>
-  <si>
-    <t>2026-02-03 07:36:14</t>
-  </si>
-  <si>
-    <t>2025-12-22_麦高证券_ETF周报（20251215-20251219）</t>
   </si>
   <si>
     <t># ETF 周报（20251215-20251219）
@@ -5467,18 +5919,6 @@
 &lt;table&gt;&lt;tr&gt;&lt;td&gt;姓名&lt;/td&gt;&lt;td&gt;职务&lt;/td&gt;&lt;td&gt;手机&lt;/td&gt;&lt;td&gt;邮箱&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;张旭&lt;/td&gt;&lt;td&gt;机构销售&lt;/td&gt;&lt;td&gt;18195120376&lt;/td&gt;&lt;td&gt;zhangxu01@mgzq.com&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;王佳瑜&lt;/td&gt;&lt;td&gt;机构销售&lt;/td&gt;&lt;td&gt;15393708503&lt;/td&gt;&lt;td&gt;wangjiayu@mgzq.com&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;刘沁然&lt;/td&gt;&lt;td&gt;机构销售&lt;/td&gt;&lt;td&gt;15190951726&lt;/td&gt;&lt;td&gt;liuqinran@mgzq.com&lt;/td&gt;&lt;/tr&gt;&lt;/table&gt;</t>
   </si>
   <si>
-    <t>```json
-{
-"category": "G_定期报告",
-"score": 5,
-"reason": "ETF市场周报，罗列资金流向、成交额等统计数据，缺乏投资策略或深度分析框架，仅适合作为基础数据跟踪参考。"
-}
-```</t>
-  </si>
-  <si>
-    <t>2025-12-23_华龙证券_股票型ETF每日交易数据跟踪</t>
-  </si>
-  <si>
     <t># 股票型ETF每日交易数据跟踪
 - -20251223
 华龙证券研究所 公募基金
@@ -5549,18 +5989,6 @@
 # 深圳
 地址：深圳市福田区民田路178号华融大厦辅楼2层
 邮编：518046</t>
-  </si>
-  <si>
-    <t>```json
-{
-"category": "G_定期报告",
-"score": 2,
-"reason": "每日ETF行情与资金流数据跟踪，无策略构建或深度分析，属常规数据播报"
-}
-```</t>
-  </si>
-  <si>
-    <t>2025-12-25_华龙证券_TS策略每日信号跟踪</t>
   </si>
   <si>
     <t># TS策略每日信号跟踪
@@ -5645,21 +6073,6 @@
 邮编：518046</t>
   </si>
   <si>
-    <t>```json
-{
-"category": "G_定期报告",
-"score": 6,
-"reason": "TS策略日频跟踪，提供ETF调仓信号与净值监控，适合策略使用者跟投，但属日常数据更新，方法论价值有限"
-}
-```</t>
-  </si>
-  <si>
-    <t>2026-02-03 07:36:13</t>
-  </si>
-  <si>
-    <t>2025-12-25_华龙证券_股票型ETF每日交易数据跟踪</t>
-  </si>
-  <si>
     <t># 股票型ETF每日交易数据跟踪
 - -20251224
 华龙证券研究所 公募基金
@@ -5729,19 +6142,6 @@
 # 深圳
 地址：深圳市福田区民田路178号华融大厦辅楼2层
 邮编：518046</t>
-  </si>
-  <si>
-    <t>{
-"category": "G_定期报告",
-"score": 2,
-"reason": "每日ETF行情与资金流向数据跟踪，无投资策略或深度分析，属于例行数据播报"
-}</t>
-  </si>
-  <si>
-    <t>2026-02-03 07:35:45</t>
-  </si>
-  <si>
-    <t>2025-12-28_银河证券_公募基金市场观察系列：被动投资升温，聚焦多元化ETF配置与指数增强基金</t>
   </si>
   <si>
     <t># 被动投资升温，聚焦多元化 ETF 配置与指数增强基金
@@ -6007,16 +6407,6 @@
 褚颖 盫盬盫-盳盫直盭盲盲盰盰chuying_yj@chinastock.com.cn</t>
   </si>
   <si>
-    <t>{
-"category": "F_专题与系列研究报告",
-"score": 7,
-"reason": "系列专题研究被动基金市场格局与资金流向，剖析策略ETF蓝海机遇，对比中美Smart Beta发展差异，提出指数增强与投顾协同创新路径"
-}</t>
-  </si>
-  <si>
-    <t>2025-12-29_上海证券_REITs市场跟踪双周报：两只REITs扩募完成，二级市场表现分化</t>
-  </si>
-  <si>
     <t>报告日期：2025年12月29日
 上海证券基金评价研究中心
 分析师：孙桂平
@@ -6192,18 +6582,6 @@
 本报告版权归上海证券有限责任公司所有。未获得上海证券有限责任公司事先书面授权，任何人不得对本报告进行任何形式的发布、复制。如遵循原文本意地引用、刊发，需注明出处为“上海证券基金评价研究中心”。</t>
   </si>
   <si>
-    <t>```json
-{
-"category": "G_定期报告",
-"score": 6,
-"reason": "REITs市场定期跟踪，涵盖发行、交易、分红及估值数据，适合市场监控但缺乏深度策略与可复现方法"
-}
-```</t>
-  </si>
-  <si>
-    <t>2025-12-29_华龙证券_TS策略每日信号跟踪</t>
-  </si>
-  <si>
     <t># TS策略每日信号跟踪
 - -20251229
 华龙证券研究所 公募基金
@@ -6283,21 +6661,6 @@
 深圳
 地址：深圳市福田区民田路178号华融大厦辅楼2层
 邮编：518046</t>
-  </si>
-  <si>
-    <t>```json
-{
-"category": "G_定期报告",
-"score": 6,
-"reason": "ETF自适应双模态策略的日频信号跟踪，提供具体买卖指令与持仓，适合短期交易参考但方法创新性有限。"
-}
-```</t>
-  </si>
-  <si>
-    <t>2026-02-03 07:35:51</t>
-  </si>
-  <si>
-    <t>2025-12-30_华龙证券_公募基金2026年配置策略报告：类债防守+科技进攻+风险对冲</t>
   </si>
   <si>
     <t># 类债防守+科技进攻+风险对冲
@@ -6713,19 +7076,6 @@
 邮编：518046</t>
   </si>
   <si>
-    <t>{
-"category": "A_基金相关",
-"score": 8,
-"reason": "构建三层动态资产配置框架（压舱石+增长引擎+对冲卫星），基于PMI/社融/波动率信号设计情景化调仓规则，并提供具体公募基金产品落地建议与筛选标准"
-}</t>
-  </si>
-  <si>
-    <t>2026-02-03 07:35:54</t>
-  </si>
-  <si>
-    <t>2025-12-31_华龙证券_TS策略每日信号跟踪</t>
-  </si>
-  <si>
     <t># TS策略每日信号跟踪
 - -20251230
 华龙证券研究所 公募基金
@@ -6806,21 +7156,6 @@
 深圳
 地址：深圳市福田区民田路178号华融大厦辅楼2层
 邮编：518046</t>
-  </si>
-  <si>
-    <t>```json
-{
-"category": "G_定期报告",
-"score": 6,
-"reason": "基于自适应双模态TS策略的ETF日频跟踪，提供模态判定、持仓明细及T+1交易指令，属策略执行层面的定期更新"
-}
-```</t>
-  </si>
-  <si>
-    <t>2026-02-03 07:36:19</t>
-  </si>
-  <si>
-    <t>2025-12-31_华龙证券_股票型ETF基金2025年业绩分析报告：资产配置更趋“哑铃化”与“理性化”</t>
   </si>
   <si>
     <t># 资产配置更趋“哑铃化”与“理性化”
@@ -6967,21 +7302,6 @@
 邮编：518046</t>
   </si>
   <si>
-    <t>```json
-{
-"category": "A_基金相关",
-"score": 6,
-"reason": "股票型ETF年度业绩回顾，总结哑铃化配置特征（宽基+成长+红利），数据详实但偏重历史复盘与现象描述，策略前瞻性有限"
-}
-```</t>
-  </si>
-  <si>
-    <t>2026-02-03 07:35:59</t>
-  </si>
-  <si>
-    <t>2025-12-31_华龙证券_股票型ETF每日交易数据跟踪</t>
-  </si>
-  <si>
     <t># 股票型ETF每日交易数据跟踪
 - -20251231
 华龙证券研究所 公募基金
@@ -7052,21 +7372,6 @@
 # 深圳
 地址：深圳市福田区民田路178号华融大厦辅楼2层
 邮编：518046</t>
-  </si>
-  <si>
-    <t>```json
-{
-"category": "G_定期报告",
-"score": 5,
-"reason": "每日ETF行情、资金流向及融资数据跟踪，纯数据展示，缺乏策略构建与深度分析，仅适合短期交易参考"
-}
-```</t>
-  </si>
-  <si>
-    <t>2026-02-03 07:35:52</t>
-  </si>
-  <si>
-    <t>2025-12-31_渤海证券_基金专题报告：强化学习在大类资产配置中的应用初探</t>
   </si>
   <si>
     <t># 强化学习在大类资产配置中的应用初探
@@ -7385,21 +7690,6 @@
 渤海证券股份有限公司网址： www.bhzq.com</t>
   </si>
   <si>
-    <t>```json
-{
-"category": "D_资产配置与组合管理",
-"score": 8,
-"reason": "将强化学习(PPO/SAC)引入大类资产配置，构建动态决策框架，对比风险平价/预算等传统方法，样本外实证显示更优风险收益比，具备方法创新性和中长期配置参考价值。"
-}
-```</t>
-  </si>
-  <si>
-    <t>2026-02-03 07:35:55</t>
-  </si>
-  <si>
-    <t>2025-12-31_西南证券_国泰量化策略收益A：打造“宏观研判+多策略”主动量化框架</t>
-  </si>
-  <si>
     <t># 国泰量化策略收益 A：打造“宏观研判+多策略”主动量化框架
 # 摘要
 #  基金经理简介
@@ -7683,16 +7973,6 @@
 邮编：400025
 西南证券机构销售团队  
 &lt;table&gt;&lt;tr&gt;&lt;td&gt;区域&lt;/td&gt;&lt;td&gt;姓名&lt;/td&gt;&lt;td&gt;职务&lt;/td&gt;&lt;td&gt;座机&lt;/td&gt;&lt;td&gt;手机&lt;/td&gt;&lt;td&gt;邮箱&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td rowspan="11"&gt;上海&lt;/td&gt;&lt;td&gt;蒋诗烽&lt;/td&gt;&lt;td&gt;院长助理、研究销售部经理、上海销售主管&lt;/td&gt;&lt;td&gt;021-68415309&lt;/td&gt;&lt;td&gt;18621310081&lt;/td&gt;&lt;td&gt;jsf@swsc.com.cn&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;崔露文&lt;/td&gt;&lt;td&gt;销售岗&lt;/td&gt;&lt;td&gt;15642960315&lt;/td&gt;&lt;td&gt;15642960315&lt;/td&gt;&lt;td&gt;clw@swsc.com.cn&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;李煜&lt;/td&gt;&lt;td&gt;销售岗&lt;/td&gt;&lt;td&gt;18801732511&lt;/td&gt;&lt;td&gt;18801732511&lt;/td&gt;&lt;td&gt;yfliyu@swsc.com.cn&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;汪艺&lt;/td&gt;&lt;td&gt;销售岗&lt;/td&gt;&lt;td&gt;13127920536&lt;/td&gt;&lt;td&gt;13127920536&lt;/td&gt;&lt;td&gt;wyyf@swsc.com.cn&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;戴剑箫&lt;/td&gt;&lt;td&gt;销售岗&lt;/td&gt;&lt;td&gt;13524484975&lt;/td&gt;&lt;td&gt;13524484975&lt;/td&gt;&lt;td&gt;daijx@swsc.com.cn&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;李嘉隆&lt;/td&gt;&lt;td&gt;销售岗&lt;/td&gt;&lt;td&gt;15800507223&lt;/td&gt;&lt;td&gt;15800507223&lt;/td&gt;&lt;td&gt;ljlong@swsc.com.cn&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;欧若诗&lt;/td&gt;&lt;td&gt;销售岗&lt;/td&gt;&lt;td&gt;18223769969&lt;/td&gt;&lt;td&gt;18223769969&lt;/td&gt;&lt;td&gt;ors@swsc.com.cn&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;蒋宇洁&lt;/td&gt;&lt;td&gt;销售岗&lt;/td&gt;&lt;td&gt;15905851569&lt;/td&gt;&lt;td&gt;15905851569&lt;/td&gt;&lt;td&gt;jyj@swsc.com.c&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;贾文婷&lt;/td&gt;&lt;td&gt;销售岗&lt;/td&gt;&lt;td&gt;13621609568&lt;/td&gt;&lt;td&gt;13621609568&lt;/td&gt;&lt;td&gt;jiawent@swsc.com.cn&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;张嘉诚&lt;/td&gt;&lt;td&gt;销售岗&lt;/td&gt;&lt;td&gt;18656199319&lt;/td&gt;&lt;td&gt;18656199319&lt;/td&gt;&lt;td&gt;zhangjc@swsc.com.cn&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;毛玮琳&lt;/td&gt;&lt;td&gt;销售岗&lt;/td&gt;&lt;td&gt;18721786793&lt;/td&gt;&lt;td&gt;18721786793&lt;/td&gt;&lt;td&gt;mwl@swsc.com.cn&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td rowspan="6"&gt;北京&lt;/td&gt;&lt;td&gt;李杨&lt;/td&gt;&lt;td&gt;北京销售主管&lt;/td&gt;&lt;td&gt;18601139362&lt;/td&gt;&lt;td&gt;18601139362&lt;/td&gt;&lt;td&gt;yfly@swsc.com.cn&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;张岚&lt;/td&gt;&lt;td&gt;销售岗&lt;/td&gt;&lt;td&gt;18601241803&lt;/td&gt;&lt;td&gt;18601241803&lt;/td&gt;&lt;td&gt;zhanglan@swsc.com.cn&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;姚航&lt;/td&gt;&lt;td&gt;销售岗&lt;/td&gt;&lt;td&gt;15652026677&lt;/td&gt;&lt;td&gt;15652026677&lt;/td&gt;&lt;td&gt;yhang@swsc.com.cn&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;杨薇&lt;/td&gt;&lt;td&gt;销售岗&lt;/td&gt;&lt;td&gt;15652285702&lt;/td&gt;&lt;td&gt;15652285702&lt;/td&gt;&lt;td&gt;yangwei@swsc.com.cn&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;王宇飞&lt;/td&gt;&lt;td&gt;销售岗&lt;/td&gt;&lt;td&gt;18500981866&lt;/td&gt;&lt;td&gt;18500981866&lt;/td&gt;&lt;td&gt;wangyuf@swsc.com&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;王一菲&lt;/td&gt;&lt;td&gt;销售岗&lt;/td&gt;&lt;td&gt;18040060359&lt;/td&gt;&lt;td&gt;18040060359&lt;/td&gt;&lt;td&gt;wyf@swsc.com.cn&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td rowspan="2"&gt;&lt;/td&gt;&lt;td&gt;张鑫&lt;/td&gt;&lt;td&gt;销售岗&lt;/td&gt;&lt;td&gt;15981953220&lt;/td&gt;&lt;td&gt;15981953220&lt;/td&gt;&lt;td&gt;zhxin@swsc.com.cn&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;马冰竹&lt;/td&gt;&lt;td&gt;销售岗&lt;/td&gt;&lt;td&gt;13126590325&lt;/td&gt;&lt;td&gt;13126590325&lt;/td&gt;&lt;td&gt;mbz@swsc.com.cn&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td rowspan="4"&gt;广深&lt;/td&gt;&lt;td&gt;龚之涵&lt;/td&gt;&lt;td&gt;销售岗&lt;/td&gt;&lt;td&gt;15808001926&lt;/td&gt;&lt;td&gt;15808001926&lt;/td&gt;&lt;td&gt;gongzh@swsc.com.cn&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;唐茜露&lt;/td&gt;&lt;td&gt;销售岗&lt;/td&gt;&lt;td&gt;18680348593&lt;/td&gt;&lt;td&gt;18680348593&lt;/td&gt;&lt;td&gt;txl@swsc.com.cn&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;文柳茜&lt;/td&gt;&lt;td&gt;销售岗&lt;/td&gt;&lt;td&gt;13750028702&lt;/td&gt;&lt;td&gt;13750028702&lt;/td&gt;&lt;td&gt;wlq@swsc.com.cn&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;林哲睿&lt;/td&gt;&lt;td&gt;销售岗&lt;/td&gt;&lt;td&gt;15602268757&lt;/td&gt;&lt;td&gt;15602268757&lt;/td&gt;&lt;td&gt;lzr@swsc.com.cn&lt;/td&gt;&lt;/tr&gt;&lt;/table&gt;</t>
-  </si>
-  <si>
-    <t>{
-"category": "A_基金相关",
-"score": 8,
-"reason": "主动量化基金深度分析，构建'宏观研判+多策略'双轮驱动框架，Brinson归因显示超额收益主要源于个股精选，策略动态配置体系具备参考价值"
-}</t>
-  </si>
-  <si>
-    <t>2025-12-31_银河证券_银河金工公募基金市场观察系列研究：主动权益基金发展现状与配置策略</t>
   </si>
   <si>
     <t># 主动权益基金发展现状与配置策略
@@ -8029,19 +8309,6 @@
 &lt;table&gt;&lt;tr&gt;&lt;td&gt;中国银河证券股份有限公司 研究院&lt;/td&gt;&lt;td&gt;机构请致电:&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td rowspan="2"&gt;深圳市福田区金田路3088号中洲大厦20层&lt;/td&gt;&lt;td rowspan="2"&gt;深广地区:&lt;/td&gt;&lt;td&gt;苏一耘&lt;/td&gt;&lt;td&gt;0755-83479312&lt;/td&gt;&lt;td&gt;suyiyun_yj@chinastock.com.cn&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;程曦&lt;/td&gt;&lt;td&gt;0755-83471683&lt;/td&gt;&lt;td&gt;chengxi_yj@chinastock.com.cn&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td rowspan="2"&gt;上海浦东新区富城路99号震旦大厦31层&lt;/td&gt;&lt;td rowspan="2"&gt;上海地区</t>
   </si>
   <si>
-    <t>{
-"category": "F_专题与系列研究报告",
-"score": 8,
-"reason": "构建8维度基金定量指标体系，基于RankIC测试筛选有效因子，构建量化FOF策略实现年化超额10%，提供可复用的基金筛选框架"
-}</t>
-  </si>
-  <si>
-    <t>2026-02-03 07:36:08</t>
-  </si>
-  <si>
-    <t>2026-01-05_国泰海通_国泰海通证券1月基金投资策略：跨年行情下A股上涨，相对偏向成长配置风格</t>
-  </si>
-  <si>
     <t># 国泰海通证券1月基金投资策略
 ■ 跨年行情下A股上涨，相对偏向成长配置风格
 # 本报告导读：
@@ -8253,18 +8520,6 @@
 （021）38676666</t>
   </si>
   <si>
-    <t>```json
-{
-"category": "A_基金相关",
-"score": 7,
-"reason": "月度基金配置策略，提供分风格基金推荐名单及积极/稳健/保守三类风险偏好组合构建方案，附基金仓位测算模型，具备直接决策参考价值。"
-}
-```</t>
-  </si>
-  <si>
-    <t>2026-01-05_大同证券_CES2026即将开幕，如何抓住上车机会？</t>
-  </si>
-  <si>
     <t># CES 2026 即将开幕，如何抓住上车机会？
 # 【20251229-20260104】
 市场回顾：上周权益市场主要指数多数收跌，北证 50 跌幅最大，下跌 $1 , 5 5 \%$ ；申万一级行业跌多涨少，多数行业指数未能跑赢万得全A指数；债券市场长短端利率均有所上行，其中十年期国债上行0.97BP至 $1 . 8 4 7 \%$ ，各类期限利差均有所下行,长短端信用利差走势不一；基金市场中偏股基金指数和二级债基指数均周度收跌，中长期纯债基金指数周度收跌，而短期纯债基金指数周度收涨。
@@ -8372,21 +8627,6 @@
 本报告版权为大同证券有限责任公司所有，未经书面许可，任何机构和个人不得以任何形式翻版、复制和发布。如引用需注明出处为大同证券研究部，且不得对本报告进行有悖原意的引用、删节和修改。
 # 分析师承诺：
 本人、本人配偶及本人的利害关系人与报告内容所涉标的公司不涉及利益冲突。</t>
-  </si>
-  <si>
-    <t>```json
-{
-"category": "A_基金相关",
-"score": 7,
-"reason": "基于CES2026等事件驱动的基金配置策略，提供具体基金推荐及杠铃策略配置思路，具备短期操作参考价值。"
-}
-```</t>
-  </si>
-  <si>
-    <t>2026-02-03 07:36:11</t>
-  </si>
-  <si>
-    <t>2026-01-09_上海证券_2026年度全球资产配置和国内基金投资策略：重塑预期，回归价值</t>
   </si>
   <si>
     <t># 主要观点：
@@ -8805,19 +9045,6 @@
 本报告版权归上海证券有限责任公司所有。未获得上海证券有限责任公司事先书面授权，任何人不得对本报告进行任何形式的发布、复制。如遵循原文本意地引用、刊发，需注明出处为“上海证券基金评价研究中心”。</t>
   </si>
   <si>
-    <t>{
-"category": "D_资产配置与组合管理",
-"score": 8,
-"reason": "2026年大类资产配置年度展望，提出哑铃策略及股债商轮动配置建议，涵盖QDII、权益与固收基金具体投资方案"
-}</t>
-  </si>
-  <si>
-    <t>2026-02-03 07:36:05</t>
-  </si>
-  <si>
-    <t>2026-01-09_上海证券_ETF组合策略月度跟踪报告（2025年12月）</t>
-  </si>
-  <si>
     <t>报告日期：2026年01月08日
 分析师：孙桂平
 执业证书编号：S0870519040001
@@ -8971,21 +9198,6 @@
 本报告版权归上海证券有限责任公司所有。未获得上海证券有限责任公司事先书面授权，任何人不得对本报告进行任何形式的发布、复制。如遵循原文本意地引用、刊发，需注明出处为“上海证券基金评价研究中心”。</t>
   </si>
   <si>
-    <t>```json
-{
-"category": "B_ETF策略",
-"score": 7,
-"reason": "系统跟踪7类ETF策略表现，涵盖风格轮动、二八轮动、风险平价、估值因子等量化配置方法，提供策略逻辑、业绩基准及风险指标对比，具备一定复现参考价值。"
-}
-```</t>
-  </si>
-  <si>
-    <t>2026-02-03 07:36:21</t>
-  </si>
-  <si>
-    <t>2026-01-09_大同证券_安信基金陈鹏：专注于成长投资的十七年老将</t>
-  </si>
-  <si>
     <t># 专注于成长投资的十七年老将
 # 安信基金陈鹏
 ◼ 基金经理陈鹏：是安信基金从外部引入的基金经理，有23年证券从业经验，17 年公募基金管理经验，在管 3 只产品均为主动权益基金；投资策略方面：先自上而下选景气行业、结合价值判断进行分散配置，再自下而上找优势公司、右侧布局，投资逻辑比较清晰。
@@ -9099,19 +9311,6 @@
 本人、本人配偶及本人的利害关系人与报告内容所涉标的公司不涉及利益冲突。</t>
   </si>
   <si>
-    <t>{
-"category": "A_基金相关",
-"score": 7,
-"reason": "深度解析基金经理陈鹏投资框架、业绩归因及风格特征，数据详实，对了解该基金经理及成长投资策略有参考价值。"
-}</t>
-  </si>
-  <si>
-    <t>2026-02-03 07:36:03</t>
-  </si>
-  <si>
-    <t>2026-01-14_利得基金_1月ETF轮动策略月报</t>
-  </si>
-  <si>
     <t>![](images/b0552f67d60da3401467c9d8e9e6bb6e69508cc2331299ae52a5551fddb8d1eb.jpg)  
 国防军工、有色金属、通信、机械设备和石油石化表现靠前
 ![](images/70cb1a9544e659821b9127e3cb99e979490f61a5244e2afb2fba61bb665f2b14.jpg)  
@@ -9217,18 +9416,6 @@
 ![](images/66297fbd6c4ab2a381988bb14782a0282d3d918cfb98309da8cbd78abc8672f6.jpg)  
 资料来源：Wind，利得基金，数据区间2022年1月1日-2025年12月31日
 从ETF组合回测结果来看，2022年至今累计收益率为 $21.5</t>
-  </si>
-  <si>
-    <t>```json
-{
-"category": "B_ETF策略",
-"score": 8,
-"reason": "构建多维度ETF行业轮动模型，结合定量打分与定性分析，提供1月具体行业推荐及ETF标的，具备可复用框架与明确配置价值。"
-}
-```</t>
-  </si>
-  <si>
-    <t>2026-01-14_华宝证券_基金配置策略报告（2026年1月期）：权益市场多点开花，建议关注景气主线</t>
   </si>
   <si>
     <t>2026年01月14日
@@ -9381,21 +9568,6 @@
 根据证券投资者适当性管理有关法规，该研究报告仅适合专业机构投资者及与我司签订咨询服务协议的普通投资者，若您为非专业投资者及未与我司签订咨询服务协议的投资者，请勿阅读、转载本报告。</t>
   </si>
   <si>
-    <t>```json
-{
-"category": "A_基金相关",
-"score": 8,
-"reason": "构建主动权益与固收类基金优选指数，提供具体基金标的及配置策略，具备实操参考价值。"
-}
-```</t>
-  </si>
-  <si>
-    <t>2026-02-03 07:36:09</t>
-  </si>
-  <si>
-    <t>2026-01-19_金融街证券_行业轮动ETF策略周报</t>
-  </si>
-  <si>
     <t># 证券研究报告·策略周报
 2026年1月19日
 证券分析师：张一
@@ -9436,21 +9608,6 @@
 本公司及作者在自身所知情范围内，与本报告中所评价或推荐的证券不存在法律法规要求披露或采取限制、静默措施的利益冲突。
 本报告版权仅为本公司所有，未经书面许可，任何机构和个人不得以任何形式将研报内容和相关信息对外公布、转发、转载、传播、复制、编辑、修改、引用等。如有上述违法行为，本公司保留追究相关方法律责任的权利。
 市场有风险，投资需谨慎。投资者不应将本报告作为作出投资决策的唯一参考因素，亦不应认为本报告可以取代自己的判断。在决定投资前，如有需要，投资者务必向专业人士咨询并谨慎决策。</t>
-  </si>
-  <si>
-    <t>```json
-{
-"category": "G_定期报告",
-"score": 7,
-"reason": "行业轮动ETF策略周报，给出具体调仓建议（调入国防、证券保险ETF等）及量价择时信号，样本外超额收益16.19%。"
-}
-```</t>
-  </si>
-  <si>
-    <t>2026-02-03 07:36:28</t>
-  </si>
-  <si>
-    <t>2026-01-22_国信证券_公募基金2025年四季报点评：减科技消费，加周期制造</t>
   </si>
   <si>
     <t># 减科技消费，加周期制造
@@ -9623,18 +9780,6 @@
 邮编：100032</t>
   </si>
   <si>
-    <t>```json
-{
-"category": "A_基金相关",
-"score": 8,
-"reason": "基于公募基金四季报的持仓数据分析，揭示机构减配科技消费、增配周期制造的风格转向，为个人投资者提供机构资金动向参考。"
-}
-```</t>
-  </si>
-  <si>
-    <t>2026-01-22_国金证券_2026年度公募主动权益基金投资策略及基金经理精选：莫道桑榆晚，为霞尚满天</t>
-  </si>
-  <si>
     <t># 莫道桑榆晚，为霞尚满天。
 # 2026年度公募主动权益基金投资策略及基金经理精选
 分析师：王子薇 执业编号：S1130524010001
@@ -9716,21 +9861,6 @@
 ■根据最近6期（或基金经理任职以来）的全部持股明细，将科技行业平均占比不低于 $60\%$ 的主动权益基金划分为科技行业主题基金池，剔除定开/持有期以及规模不足1亿元的产品，按照业绩打分进行排序。泛科技行业主题基金可重点关注国泰海通创新成长（陈思靖）、景顺长城品质长青（农冰立）、东吴嘉禾优势（刘元海）、诺安稳健回报（邓心怡）、财通资管数字经济（包敦文）等。
 图表：泛科技行业基金业绩和风格指标  
 &lt;table&gt;&lt;tr&gt;&lt;td rowspan="2"&gt;证券代码&lt;/td&gt;&lt;td rowspan="2"&gt;证券简称&lt;/td&gt;&lt;td rowspan="2"&gt;基金成立日&lt;/td&gt;&lt;td rowspan="2"&gt;基金经理&lt;/td&gt;&lt;td rowspan="2"&gt;任职日期&lt;/td&gt;&lt;td rowspan="2"&gt;基金规模:亿元&lt;/td&gt;&lt;td rowspan="2"&gt;业绩打分&lt;/td&gt;&lt;td rowspan="2"&gt;2024年回报%&lt;/td&gt;&lt;td rowspan="2"&gt;2025年回报%&lt;/td&gt;&lt;td rowspan="2"&gt;上涨区间胜率&lt;/td&gt;&lt;td rowspan="2"&gt;下跌区间胜率&lt;/td&gt;&lt;td colspan="4"&gt;近2年平均&lt;/td&gt;&lt;td colspan="3"&gt;2025年中报&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;重仓股超额%&lt;/td&gt;&lt;td&gt;重仓股胜率%&lt;/td&gt;&lt;td&gt;重仓股集中度%&lt;/td&gt;&lt;td&gt;换手率&lt;/td&gt;&lt;td&gt;大-中-小盘股占比%&lt;/td&gt;&lt;td&gt;港股占比%&lt;/td&gt;&lt;td&gt;前三大行业及占比%&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;018993.OF&lt;/td&gt;&lt;td&gt;中欧数字经济A&lt;/td&gt;&lt;td&gt;2023-09-12&lt;/td&gt;&lt;td&gt;冯炉丹&lt;/td&gt;&lt;td&gt;2023-09-12&lt;/td&gt;&lt;td&gt;130.21&lt;/td&gt;&lt;td&gt;9.25&lt;/td&gt;&lt;td&gt;29.40&lt;/td&gt;&lt;td&gt;143.07&lt;/td&gt;&lt;td&gt;40%&lt;/td&gt;&lt;td&gt;100%&lt;/td&gt;&lt;td&gt;13.24&lt;/td&gt;&lt;td&gt;73.75&lt;/td&gt;&lt;td&gt;65.02&lt;/td&gt;&lt;td&gt;4.14&lt;/td&gt;&lt;td&gt;50-28-22&lt;/td&gt;&lt;td&gt;30.11&lt;/td&gt;&lt;td&gt;通信35;电子30;计算机13&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;001170.OF&lt;/td&gt;&lt;td&gt;宏利复兴伟业A&lt;/td&gt;&lt;td&gt;2015-04-21&lt;/td&gt;&lt;td&gt;孙硕&lt;/td&gt;&lt;td&gt;2022-11-22&lt;/td&gt;&lt;td&gt;14.22&lt;/td&gt;&lt;td&gt;8.65&lt;/td&gt;&lt;td&gt;33.30&lt;/td&gt;&lt;td&gt;102.06&lt;/td&gt;&lt;td&gt;83%&lt;/td&gt;&lt;td&gt;20%&lt;/td&gt;&lt;td&gt;11.22&lt;/td&gt;&lt;td&gt;68.75&lt;/td&gt;&lt;td&gt;61.01&lt;/td&gt;&lt;td&gt;4.65&lt;/td&gt;&lt;td&gt;18-23-59&lt;/td&gt;&lt;td&gt;0.00&lt;/td&gt;&lt;td&gt;电子26;通信23;计算机14&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;022364.OF&lt;/td&gt;&lt;td&gt;永赢科技智选A&lt;/td&gt;&lt;td&gt;2024-10-30&lt;/td&gt;&lt;td&gt;任桀&lt;/td&gt;&lt;td&gt;2024-10-30&lt;/td&gt;&lt;td&gt;115.21&lt;/td&gt;&lt;td&gt;8.64&lt;/td&gt;&lt;td&gt;-&lt;/td&gt;&lt;td&gt;233.29&lt;/td&gt;&lt;td&gt;100%&lt;/td&gt;&lt;td&gt;50%&lt;/td&gt;&lt;td&gt;16.78&lt;/td&gt;&lt;td&gt;62.50&lt;/td&gt;&lt;td&gt;80.86&lt;/td&gt;&lt;td&gt;5.35&lt;/td&gt;&lt;td&gt;46-15-38&lt;/td&gt;&lt;td&gt;0.00&lt;/td&gt;&lt;td&gt;通信54;电子40;汽车5&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;018122.OF&lt;/td&gt;&lt;td&gt;永赢数字经济智选A&lt;/td&gt;&lt;td&gt;2023-04-10&lt;/td&gt;&lt;td&gt;王文龙&lt;/td&gt;&lt;td&gt;2023-04-10&lt;/td&gt;&lt;td&gt;40.10&lt;/td&gt;&lt;td&gt;8.60&lt;/td&gt;&lt;td&gt;26.07&lt;/td&gt;&lt;td&gt;86.09&lt;/td&gt;&lt;td&gt;100%&lt;/td&gt;&lt;td&gt;60%&lt;/td&gt;&lt;td&gt;7.00&lt;/td&gt;&lt;td&gt;66.25&lt;/td&gt;&lt;td&gt;68.89&lt;/td&gt;&lt;td&gt;12.02&lt;/td&gt;&lt;td&gt;16-3-81&lt;/td&gt;&lt;td&gt;4.20&lt;/td&gt;&lt;td&gt;电子20;通信20;电力设备18&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;018325.OF&lt;/td&gt;&lt;td&gt;国泰海通创新成长A&lt;/td&gt;&lt;td&gt;2023-05-16&lt;/td&gt;&lt;td&gt;陈思靖&lt;/td&gt;&lt;td&gt;2024-09-25&lt;/td&gt;&lt;td&gt;8.05&lt;/td&gt;&lt;td&gt;8.57&lt;/td&gt;&lt;td&gt;-&lt;/td&gt;&lt;td&gt;88.41&lt;/td&gt;&lt;td&gt;50%&lt;/td&gt;&lt;td&gt;100%&lt;/td&gt;&lt;td&gt;7.27&lt;/td&gt;&lt;td&gt;62.00&lt;/td&gt;&lt;td&gt;54.60&lt;/td&gt;&lt;td&gt;6.35&lt;/td&gt;&lt;td&gt;23-30-46&lt;/td&gt;&lt;td&gt;0.00&lt;/td&gt;&lt;td&gt;电子84;通信15;基础化工1&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;006502.OF&lt;/td&gt;&lt;td&gt;财通集成电路产业A&lt;/td&gt;&lt;td&gt;2018-11-29&lt;/td&gt;&lt;td&gt;金梓才&lt;/td&gt;&lt;td&gt;2018-11-29&lt;/td&gt;&lt;td&gt;8.70&lt;/td&gt;&lt;td&gt;8.55&lt;/td&gt;&lt;td&gt;32.38&lt;/td&gt;&lt;td&gt;101.46&lt;/td&gt;&lt;td&gt;60%&lt;/td&gt;&lt;td&gt;22%&lt;/td&gt;&lt;td&gt;12.59&lt;/td&gt;&lt;td&gt;65.00&lt;/td&gt;&lt;td&gt;82.46&lt;/td&gt;&lt;td&gt;3.46&lt;/td&gt;&lt;td&gt;28-33-39&lt;/td&gt;&lt;td&gt;0.00&lt;/td&gt;&lt;td&gt;通信63;电子24;建筑装饰5&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;017102.OF&lt;/td&gt;&lt;td&gt;大摩数字经济A&lt;/td&gt;&lt;td&gt;2023-03-02&lt;/td&gt;&lt;td&gt;雷志勇&lt;/td&gt;&lt;td&gt;2023-03-02&lt;/td&gt;&lt;td&gt;57.82&lt;/td&gt;&lt;td&gt;8.50&lt;/td&gt;&lt;td&gt;69.23&lt;/td&gt;&lt;td&gt;85.95&lt;/td&gt;&lt;td&gt;60%&lt;/td&gt;&lt;td&gt;40%&lt;/td&gt;&lt;td&gt;8.31&lt;/td&gt;&lt;td&gt;72.50&lt;/td&gt;&lt;td&gt;62.27&lt;/td&gt;&lt;td&gt;4.23&lt;/td&gt;&lt;td&gt;39-21-40&lt;/td&gt;&lt;td&gt;0.00&lt;/td&gt;&lt;td&gt;电子58;通信14;电力设备11&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;000411.OF&lt;/td&gt;&lt;td&gt;景顺长城优质成长A&lt;/td&gt;&lt;td&gt;2014-01-02&lt;/td&gt;&lt;td&gt;张仲维&lt;/td&gt;&lt;td&gt;2023-11-07&lt;/td&gt;&lt;td&gt;9.97&lt;/td&gt;&lt;td&gt;8.50&lt;/td&gt;&lt;td&gt;32.15&lt;/td&gt;&lt;td&gt;91.53&lt;/td&gt;&lt;td&gt;60%&lt;/td&gt;&lt;td&gt;50%&lt;/td&gt;&lt;td&gt;8.37&lt;/td&gt;&lt;td&gt;61.25&lt;/td&gt;&lt;td&gt;65.66&lt;/td&gt;&lt;td&gt;5.61&lt;/td&gt;&lt;td&gt;41-17-42&lt;/td&gt;&lt;td&gt;0.00&lt;/td&gt;&lt;td&gt;电子41;通信24;汽车13&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;001075.OF&lt;/td&gt;&lt;td&gt;宝盈转型动力A&lt;/td&gt;&lt;td&gt;2015-04-29&lt;/td&gt;&lt;td&gt;容志能&lt;/td&gt;&lt;td&gt;2023-03-17&lt;/td&gt;&lt;td&gt;14.95&lt;/td&gt;&lt;td&gt;8.45&lt;/td&gt;&lt;td&gt;20.34&lt;/td&gt;&lt;td&gt;124.00&lt;/td&gt;&lt;td&gt;60%&lt;/td&gt;&lt;td&gt;60%&lt;/td&gt;&lt;td&gt;10.71&lt;/td&gt;&lt;td&gt;63.75&lt;/td&gt;&lt;td&gt;68.06&lt;/td&gt;&lt;td&gt;4.07&lt;/td&gt;&lt;td&gt;38-24-38&lt;/td&gt;&lt;td&gt;0.00&lt;/td&gt;&lt;td&gt;通信35;电子34;汽车11&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;010391.OF&lt;/td&gt;&lt;td&gt;易方达战略新兴产业A&lt;/td&gt;&lt;td&gt;2021-01-13&lt;/td&gt;&lt;td&gt;欧阳良琦&lt;/td&gt;&lt;td&gt;2023-05-06&lt;/td&gt;&lt;td&gt;55.42&lt;/td&gt;&lt;td&gt;8.35&lt;/td&gt;&lt;td&gt;18.86&lt;/td&gt;&lt;td&gt;107.60&lt;/td&gt;&lt;td&gt;60%&lt;/td&gt;&lt;td&gt;80%&lt;/td&gt;&lt;td&gt;6.60&lt;/td&gt;&lt;td&gt;58.75&lt;/td&gt;&lt;td&gt;56.19&lt;/td&gt;&lt;td&gt;3.58&lt;/td&gt;&lt;td&gt;52-20-27&lt;/td&gt;&lt;td&gt;19.88&lt;/td&gt;&lt;td&gt;电子58;通信18;传媒9&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;008988.OF&lt;/td&gt;&lt;td&gt;大成科技创新A&lt;/td&gt;&lt;td&gt;2020-04-29&lt;/td&gt;&lt;td&gt;郭玮羚&lt;/td&gt;&lt;td&gt;2021-01-26&lt;/td&gt;&lt;td&gt;12.10&lt;/td&gt;&lt;td&gt;8.35&lt;/td&gt;&lt;td&gt;17.13&lt;/td&gt;&lt;td&gt;123.83&lt;/td&gt;&lt;td&gt;40%&lt;/td&gt;&lt;td&gt;63%&lt;/td&gt;&lt;td&gt;12.10&lt;/td&gt;&lt;td&gt;71.25&lt;/td&gt;&lt;td&gt;72.64&lt;/td&gt;&lt;td&gt;7.94&lt;/td&gt;&lt;td&gt;70-21-9&lt;/td&gt;&lt;td&gt;42.08&lt;/td&gt;&lt;td&gt;电子35;通信30;医药生物11&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;010350.OF&lt;/td&gt;&lt;td&gt;景顺长城品质长青A&lt;/td&gt;&lt;td&gt;2021-02-09&lt;/td&gt;&lt;td&gt;农冰立&lt;/td&gt;&lt;td&gt;2023-07-06&lt;/td&gt;&lt;td&gt;142.47&lt;/td&gt;&lt;td&gt;8.30&lt;/td&gt;&lt;td&gt;41.62&lt;/td&gt;&lt;td&gt;63.29&lt;/td&gt;&lt;td&gt;40%&lt;/td&gt;&lt;td&gt;75%&lt;/td&gt;&lt;td&gt;8.44&lt;/td&gt;&lt;td&gt;65.34&lt;/td&gt;&lt;td&gt;70.73&lt;/td&gt;&lt;td&gt;2.40&lt;/td&gt;&lt;td&gt;65-13-22&lt;/td&gt;&lt;td&gt;42.87&lt;/td&gt;&lt;td&gt;电子39;通信21;轻工制造12&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;018956.OF&lt;/td&gt;&lt;td&gt;中航机遇领航A&lt;/td&gt;&lt;td&gt;2023-08-10&lt;/td&gt;&lt;td&gt;韩浩&lt;/td&gt;&lt;td&gt;2023-08-10&lt;/td&gt;&lt;td&gt;132.31&lt;/td&gt;&lt;td&gt;8.25&lt;/td&gt;&lt;td&gt;43.68&lt;/td&gt;&lt;td&gt;168.92&lt;/td&gt;&lt;td&gt;60%&lt;/td&gt;&lt;td&gt;25%&lt;/td&gt;&lt;td&gt;12.94&lt;/td&gt;&lt;td&gt;57.50&lt;/td&gt;&lt;td&gt;85.10&lt;/td&gt;&lt;td&gt;5.00&lt;/td&gt;&lt;td&gt;37-13-50&lt;/td&gt;&lt;td&gt;0.00&lt;/td&gt;&lt;td&gt;通信64;电子26;机械设备11&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;013721.OF&lt;/td&gt;&lt;td&gt;信澳景气优选A&lt;/td&gt;&lt;td&gt;2021-12-21&lt;/td&gt;&lt;td&gt;吴清宇&lt;/td&gt;&lt;td&gt;2021-12-21&lt;/td&gt;&lt;td&gt;5.92&lt;/td&gt;&lt;td&gt;8.10&lt;/td&gt;&lt;td&gt;24.33&lt;/td&gt;&lt;td&gt;95.81&lt;/td&gt;&lt;td&gt;63%&lt;/td&gt;&lt;td&gt;50%&lt;/td&gt;&lt;td&gt;12.21&lt;/td&gt;&lt;td&gt;55.00&lt;/td&gt;&lt;td&gt;87.84&lt;/td&gt;&lt;td&gt;9.80&lt;/td&gt;&lt;td&gt;25-21-55&lt;/td&gt;&lt;td&gt;11.88&lt;/td&gt;&lt;td&gt;通信48;电子34;汽车12&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;519196.OF&lt;/td&gt;&lt;td&gt;万家新兴蓝筹A&lt;/td&gt;&lt;td&gt;2016-01-26&lt;/td&gt;&lt;td&gt;莫海波&lt;/td&gt;&lt;td&gt;2016-01-26&lt;/td&gt;&lt;td&gt;35.52&lt;/td&gt;&lt;td&gt;8.05&lt;/td&gt;&lt;td&gt;33.46&lt;/td&gt;&lt;td&gt;67.31&lt;/td&gt;&lt;td&gt;40%&lt;/td&gt;&lt;td&gt;89%&lt;/td&gt;&lt;td&gt;6.03&lt;/td&gt;&lt;td&gt;56.25&lt;/td&gt;&lt;td&gt;78.56&lt;/td&gt;&lt;td&gt;1.20&lt;/td&gt;&lt;td&gt;61-21-18&lt;/td&gt;&lt;td&gt;0.00&lt;/td&gt;&lt;td&gt;电子36;通信30;计算机12&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;006887.OF&lt;/td&gt;&lt;td&gt;诺德新生活A&lt;/td&gt;&lt;td&gt;2019-03-28&lt;/td&gt;&lt;td&gt;周建胜&lt;/td&gt;&lt;td&gt;2022-07-14&lt;/td&gt;&lt;td&gt;19.32&lt;/td&gt;&lt;td&gt;8.05&lt;/td&gt;&lt;td&gt;27.42&lt;/td&gt;&lt;td&gt;113.55&lt;/td&gt;&lt;td&gt;57%&lt;/td&gt;&lt;td&gt;17%&lt;/td&gt;&lt;td&gt;15.94&lt;/td&gt;&lt;td&gt;73.75&lt;/td&gt;&lt;td&gt;64.26&lt;/td&gt;&lt;td&gt;12.10&lt;/td&gt;&lt;td&gt;37-18-45&lt;/td&gt;&lt;td&gt;0.00&lt;/td&gt;&lt;td&gt;通信63;电子36;国防军工1&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;001513.OF&lt;/td&gt;&lt;td&gt;易方达信息产业A&lt;/td&gt;&lt;td&gt;2016-09-27&lt;/td&gt;&lt;td&gt;郑希&lt;/td&gt;&lt;td&gt;2016-09-27&lt;/td&gt;&lt;td&gt;72.91&lt;/td&gt;&lt;td&gt;8.00&lt;/td&gt;&lt;td&gt;24.91&lt;/td&gt;&lt;td&gt;108.05&lt;/td&gt;&lt;td&gt;40%&lt;/td&gt;&lt;td&gt;44%&lt;/td&gt;&lt;td&gt;7.69&lt;/td&gt;&lt;td&gt;73.75&lt;/td&gt;&lt;td&gt;44.48&lt;/td&gt;&lt;td&gt;6.74&lt;/td&gt;&lt;td&gt;47-16-36&lt;/td&gt;&lt;td&gt;0.00&lt;/td&gt;&lt;td&gt;电子46;通信28;传媒7&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;001412.OF&lt;/td&gt;&lt;td&gt;德邦鑫星价值A&lt;/td&gt;&lt;td&gt;2015-06-19&lt;/td&gt;&lt;td&gt;雷涛,陆阳&lt;/td&gt;&lt;td&gt;2024-01-30&lt;/td&gt;&lt;td&gt;89.85&lt;/td&gt;&lt;td&gt;8.00&lt;/td&gt;&lt;td&gt;-&lt;/td&gt;&lt;td&gt;128.90&lt;/td&gt;&lt;td&gt;60%&lt;/td&gt;&lt;td&gt;33%&lt;/td&gt;&lt;td&gt;13.99&lt;/td&gt;&lt;td&gt;64.29&lt;/td&gt;&lt;td&gt;66.18&lt;/td&gt;&lt;td&gt;13.51&lt;/td&gt;&lt;td&gt;24-14-62&lt;/td&gt;&lt;td&gt;0.00&lt;/td&gt;&lt;td&gt;电子44;通信33;机械设备13&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;580001.OF&lt;/td&gt;&lt;td&gt;东吴嘉禾优势A&lt;/td&gt;&lt;td&gt;2005-02-01&lt;/td&gt;&lt;td&gt;刘元海&lt;/td&gt;&lt;td&gt;2023-08-15&lt;/td&gt;&lt;td&gt;19.94&lt;/td&gt;&lt;td&gt;7.95&lt;/td&gt;&lt;td&gt;36.27&lt;/td&gt;&lt;td&gt;87.23&lt;/td&gt;&lt;td&gt;60%&lt;/td&gt;&lt;td&gt;25%&lt;/td&gt;&lt;td&gt;8.17&lt;/td&gt;&lt;td&gt;58.75&lt;/td&gt;&lt;td&gt;83.08&lt;/td&gt;&lt;td&gt;2.81&lt;/td&gt;&lt;td&gt;62-15-23&lt;/td&gt;&lt;td&gt;0.00&lt;/td&gt;&lt;td&gt;电子53;通信23;汽车13&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;000714.OF&lt;/td&gt;&lt;td&gt;诺安稳健回报A&lt;/td&gt;&lt;td&gt;2014-09-15&lt;/td&gt;&lt;td&gt;邓心怡&lt;/td&gt;&lt;td&gt;2023-06-03&lt;/td&gt;&lt;td&gt;14.42&lt;/td&gt;&lt;td&gt;7.95&lt;/td&gt;&lt;td&gt;24.25&lt;/td&gt;&lt;td&gt;79.50&lt;/td&gt;&lt;td&gt;100%&lt;/td&gt;&lt;td&gt;40%&lt;/td&gt;&lt;td&gt;7.71&lt;/td&gt;&lt;td&gt;67.50&lt;/td&gt;&lt;td&gt;65.58&lt;/td&gt;&lt;td&gt;16.09&lt;/td&gt;&lt;td&gt;12-15-73&lt;/td&gt;&lt;td&gt;0.00&lt;/td&gt;&lt;td&gt;电子40;计算机19;传媒16&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;001194.OF&lt;/td&gt;&lt;td&gt;景顺长城稳健回报A&lt;/td&gt;&lt;td&gt;2015-04-10&lt;/td&gt;&lt;td&gt;江山&lt;/td&gt;&lt;td&gt;2024-08-13&lt;/td&gt;&lt;td&gt;60.61&lt;/td&gt;&lt;td&gt;7.86&lt;/td&gt;&lt;td&gt;-&lt;/td&gt;&lt;td&gt;131.91&lt;/td&gt;&lt;td&gt;33%&lt;/td&gt;&lt;td&gt;50%&lt;/td&gt;&lt;td&gt;13.71&lt;/td&gt;&lt;td&gt;76.00&lt;/td&gt;&lt;td&gt;61.65&lt;/td&gt;&lt;td&gt;7.08&lt;/td&gt;&lt;td&gt;36-15-49&lt;/td&gt;&lt;td&gt;0.00&lt;/td&gt;&lt;td&gt;电子33;通信32;医药生物13&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;007355.OF&lt;/td&gt;&lt;td&gt;汇添富科技创新A&lt;/td&gt;&lt;td&gt;2019-05-06&lt;/td&gt;&lt;td&gt;马翔&lt;/td&gt;&lt;td&gt;2019-05-06&lt;/td&gt;&lt;td&gt;99.11&lt;/td&gt;&lt;td</t>
-  </si>
-  <si>
-    <t>```json
-{
-"category": "A_基金相关",
-"score": 8,
-"reason": "年度主动权益基金策略，提供景气成长/困境反转/GARP等配置框架及具体基金经理推荐，含详细筛选指标与业绩数据。"
-}
-```</t>
-  </si>
-  <si>
-    <t>2026-02-03 07:36:04</t>
-  </si>
-  <si>
-    <t>2026-01-23_华创证券_25Q4基金季报点评：加周期金融地产，减消费TMT</t>
   </si>
   <si>
     <t># 【策略快评】
@@ -9889,18 +10019,6 @@
 &lt;table&gt;&lt;tr&gt;&lt;td&gt;北京总部&lt;/td&gt;&lt;td&gt;广深分部&lt;/td&gt;&lt;td&gt;上海分部&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;地址：北京市西城区锦什坊街26号恒奥中心C座3A&lt;/td&gt;&lt;td&gt;地址：深圳市福田区香梅路1061号中投国际商务中心A座19楼&lt;/td&gt;&lt;td&gt;地址：上海市浦东新区花园石桥路33号花旗大厦12层&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;邮编：100033&lt;/td&gt;&lt;td&gt;邮编：518034&lt;/td&gt;&lt;td&gt;邮编：200120&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;传真：010-66500801&lt;/td&gt;&lt;td&gt;传真：0755-82027731&lt;/td&gt;&lt;td&gt;传真：021-20572500&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;会议室：010-66500900&lt;/td&gt;&lt;td&gt;会议室：0755-82828562&lt;/td&gt;&lt;td&gt;会议室：021-20572522&lt;/td&gt;&lt;/tr&gt;&lt;/table&gt;</t>
   </si>
   <si>
-    <t>```json
-{
-"category": "A_基金相关",
-"score": 6,
-"reason": "基金季报持仓分析，统计主动权益基金四季度行业配置变化及重仓股变动，揭示机构资金流向"
-}
-```</t>
-  </si>
-  <si>
-    <t>2026-01-23_国盛证券_2025Q4基金仓位解析：四季度基金调仓五大看点</t>
-  </si>
-  <si>
     <t># 投资策略
 # 四季度基金调仓五大看点——2025Q4 基金仓位解析
 # 1、总体配置：规模回落，仓位调降
@@ -10048,21 +10166,6 @@
 地址：深圳市福田区福华三路 100 号鼎和大厦 24楼
 邮编：518033
 邮箱：gsresearch@gszq.com</t>
-  </si>
-  <si>
-    <t>```json
-{
-"category": "A_基金相关",
-"score": 7,
-"reason": "系统解析2025Q4主动偏股基金调仓特征，揭示加仓AI算力/有色、减持医药电子的机构动向，提供市场结构观察视角。"
-}
-```</t>
-  </si>
-  <si>
-    <t>2026-02-03 07:36:25</t>
-  </si>
-  <si>
-    <t>2026-01-23_银河证券_公募基金2025年四季度持仓有哪些看点？</t>
   </si>
   <si>
     <t># 公募基金2025年四季度持仓有哪些看点？
@@ -10273,21 +10376,6 @@
 公司网址：www.chinastock.com.cn</t>
   </si>
   <si>
-    <t>```json
-{
-"category": "A_基金相关",
-"score": 6,
-"reason": "公募基金季度持仓盘点，详列板块/行业/个股调仓数据与集中度变化，属机构动向跟踪，缺乏可复现策略框架，适合作为配置参考但前瞻性有限。"
-}
-```</t>
-  </si>
-  <si>
-    <t>2026-02-03 07:36:16</t>
-  </si>
-  <si>
-    <t>2026-01-24_国泰海通_2025Q4基金持仓分析：Q4基金动向：增配AI基建与价值股</t>
-  </si>
-  <si>
     <t># Q4 基金动向：增配 AI 基建与价值股
  2025Q4 基金持仓分析
 # 本报告导读：
@@ -10413,21 +10501,6 @@
 &lt;table&gt;&lt;tr&gt;&lt;td&gt;板块&lt;/td&gt;&lt;td&gt;行业&lt;/td&gt;&lt;td&gt;近9期配置曲线&lt;/td&gt;&lt;td&gt;最新实配环比&lt;/td&gt;&lt;td&gt;23Q4&lt;/td&gt;&lt;td&gt;24Q1&lt;/td&gt;&lt;td&gt;24Q2&lt;/td&gt;&lt;td&gt;24Q3&lt;/td&gt;&lt;td&gt;24Q4&lt;/td&gt;&lt;td&gt;25Q1&lt;/td&gt;&lt;td&gt;25Q2&lt;/td&gt;&lt;td&gt;25Q3&lt;/td&gt;&lt;td&gt;25Q4&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td rowspan="2"&gt;上游材料&lt;/td&gt;&lt;td&gt;煤炭&lt;/td&gt;&lt;td&gt;0.14%&lt;/td&gt;&lt;td&gt;2.4%&lt;/td&gt;&lt;td&gt;2.3%&lt;/td&gt;&lt;td&gt;1.2%&lt;/td&gt;&lt;td&gt;1.0%&lt;/td&gt;&lt;td&gt;0.7%&lt;/td&gt;&lt;td&gt;0.3%&lt;/td&gt;&lt;td&gt;0.3%&lt;/td&gt;&lt;td&gt;0.3%&lt;/td&gt;&lt;td&gt;0.5%&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;有色金属&lt;/td&gt;&lt;td&gt;2.02%&lt;/td&gt;&lt;td&gt;2.6%&lt;/td&gt;&lt;td&gt;4.9%&lt;/td&gt;&lt;td&gt;4.7%&lt;/td&gt;&lt;td&gt;4.0%&lt;/td&gt;&lt;td&gt;2.3%&lt;/td&gt;&lt;td&gt;3.1%&lt;/td&gt;&lt;td&gt;2.9%&lt;/td&gt;&lt;td&gt;4.5%&lt;/td&gt;&lt;td&gt;6.6%&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td rowspan="5"&gt;中游周期&lt;/td&gt;&lt;td&gt;钢铁&lt;/td&gt;&lt;td&gt;0.01%&lt;/td&gt;&lt;td&gt;0.0%&lt;/td&gt;&lt;td&gt;0.0%&lt;/td&gt;&lt;td&gt;0.0%&lt;/td&gt;&lt;td&gt;0.0%&lt;/td&gt;&lt;td&gt;0.0%&lt;/td&gt;&lt;td&gt;0.0%&lt;/td&gt;&lt;td&gt;0.0%&lt;/td&gt;&lt;td&gt;0.0%&lt;/td&gt;&lt;td&gt;0.0%&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;基础化工&lt;/td&gt;&lt;td&gt;0.00%&lt;/td&gt;&lt;td&gt;0.0%&lt;/td&gt;&lt;td&gt;0.0%&lt;/td&gt;&lt;td&gt;0.3%&lt;/td&gt;&lt;td&gt;0.3%&lt;/td&gt;&lt;td&gt;0.5%&lt;/td&gt;&lt;td&gt;0.3%&lt;/td&gt;&lt;td&gt;0.4%&lt;/td&gt;&lt;td&gt;0.2%&lt;/td&gt;&lt;td&gt;0.2%&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;建筑材料&lt;/td&gt;&lt;td&gt;0.13%&lt;/td&gt;&lt;td&gt;0.0%&lt;/td&gt;&lt;td&gt;0.0%&lt;/td&gt;&lt;td&gt;0.0%&lt;/td&gt;&lt;td&gt;0.1%&lt;/td&gt;&lt;td&gt;0.1%&lt;/td&gt;&lt;td&gt;0.1%&lt;/td&gt;&lt;td&gt;0.0%&lt;/td&gt;&lt;td&gt;0.2%&lt;/td&gt;&lt;td&gt;0.3%&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;建筑装饰&lt;/td&gt;&lt;td&gt;0.06%&lt;/td&gt;&lt;td&gt;0.5%&lt;/td&gt;&lt;td&gt;0.6%&lt;/td&gt;&lt;td&gt;0.7%&lt;/td&gt;&lt;td&gt;0.6%&lt;/td&gt;&lt;td&gt;0.8%&lt;/td&gt;&lt;td&gt;0.4%&lt;/td&gt;&lt;td&gt;0.5%&lt;/td&gt;&lt;td&gt;0.3%&lt;/td&gt;&lt;td&gt;0.4%&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;石油石化&lt;/td&gt;&lt;td&gt;1.43%&lt;/td&gt;&lt;td&gt;9.2%&lt;/td&gt;&lt;td&gt;13.0%&lt;/td&gt;&lt;td&gt;12.7%&lt;/td&gt;&lt;td&gt;6.3%&lt;/td&gt;&lt;td&gt;5.9%&lt;/td&gt;&lt;td&gt;3.3%&lt;/td&gt;&lt;td&gt;2.8%&lt;/td&gt;&lt;td&gt;2.1%&lt;/td&gt;&lt;td&gt;3.6%&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td rowspan="4"&gt;TMT&lt;/td&gt;&lt;td&gt;传媒&lt;/td&gt;&lt;td&gt;1.28%&lt;/td&gt;&lt;td&gt;22.1%&lt;/td&gt;&lt;td&gt;20.9%&lt;/td&gt;&lt;td&gt;22.8%&lt;/td&gt;&lt;td&gt;23.3%&lt;/td&gt;&lt;td&gt;20.8%&lt;/td&gt;&lt;td&gt;23.4%&lt;/td&gt;&lt;td&gt;20.6%&lt;/td&gt;&lt;td&gt;20.0%&lt;/td&gt;&lt;td&gt;21.3%&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;电子&lt;/td&gt;&lt;td&gt;-4.34%&lt;/td&gt;&lt;td&gt;2.4%&lt;/td&gt;&lt;td&gt;1.5%&lt;/td&gt;&lt;td&gt;2.5%&lt;/td&gt;&lt;td&gt;2.8%&lt;/td&gt;&lt;td&gt;10.6%&lt;/td&gt;&lt;td&gt;14.8%&lt;/td&gt;&lt;td&gt;14.4%&lt;/td&gt;&lt;td&gt;14.2%&lt;/td&gt;&lt;td&gt;9.8%&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;计算机&lt;/td&gt;&lt;td&gt;-0.01%&lt;/td&gt;&lt;td&gt;3.5%&lt;/td&gt;&lt;td&gt;2.5%&lt;/td&gt;&lt;td&gt;1.5%&lt;/td&gt;&lt;td&gt;1.5%&lt;/td&gt;&lt;td&gt;1.9%&lt;/td&gt;&lt;td&gt;2.0%&lt;/td&gt;&lt;td&gt;2.1%&lt;/td&gt;&lt;td&gt;0.8%&lt;/td&gt;&lt;td&gt;0.8%&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;通信&lt;/td&gt;&lt;td&gt;-0.03%&lt;/td&gt;&lt;td&gt;7.1%&lt;/td&gt;&lt;td&gt;7.3%&lt;/td&gt;&lt;td&gt;8.5%&lt;/td&gt;&lt;td&gt;6.8%&lt;/td&gt;&lt;td&gt;6.8%&lt;/td&gt;&lt;td&gt;5.6%&lt;/td&gt;&lt;td&gt;5.2%&lt;/td&gt;&lt;td&gt;3.1%&lt;/td&gt;&lt;td&gt;3.0%&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td rowspan="3"&gt;中游制造&lt;/td&gt;&lt;td&gt;电力设备&lt;/td&gt;&lt;td&gt;0.04%&lt;/td&gt;&lt;td&gt;0.5%&lt;/td&gt;&lt;td&gt;0.9%&lt;/td&gt;&lt;td&gt;0.3%&lt;/td&gt;&lt;td&gt;0.4%&lt;/td&gt;&lt;td&gt;1.2%&lt;/td&gt;&lt;td&gt;0.4%&lt;/td&gt;&lt;td&gt;0.5%&lt;/td&gt;&lt;td&gt;0.9%&lt;/td&gt;&lt;td&gt;1.0%&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;国防军工&lt;/td&gt;&lt;td&gt;-0.01%&lt;/td&gt;&lt;td&gt;0.1%&lt;/td&gt;&lt;td&gt;0.1%&lt;/td&gt;&lt;td&gt;0.1%&lt;/td&gt;&lt;td&gt;0.0%&lt;/td&gt;&lt;td&gt;0.1%&lt;/td&gt;&lt;td&gt;0.0%&lt;/td&gt;&lt;td&gt;0.0%&lt;/td&gt;&lt;td&gt;0.0%&lt;/td&gt;&lt;td&gt;0.0%&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;机械设备&lt;/td&gt;&lt;td&gt;0.08%&lt;/td&gt;&lt;td&gt;0.4%&lt;/td&gt;&lt;td&gt;0.4%&lt;/td&gt;&lt;td&gt;0.4%&lt;/td&gt;&lt;td&gt;0.3%&lt;/td&gt;&lt;td&gt;0.3%&lt;/td&gt;&lt;td&gt;0.2%&lt;/td&gt;&lt;td&gt;0.3%&lt;/td&gt;&lt;td&gt;0.2%&lt;/td&gt;&lt;td&gt;0.3%&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td rowspan="5"&gt;可选消费&lt;/td&gt;&lt;td&gt;家用电器&lt;/td&gt;&lt;td&gt;-0.01%&lt;/td&gt;&lt;td&gt;0.6%&lt;/td&gt;&lt;td&gt;0.9%&lt;/td&gt;&lt;td&gt;0.9%&lt;/td&gt;&lt;td&gt;0.9%&lt;/td&gt;&lt;td&gt;0.9%&lt;/td&gt;&lt;td&gt;0.6%&lt;/td&gt;&lt;td&gt;0.9%&lt;/td&gt;&lt;td&gt;0.4%&lt;/td&gt;&lt;td&gt;0.4%&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;美容护理&lt;/td&gt;&lt;td&gt;-0.35%&lt;/td&gt;&lt;td&gt;0.0%&lt;/td&gt;&lt;td&gt;0.2%&lt;/td&gt;&lt;td&gt;1.1%&lt;/td&gt;&lt;td&gt;1.0%&lt;/td&gt;&lt;td&gt;0.9%&lt;/td&gt;&lt;td&gt;0.9%&lt;/td&gt;&lt;td&gt;0.7%&lt;/td&gt;&lt;td&gt;0.4%&lt;/td&gt;&lt;td&gt;0.1%&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;汽车&lt;/td&gt;&lt;td&gt;-0.44%&lt;/td&gt;&lt;td&gt;6.6%&lt;/td&gt;&lt;td&gt;5.0%&lt;/td&gt;&lt;td&gt;3.8%&lt;/td&gt;&lt;td&gt;5.0%&lt;/td&gt;&lt;td&gt;7.2%&lt;/td&gt;&lt;td&gt;7.4%&lt;/td&gt;&lt;td&gt;5.3%&lt;/td&gt;&lt;td&gt;4.3%&lt;/td&gt;&lt;td&gt;3.9%&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;轻工制造&lt;/td&gt;&lt;td&gt;-0.75%&lt;/td&gt;&lt;td&gt;0.5%&lt;/td&gt;&lt;td&gt;0.9%&lt;/td&gt;&lt;td&gt;2.2%&lt;/td&gt;&lt;td&gt;1.1%&lt;/td&gt;&lt;td&gt;2.0%&lt;/td&gt;&lt;td&gt;2.8%&lt;/td&gt;&lt;td&gt;4.8%&lt;/td&gt;&lt;td&gt;2.8%&lt;/td&gt;&lt;td&gt;2.1%&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;社会服务&lt;/td&gt;&lt;td&gt;0.89%&lt;/td&gt;&lt;td&gt;5.1%&lt;/td&gt;&lt;td&gt;7.5%&lt;/td&gt;&lt;td&gt;7.8%&lt;/td&gt;&lt;td&gt;10.9%&lt;/td&gt;&lt;td&gt;8.5%&lt;/td&gt;&lt;td&gt;4.5%&lt;/td&gt;&lt;td&gt;3.9%&lt;/td&gt;&lt;td&gt;1.6%&lt;/td&gt;&lt;td&gt;2.5%&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td rowspan="5"&gt;必选消费&lt;/td&gt;&lt;td&gt;纺织服饰&lt;/td&gt;&lt;td&gt;0.07%&lt;/td&gt;&lt;td&gt;2.7%&lt;/td&gt;&lt;td&gt;2.2%&lt;/td&gt;&lt;td&gt;1.5%&lt;/td&gt;&lt;td&gt;1.2%&lt;/td&gt;&lt;td&gt;1.3%&lt;/td&gt;&lt;td&gt;0.6%&lt;/td&gt;&lt;td&gt;0.7%&lt;/td&gt;&lt;td&gt;0.5%&lt;/td&gt;&lt;td&gt;0.6%&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;农林牧渔&lt;/td&gt;&lt;td&gt;0.00%&lt;/td&gt;&lt;td&gt;0.0%&lt;/td&gt;&lt;td&gt;0.0%&lt;/td&gt;&lt;td&gt;0.0%&lt;/td&gt;&lt;td&gt;0.0%&lt;/td&gt;&lt;td&gt;0.0%&lt;/td&gt;&lt;td&gt;0.0%&lt;/td&gt;&lt;td&gt;0.0%&lt;/td&gt;&lt;td&gt;0.0%&lt;/td&gt;&lt;td&gt;0.0%&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;商贸零售&lt;/td&gt;&lt;td&gt;-2.52%&lt;/td&gt;&lt;td&gt;0.2%&lt;/td&gt;&lt;td&gt;0.2%&lt;/td&gt;&lt;td&gt;0.3%&lt;/td&gt;&lt;td&gt;6.2%&lt;/td&gt;&lt;td&gt;5.2%&lt;/td&gt;&lt;td&gt;11.0%&lt;/td&gt;&lt;td&gt;6.6%&lt;/td&gt;&lt;td&gt;13.1%&lt;/td&gt;&lt;td&gt;10.6%&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;食品饮料&lt;/td&gt;&lt;td&gt;0.65%&lt;/td&gt;&lt;td&gt;3.6%&lt;/td&gt;&lt;td&gt;3.5%&lt;/td&gt;&lt;td&gt;2.1%&lt;/td&gt;&lt;td&gt;2.3%&lt;/td&gt;&lt;td&gt;2.1%&lt;/td&gt;&lt;td&gt;1.3%&lt;/td&gt;&lt;td&gt;1.2%&lt;/td&gt;&lt;td&gt;1.0%&lt;/td&gt;&lt;td&gt;1.7%&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;医药生物&lt;/td&gt;&lt;td&gt;-2.38%&lt;/td&gt;&lt;td&gt;12.3%&lt;/td&gt;&lt;td&gt;8.5%&lt;/td&gt;&lt;td&gt;6.8%&lt;/td&gt;&lt;td&gt;7.8%&lt;/td&gt;&lt;td&gt;6.1%&lt;/td&gt;&lt;td&gt;7.5%&lt;/td&gt;&lt;td&gt;14.0%&lt;/td&gt;&lt;td&gt;17.2%&lt;/td&gt;&lt;td&gt;14.8%&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td rowspan="4"&gt;交运公用&lt;/td&gt;&lt;td&gt;公用事业&lt;/td&gt;&lt;td&gt;0.07%&lt;/td&gt;&lt;td&gt;5.7%&lt;/td&gt;&lt;td&gt;6.2%&lt;/td&gt;&lt;td&gt;6.4%&lt;/td&gt;&lt;td&gt;4.5%&lt;/td&gt;&lt;td&gt;2.9%&lt;/td&gt;&lt;td&gt;1.4%&lt;/td&gt;&lt;td&gt;1.4%&lt;/td&gt;&lt;td&gt;0.9%&lt;/td&gt;&lt;td&gt;1.0%&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;环保&lt;/td&gt;&lt;td&gt;-0.06%&lt;/td&gt;&lt;td&gt;0.0%&lt;/td&gt;&lt;td&gt;0.1%&lt;/td&gt;&lt;td&gt;0.3%&lt;/td&gt;&lt;td&gt;0.4%&lt;/td&gt;&lt;td&gt;0.5%&lt;/td&gt;&lt;td&gt;0.2%&lt;/td&gt;&lt;td&gt;0.2%&lt;/td&gt;&lt;td&gt;0.2%&lt;/td&gt;&lt;td&gt;0.1%&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;交通运输&lt;/td&gt;&lt;td&gt;1.26%&lt;/td&gt;&lt;td&gt;2.7%&lt;/td&gt;&lt;td&gt;3.1%&lt;/td&gt;&lt;td&gt;2.9%&lt;/td&gt;&lt;td&gt;2.9%&lt;/td&gt;&lt;td&gt;2.5%&lt;/td&gt;&lt;td&gt;1.5%&lt;/td&gt;&lt;td&gt;1.6%&lt;/td&gt;&lt;td&gt;1.8%&lt;/td&gt;&lt;td&gt;3.1%&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;综合&lt;/td&gt;&lt;td&gt;-0.15%&lt;/td&gt;&lt;td&gt;0.2%&lt;/td&gt;&lt;td&gt;0.2%&lt;/td&gt;&lt;td&gt;0.1%&lt;/td&gt;&lt;td&gt;0.1%&lt;/td&gt;&lt;td&gt;0.1%&lt;/td&gt;&lt;td&gt;0.1%&lt;/td&gt;&lt;td&gt;0.3%&lt;/td&gt;&lt;td&gt;0.2%&lt;/td&gt;&lt;td&gt;0.0%&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td rowspan="3"&gt;大金融&lt;/td&gt;&lt;td&gt;房地产&lt;/td&gt;&lt;td&gt;0.95%&lt;/td&gt;&lt;td&gt;3.4%&lt;/td&gt;&lt;td&gt;2.5%&lt;/td&gt;&lt;td&gt;2.5%&lt;/td&gt;&lt;td&gt;3.2%&lt;/td&gt;&lt;td&gt;2.4%&lt;/td&gt;&lt;td&gt;2.1%&lt;/td&gt;&lt;td&gt;1.9%&lt;/td&gt;&lt;td&gt;2.6%&lt;/td&gt;&lt;td&gt;3.5%&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td</t>
   </si>
   <si>
-    <t>```json
-{
-  "category": "A_基金相关",
-  "score": 7,
-  "reason": "Q4主动基金持仓全景分析，揭示机构增配周期/金融/AI硬件、减配港股与医药电子的方向，对理解主力资金动向有参考价值但缺乏可复现模型。"
-}
-```</t>
-  </si>
-  <si>
-    <t>2026-02-03 07:36:15</t>
-  </si>
-  <si>
-    <t>2026-01-25_东吴证券_策略周评_20260124：基金四季报，透露了哪些重要线索？</t>
-  </si>
-  <si>
     <t># 策略周评 20260124
 # 基金四季报，透露了哪些重要线索？
 截至1月22日，公募基金四季报已披露完毕，基于此，我们挖掘背后资金逻辑，提炼出四条核心线索，为后续大势研判与板块配置提供指引。
@@ -10533,21 +10606,6 @@
 邮政编码：215021
 传真：（0512）62938527
 公司网址： http://www.dwzq.com.cn</t>
-  </si>
-  <si>
-    <t>```json
-{
-"category": "A_基金相关",
-"score": 8,
-"reason": "基于基金四季报深度挖掘资金逻辑，提出居民赎回压力缓解、存款搬家方向及TMT/资源品配置线索，具备 actionable insights。"
-}
-```</t>
-  </si>
-  <si>
-    <t>2026-02-03 07:36:26</t>
-  </si>
-  <si>
-    <t>2026-01-25_中泰证券_宽基ETF资金大幅流出：规模，节奏与影响</t>
   </si>
   <si>
     <t># 证券研究报告/策略专题报告
@@ -10718,21 +10776,6 @@
 中泰证券股份有限公司
 事先未经本公司书面授权
 行任何形式的翻版、发布、复制、转载、刊登、篡改，且不得对本报告进行有悖原意的删节或修改。</t>
-  </si>
-  <si>
-    <t>```json
-{
-"category": "E_市场结构与择时",
-"score": 8,
-"reason": "测算汇金系ETF减持规模与节奏，分析资金流出对市场风格（大盘受压、小盘避险）及个股的冲击，建议减仓拥挤主题、关注电力设备与机器人。"
-}
-```</t>
-  </si>
-  <si>
-    <t>2026-02-03 07:36:22</t>
-  </si>
-  <si>
-    <t>2026-01-26_华泰证券_2025年四季度基金持仓分析：负债端压力缓解</t>
   </si>
   <si>
     <t># 负债端压力缓解—2025年四季度基金持仓分析
@@ -11047,21 +11090,6 @@
 ![](images/aa0c0b</t>
   </si>
   <si>
-    <t>```json
-{
-"category": "A_基金相关",
-"score": 8,
-"reason": "基于基金季报数据，构建配置系数分位数框架分析筹码拥挤度，识别低位顺周期及科技资产，并跟踪负债端赎回压力变化。"
-}
-```</t>
-  </si>
-  <si>
-    <t>2026-02-03 07:36:20</t>
-  </si>
-  <si>
-    <t>2026-01-26_大同证券_基金研究周报：酒泉市商业航天产业发展规划出炉，可关注哪些机会？</t>
-  </si>
-  <si>
     <t># 酒泉市商业航天产业发展规划出炉，可关注哪些机会？
 # 【20260119-20260125】
 市场回顾：上周权益市场主要指数涨跌不一，万得微盘股指数涨幅最大，上涨 $5 , 2 5 \%$ ；申万一级行业涨多跌少，多数行业指数跑赢万得全A指数；债券市场长短端利率走势不一，其中十年期国债下行 1.26BP 至 $1 . 8 3 0 \%$ ，10Y-1Y 期限利差小幅下行,长短端信用利差走势不一；基金市场中偏股基金指数和二级债基指数均周度收涨，中长期纯债基金指数和短期纯债基金指数均周度收涨。
@@ -11171,19 +11199,6 @@
 本报告版权为大同证券有限责任公司所有，未经书面许可，任何机构和个人不得以任何形式翻版、复制和发布。如引用需注明出处为大同证券研究部，且不得对本报告进行有悖原意的引用、删节和修改。
 # 分析师承诺：
 本人、本人配偶及本人的利害关系人与报告内容所涉标的公司不涉及利益冲突。</t>
-  </si>
-  <si>
-    <t>{
-"category": "G_定期报告",
-"score": 6,
-"reason": "基金配置周报，回顾上周市场行情并基于事件驱动与杠铃策略推荐具体基金产品，以短期配置指引为主，研究深度一般，适合跟踪市场动态。"
-}</t>
-  </si>
-  <si>
-    <t>2026-02-03 07:36:27</t>
-  </si>
-  <si>
-    <t>2026-01-27_东方财富证券_25Q4基金持仓及文本透视：布局顺周期，基金经理如何展望2026？</t>
   </si>
   <si>
     <t># 布局顺周期，基金经理如何展望2026？25Q4 基金持仓及文本透视
@@ -11398,18 +11413,6 @@
 在任何情况下，本报告的内容不构成对任何人的投资建议，也没有考虑到个别客户特殊的投资目标、财务状况或需求。客户需充分考虑自身特定状况，不应单纯依靠本报告所载的内容而取代个人的独立判断。本公司不对任何人因使用本报告所载任何内容所引致的任何损失负任何责任，投资者需自行承担风险。
 在法律允许的情况下，本公司或其关联机构可能会持有报告中提到的公司所发行的证券头寸并进行交易，也可能为这些公司提供或争取提供投资银行、财务顾问等服务。客户应充分考虑可能存在的利益冲突，勿将本报告作为投资决策的唯一参考依据。
 本报告版权均归本公司所有，未经本公司事先书面授权，任何机构或个人不得以任何形式复制、发布、传播本报告的全部或部分内容。经授权刊载、转发本报告或者摘要的，应当注明本报告发布人和发布日期，并提示使用本报告的风险。未经授权或未按要求刊载、转发本报告的，应当承担相应的法律责任。本公司将保留向其追究法律责任的权利。</t>
-  </si>
-  <si>
-    <t>```json
-{
-"category": "A_基金相关",
-"score": 7,
-"reason": "基于25Q4基金季报，运用AI文本挖掘分析基金经理持仓变化与2026年展望，揭示顺周期布局共识，兼具数据实证与观点前瞻。"
-}
-```</t>
-  </si>
-  <si>
-    <t>2026-01-27_华鑫证券_2026年量化和基金研究年度策略：公募新规下的ETF组合投资元年</t>
   </si>
   <si>
     <t># 公募新规下的 ETF 组合投资元年
@@ -11687,21 +11690,6 @@
 手率&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;聚合因子&lt;/td&gt;&lt;td&gt;0.1147&lt;/td&gt;&lt;td&gt;0.5060&lt;/td&gt;&lt;td&gt;0.0493&lt;/td&gt;&lt;td&gt;14.4202&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;小单净流入5日移动加和&lt;/td&gt;&lt;td&gt;0.0171&lt;/td&gt;&lt;td&gt;0.0584&lt;/td&gt;&lt;td&gt;0.0057&lt;/td&gt;&lt;td&gt;17.4454&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;小单净流入10日移动加和&lt;/td&gt;&lt;td&gt;0.0042&lt;/td&gt;&lt;td&gt;-0.1168&lt;/td&gt;&lt;td&gt;-0.0115&lt;/td&gt;&lt;td&gt;9.9832&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;小单净流入20日移动加和&lt;/td&gt;&lt;td&gt;-0.0069&lt;/td&gt;&lt;td&gt;-0.3426&lt;/td&gt;&lt;td&gt;-0.0330&lt;/td&gt;&lt;td&gt;5.6471&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;小单净流入5日移动加和/成交额5日移动加和&lt;/td&gt;&lt;td&gt;0.0320&lt;/td&gt;&lt;td&gt;0.2663&lt;/td&gt;&lt;td&gt;0.0258&lt;/td&gt;&lt;td&gt;19.2605&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;小单净流入10日移动加和/成交额10日移动加和&lt;/td&gt;&lt;td&gt;0.0642&lt;/td&gt;&lt;td&gt;0.0725&lt;/td&gt;&lt;td&gt;0.0072&lt;/td&gt;&lt;td&gt;12.2017&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;小单净流入20日移动加和/成交额20日移动加和&lt;/td&gt;&lt;td&gt;-0.0348&lt;/td&gt;&lt;td&gt;-0.2921&lt;/td&gt;&lt;td&gt;-0.0287&lt;/td&gt;&lt;td&gt;6.8571&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;小单净流入5日移动加和/流通市值5日移动加和&lt;/td&gt;&lt;td&gt;0.0000&lt;/td&gt;&lt;td&gt;-0.1188&lt;/td&gt;&lt;td&gt;-0.0115&lt;/td&gt;&lt;td&gt;18.0504&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;小单净流入10日移动加和/流通市值10日移动加和&lt;/td&gt;&lt;td&gt;0.0305&lt;/td&gt;&lt;td&gt;-0.0589&lt;/td&gt;&lt;td&gt;-0.0058&lt;/td&gt;&lt;td&gt;11.3950&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;小单净流入20日移动加和/流通市值20日移动加和&lt;/td&gt;&lt;td&gt;-0.0326&lt;/td&gt;&lt;td&gt;-0.2619&lt;/td&gt;&lt;td&gt;-0.0264&lt;/td&gt;&lt;td&gt;6.9580&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;机构单净流入5日移动加和&lt;/td&gt;&lt;td&gt;0.0826&lt;/td&gt;&lt;td&gt;0.0722&lt;/td&gt;&lt;td&gt;0.0072&lt;/td&gt;&lt;td&gt;20.6723&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;机构单净流入10日移动加和&lt;/td&gt;&lt;td&gt;0.0658&lt;/td&gt;&lt;td&gt;-0.2253&lt;/td&gt;&lt;td&gt;-0.0215&lt;/td&gt;&lt;td&gt;13.5126&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;机构单净流入20日移动加和&lt;/td&gt;&lt;td&gt;0.0711&lt;/td&gt;&lt;td&gt;-0.1178&lt;/td&gt;&lt;td&gt;-0.0115&lt;/td&gt;&lt;td&gt;9.4790&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;机构单净流入5日移动加和/成交额5日移动加和&lt;/td&gt;&lt;td&gt;0.0767&lt;/td&gt;&lt;td&gt;0.2019&lt;/td&gt;&lt;td&gt;0.0201&lt;/td&gt;&lt;td&gt;18.4538&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;机构单净流入10日移动加和/成交额10日移动加和&lt;/td&gt;&lt;td&gt;0.0459&lt;/td&gt;&lt;td&gt;-0.1042&lt;/td&gt;&lt;td&gt;-0.0100&lt;/td&gt;&lt;td&gt;11.1933&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;机构单净流入20日移动加和/成交额20日移动加和&lt;/td&gt;&lt;td&gt;0.0280&lt;/td&gt;&lt;td&gt;-0.3036&lt;/td&gt;&lt;td&gt;-0.0301&lt;/td&gt;&lt;td&gt;7.1597&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;机构单净流入5日移动加和/流通市值5日移动加和&lt;/td&gt;&lt;td&gt;0.1016&lt;/td&gt;&lt;td&gt;0.3111&lt;/td&gt;&lt;td&gt;0.0317&lt;/td&gt;&lt;td&gt;17.5462&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;机构单净流入10日移动加和/流通市值10日移动加和&lt;/td&gt;&lt;td&gt;0.0713&lt;/td&gt;&lt;td&gt;0.2576&lt;/td&gt;&lt;td&gt;0.0246&lt;/td&gt;&lt;td&gt;10.0840&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;机构单净流入20日移动加和/流通市值20日移动加和&lt;/td&gt;&lt;td&gt;0.0349&lt;/td&gt;&lt;td&gt;-0.0741&lt;/td&gt;&lt;td&gt;-0.0073&lt;/td&gt;&lt;td&gt;5.6471&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;超大单净流入5日移动加和&lt;/td&gt;&lt;td&gt;-0.0046&lt;/td&gt;&lt;td&gt;-0.0719&lt;/td&gt;&lt;td&gt;-0.0072&lt;/td&gt;&lt;td&gt;20.2689&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;超大单净流入10日移动加和&lt;/td&gt;&lt;td&gt;0.0748&lt;/td&gt;&lt;td&gt;0.2002&lt;/td&gt;&lt;td&gt;0.0201&lt;/td&gt;&lt;td&gt;12.7059&lt;/td&gt;&lt;/tr&gt;&lt;</t>
   </si>
   <si>
-    <t>```json
-{
-"category": "B_ETF策略",
-"score": 8,
-"reason": "系统构建ETF组合投资框架，涵盖多资产配置、风险平价、行业轮动及指数增强策略，提供可复现的量化模型与历史回测，适配公募新规下的Beta投资需求。"
-}
-```</t>
-  </si>
-  <si>
-    <t>2026-02-03 07:36:23</t>
-  </si>
-  <si>
-    <t>2026-01-30_华创证券_25Q4基金季报专题研究：四类基金画像：加仓、减仓、调仓、极致风格</t>
-  </si>
-  <si>
     <t># 【策略专题】
 # 四类基金画像：加仓、减仓、调仓、极致风格——25Q4 基金季报专题研究
 # ❖ 公募整体持仓变化：增配有色、通信，减配电子、医药
@@ -11913,6 +11901,540 @@
 &lt;table&gt;&lt;tr&gt;&lt;td colspan="4"&gt;25Q3前30重仓股&lt;/td&gt;&lt;td colspan="7"&gt;25Q4前30重仓股&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;股票代码&lt;/td&gt;&lt;td&gt;股票简称&lt;/td&gt;&lt;td&gt;所属行业&lt;/td&gt;&lt;td&gt;持股市值(亿元)&lt;/td&gt;&lt;td&gt;股票代码&lt;/td&gt;&lt;td&gt;股票简称&lt;/td&gt;&lt;td&gt;所属行业&lt;/td&gt;&lt;td&gt;持股市值(亿元)&lt;/td&gt;&lt;td colspan="2"&gt;25Q4净增持(亿元)&lt;/td&gt;&lt;td&gt;是否为基金整体前30重仓股&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;300750.SZ&lt;/td&gt;&lt;td&gt;宁德时代&lt;/td&gt;&lt;td&gt;电力设备&lt;/td&gt;&lt;td&gt;14.1&lt;/td&gt;&lt;td&gt;601899.SH&lt;/td&gt;&lt;td&gt;紫金矿业&lt;/td&gt;&lt;td&gt;有色金属&lt;/td&gt;&lt;td&gt;18.0&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;td&gt;3.6&lt;/td&gt;&lt;td&gt;是&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;300502.SZ&lt;/td&gt;&lt;td&gt;新易盛&lt;/td&gt;&lt;td&gt;通信&lt;/td&gt;&lt;td&gt;12.1&lt;/td&gt;&lt;td&gt;300308.SZ&lt;/td&gt;&lt;td&gt;中际旭创&lt;/td&gt;&lt;td&gt;通信&lt;/td&gt;&lt;td&gt;13.8&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;td&gt;-0.9&lt;/td&gt;&lt;td&gt;是&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;601899.SH&lt;/td&gt;&lt;td&gt;紫金矿业&lt;/td&gt;&lt;td&gt;有色金属&lt;/td&gt;&lt;td&gt;12.0&lt;/td&gt;&lt;td&gt;300502.SZ&lt;/td&gt;&lt;td&gt;新易盛&lt;/td&gt;&lt;td&gt;通信&lt;/td&gt;&lt;td&gt;13.1&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;td&gt;-1.1&lt;/td&gt;&lt;td&gt;是&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;300308.SZ&lt;/td&gt;&lt;td&gt;中际旭创&lt;/td&gt;&lt;td&gt;通信&lt;/td&gt;&lt;td&gt;9.8&lt;/td&gt;&lt;td&gt;001309.SZ&lt;/td&gt;&lt;td&gt;德明利&lt;/td&gt;&lt;td&gt;电子&lt;/td&gt;&lt;td&gt;10.7&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;td&gt;8.2&lt;/td&gt;&lt;td&gt;否&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;9988.HK&lt;/td&gt;&lt;td&gt;阿里巴巴-W&lt;/td&gt;&lt;td&gt;商贸零售&lt;/td&gt;&lt;td&gt;8.5&lt;/td&gt;&lt;td&gt;601318.SH&lt;/td&gt;&lt;td&gt;中国平安&lt;/td&gt;&lt;td&gt;非银金融&lt;/td&gt;&lt;td&gt;10.2&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;td&gt;5.3&lt;/td&gt;&lt;td&gt;是&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;002475.SZ&lt;/td&gt;&lt;td&gt;立讯精密&lt;/td&gt;&lt;td&gt;电子&lt;/td&gt;&lt;td&gt;7.8&lt;/td&gt;&lt;td&gt;688525.SH&lt;/td&gt;&lt;td&gt;佰维存储&lt;/td&gt;&lt;td&gt;电子&lt;/td&gt;&lt;td&gt;10.1&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;td&gt;9.8&lt;/td&gt;&lt;td&gt;否&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;688256.SH&lt;/td&gt;&lt;td&gt;寒武纪-U&lt;/td&gt;&lt;td&gt;电子&lt;/td&gt;&lt;td&gt;7.7&lt;/td&gt;&lt;td&gt;300475.SZ&lt;/td&gt;&lt;td&gt;香农芯创&lt;/td&gt;&lt;td&gt;电子&lt;/td&gt;&lt;td&gt;9.8&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;td&gt;8.8&lt;/td&gt;&lt;td&gt;否&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;601138.SH&lt;/td&gt;&lt;td&gt;工业富联&lt;/td&gt;&lt;td&gt;电子&lt;/td&gt;&lt;td&gt;7.7&lt;/td&gt;&lt;td&gt;301308.SZ&lt;/td&gt;&lt;td&gt;江波龙&lt;/td&gt;&lt;td&gt;电子&lt;/td&gt;&lt;td&gt;9.1&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;td&gt;7.8&lt;/td&gt;&lt;td&gt;否&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;0700.HK&lt;/td&gt;&lt;td&gt;腾讯控股&lt;/td&gt;&lt;td&gt;传媒&lt;/td&gt;&lt;td&gt;7.4&lt;/td&gt;&lt;td&gt;300750.SZ&lt;/td&gt;&lt;td&gt;宁德时代&lt;/td&gt;&lt;td&gt;电力设备&lt;/td&gt;&lt;td&gt;8.1&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;td&gt;-5.0&lt;/td&gt;&lt;td&gt;是&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;002371.SZ&lt;/td&gt;&lt;td&gt;北方华创&lt;/td&gt;&lt;td&gt;电子&lt;/td&gt;&lt;td&gt;6.4&lt;/td&gt;&lt;td&gt;603986.SH&lt;/td&gt;&lt;td&gt;兆易创新&lt;/td&gt;&lt;td&gt;电子&lt;/td&gt;&lt;td&gt;7.7&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;td&gt;6.0&lt;/td&gt;&lt;td&gt;是&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;600809.SH&lt;/td&gt;&lt;td&gt;山西汾酒&lt;/td&gt;&lt;td&gt;食品饮料&lt;/td&gt;&lt;td&gt;6.2&lt;/td&gt;&lt;td&gt;688627.SH&lt;/td&gt;&lt;td&gt;精智达&lt;/td&gt;&lt;td&gt;机械设备&lt;/td&gt;&lt;td&gt;7.0&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;td&gt;6.2&lt;/td&gt;&lt;td&gt;否&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;000568.SZ&lt;/td&gt;&lt;td&gt;泸州老窖&lt;/td&gt;&lt;td&gt;食品饮料&lt;/td&gt;&lt;td&gt;5.7&lt;/td&gt;&lt;td&gt;0700.HK&lt;/td&gt;&lt;td&gt;腾讯控股&lt;/td&gt;&lt;td&gt;传媒&lt;/td&gt;&lt;td&gt;6.9&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;td&gt;0.4&lt;/td&gt;&lt;td&gt;是&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;1801.HK&lt;/td&gt;&lt;td&gt;信达生物&lt;/td&gt;&lt;td&gt;医药生物&lt;/td&gt;&lt;td&gt;5.4&lt;/td&gt;&lt;td&gt;300223.SZ&lt;/td&gt;&lt;td&gt;北京君正&lt;/td&gt;&lt;td&gt;电子&lt;/td&gt;&lt;td&gt;6.8&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;td&gt;6.0&lt;/td&gt;&lt;td&gt;否&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;9636.HK&lt;/td&gt;&lt;td&gt;九方智投控股&lt;/td&gt;&lt;td&gt;非银金融&lt;/td&gt;&lt;td&gt;4.9&lt;/td&gt;&lt;td&gt;9988.HK&lt;/td&gt;&lt;td&gt;阿里巴巴-W&lt;/td&gt;&lt;td&gt;商贸零售&lt;/td&gt;&lt;td&gt;5.8&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;td&gt;-1.2&lt;/td&gt;&lt;td&gt;是&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;600519.SH&lt;/td&gt;&lt;td&gt;贵州茅台&lt;/td&gt;&lt;td&gt;食品饮料&lt;/td&gt;&lt;td&gt;4.8&lt;/td&gt;&lt;td&gt;002028.SZ&lt;/td&gt;&lt;td&gt;思源电气&lt;/td&gt;&lt;td&gt;电力设备&lt;/td&gt;&lt;td&gt;5.8&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;td&gt;4.7&lt;/td&gt;&lt;td&gt;否&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;002558.SZ&lt;/td&gt;&lt;td&gt;巨人网络&lt;/td&gt;&lt;td&gt;传媒&lt;/td&gt;&lt;td&gt;4.1&lt;/td&gt;&lt;td&gt;688256.SH&lt;/td&gt;&lt;td&gt;寒武纪-U&lt;/td&gt;&lt;td&gt;电子&lt;/td&gt;&lt;td&gt;5.7&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;td&gt;-2.0&lt;/td&gt;&lt;td&gt;是&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;002241.SZ&lt;/td&gt;&lt;td&gt;歌尔股份&lt;/td&gt;&lt;td&gt;电子&lt;/td&gt;&lt;td&gt;4.1&lt;/td&gt;&lt;td&gt;688233.SH&lt;/td&gt;&lt;td&gt;神工股份&lt;/td&gt;&lt;td&gt;电子&lt;/td&gt;&lt;td&gt;5.6&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;td&gt;5.0&lt;/td&gt;&lt;td&gt;否&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;688347.SH&lt;/td&gt;&lt;td&gt;华虹公司&lt;/td&gt;&lt;td&gt;电子&lt;/td&gt;&lt;td&gt;4.0&lt;/td&gt;&lt;td&gt;000807.SZ&lt;/td&gt;&lt;td&gt;云铝股份&lt;/td&gt;&lt;td&gt;有色金属&lt;/td&gt;&lt;td&gt;5.5&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;td&gt;4.1&lt;/td&gt;&lt;td&gt;否&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;0981.HK&lt;/td&gt;&lt;td&gt;中芯国际&lt;/td&gt;&lt;td&gt;电子&lt;/td&gt;&lt;td&gt;3.8&lt;/td&gt;&lt;td&gt;688228.SH&lt;/td&gt;&lt;td&gt;开普云&lt;/td&gt;&lt;td&gt;计算机&lt;/td&gt;&lt;td&gt;5.4&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;td&gt;4.9&lt;/td&gt;&lt;td&gt;否&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;600418.SH&lt;/td&gt;&lt;td&gt;江淮汽车&lt;/td&gt;&lt;td&gt;汽车&lt;/td&gt;&lt;td&gt;3.8&lt;/td&gt;&lt;td&gt;002371.SZ&lt;/td&gt;&lt;td&gt;北方华创&lt;/td&gt;&lt;td&gt;电子&lt;/td&gt;&lt;td&gt;5.2&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;td&gt;-1.2&lt;/td&gt;&lt;td&gt;是&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;000776.SZ&lt;/td&gt;&lt;td&gt;广发证券&lt;/td&gt;&lt;td&gt;非银金融&lt;/td&gt;&lt;td&gt;3.8&lt;/td&gt;&lt;td&gt;601601.SH&lt;/td&gt;&lt;td&gt;中国太保&lt;/td&gt;&lt;td&gt;非银金融&lt;/td&gt;&lt;td&gt;5.2&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;td&gt;1.9&lt;/td&gt;&lt;td&gt;否&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;603119.SH&lt;/td&gt;&lt;td&gt;浙江荣泰&lt;/td&gt;&lt;td&gt;汽车&lt;/td&gt;&lt;td&gt;3.8&lt;/td&gt;&lt;td&gt;600519.SH&lt;/td&gt;&lt;td&gt;贵州茅台&lt;/td&gt;&lt;td&gt;食品饮料&lt;/td&gt;&lt;td&gt;5.0&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;td&gt;0.4&lt;/td&gt;&lt;td&gt;是&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;603179.SH&lt;/td&gt;&lt;td&gt;新泉股份&lt;/td&gt;&lt;td&gt;汽车&lt;/td&gt;&lt;td&gt;3.7&lt;/td&gt;&lt;td&gt;688008.SH&lt;/td&gt;&lt;td&gt;澜起科技&lt;/td&gt;&lt;td&gt;电子&lt;/td&gt;&lt;td&gt;4.5&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;td&gt;4.7&lt;/td&gt;&lt;td&gt;否&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;1810.HK&lt;/td&gt;&lt;td&gt;小米集团-W&lt;/td&gt;&lt;td&gt;电子&lt;/td&gt;&lt;td&gt;3.6&lt;/td&gt;&lt;td&gt;600030.SH&lt;/td&gt;&lt;td&gt;中信证券&lt;/td&gt;&lt;td&gt;非银金融&lt;/td&gt;&lt;td&gt;4.5&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;td&gt;4.5&lt;/td&gt;&lt;td&gt;否&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;601398.SH&lt;/td&gt;&lt;td&gt;工商银行&lt;/td&gt;&lt;td&gt;</t>
   </si>
   <si>
+    <t>2026-02-05 12:05:25</t>
+  </si>
+  <si>
+    <t>2026-02-03 00:06:29</t>
+  </si>
+  <si>
+    <t>```json
+{
+"category": "A_基金相关",
+"score": 8,
+"reason": "构建核心资产基金池，从赛道龙头、资源禀赋等四维度定义核心资产，筛选低Beta高现金流基金，提供10只精选基金标的及详细画像分析，具备可复用的基金评价框架。"
+}
+```</t>
+  </si>
+  <si>
+    <t>```json
+{
+"category": "A_基金相关",
+"score": 8,
+"reason": "基于BP因子和盈利预期构建深度价值基金筛选框架，提供具体基金名单及详细画像分析，对FOF配置具有直接参考价值。"
+}
+```</t>
+  </si>
+  <si>
+    <t>```json
+{
+"category": "A_基金相关",
+"score": 8,
+"reason": "基于PB-ROE因子筛选成长价值型基金，构建高年度胜率基金池，提供10只精选基金及详细画像分析，具备明确配置价值与复用框架。"
+}
+```</t>
+  </si>
+  <si>
+    <t>```json
+{
+"category": "A_基金相关",
+"score": 7,
+"reason": "基于盈利拐点与出海战略，推荐具备选股能力的主动权益基金及有色、锂电、创新药等行业ETF配置，判断大盘成长风格占优。"
+}
+```</t>
+  </si>
+  <si>
+    <t>```json
+{
+"category": "B_ETF策略",
+"score": 8,
+"reason": "提供哑铃型ETF配置策略及具体产品池，基于政策与风格研判给出均衡配置建议"
+}
+```</t>
+  </si>
+  <si>
+    <t>```json
+{
+"category": "G_定期报告",
+"score": 6,
+"reason": "基于行业轮动模型的ETF组合周度跟踪，提供调仓清单与择时信号，属常规策略维护"
+}
+```</t>
+  </si>
+  <si>
+    <t>```json
+{
+"category": "A_基金相关",
+"score": 8,
+"reason": "深度剖析五位公募量化基金经理的AI与多因子投资框架、风控特征及业绩归因，为FOF选基提供可复用的分析维度和配置参考。"
+}
+```</t>
+  </si>
+  <si>
+    <t>{
+"category": "G_定期报告",
+"score": 3,
+"reason": "基金周报，仅罗列本周市场及各类基金业绩数据，无投资方法、策略框架或明确投资建议，属常规数据跟踪。"
+}</t>
+  </si>
+  <si>
+    <t>```json
+{
+"category": "A_基金相关",
+"score": 6,
+"reason": "基金配置周报，基于AI/固态电池等热点事件推荐主题基金，提出杠铃策略配置思路，但主要为短期事件驱动，缺乏深度量化分析框架"
+}
+```</t>
+  </si>
+  <si>
+    <t>```json
+{
+"category": "A_基金相关",
+"score": 8,
+"reason": "月度基金策略报告，提供具体基金推荐名单、大类资产配置方案及基于净值回归的仓位测算模型，兼具可执行性与方法参考价值"
+}
+```</t>
+  </si>
+  <si>
+    <t>{
+"category": "B_ETF策略",
+"score": 8,
+"reason": "基于行业轮动的ETF组合策略，提供具体调仓标的与择时信号，附带样本外业绩追踪，具备可执行性。"
+}</t>
+  </si>
+  <si>
+    <t>{
+"category": "G_定期报告",
+"score": 7,
+"reason": "系统跟踪7类ETF配置策略月度表现，涵盖风格轮动、风险平价、资产轮动等框架，提供可复现的组合管理方法与风险指标，适合作为ETF配置工具参考。"
+}</t>
+  </si>
+  <si>
+    <t>```json
+{
+"category": "A_基金相关",
+"score": 7,
+"reason": "公募基金2026年度策略，基于资金流向与业绩统计，给出权益/固收/商品基金配置建议，含具体基金推荐与风险展望"
+}
+```</t>
+  </si>
+  <si>
+    <t>```json
+{
+"category": "F_专题与系列研究报告",
+"score": 6,
+"reason": "ETF托管结算行业生态分析，梳理券结模式崛起、费率下行趋势及券商份额提升现象，属于ETF科普系列专题"
+}
+```</t>
+  </si>
+  <si>
+    <t>{
+"category": "G_定期报告",
+"score": 5,
+"reason": "ETF周报，跟踪周度资金流向与指数表现，以数据罗列为主，缺乏可复用的投资框架与深度策略建议，适合快速浏览了解市场动态。"
+}</t>
+  </si>
+  <si>
+    <t>```json
+{
+"category": "A_基金相关",
+"score": 8,
+"reason": "构建主动权益与固收类基金优选指数，提供具体基金标的名单及均衡配置策略，具备直接参考价值。"
+}
+```</t>
+  </si>
+  <si>
+    <t>{
+"category": "A_基金相关",
+"score": 7,
+"reason": "年度基金策略报告，详述基金组合构建方法论与历史业绩，提供2026年具体基金配置方案及品种名单，含风险调整后收益分析，适合FOF及基金投资者参考。"
+}</t>
+  </si>
+  <si>
+    <t>```json
+{
+"category": "G_定期报告",
+"score": 7,
+"reason": "周报跟踪6种ETF策略指数（大小盘轮动、SmartBeta、行业轮动、久期管理等）的周度绩效与持仓，基于机器学习与多因子模型构建，展示量化方法在ETF配置中的具体应用。"
+}
+```</t>
+  </si>
+  <si>
+    <t>```json
+{
+"category": "G_定期报告",
+"score": 6,
+"reason": "周度ETF市场数据跟踪，分析资金向红利策略及科创债流动趋势，属定期行情监测"
+}
+```</t>
+  </si>
+  <si>
+    <t>{
+"category": "F_专题与系列研究报告",
+"score": 8,
+"reason": "系列专题第四篇，创新拆解ETF持有人结构构建行业轮动因子，重点挖掘保险资金的'聪明钱'效应，提供可复用的量化框架与回测验证。"
+}</t>
+  </si>
+  <si>
+    <t>```json
+{
+"category": "G_定期报告",
+"score": 6,
+"reason": "周报形式，罗列市场行情、ETF资金流向及本周新发基金明细，缺乏深度分析与可复用框架。"
+}
+```</t>
+  </si>
+  <si>
+    <t>```json
+{
+"category": "G_定期报告",
+"score": 6,
+"reason": "自适应双模态ETF策略日频跟踪，提供具体持仓与T+1交易指令，适合策略跟随者参考，但属例行数据更新，方法论创新有限"
+}
+```</t>
+  </si>
+  <si>
+    <t>```json
+{
+"category": "A_基金相关",
+"score": 7,
+"reason": "分析ETF-FOF新产品业绩基准设计，关注多资产策略指数化趋势，对FOF配置有参考价值"
+}
+```</t>
+  </si>
+  <si>
+    <t>```json
+{
+"category": "A_基金相关",
+"score": 7,
+"reason": "北交所两年定开基金深度分析，对比两轮开放期业绩、持仓及申赎行为，评估配置价值。"
+}
+```</t>
+  </si>
+  <si>
+    <t>```json
+{
+"category": "G_定期报告",
+"score": 5,
+"reason": "每日ETF行情、资金流向及两融数据跟踪，纯数据罗列，无策略框架或深度分析，短期参考价值有限"
+}
+```</t>
+  </si>
+  <si>
+    <t>{
+"category": "G_定期报告",
+"score": 6,
+"reason": "周度资金流向跟踪报告，涵盖ETF、外资、融资、公募等多维度资金数据，适合监控短期资金面变化，但缺乏策略构建与中长期决策框架。"
+}</t>
+  </si>
+  <si>
+    <t>```json
+{
+"category": "G_定期报告",
+"score": 4,
+"reason": "公募基金周报，以ETF流向、基金收益排名、新发基金等数据跟踪为主，缺乏深度研究框架与可执行投资建议，主要供快速浏览获取基础市场信息。"
+}
+```</t>
+  </si>
+  <si>
+    <t>```json
+{
+"category": "B_ETF策略",
+"score": 6,
+"reason": "行业轮动ETF策略的周度跟踪，提供具体调仓标的、持仓业绩及量价择时信号，具备执行参考价值但属常规运作更新"
+}
+```</t>
+  </si>
+  <si>
+    <t>```json
+{
+"category": "G_定期报告",
+"score": 5,
+"reason": "ETF市场周报，罗列资金流向、成交额等统计数据，缺乏投资策略或深度分析框架，仅适合作为基础数据跟踪参考。"
+}
+```</t>
+  </si>
+  <si>
+    <t>```json
+{
+"category": "G_定期报告",
+"score": 2,
+"reason": "每日ETF行情与资金流数据跟踪，无策略构建或深度分析，属常规数据播报"
+}
+```</t>
+  </si>
+  <si>
+    <t>```json
+{
+"category": "G_定期报告",
+"score": 6,
+"reason": "TS策略日频跟踪，提供ETF调仓信号与净值监控，适合策略使用者跟投，但属日常数据更新，方法论价值有限"
+}
+```</t>
+  </si>
+  <si>
+    <t>{
+"category": "G_定期报告",
+"score": 2,
+"reason": "每日ETF行情与资金流向数据跟踪，无投资策略或深度分析，属于例行数据播报"
+}</t>
+  </si>
+  <si>
+    <t>{
+"category": "F_专题与系列研究报告",
+"score": 7,
+"reason": "系列专题研究被动基金市场格局与资金流向，剖析策略ETF蓝海机遇，对比中美Smart Beta发展差异，提出指数增强与投顾协同创新路径"
+}</t>
+  </si>
+  <si>
+    <t>```json
+{
+"category": "G_定期报告",
+"score": 6,
+"reason": "REITs市场定期跟踪，涵盖发行、交易、分红及估值数据，适合市场监控但缺乏深度策略与可复现方法"
+}
+```</t>
+  </si>
+  <si>
+    <t>```json
+{
+"category": "G_定期报告",
+"score": 6,
+"reason": "ETF自适应双模态策略的日频信号跟踪，提供具体买卖指令与持仓，适合短期交易参考但方法创新性有限。"
+}
+```</t>
+  </si>
+  <si>
+    <t>{
+"category": "A_基金相关",
+"score": 8,
+"reason": "构建三层动态资产配置框架（压舱石+增长引擎+对冲卫星），基于PMI/社融/波动率信号设计情景化调仓规则，并提供具体公募基金产品落地建议与筛选标准"
+}</t>
+  </si>
+  <si>
+    <t>```json
+{
+"category": "G_定期报告",
+"score": 6,
+"reason": "基于自适应双模态TS策略的ETF日频跟踪，提供模态判定、持仓明细及T+1交易指令，属策略执行层面的定期更新"
+}
+```</t>
+  </si>
+  <si>
+    <t>```json
+{
+"category": "A_基金相关",
+"score": 6,
+"reason": "股票型ETF年度业绩回顾，总结哑铃化配置特征（宽基+成长+红利），数据详实但偏重历史复盘与现象描述，策略前瞻性有限"
+}
+```</t>
+  </si>
+  <si>
+    <t>```json
+{
+"category": "G_定期报告",
+"score": 5,
+"reason": "每日ETF行情、资金流向及融资数据跟踪，纯数据展示，缺乏策略构建与深度分析，仅适合短期交易参考"
+}
+```</t>
+  </si>
+  <si>
+    <t>```json
+{
+"category": "D_资产配置与组合管理",
+"score": 8,
+"reason": "将强化学习(PPO/SAC)引入大类资产配置，构建动态决策框架，对比风险平价/预算等传统方法，样本外实证显示更优风险收益比，具备方法创新性和中长期配置参考价值。"
+}
+```</t>
+  </si>
+  <si>
+    <t>{
+"category": "A_基金相关",
+"score": 8,
+"reason": "主动量化基金深度分析，构建'宏观研判+多策略'双轮驱动框架，Brinson归因显示超额收益主要源于个股精选，策略动态配置体系具备参考价值"
+}</t>
+  </si>
+  <si>
+    <t>{
+"category": "F_专题与系列研究报告",
+"score": 8,
+"reason": "构建8维度基金定量指标体系，基于RankIC测试筛选有效因子，构建量化FOF策略实现年化超额10%，提供可复用的基金筛选框架"
+}</t>
+  </si>
+  <si>
+    <t>```json
+{
+"category": "A_基金相关",
+"score": 7,
+"reason": "月度基金配置策略，提供分风格基金推荐名单及积极/稳健/保守三类风险偏好组合构建方案，附基金仓位测算模型，具备直接决策参考价值。"
+}
+```</t>
+  </si>
+  <si>
+    <t>```json
+{
+"category": "A_基金相关",
+"score": 7,
+"reason": "基于CES2026等事件驱动的基金配置策略，提供具体基金推荐及杠铃策略配置思路，具备短期操作参考价值。"
+}
+```</t>
+  </si>
+  <si>
+    <t>{
+"category": "D_资产配置与组合管理",
+"score": 8,
+"reason": "2026年大类资产配置年度展望，提出哑铃策略及股债商轮动配置建议，涵盖QDII、权益与固收基金具体投资方案"
+}</t>
+  </si>
+  <si>
+    <t>```json
+{
+"category": "B_ETF策略",
+"score": 7,
+"reason": "系统跟踪7类ETF策略表现，涵盖风格轮动、二八轮动、风险平价、估值因子等量化配置方法，提供策略逻辑、业绩基准及风险指标对比，具备一定复现参考价值。"
+}
+```</t>
+  </si>
+  <si>
+    <t>{
+"category": "A_基金相关",
+"score": 7,
+"reason": "深度解析基金经理陈鹏投资框架、业绩归因及风格特征，数据详实，对了解该基金经理及成长投资策略有参考价值。"
+}</t>
+  </si>
+  <si>
+    <t>```json
+{
+"category": "B_ETF策略",
+"score": 8,
+"reason": "构建多维度ETF行业轮动模型，结合定量打分与定性分析，提供1月具体行业推荐及ETF标的，具备可复用框架与明确配置价值。"
+}
+```</t>
+  </si>
+  <si>
+    <t>```json
+{
+"category": "A_基金相关",
+"score": 8,
+"reason": "构建主动权益与固收类基金优选指数，提供具体基金标的及配置策略，具备实操参考价值。"
+}
+```</t>
+  </si>
+  <si>
+    <t>```json
+{
+"category": "G_定期报告",
+"score": 7,
+"reason": "行业轮动ETF策略周报，给出具体调仓建议（调入国防、证券保险ETF等）及量价择时信号，样本外超额收益16.19%。"
+}
+```</t>
+  </si>
+  <si>
+    <t>```json
+{
+"category": "A_基金相关",
+"score": 8,
+"reason": "基于公募基金四季报的持仓数据分析，揭示机构减配科技消费、增配周期制造的风格转向，为个人投资者提供机构资金动向参考。"
+}
+```</t>
+  </si>
+  <si>
+    <t>```json
+{
+"category": "A_基金相关",
+"score": 8,
+"reason": "年度主动权益基金策略，提供景气成长/困境反转/GARP等配置框架及具体基金经理推荐，含详细筛选指标与业绩数据。"
+}
+```</t>
+  </si>
+  <si>
+    <t>```json
+{
+"category": "A_基金相关",
+"score": 6,
+"reason": "基金季报持仓分析，统计主动权益基金四季度行业配置变化及重仓股变动，揭示机构资金流向"
+}
+```</t>
+  </si>
+  <si>
+    <t>```json
+{
+"category": "A_基金相关",
+"score": 7,
+"reason": "系统解析2025Q4主动偏股基金调仓特征，揭示加仓AI算力/有色、减持医药电子的机构动向，提供市场结构观察视角。"
+}
+```</t>
+  </si>
+  <si>
+    <t>```json
+{
+"category": "A_基金相关",
+"score": 6,
+"reason": "公募基金季度持仓盘点，详列板块/行业/个股调仓数据与集中度变化，属机构动向跟踪，缺乏可复现策略框架，适合作为配置参考但前瞻性有限。"
+}
+```</t>
+  </si>
+  <si>
+    <t>```json
+{
+  "category": "A_基金相关",
+  "score": 7,
+  "reason": "Q4主动基金持仓全景分析，揭示机构增配周期/金融/AI硬件、减配港股与医药电子的方向，对理解主力资金动向有参考价值但缺乏可复现模型。"
+}
+```</t>
+  </si>
+  <si>
+    <t>```json
+{
+"category": "A_基金相关",
+"score": 8,
+"reason": "基于基金四季报深度挖掘资金逻辑，提出居民赎回压力缓解、存款搬家方向及TMT/资源品配置线索，具备 actionable insights。"
+}
+```</t>
+  </si>
+  <si>
+    <t>```json
+{
+"category": "E_市场结构与择时",
+"score": 8,
+"reason": "测算汇金系ETF减持规模与节奏，分析资金流出对市场风格（大盘受压、小盘避险）及个股的冲击，建议减仓拥挤主题、关注电力设备与机器人。"
+}
+```</t>
+  </si>
+  <si>
+    <t>```json
+{
+"category": "A_基金相关",
+"score": 8,
+"reason": "基于基金季报数据，构建配置系数分位数框架分析筹码拥挤度，识别低位顺周期及科技资产，并跟踪负债端赎回压力变化。"
+}
+```</t>
+  </si>
+  <si>
+    <t>{
+"category": "G_定期报告",
+"score": 6,
+"reason": "基金配置周报，回顾上周市场行情并基于事件驱动与杠铃策略推荐具体基金产品，以短期配置指引为主，研究深度一般，适合跟踪市场动态。"
+}</t>
+  </si>
+  <si>
+    <t>```json
+{
+"category": "A_基金相关",
+"score": 7,
+"reason": "基于25Q4基金季报，运用AI文本挖掘分析基金经理持仓变化与2026年展望，揭示顺周期布局共识，兼具数据实证与观点前瞻。"
+}
+```</t>
+  </si>
+  <si>
+    <t>```json
+{
+"category": "B_ETF策略",
+"score": 8,
+"reason": "系统构建ETF组合投资框架，涵盖多资产配置、风险平价、行业轮动及指数增强策略，提供可复现的量化模型与历史回测，适配公募新规下的Beta投资需求。"
+}
+```</t>
+  </si>
+  <si>
     <t>{
 "category": "A_基金相关",
 "score": 8,
@@ -11920,383 +12442,174 @@
 }</t>
   </si>
   <si>
+    <t>2026-02-03 07:35:25</t>
+  </si>
+  <si>
+    <t>2026-02-03 07:35:30</t>
+  </si>
+  <si>
+    <t>2026-02-03 07:35:26</t>
+  </si>
+  <si>
+    <t>2026-02-03 07:35:23</t>
+  </si>
+  <si>
+    <t>2026-02-03 07:35:20</t>
+  </si>
+  <si>
+    <t>2026-02-03 07:36:00</t>
+  </si>
+  <si>
+    <t>2026-02-03 07:35:24</t>
+  </si>
+  <si>
+    <t>2026-02-03 07:35:34</t>
+  </si>
+  <si>
+    <t>2026-02-03 07:35:33</t>
+  </si>
+  <si>
+    <t>2026-02-03 07:35:36</t>
+  </si>
+  <si>
+    <t>2026-02-03 07:35:43</t>
+  </si>
+  <si>
+    <t>2026-02-03 07:35:32</t>
+  </si>
+  <si>
+    <t>2026-02-03 07:35:41</t>
+  </si>
+  <si>
+    <t>2026-02-03 07:35:58</t>
+  </si>
+  <si>
+    <t>2026-02-03 07:35:31</t>
+  </si>
+  <si>
+    <t>2026-02-03 07:35:57</t>
+  </si>
+  <si>
+    <t>2026-02-03 07:35:42</t>
+  </si>
+  <si>
+    <t>2026-02-03 07:35:40</t>
+  </si>
+  <si>
+    <t>2026-02-03 07:35:35</t>
+  </si>
+  <si>
+    <t>2026-02-03 07:35:53</t>
+  </si>
+  <si>
+    <t>2026-02-03 07:36:14</t>
+  </si>
+  <si>
+    <t>2026-02-03 07:36:13</t>
+  </si>
+  <si>
+    <t>2026-02-03 07:35:45</t>
+  </si>
+  <si>
+    <t>2026-02-03 07:35:51</t>
+  </si>
+  <si>
+    <t>2026-02-03 07:35:54</t>
+  </si>
+  <si>
+    <t>2026-02-03 07:36:19</t>
+  </si>
+  <si>
+    <t>2026-02-03 07:35:59</t>
+  </si>
+  <si>
+    <t>2026-02-03 07:35:52</t>
+  </si>
+  <si>
+    <t>2026-02-03 07:35:55</t>
+  </si>
+  <si>
+    <t>2026-02-03 07:36:08</t>
+  </si>
+  <si>
+    <t>2026-02-03 07:36:11</t>
+  </si>
+  <si>
+    <t>2026-02-03 07:36:05</t>
+  </si>
+  <si>
+    <t>2026-02-03 07:36:21</t>
+  </si>
+  <si>
+    <t>2026-02-03 07:36:03</t>
+  </si>
+  <si>
+    <t>2026-02-03 07:36:09</t>
+  </si>
+  <si>
+    <t>2026-02-03 07:36:28</t>
+  </si>
+  <si>
+    <t>2026-02-03 07:36:04</t>
+  </si>
+  <si>
+    <t>2026-02-03 07:36:25</t>
+  </si>
+  <si>
+    <t>2026-02-03 07:36:16</t>
+  </si>
+  <si>
+    <t>2026-02-03 07:36:15</t>
+  </si>
+  <si>
+    <t>2026-02-03 07:36:26</t>
+  </si>
+  <si>
+    <t>2026-02-03 07:36:22</t>
+  </si>
+  <si>
+    <t>2026-02-03 07:36:20</t>
+  </si>
+  <si>
+    <t>2026-02-03 07:36:27</t>
+  </si>
+  <si>
+    <t>2026-02-03 07:36:23</t>
+  </si>
+  <si>
     <t>2026-02-03 07:36:18</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
-  <numFmts count="5">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
-  </numFmts>
-  <fonts count="22">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="10">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -12319,316 +12632,24 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="49">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="货币" xfId="2" builtinId="4"/>
-    <cellStyle name="百分比" xfId="3" builtinId="5"/>
-    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
-    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
-    <cellStyle name="超链接" xfId="6" builtinId="8"/>
-    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
-    <cellStyle name="注释" xfId="8" builtinId="10"/>
-    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
-    <cellStyle name="标题" xfId="10" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
-    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="输入" xfId="16" builtinId="20"/>
-    <cellStyle name="输出" xfId="17" builtinId="21"/>
-    <cellStyle name="计算" xfId="18" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
-    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="好" xfId="22" builtinId="26"/>
-    <cellStyle name="差" xfId="23" builtinId="27"/>
-    <cellStyle name="适中" xfId="24" builtinId="28"/>
-    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
-    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
-    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
-    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -12911,54 +12932,60 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:L64"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:I69"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N5" sqref="N5"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="12" max="12" width="14.6153846153846"/>
+    <col min="1" max="1" width="38.7109375" customWidth="1"/>
+    <col min="2" max="2" width="30.7109375" customWidth="1"/>
+    <col min="3" max="3" width="36.7109375" customWidth="1"/>
+    <col min="4" max="4" width="28.7109375" customWidth="1"/>
+    <col min="5" max="5" width="10.7109375" customWidth="1"/>
+    <col min="6" max="6" width="80.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:9">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="2"/>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:9">
       <c r="B2" t="s">
         <v>9</v>
       </c>
@@ -12966,1449 +12993,1533 @@
         <v>9</v>
       </c>
       <c r="E2">
+        <v>38930</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="G2" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3">
+        <v>9965</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="G3" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4">
+        <v>10767</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="G4" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="B5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5">
+        <v>21216</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="G5" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="B6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6">
+        <v>21161</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="G6" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="B7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7">
         <v>23905</v>
       </c>
-      <c r="F2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G2" t="s">
-        <v>11</v>
-      </c>
-      <c r="H2" t="s">
-        <v>12</v>
-      </c>
-      <c r="I2" t="s">
-        <v>13</v>
+      <c r="F7" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="G7" t="s">
+        <v>146</v>
+      </c>
+      <c r="H7" t="s">
+        <v>147</v>
+      </c>
+      <c r="I7" t="s">
+        <v>210</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
-      <c r="B3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3">
+    <row r="8" spans="1:9">
+      <c r="B8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8">
         <v>24647</v>
       </c>
-      <c r="F3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H3" t="s">
+      <c r="F8" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="G8" t="s">
+        <v>146</v>
+      </c>
+      <c r="H8" t="s">
+        <v>148</v>
+      </c>
+      <c r="I8" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="B9" t="s">
         <v>16</v>
       </c>
-      <c r="I3" t="s">
+      <c r="C9" t="s">
+        <v>16</v>
+      </c>
+      <c r="E9">
+        <v>25292</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="G9" t="s">
+        <v>146</v>
+      </c>
+      <c r="H9" t="s">
+        <v>149</v>
+      </c>
+      <c r="I9" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="B10" t="s">
         <v>17</v>
       </c>
+      <c r="C10" t="s">
+        <v>17</v>
+      </c>
+      <c r="E10">
+        <v>16250</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="G10" t="s">
+        <v>146</v>
+      </c>
+      <c r="H10" t="s">
+        <v>150</v>
+      </c>
+      <c r="I10" t="s">
+        <v>213</v>
+      </c>
     </row>
-    <row r="4" spans="1:12">
-      <c r="B4" t="s">
+    <row r="11" spans="1:9">
+      <c r="B11" t="s">
         <v>18</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C11" t="s">
         <v>18</v>
       </c>
-      <c r="E4">
-        <v>25292</v>
-      </c>
-      <c r="F4" t="s">
+      <c r="E11">
+        <v>9665</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="G11" t="s">
+        <v>146</v>
+      </c>
+      <c r="H11" t="s">
+        <v>151</v>
+      </c>
+      <c r="I11" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="B12" t="s">
         <v>19</v>
       </c>
-      <c r="G4" t="s">
-        <v>11</v>
-      </c>
-      <c r="H4" t="s">
+      <c r="C12" t="s">
+        <v>19</v>
+      </c>
+      <c r="E12">
+        <v>4260</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="G12" t="s">
+        <v>146</v>
+      </c>
+      <c r="H12" t="s">
+        <v>152</v>
+      </c>
+      <c r="I12" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="B13" t="s">
         <v>20</v>
       </c>
-      <c r="I4" t="s">
+      <c r="C13" t="s">
+        <v>20</v>
+      </c>
+      <c r="E13">
+        <v>37628</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="G13" t="s">
+        <v>146</v>
+      </c>
+      <c r="H13" t="s">
+        <v>153</v>
+      </c>
+      <c r="I13" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="B14" t="s">
         <v>21</v>
       </c>
+      <c r="C14" t="s">
+        <v>21</v>
+      </c>
+      <c r="E14">
+        <v>12404</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="G14" t="s">
+        <v>146</v>
+      </c>
+      <c r="H14" t="s">
+        <v>154</v>
+      </c>
+      <c r="I14" t="s">
+        <v>214</v>
+      </c>
     </row>
-    <row r="5" spans="1:12">
-      <c r="B5" t="s">
+    <row r="15" spans="1:9">
+      <c r="B15" t="s">
         <v>22</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C15" t="s">
         <v>22</v>
       </c>
-      <c r="E5">
-        <v>16250</v>
-      </c>
-      <c r="F5" t="s">
+      <c r="E15">
+        <v>11531</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="G15" t="s">
+        <v>146</v>
+      </c>
+      <c r="H15" t="s">
+        <v>155</v>
+      </c>
+      <c r="I15" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="B16" t="s">
         <v>23</v>
       </c>
-      <c r="G5" t="s">
-        <v>11</v>
-      </c>
-      <c r="H5" t="s">
-        <v>24</v>
-      </c>
-      <c r="I5" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
-      <c r="B6" t="s">
-        <v>26</v>
-      </c>
-      <c r="C6" t="s">
-        <v>26</v>
-      </c>
-      <c r="E6">
-        <v>9665</v>
-      </c>
-      <c r="F6" t="s">
-        <v>27</v>
-      </c>
-      <c r="G6" t="s">
-        <v>11</v>
-      </c>
-      <c r="H6" t="s">
-        <v>28</v>
-      </c>
-      <c r="I6" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
-      <c r="B7" t="s">
-        <v>30</v>
-      </c>
-      <c r="C7" t="s">
-        <v>30</v>
-      </c>
-      <c r="E7">
-        <v>4260</v>
-      </c>
-      <c r="F7" t="s">
-        <v>31</v>
-      </c>
-      <c r="G7" t="s">
-        <v>11</v>
-      </c>
-      <c r="H7" t="s">
-        <v>32</v>
-      </c>
-      <c r="I7" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
-      <c r="B8" t="s">
-        <v>34</v>
-      </c>
-      <c r="C8" t="s">
-        <v>34</v>
-      </c>
-      <c r="E8">
-        <v>37628</v>
-      </c>
-      <c r="F8" t="s">
-        <v>35</v>
-      </c>
-      <c r="G8" t="s">
-        <v>11</v>
-      </c>
-      <c r="H8" t="s">
-        <v>36</v>
-      </c>
-      <c r="I8" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
-      <c r="B9" t="s">
-        <v>38</v>
-      </c>
-      <c r="C9" t="s">
-        <v>38</v>
-      </c>
-      <c r="E9">
-        <v>12404</v>
-      </c>
-      <c r="F9" t="s">
-        <v>39</v>
-      </c>
-      <c r="G9" t="s">
-        <v>11</v>
-      </c>
-      <c r="H9" t="s">
-        <v>40</v>
-      </c>
-      <c r="I9" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
-      <c r="B10" t="s">
-        <v>41</v>
-      </c>
-      <c r="C10" t="s">
-        <v>41</v>
-      </c>
-      <c r="E10">
-        <v>11531</v>
-      </c>
-      <c r="F10" t="s">
-        <v>42</v>
-      </c>
-      <c r="G10" t="s">
-        <v>11</v>
-      </c>
-      <c r="H10" t="s">
-        <v>43</v>
-      </c>
-      <c r="I10" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
-      <c r="B11" t="s">
-        <v>45</v>
-      </c>
-      <c r="C11" t="s">
-        <v>45</v>
-      </c>
-      <c r="E11">
+      <c r="C16" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16">
         <v>21162</v>
       </c>
-      <c r="F11" t="s">
-        <v>46</v>
-      </c>
-      <c r="G11" t="s">
-        <v>11</v>
-      </c>
-      <c r="H11" t="s">
-        <v>47</v>
-      </c>
-      <c r="I11" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
-      <c r="B12" t="s">
-        <v>49</v>
-      </c>
-      <c r="C12" t="s">
-        <v>49</v>
-      </c>
-      <c r="E12">
-        <v>4172</v>
-      </c>
-      <c r="F12" t="s">
-        <v>50</v>
-      </c>
-      <c r="G12" t="s">
-        <v>11</v>
-      </c>
-      <c r="H12" t="s">
-        <v>51</v>
-      </c>
-      <c r="I12" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
-      <c r="B13" t="s">
-        <v>53</v>
-      </c>
-      <c r="C13" t="s">
-        <v>53</v>
-      </c>
-      <c r="E13">
-        <v>22539</v>
-      </c>
-      <c r="F13" t="s">
-        <v>54</v>
-      </c>
-      <c r="G13" t="s">
-        <v>11</v>
-      </c>
-      <c r="H13" t="s">
-        <v>55</v>
-      </c>
-      <c r="I13" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
-      <c r="B14" t="s">
-        <v>57</v>
-      </c>
-      <c r="C14" t="s">
-        <v>57</v>
-      </c>
-      <c r="E14">
-        <v>62767</v>
-      </c>
-      <c r="F14" t="s">
-        <v>58</v>
-      </c>
-      <c r="G14" t="s">
-        <v>11</v>
-      </c>
-      <c r="H14" t="s">
-        <v>59</v>
-      </c>
-      <c r="I14" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
-      <c r="B15" t="s">
-        <v>61</v>
-      </c>
-      <c r="C15" t="s">
-        <v>61</v>
-      </c>
-      <c r="E15">
-        <v>22850</v>
-      </c>
-      <c r="F15" t="s">
-        <v>62</v>
-      </c>
-      <c r="G15" t="s">
-        <v>11</v>
-      </c>
-      <c r="H15" t="s">
-        <v>63</v>
-      </c>
-      <c r="I15" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
-      <c r="B16" t="s">
-        <v>65</v>
-      </c>
-      <c r="C16" t="s">
-        <v>65</v>
-      </c>
-      <c r="E16">
-        <v>10973</v>
-      </c>
-      <c r="F16" t="s">
-        <v>66</v>
+      <c r="F16" s="1" t="s">
+        <v>91</v>
       </c>
       <c r="G16" t="s">
-        <v>11</v>
+        <v>146</v>
       </c>
       <c r="H16" t="s">
-        <v>67</v>
+        <v>156</v>
       </c>
       <c r="I16" t="s">
-        <v>13</v>
+        <v>218</v>
       </c>
     </row>
     <row r="17" spans="2:9">
       <c r="B17" t="s">
-        <v>68</v>
+        <v>24</v>
       </c>
       <c r="C17" t="s">
-        <v>68</v>
+        <v>24</v>
       </c>
       <c r="E17">
-        <v>16107</v>
-      </c>
-      <c r="F17" t="s">
-        <v>69</v>
+        <v>4172</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>92</v>
       </c>
       <c r="G17" t="s">
-        <v>11</v>
+        <v>146</v>
       </c>
       <c r="H17" t="s">
-        <v>70</v>
+        <v>157</v>
       </c>
       <c r="I17" t="s">
-        <v>13</v>
+        <v>219</v>
       </c>
     </row>
     <row r="18" spans="2:9">
       <c r="B18" t="s">
-        <v>71</v>
+        <v>25</v>
       </c>
       <c r="C18" t="s">
-        <v>71</v>
+        <v>25</v>
       </c>
       <c r="E18">
-        <v>46003</v>
-      </c>
-      <c r="F18" t="s">
-        <v>72</v>
+        <v>22539</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>93</v>
       </c>
       <c r="G18" t="s">
-        <v>11</v>
+        <v>146</v>
       </c>
       <c r="H18" t="s">
-        <v>73</v>
+        <v>158</v>
       </c>
       <c r="I18" t="s">
-        <v>25</v>
+        <v>220</v>
       </c>
     </row>
     <row r="19" spans="2:9">
       <c r="B19" t="s">
-        <v>74</v>
+        <v>26</v>
       </c>
       <c r="C19" t="s">
-        <v>74</v>
+        <v>26</v>
       </c>
       <c r="E19">
-        <v>12608</v>
-      </c>
-      <c r="F19" t="s">
-        <v>75</v>
+        <v>62767</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>94</v>
       </c>
       <c r="G19" t="s">
-        <v>11</v>
+        <v>146</v>
       </c>
       <c r="H19" t="s">
-        <v>76</v>
+        <v>159</v>
       </c>
       <c r="I19" t="s">
-        <v>77</v>
+        <v>221</v>
       </c>
     </row>
     <row r="20" spans="2:9">
       <c r="B20" t="s">
-        <v>78</v>
+        <v>27</v>
       </c>
       <c r="C20" t="s">
-        <v>78</v>
+        <v>27</v>
       </c>
       <c r="E20">
-        <v>10916</v>
-      </c>
-      <c r="F20" t="s">
-        <v>79</v>
+        <v>22850</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>95</v>
       </c>
       <c r="G20" t="s">
-        <v>11</v>
+        <v>146</v>
       </c>
       <c r="H20" t="s">
-        <v>80</v>
+        <v>160</v>
       </c>
       <c r="I20" t="s">
-        <v>21</v>
+        <v>222</v>
       </c>
     </row>
     <row r="21" spans="2:9">
       <c r="B21" t="s">
-        <v>81</v>
+        <v>28</v>
       </c>
       <c r="C21" t="s">
-        <v>81</v>
+        <v>28</v>
       </c>
       <c r="E21">
-        <v>35942</v>
-      </c>
-      <c r="F21" t="s">
-        <v>82</v>
+        <v>10973</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>96</v>
       </c>
       <c r="G21" t="s">
-        <v>11</v>
+        <v>146</v>
       </c>
       <c r="H21" t="s">
-        <v>83</v>
+        <v>161</v>
       </c>
       <c r="I21" t="s">
-        <v>84</v>
+        <v>210</v>
       </c>
     </row>
     <row r="22" spans="2:9">
       <c r="B22" t="s">
-        <v>85</v>
+        <v>29</v>
       </c>
       <c r="C22" t="s">
-        <v>85</v>
+        <v>29</v>
       </c>
       <c r="E22">
-        <v>8511</v>
-      </c>
-      <c r="F22" t="s">
-        <v>86</v>
+        <v>16107</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>97</v>
       </c>
       <c r="G22" t="s">
-        <v>11</v>
+        <v>146</v>
       </c>
       <c r="H22" t="s">
-        <v>87</v>
+        <v>162</v>
       </c>
       <c r="I22" t="s">
-        <v>84</v>
+        <v>210</v>
       </c>
     </row>
     <row r="23" spans="2:9">
       <c r="B23" t="s">
-        <v>88</v>
+        <v>30</v>
       </c>
       <c r="C23" t="s">
-        <v>88</v>
+        <v>30</v>
       </c>
       <c r="E23">
-        <v>5255</v>
-      </c>
-      <c r="F23" t="s">
-        <v>89</v>
+        <v>46003</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>98</v>
       </c>
       <c r="G23" t="s">
-        <v>11</v>
+        <v>146</v>
       </c>
       <c r="H23" t="s">
-        <v>90</v>
+        <v>163</v>
       </c>
       <c r="I23" t="s">
-        <v>91</v>
+        <v>213</v>
       </c>
     </row>
     <row r="24" spans="2:9">
       <c r="B24" t="s">
-        <v>92</v>
+        <v>31</v>
       </c>
       <c r="C24" t="s">
-        <v>92</v>
+        <v>31</v>
       </c>
       <c r="E24">
-        <v>10511</v>
-      </c>
-      <c r="F24" t="s">
-        <v>93</v>
+        <v>12608</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>99</v>
       </c>
       <c r="G24" t="s">
-        <v>11</v>
+        <v>146</v>
       </c>
       <c r="H24" t="s">
-        <v>94</v>
+        <v>164</v>
       </c>
       <c r="I24" t="s">
-        <v>95</v>
+        <v>223</v>
       </c>
     </row>
     <row r="25" spans="2:9">
       <c r="B25" t="s">
-        <v>96</v>
+        <v>32</v>
       </c>
       <c r="C25" t="s">
-        <v>96</v>
+        <v>32</v>
       </c>
       <c r="E25">
-        <v>33090</v>
-      </c>
-      <c r="F25" t="s">
-        <v>97</v>
+        <v>10916</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>100</v>
       </c>
       <c r="G25" t="s">
-        <v>11</v>
+        <v>146</v>
       </c>
       <c r="H25" t="s">
-        <v>98</v>
+        <v>165</v>
       </c>
       <c r="I25" t="s">
-        <v>99</v>
+        <v>212</v>
       </c>
     </row>
     <row r="26" spans="2:9">
       <c r="B26" t="s">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="C26" t="s">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="E26">
-        <v>6101</v>
-      </c>
-      <c r="F26" t="s">
+        <v>35942</v>
+      </c>
+      <c r="F26" s="1" t="s">
         <v>101</v>
       </c>
       <c r="G26" t="s">
-        <v>11</v>
+        <v>146</v>
       </c>
       <c r="H26" t="s">
-        <v>102</v>
+        <v>166</v>
       </c>
       <c r="I26" t="s">
-        <v>103</v>
+        <v>224</v>
       </c>
     </row>
     <row r="27" spans="2:9">
       <c r="B27" t="s">
-        <v>104</v>
+        <v>34</v>
       </c>
       <c r="C27" t="s">
-        <v>104</v>
+        <v>34</v>
       </c>
       <c r="E27">
-        <v>112699</v>
-      </c>
-      <c r="F27" t="s">
-        <v>105</v>
+        <v>8511</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>102</v>
       </c>
       <c r="G27" t="s">
-        <v>11</v>
+        <v>146</v>
       </c>
       <c r="H27" t="s">
-        <v>106</v>
+        <v>167</v>
       </c>
       <c r="I27" t="s">
-        <v>56</v>
+        <v>224</v>
       </c>
     </row>
     <row r="28" spans="2:9">
       <c r="B28" t="s">
-        <v>107</v>
+        <v>35</v>
       </c>
       <c r="C28" t="s">
-        <v>107</v>
+        <v>35</v>
       </c>
       <c r="E28">
-        <v>24158</v>
-      </c>
-      <c r="F28" t="s">
-        <v>108</v>
+        <v>5255</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>103</v>
       </c>
       <c r="G28" t="s">
-        <v>11</v>
+        <v>146</v>
       </c>
       <c r="H28" t="s">
-        <v>109</v>
+        <v>168</v>
       </c>
       <c r="I28" t="s">
-        <v>110</v>
+        <v>225</v>
       </c>
     </row>
     <row r="29" spans="2:9">
       <c r="B29" t="s">
-        <v>111</v>
+        <v>36</v>
       </c>
       <c r="C29" t="s">
-        <v>111</v>
+        <v>36</v>
       </c>
       <c r="E29">
-        <v>4228</v>
-      </c>
-      <c r="F29" t="s">
-        <v>112</v>
+        <v>10511</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>104</v>
       </c>
       <c r="G29" t="s">
-        <v>11</v>
+        <v>146</v>
       </c>
       <c r="H29" t="s">
-        <v>113</v>
+        <v>169</v>
       </c>
       <c r="I29" t="s">
-        <v>114</v>
+        <v>226</v>
       </c>
     </row>
     <row r="30" spans="2:9">
       <c r="B30" t="s">
-        <v>115</v>
+        <v>37</v>
       </c>
       <c r="C30" t="s">
-        <v>115</v>
+        <v>37</v>
       </c>
       <c r="E30">
-        <v>27826</v>
-      </c>
-      <c r="F30" t="s">
-        <v>116</v>
+        <v>33090</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>105</v>
       </c>
       <c r="G30" t="s">
-        <v>11</v>
+        <v>146</v>
       </c>
       <c r="H30" t="s">
-        <v>117</v>
+        <v>170</v>
       </c>
       <c r="I30" t="s">
-        <v>52</v>
+        <v>227</v>
       </c>
     </row>
     <row r="31" spans="2:9">
       <c r="B31" t="s">
-        <v>118</v>
+        <v>38</v>
       </c>
       <c r="C31" t="s">
-        <v>118</v>
+        <v>38</v>
       </c>
       <c r="E31">
-        <v>6123</v>
-      </c>
-      <c r="F31" t="s">
-        <v>119</v>
+        <v>6101</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>106</v>
       </c>
       <c r="G31" t="s">
-        <v>11</v>
+        <v>146</v>
       </c>
       <c r="H31" t="s">
-        <v>120</v>
+        <v>171</v>
       </c>
       <c r="I31" t="s">
-        <v>99</v>
+        <v>228</v>
       </c>
     </row>
     <row r="32" spans="2:9">
       <c r="B32" t="s">
-        <v>121</v>
+        <v>39</v>
       </c>
       <c r="C32" t="s">
-        <v>121</v>
+        <v>39</v>
       </c>
       <c r="E32">
-        <v>5355</v>
-      </c>
-      <c r="F32" t="s">
-        <v>122</v>
+        <v>112699</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>107</v>
       </c>
       <c r="G32" t="s">
-        <v>11</v>
+        <v>146</v>
       </c>
       <c r="H32" t="s">
-        <v>123</v>
+        <v>172</v>
       </c>
       <c r="I32" t="s">
-        <v>124</v>
+        <v>220</v>
       </c>
     </row>
     <row r="33" spans="2:9">
       <c r="B33" t="s">
-        <v>125</v>
+        <v>40</v>
       </c>
       <c r="C33" t="s">
-        <v>125</v>
+        <v>40</v>
       </c>
       <c r="E33">
-        <v>6128</v>
-      </c>
-      <c r="F33" t="s">
-        <v>126</v>
+        <v>24158</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>108</v>
       </c>
       <c r="G33" t="s">
-        <v>11</v>
+        <v>146</v>
       </c>
       <c r="H33" t="s">
-        <v>127</v>
+        <v>173</v>
       </c>
       <c r="I33" t="s">
-        <v>128</v>
+        <v>229</v>
       </c>
     </row>
     <row r="34" spans="2:9">
       <c r="B34" t="s">
-        <v>129</v>
+        <v>41</v>
       </c>
       <c r="C34" t="s">
-        <v>129</v>
+        <v>41</v>
       </c>
       <c r="E34">
-        <v>24769</v>
-      </c>
-      <c r="F34" t="s">
-        <v>130</v>
+        <v>4228</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>109</v>
       </c>
       <c r="G34" t="s">
-        <v>11</v>
+        <v>146</v>
       </c>
       <c r="H34" t="s">
-        <v>131</v>
+        <v>174</v>
       </c>
       <c r="I34" t="s">
-        <v>110</v>
+        <v>230</v>
       </c>
     </row>
     <row r="35" spans="2:9">
       <c r="B35" t="s">
-        <v>132</v>
+        <v>42</v>
       </c>
       <c r="C35" t="s">
-        <v>132</v>
+        <v>42</v>
       </c>
       <c r="E35">
-        <v>30273</v>
-      </c>
-      <c r="F35" t="s">
-        <v>133</v>
+        <v>27826</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>110</v>
       </c>
       <c r="G35" t="s">
-        <v>11</v>
+        <v>146</v>
       </c>
       <c r="H35" t="s">
-        <v>134</v>
+        <v>175</v>
       </c>
       <c r="I35" t="s">
-        <v>91</v>
+        <v>219</v>
       </c>
     </row>
     <row r="36" spans="2:9">
       <c r="B36" t="s">
-        <v>135</v>
+        <v>43</v>
       </c>
       <c r="C36" t="s">
-        <v>135</v>
+        <v>43</v>
       </c>
       <c r="E36">
-        <v>6972</v>
-      </c>
-      <c r="F36" t="s">
-        <v>136</v>
+        <v>6123</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>111</v>
       </c>
       <c r="G36" t="s">
-        <v>11</v>
+        <v>146</v>
       </c>
       <c r="H36" t="s">
-        <v>137</v>
+        <v>176</v>
       </c>
       <c r="I36" t="s">
-        <v>138</v>
+        <v>227</v>
       </c>
     </row>
     <row r="37" spans="2:9">
       <c r="B37" t="s">
-        <v>139</v>
+        <v>44</v>
       </c>
       <c r="C37" t="s">
-        <v>139</v>
+        <v>44</v>
       </c>
       <c r="E37">
-        <v>26762</v>
-      </c>
-      <c r="F37" t="s">
-        <v>140</v>
+        <v>5355</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>112</v>
       </c>
       <c r="G37" t="s">
-        <v>11</v>
+        <v>146</v>
       </c>
       <c r="H37" t="s">
-        <v>141</v>
+        <v>177</v>
       </c>
       <c r="I37" t="s">
-        <v>142</v>
+        <v>231</v>
       </c>
     </row>
     <row r="38" spans="2:9">
       <c r="B38" t="s">
-        <v>143</v>
+        <v>45</v>
       </c>
       <c r="C38" t="s">
-        <v>143</v>
+        <v>45</v>
       </c>
       <c r="E38">
-        <v>6986</v>
-      </c>
-      <c r="F38" t="s">
-        <v>144</v>
+        <v>6128</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>113</v>
       </c>
       <c r="G38" t="s">
-        <v>11</v>
+        <v>146</v>
       </c>
       <c r="H38" t="s">
-        <v>145</v>
+        <v>178</v>
       </c>
       <c r="I38" t="s">
-        <v>146</v>
+        <v>232</v>
       </c>
     </row>
     <row r="39" spans="2:9">
       <c r="B39" t="s">
-        <v>147</v>
+        <v>46</v>
       </c>
       <c r="C39" t="s">
-        <v>147</v>
+        <v>46</v>
       </c>
       <c r="E39">
-        <v>9091</v>
-      </c>
-      <c r="F39" t="s">
-        <v>148</v>
+        <v>24769</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>114</v>
       </c>
       <c r="G39" t="s">
-        <v>11</v>
+        <v>146</v>
       </c>
       <c r="H39" t="s">
-        <v>149</v>
+        <v>179</v>
       </c>
       <c r="I39" t="s">
-        <v>150</v>
+        <v>229</v>
       </c>
     </row>
     <row r="40" spans="2:9">
       <c r="B40" t="s">
-        <v>151</v>
+        <v>47</v>
       </c>
       <c r="C40" t="s">
-        <v>151</v>
+        <v>47</v>
       </c>
       <c r="E40">
-        <v>6120</v>
-      </c>
-      <c r="F40" t="s">
-        <v>152</v>
+        <v>30273</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>115</v>
       </c>
       <c r="G40" t="s">
-        <v>11</v>
+        <v>146</v>
       </c>
       <c r="H40" t="s">
-        <v>153</v>
+        <v>180</v>
       </c>
       <c r="I40" t="s">
-        <v>154</v>
+        <v>225</v>
       </c>
     </row>
     <row r="41" spans="2:9">
       <c r="B41" t="s">
-        <v>155</v>
+        <v>48</v>
       </c>
       <c r="C41" t="s">
-        <v>155</v>
+        <v>48</v>
       </c>
       <c r="E41">
-        <v>19977</v>
-      </c>
-      <c r="F41" t="s">
-        <v>156</v>
+        <v>6972</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>116</v>
       </c>
       <c r="G41" t="s">
-        <v>11</v>
+        <v>146</v>
       </c>
       <c r="H41" t="s">
-        <v>157</v>
+        <v>181</v>
       </c>
       <c r="I41" t="s">
-        <v>158</v>
+        <v>233</v>
       </c>
     </row>
     <row r="42" spans="2:9">
       <c r="B42" t="s">
-        <v>159</v>
+        <v>49</v>
       </c>
       <c r="C42" t="s">
-        <v>159</v>
+        <v>49</v>
       </c>
       <c r="E42">
-        <v>22690</v>
-      </c>
-      <c r="F42" t="s">
-        <v>160</v>
+        <v>26762</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>117</v>
       </c>
       <c r="G42" t="s">
-        <v>11</v>
+        <v>146</v>
       </c>
       <c r="H42" t="s">
-        <v>161</v>
+        <v>182</v>
       </c>
       <c r="I42" t="s">
-        <v>33</v>
+        <v>234</v>
       </c>
     </row>
     <row r="43" spans="2:9">
       <c r="B43" t="s">
-        <v>162</v>
+        <v>50</v>
       </c>
       <c r="C43" t="s">
-        <v>162</v>
+        <v>50</v>
       </c>
       <c r="E43">
-        <v>33187</v>
-      </c>
-      <c r="F43" t="s">
-        <v>163</v>
+        <v>6986</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>118</v>
       </c>
       <c r="G43" t="s">
-        <v>11</v>
+        <v>146</v>
       </c>
       <c r="H43" t="s">
-        <v>164</v>
+        <v>183</v>
       </c>
       <c r="I43" t="s">
-        <v>165</v>
+        <v>235</v>
       </c>
     </row>
     <row r="44" spans="2:9">
       <c r="B44" t="s">
-        <v>166</v>
+        <v>51</v>
       </c>
       <c r="C44" t="s">
-        <v>166</v>
+        <v>51</v>
       </c>
       <c r="E44">
-        <v>20204</v>
-      </c>
-      <c r="F44" t="s">
-        <v>167</v>
+        <v>9091</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>119</v>
       </c>
       <c r="G44" t="s">
-        <v>11</v>
+        <v>146</v>
       </c>
       <c r="H44" t="s">
-        <v>168</v>
+        <v>184</v>
       </c>
       <c r="I44" t="s">
-        <v>110</v>
+        <v>236</v>
       </c>
     </row>
     <row r="45" spans="2:9">
       <c r="B45" t="s">
-        <v>169</v>
+        <v>52</v>
       </c>
       <c r="C45" t="s">
-        <v>169</v>
+        <v>52</v>
       </c>
       <c r="E45">
-        <v>13243</v>
-      </c>
-      <c r="F45" t="s">
-        <v>170</v>
+        <v>6120</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>120</v>
       </c>
       <c r="G45" t="s">
-        <v>11</v>
+        <v>146</v>
       </c>
       <c r="H45" t="s">
-        <v>171</v>
+        <v>185</v>
       </c>
       <c r="I45" t="s">
-        <v>172</v>
+        <v>237</v>
       </c>
     </row>
     <row r="46" spans="2:9">
       <c r="B46" t="s">
-        <v>173</v>
+        <v>53</v>
       </c>
       <c r="C46" t="s">
-        <v>173</v>
+        <v>53</v>
       </c>
       <c r="E46">
-        <v>25392</v>
-      </c>
-      <c r="F46" t="s">
-        <v>174</v>
+        <v>19977</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>121</v>
       </c>
       <c r="G46" t="s">
-        <v>11</v>
+        <v>146</v>
       </c>
       <c r="H46" t="s">
-        <v>175</v>
+        <v>186</v>
       </c>
       <c r="I46" t="s">
-        <v>176</v>
+        <v>238</v>
       </c>
     </row>
     <row r="47" spans="2:9">
       <c r="B47" t="s">
-        <v>177</v>
+        <v>54</v>
       </c>
       <c r="C47" t="s">
-        <v>177</v>
+        <v>54</v>
       </c>
       <c r="E47">
-        <v>22238</v>
-      </c>
-      <c r="F47" t="s">
-        <v>178</v>
+        <v>22690</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>122</v>
       </c>
       <c r="G47" t="s">
-        <v>11</v>
+        <v>146</v>
       </c>
       <c r="H47" t="s">
-        <v>179</v>
+        <v>187</v>
       </c>
       <c r="I47" t="s">
-        <v>180</v>
+        <v>215</v>
       </c>
     </row>
     <row r="48" spans="2:9">
       <c r="B48" t="s">
-        <v>181</v>
+        <v>55</v>
       </c>
       <c r="C48" t="s">
-        <v>181</v>
+        <v>55</v>
       </c>
       <c r="E48">
-        <v>18580</v>
-      </c>
-      <c r="F48" t="s">
-        <v>182</v>
+        <v>33187</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>123</v>
       </c>
       <c r="G48" t="s">
-        <v>11</v>
+        <v>146</v>
       </c>
       <c r="H48" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="I48" t="s">
-        <v>184</v>
+        <v>239</v>
       </c>
     </row>
     <row r="49" spans="2:9">
       <c r="B49" t="s">
-        <v>185</v>
+        <v>56</v>
       </c>
       <c r="C49" t="s">
-        <v>185</v>
+        <v>56</v>
       </c>
       <c r="E49">
-        <v>36304</v>
-      </c>
-      <c r="F49" t="s">
-        <v>186</v>
+        <v>20204</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>124</v>
       </c>
       <c r="G49" t="s">
-        <v>11</v>
+        <v>146</v>
       </c>
       <c r="H49" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="I49" t="s">
-        <v>114</v>
+        <v>229</v>
       </c>
     </row>
     <row r="50" spans="2:9">
       <c r="B50" t="s">
-        <v>188</v>
+        <v>57</v>
       </c>
       <c r="C50" t="s">
-        <v>188</v>
+        <v>57</v>
       </c>
       <c r="E50">
-        <v>16765</v>
-      </c>
-      <c r="F50" t="s">
-        <v>189</v>
+        <v>13243</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>125</v>
       </c>
       <c r="G50" t="s">
-        <v>11</v>
+        <v>146</v>
       </c>
       <c r="H50" t="s">
         <v>190</v>
       </c>
       <c r="I50" t="s">
-        <v>191</v>
+        <v>240</v>
       </c>
     </row>
     <row r="51" spans="2:9">
       <c r="B51" t="s">
-        <v>192</v>
+        <v>58</v>
       </c>
       <c r="C51" t="s">
-        <v>192</v>
+        <v>58</v>
       </c>
       <c r="E51">
-        <v>4240</v>
-      </c>
-      <c r="F51" t="s">
-        <v>193</v>
+        <v>25392</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>126</v>
       </c>
       <c r="G51" t="s">
-        <v>11</v>
+        <v>146</v>
       </c>
       <c r="H51" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="I51" t="s">
-        <v>195</v>
+        <v>241</v>
       </c>
     </row>
     <row r="52" spans="2:9">
       <c r="B52" t="s">
-        <v>196</v>
+        <v>59</v>
       </c>
       <c r="C52" t="s">
-        <v>196</v>
+        <v>59</v>
       </c>
       <c r="E52">
-        <v>26664</v>
-      </c>
-      <c r="F52" t="s">
-        <v>197</v>
+        <v>22238</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>127</v>
       </c>
       <c r="G52" t="s">
-        <v>11</v>
+        <v>146</v>
       </c>
       <c r="H52" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="I52" t="s">
-        <v>172</v>
+        <v>242</v>
       </c>
     </row>
     <row r="53" spans="2:9">
       <c r="B53" t="s">
-        <v>199</v>
+        <v>60</v>
       </c>
       <c r="C53" t="s">
-        <v>199</v>
+        <v>60</v>
       </c>
       <c r="E53">
-        <v>103108</v>
-      </c>
-      <c r="F53" t="s">
-        <v>200</v>
+        <v>18580</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>128</v>
       </c>
       <c r="G53" t="s">
-        <v>11</v>
+        <v>146</v>
       </c>
       <c r="H53" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="I53" t="s">
-        <v>202</v>
+        <v>243</v>
       </c>
     </row>
     <row r="54" spans="2:9">
       <c r="B54" t="s">
-        <v>203</v>
+        <v>61</v>
       </c>
       <c r="C54" t="s">
-        <v>203</v>
+        <v>61</v>
       </c>
       <c r="E54">
-        <v>19891</v>
-      </c>
-      <c r="F54" t="s">
-        <v>204</v>
+        <v>36304</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>129</v>
       </c>
       <c r="G54" t="s">
-        <v>11</v>
+        <v>146</v>
       </c>
       <c r="H54" t="s">
-        <v>205</v>
+        <v>194</v>
       </c>
       <c r="I54" t="s">
-        <v>202</v>
+        <v>230</v>
       </c>
     </row>
     <row r="55" spans="2:9">
       <c r="B55" t="s">
-        <v>206</v>
+        <v>62</v>
       </c>
       <c r="C55" t="s">
-        <v>206</v>
+        <v>62</v>
       </c>
       <c r="E55">
-        <v>19380</v>
-      </c>
-      <c r="F55" t="s">
-        <v>207</v>
+        <v>16765</v>
+      </c>
+      <c r="F55" s="1" t="s">
+        <v>130</v>
       </c>
       <c r="G55" t="s">
-        <v>11</v>
+        <v>146</v>
       </c>
       <c r="H55" t="s">
-        <v>208</v>
+        <v>195</v>
       </c>
       <c r="I55" t="s">
-        <v>209</v>
+        <v>244</v>
       </c>
     </row>
     <row r="56" spans="2:9">
       <c r="B56" t="s">
-        <v>210</v>
+        <v>63</v>
       </c>
       <c r="C56" t="s">
-        <v>210</v>
+        <v>63</v>
       </c>
       <c r="E56">
-        <v>19311</v>
-      </c>
-      <c r="F56" t="s">
-        <v>211</v>
+        <v>4240</v>
+      </c>
+      <c r="F56" s="1" t="s">
+        <v>131</v>
       </c>
       <c r="G56" t="s">
-        <v>11</v>
+        <v>146</v>
       </c>
       <c r="H56" t="s">
-        <v>212</v>
+        <v>196</v>
       </c>
       <c r="I56" t="s">
-        <v>213</v>
+        <v>245</v>
       </c>
     </row>
     <row r="57" spans="2:9">
       <c r="B57" t="s">
-        <v>214</v>
+        <v>64</v>
       </c>
       <c r="C57" t="s">
-        <v>214</v>
+        <v>64</v>
       </c>
       <c r="E57">
-        <v>36832</v>
-      </c>
-      <c r="F57" t="s">
-        <v>215</v>
+        <v>26664</v>
+      </c>
+      <c r="F57" s="1" t="s">
+        <v>132</v>
       </c>
       <c r="G57" t="s">
-        <v>11</v>
+        <v>146</v>
       </c>
       <c r="H57" t="s">
-        <v>216</v>
+        <v>197</v>
       </c>
       <c r="I57" t="s">
-        <v>217</v>
+        <v>240</v>
       </c>
     </row>
     <row r="58" spans="2:9">
       <c r="B58" t="s">
-        <v>218</v>
+        <v>65</v>
       </c>
       <c r="C58" t="s">
-        <v>218</v>
+        <v>65</v>
       </c>
       <c r="E58">
-        <v>8667</v>
-      </c>
-      <c r="F58" t="s">
-        <v>219</v>
+        <v>103108</v>
+      </c>
+      <c r="F58" s="1" t="s">
+        <v>133</v>
       </c>
       <c r="G58" t="s">
-        <v>11</v>
+        <v>146</v>
       </c>
       <c r="H58" t="s">
-        <v>220</v>
+        <v>198</v>
       </c>
       <c r="I58" t="s">
-        <v>221</v>
+        <v>246</v>
       </c>
     </row>
     <row r="59" spans="2:9">
       <c r="B59" t="s">
-        <v>222</v>
+        <v>66</v>
       </c>
       <c r="C59" t="s">
-        <v>222</v>
+        <v>66</v>
       </c>
       <c r="E59">
-        <v>32362</v>
-      </c>
-      <c r="F59" t="s">
-        <v>223</v>
+        <v>19891</v>
+      </c>
+      <c r="F59" s="1" t="s">
+        <v>134</v>
       </c>
       <c r="G59" t="s">
-        <v>11</v>
+        <v>146</v>
       </c>
       <c r="H59" t="s">
-        <v>224</v>
+        <v>199</v>
       </c>
       <c r="I59" t="s">
-        <v>225</v>
+        <v>246</v>
       </c>
     </row>
     <row r="60" spans="2:9">
       <c r="B60" t="s">
-        <v>226</v>
+        <v>67</v>
       </c>
       <c r="C60" t="s">
-        <v>226</v>
+        <v>67</v>
       </c>
       <c r="E60">
-        <v>70953</v>
-      </c>
-      <c r="F60" t="s">
-        <v>227</v>
+        <v>19380</v>
+      </c>
+      <c r="F60" s="1" t="s">
+        <v>135</v>
       </c>
       <c r="G60" t="s">
-        <v>11</v>
+        <v>146</v>
       </c>
       <c r="H60" t="s">
-        <v>228</v>
+        <v>200</v>
       </c>
       <c r="I60" t="s">
-        <v>229</v>
+        <v>247</v>
       </c>
     </row>
     <row r="61" spans="2:9">
       <c r="B61" t="s">
-        <v>230</v>
+        <v>68</v>
       </c>
       <c r="C61" t="s">
-        <v>230</v>
+        <v>68</v>
       </c>
       <c r="E61">
-        <v>13129</v>
-      </c>
-      <c r="F61" t="s">
-        <v>231</v>
+        <v>19311</v>
+      </c>
+      <c r="F61" s="1" t="s">
+        <v>136</v>
       </c>
       <c r="G61" t="s">
-        <v>11</v>
+        <v>146</v>
       </c>
       <c r="H61" t="s">
-        <v>232</v>
+        <v>201</v>
       </c>
       <c r="I61" t="s">
-        <v>233</v>
+        <v>248</v>
       </c>
     </row>
     <row r="62" spans="2:9">
       <c r="B62" t="s">
-        <v>234</v>
+        <v>69</v>
       </c>
       <c r="C62" t="s">
-        <v>234</v>
+        <v>69</v>
       </c>
       <c r="E62">
-        <v>23039</v>
-      </c>
-      <c r="F62" t="s">
-        <v>235</v>
+        <v>36832</v>
+      </c>
+      <c r="F62" s="1" t="s">
+        <v>137</v>
       </c>
       <c r="G62" t="s">
-        <v>11</v>
+        <v>146</v>
       </c>
       <c r="H62" t="s">
-        <v>236</v>
+        <v>202</v>
       </c>
       <c r="I62" t="s">
-        <v>180</v>
+        <v>249</v>
       </c>
     </row>
     <row r="63" spans="2:9">
       <c r="B63" t="s">
-        <v>237</v>
+        <v>70</v>
       </c>
       <c r="C63" t="s">
-        <v>237</v>
+        <v>70</v>
       </c>
       <c r="E63">
-        <v>40247</v>
-      </c>
-      <c r="F63" t="s">
-        <v>238</v>
+        <v>8667</v>
+      </c>
+      <c r="F63" s="1" t="s">
+        <v>138</v>
       </c>
       <c r="G63" t="s">
-        <v>11</v>
+        <v>146</v>
       </c>
       <c r="H63" t="s">
-        <v>239</v>
+        <v>203</v>
       </c>
       <c r="I63" t="s">
-        <v>240</v>
+        <v>250</v>
       </c>
     </row>
     <row r="64" spans="2:9">
       <c r="B64" t="s">
-        <v>241</v>
+        <v>71</v>
       </c>
       <c r="C64" t="s">
-        <v>241</v>
+        <v>71</v>
       </c>
       <c r="E64">
+        <v>32362</v>
+      </c>
+      <c r="F64" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="G64" t="s">
+        <v>146</v>
+      </c>
+      <c r="H64" t="s">
+        <v>204</v>
+      </c>
+      <c r="I64" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="65" spans="2:9">
+      <c r="B65" t="s">
+        <v>72</v>
+      </c>
+      <c r="C65" t="s">
+        <v>72</v>
+      </c>
+      <c r="E65">
+        <v>70953</v>
+      </c>
+      <c r="F65" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="G65" t="s">
+        <v>146</v>
+      </c>
+      <c r="H65" t="s">
+        <v>205</v>
+      </c>
+      <c r="I65" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="66" spans="2:9">
+      <c r="B66" t="s">
+        <v>73</v>
+      </c>
+      <c r="C66" t="s">
+        <v>73</v>
+      </c>
+      <c r="E66">
+        <v>13129</v>
+      </c>
+      <c r="F66" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="G66" t="s">
+        <v>146</v>
+      </c>
+      <c r="H66" t="s">
+        <v>206</v>
+      </c>
+      <c r="I66" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="67" spans="2:9">
+      <c r="B67" t="s">
+        <v>74</v>
+      </c>
+      <c r="C67" t="s">
+        <v>74</v>
+      </c>
+      <c r="E67">
+        <v>23039</v>
+      </c>
+      <c r="F67" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="G67" t="s">
+        <v>146</v>
+      </c>
+      <c r="H67" t="s">
+        <v>207</v>
+      </c>
+      <c r="I67" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="68" spans="2:9">
+      <c r="B68" t="s">
+        <v>75</v>
+      </c>
+      <c r="C68" t="s">
+        <v>75</v>
+      </c>
+      <c r="E68">
+        <v>40247</v>
+      </c>
+      <c r="F68" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="G68" t="s">
+        <v>146</v>
+      </c>
+      <c r="H68" t="s">
+        <v>208</v>
+      </c>
+      <c r="I68" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="69" spans="2:9">
+      <c r="B69" t="s">
+        <v>76</v>
+      </c>
+      <c r="C69" t="s">
+        <v>76</v>
+      </c>
+      <c r="E69">
         <v>76404</v>
       </c>
-      <c r="F64" t="s">
-        <v>242</v>
-      </c>
-      <c r="G64" t="s">
-        <v>11</v>
-      </c>
-      <c r="H64" t="s">
-        <v>243</v>
-      </c>
-      <c r="I64" t="s">
-        <v>244</v>
+      <c r="F69" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="G69" t="s">
+        <v>146</v>
+      </c>
+      <c r="H69" t="s">
+        <v>209</v>
+      </c>
+      <c r="I69" t="s">
+        <v>255</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/ocr_output/基金策略.xlsx
+++ b/ocr_output/基金策略.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="407" uniqueCount="256">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="415" uniqueCount="261">
   <si>
     <t>附件子目录</t>
   </si>
@@ -43,6 +43,12 @@
     <t>Kimi_分析时间</t>
   </si>
   <si>
+    <t>2026-02-08_财信证券_基金策略组合报告（R3）：组合9只品种调整暨主动权益类基金、固收+基金、香港互认基金重点池更新</t>
+  </si>
+  <si>
+    <t>2026-02-09_银河证券_ETF跟踪研究：ETF市场周度更新</t>
+  </si>
+  <si>
     <t>2026-02-02_东方财富证券_ETF周报2026年1月第3期：宽基流出边际趋缓，个人投资者积极</t>
   </si>
   <si>
@@ -245,6 +251,278 @@
   </si>
   <si>
     <t>2026-01-30_华创证券_25Q4基金季报专题研究：四类基金画像：加仓、减仓、调仓、极致风格</t>
+  </si>
+  <si>
+    <t># 基金策略组合报告（R3）
+# 基金市场
+# 组合 9只品种调整暨主动权益类基金、固收 $^ +$ 基金、香港互认基金重点池更新
+基金策略组合报告
+2026 年 02 月 05 日
+![](images/536325e229b5e3734abf30e5c62533e9e7ab3e36d05ccc658b0901f577039ab7.jpg)  
+上证指数-上证基金指数走势图
+主要指数表现（涨跌幅%）  
+&lt;table&gt;&lt;tr&gt;&lt;td&gt;指数名称&lt;/td&gt;&lt;td&gt;60日&lt;/td&gt;&lt;td&gt;年初至今&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;上证指数&lt;/td&gt;&lt;td&gt;4.44&lt;/td&gt;&lt;td&gt;2.70&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;中证基金&lt;/td&gt;&lt;td&gt;3.46&lt;/td&gt;&lt;td&gt;2.46&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;股票基金&lt;/td&gt;&lt;td&gt;6.25&lt;/td&gt;&lt;td&gt;4.69&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;混合基金&lt;/td&gt;&lt;td&gt;7.71&lt;/td&gt;&lt;td&gt;5.35&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;债券基金&lt;/td&gt;&lt;td&gt;0.77&lt;/td&gt;&lt;td&gt;0.53&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;货币基金&lt;/td&gt;&lt;td&gt;0.20&lt;/td&gt;&lt;td&gt;0.11&lt;/td&gt;&lt;/tr&gt;&lt;/table&gt;
+刘鋆
+分析师
+执业证书编号:S0530519090001
+liujun23@hnchasing.com
+# 相关报告
+1 基金周报（20260112-20260116）：市场表现较为 强 势 ， 新 发 行 基 金 仍以 含 权 产 品 为 主2026-01-13  
+2 基金周报（20260105-20260109）：互联互通中国 50 等新发布指数简要分析 2026-01-07  
+3 基金市场点评：年内新成立 ETF-FOF 产品规模已超 28 亿 2025-12-22
+# 投资要点
+#  近期市场变化
+2026 年以来，权益市场交投活跃度提升，全部 A 股区间日均成交额超 3万亿，相比 2025年 12月增长 $5 8 . 3 \%$ 。市场成交放量同时伴随波动率提升，全部 A股指数年初以来年化波动率 $1 8 . 6 4 \%$ ，较 2025年 12 月提升 5.46 个百分点。年内主要沪深 300ETF 品种净流出额超5850亿元。黄金、原油、铜、化工品价格年内均有不同幅度提升。1月 29 日 COMEX 黄金期货收盘价报收 5364.70 美元/盎司、创 1975年以来国际黄金价格新高，1月 30日贵金属市场巨震，当日 COMEX黄金期货收盘价跌幅达 $9 . 0 4 \%$ ，系 1975年以来单日第二大跌幅。
+#  基金组合品种调整
+行业优选组合：基于组合锐度考虑，调入行业轮动相关品种，并在大 物流方向作 了结构调整 。调入华 安事件驱动 量化策略 A（002179）、广发主题领先A（000477）、汇丰晋信中小盘（540007）。
+弹性稳健组合：基于品种含权仓位变动考量，作结构调整。调入华商信用增强A（001751）。
+低波收益组合：在保持相对稳定的波动回撤控制基础上，基于收益预期作结构调整。调入港股红利低波 ETF 摩根（513630）、华夏稳享增利 6个月滚动A（015716）。
+全球配置组合：调整小部分宽基品种，增加红利类资产，地债品种作结构优化。调入中证红利质量 ETF（159209）、科创综指 ETF易方达（589800）、5 年地债 ETF（159972）。
+#  基金重点池更新
+1）主动管理型权益类基金：研究化工、顺周期、商业航天等行业主题以及类指增等创新品种，跟踪 FOF 产品持仓、原池内品种四季报再梳理，进行增补调整。最新重点池163只品种请见正文。  
+2）固收 $^ +$ 基金：按照含权资产比例，结合季报信息，对原池内品种进行再梳理，增补综合市场表现较为稳健的产品，剔除资产配置比例变动较大或风格漂移产品。最新重点池54只品种请见正文。  
+3）香港互认基金：目前香港互认基金中，债券型产品规模占比约 $6 0 . 3 \%$ 。基于配置及持有体验等因素考虑，我们对香港互认基金重点池的筛选大致遵循两个原则：侧重大类资产、多域别资产，淡化主题行业因素；侧重分红基金份额类别。最新重点池 7只品种请见正文。
+ 风险提示：香港互认基金费率较高，因货币计价、对冲与否等因素，不同基金份额综合市场表现或存在一定差异；香港互认基金的申赎，一定程度受额度和渠道限制。历史数据不代表未来业绩；跟踪品种为非保本型产品，在极端情况下，可能存在无法完全回收本金的情形；经济、政策等诸多内外因素可能会造成基金的市场风险，影响基金收益水平等。
+# 内容目录
+# 1 近期投资思考及组合品种调整...
+1.1 近期市场变化.  
+1.2 组合品种调整.
+# 2 主动管理型权益类基金重点池更新..
+# 3 固收 $+$ 基金重点池更新..
+# 4 香港互认基金重点池更新..
+# 5 风险提示... 10
+# 图表目录
+图 1：近 3 个月市场波动情况变动.. 2  
+图 2：中国化工产品价格指数近年走势.. 4
+表 1：主要沪深 300ETF 规模及年初以来净流入额情况（单位：亿元） 4  
+表 2：2026 年基金组合配置参考.  
+表 3：主动管理型权益类基金重点池（163 只）  
+表 4：固收 $^ { + }$ 基金重点池（54 只） 9  
+表 5：香港互认基金-债券型重点品种（3 只） 10  
+表 6：香港互认基金-混合型重点品种（2 只） 10  
+表 7：香港互认基金-股票型重点品种（2 只） 10
+# 1 近期投资思考及组合品种调整
+# 1.1 近期市场变化
+2026 年以来，权益市场交投活跃度提升，全部 A股区间日均成交额超 3 万亿，相比2025 年 12 月增长 $5 8 . 3 \%$ 。市场成交放量同时伴随波动率提升，全部 A 股指数年初以来年化波动率 $1 8 . 6 4 \%$ ，较 2025 年 12 月提升 5.46 个百分点。年内主要沪深 300ETF 品种净流出额超 5850 亿元。黄金、原油、铜、化工品价格年内均有不同幅度提升。1 月 29 日COMEX 黄金期货收盘价报收 5364.70 美元/盎司、创 1975 年以来国际黄金价格新高，1月 30 日贵金属市场巨震，当日 COMEX 黄金期货收盘价跌幅达 $9 . 0 4 \%$ ，系 1975 年以来单日第二大跌幅。
+年初以来（截至 2 月 3 日），全部 A 股区间日均成交额超 3 万亿，相比 2025 年 12月增长约 $5 8 . 3 \%$ ，科创板、创业板年内日均成交额相比2025年12月分别增长 $6 5 . 4 \% . 5 8 . 5 \%$ 。两市 ETF 年内日均成交额约 6096.54 亿元，相比 2025 年 12 月增长 $4 2 . 3 \%$ 。市场成交放量的同时伴随波动率提升，全部 A股指数年初以来年化波动率 $1 8 . 6 4 \%$ ，较 2025 年 12 月提升 5.46 个百分点。
+图 1：近 3个月市场波动情况变动  
+![](images/2827bfad37a311c47d0c3555d8692659ba5f8f30b2698a87a030a2434680d801.jpg)  
+资料来源：wind、财信证券（数据提取日：20260203；指标：年化波动率，单位：%）
+自 2026 年第2 个交易周开始，沪深 300ETF 品种呈大额净流出态势，年初以来（截至2月3日），规模优势突出、汇金系资金持有的沪深300ETF品种净流出额超5850亿元。
+表 1：主要沪深 300ETF规模及年初以来净流入额情况（单位：亿元）  
+&lt;table&gt;&lt;tr&gt;&lt;td&gt;分类&lt;/td&gt;&lt;td&gt;沪深300ETF华泰柏瑞(510300)&lt;/td&gt;&lt;td&gt;沪深300ETF易方达(510310)&lt;/td&gt;&lt;td&gt;沪深300ETF华夏(510330)&lt;/td&gt;&lt;td&gt;沪深300ETF嘉实(159919)&lt;/td&gt;&lt;td&gt;合计&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;基金规模&lt;/td&gt;&lt;td&gt;2219.06&lt;/td&gt;&lt;td&gt;1468.18&lt;/td&gt;&lt;td&gt;939.84&lt;/td&gt;&lt;td&gt;1008.24&lt;/td&gt;&lt;td&gt;5635.33&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;区间(0105-0109)净流入额&lt;/td&gt;&lt;td&gt;32.94&lt;/td&gt;&lt;td&gt;3.71&lt;/td&gt;&lt;td&gt;2.45&lt;/td&gt;&lt;td&gt;5.27&lt;/td&gt;&lt;td&gt;44.37&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;区间(0112-0116)净流入额&lt;/td&gt;&lt;td&gt;-475.15&lt;/td&gt;&lt;td&gt;-164.25&lt;/td&gt;&lt;td&gt;-269.66&lt;/td&gt;&lt;td&gt;-115.98&lt;/td&gt;&lt;td&gt;-1025.04&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;区间(0119-0123)净流入额&lt;/td&gt;&lt;td&gt;-724.21&lt;/td&gt;&lt;td&gt;-618.80&lt;/td&gt;&lt;td&gt;-561.59&lt;/td&gt;&lt;td&gt;-469.89&lt;/td&gt;&lt;td&gt;-2374.49&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;区间(0126-0130)净流入额&lt;/td&gt;&lt;td&gt;-742.00&lt;/td&gt;&lt;td&gt;-747.27&lt;/td&gt;&lt;td&gt;-547.13&lt;/td&gt;&lt;td&gt;-406.28&lt;/td&gt;&lt;td&gt;-2442.69&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;区间(0202-0203)净流入额&lt;/td&gt;&lt;td&gt;-53.07&lt;/td&gt;&lt;td&gt;2.25&lt;/td&gt;&lt;td&gt;-3.90&lt;/td&gt;&lt;td&gt;-2.45&lt;/td&gt;&lt;td&gt;-57.17&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;年初以来区间净流入额&lt;/td&gt;&lt;td&gt;-1961.49&lt;/td&gt;&lt;td&gt;-1524.35&lt;/td&gt;&lt;td&gt;-1379.84&lt;/td&gt;&lt;td&gt;-989.33&lt;/td&gt;&lt;td&gt;-5855.02&lt;/td&gt;&lt;/tr&gt;&lt;/table&gt;
+资料来源：wind、财信证券（数据提取日：20260203）
+2026年以来，COMEX黄金期货收盘价上涨 $1 4 . 0 \%$ 、上海金交所黄金现货价上涨 $1 2 . 5 \%$ ；LME 铜现货结算价上涨 $6 . 3 \%$ 、LME3 个月铜期货官方价上涨 $7 . 2 \%$ ；美国西德克萨斯中级轻质原油（WTI）现货价上涨 $1 0 . 1 \%$ 、布伦特原油期货结算价上涨 $1 0 . 6 \%$ 。
+年内 1 月 29 日黄金价格创历史新高，当日 COMEX 黄金期货收盘价报收 5364.70 美元/盎司、创 1975 年以来国际黄金价格新高。1 月 30 日贵金属市场巨震，当日 COMEX黄金期货收盘价跌幅达 $9 . 0 4 \%$ ，系 1975 年以来单日第二大跌幅（1980 年 3 月 17 日单日第一大跌幅： $- 9 . 4 3 \%$ ）。
+2 月 3 日，南华工业品指数报收 3644.59 点、年内上涨 $2 . 7 \%$ ，中国化工产品价格指数报收 4064.00 点、年内上涨 $3 . 4 \%$ 。
+图 2：中国化工产品价格指数近年走势  
+![](images/3b2aee872cda2fa1724750eea184db6f57a2a954108cb5478d27dd2bafb55f44.jpg)  
+资料来源：wind、财信证券（数据提取日：20260203）
+# 1.2 组合品种调整
+本次调整涉及四个组合共计 9 只品种，具体调整情况如下：
+# 1）行业优选组合
+基于组合锐度考虑，调入行业轮动相关品种，并在大物流方向作了结构调整。
+调入华安事件驱动量化策略 A（002179）、广发主题领先 A（000477）、汇丰晋信中小盘（540007）。调出大成高鑫 A（000628）、景顺长城品质长青 A（010350）、嘉实物流产业 A（003298）。
+# 2）弹性稳健组合
+基于品种含权仓位考量，作结构调整。
+调入华商信用增强 A（001751）；调出华泰柏瑞新利 A（001247）。
+# 3）低波收益组合
+在保持相对稳定的波动回撤控制基础上，基于收益预期作结构调整。
+调入港股红利低波 ETF 摩根（513630）、华夏稳享增利 6 个月滚动 A（015716）；调出红利低波 50ETF（515450）、华泰保兴尊诚（004024）。
+# 4）全球配置组合
+调整小部分宽基品种，增加红利类资产，地债品种作结构优化。
+调入中证红利质量 ETF（159209）、科创综指 ETF 易方达（589800）、5 年地债 ETF（159972）；调出消费 ETF（159928）、沪港深 500ETF 汇添富（517080）、5 年地方债 ETF海富通（511060）。
+表 2：2026年基金组合配置参考  
+&lt;table&gt;&lt;tr&gt;&lt;td&gt;组合&lt;/td&gt;&lt;td colspan="2"&gt;底层品种&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td rowspan="8"&gt;质量优选&lt;/td&gt;&lt;td&gt;招商核心竞争力A(014412)&lt;/td&gt;&lt;td&gt;华夏新锦绣A(002833)&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;大成竞争优势A(090013)&lt;/td&gt;&lt;td&gt;中证红利质量ETF(159209)&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;中泰玉衡价值优选A(006624)&lt;/td&gt;&lt;td&gt;纳指生物科技ETF汇添富(513290)&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;易方达战略新兴产业A(010391)&lt;/td&gt;&lt;td&gt;工银聚丰A(011532)&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;中欧价值回报A(018409)&lt;/td&gt;&lt;td&gt;平安短债A(005754)&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;鹏华中国50(160605)&lt;/td&gt;&lt;td&gt;易方达信用债A(000032)&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;广发价值核心A(010377)&lt;/td&gt;&lt;td&gt;长盛盛裕纯债D(015736)&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;景顺长城支柱产业A(260117)&lt;/td&gt;&lt;td&gt;华泰柏瑞同业存单指数7天持有(015863)&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td rowspan="6"&gt;行业优选&lt;/td&gt;&lt;td&gt;华安事件驱动量化策略A(002179)&lt;/td&gt;&lt;td&gt;汇添富达欣A(001801)&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;广发主题领先A(000477)&lt;/td&gt;&lt;td&gt;恒生ETF(159920)&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;汇丰晋信中小盘(540007)&lt;/td&gt;&lt;td&gt;港股红利指数ETF摩根(513630)&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;鹏华优质治理A(160611)&lt;/td&gt;&lt;td&gt;永赢逸享A(021241)&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;华泰柏瑞新金融地产A(005576)&lt;/td&gt;&lt;td&gt;华泰柏瑞新利A(001247)&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;长城全球新能源汽车A(501226)&lt;/td&gt;&lt;td&gt;兴银鑫日享短债A(005079)&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td rowspan="2"&gt;&lt;/td&gt;&lt;td&gt;汇丰晋信大盘A(540006)&lt;/td&gt;&lt;td&gt;鹏华丰禄(003547)&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;鹏扬消费量化选股A(019777)&lt;/td&gt;&lt;td&gt;中金同业存单指数7天持有(015646)&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td rowspan="15"&gt;全球配置&lt;/td&gt;&lt;td&gt;上证指数ETF(510210)&lt;/td&gt;&lt;td&gt;日经ETF(513520)&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;沪深300ETF华泰柏瑞(510300)&lt;/td&gt;&lt;td&gt;德国ETF(513030)&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;中证A500ETF(159338)&lt;/td&gt;&lt;td&gt;纳指生物科技ETF汇添富(513290)&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;工程机械ETF(560280)&lt;/td&gt;&lt;td&gt;新兴亚洲ETF(520580)&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;科创AIETF博时(588790)&lt;/td&gt;&lt;td&gt;标普500ETF博时(513500)&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;科创医药ETF嘉实(588700)&lt;/td&gt;&lt;td&gt;十年国债ETF(511260)&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;军工ETF(512660)&lt;/td&gt;&lt;td&gt;5年地债ETF(159972)&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;有色金属ETF(512400)&lt;/td&gt;&lt;td&gt;国开ETF(159650)&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;中证红利质量ETF(159209)&lt;/td&gt;&lt;td&gt;上证公司债ETF(511070)&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;科创综指ETF易方达(589800)&lt;/td&gt;&lt;td&gt;科创债ETF鹏华(551030)&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;恒生ETF(159920)&lt;/td&gt;&lt;td&gt;城投债ETF(511220)&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;恒生科技指数ETF(513180)&lt;/td&gt;&lt;td&gt;可转债ETF博时(511380)&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;港股红利指数ETF摩根(513630)&lt;/td&gt;&lt;td&gt;汇丰亚洲债券基金BM2-CNY派息(968105)&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;银行AH优选ETF(517900)&lt;/td&gt;&lt;td&gt;黄金ETF(518880)&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;港股金融ETF(513140)&lt;/td&gt;&lt;td&gt;短融ETF海富通(511360)&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td rowspan="8"&gt;弹性稳健&lt;/td&gt;&lt;td&gt;中泰玉衡价值优选A(006624)&lt;/td&gt;&lt;td&gt;华商信用增强A(001751)&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;鹏华优选价值A(008134)&lt;/td&gt;&lt;td&gt;华泰保兴尊利A(005908)&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;万家双引擎A(519183)&lt;/td&gt;&lt;td&gt;科创债ETF鹏华(551030)&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;恒生ETF(159920)&lt;/td&gt;&lt;td&gt;鹏华丰享(004388)&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;广发稳健策略A(006780)&lt;/td&gt;&lt;td&gt;渤海汇金30天滚动中短债A(016693)&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;工银精选回报A(017881)&lt;/td&gt;&lt;td&gt;山证资管超短债A(006626)&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;中证红利质量ETF(159209)&lt;/td&gt;&lt;td&gt;天弘同业存单指数7天持有(017423)&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;工银聚安A(011786)&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td rowspan="8"&gt;低波收益&lt;/td&gt;&lt;td&gt;中欧价值回报A(018409)&lt;/td&gt;&lt;td&gt;长盛盛裕纯债D(015736)&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;港股红利低波ETF摩根(513630)&lt;/td&gt;&lt;td&gt;鹏华丰享(004388)&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;广发稳健策略A(006780)&lt;/td&gt;&lt;td&gt;国泰利享中短债A(006597)&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;平安新鑫先锋A(000739)&lt;/td&gt;&lt;td&gt;嘉实超短债C(070009)&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;华夏稳享增利6个月滚动A(015716)&lt;/td&gt;&lt;td&gt;华泰柏瑞同业存单指数7天持有(015863)&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;睿远稳益增强30天持有A(018756)&lt;/td&gt;&lt;td&gt;天弘同业存单指数7天持有(017423)&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;华泰柏瑞季季红A(000186)&lt;/td&gt;&lt;td&gt;长城收益宝C(016778)&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;东方臻宝纯债A(006210)&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;/tr&gt;&lt;/table&gt;
+资料来源：wind、财信证券（资料数据来源：wind：调整日期：20260205收盘前：标红品种系本次调整品种）
+# 2 主动管理型权益类基金重点池更新
+根据对化工、顺周期、商业航天、脑机接口等行业主题以及类指增等创新品种研究，以及对 FOF 产品的持仓跟踪、原池内品种四季报梳理，我们近期对主动管理型权益类基金重点池进行了增补调整。最新主动管理型权益类基金重点池（163 只）如下表所列：
+表 3：主动管理型权益类基金重点池（163只）  
+&lt;table&gt;&lt;tr&gt;&lt;td&gt;序号&lt;/td&gt;&lt;td&gt;代码&lt;/td&gt;&lt;td&gt;简称&lt;/td&gt;&lt;td&gt;序号&lt;/td&gt;&lt;td&gt;代码&lt;/td&gt;&lt;td&gt;简称&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;1&lt;/td&gt;&lt;td&gt;260117&lt;/td&gt;&lt;td&gt;景顺长城支柱产业A&lt;/td&gt;&lt;td&gt;83&lt;/td&gt;&lt;td&gt;016199&lt;/td&gt;&lt;td&gt;汇添富全球汽车产业升级A&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;2&lt;/td&gt;&lt;td&gt;260112&lt;/td&gt;&lt;td&gt;景顺长城能源基建A&lt;/td&gt;&lt;td&gt;84&lt;/td&gt;&lt;td&gt;501226&lt;/td&gt;&lt;td&gt;长城全球新能源汽车A&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;3&lt;/td&gt;&lt;td&gt;018504&lt;/td&gt;&lt;td&gt;景顺长城周期优选A&lt;/td&gt;&lt;td&gt;85&lt;/td&gt;&lt;td&gt;014376&lt;/td&gt;&lt;td&gt;东吴新能源汽车A&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;4&lt;/td&gt;&lt;td&gt;005660&lt;/td&gt;&lt;td&gt;嘉实资源精选A&lt;/td&gt;&lt;td&gt;86&lt;/td&gt;&lt;td&gt;006751&lt;/td&gt;&lt;td&gt;富国互联科技A&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;5&lt;/td&gt;&lt;td&gt;011425&lt;/td&gt;&lt;td&gt;广发优势成长A&lt;/td&gt;&lt;td&gt;87&lt;/td&gt;&lt;td&gt;008638&lt;/td&gt;&lt;td&gt;广发科技创新A&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;6&lt;/td&gt;&lt;td&gt;005161&lt;/td&gt;&lt;td&gt;华商上游产业A&lt;/td&gt;&lt;td&gt;88&lt;/td&gt;&lt;td&gt;000739&lt;/td&gt;&lt;td&gt;平安新鑫先锋A&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;7&lt;/td&gt;&lt;td&gt;160605&lt;/td&gt;&lt;td&gt;鹏华中国50&lt;/td&gt;&lt;td&gt;89&lt;/td&gt;&lt;td&gt;005904&lt;/td&gt;&lt;td&gt;华泰保兴成长优选A&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;8&lt;/td&gt;&lt;td&gt;010963&lt;/td&gt;&lt;td&gt;信澳周期动力A&lt;/td&gt;&lt;td&gt;90&lt;/td&gt;&lt;td&gt;003165&lt;/td&gt;&lt;td&gt;鹏华弘嘉A&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;9&lt;/td&gt;&lt;td&gt;023036&lt;/td&gt;&lt;td&gt;中欧资源精选A&lt;/td&gt;&lt;td&gt;91&lt;/td&gt;&lt;td&gt;001018&lt;/td&gt;&lt;td&gt;易方达新经济&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;10&lt;/td&gt;&lt;td&gt;003304&lt;/td&gt;&lt;td&gt;前海开源沪港深核心资源A&lt;/td&gt;&lt;td&gt;92&lt;/td&gt;&lt;td&gt;501219&lt;/td&gt;&lt;td&gt;华夏智胜先锋A&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;11&lt;/td&gt;&lt;td&gt;540007&lt;/td&gt;&lt;td&gt;汇丰晋信中小盘&lt;/td&gt;&lt;td&gt;93&lt;/td&gt;&lt;td&gt;020876&lt;/td&gt;&lt;td&gt;中欧景气精选A&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;12&lt;/td&gt;&lt;td&gt;003298&lt;/td&gt;&lt;td&gt;嘉实物流产业A&lt;/td&gt;&lt;td&gt;94&lt;/td&gt;&lt;td&gt;008842&lt;/td&gt;&lt;td&gt;同泰远见A&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;13&lt;/td&gt;&lt;td&gt;001718&lt;/td&gt;&lt;td&gt;工银物流产业A&lt;/td&gt;&lt;td&gt;95&lt;/td&gt;&lt;td&gt;165531&lt;/td&gt;&lt;td&gt;中信保诚多策略A&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;14&lt;/td&gt;&lt;td&gt;005233&lt;/td&gt;&lt;td&gt;广发睿毅领先A&lt;/td&gt;&lt;td&gt;96&lt;/td&gt;&lt;td&gt;005225&lt;/td&gt;&lt;td&gt;广发量化多因子A&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;15&lt;/td&gt;&lt;td&gt;519183&lt;/td&gt;&lt;td&gt;万家双引擎A&lt;/td&gt;&lt;td&gt;97&lt;/td&gt;&lt;td&gt;320016&lt;/td&gt;&lt;td&gt;诺安多策略A&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;16&lt;/td&gt;&lt;td&gt;004475&lt;/td&gt;&lt;td&gt;华泰柏瑞富利A&lt;/td&gt;&lt;td&gt;98&lt;/td&gt;&lt;td&gt;001917&lt;/td&gt;&lt;td&gt;招商量化精选A&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;17&lt;/td&gt;&lt;td&gt;017749&lt;/td&gt;&lt;td&gt;国投瑞银景气驱动A&lt;/td&gt;&lt;td&gt;99&lt;/td&gt;&lt;td&gt;016466&lt;/td&gt;&lt;td&gt;国泰海通量化选股A&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;18&lt;/td&gt;&lt;td&gt;010826&lt;/td&gt;&lt;td&gt;大成产业趋势A&lt;/td&gt;&lt;td&gt;100&lt;/td&gt;&lt;td&gt;006195&lt;/td&gt;&lt;td&gt;国金量化多因子A&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;19&lt;/td&gt;&lt;td&gt;006780&lt;/td&gt;&lt;td&gt;广发稳健策略A&lt;/td&gt;&lt;td&gt;101&lt;/td&gt;&lt;td&gt;015245&lt;/td&gt;&lt;td&gt;南华丰汇A&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;20&lt;/td&gt;&lt;td&gt;017935&lt;/td&gt;&lt;td&gt;国泰海通远见价值A&lt;/td&gt;&lt;td&gt;102&lt;/td&gt;&lt;td&gt;006160&lt;/td&gt;&lt;td&gt;博道启航A&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;21&lt;/td&gt;&lt;td&gt;014038&lt;/td&gt;&lt;td&gt;交银启诚A&lt;/td&gt;&lt;td&gt;103&lt;/td&gt;&lt;td&gt;002179&lt;/td&gt;&lt;td&gt;华安事件驱动量化策略A&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;22&lt;/td&gt;&lt;td&gt;005576&lt;/td&gt;&lt;td&gt;华泰柏瑞新金融地产A&lt;/td&gt;&lt;td&gt;104&lt;/td&gt;&lt;td&gt;007126&lt;/td&gt;&lt;td&gt;博道远航A&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;23&lt;/td&gt;&lt;td&gt;008283&lt;/td&gt;&lt;td&gt;易方达金融行业A&lt;/td&gt;&lt;td&gt;105&lt;/td&gt;&lt;td&gt;008318&lt;/td&gt;&lt;td&gt;博道久航A&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;24&lt;/td&gt;&lt;td&gt;011152&lt;/td&gt;&lt;td&gt;国富兴海回报A&lt;/td&gt;&lt;td&gt;106&lt;/td&gt;&lt;td&gt;001856&lt;/td&gt;&lt;td&gt;易方达环保主题A&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;25&lt;/td&gt;&lt;td&gt;005833&lt;/td&gt;&lt;td&gt;工银红利优享A&lt;/td&gt;&lt;td&gt;107&lt;/td&gt;&lt;td&gt;004604&lt;/td&gt;&lt;td&gt;富国新活力A&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;26&lt;/td&gt;&lt;td&gt;019085&lt;/td&gt;&lt;td&gt;工银价值精选A&lt;/td&gt;&lt;td&gt;108&lt;/td&gt;&lt;td&gt;009330&lt;/td&gt;&lt;td&gt;鹏华成长价值A&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;27&lt;/td&gt;&lt;td&gt;000880&lt;/td&gt;&lt;td&gt;富国研究精选A&lt;/td&gt;&lt;td&gt;109&lt;/td&gt;&lt;td&gt;000242&lt;/td&gt;&lt;td&gt;景顺长城策略精选A&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;28&lt;/td&gt;&lt;td&gt;014412&lt;/td&gt;&lt;td&gt;招商核心竞争力A&lt;/td&gt;&lt;td&gt;110&lt;/td&gt;&lt;td&gt;001528&lt;/td&gt;&lt;td&gt;诺安先进制造A&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;29&lt;/td&gt;&lt;td&gt;010761&lt;/td&gt;&lt;td&gt;华商甄选回报A&lt;/td&gt;&lt;td&gt;111&lt;/td&gt;&lt;td&gt;017102&lt;/td&gt;&lt;td&gt;大摩数字经济A&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;30&lt;/td&gt;&lt;td&gt;017043&lt;/td&gt;&lt;td&gt;汇添富品质价值&lt;/td&gt;&lt;td&gt;112&lt;/td&gt;&lt;td&gt;016237&lt;/td&gt;&lt;td&gt;华夏数字经济龙头A&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;31&lt;/td&gt;&lt;td&gt;003956&lt;/td&gt;&lt;td&gt;南方产业智选A&lt;/td&gt;&lt;td&gt;113&lt;/td&gt;&lt;td&gt;017483&lt;/td&gt;&lt;td&gt;财通资管数字经济A&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;32&lt;/td&gt;&lt;td&gt;005827&lt;/td&gt;&lt;td&gt;易方达蓝筹精选&lt;/td&gt;&lt;td&gt;114&lt;/td&gt;&lt;td&gt;018122&lt;/td&gt;&lt;td&gt;永赢数字经济智选A&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;33&lt;/td&gt;&lt;td&gt;018409&lt;/td&gt;&lt;td&gt;中欧价值回报A&lt;/td&gt;&lt;td&gt;115&lt;/td&gt;&lt;td&gt;018993&lt;/td&gt;&lt;td&gt;中欧数字经济A&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;34&lt;/td&gt;&lt;td&gt;017881&lt;/td&gt;&lt;td&gt;工银精选回报A&lt;/td&gt;&lt;td&gt;116&lt;/td&gt;&lt;td&gt;006624&lt;/td&gt;&lt;td&gt;中泰玉衡价值优选A&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;35&lt;/td&gt;&lt;td&gt;007343&lt;/td&gt;&lt;td&gt;嘉实科技创新&lt;/td&gt;&lt;td&gt;117&lt;/td&gt;&lt;td&gt;017826&lt;/td&gt;&lt;td&gt;兴全欣越A&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;36&lt;/td&gt;&lt;td&gt;010377&lt;/td&gt;&lt;td&gt;广发价值核心A&lt;/td&gt;&lt;td&gt;118&lt;/td&gt;&lt;td&gt;519020&lt;/td&gt;&lt;td&gt;国泰金泰A&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;37&lt;/td&gt;&lt;td&gt;015289&lt;/td&gt;&lt;td&gt;格林高股息优选A&lt;/td&gt;&lt;td&gt;119&lt;/td&gt;&lt;td&gt;008134&lt;/td&gt;&lt;td&gt;鹏华优选价值A&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;38&lt;/td&gt;&lt;td&gt;014771&lt;/td&gt;&lt;td&gt;中泰红利优选一年持有&lt;/td&gt;&lt;td&gt;120&lt;/td&gt;&lt;td&gt;006551&lt;/td&gt;&lt;td&gt;中庚价值领航&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;39&lt;/td&gt;&lt;td&gt;000480&lt;/td&gt;&lt;td&gt;东方红新动力A&lt;/td&gt;&lt;td&gt;121&lt;/td&gt;&lt;td&gt;166020&lt;/td&gt;&lt;td&gt;中欧成长优选回报A&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;40&lt;/td&gt;&lt;td&gt;013485&lt;/td&gt;&lt;td&gt;尚正竞争优势A&lt;/td&gt;&lt;td&gt;122&lt;/td&gt;&lt;td&gt;000628&lt;/td&gt;&lt;td&gt;大成高鑫A&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;41&lt;/td&gt;&lt;td&gt;161222&lt;/td&gt;&lt;td&gt;国投瑞银瑞利A&lt;/td&gt;&lt;td&gt;123&lt;/td&gt;&lt;td&gt;014339&lt;/td&gt;&lt;td&gt;长江智能制造A&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;42&lt;/td&gt;&lt;td&gt;002833&lt;/td&gt;&lt;td&gt;华夏新锦绣A&lt;/td&gt;&lt;td&gt;124&lt;/td&gt;&lt;td&gt;008060&lt;/td&gt;&lt;td&gt;景顺长城价值边际A&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;43&lt;/td&gt;&lt;td&gt;540006&lt;/td&gt;&lt;td&gt;汇丰晋信大盘A&lt;/td&gt;&lt;td&gt;125&lt;/td&gt;&lt;td&gt;011830&lt;/td&gt;&lt;td&gt;富国天恒A&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;44&lt;/td&gt;&lt;td&gt;010624&lt;/td&gt;&lt;td&gt;富国稳健增长A&lt;/td&gt;&lt;td&gt;126&lt;/td&gt;&lt;td&gt;090013&lt;/td&gt;&lt;td&gt;大成竞争优势A&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;45&lt;/td&gt;&lt;td&gt;161611&lt;/td&gt;&lt;td&gt;融通内需驱动AB&lt;/td&gt;&lt;td&gt;127&lt;/td&gt;&lt;td&gt;000477&lt;/td&gt;&lt;td&gt;广发主题领先A&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;46&lt;/td&gt;&lt;td&gt;202213&lt;/td&gt;&lt;td&gt;南方核心竞争&lt;/td&gt;&lt;td&gt;128&lt;/td&gt;&lt;td&gt;001323&lt;/td&gt;&lt;td&gt;东吴移动互联A&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;47&lt;/td&gt;&lt;td&gt;166009&lt;/td&gt;&lt;td&gt;中欧新动力A&lt;/td&gt;&lt;td&gt;129&lt;/td&gt;&lt;td&gt;000697&lt;/td&gt;&lt;td&gt;汇添富移动互联A&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;48&lt;/td&gt;&lt;td&gt;010549&lt;/td&gt;&lt;td&gt;富国均衡策略&lt;/td&gt;&lt;td&gt;130&lt;/td&gt;&lt;td&gt;001194&lt;/td&gt;&lt;td&gt;景顺长城稳健回报A&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;49&lt;/td&gt;&lt;td&gt;006377&lt;/td&gt;&lt;td&gt;广发趋势动力A&lt;/td&gt;&lt;td&gt;131&lt;/td&gt;&lt;td&gt;002692&lt;/td&gt;&lt;td&gt;富国创新科技A&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;50&lt;/td&gt;&lt;td&gt;014279&lt;/td&gt;&lt;td&gt;汇添富北交所创新精选两年定开A&lt;/td&gt;&lt;td&gt;132&lt;/td&gt;&lt;td&gt;017730&lt;/td&gt;&lt;td&gt;嘉实全球产业升级A&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;51&lt;/td&gt;&lt;td&gt;519003&lt;/td&gt;&lt;td&gt;海富通收益增长&lt;/td&gt;&lt;td&gt;133&lt;/td&gt;&lt;td&gt;501225&lt;/td&gt;&lt;td&gt;景顺长城全球半导体芯片产业A&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;52&lt;/td&gt;&lt;td&gt;005689&lt;/td&gt;&lt;td&gt;中银医疗保健A&lt;/td&gt;&lt;td&gt;134&lt;/td&gt;&lt;td&gt;020966&lt;/td&gt;&lt;td&gt;东吴科技创新A&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;53&lt;/td&gt;&lt;td&gt;007718&lt;/td&gt;&lt;td&gt;中银创新医疗A&lt;/td&gt;&lt;td&gt;135&lt;/td&gt;&lt;td&gt;001513&lt;/td&gt;&lt;td&gt;易方达信息产业A&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;54&lt;/td&gt;&lt;td&gt;006603&lt;/td&gt;&lt;td&gt;嘉实互融精选A&lt;/td&gt;&lt;td&gt;136&lt;/td&gt;&lt;td&gt;010391&lt;/td&gt;&lt;td&gt;易方达战略新兴产业A&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;55&lt;/td&gt;&lt;td&gt;003032&lt;/td&gt;&lt;td&gt;平安医疗健康A&lt;/td&gt;&lt;td&gt;137&lt;/td&gt;&lt;td&gt;014727&lt;/td&gt;&lt;td&gt;易方达成长动力A&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;56&lt;/td&gt;&lt;td&gt;022286&lt;/td&gt;&lt;td&gt;长城医药产业精选A&lt;/td&gt;&lt;td&gt;138&lt;/td&gt;&lt;td&gt;005962&lt;/td&gt;&lt;td&gt;宝盈人工智能A&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;57&lt;/td&gt;&lt;td&gt;015052&lt;/td&gt;&lt;td&gt;东方红医疗升级A&lt;/td&gt;&lt;td&gt;139&lt;/td&gt;&lt;td&gt;009491&lt;/td&gt;&lt;td&gt;宝盈创新驱动A&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;58&lt;/td&gt;&lt;td&gt;001915&lt;/td&gt;&lt;td&gt;宝盈医疗健康沪港深A&lt;/td&gt;&lt;td&gt;140&lt;/td&gt;&lt;td&gt;023451&lt;/td&gt;&lt;td&gt;中欧信息科技A&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;59&lt;/td&gt;&lt;td&gt;470888&lt;/td&gt;&lt;td&gt;汇添富香港优势精选A&lt;/td&gt;&lt;td&gt;141&lt;/td&gt;&lt;td&gt;010350&lt;/td&gt;&lt;td&gt;景顺长城品质长青A&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;60&lt;/td&gt;&lt;td&gt;004877&lt;/td&gt;&lt;td&gt;汇添富全球医疗人民币&lt;/td&gt;&lt;td&gt;142&lt;/td&gt;&lt;td&gt;005774&lt;/td&gt;&lt;td&gt;华夏产业升级A&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;61&lt;/td&gt;&lt;td&gt;010644&lt;/td&gt;&lt;td&gt;富国全球健康生活人民币A&lt;/td&gt;&lt;td&gt;143&lt;/td&gt;&lt;td&gt;011815&lt;/td&gt;&lt;td&gt;恒越优势精选A&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;62&lt;/td&gt;&lt;td&gt;015915&lt;/td&gt;&lt;td&gt;永赢医药创新智选A&lt;/td&gt;&lt;td&gt;144&lt;/td&gt;&lt;td&gt;001404&lt;/td&gt;&lt;td&gt;招商移动互联网A&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;63&lt;/td&gt;&lt;td&gt;005176&lt;/td&gt;&lt;td&gt;富国精准医疗A&lt;/td&gt;&lt;td&gt;145&lt;/td&gt;&lt;td&gt;519674&lt;/td&gt;&lt;td&gt;银河创新成长A&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;64&lt;/td&gt;&lt;td&gt;001801&lt;/td&gt;&lt;td&gt;汇添富达欣A&lt;/td&gt;&lt;td&gt;146&lt;/td&gt;&lt;td&gt;007872&lt;/td&gt;&lt;td&gt;金信稳健策略A&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;65&lt;/td&gt;&lt;td&gt;110023&lt;/td&gt;&lt;td&gt;易方达医疗保健A&lt;/td&gt;&lt;td&gt;147&lt;/td&gt;&lt;td&gt;004616&lt;/td&gt;&lt;td&gt;中欧电子信息产业A&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;66&lt;/td&gt;&lt;td&gt;000591&lt;/td&gt;&lt;td&gt;中银健康生活&lt;/td&gt;&lt;td&gt;148&lt;/td&gt;&lt;td&gt;000534&lt;/td&gt;&lt;td&gt;长盛高端装备制造A&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;67&lt;/td&gt;&lt;td&gt;001044&lt;/td&gt;&lt;td&gt;嘉实新消费A&lt;/td&gt;&lt;td&gt;149&lt;/td&gt;&lt;td&gt;015143&lt;/td&gt;&lt;td&gt;中欧智能制造A&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;68&lt;/td&gt;&lt;td&gt;010421&lt;/td&gt;&lt;td&gt;海富通消费优选A&lt;/td&gt;&lt;td&gt;150&lt;/td&gt;&lt;td&gt;015904&lt;/td&gt;&lt;td&gt;广发新能源精选A&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;69&lt;/td&gt;&lt;td&gt;018438&lt;/td&gt;&lt;td&gt;财通资管品质消费A&lt;/td&gt;&lt;td&gt;151&lt;/td&gt;&lt;td&gt;018939&lt;/td&gt;&lt;td&gt;长城景气成长A&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;70&lt;/td&gt;&lt;td&gt;090016&lt;/td&gt;&lt;td&gt;大成消费主题A&lt;/td&gt;&lt;td&gt;152&lt;/td&gt;&lt;td&gt;002983&lt;/td&gt;&lt;td&gt;长信国防军工A&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;71&lt;/td&gt;&lt;td&gt;019777&lt;/td&gt;&lt;td&gt;鹏扬消费量化选股A&lt;/td&gt;&lt;td&gt;153&lt;/td&gt;&lt;td&gt;018124&lt;/td&gt;&lt;td&gt;永赢先进制造智选A&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;72&lt;/td&gt;&lt;td&gt;010998&lt;/td&gt;&lt;td&gt;博道消费智航A&lt;/td&gt;&lt;td&gt;154&lt;/td&gt;&lt;td&gt;007713&lt;/td&gt;&lt;td&gt;华富科技动能A&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;73&lt;/td&gt;&lt;td&gt;009852&lt;/td&gt;&lt;td&gt;银华品质消费A&lt;/td&gt;&lt;td&gt;155&lt;/td&gt;&lt;td&gt;021489&lt;/td&gt;&lt;td&gt;中航趋势领航A&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;74&lt;/td&gt;&lt;td&gt;013132&lt;/td&gt;&lt;td&gt;创金合信文娱媒体A&lt;/td&gt;&lt;td&gt;156&lt;/td&gt;&lt;td&gt;000969&lt;/td&gt;&lt;td&gt;前海开源大安全核心&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;75&lt;/td&gt;&lt;td&gt;010409&lt;/td&gt;&lt;td&gt;富国消费精选30A&lt;/td&gt;&lt;td&gt;157&lt;/td&gt;&lt;td&gt;004666&lt;/td&gt;&lt;td&gt;长城久嘉创新成长A&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;76&lt;/td&gt;&lt;td&gt;012060&lt;/td&gt;&lt;td&gt;富国全球消费精选A人民币&lt;/td&gt;&lt;td&gt;158&lt;/td&gt;&lt;td&gt;015789&lt;/td&gt;&lt;td&gt;永赢高端装备智选A&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;77&lt;/td&gt;&lt;td&gt;160611&lt;/td&gt;&lt;td&gt;鹏华优质治理A&lt;/td&gt;&lt;td&gt;159&lt;/td&gt;&lt;td&gt;001970&lt;/td&gt;&lt;td&gt;泰信鑫选A&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;78&lt;/td&gt;&lt;td&gt;001725&lt;/td&gt;&lt;td&gt;汇添富中国高端制造A&lt;/td&gt;&lt;td&gt;160&lt;/td&gt;&lt;td&gt;002482&lt;/td&gt;&lt;td&gt;宝盈互联网沪港深&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;79&lt;/td&gt;&lt;td&gt;009891&lt;/td&gt;&lt;td&gt;融通产业趋势臻选A&lt;/td&gt;&lt;td&gt;161&lt;/td&gt;&lt;td&gt;004316&lt;/td&gt;&lt;td&gt;前海开源沪港深裕鑫A&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;80&lt;/td&gt;&lt;td&gt;010141&lt;/td&gt;&lt;td&gt;朱雀企业优选A&lt;/td&gt;&lt;td&gt;162&lt;/td&gt;&lt;td&gt;100061&lt;/td&gt;&lt;td&gt;富国中国中小盘人民币A&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;81&lt;/td&gt;&lt;td&gt;013395&lt;/td&gt;&lt;td&gt;华夏新能源车龙头A&lt;/td&gt;&lt;td&gt;163&lt;/td&gt;&lt;td&gt;007455&lt;/td&gt;&lt;td&gt;富国蓝筹精选人民币&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;82&lt;/td&gt;&lt;td&gt;012079&lt;/td&gt;&lt;td&gt;信澳新能源精选A&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;/tr&gt;&lt;/table&gt;
+资料来源：wind、财信证券（信息提取日：20260204）
+# 3 固收 $^ +$ 基金重点池更新
+近期我们按照含权资产比例，结合产品季报信息，对固收 $^ { + }$ 基金重点池进行了再梳理，增补部分综合市场表现较为稳健的产品，剔除资产配置比例变动较大或投资风格有所漂移的产品。最新固收 $^ +$ 基金重点池（54 只）如下表所列：
+表 4：固收 $+ .$ 基金重点池（54 只）  
+&lt;table&gt;&lt;tr&gt;&lt;td&gt;序号&lt;/td&gt;&lt;td&gt;代码&lt;/td&gt;&lt;td&gt;简称&lt;/td&gt;&lt;td&gt;序号&lt;/td&gt;&lt;td&gt;代码&lt;/td&gt;&lt;td&gt;简称&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;1&lt;/td&gt;&lt;td&gt;001247&lt;/td&gt;&lt;td&gt;华泰柏瑞新利A&lt;/td&gt;&lt;td&gt;28&lt;/td&gt;&lt;td&gt;002474&lt;/td&gt;&lt;td&gt;中邮睿信增强A&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;2&lt;/td&gt;&lt;td&gt;000436&lt;/td&gt;&lt;td&gt;易方达裕惠回报A&lt;/td&gt;&lt;td&gt;29&lt;/td&gt;&lt;td&gt;013650&lt;/td&gt;&lt;td&gt;华安乾煜A&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;3&lt;/td&gt;&lt;td&gt;015716&lt;/td&gt;&lt;td&gt;华夏稳享增利6个月滚动A&lt;/td&gt;&lt;td&gt;30&lt;/td&gt;&lt;td&gt;000385&lt;/td&gt;&lt;td&gt;景顺长城景颐双利A&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;4&lt;/td&gt;&lt;td&gt;010056&lt;/td&gt;&lt;td&gt;平安瑞兴1年持有A&lt;/td&gt;&lt;td&gt;31&lt;/td&gt;&lt;td&gt;217008&lt;/td&gt;&lt;td&gt;招商安本增利C&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;5&lt;/td&gt;&lt;td&gt;018471&lt;/td&gt;&lt;td&gt;南方津享稳健添利A&lt;/td&gt;&lt;td&gt;32&lt;/td&gt;&lt;td&gt;001433&lt;/td&gt;&lt;td&gt;易方达瑞景&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;6&lt;/td&gt;&lt;td&gt;021241&lt;/td&gt;&lt;td&gt;永赢逸享A&lt;/td&gt;&lt;td&gt;33&lt;/td&gt;&lt;td&gt;011786&lt;/td&gt;&lt;td&gt;工银聚安A&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;7&lt;/td&gt;&lt;td&gt;004202&lt;/td&gt;&lt;td&gt;华夏睿磐泰兴A&lt;/td&gt;&lt;td&gt;34&lt;/td&gt;&lt;td&gt;011532&lt;/td&gt;&lt;td&gt;工银聚丰A&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;8&lt;/td&gt;&lt;td&gt;018080&lt;/td&gt;&lt;td&gt;鹏华稳健添利A&lt;/td&gt;&lt;td&gt;35&lt;/td&gt;&lt;td&gt;000058&lt;/td&gt;&lt;td&gt;国联安安泰灵活配置A&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;9&lt;/td&gt;&lt;td&gt;022369&lt;/td&gt;&lt;td&gt;鹏华安益增强A&lt;/td&gt;&lt;td&gt;36&lt;/td&gt;&lt;td&gt;540004&lt;/td&gt;&lt;td&gt;汇丰晋信2026&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;10&lt;/td&gt;&lt;td&gt;014846&lt;/td&gt;&lt;td&gt;博时恒乐A&lt;/td&gt;&lt;td&gt;37&lt;/td&gt;&lt;td&gt;005984&lt;/td&gt;&lt;td&gt;兴业聚华A&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;11&lt;/td&gt;&lt;td&gt;110017&lt;/td&gt;&lt;td&gt;易方达增强回报A&lt;/td&gt;&lt;td&gt;38&lt;/td&gt;&lt;td&gt;003401&lt;/td&gt;&lt;td&gt;工银可转债&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;12&lt;/td&gt;&lt;td&gt;519162&lt;/td&gt;&lt;td&gt;新华增怡A&lt;/td&gt;&lt;td&gt;39&lt;/td&gt;&lt;td&gt;011554&lt;/td&gt;&lt;td&gt;海富通欣利A&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;13&lt;/td&gt;&lt;td&gt;002015&lt;/td&gt;&lt;td&gt;南方荣光A&lt;/td&gt;&lt;td&gt;40&lt;/td&gt;&lt;td&gt;470058&lt;/td&gt;&lt;td&gt;汇添富可转债A&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;14&lt;/td&gt;&lt;td&gt;010923&lt;/td&gt;&lt;td&gt;永赢鑫欣A&lt;/td&gt;&lt;td&gt;41&lt;/td&gt;&lt;td&gt;360013&lt;/td&gt;&lt;td&gt;光大添益A&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;15&lt;/td&gt;&lt;td&gt;001122&lt;/td&gt;&lt;td&gt;鹏华弘利A&lt;/td&gt;&lt;td&gt;42&lt;/td&gt;&lt;td&gt;006030&lt;/td&gt;&lt;td&gt;南方昌元可转债A&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;16&lt;/td&gt;&lt;td&gt;420102&lt;/td&gt;&lt;td&gt;天弘永利债券B&lt;/td&gt;&lt;td&gt;43&lt;/td&gt;&lt;td&gt;005908&lt;/td&gt;&lt;td&gt;华泰保兴尊利A&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;17&lt;/td&gt;&lt;td&gt;001316&lt;/td&gt;&lt;td&gt;安信稳健增值A&lt;/td&gt;&lt;td&gt;44&lt;/td&gt;&lt;td&gt;240018&lt;/td&gt;&lt;td&gt;华宝可转债A&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;18&lt;/td&gt;&lt;td&gt;002009&lt;/td&gt;&lt;td&gt;中欧瑾通A&lt;/td&gt;&lt;td&gt;45&lt;/td&gt;&lt;td&gt;004993&lt;/td&gt;&lt;td&gt;中欧可转债A&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;19&lt;/td&gt;&lt;td&gt;010430&lt;/td&gt;&lt;td&gt;招商安阳A&lt;/td&gt;&lt;td&gt;46&lt;/td&gt;&lt;td&gt;164206&lt;/td&gt;&lt;td&gt;天弘添利C&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;20&lt;/td&gt;&lt;td&gt;018756&lt;/td&gt;&lt;td&gt;睿远稳益增强30天持有A&lt;/td&gt;&lt;td&gt;47&lt;/td&gt;&lt;td&gt;519733&lt;/td&gt;&lt;td&gt;交银强化回报AB&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;21&lt;/td&gt;&lt;td&gt;519753&lt;/td&gt;&lt;td&gt;交银安心收益A&lt;/td&gt;&lt;td&gt;48&lt;/td&gt;&lt;td&gt;004024&lt;/td&gt;&lt;td&gt;华泰保兴尊诚&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;22&lt;/td&gt;&lt;td&gt;016869&lt;/td&gt;&lt;td&gt;景顺长城稳健增益A&lt;/td&gt;&lt;td&gt;49&lt;/td&gt;&lt;td&gt;005159&lt;/td&gt;&lt;td&gt;华泰保兴尊合A&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;23&lt;/td&gt;&lt;td&gt;014000&lt;/td&gt;&lt;td&gt;中欧丰利A&lt;/td&gt;&lt;td&gt;50&lt;/td&gt;&lt;td&gt;360008&lt;/td&gt;&lt;td&gt;光大增利A&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;24&lt;/td&gt;&lt;td&gt;001751&lt;/td&gt;&lt;td&gt;华商信用增强A&lt;/td&gt;&lt;td&gt;51&lt;/td&gt;&lt;td&gt;675111&lt;/td&gt;&lt;td&gt;西部利得汇享A&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;25&lt;/td&gt;&lt;td&gt;180015&lt;/td&gt;&lt;td&gt;银华增强收益A&lt;/td&gt;&lt;td&gt;52&lt;/td&gt;&lt;td&gt;519680&lt;/td&gt;&lt;td&gt;交银增利债券A&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;26&lt;/td&gt;&lt;td&gt;003504&lt;/td&gt;&lt;td&gt;景顺长城景颐丰利A&lt;/td&gt;&lt;td&gt;53&lt;/td&gt;&lt;td&gt;519683&lt;/td&gt;&lt;td&gt;交银双利AB&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;27&lt;/td&gt;&lt;td&gt;040012&lt;/td&gt;&lt;td&gt;华安强化收益A&lt;/td&gt;&lt;td&gt;54&lt;/td&gt;&lt;td&gt;002245&lt;/td&gt;&lt;td&gt;泰康稳健增利A&lt;/td&gt;&lt;/tr&gt;&lt;/table&gt;
+资料来源：wind、财信证券（信息提取日：20260204）
+# 4 香港互认基金重点池更新
+目前香港互认基金中，股票型、混合型、债券型产品规模分别约 681.4 亿、332.2 亿、1541.3 亿人民币，债券型产品规模占比约 $6 0 . 3 \%$ 。
+基于配置及持有体验等因素考虑，我们对香港互认基金重点池的筛选大致遵循 2 个原则：1）侧重大类资产、多域别资产，淡化主题行业因素；2）侧重分红基金份额类别。
+表 5：香港互认基金-债券型重点品种（3只）  
+&lt;table&gt;&lt;tr&gt;&lt;td&gt;序号&lt;/td&gt;&lt;td&gt;代码&lt;/td&gt;&lt;td&gt;简称&lt;/td&gt;&lt;td&gt;说明&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;1&lt;/td&gt;&lt;td&gt;968105&lt;/td&gt;&lt;td&gt;汇丰亚洲债券基金BM2-CNY派息&lt;/td&gt;&lt;td&gt;穿透看，大中国资产占比在30-35%区间，新兴市场资产占比30%以上，发达市场资产占比20%以下。新兴市场相对超配印尼、马来西亚；发达市场包括美国、日本。近3年平均分红比例4.78%。&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;2&lt;/td&gt;&lt;td&gt;968083&lt;/td&gt;&lt;td&gt;汇丰亚洲高入息债券基金BM2-CNY派息&lt;/td&gt;&lt;td&gt;穿透看，大中国资产占比在30-35%区间，新兴市场资产占比30%以上，发达市场资产占比20%以下。新兴市场相对超配泰国、斯里兰卡；发达市场相对超配韩国、英国。近3年平均分红比例5.37%。&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;3&lt;/td&gt;&lt;td&gt;968152&lt;/td&gt;&lt;td&gt;中银香港全天候亚洲债券基金A7-CNY-HDG派息&lt;/td&gt;&lt;td&gt;穿透看，大中国资产占比30%以下，新兴市场发达市场资产在50%以上，新兴市场资产占比较少。近3年平均分红比例3.51%。&lt;/td&gt;&lt;/tr&gt;&lt;/table&gt;
+资料来源：wind、财信证券（数据提取日：20260203）
+表 6：香港互认基金-混合型重点品种（2 只）  
+&lt;table&gt;&lt;tr&gt;&lt;td&gt;序号&lt;/td&gt;&lt;td&gt;代码&lt;/td&gt;&lt;td&gt;简称&lt;/td&gt;&lt;td&gt;说明&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;1&lt;/td&gt;&lt;td&gt;968166&lt;/td&gt;&lt;td&gt;施罗德亚洲高息股债基 金M-RMB派息&lt;/td&gt;&lt;td&gt;权益仓位约65%，债券仓位约23%，暂无商品资产。穿透看， 大中国资产权重约40%、发达市场资产权重约24%、新兴市场 资产权重约9%。近1年分红比例4.96%。&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;2&lt;/td&gt;&lt;td&gt;968175&lt;/td&gt;&lt;td&gt;百达策略收益M-CNY 每月派息&lt;/td&gt;&lt;td&gt;权益仓位约65%，债券仓位约22%，黄金仓位约6%。穿透看， 发达市场资产权重超55%、亚太及新兴市场资产权重约27%。 近1年分红比例3.18%。&lt;/td&gt;&lt;/tr&gt;&lt;/table&gt;
+资料来源：wind、财信证券（数据提取日：20260203）
+表 7：香港互认基金-股票型重点品种（2只）  
+&lt;table&gt;&lt;tr&gt;&lt;td&gt;序号&lt;/td&gt;&lt;td&gt;代码&lt;/td&gt;&lt;td&gt;简称&lt;/td&gt;&lt;td&gt;说明&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;1&lt;/td&gt;&lt;td&gt;968049&lt;/td&gt;&lt;td&gt;摩根亚洲股息基金 -PRC人民币每月派息&lt;/td&gt;&lt;td&gt;穿透看，大中国资产权重约50%、发达市场资产权重约35%、新兴市场资产权重约9%。近3年平均分红比例约2.98%。&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;2&lt;/td&gt;&lt;td&gt;968065&lt;/td&gt;&lt;td&gt;惠理高息股票基金 P-CNY派息&lt;/td&gt;&lt;td&gt;穿透看，大中国资产权重约46%、韩国资产权重约19%、新兴市场资产权重约7%。近3年平均分红比例约3.67%。&lt;/td&gt;&lt;/tr&gt;&lt;/table&gt;
+资料来源：wind、财信证券（数据提取日：20260203）
+# 5 风险提示
+香港互认基金费率较高，因货币计价、对冲与否等因素，不同基金份额综合市场表现或存在一定差异；香港互认基金的申赎，一定程度受额度和渠道限制。
+历史数据不代表未来业绩；跟踪品种为非保本型产品，在极端情况下，可能存在无法完全回收本金的情形；经济、政策等诸多内外因素可能会造成基金的市场风险，影响基金收益水平等。
+# 投资评级系统说明
+以报告发布日后的 6－12 个月内，所评股票/行业涨跌幅相对于同期市场指数的涨跌幅度为基准。
+&lt;table&gt;&lt;tr&gt;&lt;td&gt;类别&lt;/td&gt;&lt;td&gt;投资评级&lt;/td&gt;&lt;td&gt;评级说明&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td rowspan="4"&gt;股票投资评级&lt;/td&gt;&lt;td&gt;买入&lt;/td&gt;&lt;td&gt;投资收益率超越沪深300指数15%以上&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;增持&lt;/td&gt;&lt;td&gt;投资收益率相对沪深300指数变动幅度为5%一15%&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;持有&lt;/td&gt;&lt;td&gt;投资收益率相对沪深300指数变动幅度为-10%一5%&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;卖出&lt;/td&gt;&lt;td&gt;投资收益率落后沪深300指数10%以上&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td rowspan="3"&gt;行业投资评级&lt;/td&gt;&lt;td&gt;领先大市&lt;/td&gt;&lt;td&gt;行业指数涨跌幅超越沪深300指数5%以上&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;同步大市&lt;/td&gt;&lt;td&gt;行业指数涨跌幅相对沪深300指数变动幅度为-5%一5%&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;落后大市&lt;/td&gt;&lt;td&gt;行业指数涨跌幅落后沪深300指数5%以上&lt;/td&gt;&lt;/tr&gt;&lt;/table&gt;
+# 免责声明
+本报告风险等级定为 R3，由财信证券股份有限公司（以下简称“本公司”）制作，本公司具有中国证监会核准的证券投资咨询业务资格。
+根据《证券期货投资者适当性管理办法》，本报告仅供本公司客户中风险评级高于 R3 级（含 R3 级）的投资者使用。本报告对于接收报告的客户而言属于高度机密，只有符合条件的客户才能使用。本公司不会因接收人收到本报告而视其为本公司当然客户。本报告仅在相关法律法规许可的情况下发放，并仅为提供信息而发送，概不构成任何广告。
+本报告所引用信息来源于公开资料，本公司对该信息的准确性、完整性或可靠性不作任何保证。本报告所载的信息、资料、建议及预测仅反映本公司于本报告公开发布当日的判断，且预测方法及结果存在一定程度局限性。在不同时期，本公司可能撰写并发布与本报告所载资料、建议及预测不一致的报告。本公司对已发报告无更新义务，若报告中所含信息发生变化，本公司可在不发出通知的情形下做出修改，投资者应当自行关注相应的更新或修改。
+本报告仅供参考之用，不构成出售或购买证券或其他投资标的要约或邀请。任何情况下，本报告中的信息或所表述的意见均不构成对任何人的投资建议。在任何情况下，本公司及本公司员工或者关联机构不承诺投资者一定获利，不对任何人因使用本报告中的任何内容所引致的任何损失负任何责任。投资者务必注意，其据此作出的任何投资决策与本公司及本公司员工或者关联机构无关，投资者自主作出投资决策并自行承担投资风险。
+市场有风险，投资需谨慎。投资者不应将本报告作为投资决策的唯一参考因素，亦不应认为本报告可以取代自己的判断。在决定投资前，如有需要，投资者务必向专业人士咨询并谨慎决策。本公司或关联机构可能会持有本报告中所提到的公司所发行的证券并进行交易，也可能涉及为该等公司提供或争取提供投资银行、财务顾问、咨询服务、金融产品等相关服务，投资者应充分考虑可能存在的利益冲突。本公司的资产管理部门、自营业务部门及其他投资业务部门可能独立作出与本报告中意见或建议不一致的投资决策。
+本报告版权仅为本公司所有，未经事先书面授权，任何机构和个人（包括本公司客户及员工）均不得以任何形式、任何目的对本报告进行翻版、刊发、转载、复制、发表、篡改、引用或传播，或以任何侵犯本公司版权的其他方式使用，请投资者谨慎使用未经授权刊载、转发或传播的本公司研究报告。经过书面授权的引用、刊载、转发，需注明出处为“财信证券股份有限公司”及发布日期等法律法规规定的相关内容，且不得对本报告进行任何有悖原意的删节和修改。
+本报告由财信证券研究发展中心对许可范围内人员统一发送，任何人不得在公众媒体或其它渠道对外公开发布。任何机构和个人（包括本公司内部客户及员工）对外散发本报告的，则该机构和个人独自为此发送行为负责，本公司不因此承担任何责任并保留对该机构和个人追究相应法律责任的权利。
+# 财信证券研究发展中心
+网址：stock.hnchasing.com
+地址：长沙市岳麓区茶子山东路 112 号湘江财富金融中心 B 座 25楼
+邮编：410005
+电话：0731-84403360
+传真：0731-84403438</t>
+  </si>
+  <si>
+    <t># ETF市场周度更新 (20260206)
+# ——ETF跟踪研究
+2026年2月9日
+# 核心观点
+ETF市场概览：截至2026年2月6日，全市场ETF总数达1424只，整体规模5.32万亿元，周成交额合计3.10万亿元。股票型ETF占据市场主导，宽基类规模占比 $30.16\%$ ，周成交额5234.72亿元；主题类数量占比 $37.08\%$ 规模1.02万亿元。债券型ETF交易最为活跃，周成交额1.37万亿元，占全市场成交额的 $44.21\%$ 。资金流入方面，港股科技、科创及短融类ETF成为核心方向，恒生科技ETF、短融ETF海富通、科创5OETF分别以38.84亿元、32.56亿元、30.31亿元位列资金流入前三，恒生互联网、中概互联网等港股相关ETF及卫星ETF、证券ETF等品种同样迎来资金流入。上周全市场新增10只ETF，均为股票型基金，分布于宽基、主题、跨境三大分类，其中主题类7只、跨境类2只、规模类1只。  
+ETF市场表现：上周核心宽基指数及对应ETF均呈下跌态势，科创类指数跌幅居前，科创创业50、科创50指数分别下跌 $6.09\%$ 、 $5.76\%$ ，创业板指、创业板50指数跌幅超 $3\%$ ，中证500、中证1000指数跌幅超 $2\%$ ，上证50、沪深300等大盘蓝筹类指数跌幅相对较小。行业主题指数表现分化，科技与制造板块中光伏产业指数上涨 $3.13\%$ ，芯片、AI相关指数跌幅超 $7\%$ ；金融地产板块银行类指数上涨，证券、地产指数小幅波动；医药板块中药指数领涨 $2.34\%$ 其余品种小幅涨跌；资源与公共服务板块黄金、有色指数跌幅显著，电力、煤炭指数表现平稳；消费板块旅游、食品饮料指数涨幅超 $3\%$ ，动漫游戏、农业指数小幅下跌。跨境指数中港股消费、高股息类指数上涨，港股科技、恒生50等指数跌幅居前。  
+- 新上市ETF：上周ETF市场共有10只新产品上市，均为股票型基金，覆盖宽基、主题、跨境三大分类。宽基类新ETF仅1只，为创业板ETF汇添富，跟踪创业板指，上市规模2.6352亿元。主题类为上市主力共7只，涵盖有色金属、光伏、船舶、科创芯片设计、科创AI等细分赛道，其中船舶ETF上市规模14.8675亿元，为本次新上市产品中规模最大的一只。跨境类新ETF有2只，分别为港股通科技ETF平安、港股通互联网ETF基金。  
+- 热门高景气细分赛道：本周资金从传统周期板块向科技制造高景气赛道切换，商业航天、电网设备成布局核心，赛道内指数及ETF在规模、收益、流动性上分化显著。商业航天板块中，卫星类指数年初涨幅超 $90\%$ 但本周小幅调整，国证航天、军工龙头指数逆势收涨，卫星ETF获18.29亿元资金流入；通用航空标的规模小、收益偏弱。电网设备板块整体偏强，仅新能源电池指数下跌，电网设备主题指数领涨，恒生A股电网设备指数年初收益近 $100\%$ ，头部ETF规模超百亿，电池类标的规模与收益弹性分层明显。  
+风险提示：报告结论基于历史价格信息和统计规律，但二级市场受各种即时性政策影响易出现统计规律之外的走势，所以报告结论有可能无法正确预测市场发展，报告阅读者需审慎参考报告结论。历史收益不代表未来业绩表现，文中观点仅供参考，不构成投资建议。
+# 分析师
+# 马普凡
+：021-68597610
+: mapufan_yj @chinastock.com.cn
+分析师登记编码：S0130522040002
+# 白拙朴
+$\boxtimes$ : baizhuopu_yj @chinastock.com.cn
+分析师登记编码：S0130525040003
+# 研究助理：童诗倍
+$\boxtimes$ : tongshibei_yj@chinastock.com.cn
+# 目录
+# Catalog
+# 一、ETF市场概览 3
+(一）ETF市场概览. 3   
+（二） 基金资金流入流出情况 3  
+（三）指数资金流入流出情况  
+（四）行业板块资金流入流出情况  
+（五）新上市ETF情况 5
+# 二、核心宽基指数及ETF表现 6
+# 三、行业主题指数及ETF表现
+（一）科技与制造 7  
+（二）金融地产 7  
+（三）医药. 8  
+（四）资源与公共服务 9  
+（五）消费
+# 四、热门高景气细分赛道 10
+（一）商业航天 10  
+（二）电网设备 11
+# 五、跨境指数及ETF表现 12
+# 六、风险提示 14
+# 七、附录 14
+（一）股票型ETF 14  
+（二）国际QDII型ETF 15  
+（三）债券型ETF 15  
+（四）货币市场型ETF 15  
+（五） 另类投资型ETF. 15
+# 一、ETF市场概览
+# （一）ETF市场概览
+截至2026年2月6日，全市场ETF总数达1424只，整体规模5.32万亿元，周成交额合计3.10万亿元。从基金类型分布来看，股票型ETF占据主导地位，其中宽基类股票ETF规模占比最高，达 $30.16\%$ ，周成交额达5234.72亿元，占全市场成交额的 $16.91\%$ ；主题类股票ETF数量占比最高，达 $37.08\%$ ，规模达1.02万亿元，规模占比 $19.11\%$ 。债券型ETF周成交额表现突出，以1.37万亿元的周成交额占比 $44.21\%$ ，成为交易最活跃的品类之一。上周共有10只新ETF上市，主要集中在股票型基金的主题、跨境及宽基分类。
+表1：ETF市场概览  
+&lt;table&gt;&lt;tr&gt;&lt;td&gt;基金类型&lt;/td&gt;&lt;td&gt;分类&lt;/td&gt;&lt;td&gt;基金数量&lt;/td&gt;&lt;td&gt;数量占比&lt;/td&gt;&lt;td&gt;规模(亿元)&lt;/td&gt;&lt;td&gt;规模占比&lt;/td&gt;&lt;td&gt;周成交额(亿元)&lt;/td&gt;&lt;td&gt;成交额占比&lt;/td&gt;&lt;td&gt;新增基金数量&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;股票型基金&lt;/td&gt;&lt;td&gt;策略&lt;/td&gt;&lt;td&gt;108&lt;/td&gt;&lt;td&gt;7.58%&lt;/td&gt;&lt;td&gt;1748.38&lt;/td&gt;&lt;td&gt;3.29%&lt;/td&gt;&lt;td&gt;313.57&lt;/td&gt;&lt;td&gt;1.01%&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;/td&gt;&lt;td&gt;风格&lt;/td&gt;&lt;td&gt;15&lt;/td&gt;&lt;td&gt;1.05%&lt;/td&gt;&lt;td&gt;80.81&lt;/td&gt;&lt;td&gt;0.15%&lt;/td&gt;&lt;td&gt;25.43&lt;/td&gt;&lt;td&gt;0.08%&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;/td&gt;&lt;td&gt;规模&lt;/td&gt;&lt;td&gt;372&lt;/td&gt;&lt;td&gt;26.12%&lt;/td&gt;&lt;td&gt;16030.63&lt;/td&gt;&lt;td&gt;30.16%&lt;/td&gt;&lt;td&gt;5234.72&lt;/td&gt;&lt;td&gt;16.91%&lt;/td&gt;&lt;td&gt;1&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;/td&gt;&lt;td&gt;行业&lt;/td&gt;&lt;td&gt;93&lt;/td&gt;&lt;td&gt;6.53%&lt;/td&gt;&lt;td&gt;3328.11&lt;/td&gt;&lt;td&gt;6.26%&lt;/td&gt;&lt;td&gt;833.33&lt;/td&gt;&lt;td&gt;2.69%&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;/td&gt;&lt;td&gt;主题&lt;/td&gt;&lt;td&gt;528&lt;/td&gt;&lt;td&gt;37.08%&lt;/td&gt;&lt;td&gt;10159.29&lt;/td&gt;&lt;td&gt;19.11%&lt;/td&gt;&lt;td&gt;2874.16&lt;/td&gt;&lt;td&gt;9.28%&lt;/td&gt;&lt;td&gt;7&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;/td&gt;&lt;td&gt;跨境&lt;/td&gt;&lt;td&gt;125&lt;/td&gt;&lt;td&gt;8.78%&lt;/td&gt;&lt;td&gt;4312.89&lt;/td&gt;&lt;td&gt;8.11%&lt;/td&gt;&lt;td&gt;1515.36&lt;/td&gt;&lt;td&gt;4.90%&lt;/td&gt;&lt;td&gt;2&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;货币市场型基金&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;td&gt;27&lt;/td&gt;&lt;td&gt;1.90%&lt;/td&gt;&lt;td&gt;1611.56&lt;/td&gt;&lt;td&gt;3.03%&lt;/td&gt;&lt;td&gt;1716.60&lt;/td&gt;&lt;td&gt;5.55%&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;另类投资基金&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;td&gt;17&lt;/td&gt;&lt;td&gt;1.19%&lt;/td&gt;&lt;td&gt;3223.50&lt;/td&gt;&lt;td&gt;6.06%&lt;/td&gt;&lt;td&gt;2026.95&lt;/td&gt;&lt;td&gt;6.55%&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;债券型基金&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;td&gt;53&lt;/td&gt;&lt;td&gt;3.72%&lt;/td&gt;&lt;td&gt;7218.59&lt;/td&gt;&lt;td&gt;13.58%&lt;/td&gt;&lt;td&gt;13686.11&lt;/td&gt;&lt;td&gt;44.21%&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;国际(QDII)基金&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;td&gt;86&lt;/td&gt;&lt;td&gt;6.04%&lt;/td&gt;&lt;td&gt;5441.60&lt;/td&gt;&lt;td&gt;10.24%&lt;/td&gt;&lt;td&gt;2729.54&lt;/td&gt;&lt;td&gt;8.82%&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;合计&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;td&gt;1424&lt;/td&gt;&lt;td&gt;100.00%&lt;/td&gt;&lt;td&gt;53155.36&lt;/td&gt;&lt;td&gt;100.00%&lt;/td&gt;&lt;td&gt;30955.76&lt;/td&gt;&lt;td&gt;100.00%&lt;/td&gt;&lt;td&gt;10&lt;/td&gt;&lt;/tr&gt;&lt;/table&gt;
+资料来源：Wind、中国银河证券研究院
+# （二）基金资金流入流出情况
+上周ETF市场资金流入方面，资金流入Top10榜单中，恒生科技ETF以38.84亿元的资金流入规模位居榜首，周涨跌幅为 $-6.92\%$ ，周成交额342.26亿元；短融ETF海富通以32.56亿元的资金流入规模紧随其后，周成交额达2558.34亿元。科创50ETF和恒生互联网ETF也分别获得30.31亿元、27.28亿元资金净流入。
+表2：基金资金流入 Top10  
+&lt;table&gt;&lt;tr&gt;&lt;td&gt;基金代码&lt;/td&gt;&lt;td&gt;基金名称&lt;/td&gt;&lt;td&gt;最新规模(亿元)&lt;/td&gt;&lt;td&gt;资金流入规模(亿元)&lt;/td&gt;&lt;td&gt;周涨跌幅（%）&lt;/td&gt;&lt;td&gt;周成交额（亿元）&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;513130.SH&lt;/td&gt;&lt;td&gt;恒生科技 ETF&lt;/td&gt;&lt;td&gt;472.66&lt;/td&gt;&lt;td&gt;38.84&lt;/td&gt;&lt;td&gt;-6.92&lt;/td&gt;&lt;td&gt;341.26&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;511360.SH&lt;/td&gt;&lt;td&gt;短融 ETF 海富通&lt;/td&gt;&lt;td&gt;681.45&lt;/td&gt;&lt;td&gt;32.56&lt;/td&gt;&lt;td&gt;0.03&lt;/td&gt;&lt;td&gt;2558.34&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;588000.SH&lt;/td&gt;&lt;td&gt;科创 50ETF&lt;/td&gt;&lt;td&gt;784.59&lt;/td&gt;&lt;td&gt;30.31&lt;/td&gt;&lt;td&gt;-5.60&lt;/td&gt;&lt;td&gt;218.10&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;513330.SH&lt;/td&gt;&lt;td&gt;恒生互联网 ETF&lt;/td&gt;&lt;td&gt;364.91&lt;/td&gt;&lt;td&gt;27.28&lt;/td&gt;&lt;td&gt;-7.92&lt;/td&gt;&lt;td&gt;217.44&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;513180.SH&lt;/td&gt;&lt;td&gt;恒生科技指数 ETF&lt;/td&gt;&lt;td&gt;515.30&lt;/td&gt;&lt;td&gt;25.42&lt;/td&gt;&lt;td&gt;-6.78&lt;/td&gt;&lt;td&gt;325.21&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;513050.SH&lt;/td&gt;&lt;td&gt;中概互联网 ETF 易方达&lt;/td&gt;&lt;td&gt;418.19&lt;/td&gt;&lt;td&gt;23.01&lt;/td&gt;&lt;td&gt;-7.75&lt;/td&gt;&lt;td&gt;157.30&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;513010.SH&lt;/td&gt;&lt;td&gt;恒生科技 ETF 易方达&lt;/td&gt;&lt;td&gt;291.02&lt;/td&gt;&lt;td&gt;18.00&lt;/td&gt;&lt;td&gt;-6.61&lt;/td&gt;&lt;td&gt;73.09&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;159915.SZ&lt;/td&gt;&lt;td&gt;创业板ETF易方达&lt;/td&gt;&lt;td&gt;627.57&lt;/td&gt;&lt;td&gt;17.65&lt;/td&gt;&lt;td&gt;-3.18&lt;/td&gt;&lt;td&gt;176.51&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;159206.SZ&lt;/td&gt;&lt;td&gt;卫星ETF&lt;/td&gt;&lt;td&gt;185.70&lt;/td&gt;&lt;td&gt;18.29&lt;/td&gt;&lt;td&gt;-2.80&lt;/td&gt;&lt;td&gt;88.95&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;512880.SH&lt;/td&gt;&lt;td&gt;证券ETF&lt;/td&gt;&lt;td&gt;567.51&lt;/td&gt;&lt;td&gt;12.27&lt;/td&gt;&lt;td&gt;-0.67&lt;/td&gt;&lt;td&gt;106.30&lt;/td&gt;&lt;/tr&gt;&lt;/table&gt;
+资料来源：Wind、中国银河证券研究院
+资金流出方面，中证500ETF流出107.94亿元，周涨跌幅为 $-2.69\%$ ，轴承金额为494.84亿元，其次是沪深300ETF华泰柏瑞流出56.96亿元，有色金属相关的两只ETF也分别出现54.60亿元和46.95亿元资金流出。
+表3：基金资金流出 Top10  
+&lt;table&gt;&lt;tr&gt;&lt;td&gt;基金代码&lt;/td&gt;&lt;td&gt;基金名称&lt;/td&gt;&lt;td&gt;最新规模(亿元)&lt;/td&gt;&lt;td&gt;资金流入规模(亿元)&lt;/td&gt;&lt;td&gt;周涨跌幅 (%)&lt;/td&gt;&lt;td&gt;周成交额（亿元）&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;510500.SH&lt;/td&gt;&lt;td&gt;中证 500ETF&lt;/td&gt;&lt;td&gt;927.71&lt;/td&gt;&lt;td&gt;-107.94&lt;/td&gt;&lt;td&gt;-2.69&lt;/td&gt;&lt;td&gt;494.84&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;510300.SH&lt;/td&gt;&lt;td&gt;沪深 300ETF 华泰柏瑞&lt;/td&gt;&lt;td&gt;2208.55&lt;/td&gt;&lt;td&gt;-56.96&lt;/td&gt;&lt;td&gt;-1.32&lt;/td&gt;&lt;td&gt;305.67&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;512400.SH&lt;/td&gt;&lt;td&gt;有色金属 ETF&lt;/td&gt;&lt;td&gt;352.65&lt;/td&gt;&lt;td&gt;-54.60&lt;/td&gt;&lt;td&gt;-7.95&lt;/td&gt;&lt;td&gt;146.88&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;516650.SH&lt;/td&gt;&lt;td&gt;有色金属 ETF 基金&lt;/td&gt;&lt;td&gt;167.28&lt;/td&gt;&lt;td&gt;-46.95&lt;/td&gt;&lt;td&gt;-8.28&lt;/td&gt;&lt;td&gt;69.13&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;159600.SZ&lt;/td&gt;&lt;td&gt;科创债 ETF 嘉实&lt;/td&gt;&lt;td&gt;228.71&lt;/td&gt;&lt;td&gt;-42.31&lt;/td&gt;&lt;td&gt;0.05&lt;/td&gt;&lt;td&gt;233.03&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;517520.SH&lt;/td&gt;&lt;td&gt;黄金股 ETF&lt;/td&gt;&lt;td&gt;152.17&lt;/td&gt;&lt;td&gt;-30.70&lt;/td&gt;&lt;td&gt;-11.71&lt;/td&gt;&lt;td&gt;68.16&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;159845.SZ&lt;/td&gt;&lt;td&gt;中证 1000ETF&lt;/td&gt;&lt;td&gt;139.63&lt;/td&gt;&lt;td&gt;-20.83&lt;/td&gt;&lt;td&gt;-2.61&lt;/td&gt;&lt;td&gt;132.68&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;512100.SH&lt;/td&gt;&lt;td&gt;中证 1000ETF&lt;/td&gt;&lt;td&gt;324.07&lt;/td&gt;&lt;td&gt;-21.36&lt;/td&gt;&lt;td&gt;-2.72&lt;/td&gt;&lt;td&gt;172.22&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;518880.SH&lt;/td&gt;&lt;td&gt;黄金 ETF&lt;/td&gt;&lt;td&gt;1177.04&lt;/td&gt;&lt;td&gt;-19.69&lt;/td&gt;&lt;td&gt;-5.92&lt;/td&gt;&lt;td&gt;952.63&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;159934.SZ&lt;/td&gt;&lt;td&gt;黄金 ETF 易方达&lt;/td&gt;&lt;td&gt;430.78&lt;/td&gt;&lt;td&gt;-13.09&lt;/td&gt;&lt;td&gt;-6.14&lt;/td&gt;&lt;td&gt;296.13&lt;/td&gt;&lt;/tr&gt;&lt;/table&gt;
+资料来源：Wind、中国银河证券研究院
+# （三）指数资金流入流出情况
+指数层面，恒生科技指数以11.43亿元的资金流入规模领跑，周涨跌幅达 $-6.51\%$ ，最新规模1952.96亿元；科创50指数紧随其后，资金流入50.06亿元，周涨幅 $-5.76\%$ 。恒生互联网科技业、中国互联网50等科技相关指数也均获得较大资金流入。
+表4：指数资金流入 Top10  
+&lt;table&gt;&lt;tr&gt;&lt;td&gt;指数代码&lt;/td&gt;&lt;td&gt;指数名称&lt;/td&gt;&lt;td&gt;最新规模(亿元)&lt;/td&gt;&lt;td&gt;资金流入规模(亿元)&lt;/td&gt;&lt;td&gt;周涨跌幅(%)&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;HSTECH.HI&lt;/td&gt;&lt;td&gt;恒生科技&lt;/td&gt;&lt;td&gt;1952.96&lt;/td&gt;&lt;td&gt;111.43&lt;/td&gt;&lt;td&gt;-6.51&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;000688.SH&lt;/td&gt;&lt;td&gt;科创50&lt;/td&gt;&lt;td&gt;1498.77&lt;/td&gt;&lt;td&gt;50.06&lt;/td&gt;&lt;td&gt;-5.76&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;h11014.CSI&lt;/td&gt;&lt;td&gt;中证短融&lt;/td&gt;&lt;td&gt;681.45&lt;/td&gt;&lt;td&gt;32.56&lt;/td&gt;&lt;td&gt;0.03&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;HSIII.HI&lt;/td&gt;&lt;td&gt;恒生互联网科技业&lt;/td&gt;&lt;td&gt;392.95&lt;/td&gt;&lt;td&gt;28.08&lt;/td&gt;&lt;td&gt;-7.54&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;399006.SZ&lt;/td&gt;&lt;td&gt;创业板指&lt;/td&gt;&lt;td&gt;958.31&lt;/td&gt;&lt;td&gt;25.27&lt;/td&gt;&lt;td&gt;-3.28&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;399975.SZ&lt;/td&gt;&lt;td&gt;证券公司&lt;/td&gt;&lt;td&gt;1354.04&lt;/td&gt;&lt;td&gt;25.25&lt;/td&gt;&lt;td&gt;-0.64&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;h30533.CSI&lt;/td&gt;&lt;td&gt;中国互联网50&lt;/td&gt;&lt;td&gt;418.19&lt;/td&gt;&lt;td&gt;23.01&lt;/td&gt;&lt;td&gt;-7.24&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;980018.CNI&lt;/td&gt;&lt;td&gt;卫星通信&lt;/td&gt;&lt;td&gt;182.20&lt;/td&gt;&lt;td&gt;14.75&lt;/td&gt;&lt;td&gt;-3.03&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;930713.CSI&lt;/td&gt;&lt;td&gt;CS 人工智&lt;/td&gt;&lt;td&gt;387.25&lt;/td&gt;&lt;td&gt;14.11&lt;/td&gt;&lt;td&gt;-8.57&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;000685.SH&lt;/td&gt;&lt;td&gt;科创芯片&lt;/td&gt;&lt;td&gt;642.19&lt;/td&gt;&lt;td&gt;13.61&lt;/td&gt;&lt;td&gt;-8.23&lt;/td&gt;&lt;/tr&gt;&lt;/table&gt;
+资料来源：Wind、中国银河证券研究院
+资金流出方面，中证500资金流出最多，为118.58亿元，最新规模1413.46亿元；AAA科创债、沪深300、有色金属等宽基指数分别流出69.92亿元、64.51亿元、54.60亿元。
+表5：指数资金流出 Top10  
+&lt;table&gt;&lt;tr&gt;&lt;td&gt;指数代码&lt;/td&gt;&lt;td&gt;指数名称&lt;/td&gt;&lt;td&gt;最新规模(亿元)&lt;/td&gt;&lt;td&gt;资金流入规模(亿元)&lt;/td&gt;&lt;td&gt;周涨跌幅(%)&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;000905.SH&lt;/td&gt;&lt;td&gt;中证 500&lt;/td&gt;&lt;td&gt;1413.46&lt;/td&gt;&lt;td&gt;-118.58&lt;/td&gt;&lt;td&gt;-2.68&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;932160.CSI&lt;/td&gt;&lt;td&gt;AAA 科创债&lt;/td&gt;&lt;td&gt;2129.83&lt;/td&gt;&lt;td&gt;-69.92&lt;/td&gt;&lt;td&gt;0.03&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;000300.SH&lt;/td&gt;&lt;td&gt;沪深 300&lt;/td&gt;&lt;td&gt;5969.34&lt;/td&gt;&lt;td&gt;-64.51&lt;/td&gt;&lt;td&gt;-1.33&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;000819.SH&lt;/td&gt;&lt;td&gt;有色金属&lt;/td&gt;&lt;td&gt;352.65&lt;/td&gt;&lt;td&gt;-54.60&lt;/td&gt;&lt;td&gt;-9.22&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;000852.SH&lt;/td&gt;&lt;td&gt;中证 1000&lt;/td&gt;&lt;td&gt;590.11&lt;/td&gt;&lt;td&gt;-52.99&lt;/td&gt;&lt;td&gt;-2.46&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;000811.CSI&lt;/td&gt;&lt;td&gt;细分有色&lt;/td&gt;&lt;td&gt;228.73&lt;/td&gt;&lt;td&gt;-50.09&lt;/td&gt;&lt;td&gt;-9.16&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;931238.CSI&lt;/td&gt;&lt;td&gt;SSH 黄金股票&lt;/td&gt;&lt;td&gt;263.86&lt;/td&gt;&lt;td&gt;-39.01&lt;/td&gt;&lt;td&gt;-12.68&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Au9999.SGE&lt;/td&gt;&lt;td&gt;SGE 黄金 9999&lt;/td&gt;&lt;td&gt;2787.65&lt;/td&gt;&lt;td&gt;-37.89&lt;/td&gt;&lt;td&gt;-6.91&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;000016.SH&lt;/td&gt;&lt;td&gt;上证 50&lt;/td&gt;&lt;td&gt;852.93&lt;/td&gt;&lt;td&gt;-20.67&lt;/td&gt;&lt;td&gt;-0.93&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;950245.CSI&lt;/td&gt;&lt;td&gt;沪做市公司债&lt;/td&gt;&lt;td&gt;644.23&lt;/td&gt;&lt;td&gt;-20.47&lt;/td&gt;&lt;td&gt;0.03&lt;/td&gt;&lt;/tr&gt;&lt;/table&gt;
+资料来源：Wind、中国银河证券研究院
+# （四）行业板块资金流入流出情况
+上周各行业板块资金流向方面，科技与制造类板共吸引122.64亿元资金净流入，金融地产、消费板块分别净流入42.73亿元、17.77亿元，资源与公共服务板块成为资金流出最多的板块，净流出178.12亿元。
+图1：行业板块资金流动规模（单位：亿元）  
+![](images/65893df301b681b9d3e49197c668582ed85d15575e5e4efde4e114b29b570497.jpg)  
+资料来源：中国银河证券研究院
+# （五）新上市ETF情况
+上周ETF市场迎来10只新上市产品，覆盖宽基、主题、跨境等多个领域，产品类型丰富多元。其中，宽基类新ETF仅创业板ETF汇添富一只，跟踪创业板指，上市规模2.64亿元。主题类新
+ETF成为上市主力，共7只，涵盖有色金属、光伏、船舶、科创芯片设计、科创AI等多个细分赛道，其中船舶ETF上市规模14.87亿元，为本次新上市ETF中规模最大的产品，有色金属ETF天弘规模也达10.73亿元。跨境类新ETF有2只，分别为港股通科技ETF平安和港股通互联网ETF基金，上市规模分别为9.29亿元、7.40亿元。
+表6：最新上市 ETF  
+&lt;table&gt;&lt;tr&gt;&lt;td&gt;ETF代码&lt;/td&gt;&lt;td&gt;ETF名称&lt;/td&gt;&lt;td&gt;跟踪指数代码&lt;/td&gt;&lt;td&gt;跟踪指数名称&lt;/td&gt;&lt;td&gt;上市日期&lt;/td&gt;&lt;td&gt;规模(亿元)&lt;/td&gt;&lt;td&gt;基金资产类型&lt;/td&gt;&lt;td&gt;基金分类&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;159247.SZ&lt;/td&gt;&lt;td&gt;创业板ETF汇添富&lt;/td&gt;&lt;td&gt;399006.SZ&lt;/td&gt;&lt;td&gt;创业板指&lt;/td&gt;&lt;td&gt;2026-02-02&lt;/td&gt;&lt;td&gt;2.6352&lt;/td&gt;&lt;td&gt;股票型基金&lt;/td&gt;&lt;td&gt;规模&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;159157.SZ&lt;/td&gt;&lt;td&gt;有色金属ETF天弘&lt;/td&gt;&lt;td&gt;h11059.CSI&lt;/td&gt;&lt;td&gt;工业有色&lt;/td&gt;&lt;td&gt;2026-02-06&lt;/td&gt;&lt;td&gt;10.7273&lt;/td&gt;&lt;td&gt;股票型基金&lt;/td&gt;&lt;td&gt;主题&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;516230.SH&lt;/td&gt;&lt;td&gt;光伏ETF招商&lt;/td&gt;&lt;td&gt;931151.CSI&lt;/td&gt;&lt;td&gt;光伏产业&lt;/td&gt;&lt;td&gt;2026-02-03&lt;/td&gt;&lt;td&gt;2.2975&lt;/td&gt;&lt;td&gt;股票型基金&lt;/td&gt;&lt;td&gt;主题&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;560230.SH&lt;/td&gt;&lt;td&gt;光伏ETF富国&lt;/td&gt;&lt;td&gt;931151.CSI&lt;/td&gt;&lt;td&gt;光伏产业&lt;/td&gt;&lt;td&gt;2026-02-06&lt;/td&gt;&lt;td&gt;3.6365&lt;/td&gt;&lt;td&gt;股票型基金&lt;/td&gt;&lt;td&gt;主题&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;560290.SH&lt;/td&gt;&lt;td&gt;有色ETF景顺&lt;/td&gt;&lt;td&gt;931892.CSI&lt;/td&gt;&lt;td&gt;有色矿业&lt;/td&gt;&lt;td&gt;2026-02-06&lt;/td&gt;&lt;td&gt;5.2532&lt;/td&gt;&lt;td&gt;股票型基金&lt;/td&gt;&lt;td&gt;主题&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;560710.SH&lt;/td&gt;&lt;td&gt;船舶ETF&lt;/td&gt;&lt;td&gt;932420.CSI&lt;/td&gt;&lt;td&gt;智选船舶产业&lt;/td&gt;&lt;td&gt;2026-02-06&lt;/td&gt;&lt;td&gt;14.8675&lt;/td&gt;&lt;td&gt;股票型基金&lt;/td&gt;&lt;td&gt;主题&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;589170.SH&lt;/td&gt;&lt;td&gt;科创芯片设计ETF鹏华&lt;/td&gt;&lt;td&gt;950162.CSI&lt;/td&gt;&lt;td&gt;科创芯片设计&lt;/td&gt;&lt;td&gt;2026-02-06&lt;/td&gt;&lt;td&gt;5.4798&lt;/td&gt;&lt;td&gt;股票型基金&lt;/td&gt;&lt;td&gt;主题&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;589230.SH&lt;/td&gt;&lt;td&gt;科创人工智能ETF南方&lt;/td&gt;&lt;td&gt;950180.CSI&lt;/td&gt;&lt;td&gt;科创AI&lt;/td&gt;&lt;td&gt;2026-02-02&lt;/td&gt;&lt;td&gt;5.1345&lt;/td&gt;&lt;td&gt;股票型基金&lt;/td&gt;&lt;td&gt;主题&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;159152.SZ&lt;/td&gt;&lt;td&gt;港股通科技ETF平安&lt;/td&gt;&lt;td&gt;HSSCITI.HI&lt;/td&gt;&lt;td&gt;恒生港股通科技主题&lt;/td&gt;&lt;td&gt;2026-02-03&lt;/td&gt;&lt;td&gt;9.2881&lt;/td&gt;&lt;td&gt;股票型基金&lt;/td&gt;&lt;td&gt;跨境&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;520910.SH&lt;/td&gt;&lt;td&gt;港股通互联网ETF基金&lt;/td&gt;&lt;td&gt;931637.CSI&lt;/td&gt;&lt;td&gt;港股通互联网&lt;/td&gt;&lt;td&gt;2026-02-02&lt;/td&gt;&lt;td&gt;7.398&lt;/td&gt;&lt;td&gt;股票型基金&lt;/td&gt;&lt;td&gt;跨境&lt;/td&gt;&lt;/tr&gt;&lt;/table&gt;
+资料来源：Wind、中国银河证券研究院
+# 二、核心宽基指数及ETF表现
+上周核心宽基指数表现不同程度的下跌，整体表现偏弱，科创类指数跌幅居前，而大盘蓝筹类指数相对抗跌，年初以来各指数依旧保持可观的正收益。具体来看，科创创业50指数周收益率 $-6.09\%$ ，科创50指数周收益率 $-5.76\%$ ，成为跌幅最大的两大宽基指数，对应的科创创业ETF、科创50ETF分别下跌 $5.72\%$ 、 $5.60\%$ 。创业板指、创业板50指数分别下跌 $3.28\%$ 、 $3.68\%$ ，中证500、中证1000指数跌幅也超 $2\%$ ，对应ETF表现与指数基本同步。大盘蓝筹类指数跌幅相对较小，上证50指数周跌 $0.93\%$ ，沪深300指数下跌 $1.33\%$ ，对应的上证50ETF(510050.SH)、沪深300ETF(510300.SH)跌幅均在 $1.5\%$ 以内，表现相对抗跌。从年初以来收益看，科创创业50、创业板50、创业板指指数收益率均超 $50\%$ ，中证500指数也达 $42.28\%$ ，宽基指数长期收益表现亮眼。
+表7：核心宽基指数及 ETF 表现跟踪  
+&lt;table&gt;&lt;tr&gt;&lt;td&gt;指数代码&lt;/td&gt;&lt;td&gt;指数简称&lt;/td&gt;&lt;td&gt;基金数
+量&lt;/td&gt;&lt;td&gt;规模（亿
+元）&lt;/td&gt;&lt;td&gt;周收益
+率&lt;/td&gt;&lt;td&gt;年初以来收益
+率&lt;/td&gt;&lt;td&gt;代表基金代
+码&lt;/td&gt;&lt;td&gt;代表基金简称&lt;/td&gt;&lt;td&gt;最新规模（亿
+元）&lt;/td&gt;&lt;td&gt;周收益
+率&lt;/td&gt;&lt;td&gt;周波动
+率&lt;/td&gt;&lt;td&gt;融资买入额（亿
+元）&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;000300.SH&lt;/td&gt;&lt;td&gt;沪深300&lt;/td&gt;&lt;td&gt;30&lt;/td&gt;&lt;td&gt;5969.34&lt;/td&gt;&lt;td&gt;-1.33%&lt;/td&gt;&lt;td&gt;18.01%&lt;/td&gt;&lt;td&gt;510300.SH&lt;/td&gt;&lt;td&gt;沪深300ETF&lt;/td&gt;&lt;td&gt;2208.55&lt;/td&gt;&lt;td&gt;-1.32%&lt;/td&gt;&lt;td&gt;1.48%&lt;/td&gt;&lt;td&gt;12.11&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;000510.SH&lt;/td&gt;&lt;td&gt;中证A500&lt;/td&gt;&lt;td&gt;40&lt;/td&gt;&lt;td&gt;2723.27&lt;/td&gt;&lt;td&gt;-1.80%&lt;/td&gt;&lt;td&gt;25.67%&lt;/td&gt;&lt;td&gt;563360.SH&lt;/td&gt;&lt;td&gt;A500ETF华泰
+柏瑞&lt;/td&gt;&lt;td&gt;460.34&lt;/td&gt;&lt;td&gt;-1.90%&lt;/td&gt;&lt;td&gt;1.94%&lt;/td&gt;&lt;td&gt;1.69&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;000016.SH&lt;/td&gt;&lt;td&gt;上证50&lt;/td&gt;&lt;td&gt;12&lt;/td&gt;&lt;td&gt;852.93&lt;/td&gt;&lt;td&gt;-0.93%&lt;/td&gt;&lt;td&gt;13.15%&lt;/td&gt;&lt;td&gt;510050.SH&lt;/td&gt;&lt;td&gt;上证50ETF&lt;/td&gt;&lt;td&gt;780.00&lt;/td&gt;&lt;td&gt;-1.02%&lt;/td&gt;&lt;td&gt;1.35%&lt;/td&gt;&lt;td&gt;8.94&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;000905.SH&lt;/td&gt;&lt;td&gt;中证500&lt;/td&gt;&lt;td&gt;29&lt;/td&gt;&lt;td&gt;1413.46&lt;/td&gt;&lt;td&gt;-2.68%&lt;/td&gt;&lt;td&gt;42.28%&lt;/td&gt;&lt;td&gt;510500.SH&lt;/td&gt;&lt;td&gt;中证500ETF&lt;/td&gt;&lt;td&gt;927.71&lt;/td&gt;&lt;td&gt;-2.69%&lt;/td&gt;&lt;td&gt;3.16%&lt;/td&gt;&lt;td&gt;28.71&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;000688.SH&lt;/td&gt;&lt;td&gt;科创50&lt;/td&gt;&lt;td&gt;19&lt;/td&gt;&lt;td&gt;1498.77&lt;/td&gt;&lt;td&gt;-5.76%&lt;/td&gt;&lt;td&gt;43.83%&lt;/td&gt;&lt;td&gt;588000.SH&lt;/td&gt;&lt;td&gt;科创50ETF&lt;/td&gt;&lt;td&gt;784.59&lt;/td&gt;&lt;td&gt;-5.60%&lt;/td&gt;&lt;td&gt;1.83%&lt;/td&gt;&lt;td&gt;27.73&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;000852.SH&lt;/td&gt;&lt;td&gt;中证1000&lt;/td&gt;&lt;td&gt;15&lt;/td&gt;&lt;td&gt;590.11&lt;/td&gt;&lt;td&gt;-2.46%&lt;/td&gt;&lt;td&gt;35.15%&lt;/td&gt;&lt;td&gt;512100.SH&lt;/td&gt;&lt;td&gt;中证1000ETF&lt;/td&gt;&lt;td&gt;324.07&lt;/td&gt;&lt;td&gt;-2.72%&lt;/td&gt;&lt;td&gt;2.76%&lt;/td&gt;&lt;td&gt;10.19&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;399006.SZ&lt;/td&gt;&lt;td&gt;创业板指&lt;/td&gt;&lt;td&gt;17&lt;/td&gt;&lt;td&gt;958.31&lt;/td&gt;&lt;td&gt;-3.28%&lt;/td&gt;&lt;td&gt;51.12%&lt;/td&gt;&lt;td&gt;159915.SZ&lt;/td&gt;&lt;td&gt;创业板ETF&lt;/td&gt;&lt;td&gt;627.57&lt;/td&gt;&lt;td&gt;-3.18%&lt;/td&gt;&lt;td&gt;1.68%&lt;/td&gt;&lt;td&gt;13.94&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;399673.SZ&lt;/td&gt;&lt;td&gt;创业板50&lt;/td&gt;&lt;td&gt;12&lt;/td&gt;&lt;td&gt;323.31&lt;/td&gt;&lt;td&gt;-3.68%&lt;/td&gt;&lt;td&gt;57.24%&lt;/td&gt;&lt;td&gt;159949.SZ&lt;/td&gt;&lt;td&gt;创业板50ETF&lt;/td&gt;&lt;td&gt;231.48&lt;/td&gt;&lt;td&gt;-3.68%&lt;/td&gt;&lt;td&gt;1.54%&lt;/td&gt;&lt;td&gt;3.47&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;931643.CSI&lt;/td&gt;&lt;td&gt;科创创业50&lt;/td&gt;&lt;td&gt;15&lt;/td&gt;&lt;td&gt;329.68&lt;/td&gt;&lt;td&gt;-6.09%&lt;/td&gt;&lt;td&gt;58.96%&lt;/td&gt;&lt;td&gt;159781.SZ&lt;/td&gt;&lt;td&gt;科创创业ETF&lt;/td&gt;&lt;td&gt;112.40&lt;/td&gt;&lt;td&gt;-5.72%&lt;/td&gt;&lt;td&gt;1.10%&lt;/td&gt;&lt;td&gt;0.77&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;000010.SH&lt;/td&gt;&lt;td&gt;上证180&lt;/td&gt;&lt;td&gt;10&lt;/td&gt;&lt;td&gt;242.80&lt;/td&gt;&lt;td&gt;-1.45%&lt;/td&gt;&lt;td&gt;17.77%&lt;/td&gt;&lt;td&gt;510180.SH&lt;/td&gt;&lt;td&gt;上证180ETF&lt;/td&gt;&lt;td&gt;231.04&lt;/td&gt;&lt;td&gt;-1.43%&lt;/td&gt;&lt;td&gt;1.66%&lt;/td&gt;&lt;td&gt;0.05&lt;/td&gt;&lt;/tr&gt;&lt;/table&gt;
+资料来源：Wind、中国银河证券研究院
+# 三、行业主题指数及ETF表现
+# （一）科技与制造
+上周科技与制造板块表现分化显著，光伏产业成为唯一实现正收益的细分赛道，芯片、人工智能、科创AI等科技品种则遭遇大幅下跌，机器人等制造类品种表现相对抗跌。光伏产业指数周收益率 $3.13\%$ ，对应的光伏ETF上涨 $3.18\%$ ，成为板块内的领涨品种，也是为数不多实现正收益的科技制造类指数。芯片、AI相关品种跌幅居前，CS人工智能指数跌 $8.57\%$ ，科创AI指数跌 $8.43\%$ ，科创芯片、国证芯片指数跌幅均超 $7\%$ ，对应ETF跌幅与指数基本一致。制造类品种表现相对稳健，机器人指数下跌 $1.30\%$ ，远小于科技类品种的跌幅，机器人ETF也保持相对抗跌态势。从年初以来收益看，科创芯片指数涨幅达 $74.97\%$ ，CS人工智能、科创AI指数也超 $60\%$ 。
+表8：科技与制造指数及 ETF 表现跟踪  
+&lt;table&gt;&lt;tr&gt;&lt;td&gt;指数代码&lt;/td&gt;&lt;td&gt;指数简称&lt;/td&gt;&lt;td&gt;基金数量&lt;/td&gt;&lt;td&gt;规模 (亿元)&lt;/td&gt;&lt;td&gt;周收益率&lt;/td&gt;&lt;td&gt;年初以来收益率&lt;/td&gt;&lt;td&gt;代表基金代码&lt;/td&gt;&lt;td&gt;代表基金简称&lt;/td&gt;&lt;td&gt;最新规模 (亿元)&lt;/td&gt;&lt;td&gt;周收益率&lt;/td&gt;&lt;td&gt;周波动率&lt;/td&gt;&lt;td&gt;融资买入额 (亿元)&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;000685.SH&lt;/td&gt;&lt;td&gt;科创芯片&lt;/td&gt;&lt;td&gt;11&lt;/td&gt;&lt;td&gt;642.19&lt;/td&gt;&lt;td&gt;-8.23%&lt;/td&gt;&lt;td&gt;74.97%&lt;/td&gt;&lt;td&gt;588200.SH&lt;/td&gt;&lt;td&gt;科创芯片 ETF&lt;/td&gt;&lt;td&gt;473.02&lt;/td&gt;&lt;td&gt;-8.21%&lt;/td&gt;&lt;td&gt;2.41%&lt;/td&gt;&lt;td&gt;11.68&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;980017.CNI&lt;/td&gt;&lt;td&gt;国证芯片(CNI)&lt;/td&gt;&lt;td&gt;4&lt;/td&gt;&lt;td&gt;377.08&lt;/td&gt;&lt;td&gt;-7.84%&lt;/td&gt;&lt;td&gt;51.25%&lt;/td&gt;&lt;td&gt;159995.SZ&lt;/td&gt;&lt;td&gt;芯片 ETF&lt;/td&gt;&lt;td&gt;266.02&lt;/td&gt;&lt;td&gt;-7.96%&lt;/td&gt;&lt;td&gt;2.23%&lt;/td&gt;&lt;td&gt;3.11&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;930713.CSI&lt;/td&gt;&lt;td&gt;CS 人工智能&lt;/td&gt;&lt;td&gt;4&lt;/td&gt;&lt;td&gt;387.25&lt;/td&gt;&lt;td&gt;-8.57%&lt;/td&gt;&lt;td&gt;66.76%&lt;/td&gt;&lt;td&gt;159819.SZ&lt;/td&gt;&lt;td&gt;人工智能 ETF&lt;/td&gt;&lt;td&gt;247.65&lt;/td&gt;&lt;td&gt;-8.40%&lt;/td&gt;&lt;td&gt;1.48%&lt;/td&gt;&lt;td&gt;2.67&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;h30590.CSI&lt;/td&gt;&lt;td&gt;机器人&lt;/td&gt;&lt;td&gt;9&lt;/td&gt;&lt;td&gt;414.77&lt;/td&gt;&lt;td&gt;-1.30%&lt;/td&gt;&lt;td&gt;35.11%&lt;/td&gt;&lt;td&gt;562500.SH&lt;/td&gt;&lt;td&gt;机器人 ETF&lt;/td&gt;&lt;td&gt;245.75&lt;/td&gt;&lt;td&gt;-1.13%&lt;/td&gt;&lt;td&gt;1.92%&lt;/td&gt;&lt;td&gt;6.27&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;931151.CSI&lt;/td&gt;&lt;td&gt;光伏产业&lt;/td&gt;&lt;td&gt;14&lt;/td&gt;&lt;td&gt;199.41&lt;/td&gt;&lt;td&gt;3.13%&lt;/td&gt;&lt;td&gt;44.79%&lt;/td&gt;&lt;td&gt;515790.SH&lt;/td&gt;&lt;td&gt;光伏 ETF&lt;/td&gt;&lt;td&gt;110.00&lt;/td&gt;&lt;td&gt;3.18%&lt;/td&gt;&lt;td&gt;4.33%&lt;/td&gt;&lt;td&gt;2.89&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;h30184.CSI&lt;/td&gt;&lt;td&gt;中证全指半导体&lt;/td&gt;&lt;td&gt;1&lt;/td&gt;&lt;td&gt;220.47&lt;/td&gt;&lt;td&gt;-7.89%&lt;/td&gt;&lt;td&gt;57.06%&lt;/td&gt;&lt;td&gt;512480.SH&lt;/td&gt;&lt;td&gt;半导体 ETF&lt;/td&gt;&lt;td&gt;220.47&lt;/td&gt;&lt;td&gt;-7.83%&lt;/td&gt;&lt;td&gt;2.51%&lt;/td&gt;&lt;td&gt;9.69&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;950180.CSI&lt;/td&gt;&lt;td&gt;科创 AI&lt;/td&gt;&lt;td&gt;11&lt;/td&gt;&lt;td&gt;151.30&lt;/td&gt;&lt;td&gt;-8.43%&lt;/td&gt;&lt;td&gt;61.88%&lt;/td&gt;&lt;td&gt;588790.SH&lt;/td&gt;&lt;td&gt;科创 AIETF&lt;/td&gt;&lt;td&gt;51.67&lt;/td&gt;&lt;td&gt;-8.17%&lt;/td&gt;&lt;td&gt;2.43%&lt;/td&gt;&lt;td&gt;0.90&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;930986.CSI&lt;/td&gt;&lt;td&gt;金融科技&lt;/td&gt;&lt;td&gt;8&lt;/td&gt;&lt;td&gt;148.04&lt;/td&gt;&lt;td&gt;-1.49%&lt;/td&gt;&lt;td&gt;16.10%&lt;/td&gt;&lt;td&gt;159851.SZ&lt;/td&gt;&lt;td&gt;金融科技 ETF&lt;/td&gt;&lt;td&gt;105.19&lt;/td&gt;&lt;td&gt;-1.42%&lt;/td&gt;&lt;td&gt;1.38%&lt;/td&gt;&lt;td&gt;1.08&lt;/td&gt;&lt;/tr&gt;&lt;/table&gt;
+资料来源：Wind、中国银河证券研究院
+# （二）金融地产
+上周金融地产板块整体表现相对稳健，多数细分指数实现小幅上涨或窄幅下跌，银行类指数成为板块内的领涨品种，证券类指数小幅调整，房地产指数表现平稳，整体跑赢多数宽基及行业指数。银行板块表现亮眼，中证银行指数周涨 $1.74\%$ ，800银行指数上涨 $1.69\%$ ，对应的银行ETF、银行ETF分别上涨 $1.94\%$ 、 $1.98\%$ ，成为板块内的核心领涨品种。证券类指数小幅调整，证券公司指数跌 $0.64\%$ ，证券龙头指数下跌 $1.08\%$ ，对应的证券ETF跌 $0.67\%$ ，整体波动相对较小。房地产板块表现平稳，中证全指房地产指数仅跌 $0.06\%$ ，内地地产指数微涨 $0.12\%$ ，对应的房地产ETF上涨 $0.06\%$ ，表现相对抗跌。从年初以来收益看，300非银指数涨幅 $9.27\%$ ，其余细分指数年初收益相对温和。
+表9：金融地产指数及 ETF 表现跟踪  
+&lt;table&gt;&lt;tr&gt;&lt;td&gt;指数代码&lt;/td&gt;&lt;td&gt;指数简称&lt;/td&gt;&lt;td&gt;基金数量&lt;/td&gt;&lt;td&gt;规模 (亿元)&lt;/td&gt;&lt;td&gt;周收益率&lt;/td&gt;&lt;td&gt;年初以来收益率&lt;/td&gt;&lt;td&gt;代表基金代码&lt;/td&gt;&lt;td&gt;代表基金简称&lt;/td&gt;&lt;td&gt;最新规模 (亿元)&lt;/td&gt;&lt;td&gt;周收益率&lt;/td&gt;&lt;td&gt;周波动率&lt;/td&gt;&lt;td&gt;融资买入额 (亿元)&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;399975.SZ&lt;/td&gt;&lt;td&gt;证券公司&lt;/td&gt;&lt;td&gt;14&lt;/td&gt;&lt;td&gt;1354.04&lt;/td&gt;&lt;td&gt;-0.64%&lt;/td&gt;&lt;td&gt;0.23%&lt;/td&gt;&lt;td&gt;512880.SH&lt;/td&gt;&lt;td&gt;证券 ETF&lt;/td&gt;&lt;td&gt;567.51&lt;/td&gt;&lt;td&gt;-0.67%&lt;/td&gt;&lt;td&gt;1.04%&lt;/td&gt;&lt;td&gt;20.42&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;399986.SZ&lt;/td&gt;&lt;td&gt;中证银行&lt;/td&gt;&lt;td&gt;9&lt;/td&gt;&lt;td&gt;237.90&lt;/td&gt;&lt;td&gt;1.74%&lt;/td&gt;&lt;td&gt;1.30%&lt;/td&gt;&lt;td&gt;512800.SH&lt;/td&gt;&lt;td&gt;银行 ETF&lt;/td&gt;&lt;td&gt;126.97&lt;/td&gt;&lt;td&gt;1.94%&lt;/td&gt;&lt;td&gt;1.14%&lt;/td&gt;&lt;td&gt;5.54&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;h30035.CSI&lt;/td&gt;&lt;td&gt;300 非银&lt;/td&gt;&lt;td&gt;1&lt;/td&gt;&lt;td&gt;201.77&lt;/td&gt;&lt;td&gt;-0.58%&lt;/td&gt;&lt;td&gt;9.27%&lt;/td&gt;&lt;td&gt;512070.SH&lt;/td&gt;&lt;td&gt;证券保险 ETF&lt;/td&gt;&lt;td&gt;201.77&lt;/td&gt;&lt;td&gt;-0.66%&lt;/td&gt;&lt;td&gt;1.04%&lt;/td&gt;&lt;td&gt;1.75&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;931775.CSI&lt;/td&gt;&lt;td&gt;中证全指房地产&lt;/td&gt;&lt;td&gt;2&lt;/td&gt;&lt;td&gt;80.36&lt;/td&gt;&lt;td&gt;-0.06%&lt;/td&gt;&lt;td&gt;5.74%&lt;/td&gt;&lt;td&gt;512200.SH&lt;/td&gt;&lt;td&gt;房地产 ETF&lt;/td&gt;&lt;td&gt;73.85&lt;/td&gt;&lt;td&gt;0.06%&lt;/td&gt;&lt;td&gt;2.54%&lt;/td&gt;&lt;td&gt;1.35&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;000018.SH&lt;/td&gt;&lt;td&gt;180 金融&lt;/td&gt;&lt;td&gt;1&lt;/td&gt;&lt;td&gt;46.46&lt;/td&gt;&lt;td&gt;0.68%&lt;/td&gt;&lt;td&gt;4.95%&lt;/td&gt;&lt;td&gt;510230.SH&lt;/td&gt;&lt;td&gt;金融 ETF&lt;/td&gt;&lt;td&gt;46.46&lt;/td&gt;&lt;td&gt;0.81%&lt;/td&gt;&lt;td&gt;0.87%&lt;/td&gt;&lt;td&gt;0.09&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;399437.SZ&lt;/td&gt;&lt;td&gt;证券龙头&lt;/td&gt;&lt;td&gt;1&lt;/td&gt;&lt;td&gt;42.54&lt;/td&gt;&lt;td&gt;-1.08%&lt;/td&gt;&lt;td&gt;1.84%&lt;/td&gt;&lt;td&gt;159993.SZ&lt;/td&gt;&lt;td&gt;证券 ETF 龙头&lt;/td&gt;&lt;td&gt;42.50&lt;/td&gt;&lt;td&gt;-1.16%&lt;/td&gt;&lt;td&gt;0.98%&lt;/td&gt;&lt;td&gt;0.44&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;h30022.CSI&lt;/td&gt;&lt;td&gt;800 银行&lt;/td&gt;&lt;td&gt;1&lt;/td&gt;&lt;td&gt;16.81&lt;/td&gt;&lt;td&gt;1.69%&lt;/td&gt;&lt;td&gt;0.80%&lt;/td&gt;&lt;td&gt;159887.SZ&lt;/td&gt;&lt;td&gt;银行 ETF&lt;/td&gt;&lt;td&gt;16.81&lt;/td&gt;&lt;td&gt;1.98%&lt;/td&gt;&lt;td&gt;1.01%&lt;/td&gt;&lt;td&gt;0.59&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;931412.CSI&lt;/td&gt;&lt;td&gt;证券公司 30&lt;/td&gt;&lt;td&gt;2&lt;/td&gt;&lt;td&gt;11.80&lt;/td&gt;&lt;td&gt;-0.82%&lt;/td&gt;&lt;td&gt;1.05%&lt;/td&gt;&lt;td&gt;159692.SZ&lt;/td&gt;&lt;td&gt;证券 ETF 东财&lt;/td&gt;&lt;td&gt;10.71&lt;/td&gt;&lt;td&gt;-0.91%&lt;/td&gt;&lt;td&gt;0.94%&lt;/td&gt;&lt;td&gt;0.24&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;000992.SH&lt;/td&gt;&lt;td&gt;金融地产&lt;/td&gt;&lt;td&gt;1&lt;/td&gt;&lt;td&gt;6.23&lt;/td&gt;&lt;td&gt;0.43%&lt;/td&gt;&lt;td&gt;4.13%&lt;/td&gt;&lt;td&gt;159940.SZ&lt;/td&gt;&lt;td&gt;金融地产 ETF&lt;/td&gt;&lt;td&gt;6.23&lt;/td&gt;&lt;td&gt;0.64%&lt;/td&gt;&lt;td&gt;1.12%&lt;/td&gt;&lt;td&gt;0.02&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;000948.CSI&lt;/td&gt;&lt;td&gt;内地地产&lt;/td&gt;&lt;td&gt;1&lt;/td&gt;&lt;td&gt;4.21&lt;/td&gt;&lt;td&gt;0.12%&lt;/td&gt;&lt;td&gt;1.65%&lt;/td&gt;&lt;td&gt;159768.SZ&lt;/td&gt;&lt;td&gt;房地产 ETF&lt;/td&gt;&lt;td&gt;4.21&lt;/td&gt;&lt;td&gt;0.34%&lt;/td&gt;&lt;td&gt;2.77%&lt;/td&gt;&lt;td&gt;0.00&lt;/td&gt;&lt;/tr&gt;&lt;/table&gt;
+资料来源：Wind、中国银河证券研究院
+# （三）医药
+上周医药板块整体表现震荡整理态势，多数细分指数实现小幅上涨或窄幅下跌，中证中药指数成为板块内的领涨品种，医疗、300医药等指数小幅上涨，创新药、生物医药等品种略有调整，板块整体表现稳健。中药板块表现突出，中证中药指数周涨 $2.34\%$ ，对应的中药ETF上涨 $2.29\%$ ，成为医药板块内涨幅最大的细分品种。医疗、综合医药类指数小幅上涨，中证医疗指数涨 $0.48\%$ ，300医药指数上涨 $1.11\%$ ，全指医药指数涨 $0.41\%$ ，对应的医疗ETF、医药ETF分别上涨 $0.56\%$ 、 $0.79\%$ ，表现相对积极。创新药、生物医药类品种略有调整，CS创新药指数跌 $0.38\%$ ，SHS创新药指数跌 $0.55\%$ ，对应的创新药ETF下跌 $0.60\%$ ，整体调整幅度较小。从年初以来收益看，SHS创新药指数涨幅达 $40.18\%$ ，CS创新药指数也有 $19.43\%$ 。
+表10：医药指数及 ETF 表现跟踪  
+&lt;table&gt;&lt;tr&gt;&lt;td&gt;指数代码&lt;/td&gt;&lt;td&gt;指数简称&lt;/td&gt;&lt;td&gt;基金数量&lt;/td&gt;&lt;td&gt;规模（亿元）&lt;/td&gt;&lt;td&gt;周收益率&lt;/td&gt;&lt;td&gt;年初以来收益率&lt;/td&gt;&lt;td&gt;代表基金代码&lt;/td&gt;&lt;td&gt;代表基金简称&lt;/td&gt;&lt;td&gt;最新规模（亿元）&lt;/td&gt;&lt;td&gt;周收益率&lt;/td&gt;&lt;td&gt;周波动率&lt;/td&gt;&lt;td&gt;融资买入额（亿元）&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;399989.SZ&lt;/td&gt;&lt;td&gt;中证医疗&lt;/td&gt;&lt;td&gt;4&lt;/td&gt;&lt;td&gt;330.00&lt;/td&gt;&lt;td&gt;0.48%&lt;/td&gt;&lt;td&gt;8.55%&lt;/td&gt;&lt;td&gt;512170.SH&lt;/td&gt;&lt;td&gt;医疗 ETF&lt;/td&gt;&lt;td&gt;277.73&lt;/td&gt;&lt;td&gt;0.56%&lt;/td&gt;&lt;td&gt;1.67%&lt;/td&gt;&lt;td&gt;10.36&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;931152.CSI&lt;/td&gt;&lt;td&gt;CS创新药&lt;/td&gt;&lt;td&gt;7&lt;/td&gt;&lt;td&gt;267.21&lt;/td&gt;&lt;td&gt;-0.38%&lt;/td&gt;&lt;td&gt;19.43%&lt;/td&gt;&lt;td&gt;159992.SZ&lt;/td&gt;&lt;td&gt;创新药 ETF&lt;/td&gt;&lt;td&gt;154.24&lt;/td&gt;&lt;td&gt;-0.60%&lt;/td&gt;&lt;td&gt;1.70%&lt;/td&gt;&lt;td&gt;2.98&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;000913.SH&lt;/td&gt;&lt;td&gt;300医药&lt;/td&gt;&lt;td&gt;1&lt;/td&gt;&lt;td&gt;181.91&lt;/td&gt;&lt;td&gt;1.11%&lt;/td&gt;&lt;td&gt;5.35%&lt;/td&gt;&lt;td&gt;512010.SH&lt;/td&gt;&lt;td&gt;医药 ETF&lt;/td&gt;&lt;td&gt;181.91&lt;/td&gt;&lt;td&gt;0.79%&lt;/td&gt;&lt;td&gt;1.41%&lt;/td&gt;&lt;td&gt;8.88&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;000991.SH&lt;/td&gt;&lt;td&gt;全指医药&lt;/td&gt;&lt;td&gt;1&lt;/td&gt;&lt;td&gt;52.84&lt;/td&gt;&lt;td&gt;0.41%&lt;/td&gt;&lt;td&gt;7.32%&lt;/td&gt;&lt;td&gt;159938.SZ&lt;/td&gt;&lt;td&gt;医药卫生 ETF&lt;/td&gt;&lt;td&gt;52.80&lt;/td&gt;&lt;td&gt;0.30%&lt;/td&gt;&lt;td&gt;1.58%&lt;/td&gt;&lt;td&gt;0.12&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;h30217.CSI&lt;/td&gt;&lt;td&gt;医疗器械&lt;/td&gt;&lt;td&gt;4&lt;/td&gt;&lt;td&gt;83.99&lt;/td&gt;&lt;td&gt;0.02%&lt;/td&gt;&lt;td&gt;4.32%&lt;/td&gt;&lt;td&gt;159883.SZ&lt;/td&gt;&lt;td&gt;医疗器械 ETF&lt;/td&gt;&lt;td&gt;66.81&lt;/td&gt;&lt;td&gt;-0.20%&lt;/td&gt;&lt;td&gt;1.20%&lt;/td&gt;&lt;td&gt;0.99&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;399441.SZ&lt;/td&gt;&lt;td&gt;生物医药&lt;/td&gt;&lt;td&gt;3&lt;/td&gt;&lt;td&gt;46.58&lt;/td&gt;&lt;td&gt;0.04%&lt;/td&gt;&lt;td&gt;8.04%&lt;/td&gt;&lt;td&gt;159859.SZ&lt;/td&gt;&lt;td&gt;生物医药 ETF&lt;/td&gt;&lt;td&gt;37.71&lt;/td&gt;&lt;td&gt;-0.25%&lt;/td&gt;&lt;td&gt;1.58%&lt;/td&gt;&lt;td&gt;0.45&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;930726.CSI&lt;/td&gt;&lt;td&gt;CS生医&lt;/td&gt;&lt;td&gt;1&lt;/td&gt;&lt;td&gt;37.48&lt;/td&gt;&lt;td&gt;-0.51%&lt;/td&gt;&lt;td&gt;9.57%&lt;/td&gt;&lt;td&gt;512290.SH&lt;/td&gt;&lt;td&gt;生物医药 ETF&lt;/td&gt;&lt;td&gt;37.48&lt;/td&gt;&lt;td&gt;-0.89%&lt;/td&gt;&lt;td&gt;1.49%&lt;/td&gt;&lt;td&gt;0.53&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;930641.CSI&lt;/td&gt;&lt;td&gt;中证中药&lt;/td&gt;&lt;td&gt;4&lt;/td&gt;&lt;td&gt;43.38&lt;/td&gt;&lt;td&gt;2.34%&lt;/td&gt;&lt;td&gt;-3.81%&lt;/td&gt;&lt;td&gt;560080.SH&lt;/td&gt;&lt;td&gt;中药 ETF&lt;/td&gt;&lt;td&gt;26.46&lt;/td&gt;&lt;td&gt;2.29%&lt;/td&gt;&lt;td&gt;1.01%&lt;/td&gt;&lt;td&gt;0.62&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;000933.SH&lt;/td&gt;&lt;td&gt;800医卫&lt;/td&gt;&lt;td&gt;1&lt;/td&gt;&lt;td&gt;24.72&lt;/td&gt;&lt;td&gt;0.79%&lt;/td&gt;&lt;td&gt;6.59%&lt;/td&gt;&lt;td&gt;159929.SZ&lt;/td&gt;&lt;td&gt;医药 ETF&lt;/td&gt;&lt;td&gt;25.40&lt;/td&gt;&lt;td&gt;0.52%&lt;/td&gt;&lt;td&gt;1.54%&lt;/td&gt;&lt;td&gt;0.51&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;931409.CSI&lt;/td&gt;&lt;td&gt;SHS创新药&lt;/td&gt;&lt;td&gt;4&lt;/td&gt;&lt;td&gt;22.37&lt;/td&gt;&lt;td&gt;-0.55%&lt;/td&gt;&lt;td&gt;40.18%&lt;/td&gt;&lt;td&gt;159622.SZ&lt;/td&gt;&lt;td&gt;创新药 ETF沪港深&lt;/td&gt;&lt;td&gt;8.53&lt;/td&gt;&lt;td&gt;-0.46%&lt;/td&gt;&lt;td&gt;2.00%&lt;/td&gt;&lt;td&gt;0.07&lt;/td&gt;&lt;/tr&gt;&lt;/table&gt;
+资料来源：Wind、中国银河证券研究院
+# （四）资源与公共服务
+上周资源与公共服务板块表现遭遇较大幅度下跌，黄金、有色金属类指数跌幅居前，稀土、钢铁、基建等品种也有不同程度调整，仅电力、煤炭指数表现相对抗跌，成为板块内的少数亮点。黄金相关品种跌幅最大，SSH黄金股票指数周跌 $12.68\%$ ，对应的黄金股ETF下跌 $11.71\%$ ，黄金类资产的短期调整压力显著。有色金属类指数同样表现低迷，有色金属指数跌 $9.22\%$ ，细分有色、工业有色指数跌幅均超 $8\%$ ，对应的有色金属ETF跌 $7.95\%$ ，周期资源类品种成为板块下跌的主要推手。稀土、钢铁、基建等品种也有明显调整，稀土产业指数跌 $3.42\%$ ，中证钢铁指数跌 $3.19\%$ ，基建工程指数跌 $3.10\%$ ，对应ETF均同步下跌。电力、煤炭指数表现相对抗跌，电力指数微涨 $0.01\%$ 中证煤炭指数仅跌 $0.23\%$ ，成为板块内为数不多的稳健品种。从年初以来收益看，SSH黄金股票指数涨幅达 $132.89\%$ ，有色金属、工业有色指数也超 $120\%$ ，周期资源类品种长期收益依旧可观。
+表11：资源与公共服务指数及 ETF 表现跟踪  
+&lt;table&gt;&lt;tr&gt;&lt;td&gt;指数代码&lt;/td&gt;&lt;td&gt;指数简称&lt;/td&gt;&lt;td&gt;基金数量&lt;/td&gt;&lt;td&gt;规模(亿元)&lt;/td&gt;&lt;td&gt;周收益率&lt;/td&gt;&lt;td&gt;年初以来收益率&lt;/td&gt;&lt;td&gt;代表基金代码&lt;/td&gt;&lt;td&gt;代表基金简称&lt;/td&gt;&lt;td&gt;最新规模(亿元)&lt;/td&gt;&lt;td&gt;周收益率&lt;/td&gt;&lt;td&gt;周波动率&lt;/td&gt;&lt;td&gt;融资买入额(亿元)&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;930598.CSI&lt;/td&gt;&lt;td&gt;稀土产业&lt;/td&gt;&lt;td&gt;4&lt;/td&gt;&lt;td&gt;133.71&lt;/td&gt;&lt;td&gt;-3.42%&lt;/td&gt;&lt;td&gt;90.43%&lt;/td&gt;&lt;td&gt;516150.SH&lt;/td&gt;&lt;td&gt;稀土 ETF 嘉实&lt;/td&gt;&lt;td&gt;89.19&lt;/td&gt;&lt;td&gt;-3.07%&lt;/td&gt;&lt;td&gt;4.12%&lt;/td&gt;&lt;td&gt;0.42&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;931238.CSI&lt;/td&gt;&lt;td&gt;SSH 黄金股票&lt;/td&gt;&lt;td&gt;6&lt;/td&gt;&lt;td&gt;263.86&lt;/td&gt;&lt;td&gt;-12.68%&lt;/td&gt;&lt;td&gt;132.89%&lt;/td&gt;&lt;td&gt;517520.SH&lt;/td&gt;&lt;td&gt;黄金股 ETF&lt;/td&gt;&lt;td&gt;152.17&lt;/td&gt;&lt;td&gt;-11.71%&lt;/td&gt;&lt;td&gt;5.39%&lt;/td&gt;&lt;td&gt;2.72&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;000819.SH&lt;/td&gt;&lt;td&gt;有色金属&lt;/td&gt;&lt;td&gt;1&lt;/td&gt;&lt;td&gt;352.65&lt;/td&gt;&lt;td&gt;-9.22%&lt;/td&gt;&lt;td&gt;121.17%&lt;/td&gt;&lt;td&gt;512400.SH&lt;/td&gt;&lt;td&gt;有色金属 ETF&lt;/td&gt;&lt;td&gt;352.65&lt;/td&gt;&lt;td&gt;-7.95%&lt;/td&gt;&lt;td&gt;6.32%&lt;/td&gt;&lt;td&gt;5.66&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;399998.SZ&lt;/td&gt;&lt;td&gt;中证煤炭&lt;/td&gt;&lt;td&gt;1&lt;/td&gt;&lt;td&gt;93.38&lt;/td&gt;&lt;td&gt;-0.23%&lt;/td&gt;&lt;td&gt;0.17%&lt;/td&gt;&lt;td&gt;515220.SH&lt;/td&gt;&lt;td&gt;煤炭 ETF&lt;/td&gt;&lt;td&gt;93.38&lt;/td&gt;&lt;td&gt;-0.18%&lt;/td&gt;&lt;td&gt;5.61%&lt;/td&gt;&lt;td&gt;4.08&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;h30199.CSI&lt;/td&gt;&lt;td&gt;电力指数&lt;/td&gt;&lt;td&gt;7&lt;/td&gt;&lt;td&gt;76.21&lt;/td&gt;&lt;td&gt;0.01%&lt;/td&gt;&lt;td&gt;1.50%&lt;/td&gt;&lt;td&gt;159611.SZ&lt;/td&gt;&lt;td&gt;电力 ETF&lt;/td&gt;&lt;td&gt;40.86&lt;/td&gt;&lt;td&gt;0.10%&lt;/td&gt;&lt;td&gt;1.17%&lt;/td&gt;&lt;td&gt;0.39&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;930632.CSI&lt;/td&gt;&lt;td&gt;CS 稀金属&lt;/td&gt;&lt;td&gt;4&lt;/td&gt;&lt;td&gt;127.16&lt;/td&gt;&lt;td&gt;-4.08%&lt;/td&gt;&lt;td&gt;107.93%&lt;/td&gt;&lt;td&gt;562800.SH&lt;/td&gt;&lt;td&gt;稀有金属 ETF&lt;/td&gt;&lt;td&gt;62.51&lt;/td&gt;&lt;td&gt;-3.61%&lt;/td&gt;&lt;td&gt;4.10%&lt;/td&gt;&lt;td&gt;1.15&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;930606.CSI&lt;/td&gt;&lt;td&gt;中证钢铁&lt;/td&gt;&lt;td&gt;1&lt;/td&gt;&lt;td&gt;45.13&lt;/td&gt;&lt;td&gt;-3.19%&lt;/td&gt;&lt;td&gt;31.60%&lt;/td&gt;&lt;td&gt;515210.SH&lt;/td&gt;&lt;td&gt;钢铁 ETF&lt;/td&gt;&lt;td&gt;45.13&lt;/td&gt;&lt;td&gt;-3.17%&lt;/td&gt;&lt;td&gt;3.83%&lt;/td&gt;&lt;td&gt;0.39&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;h11059.CSI&lt;/td&gt;&lt;td&gt;工业有色&lt;/td&gt;&lt;td&gt;3&lt;/td&gt;&lt;td&gt;151.98&lt;/td&gt;&lt;td&gt;-8.76%&lt;/td&gt;&lt;td&gt;123.87%&lt;/td&gt;&lt;td&gt;560860.SH&lt;/td&gt;&lt;td&gt;工业有色 ETF&lt;/td&gt;&lt;td&gt;136.24&lt;/td&gt;&lt;td&gt;-7.52%&lt;/td&gt;&lt;td&gt;6.34%&lt;/td&gt;&lt;td&gt;1.39&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;399995.SZ&lt;/td&gt;&lt;td&gt;基建工程&lt;/td&gt;&lt;td&gt;1&lt;/td&gt;&lt;td&gt;17.66&lt;/td&gt;&lt;td&gt;-3.10%&lt;/td&gt;&lt;td&gt;6.19%&lt;/td&gt;&lt;td&gt;516970.SH&lt;/td&gt;&lt;td&gt;基建 50ETF&lt;/td&gt;&lt;td&gt;17.66&lt;/td&gt;&lt;td&gt;-3.11%&lt;/td&gt;&lt;td&gt;2.37%&lt;/td&gt;&lt;td&gt;0.17&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;000811.CSI&lt;/td&gt;&lt;td&gt;细分有色&lt;/td&gt;&lt;td&gt;2&lt;/td&gt;&lt;td&gt;228.73&lt;/td&gt;&lt;td&gt;-9.16%&lt;/td&gt;&lt;td&gt;118.25%&lt;/td&gt;&lt;td&gt;159652.SZ&lt;/td&gt;&lt;td&gt;有色 50ETF&lt;/td&gt;&lt;td&gt;61.41&lt;/td&gt;&lt;td&gt;-7.62%&lt;/td&gt;&lt;td&gt;6.34%&lt;/td&gt;&lt;td&gt;0.55&lt;/td&gt;&lt;/tr&gt;&lt;/table&gt;
+资料来源：Wind、中国银河证券研究院
+# （五）消费
+上周消费板块整体表现分化，必选消费、旅游、消费50等品种实现大幅上涨，动漫游戏、农业、畜牧等细分赛道则出现调整。旅游、食品饮料等品种领涨，中证旅游指数周涨 $3.37\%$ ，细分食品指数涨 $3.02\%$ ，CS消费50指数涨 $3.22\%$ ，中证酒指数上涨 $2.65\%$ ，对应的旅游ETF、食品饮料ETF分别上涨 $3.13\%$ 、 $2.94\%$ 。800消费指数上涨 $2.46\%$ ，对应的消费ETF涨 $2.57\%$ 。动漫游戏、农业类品种则遭遇调整，动漫游戏指数跌 $3.15\%$ ，中证农业指数跌 $2.80\%$ ，中证畜牧指数跌 $2.11\%$ ，对应的游戏ETF、农业ETF同步下跌，成为板块内的弱势品种。从年初以来收益看，动漫游戏指数涨幅达 $52.58\%$ ，细分化工指数也有 $53.41\%$ ，消费类细分赛道长期收益表现亮眼。
+表12：消费指数及 ETF 表现跟踪  
+&lt;table&gt;&lt;tr&gt;&lt;td&gt;指数代码&lt;/td&gt;&lt;td&gt;指数简称&lt;/td&gt;&lt;td&gt;基金数 量&lt;/td&gt;&lt;td&gt;规模(亿 元)&lt;/td&gt;&lt;td&gt;周收益 率&lt;/td&gt;&lt;td&gt;年初以来收益 率&lt;/td&gt;&lt;td&gt;代表基金代 码&lt;/td&gt;&lt;td&gt;代表基金简称&lt;/td&gt;&lt;td&gt;最新规模(亿 元)&lt;/td&gt;&lt;td&gt;周收益 率&lt;/td&gt;&lt;td&gt;周波动 率&lt;/td&gt;&lt;td&gt;融资买入额(亿 元)&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;000813.CSI&lt;/td&gt;&lt;td&gt;细分化工&lt;/td&gt;&lt;td&gt;6&lt;/td&gt;&lt;td&gt;541.55&lt;/td&gt;&lt;td&gt;-2.42%&lt;/td&gt;&lt;td&gt;53.41%&lt;/td&gt;&lt;td&gt;159870.SZ&lt;/td&gt;&lt;td&gt;化工 ETF&lt;/td&gt;&lt;td&gt;340.47&lt;/td&gt;&lt;td&gt;-2.61%&lt;/td&gt;&lt;td&gt;4.36%&lt;/td&gt;&lt;td&gt;4.91&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;000932.SH&lt;/td&gt;&lt;td&gt;800 消费&lt;/td&gt;&lt;td&gt;5&lt;/td&gt;&lt;td&gt;244.89&lt;/td&gt;&lt;td&gt;2.46%&lt;/td&gt;&lt;td&gt;-5.68%&lt;/td&gt;&lt;td&gt;159928.SZ&lt;/td&gt;&lt;td&gt;消费 ETF&lt;/td&gt;&lt;td&gt;229.48&lt;/td&gt;&lt;td&gt;2.57%&lt;/td&gt;&lt;td&gt;1.28%&lt;/td&gt;&lt;td&gt;2.72&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;399987.SZ&lt;/td&gt;&lt;td&gt;中证酒&lt;/td&gt;&lt;td&gt;1&lt;/td&gt;&lt;td&gt;192.55&lt;/td&gt;&lt;td&gt;2.65%&lt;/td&gt;&lt;td&gt;-12.98%&lt;/td&gt;&lt;td&gt;512690.SH&lt;/td&gt;&lt;td&gt;酒 ETF&lt;/td&gt;&lt;td&gt;192.55&lt;/td&gt;&lt;td&gt;2.40%&lt;/td&gt;&lt;td&gt;1.52%&lt;/td&gt;&lt;td&gt;9.59&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;930901.CSI&lt;/td&gt;&lt;td&gt;动漫游戏&lt;/td&gt;&lt;td&gt;3&lt;/td&gt;&lt;td&gt;175.33&lt;/td&gt;&lt;td&gt;-3.15%&lt;/td&gt;&lt;td&gt;52.58%&lt;/td&gt;&lt;td&gt;159869.SZ&lt;/td&gt;&lt;td&gt;游戏 ETF&lt;/td&gt;&lt;td&gt;136.32&lt;/td&gt;&lt;td&gt;-3.21%&lt;/td&gt;&lt;td&gt;2.66%&lt;/td&gt;&lt;td&gt;1.63&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;930707.CSI&lt;/td&gt;&lt;td&gt;中证畜牧&lt;/td&gt;&lt;td&gt;4&lt;/td&gt;&lt;td&gt;72.71&lt;/td&gt;&lt;td&gt;-2.11%&lt;/td&gt;&lt;td&gt;9.11%&lt;/td&gt;&lt;td&gt;159865.SZ&lt;/td&gt;&lt;td&gt;养殖 ETF&lt;/td&gt;&lt;td&gt;49.91&lt;/td&gt;&lt;td&gt;-2.02%&lt;/td&gt;&lt;td&gt;1.77%&lt;/td&gt;&lt;td&gt;0.55&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;000815.CSI&lt;/td&gt;&lt;td&gt;细分食品&lt;/td&gt;&lt;td&gt;3&lt;/td&gt;&lt;td&gt;70.86&lt;/td&gt;&lt;td&gt;3.02%&lt;/td&gt;&lt;td&gt;-9.75%&lt;/td&gt;&lt;td&gt;515170.SH&lt;/td&gt;&lt;td&gt;食品饮料 ETF&lt;/td&gt;&lt;td&gt;53.68&lt;/td&gt;&lt;td&gt;2.94%&lt;/td&gt;&lt;td&gt;1.29%&lt;/td&gt;&lt;td&gt;0.67&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;930633.CSI&lt;/td&gt;&lt;td&gt;中证旅游&lt;/td&gt;&lt;td&gt;2&lt;/td&gt;&lt;td&gt;98.95&lt;/td&gt;&lt;td&gt;3.37%&lt;/td&gt;&lt;td&gt;16.21%&lt;/td&gt;&lt;td&gt;159766.SZ&lt;/td&gt;&lt;td&gt;旅游 ETF&lt;/td&gt;&lt;td&gt;91.07&lt;/td&gt;&lt;td&gt;3.13%&lt;/td&gt;&lt;td&gt;2.04%&lt;/td&gt;&lt;td&gt;0.86&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;930653.CSI&lt;/td&gt;&lt;td&gt;CS 食品 饮&lt;/td&gt;&lt;td&gt;1&lt;/td&gt;&lt;td&gt;55.41&lt;/td&gt;&lt;td&gt;2.26%&lt;/td&gt;&lt;td&gt;-6.88%&lt;/td&gt;&lt;td&gt;159736.SZ&lt;/td&gt;&lt;td&gt;食品饮料 ETF 天弘&lt;/td&gt;&lt;td&gt;55.37&lt;/td&gt;&lt;td&gt;1.89%&lt;/td&gt;&lt;td&gt;1.20%&lt;/td&gt;&lt;td&gt;0.10&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;931139.CSI&lt;/td&gt;&lt;td&gt;CS 消费 50&lt;/td&gt;&lt;td&gt;3&lt;/td&gt;&lt;td&gt;41.17&lt;/td&gt;&lt;td&gt;3.22%&lt;/td&gt;&lt;td&gt;-2.35%&lt;/td&gt;&lt;td&gt;515650.SH&lt;/td&gt;&lt;td&gt;消费 50ETF&lt;/td&gt;&lt;td&gt;39.43&lt;/td&gt;&lt;td&gt;3.11%&lt;/td&gt;&lt;td&gt;1.31%&lt;/td&gt;&lt;td&gt;0.54&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;000949.CSI&lt;/td&gt;&lt;td&gt;中证农业&lt;/td&gt;&lt;td&gt;4&lt;/td&gt;&lt;td&gt;35.84&lt;/td&gt;&lt;td&gt;-2.80%&lt;/td&gt;&lt;td&gt;24.05%&lt;/td&gt;&lt;td&gt;159825.SZ&lt;/td&gt;&lt;td&gt;农业 ETF&lt;/td&gt;&lt;td&gt;26.25&lt;/td&gt;&lt;td&gt;-3.12%&lt;/td&gt;&lt;td&gt;2.37%&lt;/td&gt;&lt;td&gt;0.37&lt;/td&gt;&lt;/tr&gt;&lt;/table&gt;
+资料来源：Wind、中国银河证券研究院
+# 四、热门高景气细分赛道
+上周，从资金流向看，资金开始从有色板块分流，有色金属ETF和有色金属ETF基金分别流出54.60亿元、46.95亿元，资金从传统周期板块向高景气科技制造赛道切换趋势显著，其中卫星ETF以18.29亿元的流入规模跻身全市场资金流入排名前10，低空经济、商业航天、电网设备等兼具政策支持与产业景气度的细分领域，成为接棒有色的资金主战场。
+# （一）商业航天
+上周商业航天板块指数及ETF表现呈现分化态势，卫星相关指数小幅下跌，国证航天指数实现正向收益，通用航空指数微跌，各指数年初以来均保持可观涨幅。卫星产业指数周收益率 $-3.33\%$ ，卫星通信指数周跌 $3.03\%$ ，对应卫星产业ETF、卫星ETF等产品跌幅在 $2.80\% - 3.36\%$ 之间；国证航天指数周涨 $0.99\%$ ，相关航空航天ETF、航天ETF分别上涨 $1.05\%$ 、 $1.31\%$ 。通用航空指数周跌 $0.62\%$ ，对应ETF跌幅在 $0.42\% - 1.00\%$ 之间。年初以来，卫星产业、卫星通信指数涨幅均超 $90\%$ 国证航天、通用航空指数涨幅分别为 $40.96\%$ 、 $33.86\%$ 。板块内代表基金中，卫星ETF最新规模185.70亿元，为商业航天板块规模最大的ETF产品。
+表13：商业航天细分指数核心特征对比  
+&lt;table&gt;&lt;tr&gt;&lt;td&gt;指数代码&lt;/td&gt;&lt;td&gt;指数简称&lt;/td&gt;&lt;td&gt;核心覆盖领域&lt;/td&gt;&lt;td&gt;基金数量&lt;/td&gt;&lt;td&gt;指数规模（亿元）&lt;/td&gt;&lt;td&gt;周收益率&lt;/td&gt;&lt;td&gt;年初以来收益率&lt;/td&gt;&lt;td&gt;核心特征&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;931594.CSI&lt;/td&gt;&lt;td&gt;卫星产业&lt;/td&gt;&lt;td&gt;卫星研发、制造、应用全产业链&lt;/td&gt;&lt;td&gt;5&lt;/td&gt;&lt;td&gt;134.98&lt;/td&gt;&lt;td&gt;-3.33%&lt;/td&gt;&lt;td&gt;95.49%&lt;/td&gt;&lt;td&gt;赛道核心指数,规模中等,年初收益最高,聚焦卫星全产业链&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;980018.CNI&lt;/td&gt;&lt;td&gt;卫星通信&lt;/td&gt;&lt;td&gt;卫星通信、终端设备、通信服务&lt;/td&gt;&lt;td&gt;1&lt;/td&gt;&lt;td&gt;182.2&lt;/td&gt;&lt;td&gt;-3.03%&lt;/td&gt;&lt;td&gt;92.12%&lt;/td&gt;&lt;td&gt;赛道规模最大指数,专注卫星通信细分,标的集中度高&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;CN5082.CNI&lt;/td&gt;&lt;td&gt;国证航天&lt;/td&gt;&lt;td&gt;航天装备、火箭制造、航天材料&lt;/td&gt;&lt;td&gt;4&lt;/td&gt;&lt;td&gt;64.94&lt;/td&gt;&lt;td&gt;0.99%&lt;/td&gt;&lt;td&gt;40.96%&lt;/td&gt;&lt;td&gt;聚焦航天制造核心环节,本周唯一正收益的航天类指数&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;399967.SZ&lt;/td&gt;&lt;td&gt;中证军工&lt;/td&gt;&lt;td&gt;军工整机、配套装备、国防军工&lt;/td&gt;&lt;td&gt;4&lt;/td&gt;&lt;td&gt;165.27&lt;/td&gt;&lt;td&gt;-0.47%&lt;/td&gt;&lt;td&gt;38.16%&lt;/td&gt;&lt;td&gt;军工全产业链覆盖，指数规模最大，表现偏稳健&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;931066.CSI&lt;/td&gt;&lt;td&gt;军工龙头&lt;/td&gt;&lt;td&gt;军工行业龙头企业、核心配套商&lt;/td&gt;&lt;td&gt;1&lt;/td&gt;&lt;td&gt;99.54&lt;/td&gt;&lt;td&gt;0.60%&lt;/td&gt;&lt;td&gt;34.95%&lt;/td&gt;&lt;td&gt;聚焦军工龙头标的，成分股数量少、市值规模大&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;980076.CNI&lt;/td&gt;&lt;td&gt;通用航空&lt;/td&gt;&lt;td&gt;航空器材、低空运营、通航服务&lt;/td&gt;&lt;td&gt;6&lt;/td&gt;&lt;td&gt;20.83&lt;/td&gt;&lt;td&gt;-0.62%&lt;/td&gt;&lt;td&gt;33.86%&lt;/td&gt;&lt;td&gt;覆盖低空经济配套，指数规模最小，收益表现最弱&lt;/td&gt;&lt;/tr&gt;&lt;/table&gt;
+资料来源：Wind、中国银河证券研究院
+表14：商业航天赛道 ETF 产品全样本差异解析  
+&lt;table&gt;&lt;tr&gt;&lt;td&gt;指数对应赛道&lt;/td&gt;&lt;td&gt;基金代码&lt;/td&gt;&lt;td&gt;基金简称&lt;/td&gt;&lt;td&gt;最新规模(亿元)&lt;/td&gt;&lt;td&gt;周收益率&lt;/td&gt;&lt;td&gt;周波动率&lt;/td&gt;&lt;td&gt;融资买入额(亿元)&lt;/td&gt;&lt;td&gt;产品核心差异&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;卫星产业&lt;/td&gt;&lt;td&gt;159218.SZ&lt;/td&gt;&lt;td&gt;卫星产业 ETF&lt;/td&gt;&lt;td&gt;43.53&lt;/td&gt;&lt;td&gt;-3.36%&lt;/td&gt;&lt;td&gt;2.86%&lt;/td&gt;&lt;td&gt;1.16&lt;/td&gt;&lt;td&gt;覆盖卫星全产业链,标的分散,波动率中等&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;卫星产业&lt;/td&gt;&lt;td&gt;563230.SH&lt;/td&gt;&lt;td&gt;卫星 ETF&lt;/td&gt;&lt;td&gt;48.81&lt;/td&gt;&lt;td&gt;-3.04%&lt;/td&gt;&lt;td&gt;2.71%&lt;/td&gt;&lt;td&gt;2.34&lt;/td&gt;&lt;td&gt;侧重卫星制造环节,跌幅收窄,融资活跃度更高&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;卫星通信&lt;/td&gt;&lt;td&gt;159206.SZ&lt;/td&gt;&lt;td&gt;卫星 ETF&lt;/td&gt;&lt;td&gt;185.7&lt;/td&gt;&lt;td&gt;-2.80%&lt;/td&gt;&lt;td&gt;2.87%&lt;/td&gt;&lt;td&gt;7.18&lt;/td&gt;&lt;td&gt;赛道龙头产品,规模超百亿,融资买入额居首,流动性最佳&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;通用航空&lt;/td&gt;&lt;td&gt;159378.SZ&lt;/td&gt;&lt;td&gt;通用航空 ETF&lt;/td&gt;&lt;td&gt;7.34&lt;/td&gt;&lt;td&gt;-0.42%&lt;/td&gt;&lt;td&gt;2.41%&lt;/td&gt;&lt;td&gt;0.08&lt;/td&gt;&lt;td&gt;通用航空规模最大基金,跌幅最小,波动率最低&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;通用航空&lt;/td&gt;&lt;td&gt;159230.SZ&lt;/td&gt;&lt;td&gt;通用航空 ETF 华夏&lt;/td&gt;&lt;td&gt;7.26&lt;/td&gt;&lt;td&gt;-0.60%&lt;/td&gt;&lt;td&gt;2.30%&lt;/td&gt;&lt;td&gt;0&lt;/td&gt;&lt;td&gt;标的侧重通航运营,无融资买入,交易活跃度低&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;通用航空&lt;/td&gt;&lt;td&gt;159231.SZ&lt;/td&gt;&lt;td&gt;通用航空 ETF 华宝&lt;/td&gt;&lt;td&gt;2.07&lt;/td&gt;&lt;td&gt;-1.00%&lt;/td&gt;&lt;td&gt;2.23%&lt;/td&gt;&lt;td&gt;0&lt;/td&gt;&lt;td&gt;赛道规模最小基金,跌幅最大,流动性最弱&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;国证航天&lt;/td&gt;&lt;td&gt;159227.SZ&lt;/td&gt;&lt;td&gt;航空航天 ETF&lt;/td&gt;&lt;td&gt;34.17&lt;/td&gt;&lt;td&gt;1.05%&lt;/td&gt;&lt;td&gt;2.90%&lt;/td&gt;&lt;td&gt;1.31&lt;/td&gt;&lt;td&gt;航天制造核心标的,规模中等,融资活跃度较高&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;国证航天&lt;/td&gt;&lt;td&gt;159267.SZ&lt;/td&gt;&lt;td&gt;航天 ETF&lt;/td&gt;&lt;td&gt;18.06&lt;/td&gt;&lt;td&gt;1.31%&lt;/td&gt;&lt;td&gt;2.85%&lt;/td&gt;&lt;td&gt;0.35&lt;/td&gt;&lt;td&gt;侧重火箭制造环节,上周涨幅最高,规模偏小&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;中证军工&lt;/td&gt;&lt;td&gt;512660.SH&lt;/td&gt;&lt;td&gt;军工 ETF&lt;/td&gt;&lt;td&gt;95.31&lt;/td&gt;&lt;td&gt;-0.41%&lt;/td&gt;&lt;td&gt;2.63%&lt;/td&gt;&lt;td&gt;1.61&lt;/td&gt;&lt;td&gt;军工赛道龙头,规模最大,融资买入额居前,流动性最佳&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;中证军工&lt;/td&gt;&lt;td&gt;512680.SH&lt;/td&gt;&lt;td&gt;军工 ETF 广发&lt;/td&gt;&lt;td&gt;55.31&lt;/td&gt;&lt;td&gt;-0.27%&lt;/td&gt;&lt;td&gt;2.57%&lt;/td&gt;&lt;td&gt;0.11&lt;/td&gt;&lt;td&gt;侧重军工配套环节,跌幅最小,波动率偏低&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;军工龙头&lt;/td&gt;&lt;td&gt;512710.SH&lt;/td&gt;&lt;td&gt;军工龙头 ETF&lt;/td&gt;&lt;td&gt;99.54&lt;/td&gt;&lt;td&gt;0.48%&lt;/td&gt;&lt;td&gt;2.58%&lt;/td&gt;&lt;td&gt;2.55&lt;/td&gt;&lt;td&gt;聚焦军工龙头企业,本周正收益,融资活跃度赛道最高&lt;/td&gt;&lt;/tr&gt;&lt;/table&gt;
+资料来源：Wind、中国银河证券研究院
+# （二）电网设备
+上周电网设备板块整体表现偏强，多数指数实现正向收益，仅新能源电池指数小幅下跌，各指数年初以来均保持较高的正收益水平。电网设备主题指数周涨 $1.09\%$ ，恒生A股电网设备指数微涨 $0.34\%$ ，CS电池指数周涨 $0.98\%$ ，新能电池指数周跌 $0.38\%$ ，新能源电池指数为板块内唯一跌幅超 $1\%$ 的指数，周收益率 $-1.07\%$ 。对应ETF产品表现与指数基本同步，电网设备ETF（159326.SZ）涨 $0.87\%$ ，电池ETF汇添富（159796.SZ）涨 $0.95\%$ ，储能电池ETF广发（159305.SZ）跌 $1.33\%$ 年初以来，恒生A股电网设备指数涨幅达 $98.02\%$ ，电网设备主题、CS电池指数涨幅也超 $55\%$ ，板块整体长期收益表现亮眼。电网设备ETF（159326.SZ）最新规模171.89亿元，为板块内规模最大的ETF产品。
+表15：电网设备细分指数核心特征对比  
+&lt;table&gt;&lt;tr&gt;&lt;td&gt;指数代码&lt;/td&gt;&lt;td&gt;指数简称&lt;/td&gt;&lt;td&gt;核心覆盖领域&lt;/td&gt;&lt;td&gt;基金数量&lt;/td&gt;&lt;td&gt;指数规模（亿元）&lt;/td&gt;&lt;td&gt;周收益率&lt;/td&gt;&lt;td&gt;年初以来收益率&lt;/td&gt;&lt;td&gt;核心特征&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;HSCAUPG.HI&lt;/td&gt;&lt;td&gt;恒生 A股 电网设备&lt;/td&gt;&lt;td&gt;港股 + A 股电网设备龙头&lt;/td&gt;&lt;td&gt;2&lt;/td&gt;&lt;td&gt;29.73&lt;/td&gt;&lt;td&gt;0.34%&lt;/td&gt;&lt;td&gt;98.02%&lt;/td&gt;&lt;td&gt;跨市场覆盖，年初收益最高，标的以龙头企业为主&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;931719.CSI&lt;/td&gt;&lt;td&gt;CS 电池&lt;/td&gt;&lt;td&gt;动力电池、电池材料、电池制造&lt;/td&gt;&lt;td&gt;6&lt;/td&gt;&lt;td&gt;188.41&lt;/td&gt;&lt;td&gt;0.98%&lt;/td&gt;&lt;td&gt;64.36%&lt;/td&gt;&lt;td&gt;电池赛道核心指数，基金数量最多，覆盖电池全产业链&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;980032.CNI&lt;/td&gt;&lt;td&gt;新能电池&lt;/td&gt;&lt;td&gt;新能源汽车电池、储能电池&lt;/td&gt;&lt;td&gt;5&lt;/td&gt;&lt;td&gt;158.29&lt;/td&gt;&lt;td&gt;0.38%&lt;/td&gt;&lt;td&gt;61.51%&lt;/td&gt;&lt;td&gt;侧重新能源电池应用，成分股偏向中上游材料&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;980027.CNI&lt;/td&gt;&lt;td&gt;新能源电池&lt;/td&gt;&lt;td&gt;储能电池、电池储能系统&lt;/td&gt;&lt;td&gt;2&lt;/td&gt;&lt;td&gt;49.63&lt;/td&gt;&lt;td&gt;-1.07%&lt;/td&gt;&lt;td&gt;56.30%&lt;/td&gt;&lt;td&gt;聚焦储能电池细分，指数规模最小，本周唯一下跌指数&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;931994.CSI&lt;/td&gt;&lt;td&gt;电网设备主题&lt;/td&gt;&lt;td&gt;特高压、电网设备、配电装备&lt;/td&gt;&lt;td&gt;1&lt;/td&gt;&lt;td&gt;171.32&lt;/td&gt;&lt;td&gt;1.09%&lt;/td&gt;&lt;td&gt;55.67%&lt;/td&gt;&lt;td&gt;赛道核心指数，规模最大，聚焦电网建设核心环节&lt;/td&gt;&lt;/tr&gt;&lt;/table&gt;
+资料来源：Wind、中国银河证券研究院
+表16：电网设备赛道 ETF 产品全样本差异解析  
+&lt;table&gt;&lt;tr&gt;&lt;td&gt;指数对应赛道&lt;/td&gt;&lt;td&gt;基金代码&lt;/td&gt;&lt;td&gt;基金简称&lt;/td&gt;&lt;td&gt;最新规模(亿元)&lt;/td&gt;&lt;td&gt;周收益率&lt;/td&gt;&lt;td&gt;周波动率&lt;/td&gt;&lt;td&gt;融资买入额(亿元)&lt;/td&gt;&lt;td&gt;产品核心差异&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;电网设备主题&lt;/td&gt;&lt;td&gt;159326.SZ&lt;/td&gt;&lt;td&gt;电网设备 ETF&lt;/td&gt;&lt;td&gt;171.89&lt;/td&gt;&lt;td&gt;0.87%&lt;/td&gt;&lt;td&gt;3.09%&lt;/td&gt;&lt;td&gt;3.7&lt;/td&gt;&lt;td&gt;赛道绝对龙头,规模超百亿,融资买入额居首,流动性最佳&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;恒生 A 股电网设备&lt;/td&gt;&lt;td&gt;159320.SZ&lt;/td&gt;&lt;td&gt;电网设备 ETF 广发&lt;/td&gt;&lt;td&gt;4.85&lt;/td&gt;&lt;td&gt;0.26%&lt;/td&gt;&lt;td&gt;2.85%&lt;/td&gt;&lt;td&gt;0&lt;/td&gt;&lt;td&gt;跨市场标的,规模最小,无融资买入,交易活跃度低&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;恒生 A 股电网设备&lt;/td&gt;&lt;td&gt;561380.SH&lt;/td&gt;&lt;td&gt;电网 ETF&lt;/td&gt;&lt;td&gt;24.9&lt;/td&gt;&lt;td&gt;0.43%&lt;/td&gt;&lt;td&gt;2.87%&lt;/td&gt;&lt;td&gt;0.38&lt;/td&gt;&lt;td&gt;侧重 A 股电网龙头,规模中等,波动率偏低&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;CS 电池&lt;/td&gt;&lt;td&gt;159796.SZ&lt;/td&gt;&lt;td&gt;电池 ETF 汇添富&lt;/td&gt;&lt;td&gt;87.74&lt;/td&gt;&lt;td&gt;0.95%&lt;/td&gt;&lt;td&gt;2.45%&lt;/td&gt;&lt;td&gt;0.31&lt;/td&gt;&lt;td&gt;电池赛道龙头,规模最大,标的覆盖电池全产业链,流动性佳&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;CS 电池&lt;/td&gt;&lt;td&gt;561910.SH&lt;/td&gt;&lt;td&gt;电池 ETF&lt;/td&gt;&lt;td&gt;53.52&lt;/td&gt;&lt;td&gt;0.87%&lt;/td&gt;&lt;td&gt;2.31%&lt;/td&gt;&lt;td&gt;0.47&lt;/td&gt;&lt;td&gt;侧重动力电池制造,波动率最低,融资活跃度中等&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;CS 电池&lt;/td&gt;&lt;td&gt;159147.SZ&lt;/td&gt;&lt;td&gt;电池 ETF 南方&lt;/td&gt;&lt;td&gt;14.29&lt;/td&gt;&lt;td&gt;0.74%&lt;/td&gt;&lt;td&gt;2.47%&lt;/td&gt;&lt;td&gt;0&lt;/td&gt;&lt;td&gt;规模偏小,标的偏向电池材料,无融资买入&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;新能电池&lt;/td&gt;&lt;td&gt;159755.SZ&lt;/td&gt;&lt;td&gt;电池 ETF&lt;/td&gt;&lt;td&gt;132.59&lt;/td&gt;&lt;td&gt;0.19%&lt;/td&gt;&lt;td&gt;2.27%&lt;/td&gt;&lt;td&gt;0.92&lt;/td&gt;&lt;td&gt;新能电池龙头,规模超百亿,融资买入额居电池类首位&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;新能电池&lt;/td&gt;&lt;td&gt;159767.SZ&lt;/td&gt;&lt;td&gt;电池龙头 ETF&lt;/td&gt;&lt;td&gt;2.97&lt;/td&gt;&lt;td&gt;0.23%&lt;/td&gt;&lt;td&gt;2.28%&lt;/td&gt;&lt;td&gt;0&lt;/td&gt;&lt;td&gt;聚焦电池龙头企业,规模最小,波动率偏低&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;新能源电池&lt;/td&gt;&lt;td&gt;159305.SZ&lt;/td&gt;&lt;td&gt;储能电池 ETF 广发&lt;/td&gt;&lt;td&gt;2.51&lt;/td&gt;&lt;td&gt;-1.33%&lt;/td&gt;&lt;td&gt;2.22%&lt;/td&gt;&lt;td&gt;0&lt;/td&gt;&lt;td&gt;储能电池细分标的,规模最小,本周跌幅最大&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;新能源电池&lt;/td&gt;&lt;td&gt;159566.SZ&lt;/td&gt;&lt;td&gt;储能电池 ETF 易方达&lt;/td&gt;&lt;td&gt;46.74&lt;/td&gt;&lt;td&gt;-1.04%&lt;/td&gt;&lt;td&gt;2.36%&lt;/td&gt;&lt;td&gt;0.34&lt;/td&gt;&lt;td&gt;储能电池核心标的,规模中等,跌幅收窄,有一定融资活跃度&lt;/td&gt;&lt;/tr&gt;&lt;/table&gt;
+资料来源：Wind、中国银河证券研究院
+# 五、跨境指数及ETF表现
+上周跨境指数及ETF表现整体偏弱，多数港股相关指数出现不同程度下跌，港股科技、恒生50等品种跌幅居前，而港股高股息、港股消费类指数表现相对抗跌，成为跨境板块内的亮点。港股科
+技类品种跌幅显著，港股通科技指数周跌 $6.22\%$ ，恒生科技指数此前已获大额资金流入但依旧表现低迷，恒生50指数跌 $4.41\%$ ，恒生指数、恒生中国企业指数也跌超 $3\%$ ，对应的港股通科技30ETF跌 $6.31\%$ ，恒生ETF跌 $3.27\%$ 。高股息、消费类跨境指数表现稳健，恒生港股通高股息低波动指数涨 $1.47\%$ ，港股通高股息指数涨 $1.05\%$ ，成为为数不多实现正收益的跨境指数；港股通消费指数表现亮眼，周涨 $4.14\%$ ，对应的港股消费ETF易方达涨 $3.98\%$ ，成为跨境板块内的领涨品种。从年初以来收益看，恒生生物科技指数涨幅达 $76.52\%$ ，港股通消费、恒生指数也超 $30\%$ ，跨境指数长期收益表现可观。
+表17：核心跨境指数及 ETF 表现跟踪  
+&lt;table&gt;&lt;tr&gt;&lt;td&gt;指数代码&lt;/td&gt;&lt;td&gt;指数简称&lt;/td&gt;&lt;td&gt;基金数量&lt;/td&gt;&lt;td&gt;规模(亿元)&lt;/td&gt;&lt;td&gt;周收益率&lt;/td&gt;&lt;td&gt;年初以来收益率&lt;/td&gt;&lt;td&gt;代表基金代码&lt;/td&gt;&lt;td&gt;代表</t>
   </si>
   <si>
     <t># 宽基流出边际趋缓，个人投资者积极ETF 周报 2026 年 1 月第 3 期
@@ -11901,6 +12179,9 @@
 &lt;table&gt;&lt;tr&gt;&lt;td colspan="4"&gt;25Q3前30重仓股&lt;/td&gt;&lt;td colspan="7"&gt;25Q4前30重仓股&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;股票代码&lt;/td&gt;&lt;td&gt;股票简称&lt;/td&gt;&lt;td&gt;所属行业&lt;/td&gt;&lt;td&gt;持股市值(亿元)&lt;/td&gt;&lt;td&gt;股票代码&lt;/td&gt;&lt;td&gt;股票简称&lt;/td&gt;&lt;td&gt;所属行业&lt;/td&gt;&lt;td&gt;持股市值(亿元)&lt;/td&gt;&lt;td colspan="2"&gt;25Q4净增持(亿元)&lt;/td&gt;&lt;td&gt;是否为基金整体前30重仓股&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;300750.SZ&lt;/td&gt;&lt;td&gt;宁德时代&lt;/td&gt;&lt;td&gt;电力设备&lt;/td&gt;&lt;td&gt;14.1&lt;/td&gt;&lt;td&gt;601899.SH&lt;/td&gt;&lt;td&gt;紫金矿业&lt;/td&gt;&lt;td&gt;有色金属&lt;/td&gt;&lt;td&gt;18.0&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;td&gt;3.6&lt;/td&gt;&lt;td&gt;是&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;300502.SZ&lt;/td&gt;&lt;td&gt;新易盛&lt;/td&gt;&lt;td&gt;通信&lt;/td&gt;&lt;td&gt;12.1&lt;/td&gt;&lt;td&gt;300308.SZ&lt;/td&gt;&lt;td&gt;中际旭创&lt;/td&gt;&lt;td&gt;通信&lt;/td&gt;&lt;td&gt;13.8&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;td&gt;-0.9&lt;/td&gt;&lt;td&gt;是&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;601899.SH&lt;/td&gt;&lt;td&gt;紫金矿业&lt;/td&gt;&lt;td&gt;有色金属&lt;/td&gt;&lt;td&gt;12.0&lt;/td&gt;&lt;td&gt;300502.SZ&lt;/td&gt;&lt;td&gt;新易盛&lt;/td&gt;&lt;td&gt;通信&lt;/td&gt;&lt;td&gt;13.1&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;td&gt;-1.1&lt;/td&gt;&lt;td&gt;是&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;300308.SZ&lt;/td&gt;&lt;td&gt;中际旭创&lt;/td&gt;&lt;td&gt;通信&lt;/td&gt;&lt;td&gt;9.8&lt;/td&gt;&lt;td&gt;001309.SZ&lt;/td&gt;&lt;td&gt;德明利&lt;/td&gt;&lt;td&gt;电子&lt;/td&gt;&lt;td&gt;10.7&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;td&gt;8.2&lt;/td&gt;&lt;td&gt;否&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;9988.HK&lt;/td&gt;&lt;td&gt;阿里巴巴-W&lt;/td&gt;&lt;td&gt;商贸零售&lt;/td&gt;&lt;td&gt;8.5&lt;/td&gt;&lt;td&gt;601318.SH&lt;/td&gt;&lt;td&gt;中国平安&lt;/td&gt;&lt;td&gt;非银金融&lt;/td&gt;&lt;td&gt;10.2&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;td&gt;5.3&lt;/td&gt;&lt;td&gt;是&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;002475.SZ&lt;/td&gt;&lt;td&gt;立讯精密&lt;/td&gt;&lt;td&gt;电子&lt;/td&gt;&lt;td&gt;7.8&lt;/td&gt;&lt;td&gt;688525.SH&lt;/td&gt;&lt;td&gt;佰维存储&lt;/td&gt;&lt;td&gt;电子&lt;/td&gt;&lt;td&gt;10.1&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;td&gt;9.8&lt;/td&gt;&lt;td&gt;否&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;688256.SH&lt;/td&gt;&lt;td&gt;寒武纪-U&lt;/td&gt;&lt;td&gt;电子&lt;/td&gt;&lt;td&gt;7.7&lt;/td&gt;&lt;td&gt;300475.SZ&lt;/td&gt;&lt;td&gt;香农芯创&lt;/td&gt;&lt;td&gt;电子&lt;/td&gt;&lt;td&gt;9.8&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;td&gt;8.8&lt;/td&gt;&lt;td&gt;否&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;601138.SH&lt;/td&gt;&lt;td&gt;工业富联&lt;/td&gt;&lt;td&gt;电子&lt;/td&gt;&lt;td&gt;7.7&lt;/td&gt;&lt;td&gt;301308.SZ&lt;/td&gt;&lt;td&gt;江波龙&lt;/td&gt;&lt;td&gt;电子&lt;/td&gt;&lt;td&gt;9.1&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;td&gt;7.8&lt;/td&gt;&lt;td&gt;否&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;0700.HK&lt;/td&gt;&lt;td&gt;腾讯控股&lt;/td&gt;&lt;td&gt;传媒&lt;/td&gt;&lt;td&gt;7.4&lt;/td&gt;&lt;td&gt;300750.SZ&lt;/td&gt;&lt;td&gt;宁德时代&lt;/td&gt;&lt;td&gt;电力设备&lt;/td&gt;&lt;td&gt;8.1&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;td&gt;-5.0&lt;/td&gt;&lt;td&gt;是&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;002371.SZ&lt;/td&gt;&lt;td&gt;北方华创&lt;/td&gt;&lt;td&gt;电子&lt;/td&gt;&lt;td&gt;6.4&lt;/td&gt;&lt;td&gt;603986.SH&lt;/td&gt;&lt;td&gt;兆易创新&lt;/td&gt;&lt;td&gt;电子&lt;/td&gt;&lt;td&gt;7.7&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;td&gt;6.0&lt;/td&gt;&lt;td&gt;是&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;600809.SH&lt;/td&gt;&lt;td&gt;山西汾酒&lt;/td&gt;&lt;td&gt;食品饮料&lt;/td&gt;&lt;td&gt;6.2&lt;/td&gt;&lt;td&gt;688627.SH&lt;/td&gt;&lt;td&gt;精智达&lt;/td&gt;&lt;td&gt;机械设备&lt;/td&gt;&lt;td&gt;7.0&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;td&gt;6.2&lt;/td&gt;&lt;td&gt;否&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;000568.SZ&lt;/td&gt;&lt;td&gt;泸州老窖&lt;/td&gt;&lt;td&gt;食品饮料&lt;/td&gt;&lt;td&gt;5.7&lt;/td&gt;&lt;td&gt;0700.HK&lt;/td&gt;&lt;td&gt;腾讯控股&lt;/td&gt;&lt;td&gt;传媒&lt;/td&gt;&lt;td&gt;6.9&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;td&gt;0.4&lt;/td&gt;&lt;td&gt;是&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;1801.HK&lt;/td&gt;&lt;td&gt;信达生物&lt;/td&gt;&lt;td&gt;医药生物&lt;/td&gt;&lt;td&gt;5.4&lt;/td&gt;&lt;td&gt;300223.SZ&lt;/td&gt;&lt;td&gt;北京君正&lt;/td&gt;&lt;td&gt;电子&lt;/td&gt;&lt;td&gt;6.8&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;td&gt;6.0&lt;/td&gt;&lt;td&gt;否&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;9636.HK&lt;/td&gt;&lt;td&gt;九方智投控股&lt;/td&gt;&lt;td&gt;非银金融&lt;/td&gt;&lt;td&gt;4.9&lt;/td&gt;&lt;td&gt;9988.HK&lt;/td&gt;&lt;td&gt;阿里巴巴-W&lt;/td&gt;&lt;td&gt;商贸零售&lt;/td&gt;&lt;td&gt;5.8&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;td&gt;-1.2&lt;/td&gt;&lt;td&gt;是&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;600519.SH&lt;/td&gt;&lt;td&gt;贵州茅台&lt;/td&gt;&lt;td&gt;食品饮料&lt;/td&gt;&lt;td&gt;4.8&lt;/td&gt;&lt;td&gt;002028.SZ&lt;/td&gt;&lt;td&gt;思源电气&lt;/td&gt;&lt;td&gt;电力设备&lt;/td&gt;&lt;td&gt;5.8&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;td&gt;4.7&lt;/td&gt;&lt;td&gt;否&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;002558.SZ&lt;/td&gt;&lt;td&gt;巨人网络&lt;/td&gt;&lt;td&gt;传媒&lt;/td&gt;&lt;td&gt;4.1&lt;/td&gt;&lt;td&gt;688256.SH&lt;/td&gt;&lt;td&gt;寒武纪-U&lt;/td&gt;&lt;td&gt;电子&lt;/td&gt;&lt;td&gt;5.7&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;td&gt;-2.0&lt;/td&gt;&lt;td&gt;是&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;002241.SZ&lt;/td&gt;&lt;td&gt;歌尔股份&lt;/td&gt;&lt;td&gt;电子&lt;/td&gt;&lt;td&gt;4.1&lt;/td&gt;&lt;td&gt;688233.SH&lt;/td&gt;&lt;td&gt;神工股份&lt;/td&gt;&lt;td&gt;电子&lt;/td&gt;&lt;td&gt;5.6&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;td&gt;5.0&lt;/td&gt;&lt;td&gt;否&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;688347.SH&lt;/td&gt;&lt;td&gt;华虹公司&lt;/td&gt;&lt;td&gt;电子&lt;/td&gt;&lt;td&gt;4.0&lt;/td&gt;&lt;td&gt;000807.SZ&lt;/td&gt;&lt;td&gt;云铝股份&lt;/td&gt;&lt;td&gt;有色金属&lt;/td&gt;&lt;td&gt;5.5&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;td&gt;4.1&lt;/td&gt;&lt;td&gt;否&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;0981.HK&lt;/td&gt;&lt;td&gt;中芯国际&lt;/td&gt;&lt;td&gt;电子&lt;/td&gt;&lt;td&gt;3.8&lt;/td&gt;&lt;td&gt;688228.SH&lt;/td&gt;&lt;td&gt;开普云&lt;/td&gt;&lt;td&gt;计算机&lt;/td&gt;&lt;td&gt;5.4&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;td&gt;4.9&lt;/td&gt;&lt;td&gt;否&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;600418.SH&lt;/td&gt;&lt;td&gt;江淮汽车&lt;/td&gt;&lt;td&gt;汽车&lt;/td&gt;&lt;td&gt;3.8&lt;/td&gt;&lt;td&gt;002371.SZ&lt;/td&gt;&lt;td&gt;北方华创&lt;/td&gt;&lt;td&gt;电子&lt;/td&gt;&lt;td&gt;5.2&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;td&gt;-1.2&lt;/td&gt;&lt;td&gt;是&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;000776.SZ&lt;/td&gt;&lt;td&gt;广发证券&lt;/td&gt;&lt;td&gt;非银金融&lt;/td&gt;&lt;td&gt;3.8&lt;/td&gt;&lt;td&gt;601601.SH&lt;/td&gt;&lt;td&gt;中国太保&lt;/td&gt;&lt;td&gt;非银金融&lt;/td&gt;&lt;td&gt;5.2&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;td&gt;1.9&lt;/td&gt;&lt;td&gt;否&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;603119.SH&lt;/td&gt;&lt;td&gt;浙江荣泰&lt;/td&gt;&lt;td&gt;汽车&lt;/td&gt;&lt;td&gt;3.8&lt;/td&gt;&lt;td&gt;600519.SH&lt;/td&gt;&lt;td&gt;贵州茅台&lt;/td&gt;&lt;td&gt;食品饮料&lt;/td&gt;&lt;td&gt;5.0&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;td&gt;0.4&lt;/td&gt;&lt;td&gt;是&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;603179.SH&lt;/td&gt;&lt;td&gt;新泉股份&lt;/td&gt;&lt;td&gt;汽车&lt;/td&gt;&lt;td&gt;3.7&lt;/td&gt;&lt;td&gt;688008.SH&lt;/td&gt;&lt;td&gt;澜起科技&lt;/td&gt;&lt;td&gt;电子&lt;/td&gt;&lt;td&gt;4.5&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;td&gt;4.7&lt;/td&gt;&lt;td&gt;否&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;1810.HK&lt;/td&gt;&lt;td&gt;小米集团-W&lt;/td&gt;&lt;td&gt;电子&lt;/td&gt;&lt;td&gt;3.6&lt;/td&gt;&lt;td&gt;600030.SH&lt;/td&gt;&lt;td&gt;中信证券&lt;/td&gt;&lt;td&gt;非银金融&lt;/td&gt;&lt;td&gt;4.5&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;td&gt;4.5&lt;/td&gt;&lt;td&gt;否&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;601398.SH&lt;/td&gt;&lt;td&gt;工商银行&lt;/td&gt;&lt;td&gt;</t>
   </si>
   <si>
+    <t>2026-02-10 13:14:03</t>
+  </si>
+  <si>
     <t>2026-02-05 12:05:25</t>
   </si>
   <si>
@@ -12938,7 +13219,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I69"/>
+  <dimension ref="A1:I71"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -12993,13 +13274,13 @@
         <v>9</v>
       </c>
       <c r="E2">
-        <v>38930</v>
+        <v>22894</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="G2" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -13010,13 +13291,13 @@
         <v>10</v>
       </c>
       <c r="E3">
-        <v>9965</v>
+        <v>39035</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G3" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -13027,13 +13308,13 @@
         <v>11</v>
       </c>
       <c r="E4">
-        <v>10767</v>
+        <v>38930</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="G4" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -13044,13 +13325,13 @@
         <v>12</v>
       </c>
       <c r="E5">
-        <v>21216</v>
+        <v>9965</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="G5" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -13061,13 +13342,13 @@
         <v>13</v>
       </c>
       <c r="E6">
-        <v>21161</v>
+        <v>10767</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="G6" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -13078,19 +13359,13 @@
         <v>14</v>
       </c>
       <c r="E7">
-        <v>23905</v>
+        <v>21216</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="G7" t="s">
-        <v>146</v>
-      </c>
-      <c r="H7" t="s">
-        <v>147</v>
-      </c>
-      <c r="I7" t="s">
-        <v>210</v>
+        <v>150</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -13101,19 +13376,13 @@
         <v>15</v>
       </c>
       <c r="E8">
-        <v>24647</v>
+        <v>21161</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="G8" t="s">
-        <v>146</v>
-      </c>
-      <c r="H8" t="s">
-        <v>148</v>
-      </c>
-      <c r="I8" t="s">
-        <v>211</v>
+        <v>150</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -13124,19 +13393,19 @@
         <v>16</v>
       </c>
       <c r="E9">
-        <v>25292</v>
+        <v>23905</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="G9" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="H9" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="I9" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -13147,19 +13416,19 @@
         <v>17</v>
       </c>
       <c r="E10">
-        <v>16250</v>
+        <v>24647</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="G10" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="H10" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="I10" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -13170,19 +13439,19 @@
         <v>18</v>
       </c>
       <c r="E11">
-        <v>9665</v>
+        <v>25292</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="G11" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="H11" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="I11" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -13193,19 +13462,19 @@
         <v>19</v>
       </c>
       <c r="E12">
-        <v>4260</v>
+        <v>16250</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="G12" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="H12" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="I12" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -13216,19 +13485,19 @@
         <v>20</v>
       </c>
       <c r="E13">
-        <v>37628</v>
+        <v>9665</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G13" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="H13" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="I13" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -13239,19 +13508,19 @@
         <v>21</v>
       </c>
       <c r="E14">
-        <v>12404</v>
+        <v>4260</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="G14" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="H14" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="I14" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -13262,19 +13531,19 @@
         <v>22</v>
       </c>
       <c r="E15">
-        <v>11531</v>
+        <v>37628</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="G15" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="H15" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="I15" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -13285,19 +13554,19 @@
         <v>23</v>
       </c>
       <c r="E16">
-        <v>21162</v>
+        <v>12404</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="G16" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="H16" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="I16" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="17" spans="2:9">
@@ -13308,19 +13577,19 @@
         <v>24</v>
       </c>
       <c r="E17">
-        <v>4172</v>
+        <v>11531</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="G17" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="H17" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="I17" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
     </row>
     <row r="18" spans="2:9">
@@ -13331,19 +13600,19 @@
         <v>25</v>
       </c>
       <c r="E18">
-        <v>22539</v>
+        <v>21162</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="G18" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="H18" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="I18" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
     </row>
     <row r="19" spans="2:9">
@@ -13354,19 +13623,19 @@
         <v>26</v>
       </c>
       <c r="E19">
-        <v>62767</v>
+        <v>4172</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="G19" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="H19" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="I19" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
     </row>
     <row r="20" spans="2:9">
@@ -13377,19 +13646,19 @@
         <v>27</v>
       </c>
       <c r="E20">
-        <v>22850</v>
+        <v>22539</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="G20" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="H20" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="I20" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
     </row>
     <row r="21" spans="2:9">
@@ -13400,19 +13669,19 @@
         <v>28</v>
       </c>
       <c r="E21">
-        <v>10973</v>
+        <v>62767</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="G21" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="H21" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="I21" t="s">
-        <v>210</v>
+        <v>226</v>
       </c>
     </row>
     <row r="22" spans="2:9">
@@ -13423,19 +13692,19 @@
         <v>29</v>
       </c>
       <c r="E22">
-        <v>16107</v>
+        <v>22850</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="G22" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="H22" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="I22" t="s">
-        <v>210</v>
+        <v>227</v>
       </c>
     </row>
     <row r="23" spans="2:9">
@@ -13446,19 +13715,19 @@
         <v>30</v>
       </c>
       <c r="E23">
-        <v>46003</v>
+        <v>10973</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="G23" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="H23" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="I23" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
     </row>
     <row r="24" spans="2:9">
@@ -13469,19 +13738,19 @@
         <v>31</v>
       </c>
       <c r="E24">
-        <v>12608</v>
+        <v>16107</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="G24" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="H24" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="I24" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
     </row>
     <row r="25" spans="2:9">
@@ -13492,19 +13761,19 @@
         <v>32</v>
       </c>
       <c r="E25">
-        <v>10916</v>
+        <v>46003</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="G25" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="H25" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="I25" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
     </row>
     <row r="26" spans="2:9">
@@ -13515,19 +13784,19 @@
         <v>33</v>
       </c>
       <c r="E26">
-        <v>35942</v>
+        <v>12608</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="G26" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="H26" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="I26" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
     </row>
     <row r="27" spans="2:9">
@@ -13538,19 +13807,19 @@
         <v>34</v>
       </c>
       <c r="E27">
-        <v>8511</v>
+        <v>10916</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="G27" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="H27" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="I27" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
     </row>
     <row r="28" spans="2:9">
@@ -13561,19 +13830,19 @@
         <v>35</v>
       </c>
       <c r="E28">
-        <v>5255</v>
+        <v>35942</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="G28" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="H28" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="I28" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
     </row>
     <row r="29" spans="2:9">
@@ -13584,19 +13853,19 @@
         <v>36</v>
       </c>
       <c r="E29">
-        <v>10511</v>
+        <v>8511</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="G29" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="H29" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="I29" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
     </row>
     <row r="30" spans="2:9">
@@ -13607,19 +13876,19 @@
         <v>37</v>
       </c>
       <c r="E30">
-        <v>33090</v>
+        <v>5255</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="G30" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="H30" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="I30" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
     </row>
     <row r="31" spans="2:9">
@@ -13630,19 +13899,19 @@
         <v>38</v>
       </c>
       <c r="E31">
-        <v>6101</v>
+        <v>10511</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="G31" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="H31" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="I31" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
     </row>
     <row r="32" spans="2:9">
@@ -13653,19 +13922,19 @@
         <v>39</v>
       </c>
       <c r="E32">
-        <v>112699</v>
+        <v>33090</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="G32" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="H32" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="I32" t="s">
-        <v>220</v>
+        <v>232</v>
       </c>
     </row>
     <row r="33" spans="2:9">
@@ -13676,19 +13945,19 @@
         <v>40</v>
       </c>
       <c r="E33">
-        <v>24158</v>
+        <v>6101</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="G33" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="H33" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="I33" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
     </row>
     <row r="34" spans="2:9">
@@ -13699,19 +13968,19 @@
         <v>41</v>
       </c>
       <c r="E34">
-        <v>4228</v>
+        <v>112699</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="G34" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="H34" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="I34" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
     </row>
     <row r="35" spans="2:9">
@@ -13722,19 +13991,19 @@
         <v>42</v>
       </c>
       <c r="E35">
-        <v>27826</v>
+        <v>24158</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="G35" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="H35" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="I35" t="s">
-        <v>219</v>
+        <v>234</v>
       </c>
     </row>
     <row r="36" spans="2:9">
@@ -13745,19 +14014,19 @@
         <v>43</v>
       </c>
       <c r="E36">
-        <v>6123</v>
+        <v>4228</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="G36" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="H36" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="I36" t="s">
-        <v>227</v>
+        <v>235</v>
       </c>
     </row>
     <row r="37" spans="2:9">
@@ -13768,19 +14037,19 @@
         <v>44</v>
       </c>
       <c r="E37">
-        <v>5355</v>
+        <v>27826</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="G37" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="H37" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="I37" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
     </row>
     <row r="38" spans="2:9">
@@ -13791,16 +14060,16 @@
         <v>45</v>
       </c>
       <c r="E38">
-        <v>6128</v>
+        <v>6123</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="G38" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="H38" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="I38" t="s">
         <v>232</v>
@@ -13814,19 +14083,19 @@
         <v>46</v>
       </c>
       <c r="E39">
-        <v>24769</v>
+        <v>5355</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="G39" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="H39" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="I39" t="s">
-        <v>229</v>
+        <v>236</v>
       </c>
     </row>
     <row r="40" spans="2:9">
@@ -13837,19 +14106,19 @@
         <v>47</v>
       </c>
       <c r="E40">
-        <v>30273</v>
+        <v>6128</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="G40" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="H40" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="I40" t="s">
-        <v>225</v>
+        <v>237</v>
       </c>
     </row>
     <row r="41" spans="2:9">
@@ -13860,19 +14129,19 @@
         <v>48</v>
       </c>
       <c r="E41">
-        <v>6972</v>
+        <v>24769</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="G41" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="H41" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="I41" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
     </row>
     <row r="42" spans="2:9">
@@ -13883,19 +14152,19 @@
         <v>49</v>
       </c>
       <c r="E42">
-        <v>26762</v>
+        <v>30273</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="G42" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="H42" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="I42" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
     </row>
     <row r="43" spans="2:9">
@@ -13906,19 +14175,19 @@
         <v>50</v>
       </c>
       <c r="E43">
-        <v>6986</v>
+        <v>6972</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="G43" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="H43" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="I43" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
     </row>
     <row r="44" spans="2:9">
@@ -13929,19 +14198,19 @@
         <v>51</v>
       </c>
       <c r="E44">
-        <v>9091</v>
+        <v>26762</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="G44" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="H44" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="I44" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
     </row>
     <row r="45" spans="2:9">
@@ -13952,19 +14221,19 @@
         <v>52</v>
       </c>
       <c r="E45">
-        <v>6120</v>
+        <v>6986</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="G45" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="H45" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="I45" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
     </row>
     <row r="46" spans="2:9">
@@ -13975,19 +14244,19 @@
         <v>53</v>
       </c>
       <c r="E46">
-        <v>19977</v>
+        <v>9091</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="G46" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="H46" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="I46" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
     </row>
     <row r="47" spans="2:9">
@@ -13998,19 +14267,19 @@
         <v>54</v>
       </c>
       <c r="E47">
-        <v>22690</v>
+        <v>6120</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="G47" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="H47" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="I47" t="s">
-        <v>215</v>
+        <v>242</v>
       </c>
     </row>
     <row r="48" spans="2:9">
@@ -14021,19 +14290,19 @@
         <v>55</v>
       </c>
       <c r="E48">
-        <v>33187</v>
+        <v>19977</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="G48" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="H48" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="I48" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
     </row>
     <row r="49" spans="2:9">
@@ -14044,19 +14313,19 @@
         <v>56</v>
       </c>
       <c r="E49">
-        <v>20204</v>
+        <v>22690</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="G49" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="H49" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="I49" t="s">
-        <v>229</v>
+        <v>220</v>
       </c>
     </row>
     <row r="50" spans="2:9">
@@ -14067,19 +14336,19 @@
         <v>57</v>
       </c>
       <c r="E50">
-        <v>13243</v>
+        <v>33187</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="G50" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="H50" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="I50" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
     </row>
     <row r="51" spans="2:9">
@@ -14090,19 +14359,19 @@
         <v>58</v>
       </c>
       <c r="E51">
-        <v>25392</v>
+        <v>20204</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="G51" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="H51" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="I51" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
     </row>
     <row r="52" spans="2:9">
@@ -14113,19 +14382,19 @@
         <v>59</v>
       </c>
       <c r="E52">
-        <v>22238</v>
+        <v>13243</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="G52" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="H52" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="I52" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
     </row>
     <row r="53" spans="2:9">
@@ -14136,19 +14405,19 @@
         <v>60</v>
       </c>
       <c r="E53">
-        <v>18580</v>
+        <v>25392</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="G53" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="H53" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="I53" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
     </row>
     <row r="54" spans="2:9">
@@ -14159,19 +14428,19 @@
         <v>61</v>
       </c>
       <c r="E54">
-        <v>36304</v>
+        <v>22238</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="G54" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="H54" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="I54" t="s">
-        <v>230</v>
+        <v>247</v>
       </c>
     </row>
     <row r="55" spans="2:9">
@@ -14182,19 +14451,19 @@
         <v>62</v>
       </c>
       <c r="E55">
-        <v>16765</v>
+        <v>18580</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="G55" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="H55" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="I55" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
     </row>
     <row r="56" spans="2:9">
@@ -14205,19 +14474,19 @@
         <v>63</v>
       </c>
       <c r="E56">
-        <v>4240</v>
+        <v>36304</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="G56" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="H56" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="I56" t="s">
-        <v>245</v>
+        <v>235</v>
       </c>
     </row>
     <row r="57" spans="2:9">
@@ -14228,19 +14497,19 @@
         <v>64</v>
       </c>
       <c r="E57">
-        <v>26664</v>
+        <v>16765</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="G57" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="H57" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="I57" t="s">
-        <v>240</v>
+        <v>249</v>
       </c>
     </row>
     <row r="58" spans="2:9">
@@ -14251,19 +14520,19 @@
         <v>65</v>
       </c>
       <c r="E58">
-        <v>103108</v>
+        <v>4240</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="G58" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="H58" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="I58" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
     </row>
     <row r="59" spans="2:9">
@@ -14274,19 +14543,19 @@
         <v>66</v>
       </c>
       <c r="E59">
-        <v>19891</v>
+        <v>26664</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="G59" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="H59" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="I59" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="60" spans="2:9">
@@ -14297,19 +14566,19 @@
         <v>67</v>
       </c>
       <c r="E60">
-        <v>19380</v>
+        <v>103108</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="G60" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="H60" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="I60" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
     </row>
     <row r="61" spans="2:9">
@@ -14320,19 +14589,19 @@
         <v>68</v>
       </c>
       <c r="E61">
-        <v>19311</v>
+        <v>19891</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="G61" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="H61" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="I61" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
     </row>
     <row r="62" spans="2:9">
@@ -14343,19 +14612,19 @@
         <v>69</v>
       </c>
       <c r="E62">
-        <v>36832</v>
+        <v>19380</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="G62" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="H62" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="I62" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
     </row>
     <row r="63" spans="2:9">
@@ -14366,19 +14635,19 @@
         <v>70</v>
       </c>
       <c r="E63">
-        <v>8667</v>
+        <v>19311</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="G63" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="H63" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="I63" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
     </row>
     <row r="64" spans="2:9">
@@ -14389,19 +14658,19 @@
         <v>71</v>
       </c>
       <c r="E64">
-        <v>32362</v>
+        <v>36832</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="G64" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="H64" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="I64" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
     </row>
     <row r="65" spans="2:9">
@@ -14412,19 +14681,19 @@
         <v>72</v>
       </c>
       <c r="E65">
-        <v>70953</v>
+        <v>8667</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="G65" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="H65" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="I65" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
     </row>
     <row r="66" spans="2:9">
@@ -14435,19 +14704,19 @@
         <v>73</v>
       </c>
       <c r="E66">
-        <v>13129</v>
+        <v>32362</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="G66" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="H66" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="I66" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
     </row>
     <row r="67" spans="2:9">
@@ -14458,19 +14727,19 @@
         <v>74</v>
       </c>
       <c r="E67">
-        <v>23039</v>
+        <v>70953</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="G67" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="H67" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="I67" t="s">
-        <v>242</v>
+        <v>257</v>
       </c>
     </row>
     <row r="68" spans="2:9">
@@ -14481,19 +14750,19 @@
         <v>75</v>
       </c>
       <c r="E68">
-        <v>40247</v>
+        <v>13129</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="G68" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="H68" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="I68" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
     </row>
     <row r="69" spans="2:9">
@@ -14504,19 +14773,65 @@
         <v>76</v>
       </c>
       <c r="E69">
+        <v>23039</v>
+      </c>
+      <c r="F69" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="G69" t="s">
+        <v>151</v>
+      </c>
+      <c r="H69" t="s">
+        <v>212</v>
+      </c>
+      <c r="I69" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="70" spans="2:9">
+      <c r="B70" t="s">
+        <v>77</v>
+      </c>
+      <c r="C70" t="s">
+        <v>77</v>
+      </c>
+      <c r="E70">
+        <v>40247</v>
+      </c>
+      <c r="F70" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="G70" t="s">
+        <v>151</v>
+      </c>
+      <c r="H70" t="s">
+        <v>213</v>
+      </c>
+      <c r="I70" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="71" spans="2:9">
+      <c r="B71" t="s">
+        <v>78</v>
+      </c>
+      <c r="C71" t="s">
+        <v>78</v>
+      </c>
+      <c r="E71">
         <v>76404</v>
       </c>
-      <c r="F69" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="G69" t="s">
-        <v>146</v>
-      </c>
-      <c r="H69" t="s">
-        <v>209</v>
-      </c>
-      <c r="I69" t="s">
-        <v>255</v>
+      <c r="F71" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="G71" t="s">
+        <v>151</v>
+      </c>
+      <c r="H71" t="s">
+        <v>214</v>
+      </c>
+      <c r="I71" t="s">
+        <v>260</v>
       </c>
     </row>
   </sheetData>
